--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>Data category</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>The largest collection of surface ocean carbon observations</t>
+  </si>
+  <si>
+    <t>https://socat.info/wp-content/uploads/2017/06/cropped-socat_cat.png</t>
   </si>
   <si>
     <t>Data categories</t>
@@ -930,7 +933,9 @@
       <c r="M6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
@@ -2021,9 +2026,10 @@
     <hyperlink r:id="rId13" ref="N5"/>
     <hyperlink r:id="rId14" ref="D6"/>
     <hyperlink r:id="rId15" ref="E6"/>
+    <hyperlink r:id="rId16" ref="N6"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
-  <legacyDrawing r:id="rId17"/>
+  <drawing r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -2042,7 +2048,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>7</v>
@@ -2059,10 +2065,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -2070,16 +2076,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -2087,18 +2093,18 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -2106,10 +2112,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -2117,25 +2123,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2177,76 +2183,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="X1" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
@@ -2267,7 +2273,7 @@
         <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
@@ -2277,7 +2283,7 @@
         <v>monthly</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>5</v>
@@ -2287,7 +2293,7 @@
         <v>1.0°</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
@@ -2297,7 +2303,7 @@
         <v>1982 - 2022</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>7</v>
@@ -2323,14 +2329,14 @@
         <v>https://doi.org/10.25921/m5wx-ja34</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V2" s="12" t="str">
         <f>product_listing!M2</f>
         <v/>
       </c>
       <c r="W2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X2" s="5" t="str">
         <f>product_listing!L2</f>
@@ -2644,9 +2650,9 @@
         <f>product_listing!C6</f>
         <v>Bakker et al. (2016)</v>
       </c>
-      <c r="D6" s="8" t="str">
+      <c r="D6" s="10" t="str">
         <f>product_listing!N6</f>
-        <v/>
+        <v>https://socat.info/wp-content/uploads/2017/06/cropped-socat_cat.png</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" ref="E6:F6" si="15">if(not(isblank($B6)), E5, "")</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
     <t>Data category</t>
   </si>
@@ -268,13 +268,40 @@
     <t>https://socat.info/wp-content/uploads/2017/06/cropped-socat_cat.png</t>
   </si>
   <si>
+    <t>GLODAPv2</t>
+  </si>
+  <si>
+    <t>Lauvset et al. (2024)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-2047-2024</t>
+  </si>
+  <si>
+    <t>https://glodap.info/</t>
+  </si>
+  <si>
+    <t>Water column, Open Ocean</t>
+  </si>
+  <si>
+    <t>1960 - 2024</t>
+  </si>
+  <si>
+    <t>Discrete bottle</t>
+  </si>
+  <si>
+    <t>Biogeochemical data collected from discrete bottle samples</t>
+  </si>
+  <si>
+    <t>Adjustments are applied by comparing data in the deep ocean (&gt;2000 m) using a crossover and inversion method as described by Johnson et al. (2001).</t>
+  </si>
+  <si>
+    <t>https://glodap.info/wp-content/uploads/2017/09/cropped-glodap_logo_trans.png</t>
+  </si>
+  <si>
     <t>Data categories</t>
   </si>
   <si>
     <t>Coastal</t>
-  </si>
-  <si>
-    <t>Discrete bottle</t>
   </si>
   <si>
     <t>Time series stations</t>
@@ -938,13 +965,40 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5"/>
@@ -2027,9 +2081,12 @@
     <hyperlink r:id="rId14" ref="D6"/>
     <hyperlink r:id="rId15" ref="E6"/>
     <hyperlink r:id="rId16" ref="N6"/>
+    <hyperlink r:id="rId17" ref="D7"/>
+    <hyperlink r:id="rId18" ref="E7"/>
+    <hyperlink r:id="rId19" ref="N7"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <drawing r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -2048,7 +2105,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>7</v>
@@ -2065,10 +2122,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -2076,16 +2133,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -2093,18 +2150,18 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>30</v>
@@ -2112,10 +2169,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -2123,25 +2180,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2183,76 +2240,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -2273,7 +2330,7 @@
         <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
@@ -2283,7 +2340,7 @@
         <v>monthly</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>5</v>
@@ -2293,7 +2350,7 @@
         <v>1.0°</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
@@ -2303,7 +2360,7 @@
         <v>1982 - 2022</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>7</v>
@@ -2329,14 +2386,14 @@
         <v>https://doi.org/10.25921/m5wx-ja34</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V2" s="12" t="str">
         <f>product_listing!M2</f>
         <v/>
       </c>
       <c r="W2" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="X2" s="5" t="str">
         <f>product_listing!L2</f>
@@ -2735,27 +2792,27 @@
     <row r="7">
       <c r="A7" s="8" t="str">
         <f>product_listing!A7</f>
-        <v/>
+        <v>Observations</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>product_listing!B7</f>
-        <v/>
+        <v>GLODAPv2</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>product_listing!C7</f>
-        <v/>
-      </c>
-      <c r="D7" s="8" t="str">
+        <v>Lauvset et al. (2024)</v>
+      </c>
+      <c r="D7" s="10" t="str">
         <f>product_listing!N7</f>
-        <v/>
+        <v>https://glodap.info/wp-content/uploads/2017/09/cropped-glodap_logo_trans.png</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" ref="E7:F7" si="19">if(not(isblank($B7)), E6, "")</f>
-        <v/>
+        <v>fa-solid fa-hourglass-start</v>
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>Temporal resolution</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>product_listing!G7</f>
@@ -2763,11 +2820,11 @@
       </c>
       <c r="H7" s="8" t="str">
         <f t="shared" ref="H7:I7" si="20">if(not(isblank($B7)), H6, "")</f>
-        <v/>
+        <v>fa-solid fa-ruler-horizontal</v>
       </c>
       <c r="I7" s="8" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>Spatial resolution</v>
       </c>
       <c r="J7" s="8" t="str">
         <f>product_listing!F7</f>
@@ -2775,55 +2832,55 @@
       </c>
       <c r="K7" s="8" t="str">
         <f t="shared" ref="K7:L7" si="21">if(not(isblank($B7)), K6, "")</f>
-        <v/>
+        <v>fa-solid fa-calendar-days</v>
       </c>
       <c r="L7" s="8" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>Period</v>
       </c>
       <c r="M7" s="8" t="str">
         <f>product_listing!I7</f>
-        <v/>
+        <v>1960 - 2024</v>
       </c>
       <c r="N7" s="8" t="str">
         <f t="shared" ref="N7:O7" si="22">if(not(isblank($B7)), N6, "")</f>
-        <v/>
+        <v>fa-solid fa-globe</v>
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>Spatial domains</v>
       </c>
       <c r="P7" s="8" t="str">
         <f>product_listing!H7</f>
-        <v/>
+        <v>Water column, Open Ocean</v>
       </c>
       <c r="Q7" s="8" t="str">
         <f>product_listing!K7</f>
-        <v/>
+        <v>Biogeochemical data collected from discrete bottle samples</v>
       </c>
       <c r="R7" s="8" t="str">
         <f>product_listing!C7</f>
-        <v/>
-      </c>
-      <c r="S7" s="8" t="str">
+        <v>Lauvset et al. (2024)</v>
+      </c>
+      <c r="S7" s="10" t="str">
         <f>product_listing!D7</f>
-        <v/>
-      </c>
-      <c r="T7" s="8" t="str">
+        <v>https://doi.org/10.5194/essd-16-2047-2024</v>
+      </c>
+      <c r="T7" s="10" t="str">
         <f>product_listing!E7</f>
-        <v/>
+        <v>https://glodap.info/</v>
       </c>
       <c r="U7" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Highlight</v>
       </c>
       <c r="V7" s="12" t="str">
         <f>product_listing!M7</f>
-        <v/>
+        <v>Adjustments are applied by comparing data in the deep ocean (&gt;2000 m) using a crossover and inversion method as described by Johnson et al. (2001).</v>
       </c>
       <c r="W7" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Method</v>
       </c>
       <c r="X7" s="5" t="str">
         <f>product_listing!L7</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -385,6 +385,9 @@
     <t>card-detail.content</t>
   </si>
   <si>
+    <t>fa-solid fa-globe</t>
+  </si>
+  <si>
     <t>fa-solid fa-hourglass-start</t>
   </si>
   <si>
@@ -392,9 +395,6 @@
   </si>
   <si>
     <t>fa-solid fa-calendar-days</t>
-  </si>
-  <si>
-    <t>fa-solid fa-globe</t>
   </si>
   <si>
     <t>Highlight</t>
@@ -2226,18 +2226,18 @@
     <col customWidth="1" min="1" max="2" width="17.25"/>
     <col customWidth="1" min="3" max="3" width="20.38"/>
     <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="19.75"/>
-    <col customWidth="1" min="6" max="6" width="15.5"/>
-    <col customWidth="1" min="7" max="7" width="15.38"/>
-    <col customWidth="1" min="8" max="8" width="19.88"/>
-    <col customWidth="1" min="9" max="9" width="14.88"/>
+    <col customWidth="1" min="5" max="5" width="16.25"/>
+    <col customWidth="1" min="6" max="6" width="14.88"/>
+    <col customWidth="1" min="7" max="7" width="17.13"/>
+    <col customWidth="1" min="8" max="8" width="19.75"/>
+    <col customWidth="1" min="9" max="9" width="15.5"/>
     <col customWidth="1" min="10" max="10" width="15.38"/>
-    <col customWidth="1" min="11" max="11" width="19.25"/>
+    <col customWidth="1" min="11" max="11" width="19.88"/>
     <col customWidth="1" min="12" max="12" width="14.88"/>
     <col customWidth="1" min="13" max="13" width="15.38"/>
-    <col customWidth="1" min="14" max="14" width="16.25"/>
+    <col customWidth="1" min="14" max="14" width="19.25"/>
     <col customWidth="1" min="15" max="15" width="14.88"/>
-    <col customWidth="1" min="16" max="16" width="17.13"/>
+    <col customWidth="1" min="16" max="16" width="15.38"/>
     <col customWidth="1" min="17" max="17" width="11.63"/>
     <col customWidth="1" min="18" max="18" width="20.38"/>
     <col customWidth="1" min="19" max="19" width="15.0"/>
@@ -2341,41 +2341,41 @@
         <v>102</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9" t="str">
+        <f>product_listing!H2</f>
+        <v>Open Ocean, Surface</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="str">
+      <c r="J2" s="9" t="str">
         <f>product_listing!G2</f>
         <v>monthly</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="str">
+      <c r="M2" s="12" t="str">
         <f>product_listing!F2</f>
         <v>1.0°</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="str">
+      <c r="P2" s="9" t="str">
         <f>product_listing!I2</f>
         <v>1982 - 2022</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="9" t="str">
-        <f>product_listing!H2</f>
-        <v>Open Ocean, Surface</v>
       </c>
       <c r="Q2" s="9" t="str">
         <f>product_listing!K2</f>
@@ -2427,51 +2427,51 @@
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:F3" si="1">if(not(isblank($B3)), E2, "")</f>
-        <v>fa-solid fa-hourglass-start</v>
+        <v>fa-solid fa-globe</v>
       </c>
       <c r="F3" s="9" t="str">
         <f t="shared" si="1"/>
+        <v>Spatial domains</v>
+      </c>
+      <c r="G3" s="9" t="str">
+        <f>product_listing!H3</f>
+        <v>Open Ocean, Surface</v>
+      </c>
+      <c r="H3" s="9" t="str">
+        <f t="shared" ref="H3:I3" si="2">if(not(isblank($B3)), H2, "")</f>
+        <v>fa-solid fa-hourglass-start</v>
+      </c>
+      <c r="I3" s="9" t="str">
+        <f t="shared" si="2"/>
         <v>Temporal resolution</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="J3" s="9" t="str">
         <f>product_listing!G3</f>
         <v>8-daily</v>
       </c>
-      <c r="H3" s="9" t="str">
-        <f t="shared" ref="H3:I3" si="2">if(not(isblank($B3)), H2, "")</f>
+      <c r="K3" s="9" t="str">
+        <f t="shared" ref="K3:L3" si="3">if(not(isblank($B3)), K2, "")</f>
         <v>fa-solid fa-ruler-horizontal</v>
       </c>
-      <c r="I3" s="9" t="str">
-        <f t="shared" si="2"/>
+      <c r="L3" s="9" t="str">
+        <f t="shared" si="3"/>
         <v>Spatial resolution</v>
       </c>
-      <c r="J3" s="14" t="str">
+      <c r="M3" s="14" t="str">
         <f>product_listing!F3</f>
         <v>0.25°</v>
       </c>
-      <c r="K3" s="9" t="str">
-        <f t="shared" ref="K3:L3" si="3">if(not(isblank($B3)), K2, "")</f>
+      <c r="N3" s="9" t="str">
+        <f t="shared" ref="N3:O3" si="4">if(not(isblank($B3)), N2, "")</f>
         <v>fa-solid fa-calendar-days</v>
       </c>
-      <c r="L3" s="9" t="str">
-        <f t="shared" si="3"/>
+      <c r="O3" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>Period</v>
       </c>
-      <c r="M3" s="9" t="str">
+      <c r="P3" s="9" t="str">
         <f>product_listing!I3</f>
         <v>1982 - 2024</v>
-      </c>
-      <c r="N3" s="9" t="str">
-        <f t="shared" ref="N3:O3" si="4">if(not(isblank($B3)), N2, "")</f>
-        <v>fa-solid fa-globe</v>
-      </c>
-      <c r="O3" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>Spatial domains</v>
-      </c>
-      <c r="P3" s="9" t="str">
-        <f>product_listing!H3</f>
-        <v>Open Ocean, Surface</v>
       </c>
       <c r="Q3" s="9" t="str">
         <f>product_listing!K3</f>
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" ref="E4:F4" si="5">if(not(isblank($B4)), E3, "")</f>
-        <v>fa-solid fa-hourglass-start</v>
+        <v>fa-solid fa-globe</v>
       </c>
       <c r="F4" s="9" t="str">
         <f t="shared" si="5"/>
+        <v>Spatial domains</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>product_listing!H4</f>
+        <v>Open Ocean, Surface</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f t="shared" ref="H4:I4" si="6">if(not(isblank($B4)), H3, "")</f>
+        <v>fa-solid fa-hourglass-start</v>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>Temporal resolution</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="J4" s="9" t="str">
         <f>product_listing!G4</f>
         <v>climatology, monthly</v>
       </c>
-      <c r="H4" s="9" t="str">
-        <f t="shared" ref="H4:I4" si="6">if(not(isblank($B4)), H3, "")</f>
+      <c r="K4" s="9" t="str">
+        <f t="shared" ref="K4:L4" si="7">if(not(isblank($B4)), K3, "")</f>
         <v>fa-solid fa-ruler-horizontal</v>
       </c>
-      <c r="I4" s="9" t="str">
-        <f t="shared" si="6"/>
+      <c r="L4" s="9" t="str">
+        <f t="shared" si="7"/>
         <v>Spatial resolution</v>
       </c>
-      <c r="J4" s="12" t="str">
+      <c r="M4" s="12" t="str">
         <f>product_listing!F4</f>
         <v>1.0°</v>
       </c>
-      <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:L4" si="7">if(not(isblank($B4)), K3, "")</f>
-        <v>fa-solid fa-calendar-days</v>
-      </c>
-      <c r="L4" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>Period</v>
-      </c>
-      <c r="M4" s="9" t="str">
-        <f>product_listing!I4</f>
-        <v/>
-      </c>
       <c r="N4" s="9" t="str">
         <f t="shared" ref="N4:O4" si="8">if(not(isblank($B4)), N3, "")</f>
-        <v>fa-solid fa-globe</v>
+        <v>fa-solid fa-calendar-days</v>
       </c>
       <c r="O4" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>Spatial domains</v>
+        <v>Period</v>
       </c>
       <c r="P4" s="9" t="str">
-        <f>product_listing!H4</f>
-        <v>Open Ocean, Surface</v>
+        <f>product_listing!I4</f>
+        <v/>
       </c>
       <c r="Q4" s="9" t="str">
         <f>product_listing!K4</f>
@@ -2623,51 +2623,51 @@
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" ref="E5:F5" si="11">if(not(isblank($B5)), E4, "")</f>
-        <v>fa-solid fa-hourglass-start</v>
+        <v>fa-solid fa-globe</v>
       </c>
       <c r="F5" s="9" t="str">
         <f t="shared" si="11"/>
+        <v>Spatial domains</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f>product_listing!H5</f>
+        <v>Surface, Open Ocean</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f t="shared" ref="H5:I5" si="12">if(not(isblank($B5)), H4, "")</f>
+        <v>fa-solid fa-hourglass-start</v>
+      </c>
+      <c r="I5" s="9" t="str">
+        <f t="shared" si="12"/>
         <v>Temporal resolution</v>
       </c>
-      <c r="G5" s="9" t="str">
+      <c r="J5" s="9" t="str">
         <f>product_listing!G5</f>
         <v>monthly</v>
       </c>
-      <c r="H5" s="9" t="str">
-        <f t="shared" ref="H5:I5" si="12">if(not(isblank($B5)), H4, "")</f>
+      <c r="K5" s="9" t="str">
+        <f t="shared" ref="K5:L5" si="13">if(not(isblank($B5)), K4, "")</f>
         <v>fa-solid fa-ruler-horizontal</v>
       </c>
-      <c r="I5" s="9" t="str">
-        <f t="shared" si="12"/>
+      <c r="L5" s="9" t="str">
+        <f t="shared" si="13"/>
         <v>Spatial resolution</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="M5" s="12" t="str">
         <f>product_listing!F5</f>
         <v>1.0°</v>
       </c>
-      <c r="K5" s="9" t="str">
-        <f t="shared" ref="K5:L5" si="13">if(not(isblank($B5)), K4, "")</f>
+      <c r="N5" s="9" t="str">
+        <f t="shared" ref="N5:O5" si="14">if(not(isblank($B5)), N4, "")</f>
         <v>fa-solid fa-calendar-days</v>
       </c>
-      <c r="L5" s="9" t="str">
-        <f t="shared" si="13"/>
+      <c r="O5" s="9" t="str">
+        <f t="shared" si="14"/>
         <v>Period</v>
       </c>
-      <c r="M5" s="9" t="str">
+      <c r="P5" s="9" t="str">
         <f>product_listing!I5</f>
         <v>1982 - 2024</v>
-      </c>
-      <c r="N5" s="9" t="str">
-        <f t="shared" ref="N5:O5" si="14">if(not(isblank($B5)), N4, "")</f>
-        <v>fa-solid fa-globe</v>
-      </c>
-      <c r="O5" s="9" t="str">
-        <f t="shared" si="14"/>
-        <v>Spatial domains</v>
-      </c>
-      <c r="P5" s="9" t="str">
-        <f>product_listing!H5</f>
-        <v>Surface, Open Ocean</v>
       </c>
       <c r="Q5" s="9" t="str">
         <f>product_listing!K5</f>
@@ -2721,51 +2721,51 @@
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" ref="E6:F6" si="15">if(not(isblank($B6)), E5, "")</f>
-        <v>fa-solid fa-hourglass-start</v>
+        <v>fa-solid fa-globe</v>
       </c>
       <c r="F6" s="9" t="str">
         <f t="shared" si="15"/>
+        <v>Spatial domains</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f>product_listing!H6</f>
+        <v>Surface, Open Ocean, Coastal</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="shared" ref="H6:I6" si="16">if(not(isblank($B6)), H5, "")</f>
+        <v>fa-solid fa-hourglass-start</v>
+      </c>
+      <c r="I6" s="9" t="str">
+        <f t="shared" si="16"/>
         <v>Temporal resolution</v>
       </c>
-      <c r="G6" s="9" t="str">
+      <c r="J6" s="9" t="str">
         <f>product_listing!G6</f>
         <v>continuous</v>
       </c>
-      <c r="H6" s="9" t="str">
-        <f t="shared" ref="H6:I6" si="16">if(not(isblank($B6)), H5, "")</f>
-        <v>fa-solid fa-ruler-horizontal</v>
-      </c>
-      <c r="I6" s="9" t="str">
-        <f t="shared" si="16"/>
-        <v>Spatial resolution</v>
-      </c>
-      <c r="J6" s="9" t="str">
-        <f>product_listing!F6</f>
-        <v/>
-      </c>
       <c r="K6" s="9" t="str">
         <f t="shared" ref="K6:L6" si="17">if(not(isblank($B6)), K5, "")</f>
-        <v>fa-solid fa-calendar-days</v>
+        <v>fa-solid fa-ruler-horizontal</v>
       </c>
       <c r="L6" s="9" t="str">
         <f t="shared" si="17"/>
+        <v>Spatial resolution</v>
+      </c>
+      <c r="M6" s="9" t="str">
+        <f>product_listing!F6</f>
+        <v/>
+      </c>
+      <c r="N6" s="9" t="str">
+        <f t="shared" ref="N6:O6" si="18">if(not(isblank($B6)), N5, "")</f>
+        <v>fa-solid fa-calendar-days</v>
+      </c>
+      <c r="O6" s="9" t="str">
+        <f t="shared" si="18"/>
         <v>Period</v>
       </c>
-      <c r="M6" s="9" t="str">
+      <c r="P6" s="9" t="str">
         <f>product_listing!I6</f>
         <v>1960 - 2025</v>
-      </c>
-      <c r="N6" s="9" t="str">
-        <f t="shared" ref="N6:O6" si="18">if(not(isblank($B6)), N5, "")</f>
-        <v>fa-solid fa-globe</v>
-      </c>
-      <c r="O6" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>Spatial domains</v>
-      </c>
-      <c r="P6" s="9" t="str">
-        <f>product_listing!H6</f>
-        <v>Surface, Open Ocean, Coastal</v>
       </c>
       <c r="Q6" s="9" t="str">
         <f>product_listing!K6</f>
@@ -2816,51 +2816,51 @@
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" ref="E7:F7" si="19">if(not(isblank($B7)), E6, "")</f>
-        <v>fa-solid fa-hourglass-start</v>
+        <v>fa-solid fa-globe</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="shared" si="19"/>
-        <v>Temporal resolution</v>
+        <v>Spatial domains</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f>product_listing!G7</f>
-        <v/>
+        <f>product_listing!H7</f>
+        <v>Water column, Open Ocean</v>
       </c>
       <c r="H7" s="9" t="str">
         <f t="shared" ref="H7:I7" si="20">if(not(isblank($B7)), H6, "")</f>
-        <v>fa-solid fa-ruler-horizontal</v>
+        <v>fa-solid fa-hourglass-start</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="shared" si="20"/>
-        <v>Spatial resolution</v>
+        <v>Temporal resolution</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f>product_listing!F7</f>
+        <f>product_listing!G7</f>
         <v/>
       </c>
       <c r="K7" s="9" t="str">
         <f t="shared" ref="K7:L7" si="21">if(not(isblank($B7)), K6, "")</f>
-        <v>fa-solid fa-calendar-days</v>
+        <v>fa-solid fa-ruler-horizontal</v>
       </c>
       <c r="L7" s="9" t="str">
         <f t="shared" si="21"/>
+        <v>Spatial resolution</v>
+      </c>
+      <c r="M7" s="9" t="str">
+        <f>product_listing!F7</f>
+        <v/>
+      </c>
+      <c r="N7" s="9" t="str">
+        <f t="shared" ref="N7:O7" si="22">if(not(isblank($B7)), N6, "")</f>
+        <v>fa-solid fa-calendar-days</v>
+      </c>
+      <c r="O7" s="9" t="str">
+        <f t="shared" si="22"/>
         <v>Period</v>
       </c>
-      <c r="M7" s="9" t="str">
+      <c r="P7" s="9" t="str">
         <f>product_listing!I7</f>
         <v>1960 - 2024</v>
-      </c>
-      <c r="N7" s="9" t="str">
-        <f t="shared" ref="N7:O7" si="22">if(not(isblank($B7)), N6, "")</f>
-        <v>fa-solid fa-globe</v>
-      </c>
-      <c r="O7" s="9" t="str">
-        <f t="shared" si="22"/>
-        <v>Spatial domains</v>
-      </c>
-      <c r="P7" s="9" t="str">
-        <f>product_listing!H7</f>
-        <v>Water column, Open Ocean</v>
       </c>
       <c r="Q7" s="9" t="str">
         <f>product_listing!K7</f>
@@ -2921,7 +2921,7 @@
         <v/>
       </c>
       <c r="G8" s="9" t="str">
-        <f>product_listing!G8</f>
+        <f>product_listing!H8</f>
         <v/>
       </c>
       <c r="H8" s="9" t="str">
@@ -2933,7 +2933,7 @@
         <v/>
       </c>
       <c r="J8" s="9" t="str">
-        <f>product_listing!F8</f>
+        <f>product_listing!G8</f>
         <v/>
       </c>
       <c r="K8" s="9" t="str">
@@ -2945,7 +2945,7 @@
         <v/>
       </c>
       <c r="M8" s="9" t="str">
-        <f>product_listing!I8</f>
+        <f>product_listing!F8</f>
         <v/>
       </c>
       <c r="N8" s="9" t="str">
@@ -2957,7 +2957,7 @@
         <v/>
       </c>
       <c r="P8" s="9" t="str">
-        <f>product_listing!H8</f>
+        <f>product_listing!I8</f>
         <v/>
       </c>
       <c r="Q8" s="9" t="str">
@@ -3019,7 +3019,7 @@
         <v/>
       </c>
       <c r="G9" s="9" t="str">
-        <f>product_listing!G9</f>
+        <f>product_listing!H9</f>
         <v/>
       </c>
       <c r="H9" s="9" t="str">
@@ -3031,7 +3031,7 @@
         <v/>
       </c>
       <c r="J9" s="9" t="str">
-        <f>product_listing!F9</f>
+        <f>product_listing!G9</f>
         <v/>
       </c>
       <c r="K9" s="9" t="str">
@@ -3043,7 +3043,7 @@
         <v/>
       </c>
       <c r="M9" s="9" t="str">
-        <f>product_listing!I9</f>
+        <f>product_listing!F9</f>
         <v/>
       </c>
       <c r="N9" s="9" t="str">
@@ -3055,7 +3055,7 @@
         <v/>
       </c>
       <c r="P9" s="9" t="str">
-        <f>product_listing!H9</f>
+        <f>product_listing!I9</f>
         <v/>
       </c>
       <c r="Q9" s="9" t="str">
@@ -3117,7 +3117,7 @@
         <v/>
       </c>
       <c r="G10" s="9" t="str">
-        <f>product_listing!G10</f>
+        <f>product_listing!H10</f>
         <v/>
       </c>
       <c r="H10" s="9" t="str">
@@ -3129,7 +3129,7 @@
         <v/>
       </c>
       <c r="J10" s="9" t="str">
-        <f>product_listing!F10</f>
+        <f>product_listing!G10</f>
         <v/>
       </c>
       <c r="K10" s="9" t="str">
@@ -3141,7 +3141,7 @@
         <v/>
       </c>
       <c r="M10" s="9" t="str">
-        <f>product_listing!I10</f>
+        <f>product_listing!F10</f>
         <v/>
       </c>
       <c r="N10" s="9" t="str">
@@ -3153,7 +3153,7 @@
         <v/>
       </c>
       <c r="P10" s="9" t="str">
-        <f>product_listing!H10</f>
+        <f>product_listing!I10</f>
         <v/>
       </c>
       <c r="Q10" s="9" t="str">
@@ -3215,7 +3215,7 @@
         <v/>
       </c>
       <c r="G11" s="9" t="str">
-        <f>product_listing!G11</f>
+        <f>product_listing!H11</f>
         <v/>
       </c>
       <c r="H11" s="9" t="str">
@@ -3227,7 +3227,7 @@
         <v/>
       </c>
       <c r="J11" s="9" t="str">
-        <f>product_listing!F11</f>
+        <f>product_listing!G11</f>
         <v/>
       </c>
       <c r="K11" s="9" t="str">
@@ -3239,7 +3239,7 @@
         <v/>
       </c>
       <c r="M11" s="9" t="str">
-        <f>product_listing!I11</f>
+        <f>product_listing!F11</f>
         <v/>
       </c>
       <c r="N11" s="9" t="str">
@@ -3251,7 +3251,7 @@
         <v/>
       </c>
       <c r="P11" s="9" t="str">
-        <f>product_listing!H11</f>
+        <f>product_listing!I11</f>
         <v/>
       </c>
       <c r="Q11" s="9" t="str">
@@ -3313,7 +3313,7 @@
         <v/>
       </c>
       <c r="G12" s="9" t="str">
-        <f>product_listing!G12</f>
+        <f>product_listing!H12</f>
         <v/>
       </c>
       <c r="H12" s="9" t="str">
@@ -3325,7 +3325,7 @@
         <v/>
       </c>
       <c r="J12" s="9" t="str">
-        <f>product_listing!F12</f>
+        <f>product_listing!G12</f>
         <v/>
       </c>
       <c r="K12" s="9" t="str">
@@ -3337,7 +3337,7 @@
         <v/>
       </c>
       <c r="M12" s="9" t="str">
-        <f>product_listing!I12</f>
+        <f>product_listing!F12</f>
         <v/>
       </c>
       <c r="N12" s="9" t="str">
@@ -3349,7 +3349,7 @@
         <v/>
       </c>
       <c r="P12" s="9" t="str">
-        <f>product_listing!H12</f>
+        <f>product_listing!I12</f>
         <v/>
       </c>
       <c r="Q12" s="9" t="str">
@@ -3411,7 +3411,7 @@
         <v/>
       </c>
       <c r="G13" s="9" t="str">
-        <f>product_listing!G13</f>
+        <f>product_listing!H13</f>
         <v/>
       </c>
       <c r="H13" s="9" t="str">
@@ -3423,7 +3423,7 @@
         <v/>
       </c>
       <c r="J13" s="9" t="str">
-        <f>product_listing!F13</f>
+        <f>product_listing!G13</f>
         <v/>
       </c>
       <c r="K13" s="9" t="str">
@@ -3435,7 +3435,7 @@
         <v/>
       </c>
       <c r="M13" s="9" t="str">
-        <f>product_listing!I13</f>
+        <f>product_listing!F13</f>
         <v/>
       </c>
       <c r="N13" s="9" t="str">
@@ -3447,7 +3447,7 @@
         <v/>
       </c>
       <c r="P13" s="9" t="str">
-        <f>product_listing!H13</f>
+        <f>product_listing!I13</f>
         <v/>
       </c>
       <c r="Q13" s="9" t="str">
@@ -3509,7 +3509,7 @@
         <v/>
       </c>
       <c r="G14" s="9" t="str">
-        <f>product_listing!G14</f>
+        <f>product_listing!H14</f>
         <v/>
       </c>
       <c r="H14" s="9" t="str">
@@ -3521,7 +3521,7 @@
         <v/>
       </c>
       <c r="J14" s="9" t="str">
-        <f>product_listing!F14</f>
+        <f>product_listing!G14</f>
         <v/>
       </c>
       <c r="K14" s="9" t="str">
@@ -3533,7 +3533,7 @@
         <v/>
       </c>
       <c r="M14" s="9" t="str">
-        <f>product_listing!I14</f>
+        <f>product_listing!F14</f>
         <v/>
       </c>
       <c r="N14" s="9" t="str">
@@ -3545,7 +3545,7 @@
         <v/>
       </c>
       <c r="P14" s="9" t="str">
-        <f>product_listing!H14</f>
+        <f>product_listing!I14</f>
         <v/>
       </c>
       <c r="Q14" s="9" t="str">
@@ -3607,7 +3607,7 @@
         <v/>
       </c>
       <c r="G15" s="9" t="str">
-        <f>product_listing!G15</f>
+        <f>product_listing!H15</f>
         <v/>
       </c>
       <c r="H15" s="9" t="str">
@@ -3619,7 +3619,7 @@
         <v/>
       </c>
       <c r="J15" s="9" t="str">
-        <f>product_listing!F15</f>
+        <f>product_listing!G15</f>
         <v/>
       </c>
       <c r="K15" s="9" t="str">
@@ -3631,7 +3631,7 @@
         <v/>
       </c>
       <c r="M15" s="9" t="str">
-        <f>product_listing!I15</f>
+        <f>product_listing!F15</f>
         <v/>
       </c>
       <c r="N15" s="9" t="str">
@@ -3643,7 +3643,7 @@
         <v/>
       </c>
       <c r="P15" s="9" t="str">
-        <f>product_listing!H15</f>
+        <f>product_listing!I15</f>
         <v/>
       </c>
       <c r="Q15" s="9" t="str">
@@ -3705,7 +3705,7 @@
         <v/>
       </c>
       <c r="G16" s="9" t="str">
-        <f>product_listing!G16</f>
+        <f>product_listing!H16</f>
         <v/>
       </c>
       <c r="H16" s="9" t="str">
@@ -3717,7 +3717,7 @@
         <v/>
       </c>
       <c r="J16" s="9" t="str">
-        <f>product_listing!F16</f>
+        <f>product_listing!G16</f>
         <v/>
       </c>
       <c r="K16" s="9" t="str">
@@ -3729,7 +3729,7 @@
         <v/>
       </c>
       <c r="M16" s="9" t="str">
-        <f>product_listing!I16</f>
+        <f>product_listing!F16</f>
         <v/>
       </c>
       <c r="N16" s="9" t="str">
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
       <c r="P16" s="9" t="str">
-        <f>product_listing!H16</f>
+        <f>product_listing!I16</f>
         <v/>
       </c>
       <c r="Q16" s="9" t="str">
@@ -3803,7 +3803,7 @@
         <v/>
       </c>
       <c r="G17" s="9" t="str">
-        <f>product_listing!G17</f>
+        <f>product_listing!H17</f>
         <v/>
       </c>
       <c r="H17" s="9" t="str">
@@ -3815,7 +3815,7 @@
         <v/>
       </c>
       <c r="J17" s="9" t="str">
-        <f>product_listing!F17</f>
+        <f>product_listing!G17</f>
         <v/>
       </c>
       <c r="K17" s="9" t="str">
@@ -3827,7 +3827,7 @@
         <v/>
       </c>
       <c r="M17" s="9" t="str">
-        <f>product_listing!I17</f>
+        <f>product_listing!F17</f>
         <v/>
       </c>
       <c r="N17" s="9" t="str">
@@ -3839,7 +3839,7 @@
         <v/>
       </c>
       <c r="P17" s="9" t="str">
-        <f>product_listing!H17</f>
+        <f>product_listing!I17</f>
         <v/>
       </c>
       <c r="Q17" s="9" t="str">
@@ -3901,7 +3901,7 @@
         <v/>
       </c>
       <c r="G18" s="9" t="str">
-        <f>product_listing!G18</f>
+        <f>product_listing!H18</f>
         <v/>
       </c>
       <c r="H18" s="9" t="str">
@@ -3913,7 +3913,7 @@
         <v/>
       </c>
       <c r="J18" s="9" t="str">
-        <f>product_listing!F18</f>
+        <f>product_listing!G18</f>
         <v/>
       </c>
       <c r="K18" s="9" t="str">
@@ -3925,7 +3925,7 @@
         <v/>
       </c>
       <c r="M18" s="9" t="str">
-        <f>product_listing!I18</f>
+        <f>product_listing!F18</f>
         <v/>
       </c>
       <c r="N18" s="9" t="str">
@@ -3937,7 +3937,7 @@
         <v/>
       </c>
       <c r="P18" s="9" t="str">
-        <f>product_listing!H18</f>
+        <f>product_listing!I18</f>
         <v/>
       </c>
       <c r="Q18" s="9" t="str">
@@ -3999,7 +3999,7 @@
         <v/>
       </c>
       <c r="G19" s="9" t="str">
-        <f>product_listing!G19</f>
+        <f>product_listing!H19</f>
         <v/>
       </c>
       <c r="H19" s="9" t="str">
@@ -4011,7 +4011,7 @@
         <v/>
       </c>
       <c r="J19" s="9" t="str">
-        <f>product_listing!F19</f>
+        <f>product_listing!G19</f>
         <v/>
       </c>
       <c r="K19" s="9" t="str">
@@ -4023,7 +4023,7 @@
         <v/>
       </c>
       <c r="M19" s="9" t="str">
-        <f>product_listing!I19</f>
+        <f>product_listing!F19</f>
         <v/>
       </c>
       <c r="N19" s="9" t="str">
@@ -4035,7 +4035,7 @@
         <v/>
       </c>
       <c r="P19" s="9" t="str">
-        <f>product_listing!H19</f>
+        <f>product_listing!I19</f>
         <v/>
       </c>
       <c r="Q19" s="9" t="str">
@@ -4097,7 +4097,7 @@
         <v/>
       </c>
       <c r="G20" s="9" t="str">
-        <f>product_listing!G20</f>
+        <f>product_listing!H20</f>
         <v/>
       </c>
       <c r="H20" s="9" t="str">
@@ -4109,7 +4109,7 @@
         <v/>
       </c>
       <c r="J20" s="9" t="str">
-        <f>product_listing!F20</f>
+        <f>product_listing!G20</f>
         <v/>
       </c>
       <c r="K20" s="9" t="str">
@@ -4121,7 +4121,7 @@
         <v/>
       </c>
       <c r="M20" s="9" t="str">
-        <f>product_listing!I20</f>
+        <f>product_listing!F20</f>
         <v/>
       </c>
       <c r="N20" s="9" t="str">
@@ -4133,7 +4133,7 @@
         <v/>
       </c>
       <c r="P20" s="9" t="str">
-        <f>product_listing!H20</f>
+        <f>product_listing!I20</f>
         <v/>
       </c>
       <c r="Q20" s="9" t="str">
@@ -4195,7 +4195,7 @@
         <v/>
       </c>
       <c r="G21" s="9" t="str">
-        <f>product_listing!G21</f>
+        <f>product_listing!H21</f>
         <v/>
       </c>
       <c r="H21" s="9" t="str">
@@ -4207,7 +4207,7 @@
         <v/>
       </c>
       <c r="J21" s="9" t="str">
-        <f>product_listing!F21</f>
+        <f>product_listing!G21</f>
         <v/>
       </c>
       <c r="K21" s="9" t="str">
@@ -4219,7 +4219,7 @@
         <v/>
       </c>
       <c r="M21" s="9" t="str">
-        <f>product_listing!I21</f>
+        <f>product_listing!F21</f>
         <v/>
       </c>
       <c r="N21" s="9" t="str">
@@ -4231,7 +4231,7 @@
         <v/>
       </c>
       <c r="P21" s="9" t="str">
-        <f>product_listing!H21</f>
+        <f>product_listing!I21</f>
         <v/>
       </c>
       <c r="Q21" s="9" t="str">
@@ -4293,7 +4293,7 @@
         <v/>
       </c>
       <c r="G22" s="9" t="str">
-        <f>product_listing!G22</f>
+        <f>product_listing!H22</f>
         <v/>
       </c>
       <c r="H22" s="9" t="str">
@@ -4305,7 +4305,7 @@
         <v/>
       </c>
       <c r="J22" s="9" t="str">
-        <f>product_listing!F22</f>
+        <f>product_listing!G22</f>
         <v/>
       </c>
       <c r="K22" s="9" t="str">
@@ -4317,7 +4317,7 @@
         <v/>
       </c>
       <c r="M22" s="9" t="str">
-        <f>product_listing!I22</f>
+        <f>product_listing!F22</f>
         <v/>
       </c>
       <c r="N22" s="9" t="str">
@@ -4329,7 +4329,7 @@
         <v/>
       </c>
       <c r="P22" s="9" t="str">
-        <f>product_listing!H22</f>
+        <f>product_listing!I22</f>
         <v/>
       </c>
       <c r="Q22" s="9" t="str">
@@ -4391,7 +4391,7 @@
         <v/>
       </c>
       <c r="G23" s="9" t="str">
-        <f>product_listing!G23</f>
+        <f>product_listing!H23</f>
         <v/>
       </c>
       <c r="H23" s="9" t="str">
@@ -4403,7 +4403,7 @@
         <v/>
       </c>
       <c r="J23" s="9" t="str">
-        <f>product_listing!F23</f>
+        <f>product_listing!G23</f>
         <v/>
       </c>
       <c r="K23" s="9" t="str">
@@ -4415,7 +4415,7 @@
         <v/>
       </c>
       <c r="M23" s="9" t="str">
-        <f>product_listing!I23</f>
+        <f>product_listing!F23</f>
         <v/>
       </c>
       <c r="N23" s="9" t="str">
@@ -4427,7 +4427,7 @@
         <v/>
       </c>
       <c r="P23" s="9" t="str">
-        <f>product_listing!H23</f>
+        <f>product_listing!I23</f>
         <v/>
       </c>
       <c r="Q23" s="9" t="str">
@@ -4489,7 +4489,7 @@
         <v/>
       </c>
       <c r="G24" s="9" t="str">
-        <f>product_listing!G24</f>
+        <f>product_listing!H24</f>
         <v/>
       </c>
       <c r="H24" s="9" t="str">
@@ -4501,7 +4501,7 @@
         <v/>
       </c>
       <c r="J24" s="9" t="str">
-        <f>product_listing!F24</f>
+        <f>product_listing!G24</f>
         <v/>
       </c>
       <c r="K24" s="9" t="str">
@@ -4513,7 +4513,7 @@
         <v/>
       </c>
       <c r="M24" s="9" t="str">
-        <f>product_listing!I24</f>
+        <f>product_listing!F24</f>
         <v/>
       </c>
       <c r="N24" s="9" t="str">
@@ -4525,7 +4525,7 @@
         <v/>
       </c>
       <c r="P24" s="9" t="str">
-        <f>product_listing!H24</f>
+        <f>product_listing!I24</f>
         <v/>
       </c>
       <c r="Q24" s="9" t="str">
@@ -4587,7 +4587,7 @@
         <v/>
       </c>
       <c r="G25" s="9" t="str">
-        <f>product_listing!G25</f>
+        <f>product_listing!H25</f>
         <v/>
       </c>
       <c r="H25" s="9" t="str">
@@ -4599,7 +4599,7 @@
         <v/>
       </c>
       <c r="J25" s="9" t="str">
-        <f>product_listing!F25</f>
+        <f>product_listing!G25</f>
         <v/>
       </c>
       <c r="K25" s="9" t="str">
@@ -4611,7 +4611,7 @@
         <v/>
       </c>
       <c r="M25" s="9" t="str">
-        <f>product_listing!I25</f>
+        <f>product_listing!F25</f>
         <v/>
       </c>
       <c r="N25" s="9" t="str">
@@ -4623,7 +4623,7 @@
         <v/>
       </c>
       <c r="P25" s="9" t="str">
-        <f>product_listing!H25</f>
+        <f>product_listing!I25</f>
         <v/>
       </c>
       <c r="Q25" s="9" t="str">
@@ -4685,7 +4685,7 @@
         <v/>
       </c>
       <c r="G26" s="9" t="str">
-        <f>product_listing!G26</f>
+        <f>product_listing!H26</f>
         <v/>
       </c>
       <c r="H26" s="9" t="str">
@@ -4697,7 +4697,7 @@
         <v/>
       </c>
       <c r="J26" s="9" t="str">
-        <f>product_listing!F26</f>
+        <f>product_listing!G26</f>
         <v/>
       </c>
       <c r="K26" s="9" t="str">
@@ -4709,7 +4709,7 @@
         <v/>
       </c>
       <c r="M26" s="9" t="str">
-        <f>product_listing!I26</f>
+        <f>product_listing!F26</f>
         <v/>
       </c>
       <c r="N26" s="9" t="str">
@@ -4721,7 +4721,7 @@
         <v/>
       </c>
       <c r="P26" s="9" t="str">
-        <f>product_listing!H26</f>
+        <f>product_listing!I26</f>
         <v/>
       </c>
       <c r="Q26" s="9" t="str">
@@ -4783,7 +4783,7 @@
         <v/>
       </c>
       <c r="G27" s="9" t="str">
-        <f>product_listing!G27</f>
+        <f>product_listing!H27</f>
         <v/>
       </c>
       <c r="H27" s="9" t="str">
@@ -4795,7 +4795,7 @@
         <v/>
       </c>
       <c r="J27" s="9" t="str">
-        <f>product_listing!F27</f>
+        <f>product_listing!G27</f>
         <v/>
       </c>
       <c r="K27" s="9" t="str">
@@ -4807,7 +4807,7 @@
         <v/>
       </c>
       <c r="M27" s="9" t="str">
-        <f>product_listing!I27</f>
+        <f>product_listing!F27</f>
         <v/>
       </c>
       <c r="N27" s="9" t="str">
@@ -4819,7 +4819,7 @@
         <v/>
       </c>
       <c r="P27" s="9" t="str">
-        <f>product_listing!H27</f>
+        <f>product_listing!I27</f>
         <v/>
       </c>
       <c r="Q27" s="9" t="str">
@@ -4881,7 +4881,7 @@
         <v/>
       </c>
       <c r="G28" s="9" t="str">
-        <f>product_listing!G28</f>
+        <f>product_listing!H28</f>
         <v/>
       </c>
       <c r="H28" s="9" t="str">
@@ -4893,7 +4893,7 @@
         <v/>
       </c>
       <c r="J28" s="9" t="str">
-        <f>product_listing!F28</f>
+        <f>product_listing!G28</f>
         <v/>
       </c>
       <c r="K28" s="9" t="str">
@@ -4905,7 +4905,7 @@
         <v/>
       </c>
       <c r="M28" s="9" t="str">
-        <f>product_listing!I28</f>
+        <f>product_listing!F28</f>
         <v/>
       </c>
       <c r="N28" s="9" t="str">
@@ -4917,7 +4917,7 @@
         <v/>
       </c>
       <c r="P28" s="9" t="str">
-        <f>product_listing!H28</f>
+        <f>product_listing!I28</f>
         <v/>
       </c>
       <c r="Q28" s="9" t="str">
@@ -4979,7 +4979,7 @@
         <v/>
       </c>
       <c r="G29" s="9" t="str">
-        <f>product_listing!G29</f>
+        <f>product_listing!H29</f>
         <v/>
       </c>
       <c r="H29" s="9" t="str">
@@ -4991,7 +4991,7 @@
         <v/>
       </c>
       <c r="J29" s="9" t="str">
-        <f>product_listing!F29</f>
+        <f>product_listing!G29</f>
         <v/>
       </c>
       <c r="K29" s="9" t="str">
@@ -5003,7 +5003,7 @@
         <v/>
       </c>
       <c r="M29" s="9" t="str">
-        <f>product_listing!I29</f>
+        <f>product_listing!F29</f>
         <v/>
       </c>
       <c r="N29" s="9" t="str">
@@ -5015,7 +5015,7 @@
         <v/>
       </c>
       <c r="P29" s="9" t="str">
-        <f>product_listing!H29</f>
+        <f>product_listing!I29</f>
         <v/>
       </c>
       <c r="Q29" s="9" t="str">
@@ -5077,7 +5077,7 @@
         <v/>
       </c>
       <c r="G30" s="9" t="str">
-        <f>product_listing!G30</f>
+        <f>product_listing!H30</f>
         <v/>
       </c>
       <c r="H30" s="9" t="str">
@@ -5089,7 +5089,7 @@
         <v/>
       </c>
       <c r="J30" s="9" t="str">
-        <f>product_listing!F30</f>
+        <f>product_listing!G30</f>
         <v/>
       </c>
       <c r="K30" s="9" t="str">
@@ -5101,7 +5101,7 @@
         <v/>
       </c>
       <c r="M30" s="9" t="str">
-        <f>product_listing!I30</f>
+        <f>product_listing!F30</f>
         <v/>
       </c>
       <c r="N30" s="9" t="str">
@@ -5113,7 +5113,7 @@
         <v/>
       </c>
       <c r="P30" s="9" t="str">
-        <f>product_listing!H30</f>
+        <f>product_listing!I30</f>
         <v/>
       </c>
       <c r="Q30" s="9" t="str">
@@ -5175,7 +5175,7 @@
         <v/>
       </c>
       <c r="G31" s="9" t="str">
-        <f>product_listing!G31</f>
+        <f>product_listing!H31</f>
         <v/>
       </c>
       <c r="H31" s="9" t="str">
@@ -5187,7 +5187,7 @@
         <v/>
       </c>
       <c r="J31" s="9" t="str">
-        <f>product_listing!F31</f>
+        <f>product_listing!G31</f>
         <v/>
       </c>
       <c r="K31" s="9" t="str">
@@ -5199,7 +5199,7 @@
         <v/>
       </c>
       <c r="M31" s="9" t="str">
-        <f>product_listing!I31</f>
+        <f>product_listing!F31</f>
         <v/>
       </c>
       <c r="N31" s="9" t="str">
@@ -5211,7 +5211,7 @@
         <v/>
       </c>
       <c r="P31" s="9" t="str">
-        <f>product_listing!H31</f>
+        <f>product_listing!I31</f>
         <v/>
       </c>
       <c r="Q31" s="9" t="str">
@@ -5273,7 +5273,7 @@
         <v/>
       </c>
       <c r="G32" s="9" t="str">
-        <f>product_listing!G32</f>
+        <f>product_listing!H32</f>
         <v/>
       </c>
       <c r="H32" s="9" t="str">
@@ -5285,7 +5285,7 @@
         <v/>
       </c>
       <c r="J32" s="9" t="str">
-        <f>product_listing!F32</f>
+        <f>product_listing!G32</f>
         <v/>
       </c>
       <c r="K32" s="9" t="str">
@@ -5297,7 +5297,7 @@
         <v/>
       </c>
       <c r="M32" s="9" t="str">
-        <f>product_listing!I32</f>
+        <f>product_listing!F32</f>
         <v/>
       </c>
       <c r="N32" s="9" t="str">
@@ -5309,7 +5309,7 @@
         <v/>
       </c>
       <c r="P32" s="9" t="str">
-        <f>product_listing!H32</f>
+        <f>product_listing!I32</f>
         <v/>
       </c>
       <c r="Q32" s="9" t="str">
@@ -5371,7 +5371,7 @@
         <v/>
       </c>
       <c r="G33" s="9" t="str">
-        <f>product_listing!G33</f>
+        <f>product_listing!H33</f>
         <v/>
       </c>
       <c r="H33" s="9" t="str">
@@ -5383,7 +5383,7 @@
         <v/>
       </c>
       <c r="J33" s="9" t="str">
-        <f>product_listing!F33</f>
+        <f>product_listing!G33</f>
         <v/>
       </c>
       <c r="K33" s="9" t="str">
@@ -5395,7 +5395,7 @@
         <v/>
       </c>
       <c r="M33" s="9" t="str">
-        <f>product_listing!I33</f>
+        <f>product_listing!F33</f>
         <v/>
       </c>
       <c r="N33" s="9" t="str">
@@ -5407,7 +5407,7 @@
         <v/>
       </c>
       <c r="P33" s="9" t="str">
-        <f>product_listing!H33</f>
+        <f>product_listing!I33</f>
         <v/>
       </c>
       <c r="Q33" s="9" t="str">
@@ -5469,7 +5469,7 @@
         <v/>
       </c>
       <c r="G34" s="9" t="str">
-        <f>product_listing!G34</f>
+        <f>product_listing!H34</f>
         <v/>
       </c>
       <c r="H34" s="9" t="str">
@@ -5481,7 +5481,7 @@
         <v/>
       </c>
       <c r="J34" s="9" t="str">
-        <f>product_listing!F34</f>
+        <f>product_listing!G34</f>
         <v/>
       </c>
       <c r="K34" s="9" t="str">
@@ -5493,7 +5493,7 @@
         <v/>
       </c>
       <c r="M34" s="9" t="str">
-        <f>product_listing!I34</f>
+        <f>product_listing!F34</f>
         <v/>
       </c>
       <c r="N34" s="9" t="str">
@@ -5505,7 +5505,7 @@
         <v/>
       </c>
       <c r="P34" s="9" t="str">
-        <f>product_listing!H34</f>
+        <f>product_listing!I34</f>
         <v/>
       </c>
       <c r="Q34" s="9" t="str">
@@ -5567,7 +5567,7 @@
         <v/>
       </c>
       <c r="G35" s="9" t="str">
-        <f>product_listing!G35</f>
+        <f>product_listing!H35</f>
         <v/>
       </c>
       <c r="H35" s="9" t="str">
@@ -5579,7 +5579,7 @@
         <v/>
       </c>
       <c r="J35" s="9" t="str">
-        <f>product_listing!F35</f>
+        <f>product_listing!G35</f>
         <v/>
       </c>
       <c r="K35" s="9" t="str">
@@ -5591,7 +5591,7 @@
         <v/>
       </c>
       <c r="M35" s="9" t="str">
-        <f>product_listing!I35</f>
+        <f>product_listing!F35</f>
         <v/>
       </c>
       <c r="N35" s="9" t="str">
@@ -5603,7 +5603,7 @@
         <v/>
       </c>
       <c r="P35" s="9" t="str">
-        <f>product_listing!H35</f>
+        <f>product_listing!I35</f>
         <v/>
       </c>
       <c r="Q35" s="9" t="str">
@@ -5665,7 +5665,7 @@
         <v/>
       </c>
       <c r="G36" s="9" t="str">
-        <f>product_listing!G36</f>
+        <f>product_listing!H36</f>
         <v/>
       </c>
       <c r="H36" s="9" t="str">
@@ -5677,7 +5677,7 @@
         <v/>
       </c>
       <c r="J36" s="9" t="str">
-        <f>product_listing!F36</f>
+        <f>product_listing!G36</f>
         <v/>
       </c>
       <c r="K36" s="9" t="str">
@@ -5689,7 +5689,7 @@
         <v/>
       </c>
       <c r="M36" s="9" t="str">
-        <f>product_listing!I36</f>
+        <f>product_listing!F36</f>
         <v/>
       </c>
       <c r="N36" s="9" t="str">
@@ -5701,7 +5701,7 @@
         <v/>
       </c>
       <c r="P36" s="9" t="str">
-        <f>product_listing!H36</f>
+        <f>product_listing!I36</f>
         <v/>
       </c>
       <c r="Q36" s="9" t="str">
@@ -5763,7 +5763,7 @@
         <v/>
       </c>
       <c r="G37" s="9" t="str">
-        <f>product_listing!G37</f>
+        <f>product_listing!H37</f>
         <v/>
       </c>
       <c r="H37" s="9" t="str">
@@ -5775,7 +5775,7 @@
         <v/>
       </c>
       <c r="J37" s="9" t="str">
-        <f>product_listing!F37</f>
+        <f>product_listing!G37</f>
         <v/>
       </c>
       <c r="K37" s="9" t="str">
@@ -5787,7 +5787,7 @@
         <v/>
       </c>
       <c r="M37" s="9" t="str">
-        <f>product_listing!I37</f>
+        <f>product_listing!F37</f>
         <v/>
       </c>
       <c r="N37" s="9" t="str">
@@ -5799,7 +5799,7 @@
         <v/>
       </c>
       <c r="P37" s="9" t="str">
-        <f>product_listing!H37</f>
+        <f>product_listing!I37</f>
         <v/>
       </c>
       <c r="Q37" s="9" t="str">
@@ -5861,7 +5861,7 @@
         <v/>
       </c>
       <c r="G38" s="9" t="str">
-        <f>product_listing!G38</f>
+        <f>product_listing!H38</f>
         <v/>
       </c>
       <c r="H38" s="9" t="str">
@@ -5873,7 +5873,7 @@
         <v/>
       </c>
       <c r="J38" s="9" t="str">
-        <f>product_listing!F38</f>
+        <f>product_listing!G38</f>
         <v/>
       </c>
       <c r="K38" s="9" t="str">
@@ -5885,7 +5885,7 @@
         <v/>
       </c>
       <c r="M38" s="9" t="str">
-        <f>product_listing!I38</f>
+        <f>product_listing!F38</f>
         <v/>
       </c>
       <c r="N38" s="9" t="str">
@@ -5897,7 +5897,7 @@
         <v/>
       </c>
       <c r="P38" s="9" t="str">
-        <f>product_listing!H38</f>
+        <f>product_listing!I38</f>
         <v/>
       </c>
       <c r="Q38" s="9" t="str">
@@ -5959,7 +5959,7 @@
         <v/>
       </c>
       <c r="G39" s="9" t="str">
-        <f>product_listing!G39</f>
+        <f>product_listing!H39</f>
         <v/>
       </c>
       <c r="H39" s="9" t="str">
@@ -5971,7 +5971,7 @@
         <v/>
       </c>
       <c r="J39" s="9" t="str">
-        <f>product_listing!F39</f>
+        <f>product_listing!G39</f>
         <v/>
       </c>
       <c r="K39" s="9" t="str">
@@ -5983,7 +5983,7 @@
         <v/>
       </c>
       <c r="M39" s="9" t="str">
-        <f>product_listing!I39</f>
+        <f>product_listing!F39</f>
         <v/>
       </c>
       <c r="N39" s="9" t="str">
@@ -5995,7 +5995,7 @@
         <v/>
       </c>
       <c r="P39" s="9" t="str">
-        <f>product_listing!H39</f>
+        <f>product_listing!I39</f>
         <v/>
       </c>
       <c r="Q39" s="9" t="str">
@@ -6057,7 +6057,7 @@
         <v/>
       </c>
       <c r="G40" s="9" t="str">
-        <f>product_listing!G40</f>
+        <f>product_listing!H40</f>
         <v/>
       </c>
       <c r="H40" s="9" t="str">
@@ -6069,7 +6069,7 @@
         <v/>
       </c>
       <c r="J40" s="9" t="str">
-        <f>product_listing!F40</f>
+        <f>product_listing!G40</f>
         <v/>
       </c>
       <c r="K40" s="9" t="str">
@@ -6081,7 +6081,7 @@
         <v/>
       </c>
       <c r="M40" s="9" t="str">
-        <f>product_listing!I40</f>
+        <f>product_listing!F40</f>
         <v/>
       </c>
       <c r="N40" s="9" t="str">
@@ -6093,7 +6093,7 @@
         <v/>
       </c>
       <c r="P40" s="9" t="str">
-        <f>product_listing!H40</f>
+        <f>product_listing!I40</f>
         <v/>
       </c>
       <c r="Q40" s="9" t="str">
@@ -6155,7 +6155,7 @@
         <v/>
       </c>
       <c r="G41" s="9" t="str">
-        <f>product_listing!G41</f>
+        <f>product_listing!H41</f>
         <v/>
       </c>
       <c r="H41" s="9" t="str">
@@ -6167,7 +6167,7 @@
         <v/>
       </c>
       <c r="J41" s="9" t="str">
-        <f>product_listing!F41</f>
+        <f>product_listing!G41</f>
         <v/>
       </c>
       <c r="K41" s="9" t="str">
@@ -6179,7 +6179,7 @@
         <v/>
       </c>
       <c r="M41" s="9" t="str">
-        <f>product_listing!I41</f>
+        <f>product_listing!F41</f>
         <v/>
       </c>
       <c r="N41" s="9" t="str">
@@ -6191,7 +6191,7 @@
         <v/>
       </c>
       <c r="P41" s="9" t="str">
-        <f>product_listing!H41</f>
+        <f>product_listing!I41</f>
         <v/>
       </c>
       <c r="Q41" s="9" t="str">
@@ -6253,7 +6253,7 @@
         <v/>
       </c>
       <c r="G42" s="9" t="str">
-        <f>product_listing!G42</f>
+        <f>product_listing!H42</f>
         <v/>
       </c>
       <c r="H42" s="9" t="str">
@@ -6265,7 +6265,7 @@
         <v/>
       </c>
       <c r="J42" s="9" t="str">
-        <f>product_listing!F42</f>
+        <f>product_listing!G42</f>
         <v/>
       </c>
       <c r="K42" s="9" t="str">
@@ -6277,7 +6277,7 @@
         <v/>
       </c>
       <c r="M42" s="9" t="str">
-        <f>product_listing!I42</f>
+        <f>product_listing!F42</f>
         <v/>
       </c>
       <c r="N42" s="9" t="str">
@@ -6289,7 +6289,7 @@
         <v/>
       </c>
       <c r="P42" s="9" t="str">
-        <f>product_listing!H42</f>
+        <f>product_listing!I42</f>
         <v/>
       </c>
       <c r="Q42" s="9" t="str">
@@ -6351,7 +6351,7 @@
         <v/>
       </c>
       <c r="G43" s="9" t="str">
-        <f>product_listing!G43</f>
+        <f>product_listing!H43</f>
         <v/>
       </c>
       <c r="H43" s="9" t="str">
@@ -6363,7 +6363,7 @@
         <v/>
       </c>
       <c r="J43" s="9" t="str">
-        <f>product_listing!F43</f>
+        <f>product_listing!G43</f>
         <v/>
       </c>
       <c r="K43" s="9" t="str">
@@ -6375,7 +6375,7 @@
         <v/>
       </c>
       <c r="M43" s="9" t="str">
-        <f>product_listing!I43</f>
+        <f>product_listing!F43</f>
         <v/>
       </c>
       <c r="N43" s="9" t="str">
@@ -6387,7 +6387,7 @@
         <v/>
       </c>
       <c r="P43" s="9" t="str">
-        <f>product_listing!H43</f>
+        <f>product_listing!I43</f>
         <v/>
       </c>
       <c r="Q43" s="9" t="str">
@@ -6449,7 +6449,7 @@
         <v/>
       </c>
       <c r="G44" s="9" t="str">
-        <f>product_listing!G44</f>
+        <f>product_listing!H44</f>
         <v/>
       </c>
       <c r="H44" s="9" t="str">
@@ -6461,7 +6461,7 @@
         <v/>
       </c>
       <c r="J44" s="9" t="str">
-        <f>product_listing!F44</f>
+        <f>product_listing!G44</f>
         <v/>
       </c>
       <c r="K44" s="9" t="str">
@@ -6473,7 +6473,7 @@
         <v/>
       </c>
       <c r="M44" s="9" t="str">
-        <f>product_listing!I44</f>
+        <f>product_listing!F44</f>
         <v/>
       </c>
       <c r="N44" s="9" t="str">
@@ -6485,7 +6485,7 @@
         <v/>
       </c>
       <c r="P44" s="9" t="str">
-        <f>product_listing!H44</f>
+        <f>product_listing!I44</f>
         <v/>
       </c>
       <c r="Q44" s="9" t="str">
@@ -6547,7 +6547,7 @@
         <v/>
       </c>
       <c r="G45" s="9" t="str">
-        <f>product_listing!G45</f>
+        <f>product_listing!H45</f>
         <v/>
       </c>
       <c r="H45" s="9" t="str">
@@ -6559,7 +6559,7 @@
         <v/>
       </c>
       <c r="J45" s="9" t="str">
-        <f>product_listing!F45</f>
+        <f>product_listing!G45</f>
         <v/>
       </c>
       <c r="K45" s="9" t="str">
@@ -6571,7 +6571,7 @@
         <v/>
       </c>
       <c r="M45" s="9" t="str">
-        <f>product_listing!I45</f>
+        <f>product_listing!F45</f>
         <v/>
       </c>
       <c r="N45" s="9" t="str">
@@ -6583,7 +6583,7 @@
         <v/>
       </c>
       <c r="P45" s="9" t="str">
-        <f>product_listing!H45</f>
+        <f>product_listing!I45</f>
         <v/>
       </c>
       <c r="Q45" s="9" t="str">
@@ -6645,7 +6645,7 @@
         <v/>
       </c>
       <c r="G46" s="9" t="str">
-        <f>product_listing!G46</f>
+        <f>product_listing!H46</f>
         <v/>
       </c>
       <c r="H46" s="9" t="str">
@@ -6657,7 +6657,7 @@
         <v/>
       </c>
       <c r="J46" s="9" t="str">
-        <f>product_listing!F46</f>
+        <f>product_listing!G46</f>
         <v/>
       </c>
       <c r="K46" s="9" t="str">
@@ -6669,7 +6669,7 @@
         <v/>
       </c>
       <c r="M46" s="9" t="str">
-        <f>product_listing!I46</f>
+        <f>product_listing!F46</f>
         <v/>
       </c>
       <c r="N46" s="9" t="str">
@@ -6681,7 +6681,7 @@
         <v/>
       </c>
       <c r="P46" s="9" t="str">
-        <f>product_listing!H46</f>
+        <f>product_listing!I46</f>
         <v/>
       </c>
       <c r="Q46" s="9" t="str">
@@ -6743,7 +6743,7 @@
         <v/>
       </c>
       <c r="G47" s="9" t="str">
-        <f>product_listing!G47</f>
+        <f>product_listing!H47</f>
         <v/>
       </c>
       <c r="H47" s="9" t="str">
@@ -6755,7 +6755,7 @@
         <v/>
       </c>
       <c r="J47" s="9" t="str">
-        <f>product_listing!F47</f>
+        <f>product_listing!G47</f>
         <v/>
       </c>
       <c r="K47" s="9" t="str">
@@ -6767,7 +6767,7 @@
         <v/>
       </c>
       <c r="M47" s="9" t="str">
-        <f>product_listing!I47</f>
+        <f>product_listing!F47</f>
         <v/>
       </c>
       <c r="N47" s="9" t="str">
@@ -6779,7 +6779,7 @@
         <v/>
       </c>
       <c r="P47" s="9" t="str">
-        <f>product_listing!H47</f>
+        <f>product_listing!I47</f>
         <v/>
       </c>
       <c r="Q47" s="9" t="str">
@@ -6841,7 +6841,7 @@
         <v/>
       </c>
       <c r="G48" s="9" t="str">
-        <f>product_listing!G48</f>
+        <f>product_listing!H48</f>
         <v/>
       </c>
       <c r="H48" s="9" t="str">
@@ -6853,7 +6853,7 @@
         <v/>
       </c>
       <c r="J48" s="9" t="str">
-        <f>product_listing!F48</f>
+        <f>product_listing!G48</f>
         <v/>
       </c>
       <c r="K48" s="9" t="str">
@@ -6865,7 +6865,7 @@
         <v/>
       </c>
       <c r="M48" s="9" t="str">
-        <f>product_listing!I48</f>
+        <f>product_listing!F48</f>
         <v/>
       </c>
       <c r="N48" s="9" t="str">
@@ -6877,7 +6877,7 @@
         <v/>
       </c>
       <c r="P48" s="9" t="str">
-        <f>product_listing!H48</f>
+        <f>product_listing!I48</f>
         <v/>
       </c>
       <c r="Q48" s="9" t="str">
@@ -6939,7 +6939,7 @@
         <v/>
       </c>
       <c r="G49" s="9" t="str">
-        <f>product_listing!G49</f>
+        <f>product_listing!H49</f>
         <v/>
       </c>
       <c r="H49" s="9" t="str">
@@ -6951,7 +6951,7 @@
         <v/>
       </c>
       <c r="J49" s="9" t="str">
-        <f>product_listing!F49</f>
+        <f>product_listing!G49</f>
         <v/>
       </c>
       <c r="K49" s="9" t="str">
@@ -6963,7 +6963,7 @@
         <v/>
       </c>
       <c r="M49" s="9" t="str">
-        <f>product_listing!I49</f>
+        <f>product_listing!F49</f>
         <v/>
       </c>
       <c r="N49" s="9" t="str">
@@ -6975,7 +6975,7 @@
         <v/>
       </c>
       <c r="P49" s="9" t="str">
-        <f>product_listing!H49</f>
+        <f>product_listing!I49</f>
         <v/>
       </c>
       <c r="Q49" s="9" t="str">
@@ -7037,7 +7037,7 @@
         <v/>
       </c>
       <c r="G50" s="9" t="str">
-        <f>product_listing!G50</f>
+        <f>product_listing!H50</f>
         <v/>
       </c>
       <c r="H50" s="9" t="str">
@@ -7049,7 +7049,7 @@
         <v/>
       </c>
       <c r="J50" s="9" t="str">
-        <f>product_listing!F50</f>
+        <f>product_listing!G50</f>
         <v/>
       </c>
       <c r="K50" s="9" t="str">
@@ -7061,7 +7061,7 @@
         <v/>
       </c>
       <c r="M50" s="9" t="str">
-        <f>product_listing!I50</f>
+        <f>product_listing!F50</f>
         <v/>
       </c>
       <c r="N50" s="9" t="str">
@@ -7073,7 +7073,7 @@
         <v/>
       </c>
       <c r="P50" s="9" t="str">
-        <f>product_listing!H50</f>
+        <f>product_listing!I50</f>
         <v/>
       </c>
       <c r="Q50" s="9" t="str">
@@ -7135,7 +7135,7 @@
         <v/>
       </c>
       <c r="G51" s="9" t="str">
-        <f>product_listing!G51</f>
+        <f>product_listing!H51</f>
         <v/>
       </c>
       <c r="H51" s="9" t="str">
@@ -7147,7 +7147,7 @@
         <v/>
       </c>
       <c r="J51" s="9" t="str">
-        <f>product_listing!F51</f>
+        <f>product_listing!G51</f>
         <v/>
       </c>
       <c r="K51" s="9" t="str">
@@ -7159,7 +7159,7 @@
         <v/>
       </c>
       <c r="M51" s="9" t="str">
-        <f>product_listing!I51</f>
+        <f>product_listing!F51</f>
         <v/>
       </c>
       <c r="N51" s="9" t="str">
@@ -7171,7 +7171,7 @@
         <v/>
       </c>
       <c r="P51" s="9" t="str">
-        <f>product_listing!H51</f>
+        <f>product_listing!I51</f>
         <v/>
       </c>
       <c r="Q51" s="9" t="str">
@@ -7233,7 +7233,7 @@
         <v/>
       </c>
       <c r="G52" s="9" t="str">
-        <f>product_listing!G52</f>
+        <f>product_listing!H52</f>
         <v/>
       </c>
       <c r="H52" s="9" t="str">
@@ -7245,7 +7245,7 @@
         <v/>
       </c>
       <c r="J52" s="9" t="str">
-        <f>product_listing!F52</f>
+        <f>product_listing!G52</f>
         <v/>
       </c>
       <c r="K52" s="9" t="str">
@@ -7257,7 +7257,7 @@
         <v/>
       </c>
       <c r="M52" s="9" t="str">
-        <f>product_listing!I52</f>
+        <f>product_listing!F52</f>
         <v/>
       </c>
       <c r="N52" s="9" t="str">
@@ -7269,7 +7269,7 @@
         <v/>
       </c>
       <c r="P52" s="9" t="str">
-        <f>product_listing!H52</f>
+        <f>product_listing!I52</f>
         <v/>
       </c>
       <c r="Q52" s="9" t="str">
@@ -7331,7 +7331,7 @@
         <v/>
       </c>
       <c r="G53" s="9" t="str">
-        <f>product_listing!G53</f>
+        <f>product_listing!H53</f>
         <v/>
       </c>
       <c r="H53" s="9" t="str">
@@ -7343,7 +7343,7 @@
         <v/>
       </c>
       <c r="J53" s="9" t="str">
-        <f>product_listing!F53</f>
+        <f>product_listing!G53</f>
         <v/>
       </c>
       <c r="K53" s="9" t="str">
@@ -7355,7 +7355,7 @@
         <v/>
       </c>
       <c r="M53" s="9" t="str">
-        <f>product_listing!I53</f>
+        <f>product_listing!F53</f>
         <v/>
       </c>
       <c r="N53" s="9" t="str">
@@ -7367,7 +7367,7 @@
         <v/>
       </c>
       <c r="P53" s="9" t="str">
-        <f>product_listing!H53</f>
+        <f>product_listing!I53</f>
         <v/>
       </c>
       <c r="Q53" s="9" t="str">
@@ -7429,7 +7429,7 @@
         <v/>
       </c>
       <c r="G54" s="9" t="str">
-        <f>product_listing!G54</f>
+        <f>product_listing!H54</f>
         <v/>
       </c>
       <c r="H54" s="9" t="str">
@@ -7441,7 +7441,7 @@
         <v/>
       </c>
       <c r="J54" s="9" t="str">
-        <f>product_listing!F54</f>
+        <f>product_listing!G54</f>
         <v/>
       </c>
       <c r="K54" s="9" t="str">
@@ -7453,7 +7453,7 @@
         <v/>
       </c>
       <c r="M54" s="9" t="str">
-        <f>product_listing!I54</f>
+        <f>product_listing!F54</f>
         <v/>
       </c>
       <c r="N54" s="9" t="str">
@@ -7465,7 +7465,7 @@
         <v/>
       </c>
       <c r="P54" s="9" t="str">
-        <f>product_listing!H54</f>
+        <f>product_listing!I54</f>
         <v/>
       </c>
       <c r="Q54" s="9" t="str">
@@ -7527,7 +7527,7 @@
         <v/>
       </c>
       <c r="G55" s="9" t="str">
-        <f>product_listing!G55</f>
+        <f>product_listing!H55</f>
         <v/>
       </c>
       <c r="H55" s="9" t="str">
@@ -7539,7 +7539,7 @@
         <v/>
       </c>
       <c r="J55" s="9" t="str">
-        <f>product_listing!F55</f>
+        <f>product_listing!G55</f>
         <v/>
       </c>
       <c r="K55" s="9" t="str">
@@ -7551,7 +7551,7 @@
         <v/>
       </c>
       <c r="M55" s="9" t="str">
-        <f>product_listing!I55</f>
+        <f>product_listing!F55</f>
         <v/>
       </c>
       <c r="N55" s="9" t="str">
@@ -7563,7 +7563,7 @@
         <v/>
       </c>
       <c r="P55" s="9" t="str">
-        <f>product_listing!H55</f>
+        <f>product_listing!I55</f>
         <v/>
       </c>
       <c r="Q55" s="9" t="str">
@@ -7625,7 +7625,7 @@
         <v/>
       </c>
       <c r="G56" s="9" t="str">
-        <f>product_listing!G56</f>
+        <f>product_listing!H56</f>
         <v/>
       </c>
       <c r="H56" s="9" t="str">
@@ -7637,7 +7637,7 @@
         <v/>
       </c>
       <c r="J56" s="9" t="str">
-        <f>product_listing!F56</f>
+        <f>product_listing!G56</f>
         <v/>
       </c>
       <c r="K56" s="9" t="str">
@@ -7649,7 +7649,7 @@
         <v/>
       </c>
       <c r="M56" s="9" t="str">
-        <f>product_listing!I56</f>
+        <f>product_listing!F56</f>
         <v/>
       </c>
       <c r="N56" s="9" t="str">
@@ -7661,7 +7661,7 @@
         <v/>
       </c>
       <c r="P56" s="9" t="str">
-        <f>product_listing!H56</f>
+        <f>product_listing!I56</f>
         <v/>
       </c>
       <c r="Q56" s="9" t="str">
@@ -7723,7 +7723,7 @@
         <v/>
       </c>
       <c r="G57" s="9" t="str">
-        <f>product_listing!G57</f>
+        <f>product_listing!H57</f>
         <v/>
       </c>
       <c r="H57" s="9" t="str">
@@ -7735,7 +7735,7 @@
         <v/>
       </c>
       <c r="J57" s="9" t="str">
-        <f>product_listing!F57</f>
+        <f>product_listing!G57</f>
         <v/>
       </c>
       <c r="K57" s="9" t="str">
@@ -7747,7 +7747,7 @@
         <v/>
       </c>
       <c r="M57" s="9" t="str">
-        <f>product_listing!I57</f>
+        <f>product_listing!F57</f>
         <v/>
       </c>
       <c r="N57" s="9" t="str">
@@ -7759,7 +7759,7 @@
         <v/>
       </c>
       <c r="P57" s="9" t="str">
-        <f>product_listing!H57</f>
+        <f>product_listing!I57</f>
         <v/>
       </c>
       <c r="Q57" s="9" t="str">
@@ -7821,7 +7821,7 @@
         <v/>
       </c>
       <c r="G58" s="9" t="str">
-        <f>product_listing!G58</f>
+        <f>product_listing!H58</f>
         <v/>
       </c>
       <c r="H58" s="9" t="str">
@@ -7833,7 +7833,7 @@
         <v/>
       </c>
       <c r="J58" s="9" t="str">
-        <f>product_listing!F58</f>
+        <f>product_listing!G58</f>
         <v/>
       </c>
       <c r="K58" s="9" t="str">
@@ -7845,7 +7845,7 @@
         <v/>
       </c>
       <c r="M58" s="9" t="str">
-        <f>product_listing!I58</f>
+        <f>product_listing!F58</f>
         <v/>
       </c>
       <c r="N58" s="9" t="str">
@@ -7857,7 +7857,7 @@
         <v/>
       </c>
       <c r="P58" s="9" t="str">
-        <f>product_listing!H58</f>
+        <f>product_listing!I58</f>
         <v/>
       </c>
       <c r="Q58" s="9" t="str">
@@ -7919,7 +7919,7 @@
         <v/>
       </c>
       <c r="G59" s="9" t="str">
-        <f>product_listing!G59</f>
+        <f>product_listing!H59</f>
         <v/>
       </c>
       <c r="H59" s="9" t="str">
@@ -7931,7 +7931,7 @@
         <v/>
       </c>
       <c r="J59" s="9" t="str">
-        <f>product_listing!F59</f>
+        <f>product_listing!G59</f>
         <v/>
       </c>
       <c r="K59" s="9" t="str">
@@ -7943,7 +7943,7 @@
         <v/>
       </c>
       <c r="M59" s="9" t="str">
-        <f>product_listing!I59</f>
+        <f>product_listing!F59</f>
         <v/>
       </c>
       <c r="N59" s="9" t="str">
@@ -7955,7 +7955,7 @@
         <v/>
       </c>
       <c r="P59" s="9" t="str">
-        <f>product_listing!H59</f>
+        <f>product_listing!I59</f>
         <v/>
       </c>
       <c r="Q59" s="9" t="str">
@@ -8017,7 +8017,7 @@
         <v/>
       </c>
       <c r="G60" s="9" t="str">
-        <f>product_listing!G60</f>
+        <f>product_listing!H60</f>
         <v/>
       </c>
       <c r="H60" s="9" t="str">
@@ -8029,7 +8029,7 @@
         <v/>
       </c>
       <c r="J60" s="9" t="str">
-        <f>product_listing!F60</f>
+        <f>product_listing!G60</f>
         <v/>
       </c>
       <c r="K60" s="9" t="str">
@@ -8041,7 +8041,7 @@
         <v/>
       </c>
       <c r="M60" s="9" t="str">
-        <f>product_listing!I60</f>
+        <f>product_listing!F60</f>
         <v/>
       </c>
       <c r="N60" s="9" t="str">
@@ -8053,7 +8053,7 @@
         <v/>
       </c>
       <c r="P60" s="9" t="str">
-        <f>product_listing!H60</f>
+        <f>product_listing!I60</f>
         <v/>
       </c>
       <c r="Q60" s="9" t="str">
@@ -8115,7 +8115,7 @@
         <v/>
       </c>
       <c r="G61" s="9" t="str">
-        <f>product_listing!G61</f>
+        <f>product_listing!H61</f>
         <v/>
       </c>
       <c r="H61" s="9" t="str">
@@ -8127,7 +8127,7 @@
         <v/>
       </c>
       <c r="J61" s="9" t="str">
-        <f>product_listing!F61</f>
+        <f>product_listing!G61</f>
         <v/>
       </c>
       <c r="K61" s="9" t="str">
@@ -8139,7 +8139,7 @@
         <v/>
       </c>
       <c r="M61" s="9" t="str">
-        <f>product_listing!I61</f>
+        <f>product_listing!F61</f>
         <v/>
       </c>
       <c r="N61" s="9" t="str">
@@ -8151,7 +8151,7 @@
         <v/>
       </c>
       <c r="P61" s="9" t="str">
-        <f>product_listing!H61</f>
+        <f>product_listing!I61</f>
         <v/>
       </c>
       <c r="Q61" s="9" t="str">
@@ -8213,7 +8213,7 @@
         <v/>
       </c>
       <c r="G62" s="9" t="str">
-        <f>product_listing!G62</f>
+        <f>product_listing!H62</f>
         <v/>
       </c>
       <c r="H62" s="9" t="str">
@@ -8225,7 +8225,7 @@
         <v/>
       </c>
       <c r="J62" s="9" t="str">
-        <f>product_listing!F62</f>
+        <f>product_listing!G62</f>
         <v/>
       </c>
       <c r="K62" s="9" t="str">
@@ -8237,7 +8237,7 @@
         <v/>
       </c>
       <c r="M62" s="9" t="str">
-        <f>product_listing!I62</f>
+        <f>product_listing!F62</f>
         <v/>
       </c>
       <c r="N62" s="9" t="str">
@@ -8249,7 +8249,7 @@
         <v/>
       </c>
       <c r="P62" s="9" t="str">
-        <f>product_listing!H62</f>
+        <f>product_listing!I62</f>
         <v/>
       </c>
       <c r="Q62" s="9" t="str">
@@ -8311,7 +8311,7 @@
         <v/>
       </c>
       <c r="G63" s="9" t="str">
-        <f>product_listing!G63</f>
+        <f>product_listing!H63</f>
         <v/>
       </c>
       <c r="H63" s="9" t="str">
@@ -8323,7 +8323,7 @@
         <v/>
       </c>
       <c r="J63" s="9" t="str">
-        <f>product_listing!F63</f>
+        <f>product_listing!G63</f>
         <v/>
       </c>
       <c r="K63" s="9" t="str">
@@ -8335,7 +8335,7 @@
         <v/>
       </c>
       <c r="M63" s="9" t="str">
-        <f>product_listing!I63</f>
+        <f>product_listing!F63</f>
         <v/>
       </c>
       <c r="N63" s="9" t="str">
@@ -8347,7 +8347,7 @@
         <v/>
       </c>
       <c r="P63" s="9" t="str">
-        <f>product_listing!H63</f>
+        <f>product_listing!I63</f>
         <v/>
       </c>
       <c r="Q63" s="9" t="str">
@@ -8409,7 +8409,7 @@
         <v/>
       </c>
       <c r="G64" s="9" t="str">
-        <f>product_listing!G64</f>
+        <f>product_listing!H64</f>
         <v/>
       </c>
       <c r="H64" s="9" t="str">
@@ -8421,7 +8421,7 @@
         <v/>
       </c>
       <c r="J64" s="9" t="str">
-        <f>product_listing!F64</f>
+        <f>product_listing!G64</f>
         <v/>
       </c>
       <c r="K64" s="9" t="str">
@@ -8433,7 +8433,7 @@
         <v/>
       </c>
       <c r="M64" s="9" t="str">
-        <f>product_listing!I64</f>
+        <f>product_listing!F64</f>
         <v/>
       </c>
       <c r="N64" s="9" t="str">
@@ -8445,7 +8445,7 @@
         <v/>
       </c>
       <c r="P64" s="9" t="str">
-        <f>product_listing!H64</f>
+        <f>product_listing!I64</f>
         <v/>
       </c>
       <c r="Q64" s="9" t="str">
@@ -8507,7 +8507,7 @@
         <v/>
       </c>
       <c r="G65" s="9" t="str">
-        <f>product_listing!G65</f>
+        <f>product_listing!H65</f>
         <v/>
       </c>
       <c r="H65" s="9" t="str">
@@ -8519,7 +8519,7 @@
         <v/>
       </c>
       <c r="J65" s="9" t="str">
-        <f>product_listing!F65</f>
+        <f>product_listing!G65</f>
         <v/>
       </c>
       <c r="K65" s="9" t="str">
@@ -8531,7 +8531,7 @@
         <v/>
       </c>
       <c r="M65" s="9" t="str">
-        <f>product_listing!I65</f>
+        <f>product_listing!F65</f>
         <v/>
       </c>
       <c r="N65" s="9" t="str">
@@ -8543,7 +8543,7 @@
         <v/>
       </c>
       <c r="P65" s="9" t="str">
-        <f>product_listing!H65</f>
+        <f>product_listing!I65</f>
         <v/>
       </c>
       <c r="Q65" s="9" t="str">
@@ -8605,7 +8605,7 @@
         <v/>
       </c>
       <c r="G66" s="9" t="str">
-        <f>product_listing!G66</f>
+        <f>product_listing!H66</f>
         <v/>
       </c>
       <c r="H66" s="9" t="str">
@@ -8617,7 +8617,7 @@
         <v/>
       </c>
       <c r="J66" s="9" t="str">
-        <f>product_listing!F66</f>
+        <f>product_listing!G66</f>
         <v/>
       </c>
       <c r="K66" s="9" t="str">
@@ -8629,7 +8629,7 @@
         <v/>
       </c>
       <c r="M66" s="9" t="str">
-        <f>product_listing!I66</f>
+        <f>product_listing!F66</f>
         <v/>
       </c>
       <c r="N66" s="9" t="str">
@@ -8641,7 +8641,7 @@
         <v/>
       </c>
       <c r="P66" s="9" t="str">
-        <f>product_listing!H66</f>
+        <f>product_listing!I66</f>
         <v/>
       </c>
       <c r="Q66" s="9" t="str">
@@ -8703,7 +8703,7 @@
         <v/>
       </c>
       <c r="G67" s="9" t="str">
-        <f>product_listing!G67</f>
+        <f>product_listing!H67</f>
         <v/>
       </c>
       <c r="H67" s="9" t="str">
@@ -8715,7 +8715,7 @@
         <v/>
       </c>
       <c r="J67" s="9" t="str">
-        <f>product_listing!F67</f>
+        <f>product_listing!G67</f>
         <v/>
       </c>
       <c r="K67" s="9" t="str">
@@ -8727,7 +8727,7 @@
         <v/>
       </c>
       <c r="M67" s="9" t="str">
-        <f>product_listing!I67</f>
+        <f>product_listing!F67</f>
         <v/>
       </c>
       <c r="N67" s="9" t="str">
@@ -8739,7 +8739,7 @@
         <v/>
       </c>
       <c r="P67" s="9" t="str">
-        <f>product_listing!H67</f>
+        <f>product_listing!I67</f>
         <v/>
       </c>
       <c r="Q67" s="9" t="str">
@@ -8801,7 +8801,7 @@
         <v/>
       </c>
       <c r="G68" s="9" t="str">
-        <f>product_listing!G68</f>
+        <f>product_listing!H68</f>
         <v/>
       </c>
       <c r="H68" s="9" t="str">
@@ -8813,7 +8813,7 @@
         <v/>
       </c>
       <c r="J68" s="9" t="str">
-        <f>product_listing!F68</f>
+        <f>product_listing!G68</f>
         <v/>
       </c>
       <c r="K68" s="9" t="str">
@@ -8825,7 +8825,7 @@
         <v/>
       </c>
       <c r="M68" s="9" t="str">
-        <f>product_listing!I68</f>
+        <f>product_listing!F68</f>
         <v/>
       </c>
       <c r="N68" s="9" t="str">
@@ -8837,7 +8837,7 @@
         <v/>
       </c>
       <c r="P68" s="9" t="str">
-        <f>product_listing!H68</f>
+        <f>product_listing!I68</f>
         <v/>
       </c>
       <c r="Q68" s="9" t="str">
@@ -8899,7 +8899,7 @@
         <v/>
       </c>
       <c r="G69" s="9" t="str">
-        <f>product_listing!G69</f>
+        <f>product_listing!H69</f>
         <v/>
       </c>
       <c r="H69" s="9" t="str">
@@ -8911,7 +8911,7 @@
         <v/>
       </c>
       <c r="J69" s="9" t="str">
-        <f>product_listing!F69</f>
+        <f>product_listing!G69</f>
         <v/>
       </c>
       <c r="K69" s="9" t="str">
@@ -8923,7 +8923,7 @@
         <v/>
       </c>
       <c r="M69" s="9" t="str">
-        <f>product_listing!I69</f>
+        <f>product_listing!F69</f>
         <v/>
       </c>
       <c r="N69" s="9" t="str">
@@ -8935,7 +8935,7 @@
         <v/>
       </c>
       <c r="P69" s="9" t="str">
-        <f>product_listing!H69</f>
+        <f>product_listing!I69</f>
         <v/>
       </c>
       <c r="Q69" s="9" t="str">
@@ -8997,7 +8997,7 @@
         <v/>
       </c>
       <c r="G70" s="9" t="str">
-        <f>product_listing!G70</f>
+        <f>product_listing!H70</f>
         <v/>
       </c>
       <c r="H70" s="9" t="str">
@@ -9009,7 +9009,7 @@
         <v/>
       </c>
       <c r="J70" s="9" t="str">
-        <f>product_listing!F70</f>
+        <f>product_listing!G70</f>
         <v/>
       </c>
       <c r="K70" s="9" t="str">
@@ -9021,7 +9021,7 @@
         <v/>
       </c>
       <c r="M70" s="9" t="str">
-        <f>product_listing!I70</f>
+        <f>product_listing!F70</f>
         <v/>
       </c>
       <c r="N70" s="9" t="str">
@@ -9033,7 +9033,7 @@
         <v/>
       </c>
       <c r="P70" s="9" t="str">
-        <f>product_listing!H70</f>
+        <f>product_listing!I70</f>
         <v/>
       </c>
       <c r="Q70" s="9" t="str">
@@ -9095,7 +9095,7 @@
         <v/>
       </c>
       <c r="G71" s="9" t="str">
-        <f>product_listing!G71</f>
+        <f>product_listing!H71</f>
         <v/>
       </c>
       <c r="H71" s="9" t="str">
@@ -9107,7 +9107,7 @@
         <v/>
       </c>
       <c r="J71" s="9" t="str">
-        <f>product_listing!F71</f>
+        <f>product_listing!G71</f>
         <v/>
       </c>
       <c r="K71" s="9" t="str">
@@ -9119,7 +9119,7 @@
         <v/>
       </c>
       <c r="M71" s="9" t="str">
-        <f>product_listing!I71</f>
+        <f>product_listing!F71</f>
         <v/>
       </c>
       <c r="N71" s="9" t="str">
@@ -9131,7 +9131,7 @@
         <v/>
       </c>
       <c r="P71" s="9" t="str">
-        <f>product_listing!H71</f>
+        <f>product_listing!I71</f>
         <v/>
       </c>
       <c r="Q71" s="9" t="str">
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="G72" s="9" t="str">
-        <f>product_listing!G72</f>
+        <f>product_listing!H72</f>
         <v/>
       </c>
       <c r="H72" s="9" t="str">
@@ -9205,7 +9205,7 @@
         <v/>
       </c>
       <c r="J72" s="9" t="str">
-        <f>product_listing!F72</f>
+        <f>product_listing!G72</f>
         <v/>
       </c>
       <c r="K72" s="9" t="str">
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="M72" s="9" t="str">
-        <f>product_listing!I72</f>
+        <f>product_listing!F72</f>
         <v/>
       </c>
       <c r="N72" s="9" t="str">
@@ -9229,7 +9229,7 @@
         <v/>
       </c>
       <c r="P72" s="9" t="str">
-        <f>product_listing!H72</f>
+        <f>product_listing!I72</f>
         <v/>
       </c>
       <c r="Q72" s="9" t="str">
@@ -9291,7 +9291,7 @@
         <v/>
       </c>
       <c r="G73" s="9" t="str">
-        <f>product_listing!G73</f>
+        <f>product_listing!H73</f>
         <v/>
       </c>
       <c r="H73" s="9" t="str">
@@ -9303,7 +9303,7 @@
         <v/>
       </c>
       <c r="J73" s="9" t="str">
-        <f>product_listing!F73</f>
+        <f>product_listing!G73</f>
         <v/>
       </c>
       <c r="K73" s="9" t="str">
@@ -9315,7 +9315,7 @@
         <v/>
       </c>
       <c r="M73" s="9" t="str">
-        <f>product_listing!I73</f>
+        <f>product_listing!F73</f>
         <v/>
       </c>
       <c r="N73" s="9" t="str">
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="P73" s="9" t="str">
-        <f>product_listing!H73</f>
+        <f>product_listing!I73</f>
         <v/>
       </c>
       <c r="Q73" s="9" t="str">
@@ -9389,7 +9389,7 @@
         <v/>
       </c>
       <c r="G74" s="9" t="str">
-        <f>product_listing!G74</f>
+        <f>product_listing!H74</f>
         <v/>
       </c>
       <c r="H74" s="9" t="str">
@@ -9401,7 +9401,7 @@
         <v/>
       </c>
       <c r="J74" s="9" t="str">
-        <f>product_listing!F74</f>
+        <f>product_listing!G74</f>
         <v/>
       </c>
       <c r="K74" s="9" t="str">
@@ -9413,7 +9413,7 @@
         <v/>
       </c>
       <c r="M74" s="9" t="str">
-        <f>product_listing!I74</f>
+        <f>product_listing!F74</f>
         <v/>
       </c>
       <c r="N74" s="9" t="str">
@@ -9425,7 +9425,7 @@
         <v/>
       </c>
       <c r="P74" s="9" t="str">
-        <f>product_listing!H74</f>
+        <f>product_listing!I74</f>
         <v/>
       </c>
       <c r="Q74" s="9" t="str">
@@ -9487,7 +9487,7 @@
         <v/>
       </c>
       <c r="G75" s="9" t="str">
-        <f>product_listing!G75</f>
+        <f>product_listing!H75</f>
         <v/>
       </c>
       <c r="H75" s="9" t="str">
@@ -9499,7 +9499,7 @@
         <v/>
       </c>
       <c r="J75" s="9" t="str">
-        <f>product_listing!F75</f>
+        <f>product_listing!G75</f>
         <v/>
       </c>
       <c r="K75" s="9" t="str">
@@ -9511,7 +9511,7 @@
         <v/>
       </c>
       <c r="M75" s="9" t="str">
-        <f>product_listing!I75</f>
+        <f>product_listing!F75</f>
         <v/>
       </c>
       <c r="N75" s="9" t="str">
@@ -9523,7 +9523,7 @@
         <v/>
       </c>
       <c r="P75" s="9" t="str">
-        <f>product_listing!H75</f>
+        <f>product_listing!I75</f>
         <v/>
       </c>
       <c r="Q75" s="9" t="str">
@@ -9585,7 +9585,7 @@
         <v/>
       </c>
       <c r="G76" s="9" t="str">
-        <f>product_listing!G76</f>
+        <f>product_listing!H76</f>
         <v/>
       </c>
       <c r="H76" s="9" t="str">
@@ -9597,7 +9597,7 @@
         <v/>
       </c>
       <c r="J76" s="9" t="str">
-        <f>product_listing!F76</f>
+        <f>product_listing!G76</f>
         <v/>
       </c>
       <c r="K76" s="9" t="str">
@@ -9609,7 +9609,7 @@
         <v/>
       </c>
       <c r="M76" s="9" t="str">
-        <f>product_listing!I76</f>
+        <f>product_listing!F76</f>
         <v/>
       </c>
       <c r="N76" s="9" t="str">
@@ -9621,7 +9621,7 @@
         <v/>
       </c>
       <c r="P76" s="9" t="str">
-        <f>product_listing!H76</f>
+        <f>product_listing!I76</f>
         <v/>
       </c>
       <c r="Q76" s="9" t="str">
@@ -9683,7 +9683,7 @@
         <v/>
       </c>
       <c r="G77" s="9" t="str">
-        <f>product_listing!G77</f>
+        <f>product_listing!H77</f>
         <v/>
       </c>
       <c r="H77" s="9" t="str">
@@ -9695,7 +9695,7 @@
         <v/>
       </c>
       <c r="J77" s="9" t="str">
-        <f>product_listing!F77</f>
+        <f>product_listing!G77</f>
         <v/>
       </c>
       <c r="K77" s="9" t="str">
@@ -9707,7 +9707,7 @@
         <v/>
       </c>
       <c r="M77" s="9" t="str">
-        <f>product_listing!I77</f>
+        <f>product_listing!F77</f>
         <v/>
       </c>
       <c r="N77" s="9" t="str">
@@ -9719,7 +9719,7 @@
         <v/>
       </c>
       <c r="P77" s="9" t="str">
-        <f>product_listing!H77</f>
+        <f>product_listing!I77</f>
         <v/>
       </c>
       <c r="Q77" s="9" t="str">
@@ -9781,7 +9781,7 @@
         <v/>
       </c>
       <c r="G78" s="9" t="str">
-        <f>product_listing!G78</f>
+        <f>product_listing!H78</f>
         <v/>
       </c>
       <c r="H78" s="9" t="str">
@@ -9793,7 +9793,7 @@
         <v/>
       </c>
       <c r="J78" s="9" t="str">
-        <f>product_listing!F78</f>
+        <f>product_listing!G78</f>
         <v/>
       </c>
       <c r="K78" s="9" t="str">
@@ -9805,7 +9805,7 @@
         <v/>
       </c>
       <c r="M78" s="9" t="str">
-        <f>product_listing!I78</f>
+        <f>product_listing!F78</f>
         <v/>
       </c>
       <c r="N78" s="9" t="str">
@@ -9817,7 +9817,7 @@
         <v/>
       </c>
       <c r="P78" s="9" t="str">
-        <f>product_listing!H78</f>
+        <f>product_listing!I78</f>
         <v/>
       </c>
       <c r="Q78" s="9" t="str">
@@ -9879,7 +9879,7 @@
         <v/>
       </c>
       <c r="G79" s="9" t="str">
-        <f>product_listing!G79</f>
+        <f>product_listing!H79</f>
         <v/>
       </c>
       <c r="H79" s="9" t="str">
@@ -9891,7 +9891,7 @@
         <v/>
       </c>
       <c r="J79" s="9" t="str">
-        <f>product_listing!F79</f>
+        <f>product_listing!G79</f>
         <v/>
       </c>
       <c r="K79" s="9" t="str">
@@ -9903,7 +9903,7 @@
         <v/>
       </c>
       <c r="M79" s="9" t="str">
-        <f>product_listing!I79</f>
+        <f>product_listing!F79</f>
         <v/>
       </c>
       <c r="N79" s="9" t="str">
@@ -9915,7 +9915,7 @@
         <v/>
       </c>
       <c r="P79" s="9" t="str">
-        <f>product_listing!H79</f>
+        <f>product_listing!I79</f>
         <v/>
       </c>
       <c r="Q79" s="9" t="str">
@@ -9977,7 +9977,7 @@
         <v/>
       </c>
       <c r="G80" s="9" t="str">
-        <f>product_listing!G80</f>
+        <f>product_listing!H80</f>
         <v/>
       </c>
       <c r="H80" s="9" t="str">
@@ -9989,7 +9989,7 @@
         <v/>
       </c>
       <c r="J80" s="9" t="str">
-        <f>product_listing!F80</f>
+        <f>product_listing!G80</f>
         <v/>
       </c>
       <c r="K80" s="9" t="str">
@@ -10001,7 +10001,7 @@
         <v/>
       </c>
       <c r="M80" s="9" t="str">
-        <f>product_listing!I80</f>
+        <f>product_listing!F80</f>
         <v/>
       </c>
       <c r="N80" s="9" t="str">
@@ -10013,7 +10013,7 @@
         <v/>
       </c>
       <c r="P80" s="9" t="str">
-        <f>product_listing!H80</f>
+        <f>product_listing!I80</f>
         <v/>
       </c>
       <c r="Q80" s="9" t="str">
@@ -10075,7 +10075,7 @@
         <v/>
       </c>
       <c r="G81" s="9" t="str">
-        <f>product_listing!G81</f>
+        <f>product_listing!H81</f>
         <v/>
       </c>
       <c r="H81" s="9" t="str">
@@ -10087,7 +10087,7 @@
         <v/>
       </c>
       <c r="J81" s="9" t="str">
-        <f>product_listing!F81</f>
+        <f>product_listing!G81</f>
         <v/>
       </c>
       <c r="K81" s="9" t="str">
@@ -10099,7 +10099,7 @@
         <v/>
       </c>
       <c r="M81" s="9" t="str">
-        <f>product_listing!I81</f>
+        <f>product_listing!F81</f>
         <v/>
       </c>
       <c r="N81" s="9" t="str">
@@ -10111,7 +10111,7 @@
         <v/>
       </c>
       <c r="P81" s="9" t="str">
-        <f>product_listing!H81</f>
+        <f>product_listing!I81</f>
         <v/>
       </c>
       <c r="Q81" s="9" t="str">
@@ -10173,7 +10173,7 @@
         <v/>
       </c>
       <c r="G82" s="9" t="str">
-        <f>product_listing!G82</f>
+        <f>product_listing!H82</f>
         <v/>
       </c>
       <c r="H82" s="9" t="str">
@@ -10185,7 +10185,7 @@
         <v/>
       </c>
       <c r="J82" s="9" t="str">
-        <f>product_listing!F82</f>
+        <f>product_listing!G82</f>
         <v/>
       </c>
       <c r="K82" s="9" t="str">
@@ -10197,7 +10197,7 @@
         <v/>
       </c>
       <c r="M82" s="9" t="str">
-        <f>product_listing!I82</f>
+        <f>product_listing!F82</f>
         <v/>
       </c>
       <c r="N82" s="9" t="str">
@@ -10209,7 +10209,7 @@
         <v/>
       </c>
       <c r="P82" s="9" t="str">
-        <f>product_listing!H82</f>
+        <f>product_listing!I82</f>
         <v/>
       </c>
       <c r="Q82" s="9" t="str">
@@ -10271,7 +10271,7 @@
         <v/>
       </c>
       <c r="G83" s="9" t="str">
-        <f>product_listing!G83</f>
+        <f>product_listing!H83</f>
         <v/>
       </c>
       <c r="H83" s="9" t="str">
@@ -10283,7 +10283,7 @@
         <v/>
       </c>
       <c r="J83" s="9" t="str">
-        <f>product_listing!F83</f>
+        <f>product_listing!G83</f>
         <v/>
       </c>
       <c r="K83" s="9" t="str">
@@ -10295,7 +10295,7 @@
         <v/>
       </c>
       <c r="M83" s="9" t="str">
-        <f>product_listing!I83</f>
+        <f>product_listing!F83</f>
         <v/>
       </c>
       <c r="N83" s="9" t="str">
@@ -10307,7 +10307,7 @@
         <v/>
       </c>
       <c r="P83" s="9" t="str">
-        <f>product_listing!H83</f>
+        <f>product_listing!I83</f>
         <v/>
       </c>
       <c r="Q83" s="9" t="str">
@@ -10369,7 +10369,7 @@
         <v/>
       </c>
       <c r="G84" s="9" t="str">
-        <f>product_listing!G84</f>
+        <f>product_listing!H84</f>
         <v/>
       </c>
       <c r="H84" s="9" t="str">
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="J84" s="9" t="str">
-        <f>product_listing!F84</f>
+        <f>product_listing!G84</f>
         <v/>
       </c>
       <c r="K84" s="9" t="str">
@@ -10393,7 +10393,7 @@
         <v/>
       </c>
       <c r="M84" s="9" t="str">
-        <f>product_listing!I84</f>
+        <f>product_listing!F84</f>
         <v/>
       </c>
       <c r="N84" s="9" t="str">
@@ -10405,7 +10405,7 @@
         <v/>
       </c>
       <c r="P84" s="9" t="str">
-        <f>product_listing!H84</f>
+        <f>product_listing!I84</f>
         <v/>
       </c>
       <c r="Q84" s="9" t="str">
@@ -10467,7 +10467,7 @@
         <v/>
       </c>
       <c r="G85" s="9" t="str">
-        <f>product_listing!G85</f>
+        <f>product_listing!H85</f>
         <v/>
       </c>
       <c r="H85" s="9" t="str">
@@ -10479,7 +10479,7 @@
         <v/>
       </c>
       <c r="J85" s="9" t="str">
-        <f>product_listing!F85</f>
+        <f>product_listing!G85</f>
         <v/>
       </c>
       <c r="K85" s="9" t="str">
@@ -10491,7 +10491,7 @@
         <v/>
       </c>
       <c r="M85" s="9" t="str">
-        <f>product_listing!I85</f>
+        <f>product_listing!F85</f>
         <v/>
       </c>
       <c r="N85" s="9" t="str">
@@ -10503,7 +10503,7 @@
         <v/>
       </c>
       <c r="P85" s="9" t="str">
-        <f>product_listing!H85</f>
+        <f>product_listing!I85</f>
         <v/>
       </c>
       <c r="Q85" s="9" t="str">
@@ -10565,7 +10565,7 @@
         <v/>
       </c>
       <c r="G86" s="9" t="str">
-        <f>product_listing!G86</f>
+        <f>product_listing!H86</f>
         <v/>
       </c>
       <c r="H86" s="9" t="str">
@@ -10577,7 +10577,7 @@
         <v/>
       </c>
       <c r="J86" s="9" t="str">
-        <f>product_listing!F86</f>
+        <f>product_listing!G86</f>
         <v/>
       </c>
       <c r="K86" s="9" t="str">
@@ -10589,7 +10589,7 @@
         <v/>
       </c>
       <c r="M86" s="9" t="str">
-        <f>product_listing!I86</f>
+        <f>product_listing!F86</f>
         <v/>
       </c>
       <c r="N86" s="9" t="str">
@@ -10601,7 +10601,7 @@
         <v/>
       </c>
       <c r="P86" s="9" t="str">
-        <f>product_listing!H86</f>
+        <f>product_listing!I86</f>
         <v/>
       </c>
       <c r="Q86" s="9" t="str">
@@ -10663,7 +10663,7 @@
         <v/>
       </c>
       <c r="G87" s="9" t="str">
-        <f>product_listing!G87</f>
+        <f>product_listing!H87</f>
         <v/>
       </c>
       <c r="H87" s="9" t="str">
@@ -10675,7 +10675,7 @@
         <v/>
       </c>
       <c r="J87" s="9" t="str">
-        <f>product_listing!F87</f>
+        <f>product_listing!G87</f>
         <v/>
       </c>
       <c r="K87" s="9" t="str">
@@ -10687,7 +10687,7 @@
         <v/>
       </c>
       <c r="M87" s="9" t="str">
-        <f>product_listing!I87</f>
+        <f>product_listing!F87</f>
         <v/>
       </c>
       <c r="N87" s="9" t="str">
@@ -10699,7 +10699,7 @@
         <v/>
       </c>
       <c r="P87" s="9" t="str">
-        <f>product_listing!H87</f>
+        <f>product_listing!I87</f>
         <v/>
       </c>
       <c r="Q87" s="9" t="str">
@@ -10761,7 +10761,7 @@
         <v/>
       </c>
       <c r="G88" s="9" t="str">
-        <f>product_listing!G88</f>
+        <f>product_listing!H88</f>
         <v/>
       </c>
       <c r="H88" s="9" t="str">
@@ -10773,7 +10773,7 @@
         <v/>
       </c>
       <c r="J88" s="9" t="str">
-        <f>product_listing!F88</f>
+        <f>product_listing!G88</f>
         <v/>
       </c>
       <c r="K88" s="9" t="str">
@@ -10785,7 +10785,7 @@
         <v/>
       </c>
       <c r="M88" s="9" t="str">
-        <f>product_listing!I88</f>
+        <f>product_listing!F88</f>
         <v/>
       </c>
       <c r="N88" s="9" t="str">
@@ -10797,7 +10797,7 @@
         <v/>
       </c>
       <c r="P88" s="9" t="str">
-        <f>product_listing!H88</f>
+        <f>product_listing!I88</f>
         <v/>
       </c>
       <c r="Q88" s="9" t="str">
@@ -10859,7 +10859,7 @@
         <v/>
       </c>
       <c r="G89" s="9" t="str">
-        <f>product_listing!G89</f>
+        <f>product_listing!H89</f>
         <v/>
       </c>
       <c r="H89" s="9" t="str">
@@ -10871,7 +10871,7 @@
         <v/>
       </c>
       <c r="J89" s="9" t="str">
-        <f>product_listing!F89</f>
+        <f>product_listing!G89</f>
         <v/>
       </c>
       <c r="K89" s="9" t="str">
@@ -10883,7 +10883,7 @@
         <v/>
       </c>
       <c r="M89" s="9" t="str">
-        <f>product_listing!I89</f>
+        <f>product_listing!F89</f>
         <v/>
       </c>
       <c r="N89" s="9" t="str">
@@ -10895,7 +10895,7 @@
         <v/>
       </c>
       <c r="P89" s="9" t="str">
-        <f>product_listing!H89</f>
+        <f>product_listing!I89</f>
         <v/>
       </c>
       <c r="Q89" s="9" t="str">
@@ -10957,7 +10957,7 @@
         <v/>
       </c>
       <c r="G90" s="9" t="str">
-        <f>product_listing!G90</f>
+        <f>product_listing!H90</f>
         <v/>
       </c>
       <c r="H90" s="9" t="str">
@@ -10969,7 +10969,7 @@
         <v/>
       </c>
       <c r="J90" s="9" t="str">
-        <f>product_listing!F90</f>
+        <f>product_listing!G90</f>
         <v/>
       </c>
       <c r="K90" s="9" t="str">
@@ -10981,7 +10981,7 @@
         <v/>
       </c>
       <c r="M90" s="9" t="str">
-        <f>product_listing!I90</f>
+        <f>product_listing!F90</f>
         <v/>
       </c>
       <c r="N90" s="9" t="str">
@@ -10993,7 +10993,7 @@
         <v/>
       </c>
       <c r="P90" s="9" t="str">
-        <f>product_listing!H90</f>
+        <f>product_listing!I90</f>
         <v/>
       </c>
       <c r="Q90" s="9" t="str">
@@ -11055,7 +11055,7 @@
         <v/>
       </c>
       <c r="G91" s="9" t="str">
-        <f>product_listing!G91</f>
+        <f>product_listing!H91</f>
         <v/>
       </c>
       <c r="H91" s="9" t="str">
@@ -11067,7 +11067,7 @@
         <v/>
       </c>
       <c r="J91" s="9" t="str">
-        <f>product_listing!F91</f>
+        <f>product_listing!G91</f>
         <v/>
       </c>
       <c r="K91" s="9" t="str">
@@ -11079,7 +11079,7 @@
         <v/>
       </c>
       <c r="M91" s="9" t="str">
-        <f>product_listing!I91</f>
+        <f>product_listing!F91</f>
         <v/>
       </c>
       <c r="N91" s="9" t="str">
@@ -11091,7 +11091,7 @@
         <v/>
       </c>
       <c r="P91" s="9" t="str">
-        <f>product_listing!H91</f>
+        <f>product_listing!I91</f>
         <v/>
       </c>
       <c r="Q91" s="9" t="str">
@@ -11153,7 +11153,7 @@
         <v/>
       </c>
       <c r="G92" s="9" t="str">
-        <f>product_listing!G92</f>
+        <f>product_listing!H92</f>
         <v/>
       </c>
       <c r="H92" s="9" t="str">
@@ -11165,7 +11165,7 @@
         <v/>
       </c>
       <c r="J92" s="9" t="str">
-        <f>product_listing!F92</f>
+        <f>product_listing!G92</f>
         <v/>
       </c>
       <c r="K92" s="9" t="str">
@@ -11177,7 +11177,7 @@
         <v/>
       </c>
       <c r="M92" s="9" t="str">
-        <f>product_listing!I92</f>
+        <f>product_listing!F92</f>
         <v/>
       </c>
       <c r="N92" s="9" t="str">
@@ -11189,7 +11189,7 @@
         <v/>
       </c>
       <c r="P92" s="9" t="str">
-        <f>product_listing!H92</f>
+        <f>product_listing!I92</f>
         <v/>
       </c>
       <c r="Q92" s="9" t="str">
@@ -11251,7 +11251,7 @@
         <v/>
       </c>
       <c r="G93" s="9" t="str">
-        <f>product_listing!G93</f>
+        <f>product_listing!H93</f>
         <v/>
       </c>
       <c r="H93" s="9" t="str">
@@ -11263,7 +11263,7 @@
         <v/>
       </c>
       <c r="J93" s="9" t="str">
-        <f>product_listing!F93</f>
+        <f>product_listing!G93</f>
         <v/>
       </c>
       <c r="K93" s="9" t="str">
@@ -11275,7 +11275,7 @@
         <v/>
       </c>
       <c r="M93" s="9" t="str">
-        <f>product_listing!I93</f>
+        <f>product_listing!F93</f>
         <v/>
       </c>
       <c r="N93" s="9" t="str">
@@ -11287,7 +11287,7 @@
         <v/>
       </c>
       <c r="P93" s="9" t="str">
-        <f>product_listing!H93</f>
+        <f>product_listing!I93</f>
         <v/>
       </c>
       <c r="Q93" s="9" t="str">
@@ -11349,7 +11349,7 @@
         <v/>
       </c>
       <c r="G94" s="9" t="str">
-        <f>product_listing!G94</f>
+        <f>product_listing!H94</f>
         <v/>
       </c>
       <c r="H94" s="9" t="str">
@@ -11361,7 +11361,7 @@
         <v/>
       </c>
       <c r="J94" s="9" t="str">
-        <f>product_listing!F94</f>
+        <f>product_listing!G94</f>
         <v/>
       </c>
       <c r="K94" s="9" t="str">
@@ -11373,7 +11373,7 @@
         <v/>
       </c>
       <c r="M94" s="9" t="str">
-        <f>product_listing!I94</f>
+        <f>product_listing!F94</f>
         <v/>
       </c>
       <c r="N94" s="9" t="str">
@@ -11385,7 +11385,7 @@
         <v/>
       </c>
       <c r="P94" s="9" t="str">
-        <f>product_listing!H94</f>
+        <f>product_listing!I94</f>
         <v/>
       </c>
       <c r="Q94" s="9" t="str">
@@ -11447,7 +11447,7 @@
         <v/>
       </c>
       <c r="G95" s="9" t="str">
-        <f>product_listing!G95</f>
+        <f>product_listing!H95</f>
         <v/>
       </c>
       <c r="H95" s="9" t="str">
@@ -11459,7 +11459,7 @@
         <v/>
       </c>
       <c r="J95" s="9" t="str">
-        <f>product_listing!F95</f>
+        <f>product_listing!G95</f>
         <v/>
       </c>
       <c r="K95" s="9" t="str">
@@ -11471,7 +11471,7 @@
         <v/>
       </c>
       <c r="M95" s="9" t="str">
-        <f>product_listing!I95</f>
+        <f>product_listing!F95</f>
         <v/>
       </c>
       <c r="N95" s="9" t="str">
@@ -11483,7 +11483,7 @@
         <v/>
       </c>
       <c r="P95" s="9" t="str">
-        <f>product_listing!H95</f>
+        <f>product_listing!I95</f>
         <v/>
       </c>
       <c r="Q95" s="9" t="str">
@@ -11545,7 +11545,7 @@
         <v/>
       </c>
       <c r="G96" s="9" t="str">
-        <f>product_listing!G96</f>
+        <f>product_listing!H96</f>
         <v/>
       </c>
       <c r="H96" s="9" t="str">
@@ -11557,7 +11557,7 @@
         <v/>
       </c>
       <c r="J96" s="9" t="str">
-        <f>product_listing!F96</f>
+        <f>product_listing!G96</f>
         <v/>
       </c>
       <c r="K96" s="9" t="str">
@@ -11569,7 +11569,7 @@
         <v/>
       </c>
       <c r="M96" s="9" t="str">
-        <f>product_listing!I96</f>
+        <f>product_listing!F96</f>
         <v/>
       </c>
       <c r="N96" s="9" t="str">
@@ -11581,7 +11581,7 @@
         <v/>
       </c>
       <c r="P96" s="9" t="str">
-        <f>product_listing!H96</f>
+        <f>product_listing!I96</f>
         <v/>
       </c>
       <c r="Q96" s="9" t="str">
@@ -11643,7 +11643,7 @@
         <v/>
       </c>
       <c r="G97" s="9" t="str">
-        <f>product_listing!G97</f>
+        <f>product_listing!H97</f>
         <v/>
       </c>
       <c r="H97" s="9" t="str">
@@ -11655,7 +11655,7 @@
         <v/>
       </c>
       <c r="J97" s="9" t="str">
-        <f>product_listing!F97</f>
+        <f>product_listing!G97</f>
         <v/>
       </c>
       <c r="K97" s="9" t="str">
@@ -11667,7 +11667,7 @@
         <v/>
       </c>
       <c r="M97" s="9" t="str">
-        <f>product_listing!I97</f>
+        <f>product_listing!F97</f>
         <v/>
       </c>
       <c r="N97" s="9" t="str">
@@ -11679,7 +11679,7 @@
         <v/>
       </c>
       <c r="P97" s="9" t="str">
-        <f>product_listing!H97</f>
+        <f>product_listing!I97</f>
         <v/>
       </c>
       <c r="Q97" s="9" t="str">
@@ -11741,7 +11741,7 @@
         <v/>
       </c>
       <c r="G98" s="9" t="str">
-        <f>product_listing!G98</f>
+        <f>product_listing!H98</f>
         <v/>
       </c>
       <c r="H98" s="9" t="str">
@@ -11753,7 +11753,7 @@
         <v/>
       </c>
       <c r="J98" s="9" t="str">
-        <f>product_listing!F98</f>
+        <f>product_listing!G98</f>
         <v/>
       </c>
       <c r="K98" s="9" t="str">
@@ -11765,7 +11765,7 @@
         <v/>
       </c>
       <c r="M98" s="9" t="str">
-        <f>product_listing!I98</f>
+        <f>product_listing!F98</f>
         <v/>
       </c>
       <c r="N98" s="9" t="str">
@@ -11777,7 +11777,7 @@
         <v/>
       </c>
       <c r="P98" s="9" t="str">
-        <f>product_listing!H98</f>
+        <f>product_listing!I98</f>
         <v/>
       </c>
       <c r="Q98" s="9" t="str">
@@ -11839,7 +11839,7 @@
         <v/>
       </c>
       <c r="G99" s="9" t="str">
-        <f>product_listing!G99</f>
+        <f>product_listing!H99</f>
         <v/>
       </c>
       <c r="H99" s="9" t="str">
@@ -11851,7 +11851,7 @@
         <v/>
       </c>
       <c r="J99" s="9" t="str">
-        <f>product_listing!F99</f>
+        <f>product_listing!G99</f>
         <v/>
       </c>
       <c r="K99" s="9" t="str">
@@ -11863,7 +11863,7 @@
         <v/>
       </c>
       <c r="M99" s="9" t="str">
-        <f>product_listing!I99</f>
+        <f>product_listing!F99</f>
         <v/>
       </c>
       <c r="N99" s="9" t="str">
@@ -11875,7 +11875,7 @@
         <v/>
       </c>
       <c r="P99" s="9" t="str">
-        <f>product_listing!H99</f>
+        <f>product_listing!I99</f>
         <v/>
       </c>
       <c r="Q99" s="9" t="str">
@@ -11937,7 +11937,7 @@
         <v/>
       </c>
       <c r="G100" s="9" t="str">
-        <f>product_listing!G100</f>
+        <f>product_listing!H100</f>
         <v/>
       </c>
       <c r="H100" s="9" t="str">
@@ -11949,7 +11949,7 @@
         <v/>
       </c>
       <c r="J100" s="9" t="str">
-        <f>product_listing!F100</f>
+        <f>product_listing!G100</f>
         <v/>
       </c>
       <c r="K100" s="9" t="str">
@@ -11961,7 +11961,7 @@
         <v/>
       </c>
       <c r="M100" s="9" t="str">
-        <f>product_listing!I100</f>
+        <f>product_listing!F100</f>
         <v/>
       </c>
       <c r="N100" s="9" t="str">
@@ -11973,7 +11973,7 @@
         <v/>
       </c>
       <c r="P100" s="9" t="str">
-        <f>product_listing!H100</f>
+        <f>product_listing!I100</f>
         <v/>
       </c>
       <c r="Q100" s="9" t="str">
@@ -12035,7 +12035,7 @@
         <v/>
       </c>
       <c r="G101" s="9" t="str">
-        <f>product_listing!G101</f>
+        <f>product_listing!H101</f>
         <v/>
       </c>
       <c r="H101" s="9" t="str">
@@ -12047,7 +12047,7 @@
         <v/>
       </c>
       <c r="J101" s="9" t="str">
-        <f>product_listing!F101</f>
+        <f>product_listing!G101</f>
         <v/>
       </c>
       <c r="K101" s="9" t="str">
@@ -12059,7 +12059,7 @@
         <v/>
       </c>
       <c r="M101" s="9" t="str">
-        <f>product_listing!I101</f>
+        <f>product_listing!F101</f>
         <v/>
       </c>
       <c r="N101" s="9" t="str">
@@ -12071,7 +12071,7 @@
         <v/>
       </c>
       <c r="P101" s="9" t="str">
-        <f>product_listing!H101</f>
+        <f>product_listing!I101</f>
         <v/>
       </c>
       <c r="Q101" s="9" t="str">
@@ -12133,7 +12133,7 @@
         <v/>
       </c>
       <c r="G102" s="9" t="str">
-        <f>product_listing!G102</f>
+        <f>product_listing!H102</f>
         <v/>
       </c>
       <c r="H102" s="9" t="str">
@@ -12145,7 +12145,7 @@
         <v/>
       </c>
       <c r="J102" s="9" t="str">
-        <f>product_listing!F102</f>
+        <f>product_listing!G102</f>
         <v/>
       </c>
       <c r="K102" s="9" t="str">
@@ -12157,7 +12157,7 @@
         <v/>
       </c>
       <c r="M102" s="9" t="str">
-        <f>product_listing!I102</f>
+        <f>product_listing!F102</f>
         <v/>
       </c>
       <c r="N102" s="9" t="str">
@@ -12169,7 +12169,7 @@
         <v/>
       </c>
       <c r="P102" s="9" t="str">
-        <f>product_listing!H102</f>
+        <f>product_listing!I102</f>
         <v/>
       </c>
       <c r="Q102" s="9" t="str">
@@ -12231,7 +12231,7 @@
         <v/>
       </c>
       <c r="G103" s="9" t="str">
-        <f>product_listing!G103</f>
+        <f>product_listing!H103</f>
         <v/>
       </c>
       <c r="H103" s="9" t="str">
@@ -12243,7 +12243,7 @@
         <v/>
       </c>
       <c r="J103" s="9" t="str">
-        <f>product_listing!F103</f>
+        <f>product_listing!G103</f>
         <v/>
       </c>
       <c r="K103" s="9" t="str">
@@ -12255,7 +12255,7 @@
         <v/>
       </c>
       <c r="M103" s="9" t="str">
-        <f>product_listing!I103</f>
+        <f>product_listing!F103</f>
         <v/>
       </c>
       <c r="N103" s="9" t="str">
@@ -12267,7 +12267,7 @@
         <v/>
       </c>
       <c r="P103" s="9" t="str">
-        <f>product_listing!H103</f>
+        <f>product_listing!I103</f>
         <v/>
       </c>
       <c r="Q103" s="9" t="str">
@@ -12329,7 +12329,7 @@
         <v/>
       </c>
       <c r="G104" s="9" t="str">
-        <f>product_listing!G104</f>
+        <f>product_listing!H104</f>
         <v/>
       </c>
       <c r="H104" s="9" t="str">
@@ -12341,7 +12341,7 @@
         <v/>
       </c>
       <c r="J104" s="9" t="str">
-        <f>product_listing!F104</f>
+        <f>product_listing!G104</f>
         <v/>
       </c>
       <c r="K104" s="9" t="str">
@@ -12353,7 +12353,7 @@
         <v/>
       </c>
       <c r="M104" s="9" t="str">
-        <f>product_listing!I104</f>
+        <f>product_listing!F104</f>
         <v/>
       </c>
       <c r="N104" s="9" t="str">
@@ -12365,7 +12365,7 @@
         <v/>
       </c>
       <c r="P104" s="9" t="str">
-        <f>product_listing!H104</f>
+        <f>product_listing!I104</f>
         <v/>
       </c>
       <c r="Q104" s="9" t="str">
@@ -12427,7 +12427,7 @@
         <v/>
       </c>
       <c r="G105" s="9" t="str">
-        <f>product_listing!G105</f>
+        <f>product_listing!H105</f>
         <v/>
       </c>
       <c r="H105" s="9" t="str">
@@ -12439,7 +12439,7 @@
         <v/>
       </c>
       <c r="J105" s="9" t="str">
-        <f>product_listing!F105</f>
+        <f>product_listing!G105</f>
         <v/>
       </c>
       <c r="K105" s="9" t="str">
@@ -12451,7 +12451,7 @@
         <v/>
       </c>
       <c r="M105" s="9" t="str">
-        <f>product_listing!I105</f>
+        <f>product_listing!F105</f>
         <v/>
       </c>
       <c r="N105" s="9" t="str">
@@ -12463,7 +12463,7 @@
         <v/>
       </c>
       <c r="P105" s="9" t="str">
-        <f>product_listing!H105</f>
+        <f>product_listing!I105</f>
         <v/>
       </c>
       <c r="Q105" s="9" t="str">
@@ -12525,7 +12525,7 @@
         <v/>
       </c>
       <c r="G106" s="9" t="str">
-        <f>product_listing!G106</f>
+        <f>product_listing!H106</f>
         <v/>
       </c>
       <c r="H106" s="9" t="str">
@@ -12537,7 +12537,7 @@
         <v/>
       </c>
       <c r="J106" s="9" t="str">
-        <f>product_listing!F106</f>
+        <f>product_listing!G106</f>
         <v/>
       </c>
       <c r="K106" s="9" t="str">
@@ -12549,7 +12549,7 @@
         <v/>
       </c>
       <c r="M106" s="9" t="str">
-        <f>product_listing!I106</f>
+        <f>product_listing!F106</f>
         <v/>
       </c>
       <c r="N106" s="9" t="str">
@@ -12561,7 +12561,7 @@
         <v/>
       </c>
       <c r="P106" s="9" t="str">
-        <f>product_listing!H106</f>
+        <f>product_listing!I106</f>
         <v/>
       </c>
       <c r="Q106" s="9" t="str">
@@ -12623,7 +12623,7 @@
         <v/>
       </c>
       <c r="G107" s="9" t="str">
-        <f>product_listing!G107</f>
+        <f>product_listing!H107</f>
         <v/>
       </c>
       <c r="H107" s="9" t="str">
@@ -12635,7 +12635,7 @@
         <v/>
       </c>
       <c r="J107" s="9" t="str">
-        <f>product_listing!F107</f>
+        <f>product_listing!G107</f>
         <v/>
       </c>
       <c r="K107" s="9" t="str">
@@ -12647,7 +12647,7 @@
         <v/>
       </c>
       <c r="M107" s="9" t="str">
-        <f>product_listing!I107</f>
+        <f>product_listing!F107</f>
         <v/>
       </c>
       <c r="N107" s="9" t="str">
@@ -12659,7 +12659,7 @@
         <v/>
       </c>
       <c r="P107" s="9" t="str">
-        <f>product_listing!H107</f>
+        <f>product_listing!I107</f>
         <v/>
       </c>
       <c r="Q107" s="9" t="str">
@@ -12721,7 +12721,7 @@
         <v/>
       </c>
       <c r="G108" s="9" t="str">
-        <f>product_listing!G108</f>
+        <f>product_listing!H108</f>
         <v/>
       </c>
       <c r="H108" s="9" t="str">
@@ -12733,7 +12733,7 @@
         <v/>
       </c>
       <c r="J108" s="9" t="str">
-        <f>product_listing!F108</f>
+        <f>product_listing!G108</f>
         <v/>
       </c>
       <c r="K108" s="9" t="str">
@@ -12745,7 +12745,7 @@
         <v/>
       </c>
       <c r="M108" s="9" t="str">
-        <f>product_listing!I108</f>
+        <f>product_listing!F108</f>
         <v/>
       </c>
       <c r="N108" s="9" t="str">
@@ -12757,7 +12757,7 @@
         <v/>
       </c>
       <c r="P108" s="9" t="str">
-        <f>product_listing!H108</f>
+        <f>product_listing!I108</f>
         <v/>
       </c>
       <c r="Q108" s="9" t="str">
@@ -12819,7 +12819,7 @@
         <v/>
       </c>
       <c r="G109" s="9" t="str">
-        <f>product_listing!G109</f>
+        <f>product_listing!H109</f>
         <v/>
       </c>
       <c r="H109" s="9" t="str">
@@ -12831,7 +12831,7 @@
         <v/>
       </c>
       <c r="J109" s="9" t="str">
-        <f>product_listing!F109</f>
+        <f>product_listing!G109</f>
         <v/>
       </c>
       <c r="K109" s="9" t="str">
@@ -12843,7 +12843,7 @@
         <v/>
       </c>
       <c r="M109" s="9" t="str">
-        <f>product_listing!I109</f>
+        <f>product_listing!F109</f>
         <v/>
       </c>
       <c r="N109" s="9" t="str">
@@ -12855,7 +12855,7 @@
         <v/>
       </c>
       <c r="P109" s="9" t="str">
-        <f>product_listing!H109</f>
+        <f>product_listing!I109</f>
         <v/>
       </c>
       <c r="Q109" s="9" t="str">
@@ -12917,7 +12917,7 @@
         <v/>
       </c>
       <c r="G110" s="9" t="str">
-        <f>product_listing!G110</f>
+        <f>product_listing!H110</f>
         <v/>
       </c>
       <c r="H110" s="9" t="str">
@@ -12929,7 +12929,7 @@
         <v/>
       </c>
       <c r="J110" s="9" t="str">
-        <f>product_listing!F110</f>
+        <f>product_listing!G110</f>
         <v/>
       </c>
       <c r="K110" s="9" t="str">
@@ -12941,7 +12941,7 @@
         <v/>
       </c>
       <c r="M110" s="9" t="str">
-        <f>product_listing!I110</f>
+        <f>product_listing!F110</f>
         <v/>
       </c>
       <c r="N110" s="9" t="str">
@@ -12953,7 +12953,7 @@
         <v/>
       </c>
       <c r="P110" s="9" t="str">
-        <f>product_listing!H110</f>
+        <f>product_listing!I110</f>
         <v/>
       </c>
       <c r="Q110" s="9" t="str">
@@ -13015,7 +13015,7 @@
         <v/>
       </c>
       <c r="G111" s="9" t="str">
-        <f>product_listing!G111</f>
+        <f>product_listing!H111</f>
         <v/>
       </c>
       <c r="H111" s="9" t="str">
@@ -13027,7 +13027,7 @@
         <v/>
       </c>
       <c r="J111" s="9" t="str">
-        <f>product_listing!F111</f>
+        <f>product_listing!G111</f>
         <v/>
       </c>
       <c r="K111" s="9" t="str">
@@ -13039,7 +13039,7 @@
         <v/>
       </c>
       <c r="M111" s="9" t="str">
-        <f>product_listing!I111</f>
+        <f>product_listing!F111</f>
         <v/>
       </c>
       <c r="N111" s="9" t="str">
@@ -13051,7 +13051,7 @@
         <v/>
       </c>
       <c r="P111" s="9" t="str">
-        <f>product_listing!H111</f>
+        <f>product_listing!I111</f>
         <v/>
       </c>
       <c r="Q111" s="9" t="str">
@@ -13113,7 +13113,7 @@
         <v/>
       </c>
       <c r="G112" s="9" t="str">
-        <f>product_listing!G112</f>
+        <f>product_listing!H112</f>
         <v/>
       </c>
       <c r="H112" s="9" t="str">
@@ -13125,7 +13125,7 @@
         <v/>
       </c>
       <c r="J112" s="9" t="str">
-        <f>product_listing!F112</f>
+        <f>product_listing!G112</f>
         <v/>
       </c>
       <c r="K112" s="9" t="str">
@@ -13137,7 +13137,7 @@
         <v/>
       </c>
       <c r="M112" s="9" t="str">
-        <f>product_listing!I112</f>
+        <f>product_listing!F112</f>
         <v/>
       </c>
       <c r="N112" s="9" t="str">
@@ -13149,7 +13149,7 @@
         <v/>
       </c>
       <c r="P112" s="9" t="str">
-        <f>product_listing!H112</f>
+        <f>product_listing!I112</f>
         <v/>
       </c>
       <c r="Q112" s="9" t="str">
@@ -13211,7 +13211,7 @@
         <v/>
       </c>
       <c r="G113" s="9" t="str">
-        <f>product_listing!G113</f>
+        <f>product_listing!H113</f>
         <v/>
       </c>
       <c r="H113" s="9" t="str">
@@ -13223,7 +13223,7 @@
         <v/>
       </c>
       <c r="J113" s="9" t="str">
-        <f>product_listing!F113</f>
+        <f>product_listing!G113</f>
         <v/>
       </c>
       <c r="K113" s="9" t="str">
@@ -13235,7 +13235,7 @@
         <v/>
       </c>
       <c r="M113" s="9" t="str">
-        <f>product_listing!I113</f>
+        <f>product_listing!F113</f>
         <v/>
       </c>
       <c r="N113" s="9" t="str">
@@ -13247,7 +13247,7 @@
         <v/>
       </c>
       <c r="P113" s="9" t="str">
-        <f>product_listing!H113</f>
+        <f>product_listing!I113</f>
         <v/>
       </c>
       <c r="Q113" s="9" t="str">
@@ -13309,7 +13309,7 @@
         <v/>
       </c>
       <c r="G114" s="9" t="str">
-        <f>product_listing!G114</f>
+        <f>product_listing!H114</f>
         <v/>
       </c>
       <c r="H114" s="9" t="str">
@@ -13321,7 +13321,7 @@
         <v/>
       </c>
       <c r="J114" s="9" t="str">
-        <f>product_listing!F114</f>
+        <f>product_listing!G114</f>
         <v/>
       </c>
       <c r="K114" s="9" t="str">
@@ -13333,7 +13333,7 @@
         <v/>
       </c>
       <c r="M114" s="9" t="str">
-        <f>product_listing!I114</f>
+        <f>product_listing!F114</f>
         <v/>
       </c>
       <c r="N114" s="9" t="str">
@@ -13345,7 +13345,7 @@
         <v/>
       </c>
       <c r="P114" s="9" t="str">
-        <f>product_listing!H114</f>
+        <f>product_listing!I114</f>
         <v/>
       </c>
       <c r="Q114" s="9" t="str">
@@ -13407,7 +13407,7 @@
         <v/>
       </c>
       <c r="G115" s="9" t="str">
-        <f>product_listing!G115</f>
+        <f>product_listing!H115</f>
         <v/>
       </c>
       <c r="H115" s="9" t="str">
@@ -13419,7 +13419,7 @@
         <v/>
       </c>
       <c r="J115" s="9" t="str">
-        <f>product_listing!F115</f>
+        <f>product_listing!G115</f>
         <v/>
       </c>
       <c r="K115" s="9" t="str">
@@ -13431,7 +13431,7 @@
         <v/>
       </c>
       <c r="M115" s="9" t="str">
-        <f>product_listing!I115</f>
+        <f>product_listing!F115</f>
         <v/>
       </c>
       <c r="N115" s="9" t="str">
@@ -13443,7 +13443,7 @@
         <v/>
       </c>
       <c r="P115" s="9" t="str">
-        <f>product_listing!H115</f>
+        <f>product_listing!I115</f>
         <v/>
       </c>
       <c r="Q115" s="9" t="str">
@@ -13505,7 +13505,7 @@
         <v/>
       </c>
       <c r="G116" s="9" t="str">
-        <f>product_listing!G116</f>
+        <f>product_listing!H116</f>
         <v/>
       </c>
       <c r="H116" s="9" t="str">
@@ -13517,7 +13517,7 @@
         <v/>
       </c>
       <c r="J116" s="9" t="str">
-        <f>product_listing!F116</f>
+        <f>product_listing!G116</f>
         <v/>
       </c>
       <c r="K116" s="9" t="str">
@@ -13529,7 +13529,7 @@
         <v/>
       </c>
       <c r="M116" s="9" t="str">
-        <f>product_listing!I116</f>
+        <f>product_listing!F116</f>
         <v/>
       </c>
       <c r="N116" s="9" t="str">
@@ -13541,7 +13541,7 @@
         <v/>
       </c>
       <c r="P116" s="9" t="str">
-        <f>product_listing!H116</f>
+        <f>product_listing!I116</f>
         <v/>
       </c>
       <c r="Q116" s="9" t="str">
@@ -13603,7 +13603,7 @@
         <v/>
       </c>
       <c r="G117" s="9" t="str">
-        <f>product_listing!G117</f>
+        <f>product_listing!H117</f>
         <v/>
       </c>
       <c r="H117" s="9" t="str">
@@ -13615,7 +13615,7 @@
         <v/>
       </c>
       <c r="J117" s="9" t="str">
-        <f>product_listing!F117</f>
+        <f>product_listing!G117</f>
         <v/>
       </c>
       <c r="K117" s="9" t="str">
@@ -13627,7 +13627,7 @@
         <v/>
       </c>
       <c r="M117" s="9" t="str">
-        <f>product_listing!I117</f>
+        <f>product_listing!F117</f>
         <v/>
       </c>
       <c r="N117" s="9" t="str">
@@ -13639,7 +13639,7 @@
         <v/>
       </c>
       <c r="P117" s="9" t="str">
-        <f>product_listing!H117</f>
+        <f>product_listing!I117</f>
         <v/>
       </c>
       <c r="Q117" s="9" t="str">
@@ -13701,7 +13701,7 @@
         <v/>
       </c>
       <c r="G118" s="9" t="str">
-        <f>product_listing!G118</f>
+        <f>product_listing!H118</f>
         <v/>
       </c>
       <c r="H118" s="9" t="str">
@@ -13713,7 +13713,7 @@
         <v/>
       </c>
       <c r="J118" s="9" t="str">
-        <f>product_listing!F118</f>
+        <f>product_listing!G118</f>
         <v/>
       </c>
       <c r="K118" s="9" t="str">
@@ -13725,7 +13725,7 @@
         <v/>
       </c>
       <c r="M118" s="9" t="str">
-        <f>product_listing!I118</f>
+        <f>product_listing!F118</f>
         <v/>
       </c>
       <c r="N118" s="9" t="str">
@@ -13737,7 +13737,7 @@
         <v/>
       </c>
       <c r="P118" s="9" t="str">
-        <f>product_listing!H118</f>
+        <f>product_listing!I118</f>
         <v/>
       </c>
       <c r="Q118" s="9" t="str">
@@ -13799,7 +13799,7 @@
         <v/>
       </c>
       <c r="G119" s="9" t="str">
-        <f>product_listing!G119</f>
+        <f>product_listing!H119</f>
         <v/>
       </c>
       <c r="H119" s="9" t="str">
@@ -13811,7 +13811,7 @@
         <v/>
       </c>
       <c r="J119" s="9" t="str">
-        <f>product_listing!F119</f>
+        <f>product_listing!G119</f>
         <v/>
       </c>
       <c r="K119" s="9" t="str">
@@ -13823,7 +13823,7 @@
         <v/>
       </c>
       <c r="M119" s="9" t="str">
-        <f>product_listing!I119</f>
+        <f>product_listing!F119</f>
         <v/>
       </c>
       <c r="N119" s="9" t="str">
@@ -13835,7 +13835,7 @@
         <v/>
       </c>
       <c r="P119" s="9" t="str">
-        <f>product_listing!H119</f>
+        <f>product_listing!I119</f>
         <v/>
       </c>
       <c r="Q119" s="9" t="str">
@@ -13897,7 +13897,7 @@
         <v/>
       </c>
       <c r="G120" s="9" t="str">
-        <f>product_listing!G120</f>
+        <f>product_listing!H120</f>
         <v/>
       </c>
       <c r="H120" s="9" t="str">
@@ -13909,7 +13909,7 @@
         <v/>
       </c>
       <c r="J120" s="9" t="str">
-        <f>product_listing!F120</f>
+        <f>product_listing!G120</f>
         <v/>
       </c>
       <c r="K120" s="9" t="str">
@@ -13921,7 +13921,7 @@
         <v/>
       </c>
       <c r="M120" s="9" t="str">
-        <f>product_listing!I120</f>
+        <f>product_listing!F120</f>
         <v/>
       </c>
       <c r="N120" s="9" t="str">
@@ -13933,7 +13933,7 @@
         <v/>
       </c>
       <c r="P120" s="9" t="str">
-        <f>product_listing!H120</f>
+        <f>product_listing!I120</f>
         <v/>
       </c>
       <c r="Q120" s="9" t="str">
@@ -13995,7 +13995,7 @@
         <v/>
       </c>
       <c r="G121" s="9" t="str">
-        <f>product_listing!G121</f>
+        <f>product_listing!H121</f>
         <v/>
       </c>
       <c r="H121" s="9" t="str">
@@ -14007,7 +14007,7 @@
         <v/>
       </c>
       <c r="J121" s="9" t="str">
-        <f>product_listing!F121</f>
+        <f>product_listing!G121</f>
         <v/>
       </c>
       <c r="K121" s="9" t="str">
@@ -14019,7 +14019,7 @@
         <v/>
       </c>
       <c r="M121" s="9" t="str">
-        <f>product_listing!I121</f>
+        <f>product_listing!F121</f>
         <v/>
       </c>
       <c r="N121" s="9" t="str">
@@ -14031,7 +14031,7 @@
         <v/>
       </c>
       <c r="P121" s="9" t="str">
-        <f>product_listing!H121</f>
+        <f>product_listing!I121</f>
         <v/>
       </c>
       <c r="Q121" s="9" t="str">
@@ -14093,7 +14093,7 @@
         <v/>
       </c>
       <c r="G122" s="9" t="str">
-        <f>product_listing!G122</f>
+        <f>product_listing!H122</f>
         <v/>
       </c>
       <c r="H122" s="9" t="str">
@@ -14105,7 +14105,7 @@
         <v/>
       </c>
       <c r="J122" s="9" t="str">
-        <f>product_listing!F122</f>
+        <f>product_listing!G122</f>
         <v/>
       </c>
       <c r="K122" s="9" t="str">
@@ -14117,7 +14117,7 @@
         <v/>
       </c>
       <c r="M122" s="9" t="str">
-        <f>product_listing!I122</f>
+        <f>product_listing!F122</f>
         <v/>
       </c>
       <c r="N122" s="9" t="str">
@@ -14129,7 +14129,7 @@
         <v/>
       </c>
       <c r="P122" s="9" t="str">
-        <f>product_listing!H122</f>
+        <f>product_listing!I122</f>
         <v/>
       </c>
       <c r="Q122" s="9" t="str">
@@ -14191,7 +14191,7 @@
         <v/>
       </c>
       <c r="G123" s="9" t="str">
-        <f>product_listing!G123</f>
+        <f>product_listing!H123</f>
         <v/>
       </c>
       <c r="H123" s="9" t="str">
@@ -14203,7 +14203,7 @@
         <v/>
       </c>
       <c r="J123" s="9" t="str">
-        <f>product_listing!F123</f>
+        <f>product_listing!G123</f>
         <v/>
       </c>
       <c r="K123" s="9" t="str">
@@ -14215,7 +14215,7 @@
         <v/>
       </c>
       <c r="M123" s="9" t="str">
-        <f>product_listing!I123</f>
+        <f>product_listing!F123</f>
         <v/>
       </c>
       <c r="N123" s="9" t="str">
@@ -14227,7 +14227,7 @@
         <v/>
       </c>
       <c r="P123" s="9" t="str">
-        <f>product_listing!H123</f>
+        <f>product_listing!I123</f>
         <v/>
       </c>
       <c r="Q123" s="9" t="str">
@@ -14289,7 +14289,7 @@
         <v/>
       </c>
       <c r="G124" s="9" t="str">
-        <f>product_listing!G124</f>
+        <f>product_listing!H124</f>
         <v/>
       </c>
       <c r="H124" s="9" t="str">
@@ -14301,7 +14301,7 @@
         <v/>
       </c>
       <c r="J124" s="9" t="str">
-        <f>product_listing!F124</f>
+        <f>product_listing!G124</f>
         <v/>
       </c>
       <c r="K124" s="9" t="str">
@@ -14313,7 +14313,7 @@
         <v/>
       </c>
       <c r="M124" s="9" t="str">
-        <f>product_listing!I124</f>
+        <f>product_listing!F124</f>
         <v/>
       </c>
       <c r="N124" s="9" t="str">
@@ -14325,7 +14325,7 @@
         <v/>
       </c>
       <c r="P124" s="9" t="str">
-        <f>product_listing!H124</f>
+        <f>product_listing!I124</f>
         <v/>
       </c>
       <c r="Q124" s="9" t="str">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -2779,7 +2779,10 @@
         <f>product_listing!D6</f>
         <v>https://doi.org/10.5194/essd-8-383-2016</v>
       </c>
-      <c r="T6" s="9"/>
+      <c r="T6" s="11" t="str">
+        <f>product_listing!E6</f>
+        <v>https://socat.info/</v>
+      </c>
       <c r="U6" s="9" t="str">
         <f t="shared" si="9"/>
         <v>Highlight</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>Data category</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>The largest collection of surface ocean carbon observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Surface Ocean CO2 Atlas features surface fCO2 measurements from both the open ocean and the coastal ocean, predominantly sourced from research vessels, ships of opportunity, and autonomous platforms including fixed moorings and uncrewed surface vehicles (USVs) (Bakker et al., 2016). It represents the most extensive collection of observational ocean CO2 data for the global surface ocean. Since 2013, SOCAT has been updated annually. Dataset flags indicate the estimated uncertainty and completeness of metadata in SOCAT synthesis products. The SOCAT gridded product contains fCO2 values with an estimated uncertainty of less than 5 µatm. </t>
   </si>
   <si>
     <t>GLODAPv2</t>
@@ -938,38 +941,41 @@
       <c r="L6" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -2193,7 +2199,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -2210,10 +2216,10 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
@@ -2221,16 +2227,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -2238,18 +2244,18 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -2257,10 +2263,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -2268,25 +2274,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2328,70 +2334,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="P1" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -2412,7 +2418,7 @@
         <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>8</v>
@@ -2422,7 +2428,7 @@
         <v>Open Ocean, Surface</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>7</v>
@@ -2432,7 +2438,7 @@
         <v>monthly</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>6</v>
@@ -2442,7 +2448,7 @@
         <v>1.0°</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>9</v>
@@ -2831,8 +2837,8 @@
         <v>Description</v>
       </c>
       <c r="V6" s="15" t="str">
-        <f>product_listing!L6</f>
-        <v>The largest collection of surface ocean carbon observations</v>
+        <f>product_listing!M6</f>
+        <v>The Surface Ocean CO2 Atlas features surface fCO2 measurements from both the open ocean and the coastal ocean, predominantly sourced from research vessels, ships of opportunity, and autonomous platforms including fixed moorings and uncrewed surface vehicles (USVs) (Bakker et al., 2016). It represents the most extensive collection of observational ocean CO2 data for the global surface ocean. Since 2013, SOCAT has been updated annually. Dataset flags indicate the estimated uncertainty and completeness of metadata in SOCAT synthesis products. The SOCAT gridded product contains fCO2 values with an estimated uncertainty of less than 5 µatm. </v>
       </c>
     </row>
     <row r="7">
@@ -7670,10 +7676,7 @@
         <f>product_listing!J60</f>
         <v/>
       </c>
-      <c r="Q60" s="11" t="str">
-        <f>product_listing!L60</f>
-        <v/>
-      </c>
+      <c r="Q60" s="11"/>
       <c r="R60" s="11" t="str">
         <f>product_listing!C60</f>
         <v/>
@@ -7760,10 +7763,7 @@
         <f>product_listing!J61</f>
         <v/>
       </c>
-      <c r="Q61" s="11" t="str">
-        <f t="shared" ref="Q61:Q124" si="242">#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="Q61" s="11"/>
       <c r="R61" s="11" t="str">
         <f>product_listing!C61</f>
         <v/>
@@ -7850,10 +7850,7 @@
         <f>product_listing!J62</f>
         <v/>
       </c>
-      <c r="Q62" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q62" s="11"/>
       <c r="R62" s="11" t="str">
         <f>product_listing!C62</f>
         <v/>
@@ -7893,11 +7890,11 @@
         <v/>
       </c>
       <c r="E63" s="11" t="str">
-        <f t="shared" ref="E63:F63" si="243">if(not(isblank($B63)), E62, "")</f>
+        <f t="shared" ref="E63:F63" si="242">if(not(isblank($B63)), E62, "")</f>
         <v/>
       </c>
       <c r="F63" s="11" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="242"/>
         <v/>
       </c>
       <c r="G63" s="11" t="str">
@@ -7905,11 +7902,11 @@
         <v/>
       </c>
       <c r="H63" s="11" t="str">
-        <f t="shared" ref="H63:I63" si="244">if(not(isblank($B63)), H62, "")</f>
+        <f t="shared" ref="H63:I63" si="243">if(not(isblank($B63)), H62, "")</f>
         <v/>
       </c>
       <c r="I63" s="11" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
       <c r="J63" s="11" t="str">
@@ -7917,11 +7914,11 @@
         <v/>
       </c>
       <c r="K63" s="11" t="str">
-        <f t="shared" ref="K63:L63" si="245">if(not(isblank($B63)), K62, "")</f>
+        <f t="shared" ref="K63:L63" si="244">if(not(isblank($B63)), K62, "")</f>
         <v/>
       </c>
       <c r="L63" s="11" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v/>
       </c>
       <c r="M63" s="11" t="str">
@@ -7929,21 +7926,18 @@
         <v/>
       </c>
       <c r="N63" s="11" t="str">
-        <f t="shared" ref="N63:O63" si="246">if(not(isblank($B63)), N62, "")</f>
+        <f t="shared" ref="N63:O63" si="245">if(not(isblank($B63)), N62, "")</f>
         <v/>
       </c>
       <c r="O63" s="11" t="str">
-        <f t="shared" si="246"/>
+        <f t="shared" si="245"/>
         <v/>
       </c>
       <c r="P63" s="11" t="str">
         <f>product_listing!J63</f>
         <v/>
       </c>
-      <c r="Q63" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q63" s="11"/>
       <c r="R63" s="11" t="str">
         <f>product_listing!C63</f>
         <v/>
@@ -7983,11 +7977,11 @@
         <v/>
       </c>
       <c r="E64" s="11" t="str">
-        <f t="shared" ref="E64:F64" si="247">if(not(isblank($B64)), E63, "")</f>
+        <f t="shared" ref="E64:F64" si="246">if(not(isblank($B64)), E63, "")</f>
         <v/>
       </c>
       <c r="F64" s="11" t="str">
-        <f t="shared" si="247"/>
+        <f t="shared" si="246"/>
         <v/>
       </c>
       <c r="G64" s="11" t="str">
@@ -7995,11 +7989,11 @@
         <v/>
       </c>
       <c r="H64" s="11" t="str">
-        <f t="shared" ref="H64:I64" si="248">if(not(isblank($B64)), H63, "")</f>
+        <f t="shared" ref="H64:I64" si="247">if(not(isblank($B64)), H63, "")</f>
         <v/>
       </c>
       <c r="I64" s="11" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
       <c r="J64" s="11" t="str">
@@ -8007,11 +8001,11 @@
         <v/>
       </c>
       <c r="K64" s="11" t="str">
-        <f t="shared" ref="K64:L64" si="249">if(not(isblank($B64)), K63, "")</f>
+        <f t="shared" ref="K64:L64" si="248">if(not(isblank($B64)), K63, "")</f>
         <v/>
       </c>
       <c r="L64" s="11" t="str">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v/>
       </c>
       <c r="M64" s="11" t="str">
@@ -8019,21 +8013,18 @@
         <v/>
       </c>
       <c r="N64" s="11" t="str">
-        <f t="shared" ref="N64:O64" si="250">if(not(isblank($B64)), N63, "")</f>
+        <f t="shared" ref="N64:O64" si="249">if(not(isblank($B64)), N63, "")</f>
         <v/>
       </c>
       <c r="O64" s="11" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="249"/>
         <v/>
       </c>
       <c r="P64" s="11" t="str">
         <f>product_listing!J64</f>
         <v/>
       </c>
-      <c r="Q64" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q64" s="11"/>
       <c r="R64" s="11" t="str">
         <f>product_listing!C64</f>
         <v/>
@@ -8073,11 +8064,11 @@
         <v/>
       </c>
       <c r="E65" s="11" t="str">
-        <f t="shared" ref="E65:F65" si="251">if(not(isblank($B65)), E64, "")</f>
+        <f t="shared" ref="E65:F65" si="250">if(not(isblank($B65)), E64, "")</f>
         <v/>
       </c>
       <c r="F65" s="11" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="250"/>
         <v/>
       </c>
       <c r="G65" s="11" t="str">
@@ -8085,11 +8076,11 @@
         <v/>
       </c>
       <c r="H65" s="11" t="str">
-        <f t="shared" ref="H65:I65" si="252">if(not(isblank($B65)), H64, "")</f>
+        <f t="shared" ref="H65:I65" si="251">if(not(isblank($B65)), H64, "")</f>
         <v/>
       </c>
       <c r="I65" s="11" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="251"/>
         <v/>
       </c>
       <c r="J65" s="11" t="str">
@@ -8097,11 +8088,11 @@
         <v/>
       </c>
       <c r="K65" s="11" t="str">
-        <f t="shared" ref="K65:L65" si="253">if(not(isblank($B65)), K64, "")</f>
+        <f t="shared" ref="K65:L65" si="252">if(not(isblank($B65)), K64, "")</f>
         <v/>
       </c>
       <c r="L65" s="11" t="str">
-        <f t="shared" si="253"/>
+        <f t="shared" si="252"/>
         <v/>
       </c>
       <c r="M65" s="11" t="str">
@@ -8109,21 +8100,18 @@
         <v/>
       </c>
       <c r="N65" s="11" t="str">
-        <f t="shared" ref="N65:O65" si="254">if(not(isblank($B65)), N64, "")</f>
+        <f t="shared" ref="N65:O65" si="253">if(not(isblank($B65)), N64, "")</f>
         <v/>
       </c>
       <c r="O65" s="11" t="str">
-        <f t="shared" si="254"/>
+        <f t="shared" si="253"/>
         <v/>
       </c>
       <c r="P65" s="11" t="str">
         <f>product_listing!J65</f>
         <v/>
       </c>
-      <c r="Q65" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q65" s="11"/>
       <c r="R65" s="11" t="str">
         <f>product_listing!C65</f>
         <v/>
@@ -8163,11 +8151,11 @@
         <v/>
       </c>
       <c r="E66" s="11" t="str">
-        <f t="shared" ref="E66:F66" si="255">if(not(isblank($B66)), E65, "")</f>
+        <f t="shared" ref="E66:F66" si="254">if(not(isblank($B66)), E65, "")</f>
         <v/>
       </c>
       <c r="F66" s="11" t="str">
-        <f t="shared" si="255"/>
+        <f t="shared" si="254"/>
         <v/>
       </c>
       <c r="G66" s="11" t="str">
@@ -8175,11 +8163,11 @@
         <v/>
       </c>
       <c r="H66" s="11" t="str">
-        <f t="shared" ref="H66:I66" si="256">if(not(isblank($B66)), H65, "")</f>
+        <f t="shared" ref="H66:I66" si="255">if(not(isblank($B66)), H65, "")</f>
         <v/>
       </c>
       <c r="I66" s="11" t="str">
-        <f t="shared" si="256"/>
+        <f t="shared" si="255"/>
         <v/>
       </c>
       <c r="J66" s="11" t="str">
@@ -8187,11 +8175,11 @@
         <v/>
       </c>
       <c r="K66" s="11" t="str">
-        <f t="shared" ref="K66:L66" si="257">if(not(isblank($B66)), K65, "")</f>
+        <f t="shared" ref="K66:L66" si="256">if(not(isblank($B66)), K65, "")</f>
         <v/>
       </c>
       <c r="L66" s="11" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" si="256"/>
         <v/>
       </c>
       <c r="M66" s="11" t="str">
@@ -8199,21 +8187,18 @@
         <v/>
       </c>
       <c r="N66" s="11" t="str">
-        <f t="shared" ref="N66:O66" si="258">if(not(isblank($B66)), N65, "")</f>
+        <f t="shared" ref="N66:O66" si="257">if(not(isblank($B66)), N65, "")</f>
         <v/>
       </c>
       <c r="O66" s="11" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="257"/>
         <v/>
       </c>
       <c r="P66" s="11" t="str">
         <f>product_listing!J66</f>
         <v/>
       </c>
-      <c r="Q66" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q66" s="11"/>
       <c r="R66" s="11" t="str">
         <f>product_listing!C66</f>
         <v/>
@@ -8253,11 +8238,11 @@
         <v/>
       </c>
       <c r="E67" s="11" t="str">
-        <f t="shared" ref="E67:F67" si="259">if(not(isblank($B67)), E66, "")</f>
+        <f t="shared" ref="E67:F67" si="258">if(not(isblank($B67)), E66, "")</f>
         <v/>
       </c>
       <c r="F67" s="11" t="str">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v/>
       </c>
       <c r="G67" s="11" t="str">
@@ -8265,11 +8250,11 @@
         <v/>
       </c>
       <c r="H67" s="11" t="str">
-        <f t="shared" ref="H67:I67" si="260">if(not(isblank($B67)), H66, "")</f>
+        <f t="shared" ref="H67:I67" si="259">if(not(isblank($B67)), H66, "")</f>
         <v/>
       </c>
       <c r="I67" s="11" t="str">
-        <f t="shared" si="260"/>
+        <f t="shared" si="259"/>
         <v/>
       </c>
       <c r="J67" s="11" t="str">
@@ -8277,11 +8262,11 @@
         <v/>
       </c>
       <c r="K67" s="11" t="str">
-        <f t="shared" ref="K67:L67" si="261">if(not(isblank($B67)), K66, "")</f>
+        <f t="shared" ref="K67:L67" si="260">if(not(isblank($B67)), K66, "")</f>
         <v/>
       </c>
       <c r="L67" s="11" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="260"/>
         <v/>
       </c>
       <c r="M67" s="11" t="str">
@@ -8289,21 +8274,18 @@
         <v/>
       </c>
       <c r="N67" s="11" t="str">
-        <f t="shared" ref="N67:O67" si="262">if(not(isblank($B67)), N66, "")</f>
+        <f t="shared" ref="N67:O67" si="261">if(not(isblank($B67)), N66, "")</f>
         <v/>
       </c>
       <c r="O67" s="11" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" si="261"/>
         <v/>
       </c>
       <c r="P67" s="11" t="str">
         <f>product_listing!J67</f>
         <v/>
       </c>
-      <c r="Q67" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q67" s="11"/>
       <c r="R67" s="11" t="str">
         <f>product_listing!C67</f>
         <v/>
@@ -8343,11 +8325,11 @@
         <v/>
       </c>
       <c r="E68" s="11" t="str">
-        <f t="shared" ref="E68:F68" si="263">if(not(isblank($B68)), E67, "")</f>
+        <f t="shared" ref="E68:F68" si="262">if(not(isblank($B68)), E67, "")</f>
         <v/>
       </c>
       <c r="F68" s="11" t="str">
-        <f t="shared" si="263"/>
+        <f t="shared" si="262"/>
         <v/>
       </c>
       <c r="G68" s="11" t="str">
@@ -8355,11 +8337,11 @@
         <v/>
       </c>
       <c r="H68" s="11" t="str">
-        <f t="shared" ref="H68:I68" si="264">if(not(isblank($B68)), H67, "")</f>
+        <f t="shared" ref="H68:I68" si="263">if(not(isblank($B68)), H67, "")</f>
         <v/>
       </c>
       <c r="I68" s="11" t="str">
-        <f t="shared" si="264"/>
+        <f t="shared" si="263"/>
         <v/>
       </c>
       <c r="J68" s="11" t="str">
@@ -8367,11 +8349,11 @@
         <v/>
       </c>
       <c r="K68" s="11" t="str">
-        <f t="shared" ref="K68:L68" si="265">if(not(isblank($B68)), K67, "")</f>
+        <f t="shared" ref="K68:L68" si="264">if(not(isblank($B68)), K67, "")</f>
         <v/>
       </c>
       <c r="L68" s="11" t="str">
-        <f t="shared" si="265"/>
+        <f t="shared" si="264"/>
         <v/>
       </c>
       <c r="M68" s="11" t="str">
@@ -8379,21 +8361,18 @@
         <v/>
       </c>
       <c r="N68" s="11" t="str">
-        <f t="shared" ref="N68:O68" si="266">if(not(isblank($B68)), N67, "")</f>
+        <f t="shared" ref="N68:O68" si="265">if(not(isblank($B68)), N67, "")</f>
         <v/>
       </c>
       <c r="O68" s="11" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="265"/>
         <v/>
       </c>
       <c r="P68" s="11" t="str">
         <f>product_listing!J68</f>
         <v/>
       </c>
-      <c r="Q68" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q68" s="11"/>
       <c r="R68" s="11" t="str">
         <f>product_listing!C68</f>
         <v/>
@@ -8433,11 +8412,11 @@
         <v/>
       </c>
       <c r="E69" s="11" t="str">
-        <f t="shared" ref="E69:F69" si="267">if(not(isblank($B69)), E68, "")</f>
+        <f t="shared" ref="E69:F69" si="266">if(not(isblank($B69)), E68, "")</f>
         <v/>
       </c>
       <c r="F69" s="11" t="str">
-        <f t="shared" si="267"/>
+        <f t="shared" si="266"/>
         <v/>
       </c>
       <c r="G69" s="11" t="str">
@@ -8445,11 +8424,11 @@
         <v/>
       </c>
       <c r="H69" s="11" t="str">
-        <f t="shared" ref="H69:I69" si="268">if(not(isblank($B69)), H68, "")</f>
+        <f t="shared" ref="H69:I69" si="267">if(not(isblank($B69)), H68, "")</f>
         <v/>
       </c>
       <c r="I69" s="11" t="str">
-        <f t="shared" si="268"/>
+        <f t="shared" si="267"/>
         <v/>
       </c>
       <c r="J69" s="11" t="str">
@@ -8457,11 +8436,11 @@
         <v/>
       </c>
       <c r="K69" s="11" t="str">
-        <f t="shared" ref="K69:L69" si="269">if(not(isblank($B69)), K68, "")</f>
+        <f t="shared" ref="K69:L69" si="268">if(not(isblank($B69)), K68, "")</f>
         <v/>
       </c>
       <c r="L69" s="11" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="268"/>
         <v/>
       </c>
       <c r="M69" s="11" t="str">
@@ -8469,21 +8448,18 @@
         <v/>
       </c>
       <c r="N69" s="11" t="str">
-        <f t="shared" ref="N69:O69" si="270">if(not(isblank($B69)), N68, "")</f>
+        <f t="shared" ref="N69:O69" si="269">if(not(isblank($B69)), N68, "")</f>
         <v/>
       </c>
       <c r="O69" s="11" t="str">
-        <f t="shared" si="270"/>
+        <f t="shared" si="269"/>
         <v/>
       </c>
       <c r="P69" s="11" t="str">
         <f>product_listing!J69</f>
         <v/>
       </c>
-      <c r="Q69" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q69" s="11"/>
       <c r="R69" s="11" t="str">
         <f>product_listing!C69</f>
         <v/>
@@ -8523,11 +8499,11 @@
         <v/>
       </c>
       <c r="E70" s="11" t="str">
-        <f t="shared" ref="E70:F70" si="271">if(not(isblank($B70)), E69, "")</f>
+        <f t="shared" ref="E70:F70" si="270">if(not(isblank($B70)), E69, "")</f>
         <v/>
       </c>
       <c r="F70" s="11" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" si="270"/>
         <v/>
       </c>
       <c r="G70" s="11" t="str">
@@ -8535,11 +8511,11 @@
         <v/>
       </c>
       <c r="H70" s="11" t="str">
-        <f t="shared" ref="H70:I70" si="272">if(not(isblank($B70)), H69, "")</f>
+        <f t="shared" ref="H70:I70" si="271">if(not(isblank($B70)), H69, "")</f>
         <v/>
       </c>
       <c r="I70" s="11" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="271"/>
         <v/>
       </c>
       <c r="J70" s="11" t="str">
@@ -8547,11 +8523,11 @@
         <v/>
       </c>
       <c r="K70" s="11" t="str">
-        <f t="shared" ref="K70:L70" si="273">if(not(isblank($B70)), K69, "")</f>
+        <f t="shared" ref="K70:L70" si="272">if(not(isblank($B70)), K69, "")</f>
         <v/>
       </c>
       <c r="L70" s="11" t="str">
-        <f t="shared" si="273"/>
+        <f t="shared" si="272"/>
         <v/>
       </c>
       <c r="M70" s="11" t="str">
@@ -8559,21 +8535,18 @@
         <v/>
       </c>
       <c r="N70" s="11" t="str">
-        <f t="shared" ref="N70:O70" si="274">if(not(isblank($B70)), N69, "")</f>
+        <f t="shared" ref="N70:O70" si="273">if(not(isblank($B70)), N69, "")</f>
         <v/>
       </c>
       <c r="O70" s="11" t="str">
-        <f t="shared" si="274"/>
+        <f t="shared" si="273"/>
         <v/>
       </c>
       <c r="P70" s="11" t="str">
         <f>product_listing!J70</f>
         <v/>
       </c>
-      <c r="Q70" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q70" s="11"/>
       <c r="R70" s="11" t="str">
         <f>product_listing!C70</f>
         <v/>
@@ -8613,11 +8586,11 @@
         <v/>
       </c>
       <c r="E71" s="11" t="str">
-        <f t="shared" ref="E71:F71" si="275">if(not(isblank($B71)), E70, "")</f>
+        <f t="shared" ref="E71:F71" si="274">if(not(isblank($B71)), E70, "")</f>
         <v/>
       </c>
       <c r="F71" s="11" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
       <c r="G71" s="11" t="str">
@@ -8625,11 +8598,11 @@
         <v/>
       </c>
       <c r="H71" s="11" t="str">
-        <f t="shared" ref="H71:I71" si="276">if(not(isblank($B71)), H70, "")</f>
+        <f t="shared" ref="H71:I71" si="275">if(not(isblank($B71)), H70, "")</f>
         <v/>
       </c>
       <c r="I71" s="11" t="str">
-        <f t="shared" si="276"/>
+        <f t="shared" si="275"/>
         <v/>
       </c>
       <c r="J71" s="11" t="str">
@@ -8637,11 +8610,11 @@
         <v/>
       </c>
       <c r="K71" s="11" t="str">
-        <f t="shared" ref="K71:L71" si="277">if(not(isblank($B71)), K70, "")</f>
+        <f t="shared" ref="K71:L71" si="276">if(not(isblank($B71)), K70, "")</f>
         <v/>
       </c>
       <c r="L71" s="11" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="276"/>
         <v/>
       </c>
       <c r="M71" s="11" t="str">
@@ -8649,21 +8622,18 @@
         <v/>
       </c>
       <c r="N71" s="11" t="str">
-        <f t="shared" ref="N71:O71" si="278">if(not(isblank($B71)), N70, "")</f>
+        <f t="shared" ref="N71:O71" si="277">if(not(isblank($B71)), N70, "")</f>
         <v/>
       </c>
       <c r="O71" s="11" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v/>
       </c>
       <c r="P71" s="11" t="str">
         <f>product_listing!J71</f>
         <v/>
       </c>
-      <c r="Q71" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q71" s="11"/>
       <c r="R71" s="11" t="str">
         <f>product_listing!C71</f>
         <v/>
@@ -8703,11 +8673,11 @@
         <v/>
       </c>
       <c r="E72" s="11" t="str">
-        <f t="shared" ref="E72:F72" si="279">if(not(isblank($B72)), E71, "")</f>
+        <f t="shared" ref="E72:F72" si="278">if(not(isblank($B72)), E71, "")</f>
         <v/>
       </c>
       <c r="F72" s="11" t="str">
-        <f t="shared" si="279"/>
+        <f t="shared" si="278"/>
         <v/>
       </c>
       <c r="G72" s="11" t="str">
@@ -8715,11 +8685,11 @@
         <v/>
       </c>
       <c r="H72" s="11" t="str">
-        <f t="shared" ref="H72:I72" si="280">if(not(isblank($B72)), H71, "")</f>
+        <f t="shared" ref="H72:I72" si="279">if(not(isblank($B72)), H71, "")</f>
         <v/>
       </c>
       <c r="I72" s="11" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="279"/>
         <v/>
       </c>
       <c r="J72" s="11" t="str">
@@ -8727,11 +8697,11 @@
         <v/>
       </c>
       <c r="K72" s="11" t="str">
-        <f t="shared" ref="K72:L72" si="281">if(not(isblank($B72)), K71, "")</f>
+        <f t="shared" ref="K72:L72" si="280">if(not(isblank($B72)), K71, "")</f>
         <v/>
       </c>
       <c r="L72" s="11" t="str">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v/>
       </c>
       <c r="M72" s="11" t="str">
@@ -8739,21 +8709,18 @@
         <v/>
       </c>
       <c r="N72" s="11" t="str">
-        <f t="shared" ref="N72:O72" si="282">if(not(isblank($B72)), N71, "")</f>
+        <f t="shared" ref="N72:O72" si="281">if(not(isblank($B72)), N71, "")</f>
         <v/>
       </c>
       <c r="O72" s="11" t="str">
-        <f t="shared" si="282"/>
+        <f t="shared" si="281"/>
         <v/>
       </c>
       <c r="P72" s="11" t="str">
         <f>product_listing!J72</f>
         <v/>
       </c>
-      <c r="Q72" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q72" s="11"/>
       <c r="R72" s="11" t="str">
         <f>product_listing!C72</f>
         <v/>
@@ -8793,11 +8760,11 @@
         <v/>
       </c>
       <c r="E73" s="11" t="str">
-        <f t="shared" ref="E73:F73" si="283">if(not(isblank($B73)), E72, "")</f>
+        <f t="shared" ref="E73:F73" si="282">if(not(isblank($B73)), E72, "")</f>
         <v/>
       </c>
       <c r="F73" s="11" t="str">
-        <f t="shared" si="283"/>
+        <f t="shared" si="282"/>
         <v/>
       </c>
       <c r="G73" s="11" t="str">
@@ -8805,11 +8772,11 @@
         <v/>
       </c>
       <c r="H73" s="11" t="str">
-        <f t="shared" ref="H73:I73" si="284">if(not(isblank($B73)), H72, "")</f>
+        <f t="shared" ref="H73:I73" si="283">if(not(isblank($B73)), H72, "")</f>
         <v/>
       </c>
       <c r="I73" s="11" t="str">
-        <f t="shared" si="284"/>
+        <f t="shared" si="283"/>
         <v/>
       </c>
       <c r="J73" s="11" t="str">
@@ -8817,11 +8784,11 @@
         <v/>
       </c>
       <c r="K73" s="11" t="str">
-        <f t="shared" ref="K73:L73" si="285">if(not(isblank($B73)), K72, "")</f>
+        <f t="shared" ref="K73:L73" si="284">if(not(isblank($B73)), K72, "")</f>
         <v/>
       </c>
       <c r="L73" s="11" t="str">
-        <f t="shared" si="285"/>
+        <f t="shared" si="284"/>
         <v/>
       </c>
       <c r="M73" s="11" t="str">
@@ -8829,21 +8796,18 @@
         <v/>
       </c>
       <c r="N73" s="11" t="str">
-        <f t="shared" ref="N73:O73" si="286">if(not(isblank($B73)), N72, "")</f>
+        <f t="shared" ref="N73:O73" si="285">if(not(isblank($B73)), N72, "")</f>
         <v/>
       </c>
       <c r="O73" s="11" t="str">
-        <f t="shared" si="286"/>
+        <f t="shared" si="285"/>
         <v/>
       </c>
       <c r="P73" s="11" t="str">
         <f>product_listing!J73</f>
         <v/>
       </c>
-      <c r="Q73" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q73" s="11"/>
       <c r="R73" s="11" t="str">
         <f>product_listing!C73</f>
         <v/>
@@ -8883,11 +8847,11 @@
         <v/>
       </c>
       <c r="E74" s="11" t="str">
-        <f t="shared" ref="E74:F74" si="287">if(not(isblank($B74)), E73, "")</f>
+        <f t="shared" ref="E74:F74" si="286">if(not(isblank($B74)), E73, "")</f>
         <v/>
       </c>
       <c r="F74" s="11" t="str">
-        <f t="shared" si="287"/>
+        <f t="shared" si="286"/>
         <v/>
       </c>
       <c r="G74" s="11" t="str">
@@ -8895,11 +8859,11 @@
         <v/>
       </c>
       <c r="H74" s="11" t="str">
-        <f t="shared" ref="H74:I74" si="288">if(not(isblank($B74)), H73, "")</f>
+        <f t="shared" ref="H74:I74" si="287">if(not(isblank($B74)), H73, "")</f>
         <v/>
       </c>
       <c r="I74" s="11" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v/>
       </c>
       <c r="J74" s="11" t="str">
@@ -8907,11 +8871,11 @@
         <v/>
       </c>
       <c r="K74" s="11" t="str">
-        <f t="shared" ref="K74:L74" si="289">if(not(isblank($B74)), K73, "")</f>
+        <f t="shared" ref="K74:L74" si="288">if(not(isblank($B74)), K73, "")</f>
         <v/>
       </c>
       <c r="L74" s="11" t="str">
-        <f t="shared" si="289"/>
+        <f t="shared" si="288"/>
         <v/>
       </c>
       <c r="M74" s="11" t="str">
@@ -8919,21 +8883,18 @@
         <v/>
       </c>
       <c r="N74" s="11" t="str">
-        <f t="shared" ref="N74:O74" si="290">if(not(isblank($B74)), N73, "")</f>
+        <f t="shared" ref="N74:O74" si="289">if(not(isblank($B74)), N73, "")</f>
         <v/>
       </c>
       <c r="O74" s="11" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="289"/>
         <v/>
       </c>
       <c r="P74" s="11" t="str">
         <f>product_listing!J74</f>
         <v/>
       </c>
-      <c r="Q74" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q74" s="11"/>
       <c r="R74" s="11" t="str">
         <f>product_listing!C74</f>
         <v/>
@@ -8973,11 +8934,11 @@
         <v/>
       </c>
       <c r="E75" s="11" t="str">
-        <f t="shared" ref="E75:F75" si="291">if(not(isblank($B75)), E74, "")</f>
+        <f t="shared" ref="E75:F75" si="290">if(not(isblank($B75)), E74, "")</f>
         <v/>
       </c>
       <c r="F75" s="11" t="str">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v/>
       </c>
       <c r="G75" s="11" t="str">
@@ -8985,11 +8946,11 @@
         <v/>
       </c>
       <c r="H75" s="11" t="str">
-        <f t="shared" ref="H75:I75" si="292">if(not(isblank($B75)), H74, "")</f>
+        <f t="shared" ref="H75:I75" si="291">if(not(isblank($B75)), H74, "")</f>
         <v/>
       </c>
       <c r="I75" s="11" t="str">
-        <f t="shared" si="292"/>
+        <f t="shared" si="291"/>
         <v/>
       </c>
       <c r="J75" s="11" t="str">
@@ -8997,11 +8958,11 @@
         <v/>
       </c>
       <c r="K75" s="11" t="str">
-        <f t="shared" ref="K75:L75" si="293">if(not(isblank($B75)), K74, "")</f>
+        <f t="shared" ref="K75:L75" si="292">if(not(isblank($B75)), K74, "")</f>
         <v/>
       </c>
       <c r="L75" s="11" t="str">
-        <f t="shared" si="293"/>
+        <f t="shared" si="292"/>
         <v/>
       </c>
       <c r="M75" s="11" t="str">
@@ -9009,21 +8970,18 @@
         <v/>
       </c>
       <c r="N75" s="11" t="str">
-        <f t="shared" ref="N75:O75" si="294">if(not(isblank($B75)), N74, "")</f>
+        <f t="shared" ref="N75:O75" si="293">if(not(isblank($B75)), N74, "")</f>
         <v/>
       </c>
       <c r="O75" s="11" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="293"/>
         <v/>
       </c>
       <c r="P75" s="11" t="str">
         <f>product_listing!J75</f>
         <v/>
       </c>
-      <c r="Q75" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q75" s="11"/>
       <c r="R75" s="11" t="str">
         <f>product_listing!C75</f>
         <v/>
@@ -9063,11 +9021,11 @@
         <v/>
       </c>
       <c r="E76" s="11" t="str">
-        <f t="shared" ref="E76:F76" si="295">if(not(isblank($B76)), E75, "")</f>
+        <f t="shared" ref="E76:F76" si="294">if(not(isblank($B76)), E75, "")</f>
         <v/>
       </c>
       <c r="F76" s="11" t="str">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v/>
       </c>
       <c r="G76" s="11" t="str">
@@ -9075,11 +9033,11 @@
         <v/>
       </c>
       <c r="H76" s="11" t="str">
-        <f t="shared" ref="H76:I76" si="296">if(not(isblank($B76)), H75, "")</f>
+        <f t="shared" ref="H76:I76" si="295">if(not(isblank($B76)), H75, "")</f>
         <v/>
       </c>
       <c r="I76" s="11" t="str">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v/>
       </c>
       <c r="J76" s="11" t="str">
@@ -9087,11 +9045,11 @@
         <v/>
       </c>
       <c r="K76" s="11" t="str">
-        <f t="shared" ref="K76:L76" si="297">if(not(isblank($B76)), K75, "")</f>
+        <f t="shared" ref="K76:L76" si="296">if(not(isblank($B76)), K75, "")</f>
         <v/>
       </c>
       <c r="L76" s="11" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="296"/>
         <v/>
       </c>
       <c r="M76" s="11" t="str">
@@ -9099,21 +9057,18 @@
         <v/>
       </c>
       <c r="N76" s="11" t="str">
-        <f t="shared" ref="N76:O76" si="298">if(not(isblank($B76)), N75, "")</f>
+        <f t="shared" ref="N76:O76" si="297">if(not(isblank($B76)), N75, "")</f>
         <v/>
       </c>
       <c r="O76" s="11" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="297"/>
         <v/>
       </c>
       <c r="P76" s="11" t="str">
         <f>product_listing!J76</f>
         <v/>
       </c>
-      <c r="Q76" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q76" s="11"/>
       <c r="R76" s="11" t="str">
         <f>product_listing!C76</f>
         <v/>
@@ -9153,11 +9108,11 @@
         <v/>
       </c>
       <c r="E77" s="11" t="str">
-        <f t="shared" ref="E77:F77" si="299">if(not(isblank($B77)), E76, "")</f>
+        <f t="shared" ref="E77:F77" si="298">if(not(isblank($B77)), E76, "")</f>
         <v/>
       </c>
       <c r="F77" s="11" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="298"/>
         <v/>
       </c>
       <c r="G77" s="11" t="str">
@@ -9165,11 +9120,11 @@
         <v/>
       </c>
       <c r="H77" s="11" t="str">
-        <f t="shared" ref="H77:I77" si="300">if(not(isblank($B77)), H76, "")</f>
+        <f t="shared" ref="H77:I77" si="299">if(not(isblank($B77)), H76, "")</f>
         <v/>
       </c>
       <c r="I77" s="11" t="str">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v/>
       </c>
       <c r="J77" s="11" t="str">
@@ -9177,11 +9132,11 @@
         <v/>
       </c>
       <c r="K77" s="11" t="str">
-        <f t="shared" ref="K77:L77" si="301">if(not(isblank($B77)), K76, "")</f>
+        <f t="shared" ref="K77:L77" si="300">if(not(isblank($B77)), K76, "")</f>
         <v/>
       </c>
       <c r="L77" s="11" t="str">
-        <f t="shared" si="301"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="M77" s="11" t="str">
@@ -9189,21 +9144,18 @@
         <v/>
       </c>
       <c r="N77" s="11" t="str">
-        <f t="shared" ref="N77:O77" si="302">if(not(isblank($B77)), N76, "")</f>
+        <f t="shared" ref="N77:O77" si="301">if(not(isblank($B77)), N76, "")</f>
         <v/>
       </c>
       <c r="O77" s="11" t="str">
-        <f t="shared" si="302"/>
+        <f t="shared" si="301"/>
         <v/>
       </c>
       <c r="P77" s="11" t="str">
         <f>product_listing!J77</f>
         <v/>
       </c>
-      <c r="Q77" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q77" s="11"/>
       <c r="R77" s="11" t="str">
         <f>product_listing!C77</f>
         <v/>
@@ -9243,11 +9195,11 @@
         <v/>
       </c>
       <c r="E78" s="11" t="str">
-        <f t="shared" ref="E78:F78" si="303">if(not(isblank($B78)), E77, "")</f>
+        <f t="shared" ref="E78:F78" si="302">if(not(isblank($B78)), E77, "")</f>
         <v/>
       </c>
       <c r="F78" s="11" t="str">
-        <f t="shared" si="303"/>
+        <f t="shared" si="302"/>
         <v/>
       </c>
       <c r="G78" s="11" t="str">
@@ -9255,11 +9207,11 @@
         <v/>
       </c>
       <c r="H78" s="11" t="str">
-        <f t="shared" ref="H78:I78" si="304">if(not(isblank($B78)), H77, "")</f>
+        <f t="shared" ref="H78:I78" si="303">if(not(isblank($B78)), H77, "")</f>
         <v/>
       </c>
       <c r="I78" s="11" t="str">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v/>
       </c>
       <c r="J78" s="11" t="str">
@@ -9267,11 +9219,11 @@
         <v/>
       </c>
       <c r="K78" s="11" t="str">
-        <f t="shared" ref="K78:L78" si="305">if(not(isblank($B78)), K77, "")</f>
+        <f t="shared" ref="K78:L78" si="304">if(not(isblank($B78)), K77, "")</f>
         <v/>
       </c>
       <c r="L78" s="11" t="str">
-        <f t="shared" si="305"/>
+        <f t="shared" si="304"/>
         <v/>
       </c>
       <c r="M78" s="11" t="str">
@@ -9279,21 +9231,18 @@
         <v/>
       </c>
       <c r="N78" s="11" t="str">
-        <f t="shared" ref="N78:O78" si="306">if(not(isblank($B78)), N77, "")</f>
+        <f t="shared" ref="N78:O78" si="305">if(not(isblank($B78)), N77, "")</f>
         <v/>
       </c>
       <c r="O78" s="11" t="str">
-        <f t="shared" si="306"/>
+        <f t="shared" si="305"/>
         <v/>
       </c>
       <c r="P78" s="11" t="str">
         <f>product_listing!J78</f>
         <v/>
       </c>
-      <c r="Q78" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q78" s="11"/>
       <c r="R78" s="11" t="str">
         <f>product_listing!C78</f>
         <v/>
@@ -9333,11 +9282,11 @@
         <v/>
       </c>
       <c r="E79" s="11" t="str">
-        <f t="shared" ref="E79:F79" si="307">if(not(isblank($B79)), E78, "")</f>
+        <f t="shared" ref="E79:F79" si="306">if(not(isblank($B79)), E78, "")</f>
         <v/>
       </c>
       <c r="F79" s="11" t="str">
-        <f t="shared" si="307"/>
+        <f t="shared" si="306"/>
         <v/>
       </c>
       <c r="G79" s="11" t="str">
@@ -9345,11 +9294,11 @@
         <v/>
       </c>
       <c r="H79" s="11" t="str">
-        <f t="shared" ref="H79:I79" si="308">if(not(isblank($B79)), H78, "")</f>
+        <f t="shared" ref="H79:I79" si="307">if(not(isblank($B79)), H78, "")</f>
         <v/>
       </c>
       <c r="I79" s="11" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v/>
       </c>
       <c r="J79" s="11" t="str">
@@ -9357,11 +9306,11 @@
         <v/>
       </c>
       <c r="K79" s="11" t="str">
-        <f t="shared" ref="K79:L79" si="309">if(not(isblank($B79)), K78, "")</f>
+        <f t="shared" ref="K79:L79" si="308">if(not(isblank($B79)), K78, "")</f>
         <v/>
       </c>
       <c r="L79" s="11" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v/>
       </c>
       <c r="M79" s="11" t="str">
@@ -9369,21 +9318,18 @@
         <v/>
       </c>
       <c r="N79" s="11" t="str">
-        <f t="shared" ref="N79:O79" si="310">if(not(isblank($B79)), N78, "")</f>
+        <f t="shared" ref="N79:O79" si="309">if(not(isblank($B79)), N78, "")</f>
         <v/>
       </c>
       <c r="O79" s="11" t="str">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v/>
       </c>
       <c r="P79" s="11" t="str">
         <f>product_listing!J79</f>
         <v/>
       </c>
-      <c r="Q79" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q79" s="11"/>
       <c r="R79" s="11" t="str">
         <f>product_listing!C79</f>
         <v/>
@@ -9423,11 +9369,11 @@
         <v/>
       </c>
       <c r="E80" s="11" t="str">
-        <f t="shared" ref="E80:F80" si="311">if(not(isblank($B80)), E79, "")</f>
+        <f t="shared" ref="E80:F80" si="310">if(not(isblank($B80)), E79, "")</f>
         <v/>
       </c>
       <c r="F80" s="11" t="str">
-        <f t="shared" si="311"/>
+        <f t="shared" si="310"/>
         <v/>
       </c>
       <c r="G80" s="11" t="str">
@@ -9435,11 +9381,11 @@
         <v/>
       </c>
       <c r="H80" s="11" t="str">
-        <f t="shared" ref="H80:I80" si="312">if(not(isblank($B80)), H79, "")</f>
+        <f t="shared" ref="H80:I80" si="311">if(not(isblank($B80)), H79, "")</f>
         <v/>
       </c>
       <c r="I80" s="11" t="str">
-        <f t="shared" si="312"/>
+        <f t="shared" si="311"/>
         <v/>
       </c>
       <c r="J80" s="11" t="str">
@@ -9447,11 +9393,11 @@
         <v/>
       </c>
       <c r="K80" s="11" t="str">
-        <f t="shared" ref="K80:L80" si="313">if(not(isblank($B80)), K79, "")</f>
+        <f t="shared" ref="K80:L80" si="312">if(not(isblank($B80)), K79, "")</f>
         <v/>
       </c>
       <c r="L80" s="11" t="str">
-        <f t="shared" si="313"/>
+        <f t="shared" si="312"/>
         <v/>
       </c>
       <c r="M80" s="11" t="str">
@@ -9459,21 +9405,18 @@
         <v/>
       </c>
       <c r="N80" s="11" t="str">
-        <f t="shared" ref="N80:O80" si="314">if(not(isblank($B80)), N79, "")</f>
+        <f t="shared" ref="N80:O80" si="313">if(not(isblank($B80)), N79, "")</f>
         <v/>
       </c>
       <c r="O80" s="11" t="str">
-        <f t="shared" si="314"/>
+        <f t="shared" si="313"/>
         <v/>
       </c>
       <c r="P80" s="11" t="str">
         <f>product_listing!J80</f>
         <v/>
       </c>
-      <c r="Q80" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q80" s="11"/>
       <c r="R80" s="11" t="str">
         <f>product_listing!C80</f>
         <v/>
@@ -9513,11 +9456,11 @@
         <v/>
       </c>
       <c r="E81" s="11" t="str">
-        <f t="shared" ref="E81:F81" si="315">if(not(isblank($B81)), E80, "")</f>
+        <f t="shared" ref="E81:F81" si="314">if(not(isblank($B81)), E80, "")</f>
         <v/>
       </c>
       <c r="F81" s="11" t="str">
-        <f t="shared" si="315"/>
+        <f t="shared" si="314"/>
         <v/>
       </c>
       <c r="G81" s="11" t="str">
@@ -9525,11 +9468,11 @@
         <v/>
       </c>
       <c r="H81" s="11" t="str">
-        <f t="shared" ref="H81:I81" si="316">if(not(isblank($B81)), H80, "")</f>
+        <f t="shared" ref="H81:I81" si="315">if(not(isblank($B81)), H80, "")</f>
         <v/>
       </c>
       <c r="I81" s="11" t="str">
-        <f t="shared" si="316"/>
+        <f t="shared" si="315"/>
         <v/>
       </c>
       <c r="J81" s="11" t="str">
@@ -9537,11 +9480,11 @@
         <v/>
       </c>
       <c r="K81" s="11" t="str">
-        <f t="shared" ref="K81:L81" si="317">if(not(isblank($B81)), K80, "")</f>
+        <f t="shared" ref="K81:L81" si="316">if(not(isblank($B81)), K80, "")</f>
         <v/>
       </c>
       <c r="L81" s="11" t="str">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v/>
       </c>
       <c r="M81" s="11" t="str">
@@ -9549,21 +9492,18 @@
         <v/>
       </c>
       <c r="N81" s="11" t="str">
-        <f t="shared" ref="N81:O81" si="318">if(not(isblank($B81)), N80, "")</f>
+        <f t="shared" ref="N81:O81" si="317">if(not(isblank($B81)), N80, "")</f>
         <v/>
       </c>
       <c r="O81" s="11" t="str">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v/>
       </c>
       <c r="P81" s="11" t="str">
         <f>product_listing!J81</f>
         <v/>
       </c>
-      <c r="Q81" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q81" s="11"/>
       <c r="R81" s="11" t="str">
         <f>product_listing!C81</f>
         <v/>
@@ -9603,11 +9543,11 @@
         <v/>
       </c>
       <c r="E82" s="11" t="str">
-        <f t="shared" ref="E82:F82" si="319">if(not(isblank($B82)), E81, "")</f>
+        <f t="shared" ref="E82:F82" si="318">if(not(isblank($B82)), E81, "")</f>
         <v/>
       </c>
       <c r="F82" s="11" t="str">
-        <f t="shared" si="319"/>
+        <f t="shared" si="318"/>
         <v/>
       </c>
       <c r="G82" s="11" t="str">
@@ -9615,11 +9555,11 @@
         <v/>
       </c>
       <c r="H82" s="11" t="str">
-        <f t="shared" ref="H82:I82" si="320">if(not(isblank($B82)), H81, "")</f>
+        <f t="shared" ref="H82:I82" si="319">if(not(isblank($B82)), H81, "")</f>
         <v/>
       </c>
       <c r="I82" s="11" t="str">
-        <f t="shared" si="320"/>
+        <f t="shared" si="319"/>
         <v/>
       </c>
       <c r="J82" s="11" t="str">
@@ -9627,11 +9567,11 @@
         <v/>
       </c>
       <c r="K82" s="11" t="str">
-        <f t="shared" ref="K82:L82" si="321">if(not(isblank($B82)), K81, "")</f>
+        <f t="shared" ref="K82:L82" si="320">if(not(isblank($B82)), K81, "")</f>
         <v/>
       </c>
       <c r="L82" s="11" t="str">
-        <f t="shared" si="321"/>
+        <f t="shared" si="320"/>
         <v/>
       </c>
       <c r="M82" s="11" t="str">
@@ -9639,21 +9579,18 @@
         <v/>
       </c>
       <c r="N82" s="11" t="str">
-        <f t="shared" ref="N82:O82" si="322">if(not(isblank($B82)), N81, "")</f>
+        <f t="shared" ref="N82:O82" si="321">if(not(isblank($B82)), N81, "")</f>
         <v/>
       </c>
       <c r="O82" s="11" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="321"/>
         <v/>
       </c>
       <c r="P82" s="11" t="str">
         <f>product_listing!J82</f>
         <v/>
       </c>
-      <c r="Q82" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q82" s="11"/>
       <c r="R82" s="11" t="str">
         <f>product_listing!C82</f>
         <v/>
@@ -9693,11 +9630,11 @@
         <v/>
       </c>
       <c r="E83" s="11" t="str">
-        <f t="shared" ref="E83:F83" si="323">if(not(isblank($B83)), E82, "")</f>
+        <f t="shared" ref="E83:F83" si="322">if(not(isblank($B83)), E82, "")</f>
         <v/>
       </c>
       <c r="F83" s="11" t="str">
-        <f t="shared" si="323"/>
+        <f t="shared" si="322"/>
         <v/>
       </c>
       <c r="G83" s="11" t="str">
@@ -9705,11 +9642,11 @@
         <v/>
       </c>
       <c r="H83" s="11" t="str">
-        <f t="shared" ref="H83:I83" si="324">if(not(isblank($B83)), H82, "")</f>
+        <f t="shared" ref="H83:I83" si="323">if(not(isblank($B83)), H82, "")</f>
         <v/>
       </c>
       <c r="I83" s="11" t="str">
-        <f t="shared" si="324"/>
+        <f t="shared" si="323"/>
         <v/>
       </c>
       <c r="J83" s="11" t="str">
@@ -9717,11 +9654,11 @@
         <v/>
       </c>
       <c r="K83" s="11" t="str">
-        <f t="shared" ref="K83:L83" si="325">if(not(isblank($B83)), K82, "")</f>
+        <f t="shared" ref="K83:L83" si="324">if(not(isblank($B83)), K82, "")</f>
         <v/>
       </c>
       <c r="L83" s="11" t="str">
-        <f t="shared" si="325"/>
+        <f t="shared" si="324"/>
         <v/>
       </c>
       <c r="M83" s="11" t="str">
@@ -9729,21 +9666,18 @@
         <v/>
       </c>
       <c r="N83" s="11" t="str">
-        <f t="shared" ref="N83:O83" si="326">if(not(isblank($B83)), N82, "")</f>
+        <f t="shared" ref="N83:O83" si="325">if(not(isblank($B83)), N82, "")</f>
         <v/>
       </c>
       <c r="O83" s="11" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="325"/>
         <v/>
       </c>
       <c r="P83" s="11" t="str">
         <f>product_listing!J83</f>
         <v/>
       </c>
-      <c r="Q83" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q83" s="11"/>
       <c r="R83" s="11" t="str">
         <f>product_listing!C83</f>
         <v/>
@@ -9783,11 +9717,11 @@
         <v/>
       </c>
       <c r="E84" s="11" t="str">
-        <f t="shared" ref="E84:F84" si="327">if(not(isblank($B84)), E83, "")</f>
+        <f t="shared" ref="E84:F84" si="326">if(not(isblank($B84)), E83, "")</f>
         <v/>
       </c>
       <c r="F84" s="11" t="str">
-        <f t="shared" si="327"/>
+        <f t="shared" si="326"/>
         <v/>
       </c>
       <c r="G84" s="11" t="str">
@@ -9795,11 +9729,11 @@
         <v/>
       </c>
       <c r="H84" s="11" t="str">
-        <f t="shared" ref="H84:I84" si="328">if(not(isblank($B84)), H83, "")</f>
+        <f t="shared" ref="H84:I84" si="327">if(not(isblank($B84)), H83, "")</f>
         <v/>
       </c>
       <c r="I84" s="11" t="str">
-        <f t="shared" si="328"/>
+        <f t="shared" si="327"/>
         <v/>
       </c>
       <c r="J84" s="11" t="str">
@@ -9807,11 +9741,11 @@
         <v/>
       </c>
       <c r="K84" s="11" t="str">
-        <f t="shared" ref="K84:L84" si="329">if(not(isblank($B84)), K83, "")</f>
+        <f t="shared" ref="K84:L84" si="328">if(not(isblank($B84)), K83, "")</f>
         <v/>
       </c>
       <c r="L84" s="11" t="str">
-        <f t="shared" si="329"/>
+        <f t="shared" si="328"/>
         <v/>
       </c>
       <c r="M84" s="11" t="str">
@@ -9819,21 +9753,18 @@
         <v/>
       </c>
       <c r="N84" s="11" t="str">
-        <f t="shared" ref="N84:O84" si="330">if(not(isblank($B84)), N83, "")</f>
+        <f t="shared" ref="N84:O84" si="329">if(not(isblank($B84)), N83, "")</f>
         <v/>
       </c>
       <c r="O84" s="11" t="str">
-        <f t="shared" si="330"/>
+        <f t="shared" si="329"/>
         <v/>
       </c>
       <c r="P84" s="11" t="str">
         <f>product_listing!J84</f>
         <v/>
       </c>
-      <c r="Q84" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q84" s="11"/>
       <c r="R84" s="11" t="str">
         <f>product_listing!C84</f>
         <v/>
@@ -9873,11 +9804,11 @@
         <v/>
       </c>
       <c r="E85" s="11" t="str">
-        <f t="shared" ref="E85:F85" si="331">if(not(isblank($B85)), E84, "")</f>
+        <f t="shared" ref="E85:F85" si="330">if(not(isblank($B85)), E84, "")</f>
         <v/>
       </c>
       <c r="F85" s="11" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="G85" s="11" t="str">
@@ -9885,11 +9816,11 @@
         <v/>
       </c>
       <c r="H85" s="11" t="str">
-        <f t="shared" ref="H85:I85" si="332">if(not(isblank($B85)), H84, "")</f>
+        <f t="shared" ref="H85:I85" si="331">if(not(isblank($B85)), H84, "")</f>
         <v/>
       </c>
       <c r="I85" s="11" t="str">
-        <f t="shared" si="332"/>
+        <f t="shared" si="331"/>
         <v/>
       </c>
       <c r="J85" s="11" t="str">
@@ -9897,11 +9828,11 @@
         <v/>
       </c>
       <c r="K85" s="11" t="str">
-        <f t="shared" ref="K85:L85" si="333">if(not(isblank($B85)), K84, "")</f>
+        <f t="shared" ref="K85:L85" si="332">if(not(isblank($B85)), K84, "")</f>
         <v/>
       </c>
       <c r="L85" s="11" t="str">
-        <f t="shared" si="333"/>
+        <f t="shared" si="332"/>
         <v/>
       </c>
       <c r="M85" s="11" t="str">
@@ -9909,21 +9840,18 @@
         <v/>
       </c>
       <c r="N85" s="11" t="str">
-        <f t="shared" ref="N85:O85" si="334">if(not(isblank($B85)), N84, "")</f>
+        <f t="shared" ref="N85:O85" si="333">if(not(isblank($B85)), N84, "")</f>
         <v/>
       </c>
       <c r="O85" s="11" t="str">
-        <f t="shared" si="334"/>
+        <f t="shared" si="333"/>
         <v/>
       </c>
       <c r="P85" s="11" t="str">
         <f>product_listing!J85</f>
         <v/>
       </c>
-      <c r="Q85" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q85" s="11"/>
       <c r="R85" s="11" t="str">
         <f>product_listing!C85</f>
         <v/>
@@ -9963,11 +9891,11 @@
         <v/>
       </c>
       <c r="E86" s="11" t="str">
-        <f t="shared" ref="E86:F86" si="335">if(not(isblank($B86)), E85, "")</f>
+        <f t="shared" ref="E86:F86" si="334">if(not(isblank($B86)), E85, "")</f>
         <v/>
       </c>
       <c r="F86" s="11" t="str">
-        <f t="shared" si="335"/>
+        <f t="shared" si="334"/>
         <v/>
       </c>
       <c r="G86" s="11" t="str">
@@ -9975,11 +9903,11 @@
         <v/>
       </c>
       <c r="H86" s="11" t="str">
-        <f t="shared" ref="H86:I86" si="336">if(not(isblank($B86)), H85, "")</f>
+        <f t="shared" ref="H86:I86" si="335">if(not(isblank($B86)), H85, "")</f>
         <v/>
       </c>
       <c r="I86" s="11" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="335"/>
         <v/>
       </c>
       <c r="J86" s="11" t="str">
@@ -9987,11 +9915,11 @@
         <v/>
       </c>
       <c r="K86" s="11" t="str">
-        <f t="shared" ref="K86:L86" si="337">if(not(isblank($B86)), K85, "")</f>
+        <f t="shared" ref="K86:L86" si="336">if(not(isblank($B86)), K85, "")</f>
         <v/>
       </c>
       <c r="L86" s="11" t="str">
-        <f t="shared" si="337"/>
+        <f t="shared" si="336"/>
         <v/>
       </c>
       <c r="M86" s="11" t="str">
@@ -9999,21 +9927,18 @@
         <v/>
       </c>
       <c r="N86" s="11" t="str">
-        <f t="shared" ref="N86:O86" si="338">if(not(isblank($B86)), N85, "")</f>
+        <f t="shared" ref="N86:O86" si="337">if(not(isblank($B86)), N85, "")</f>
         <v/>
       </c>
       <c r="O86" s="11" t="str">
-        <f t="shared" si="338"/>
+        <f t="shared" si="337"/>
         <v/>
       </c>
       <c r="P86" s="11" t="str">
         <f>product_listing!J86</f>
         <v/>
       </c>
-      <c r="Q86" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q86" s="11"/>
       <c r="R86" s="11" t="str">
         <f>product_listing!C86</f>
         <v/>
@@ -10053,11 +9978,11 @@
         <v/>
       </c>
       <c r="E87" s="11" t="str">
-        <f t="shared" ref="E87:F87" si="339">if(not(isblank($B87)), E86, "")</f>
+        <f t="shared" ref="E87:F87" si="338">if(not(isblank($B87)), E86, "")</f>
         <v/>
       </c>
       <c r="F87" s="11" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="338"/>
         <v/>
       </c>
       <c r="G87" s="11" t="str">
@@ -10065,11 +9990,11 @@
         <v/>
       </c>
       <c r="H87" s="11" t="str">
-        <f t="shared" ref="H87:I87" si="340">if(not(isblank($B87)), H86, "")</f>
+        <f t="shared" ref="H87:I87" si="339">if(not(isblank($B87)), H86, "")</f>
         <v/>
       </c>
       <c r="I87" s="11" t="str">
-        <f t="shared" si="340"/>
+        <f t="shared" si="339"/>
         <v/>
       </c>
       <c r="J87" s="11" t="str">
@@ -10077,11 +10002,11 @@
         <v/>
       </c>
       <c r="K87" s="11" t="str">
-        <f t="shared" ref="K87:L87" si="341">if(not(isblank($B87)), K86, "")</f>
+        <f t="shared" ref="K87:L87" si="340">if(not(isblank($B87)), K86, "")</f>
         <v/>
       </c>
       <c r="L87" s="11" t="str">
-        <f t="shared" si="341"/>
+        <f t="shared" si="340"/>
         <v/>
       </c>
       <c r="M87" s="11" t="str">
@@ -10089,21 +10014,18 @@
         <v/>
       </c>
       <c r="N87" s="11" t="str">
-        <f t="shared" ref="N87:O87" si="342">if(not(isblank($B87)), N86, "")</f>
+        <f t="shared" ref="N87:O87" si="341">if(not(isblank($B87)), N86, "")</f>
         <v/>
       </c>
       <c r="O87" s="11" t="str">
-        <f t="shared" si="342"/>
+        <f t="shared" si="341"/>
         <v/>
       </c>
       <c r="P87" s="11" t="str">
         <f>product_listing!J87</f>
         <v/>
       </c>
-      <c r="Q87" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q87" s="11"/>
       <c r="R87" s="11" t="str">
         <f>product_listing!C87</f>
         <v/>
@@ -10143,11 +10065,11 @@
         <v/>
       </c>
       <c r="E88" s="11" t="str">
-        <f t="shared" ref="E88:F88" si="343">if(not(isblank($B88)), E87, "")</f>
+        <f t="shared" ref="E88:F88" si="342">if(not(isblank($B88)), E87, "")</f>
         <v/>
       </c>
       <c r="F88" s="11" t="str">
-        <f t="shared" si="343"/>
+        <f t="shared" si="342"/>
         <v/>
       </c>
       <c r="G88" s="11" t="str">
@@ -10155,11 +10077,11 @@
         <v/>
       </c>
       <c r="H88" s="11" t="str">
-        <f t="shared" ref="H88:I88" si="344">if(not(isblank($B88)), H87, "")</f>
+        <f t="shared" ref="H88:I88" si="343">if(not(isblank($B88)), H87, "")</f>
         <v/>
       </c>
       <c r="I88" s="11" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="343"/>
         <v/>
       </c>
       <c r="J88" s="11" t="str">
@@ -10167,11 +10089,11 @@
         <v/>
       </c>
       <c r="K88" s="11" t="str">
-        <f t="shared" ref="K88:L88" si="345">if(not(isblank($B88)), K87, "")</f>
+        <f t="shared" ref="K88:L88" si="344">if(not(isblank($B88)), K87, "")</f>
         <v/>
       </c>
       <c r="L88" s="11" t="str">
-        <f t="shared" si="345"/>
+        <f t="shared" si="344"/>
         <v/>
       </c>
       <c r="M88" s="11" t="str">
@@ -10179,21 +10101,18 @@
         <v/>
       </c>
       <c r="N88" s="11" t="str">
-        <f t="shared" ref="N88:O88" si="346">if(not(isblank($B88)), N87, "")</f>
+        <f t="shared" ref="N88:O88" si="345">if(not(isblank($B88)), N87, "")</f>
         <v/>
       </c>
       <c r="O88" s="11" t="str">
-        <f t="shared" si="346"/>
+        <f t="shared" si="345"/>
         <v/>
       </c>
       <c r="P88" s="11" t="str">
         <f>product_listing!J88</f>
         <v/>
       </c>
-      <c r="Q88" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q88" s="11"/>
       <c r="R88" s="11" t="str">
         <f>product_listing!C88</f>
         <v/>
@@ -10233,11 +10152,11 @@
         <v/>
       </c>
       <c r="E89" s="11" t="str">
-        <f t="shared" ref="E89:F89" si="347">if(not(isblank($B89)), E88, "")</f>
+        <f t="shared" ref="E89:F89" si="346">if(not(isblank($B89)), E88, "")</f>
         <v/>
       </c>
       <c r="F89" s="11" t="str">
-        <f t="shared" si="347"/>
+        <f t="shared" si="346"/>
         <v/>
       </c>
       <c r="G89" s="11" t="str">
@@ -10245,11 +10164,11 @@
         <v/>
       </c>
       <c r="H89" s="11" t="str">
-        <f t="shared" ref="H89:I89" si="348">if(not(isblank($B89)), H88, "")</f>
+        <f t="shared" ref="H89:I89" si="347">if(not(isblank($B89)), H88, "")</f>
         <v/>
       </c>
       <c r="I89" s="11" t="str">
-        <f t="shared" si="348"/>
+        <f t="shared" si="347"/>
         <v/>
       </c>
       <c r="J89" s="11" t="str">
@@ -10257,11 +10176,11 @@
         <v/>
       </c>
       <c r="K89" s="11" t="str">
-        <f t="shared" ref="K89:L89" si="349">if(not(isblank($B89)), K88, "")</f>
+        <f t="shared" ref="K89:L89" si="348">if(not(isblank($B89)), K88, "")</f>
         <v/>
       </c>
       <c r="L89" s="11" t="str">
-        <f t="shared" si="349"/>
+        <f t="shared" si="348"/>
         <v/>
       </c>
       <c r="M89" s="11" t="str">
@@ -10269,21 +10188,18 @@
         <v/>
       </c>
       <c r="N89" s="11" t="str">
-        <f t="shared" ref="N89:O89" si="350">if(not(isblank($B89)), N88, "")</f>
+        <f t="shared" ref="N89:O89" si="349">if(not(isblank($B89)), N88, "")</f>
         <v/>
       </c>
       <c r="O89" s="11" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="349"/>
         <v/>
       </c>
       <c r="P89" s="11" t="str">
         <f>product_listing!J89</f>
         <v/>
       </c>
-      <c r="Q89" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q89" s="11"/>
       <c r="R89" s="11" t="str">
         <f>product_listing!C89</f>
         <v/>
@@ -10323,11 +10239,11 @@
         <v/>
       </c>
       <c r="E90" s="11" t="str">
-        <f t="shared" ref="E90:F90" si="351">if(not(isblank($B90)), E89, "")</f>
+        <f t="shared" ref="E90:F90" si="350">if(not(isblank($B90)), E89, "")</f>
         <v/>
       </c>
       <c r="F90" s="11" t="str">
-        <f t="shared" si="351"/>
+        <f t="shared" si="350"/>
         <v/>
       </c>
       <c r="G90" s="11" t="str">
@@ -10335,11 +10251,11 @@
         <v/>
       </c>
       <c r="H90" s="11" t="str">
-        <f t="shared" ref="H90:I90" si="352">if(not(isblank($B90)), H89, "")</f>
+        <f t="shared" ref="H90:I90" si="351">if(not(isblank($B90)), H89, "")</f>
         <v/>
       </c>
       <c r="I90" s="11" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" si="351"/>
         <v/>
       </c>
       <c r="J90" s="11" t="str">
@@ -10347,11 +10263,11 @@
         <v/>
       </c>
       <c r="K90" s="11" t="str">
-        <f t="shared" ref="K90:L90" si="353">if(not(isblank($B90)), K89, "")</f>
+        <f t="shared" ref="K90:L90" si="352">if(not(isblank($B90)), K89, "")</f>
         <v/>
       </c>
       <c r="L90" s="11" t="str">
-        <f t="shared" si="353"/>
+        <f t="shared" si="352"/>
         <v/>
       </c>
       <c r="M90" s="11" t="str">
@@ -10359,21 +10275,18 @@
         <v/>
       </c>
       <c r="N90" s="11" t="str">
-        <f t="shared" ref="N90:O90" si="354">if(not(isblank($B90)), N89, "")</f>
+        <f t="shared" ref="N90:O90" si="353">if(not(isblank($B90)), N89, "")</f>
         <v/>
       </c>
       <c r="O90" s="11" t="str">
-        <f t="shared" si="354"/>
+        <f t="shared" si="353"/>
         <v/>
       </c>
       <c r="P90" s="11" t="str">
         <f>product_listing!J90</f>
         <v/>
       </c>
-      <c r="Q90" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q90" s="11"/>
       <c r="R90" s="11" t="str">
         <f>product_listing!C90</f>
         <v/>
@@ -10413,11 +10326,11 @@
         <v/>
       </c>
       <c r="E91" s="11" t="str">
-        <f t="shared" ref="E91:F91" si="355">if(not(isblank($B91)), E90, "")</f>
+        <f t="shared" ref="E91:F91" si="354">if(not(isblank($B91)), E90, "")</f>
         <v/>
       </c>
       <c r="F91" s="11" t="str">
-        <f t="shared" si="355"/>
+        <f t="shared" si="354"/>
         <v/>
       </c>
       <c r="G91" s="11" t="str">
@@ -10425,11 +10338,11 @@
         <v/>
       </c>
       <c r="H91" s="11" t="str">
-        <f t="shared" ref="H91:I91" si="356">if(not(isblank($B91)), H90, "")</f>
+        <f t="shared" ref="H91:I91" si="355">if(not(isblank($B91)), H90, "")</f>
         <v/>
       </c>
       <c r="I91" s="11" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="355"/>
         <v/>
       </c>
       <c r="J91" s="11" t="str">
@@ -10437,11 +10350,11 @@
         <v/>
       </c>
       <c r="K91" s="11" t="str">
-        <f t="shared" ref="K91:L91" si="357">if(not(isblank($B91)), K90, "")</f>
+        <f t="shared" ref="K91:L91" si="356">if(not(isblank($B91)), K90, "")</f>
         <v/>
       </c>
       <c r="L91" s="11" t="str">
-        <f t="shared" si="357"/>
+        <f t="shared" si="356"/>
         <v/>
       </c>
       <c r="M91" s="11" t="str">
@@ -10449,21 +10362,18 @@
         <v/>
       </c>
       <c r="N91" s="11" t="str">
-        <f t="shared" ref="N91:O91" si="358">if(not(isblank($B91)), N90, "")</f>
+        <f t="shared" ref="N91:O91" si="357">if(not(isblank($B91)), N90, "")</f>
         <v/>
       </c>
       <c r="O91" s="11" t="str">
-        <f t="shared" si="358"/>
+        <f t="shared" si="357"/>
         <v/>
       </c>
       <c r="P91" s="11" t="str">
         <f>product_listing!J91</f>
         <v/>
       </c>
-      <c r="Q91" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q91" s="11"/>
       <c r="R91" s="11" t="str">
         <f>product_listing!C91</f>
         <v/>
@@ -10503,11 +10413,11 @@
         <v/>
       </c>
       <c r="E92" s="11" t="str">
-        <f t="shared" ref="E92:F92" si="359">if(not(isblank($B92)), E91, "")</f>
+        <f t="shared" ref="E92:F92" si="358">if(not(isblank($B92)), E91, "")</f>
         <v/>
       </c>
       <c r="F92" s="11" t="str">
-        <f t="shared" si="359"/>
+        <f t="shared" si="358"/>
         <v/>
       </c>
       <c r="G92" s="11" t="str">
@@ -10515,11 +10425,11 @@
         <v/>
       </c>
       <c r="H92" s="11" t="str">
-        <f t="shared" ref="H92:I92" si="360">if(not(isblank($B92)), H91, "")</f>
+        <f t="shared" ref="H92:I92" si="359">if(not(isblank($B92)), H91, "")</f>
         <v/>
       </c>
       <c r="I92" s="11" t="str">
-        <f t="shared" si="360"/>
+        <f t="shared" si="359"/>
         <v/>
       </c>
       <c r="J92" s="11" t="str">
@@ -10527,11 +10437,11 @@
         <v/>
       </c>
       <c r="K92" s="11" t="str">
-        <f t="shared" ref="K92:L92" si="361">if(not(isblank($B92)), K91, "")</f>
+        <f t="shared" ref="K92:L92" si="360">if(not(isblank($B92)), K91, "")</f>
         <v/>
       </c>
       <c r="L92" s="11" t="str">
-        <f t="shared" si="361"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="M92" s="11" t="str">
@@ -10539,21 +10449,18 @@
         <v/>
       </c>
       <c r="N92" s="11" t="str">
-        <f t="shared" ref="N92:O92" si="362">if(not(isblank($B92)), N91, "")</f>
+        <f t="shared" ref="N92:O92" si="361">if(not(isblank($B92)), N91, "")</f>
         <v/>
       </c>
       <c r="O92" s="11" t="str">
-        <f t="shared" si="362"/>
+        <f t="shared" si="361"/>
         <v/>
       </c>
       <c r="P92" s="11" t="str">
         <f>product_listing!J92</f>
         <v/>
       </c>
-      <c r="Q92" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q92" s="11"/>
       <c r="R92" s="11" t="str">
         <f>product_listing!C92</f>
         <v/>
@@ -10593,11 +10500,11 @@
         <v/>
       </c>
       <c r="E93" s="11" t="str">
-        <f t="shared" ref="E93:F93" si="363">if(not(isblank($B93)), E92, "")</f>
+        <f t="shared" ref="E93:F93" si="362">if(not(isblank($B93)), E92, "")</f>
         <v/>
       </c>
       <c r="F93" s="11" t="str">
-        <f t="shared" si="363"/>
+        <f t="shared" si="362"/>
         <v/>
       </c>
       <c r="G93" s="11" t="str">
@@ -10605,11 +10512,11 @@
         <v/>
       </c>
       <c r="H93" s="11" t="str">
-        <f t="shared" ref="H93:I93" si="364">if(not(isblank($B93)), H92, "")</f>
+        <f t="shared" ref="H93:I93" si="363">if(not(isblank($B93)), H92, "")</f>
         <v/>
       </c>
       <c r="I93" s="11" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="363"/>
         <v/>
       </c>
       <c r="J93" s="11" t="str">
@@ -10617,11 +10524,11 @@
         <v/>
       </c>
       <c r="K93" s="11" t="str">
-        <f t="shared" ref="K93:L93" si="365">if(not(isblank($B93)), K92, "")</f>
+        <f t="shared" ref="K93:L93" si="364">if(not(isblank($B93)), K92, "")</f>
         <v/>
       </c>
       <c r="L93" s="11" t="str">
-        <f t="shared" si="365"/>
+        <f t="shared" si="364"/>
         <v/>
       </c>
       <c r="M93" s="11" t="str">
@@ -10629,21 +10536,18 @@
         <v/>
       </c>
       <c r="N93" s="11" t="str">
-        <f t="shared" ref="N93:O93" si="366">if(not(isblank($B93)), N92, "")</f>
+        <f t="shared" ref="N93:O93" si="365">if(not(isblank($B93)), N92, "")</f>
         <v/>
       </c>
       <c r="O93" s="11" t="str">
-        <f t="shared" si="366"/>
+        <f t="shared" si="365"/>
         <v/>
       </c>
       <c r="P93" s="11" t="str">
         <f>product_listing!J93</f>
         <v/>
       </c>
-      <c r="Q93" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q93" s="11"/>
       <c r="R93" s="11" t="str">
         <f>product_listing!C93</f>
         <v/>
@@ -10683,11 +10587,11 @@
         <v/>
       </c>
       <c r="E94" s="11" t="str">
-        <f t="shared" ref="E94:F94" si="367">if(not(isblank($B94)), E93, "")</f>
+        <f t="shared" ref="E94:F94" si="366">if(not(isblank($B94)), E93, "")</f>
         <v/>
       </c>
       <c r="F94" s="11" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" si="366"/>
         <v/>
       </c>
       <c r="G94" s="11" t="str">
@@ -10695,11 +10599,11 @@
         <v/>
       </c>
       <c r="H94" s="11" t="str">
-        <f t="shared" ref="H94:I94" si="368">if(not(isblank($B94)), H93, "")</f>
+        <f t="shared" ref="H94:I94" si="367">if(not(isblank($B94)), H93, "")</f>
         <v/>
       </c>
       <c r="I94" s="11" t="str">
-        <f t="shared" si="368"/>
+        <f t="shared" si="367"/>
         <v/>
       </c>
       <c r="J94" s="11" t="str">
@@ -10707,11 +10611,11 @@
         <v/>
       </c>
       <c r="K94" s="11" t="str">
-        <f t="shared" ref="K94:L94" si="369">if(not(isblank($B94)), K93, "")</f>
+        <f t="shared" ref="K94:L94" si="368">if(not(isblank($B94)), K93, "")</f>
         <v/>
       </c>
       <c r="L94" s="11" t="str">
-        <f t="shared" si="369"/>
+        <f t="shared" si="368"/>
         <v/>
       </c>
       <c r="M94" s="11" t="str">
@@ -10719,21 +10623,18 @@
         <v/>
       </c>
       <c r="N94" s="11" t="str">
-        <f t="shared" ref="N94:O94" si="370">if(not(isblank($B94)), N93, "")</f>
+        <f t="shared" ref="N94:O94" si="369">if(not(isblank($B94)), N93, "")</f>
         <v/>
       </c>
       <c r="O94" s="11" t="str">
-        <f t="shared" si="370"/>
+        <f t="shared" si="369"/>
         <v/>
       </c>
       <c r="P94" s="11" t="str">
         <f>product_listing!J94</f>
         <v/>
       </c>
-      <c r="Q94" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q94" s="11"/>
       <c r="R94" s="11" t="str">
         <f>product_listing!C94</f>
         <v/>
@@ -10773,11 +10674,11 @@
         <v/>
       </c>
       <c r="E95" s="11" t="str">
-        <f t="shared" ref="E95:F95" si="371">if(not(isblank($B95)), E94, "")</f>
+        <f t="shared" ref="E95:F95" si="370">if(not(isblank($B95)), E94, "")</f>
         <v/>
       </c>
       <c r="F95" s="11" t="str">
-        <f t="shared" si="371"/>
+        <f t="shared" si="370"/>
         <v/>
       </c>
       <c r="G95" s="11" t="str">
@@ -10785,11 +10686,11 @@
         <v/>
       </c>
       <c r="H95" s="11" t="str">
-        <f t="shared" ref="H95:I95" si="372">if(not(isblank($B95)), H94, "")</f>
+        <f t="shared" ref="H95:I95" si="371">if(not(isblank($B95)), H94, "")</f>
         <v/>
       </c>
       <c r="I95" s="11" t="str">
-        <f t="shared" si="372"/>
+        <f t="shared" si="371"/>
         <v/>
       </c>
       <c r="J95" s="11" t="str">
@@ -10797,11 +10698,11 @@
         <v/>
       </c>
       <c r="K95" s="11" t="str">
-        <f t="shared" ref="K95:L95" si="373">if(not(isblank($B95)), K94, "")</f>
+        <f t="shared" ref="K95:L95" si="372">if(not(isblank($B95)), K94, "")</f>
         <v/>
       </c>
       <c r="L95" s="11" t="str">
-        <f t="shared" si="373"/>
+        <f t="shared" si="372"/>
         <v/>
       </c>
       <c r="M95" s="11" t="str">
@@ -10809,21 +10710,18 @@
         <v/>
       </c>
       <c r="N95" s="11" t="str">
-        <f t="shared" ref="N95:O95" si="374">if(not(isblank($B95)), N94, "")</f>
+        <f t="shared" ref="N95:O95" si="373">if(not(isblank($B95)), N94, "")</f>
         <v/>
       </c>
       <c r="O95" s="11" t="str">
-        <f t="shared" si="374"/>
+        <f t="shared" si="373"/>
         <v/>
       </c>
       <c r="P95" s="11" t="str">
         <f>product_listing!J95</f>
         <v/>
       </c>
-      <c r="Q95" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q95" s="11"/>
       <c r="R95" s="11" t="str">
         <f>product_listing!C95</f>
         <v/>
@@ -10863,11 +10761,11 @@
         <v/>
       </c>
       <c r="E96" s="11" t="str">
-        <f t="shared" ref="E96:F96" si="375">if(not(isblank($B96)), E95, "")</f>
+        <f t="shared" ref="E96:F96" si="374">if(not(isblank($B96)), E95, "")</f>
         <v/>
       </c>
       <c r="F96" s="11" t="str">
-        <f t="shared" si="375"/>
+        <f t="shared" si="374"/>
         <v/>
       </c>
       <c r="G96" s="11" t="str">
@@ -10875,11 +10773,11 @@
         <v/>
       </c>
       <c r="H96" s="11" t="str">
-        <f t="shared" ref="H96:I96" si="376">if(not(isblank($B96)), H95, "")</f>
+        <f t="shared" ref="H96:I96" si="375">if(not(isblank($B96)), H95, "")</f>
         <v/>
       </c>
       <c r="I96" s="11" t="str">
-        <f t="shared" si="376"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="J96" s="11" t="str">
@@ -10887,11 +10785,11 @@
         <v/>
       </c>
       <c r="K96" s="11" t="str">
-        <f t="shared" ref="K96:L96" si="377">if(not(isblank($B96)), K95, "")</f>
+        <f t="shared" ref="K96:L96" si="376">if(not(isblank($B96)), K95, "")</f>
         <v/>
       </c>
       <c r="L96" s="11" t="str">
-        <f t="shared" si="377"/>
+        <f t="shared" si="376"/>
         <v/>
       </c>
       <c r="M96" s="11" t="str">
@@ -10899,21 +10797,18 @@
         <v/>
       </c>
       <c r="N96" s="11" t="str">
-        <f t="shared" ref="N96:O96" si="378">if(not(isblank($B96)), N95, "")</f>
+        <f t="shared" ref="N96:O96" si="377">if(not(isblank($B96)), N95, "")</f>
         <v/>
       </c>
       <c r="O96" s="11" t="str">
-        <f t="shared" si="378"/>
+        <f t="shared" si="377"/>
         <v/>
       </c>
       <c r="P96" s="11" t="str">
         <f>product_listing!J96</f>
         <v/>
       </c>
-      <c r="Q96" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q96" s="11"/>
       <c r="R96" s="11" t="str">
         <f>product_listing!C96</f>
         <v/>
@@ -10953,11 +10848,11 @@
         <v/>
       </c>
       <c r="E97" s="11" t="str">
-        <f t="shared" ref="E97:F97" si="379">if(not(isblank($B97)), E96, "")</f>
+        <f t="shared" ref="E97:F97" si="378">if(not(isblank($B97)), E96, "")</f>
         <v/>
       </c>
       <c r="F97" s="11" t="str">
-        <f t="shared" si="379"/>
+        <f t="shared" si="378"/>
         <v/>
       </c>
       <c r="G97" s="11" t="str">
@@ -10965,11 +10860,11 @@
         <v/>
       </c>
       <c r="H97" s="11" t="str">
-        <f t="shared" ref="H97:I97" si="380">if(not(isblank($B97)), H96, "")</f>
+        <f t="shared" ref="H97:I97" si="379">if(not(isblank($B97)), H96, "")</f>
         <v/>
       </c>
       <c r="I97" s="11" t="str">
-        <f t="shared" si="380"/>
+        <f t="shared" si="379"/>
         <v/>
       </c>
       <c r="J97" s="11" t="str">
@@ -10977,11 +10872,11 @@
         <v/>
       </c>
       <c r="K97" s="11" t="str">
-        <f t="shared" ref="K97:L97" si="381">if(not(isblank($B97)), K96, "")</f>
+        <f t="shared" ref="K97:L97" si="380">if(not(isblank($B97)), K96, "")</f>
         <v/>
       </c>
       <c r="L97" s="11" t="str">
-        <f t="shared" si="381"/>
+        <f t="shared" si="380"/>
         <v/>
       </c>
       <c r="M97" s="11" t="str">
@@ -10989,21 +10884,18 @@
         <v/>
       </c>
       <c r="N97" s="11" t="str">
-        <f t="shared" ref="N97:O97" si="382">if(not(isblank($B97)), N96, "")</f>
+        <f t="shared" ref="N97:O97" si="381">if(not(isblank($B97)), N96, "")</f>
         <v/>
       </c>
       <c r="O97" s="11" t="str">
-        <f t="shared" si="382"/>
+        <f t="shared" si="381"/>
         <v/>
       </c>
       <c r="P97" s="11" t="str">
         <f>product_listing!J97</f>
         <v/>
       </c>
-      <c r="Q97" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q97" s="11"/>
       <c r="R97" s="11" t="str">
         <f>product_listing!C97</f>
         <v/>
@@ -11043,11 +10935,11 @@
         <v/>
       </c>
       <c r="E98" s="11" t="str">
-        <f t="shared" ref="E98:F98" si="383">if(not(isblank($B98)), E97, "")</f>
+        <f t="shared" ref="E98:F98" si="382">if(not(isblank($B98)), E97, "")</f>
         <v/>
       </c>
       <c r="F98" s="11" t="str">
-        <f t="shared" si="383"/>
+        <f t="shared" si="382"/>
         <v/>
       </c>
       <c r="G98" s="11" t="str">
@@ -11055,11 +10947,11 @@
         <v/>
       </c>
       <c r="H98" s="11" t="str">
-        <f t="shared" ref="H98:I98" si="384">if(not(isblank($B98)), H97, "")</f>
+        <f t="shared" ref="H98:I98" si="383">if(not(isblank($B98)), H97, "")</f>
         <v/>
       </c>
       <c r="I98" s="11" t="str">
-        <f t="shared" si="384"/>
+        <f t="shared" si="383"/>
         <v/>
       </c>
       <c r="J98" s="11" t="str">
@@ -11067,11 +10959,11 @@
         <v/>
       </c>
       <c r="K98" s="11" t="str">
-        <f t="shared" ref="K98:L98" si="385">if(not(isblank($B98)), K97, "")</f>
+        <f t="shared" ref="K98:L98" si="384">if(not(isblank($B98)), K97, "")</f>
         <v/>
       </c>
       <c r="L98" s="11" t="str">
-        <f t="shared" si="385"/>
+        <f t="shared" si="384"/>
         <v/>
       </c>
       <c r="M98" s="11" t="str">
@@ -11079,21 +10971,18 @@
         <v/>
       </c>
       <c r="N98" s="11" t="str">
-        <f t="shared" ref="N98:O98" si="386">if(not(isblank($B98)), N97, "")</f>
+        <f t="shared" ref="N98:O98" si="385">if(not(isblank($B98)), N97, "")</f>
         <v/>
       </c>
       <c r="O98" s="11" t="str">
-        <f t="shared" si="386"/>
+        <f t="shared" si="385"/>
         <v/>
       </c>
       <c r="P98" s="11" t="str">
         <f>product_listing!J98</f>
         <v/>
       </c>
-      <c r="Q98" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q98" s="11"/>
       <c r="R98" s="11" t="str">
         <f>product_listing!C98</f>
         <v/>
@@ -11133,11 +11022,11 @@
         <v/>
       </c>
       <c r="E99" s="11" t="str">
-        <f t="shared" ref="E99:F99" si="387">if(not(isblank($B99)), E98, "")</f>
+        <f t="shared" ref="E99:F99" si="386">if(not(isblank($B99)), E98, "")</f>
         <v/>
       </c>
       <c r="F99" s="11" t="str">
-        <f t="shared" si="387"/>
+        <f t="shared" si="386"/>
         <v/>
       </c>
       <c r="G99" s="11" t="str">
@@ -11145,11 +11034,11 @@
         <v/>
       </c>
       <c r="H99" s="11" t="str">
-        <f t="shared" ref="H99:I99" si="388">if(not(isblank($B99)), H98, "")</f>
+        <f t="shared" ref="H99:I99" si="387">if(not(isblank($B99)), H98, "")</f>
         <v/>
       </c>
       <c r="I99" s="11" t="str">
-        <f t="shared" si="388"/>
+        <f t="shared" si="387"/>
         <v/>
       </c>
       <c r="J99" s="11" t="str">
@@ -11157,11 +11046,11 @@
         <v/>
       </c>
       <c r="K99" s="11" t="str">
-        <f t="shared" ref="K99:L99" si="389">if(not(isblank($B99)), K98, "")</f>
+        <f t="shared" ref="K99:L99" si="388">if(not(isblank($B99)), K98, "")</f>
         <v/>
       </c>
       <c r="L99" s="11" t="str">
-        <f t="shared" si="389"/>
+        <f t="shared" si="388"/>
         <v/>
       </c>
       <c r="M99" s="11" t="str">
@@ -11169,21 +11058,18 @@
         <v/>
       </c>
       <c r="N99" s="11" t="str">
-        <f t="shared" ref="N99:O99" si="390">if(not(isblank($B99)), N98, "")</f>
+        <f t="shared" ref="N99:O99" si="389">if(not(isblank($B99)), N98, "")</f>
         <v/>
       </c>
       <c r="O99" s="11" t="str">
-        <f t="shared" si="390"/>
+        <f t="shared" si="389"/>
         <v/>
       </c>
       <c r="P99" s="11" t="str">
         <f>product_listing!J99</f>
         <v/>
       </c>
-      <c r="Q99" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q99" s="11"/>
       <c r="R99" s="11" t="str">
         <f>product_listing!C99</f>
         <v/>
@@ -11223,11 +11109,11 @@
         <v/>
       </c>
       <c r="E100" s="11" t="str">
-        <f t="shared" ref="E100:F100" si="391">if(not(isblank($B100)), E99, "")</f>
+        <f t="shared" ref="E100:F100" si="390">if(not(isblank($B100)), E99, "")</f>
         <v/>
       </c>
       <c r="F100" s="11" t="str">
-        <f t="shared" si="391"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="G100" s="11" t="str">
@@ -11235,11 +11121,11 @@
         <v/>
       </c>
       <c r="H100" s="11" t="str">
-        <f t="shared" ref="H100:I100" si="392">if(not(isblank($B100)), H99, "")</f>
+        <f t="shared" ref="H100:I100" si="391">if(not(isblank($B100)), H99, "")</f>
         <v/>
       </c>
       <c r="I100" s="11" t="str">
-        <f t="shared" si="392"/>
+        <f t="shared" si="391"/>
         <v/>
       </c>
       <c r="J100" s="11" t="str">
@@ -11247,11 +11133,11 @@
         <v/>
       </c>
       <c r="K100" s="11" t="str">
-        <f t="shared" ref="K100:L100" si="393">if(not(isblank($B100)), K99, "")</f>
+        <f t="shared" ref="K100:L100" si="392">if(not(isblank($B100)), K99, "")</f>
         <v/>
       </c>
       <c r="L100" s="11" t="str">
-        <f t="shared" si="393"/>
+        <f t="shared" si="392"/>
         <v/>
       </c>
       <c r="M100" s="11" t="str">
@@ -11259,21 +11145,18 @@
         <v/>
       </c>
       <c r="N100" s="11" t="str">
-        <f t="shared" ref="N100:O100" si="394">if(not(isblank($B100)), N99, "")</f>
+        <f t="shared" ref="N100:O100" si="393">if(not(isblank($B100)), N99, "")</f>
         <v/>
       </c>
       <c r="O100" s="11" t="str">
-        <f t="shared" si="394"/>
+        <f t="shared" si="393"/>
         <v/>
       </c>
       <c r="P100" s="11" t="str">
         <f>product_listing!J100</f>
         <v/>
       </c>
-      <c r="Q100" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q100" s="11"/>
       <c r="R100" s="11" t="str">
         <f>product_listing!C100</f>
         <v/>
@@ -11313,11 +11196,11 @@
         <v/>
       </c>
       <c r="E101" s="11" t="str">
-        <f t="shared" ref="E101:F101" si="395">if(not(isblank($B101)), E100, "")</f>
+        <f t="shared" ref="E101:F101" si="394">if(not(isblank($B101)), E100, "")</f>
         <v/>
       </c>
       <c r="F101" s="11" t="str">
-        <f t="shared" si="395"/>
+        <f t="shared" si="394"/>
         <v/>
       </c>
       <c r="G101" s="11" t="str">
@@ -11325,11 +11208,11 @@
         <v/>
       </c>
       <c r="H101" s="11" t="str">
-        <f t="shared" ref="H101:I101" si="396">if(not(isblank($B101)), H100, "")</f>
+        <f t="shared" ref="H101:I101" si="395">if(not(isblank($B101)), H100, "")</f>
         <v/>
       </c>
       <c r="I101" s="11" t="str">
-        <f t="shared" si="396"/>
+        <f t="shared" si="395"/>
         <v/>
       </c>
       <c r="J101" s="11" t="str">
@@ -11337,11 +11220,11 @@
         <v/>
       </c>
       <c r="K101" s="11" t="str">
-        <f t="shared" ref="K101:L101" si="397">if(not(isblank($B101)), K100, "")</f>
+        <f t="shared" ref="K101:L101" si="396">if(not(isblank($B101)), K100, "")</f>
         <v/>
       </c>
       <c r="L101" s="11" t="str">
-        <f t="shared" si="397"/>
+        <f t="shared" si="396"/>
         <v/>
       </c>
       <c r="M101" s="11" t="str">
@@ -11349,21 +11232,18 @@
         <v/>
       </c>
       <c r="N101" s="11" t="str">
-        <f t="shared" ref="N101:O101" si="398">if(not(isblank($B101)), N100, "")</f>
+        <f t="shared" ref="N101:O101" si="397">if(not(isblank($B101)), N100, "")</f>
         <v/>
       </c>
       <c r="O101" s="11" t="str">
-        <f t="shared" si="398"/>
+        <f t="shared" si="397"/>
         <v/>
       </c>
       <c r="P101" s="11" t="str">
         <f>product_listing!J101</f>
         <v/>
       </c>
-      <c r="Q101" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q101" s="11"/>
       <c r="R101" s="11" t="str">
         <f>product_listing!C101</f>
         <v/>
@@ -11403,11 +11283,11 @@
         <v/>
       </c>
       <c r="E102" s="11" t="str">
-        <f t="shared" ref="E102:F102" si="399">if(not(isblank($B102)), E101, "")</f>
+        <f t="shared" ref="E102:F102" si="398">if(not(isblank($B102)), E101, "")</f>
         <v/>
       </c>
       <c r="F102" s="11" t="str">
-        <f t="shared" si="399"/>
+        <f t="shared" si="398"/>
         <v/>
       </c>
       <c r="G102" s="11" t="str">
@@ -11415,11 +11295,11 @@
         <v/>
       </c>
       <c r="H102" s="11" t="str">
-        <f t="shared" ref="H102:I102" si="400">if(not(isblank($B102)), H101, "")</f>
+        <f t="shared" ref="H102:I102" si="399">if(not(isblank($B102)), H101, "")</f>
         <v/>
       </c>
       <c r="I102" s="11" t="str">
-        <f t="shared" si="400"/>
+        <f t="shared" si="399"/>
         <v/>
       </c>
       <c r="J102" s="11" t="str">
@@ -11427,11 +11307,11 @@
         <v/>
       </c>
       <c r="K102" s="11" t="str">
-        <f t="shared" ref="K102:L102" si="401">if(not(isblank($B102)), K101, "")</f>
+        <f t="shared" ref="K102:L102" si="400">if(not(isblank($B102)), K101, "")</f>
         <v/>
       </c>
       <c r="L102" s="11" t="str">
-        <f t="shared" si="401"/>
+        <f t="shared" si="400"/>
         <v/>
       </c>
       <c r="M102" s="11" t="str">
@@ -11439,21 +11319,18 @@
         <v/>
       </c>
       <c r="N102" s="11" t="str">
-        <f t="shared" ref="N102:O102" si="402">if(not(isblank($B102)), N101, "")</f>
+        <f t="shared" ref="N102:O102" si="401">if(not(isblank($B102)), N101, "")</f>
         <v/>
       </c>
       <c r="O102" s="11" t="str">
-        <f t="shared" si="402"/>
+        <f t="shared" si="401"/>
         <v/>
       </c>
       <c r="P102" s="11" t="str">
         <f>product_listing!J102</f>
         <v/>
       </c>
-      <c r="Q102" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q102" s="11"/>
       <c r="R102" s="11" t="str">
         <f>product_listing!C102</f>
         <v/>
@@ -11493,11 +11370,11 @@
         <v/>
       </c>
       <c r="E103" s="11" t="str">
-        <f t="shared" ref="E103:F103" si="403">if(not(isblank($B103)), E102, "")</f>
+        <f t="shared" ref="E103:F103" si="402">if(not(isblank($B103)), E102, "")</f>
         <v/>
       </c>
       <c r="F103" s="11" t="str">
-        <f t="shared" si="403"/>
+        <f t="shared" si="402"/>
         <v/>
       </c>
       <c r="G103" s="11" t="str">
@@ -11505,11 +11382,11 @@
         <v/>
       </c>
       <c r="H103" s="11" t="str">
-        <f t="shared" ref="H103:I103" si="404">if(not(isblank($B103)), H102, "")</f>
+        <f t="shared" ref="H103:I103" si="403">if(not(isblank($B103)), H102, "")</f>
         <v/>
       </c>
       <c r="I103" s="11" t="str">
-        <f t="shared" si="404"/>
+        <f t="shared" si="403"/>
         <v/>
       </c>
       <c r="J103" s="11" t="str">
@@ -11517,11 +11394,11 @@
         <v/>
       </c>
       <c r="K103" s="11" t="str">
-        <f t="shared" ref="K103:L103" si="405">if(not(isblank($B103)), K102, "")</f>
+        <f t="shared" ref="K103:L103" si="404">if(not(isblank($B103)), K102, "")</f>
         <v/>
       </c>
       <c r="L103" s="11" t="str">
-        <f t="shared" si="405"/>
+        <f t="shared" si="404"/>
         <v/>
       </c>
       <c r="M103" s="11" t="str">
@@ -11529,21 +11406,18 @@
         <v/>
       </c>
       <c r="N103" s="11" t="str">
-        <f t="shared" ref="N103:O103" si="406">if(not(isblank($B103)), N102, "")</f>
+        <f t="shared" ref="N103:O103" si="405">if(not(isblank($B103)), N102, "")</f>
         <v/>
       </c>
       <c r="O103" s="11" t="str">
-        <f t="shared" si="406"/>
+        <f t="shared" si="405"/>
         <v/>
       </c>
       <c r="P103" s="11" t="str">
         <f>product_listing!J103</f>
         <v/>
       </c>
-      <c r="Q103" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q103" s="11"/>
       <c r="R103" s="11" t="str">
         <f>product_listing!C103</f>
         <v/>
@@ -11583,11 +11457,11 @@
         <v/>
       </c>
       <c r="E104" s="11" t="str">
-        <f t="shared" ref="E104:F104" si="407">if(not(isblank($B104)), E103, "")</f>
+        <f t="shared" ref="E104:F104" si="406">if(not(isblank($B104)), E103, "")</f>
         <v/>
       </c>
       <c r="F104" s="11" t="str">
-        <f t="shared" si="407"/>
+        <f t="shared" si="406"/>
         <v/>
       </c>
       <c r="G104" s="11" t="str">
@@ -11595,11 +11469,11 @@
         <v/>
       </c>
       <c r="H104" s="11" t="str">
-        <f t="shared" ref="H104:I104" si="408">if(not(isblank($B104)), H103, "")</f>
+        <f t="shared" ref="H104:I104" si="407">if(not(isblank($B104)), H103, "")</f>
         <v/>
       </c>
       <c r="I104" s="11" t="str">
-        <f t="shared" si="408"/>
+        <f t="shared" si="407"/>
         <v/>
       </c>
       <c r="J104" s="11" t="str">
@@ -11607,11 +11481,11 @@
         <v/>
       </c>
       <c r="K104" s="11" t="str">
-        <f t="shared" ref="K104:L104" si="409">if(not(isblank($B104)), K103, "")</f>
+        <f t="shared" ref="K104:L104" si="408">if(not(isblank($B104)), K103, "")</f>
         <v/>
       </c>
       <c r="L104" s="11" t="str">
-        <f t="shared" si="409"/>
+        <f t="shared" si="408"/>
         <v/>
       </c>
       <c r="M104" s="11" t="str">
@@ -11619,21 +11493,18 @@
         <v/>
       </c>
       <c r="N104" s="11" t="str">
-        <f t="shared" ref="N104:O104" si="410">if(not(isblank($B104)), N103, "")</f>
+        <f t="shared" ref="N104:O104" si="409">if(not(isblank($B104)), N103, "")</f>
         <v/>
       </c>
       <c r="O104" s="11" t="str">
-        <f t="shared" si="410"/>
+        <f t="shared" si="409"/>
         <v/>
       </c>
       <c r="P104" s="11" t="str">
         <f>product_listing!J104</f>
         <v/>
       </c>
-      <c r="Q104" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q104" s="11"/>
       <c r="R104" s="11" t="str">
         <f>product_listing!C104</f>
         <v/>
@@ -11673,11 +11544,11 @@
         <v/>
       </c>
       <c r="E105" s="11" t="str">
-        <f t="shared" ref="E105:F105" si="411">if(not(isblank($B105)), E104, "")</f>
+        <f t="shared" ref="E105:F105" si="410">if(not(isblank($B105)), E104, "")</f>
         <v/>
       </c>
       <c r="F105" s="11" t="str">
-        <f t="shared" si="411"/>
+        <f t="shared" si="410"/>
         <v/>
       </c>
       <c r="G105" s="11" t="str">
@@ -11685,11 +11556,11 @@
         <v/>
       </c>
       <c r="H105" s="11" t="str">
-        <f t="shared" ref="H105:I105" si="412">if(not(isblank($B105)), H104, "")</f>
+        <f t="shared" ref="H105:I105" si="411">if(not(isblank($B105)), H104, "")</f>
         <v/>
       </c>
       <c r="I105" s="11" t="str">
-        <f t="shared" si="412"/>
+        <f t="shared" si="411"/>
         <v/>
       </c>
       <c r="J105" s="11" t="str">
@@ -11697,11 +11568,11 @@
         <v/>
       </c>
       <c r="K105" s="11" t="str">
-        <f t="shared" ref="K105:L105" si="413">if(not(isblank($B105)), K104, "")</f>
+        <f t="shared" ref="K105:L105" si="412">if(not(isblank($B105)), K104, "")</f>
         <v/>
       </c>
       <c r="L105" s="11" t="str">
-        <f t="shared" si="413"/>
+        <f t="shared" si="412"/>
         <v/>
       </c>
       <c r="M105" s="11" t="str">
@@ -11709,21 +11580,18 @@
         <v/>
       </c>
       <c r="N105" s="11" t="str">
-        <f t="shared" ref="N105:O105" si="414">if(not(isblank($B105)), N104, "")</f>
+        <f t="shared" ref="N105:O105" si="413">if(not(isblank($B105)), N104, "")</f>
         <v/>
       </c>
       <c r="O105" s="11" t="str">
-        <f t="shared" si="414"/>
+        <f t="shared" si="413"/>
         <v/>
       </c>
       <c r="P105" s="11" t="str">
         <f>product_listing!J105</f>
         <v/>
       </c>
-      <c r="Q105" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q105" s="11"/>
       <c r="R105" s="11" t="str">
         <f>product_listing!C105</f>
         <v/>
@@ -11763,11 +11631,11 @@
         <v/>
       </c>
       <c r="E106" s="11" t="str">
-        <f t="shared" ref="E106:F106" si="415">if(not(isblank($B106)), E105, "")</f>
+        <f t="shared" ref="E106:F106" si="414">if(not(isblank($B106)), E105, "")</f>
         <v/>
       </c>
       <c r="F106" s="11" t="str">
-        <f t="shared" si="415"/>
+        <f t="shared" si="414"/>
         <v/>
       </c>
       <c r="G106" s="11" t="str">
@@ -11775,11 +11643,11 @@
         <v/>
       </c>
       <c r="H106" s="11" t="str">
-        <f t="shared" ref="H106:I106" si="416">if(not(isblank($B106)), H105, "")</f>
+        <f t="shared" ref="H106:I106" si="415">if(not(isblank($B106)), H105, "")</f>
         <v/>
       </c>
       <c r="I106" s="11" t="str">
-        <f t="shared" si="416"/>
+        <f t="shared" si="415"/>
         <v/>
       </c>
       <c r="J106" s="11" t="str">
@@ -11787,11 +11655,11 @@
         <v/>
       </c>
       <c r="K106" s="11" t="str">
-        <f t="shared" ref="K106:L106" si="417">if(not(isblank($B106)), K105, "")</f>
+        <f t="shared" ref="K106:L106" si="416">if(not(isblank($B106)), K105, "")</f>
         <v/>
       </c>
       <c r="L106" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="416"/>
         <v/>
       </c>
       <c r="M106" s="11" t="str">
@@ -11799,21 +11667,18 @@
         <v/>
       </c>
       <c r="N106" s="11" t="str">
-        <f t="shared" ref="N106:O106" si="418">if(not(isblank($B106)), N105, "")</f>
+        <f t="shared" ref="N106:O106" si="417">if(not(isblank($B106)), N105, "")</f>
         <v/>
       </c>
       <c r="O106" s="11" t="str">
-        <f t="shared" si="418"/>
+        <f t="shared" si="417"/>
         <v/>
       </c>
       <c r="P106" s="11" t="str">
         <f>product_listing!J106</f>
         <v/>
       </c>
-      <c r="Q106" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q106" s="11"/>
       <c r="R106" s="11" t="str">
         <f>product_listing!C106</f>
         <v/>
@@ -11853,11 +11718,11 @@
         <v/>
       </c>
       <c r="E107" s="11" t="str">
-        <f t="shared" ref="E107:F107" si="419">if(not(isblank($B107)), E106, "")</f>
+        <f t="shared" ref="E107:F107" si="418">if(not(isblank($B107)), E106, "")</f>
         <v/>
       </c>
       <c r="F107" s="11" t="str">
-        <f t="shared" si="419"/>
+        <f t="shared" si="418"/>
         <v/>
       </c>
       <c r="G107" s="11" t="str">
@@ -11865,11 +11730,11 @@
         <v/>
       </c>
       <c r="H107" s="11" t="str">
-        <f t="shared" ref="H107:I107" si="420">if(not(isblank($B107)), H106, "")</f>
+        <f t="shared" ref="H107:I107" si="419">if(not(isblank($B107)), H106, "")</f>
         <v/>
       </c>
       <c r="I107" s="11" t="str">
-        <f t="shared" si="420"/>
+        <f t="shared" si="419"/>
         <v/>
       </c>
       <c r="J107" s="11" t="str">
@@ -11877,11 +11742,11 @@
         <v/>
       </c>
       <c r="K107" s="11" t="str">
-        <f t="shared" ref="K107:L107" si="421">if(not(isblank($B107)), K106, "")</f>
+        <f t="shared" ref="K107:L107" si="420">if(not(isblank($B107)), K106, "")</f>
         <v/>
       </c>
       <c r="L107" s="11" t="str">
-        <f t="shared" si="421"/>
+        <f t="shared" si="420"/>
         <v/>
       </c>
       <c r="M107" s="11" t="str">
@@ -11889,21 +11754,18 @@
         <v/>
       </c>
       <c r="N107" s="11" t="str">
-        <f t="shared" ref="N107:O107" si="422">if(not(isblank($B107)), N106, "")</f>
+        <f t="shared" ref="N107:O107" si="421">if(not(isblank($B107)), N106, "")</f>
         <v/>
       </c>
       <c r="O107" s="11" t="str">
-        <f t="shared" si="422"/>
+        <f t="shared" si="421"/>
         <v/>
       </c>
       <c r="P107" s="11" t="str">
         <f>product_listing!J107</f>
         <v/>
       </c>
-      <c r="Q107" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q107" s="11"/>
       <c r="R107" s="11" t="str">
         <f>product_listing!C107</f>
         <v/>
@@ -11943,11 +11805,11 @@
         <v/>
       </c>
       <c r="E108" s="11" t="str">
-        <f t="shared" ref="E108:F108" si="423">if(not(isblank($B108)), E107, "")</f>
+        <f t="shared" ref="E108:F108" si="422">if(not(isblank($B108)), E107, "")</f>
         <v/>
       </c>
       <c r="F108" s="11" t="str">
-        <f t="shared" si="423"/>
+        <f t="shared" si="422"/>
         <v/>
       </c>
       <c r="G108" s="11" t="str">
@@ -11955,11 +11817,11 @@
         <v/>
       </c>
       <c r="H108" s="11" t="str">
-        <f t="shared" ref="H108:I108" si="424">if(not(isblank($B108)), H107, "")</f>
+        <f t="shared" ref="H108:I108" si="423">if(not(isblank($B108)), H107, "")</f>
         <v/>
       </c>
       <c r="I108" s="11" t="str">
-        <f t="shared" si="424"/>
+        <f t="shared" si="423"/>
         <v/>
       </c>
       <c r="J108" s="11" t="str">
@@ -11967,11 +11829,11 @@
         <v/>
       </c>
       <c r="K108" s="11" t="str">
-        <f t="shared" ref="K108:L108" si="425">if(not(isblank($B108)), K107, "")</f>
+        <f t="shared" ref="K108:L108" si="424">if(not(isblank($B108)), K107, "")</f>
         <v/>
       </c>
       <c r="L108" s="11" t="str">
-        <f t="shared" si="425"/>
+        <f t="shared" si="424"/>
         <v/>
       </c>
       <c r="M108" s="11" t="str">
@@ -11979,21 +11841,18 @@
         <v/>
       </c>
       <c r="N108" s="11" t="str">
-        <f t="shared" ref="N108:O108" si="426">if(not(isblank($B108)), N107, "")</f>
+        <f t="shared" ref="N108:O108" si="425">if(not(isblank($B108)), N107, "")</f>
         <v/>
       </c>
       <c r="O108" s="11" t="str">
-        <f t="shared" si="426"/>
+        <f t="shared" si="425"/>
         <v/>
       </c>
       <c r="P108" s="11" t="str">
         <f>product_listing!J108</f>
         <v/>
       </c>
-      <c r="Q108" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q108" s="11"/>
       <c r="R108" s="11" t="str">
         <f>product_listing!C108</f>
         <v/>
@@ -12033,11 +11892,11 @@
         <v/>
       </c>
       <c r="E109" s="11" t="str">
-        <f t="shared" ref="E109:F109" si="427">if(not(isblank($B109)), E108, "")</f>
+        <f t="shared" ref="E109:F109" si="426">if(not(isblank($B109)), E108, "")</f>
         <v/>
       </c>
       <c r="F109" s="11" t="str">
-        <f t="shared" si="427"/>
+        <f t="shared" si="426"/>
         <v/>
       </c>
       <c r="G109" s="11" t="str">
@@ -12045,11 +11904,11 @@
         <v/>
       </c>
       <c r="H109" s="11" t="str">
-        <f t="shared" ref="H109:I109" si="428">if(not(isblank($B109)), H108, "")</f>
+        <f t="shared" ref="H109:I109" si="427">if(not(isblank($B109)), H108, "")</f>
         <v/>
       </c>
       <c r="I109" s="11" t="str">
-        <f t="shared" si="428"/>
+        <f t="shared" si="427"/>
         <v/>
       </c>
       <c r="J109" s="11" t="str">
@@ -12057,11 +11916,11 @@
         <v/>
       </c>
       <c r="K109" s="11" t="str">
-        <f t="shared" ref="K109:L109" si="429">if(not(isblank($B109)), K108, "")</f>
+        <f t="shared" ref="K109:L109" si="428">if(not(isblank($B109)), K108, "")</f>
         <v/>
       </c>
       <c r="L109" s="11" t="str">
-        <f t="shared" si="429"/>
+        <f t="shared" si="428"/>
         <v/>
       </c>
       <c r="M109" s="11" t="str">
@@ -12069,21 +11928,18 @@
         <v/>
       </c>
       <c r="N109" s="11" t="str">
-        <f t="shared" ref="N109:O109" si="430">if(not(isblank($B109)), N108, "")</f>
+        <f t="shared" ref="N109:O109" si="429">if(not(isblank($B109)), N108, "")</f>
         <v/>
       </c>
       <c r="O109" s="11" t="str">
-        <f t="shared" si="430"/>
+        <f t="shared" si="429"/>
         <v/>
       </c>
       <c r="P109" s="11" t="str">
         <f>product_listing!J109</f>
         <v/>
       </c>
-      <c r="Q109" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q109" s="11"/>
       <c r="R109" s="11" t="str">
         <f>product_listing!C109</f>
         <v/>
@@ -12123,11 +11979,11 @@
         <v/>
       </c>
       <c r="E110" s="11" t="str">
-        <f t="shared" ref="E110:F110" si="431">if(not(isblank($B110)), E109, "")</f>
+        <f t="shared" ref="E110:F110" si="430">if(not(isblank($B110)), E109, "")</f>
         <v/>
       </c>
       <c r="F110" s="11" t="str">
-        <f t="shared" si="431"/>
+        <f t="shared" si="430"/>
         <v/>
       </c>
       <c r="G110" s="11" t="str">
@@ -12135,11 +11991,11 @@
         <v/>
       </c>
       <c r="H110" s="11" t="str">
-        <f t="shared" ref="H110:I110" si="432">if(not(isblank($B110)), H109, "")</f>
+        <f t="shared" ref="H110:I110" si="431">if(not(isblank($B110)), H109, "")</f>
         <v/>
       </c>
       <c r="I110" s="11" t="str">
-        <f t="shared" si="432"/>
+        <f t="shared" si="431"/>
         <v/>
       </c>
       <c r="J110" s="11" t="str">
@@ -12147,11 +12003,11 @@
         <v/>
       </c>
       <c r="K110" s="11" t="str">
-        <f t="shared" ref="K110:L110" si="433">if(not(isblank($B110)), K109, "")</f>
+        <f t="shared" ref="K110:L110" si="432">if(not(isblank($B110)), K109, "")</f>
         <v/>
       </c>
       <c r="L110" s="11" t="str">
-        <f t="shared" si="433"/>
+        <f t="shared" si="432"/>
         <v/>
       </c>
       <c r="M110" s="11" t="str">
@@ -12159,21 +12015,18 @@
         <v/>
       </c>
       <c r="N110" s="11" t="str">
-        <f t="shared" ref="N110:O110" si="434">if(not(isblank($B110)), N109, "")</f>
+        <f t="shared" ref="N110:O110" si="433">if(not(isblank($B110)), N109, "")</f>
         <v/>
       </c>
       <c r="O110" s="11" t="str">
-        <f t="shared" si="434"/>
+        <f t="shared" si="433"/>
         <v/>
       </c>
       <c r="P110" s="11" t="str">
         <f>product_listing!J110</f>
         <v/>
       </c>
-      <c r="Q110" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q110" s="11"/>
       <c r="R110" s="11" t="str">
         <f>product_listing!C110</f>
         <v/>
@@ -12213,11 +12066,11 @@
         <v/>
       </c>
       <c r="E111" s="11" t="str">
-        <f t="shared" ref="E111:F111" si="435">if(not(isblank($B111)), E110, "")</f>
+        <f t="shared" ref="E111:F111" si="434">if(not(isblank($B111)), E110, "")</f>
         <v/>
       </c>
       <c r="F111" s="11" t="str">
-        <f t="shared" si="435"/>
+        <f t="shared" si="434"/>
         <v/>
       </c>
       <c r="G111" s="11" t="str">
@@ -12225,11 +12078,11 @@
         <v/>
       </c>
       <c r="H111" s="11" t="str">
-        <f t="shared" ref="H111:I111" si="436">if(not(isblank($B111)), H110, "")</f>
+        <f t="shared" ref="H111:I111" si="435">if(not(isblank($B111)), H110, "")</f>
         <v/>
       </c>
       <c r="I111" s="11" t="str">
-        <f t="shared" si="436"/>
+        <f t="shared" si="435"/>
         <v/>
       </c>
       <c r="J111" s="11" t="str">
@@ -12237,11 +12090,11 @@
         <v/>
       </c>
       <c r="K111" s="11" t="str">
-        <f t="shared" ref="K111:L111" si="437">if(not(isblank($B111)), K110, "")</f>
+        <f t="shared" ref="K111:L111" si="436">if(not(isblank($B111)), K110, "")</f>
         <v/>
       </c>
       <c r="L111" s="11" t="str">
-        <f t="shared" si="437"/>
+        <f t="shared" si="436"/>
         <v/>
       </c>
       <c r="M111" s="11" t="str">
@@ -12249,21 +12102,18 @@
         <v/>
       </c>
       <c r="N111" s="11" t="str">
-        <f t="shared" ref="N111:O111" si="438">if(not(isblank($B111)), N110, "")</f>
+        <f t="shared" ref="N111:O111" si="437">if(not(isblank($B111)), N110, "")</f>
         <v/>
       </c>
       <c r="O111" s="11" t="str">
-        <f t="shared" si="438"/>
+        <f t="shared" si="437"/>
         <v/>
       </c>
       <c r="P111" s="11" t="str">
         <f>product_listing!J111</f>
         <v/>
       </c>
-      <c r="Q111" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q111" s="11"/>
       <c r="R111" s="11" t="str">
         <f>product_listing!C111</f>
         <v/>
@@ -12303,11 +12153,11 @@
         <v/>
       </c>
       <c r="E112" s="11" t="str">
-        <f t="shared" ref="E112:F112" si="439">if(not(isblank($B112)), E111, "")</f>
+        <f t="shared" ref="E112:F112" si="438">if(not(isblank($B112)), E111, "")</f>
         <v/>
       </c>
       <c r="F112" s="11" t="str">
-        <f t="shared" si="439"/>
+        <f t="shared" si="438"/>
         <v/>
       </c>
       <c r="G112" s="11" t="str">
@@ -12315,11 +12165,11 @@
         <v/>
       </c>
       <c r="H112" s="11" t="str">
-        <f t="shared" ref="H112:I112" si="440">if(not(isblank($B112)), H111, "")</f>
+        <f t="shared" ref="H112:I112" si="439">if(not(isblank($B112)), H111, "")</f>
         <v/>
       </c>
       <c r="I112" s="11" t="str">
-        <f t="shared" si="440"/>
+        <f t="shared" si="439"/>
         <v/>
       </c>
       <c r="J112" s="11" t="str">
@@ -12327,11 +12177,11 @@
         <v/>
       </c>
       <c r="K112" s="11" t="str">
-        <f t="shared" ref="K112:L112" si="441">if(not(isblank($B112)), K111, "")</f>
+        <f t="shared" ref="K112:L112" si="440">if(not(isblank($B112)), K111, "")</f>
         <v/>
       </c>
       <c r="L112" s="11" t="str">
-        <f t="shared" si="441"/>
+        <f t="shared" si="440"/>
         <v/>
       </c>
       <c r="M112" s="11" t="str">
@@ -12339,21 +12189,18 @@
         <v/>
       </c>
       <c r="N112" s="11" t="str">
-        <f t="shared" ref="N112:O112" si="442">if(not(isblank($B112)), N111, "")</f>
+        <f t="shared" ref="N112:O112" si="441">if(not(isblank($B112)), N111, "")</f>
         <v/>
       </c>
       <c r="O112" s="11" t="str">
-        <f t="shared" si="442"/>
+        <f t="shared" si="441"/>
         <v/>
       </c>
       <c r="P112" s="11" t="str">
         <f>product_listing!J112</f>
         <v/>
       </c>
-      <c r="Q112" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q112" s="11"/>
       <c r="R112" s="11" t="str">
         <f>product_listing!C112</f>
         <v/>
@@ -12393,11 +12240,11 @@
         <v/>
       </c>
       <c r="E113" s="11" t="str">
-        <f t="shared" ref="E113:F113" si="443">if(not(isblank($B113)), E112, "")</f>
+        <f t="shared" ref="E113:F113" si="442">if(not(isblank($B113)), E112, "")</f>
         <v/>
       </c>
       <c r="F113" s="11" t="str">
-        <f t="shared" si="443"/>
+        <f t="shared" si="442"/>
         <v/>
       </c>
       <c r="G113" s="11" t="str">
@@ -12405,11 +12252,11 @@
         <v/>
       </c>
       <c r="H113" s="11" t="str">
-        <f t="shared" ref="H113:I113" si="444">if(not(isblank($B113)), H112, "")</f>
+        <f t="shared" ref="H113:I113" si="443">if(not(isblank($B113)), H112, "")</f>
         <v/>
       </c>
       <c r="I113" s="11" t="str">
-        <f t="shared" si="444"/>
+        <f t="shared" si="443"/>
         <v/>
       </c>
       <c r="J113" s="11" t="str">
@@ -12417,11 +12264,11 @@
         <v/>
       </c>
       <c r="K113" s="11" t="str">
-        <f t="shared" ref="K113:L113" si="445">if(not(isblank($B113)), K112, "")</f>
+        <f t="shared" ref="K113:L113" si="444">if(not(isblank($B113)), K112, "")</f>
         <v/>
       </c>
       <c r="L113" s="11" t="str">
-        <f t="shared" si="445"/>
+        <f t="shared" si="444"/>
         <v/>
       </c>
       <c r="M113" s="11" t="str">
@@ -12429,21 +12276,18 @@
         <v/>
       </c>
       <c r="N113" s="11" t="str">
-        <f t="shared" ref="N113:O113" si="446">if(not(isblank($B113)), N112, "")</f>
+        <f t="shared" ref="N113:O113" si="445">if(not(isblank($B113)), N112, "")</f>
         <v/>
       </c>
       <c r="O113" s="11" t="str">
-        <f t="shared" si="446"/>
+        <f t="shared" si="445"/>
         <v/>
       </c>
       <c r="P113" s="11" t="str">
         <f>product_listing!J113</f>
         <v/>
       </c>
-      <c r="Q113" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q113" s="11"/>
       <c r="R113" s="11" t="str">
         <f>product_listing!C113</f>
         <v/>
@@ -12483,11 +12327,11 @@
         <v/>
       </c>
       <c r="E114" s="11" t="str">
-        <f t="shared" ref="E114:F114" si="447">if(not(isblank($B114)), E113, "")</f>
+        <f t="shared" ref="E114:F114" si="446">if(not(isblank($B114)), E113, "")</f>
         <v/>
       </c>
       <c r="F114" s="11" t="str">
-        <f t="shared" si="447"/>
+        <f t="shared" si="446"/>
         <v/>
       </c>
       <c r="G114" s="11" t="str">
@@ -12495,11 +12339,11 @@
         <v/>
       </c>
       <c r="H114" s="11" t="str">
-        <f t="shared" ref="H114:I114" si="448">if(not(isblank($B114)), H113, "")</f>
+        <f t="shared" ref="H114:I114" si="447">if(not(isblank($B114)), H113, "")</f>
         <v/>
       </c>
       <c r="I114" s="11" t="str">
-        <f t="shared" si="448"/>
+        <f t="shared" si="447"/>
         <v/>
       </c>
       <c r="J114" s="11" t="str">
@@ -12507,11 +12351,11 @@
         <v/>
       </c>
       <c r="K114" s="11" t="str">
-        <f t="shared" ref="K114:L114" si="449">if(not(isblank($B114)), K113, "")</f>
+        <f t="shared" ref="K114:L114" si="448">if(not(isblank($B114)), K113, "")</f>
         <v/>
       </c>
       <c r="L114" s="11" t="str">
-        <f t="shared" si="449"/>
+        <f t="shared" si="448"/>
         <v/>
       </c>
       <c r="M114" s="11" t="str">
@@ -12519,21 +12363,18 @@
         <v/>
       </c>
       <c r="N114" s="11" t="str">
-        <f t="shared" ref="N114:O114" si="450">if(not(isblank($B114)), N113, "")</f>
+        <f t="shared" ref="N114:O114" si="449">if(not(isblank($B114)), N113, "")</f>
         <v/>
       </c>
       <c r="O114" s="11" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="449"/>
         <v/>
       </c>
       <c r="P114" s="11" t="str">
         <f>product_listing!J114</f>
         <v/>
       </c>
-      <c r="Q114" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q114" s="11"/>
       <c r="R114" s="11" t="str">
         <f>product_listing!C114</f>
         <v/>
@@ -12573,11 +12414,11 @@
         <v/>
       </c>
       <c r="E115" s="11" t="str">
-        <f t="shared" ref="E115:F115" si="451">if(not(isblank($B115)), E114, "")</f>
+        <f t="shared" ref="E115:F115" si="450">if(not(isblank($B115)), E114, "")</f>
         <v/>
       </c>
       <c r="F115" s="11" t="str">
-        <f t="shared" si="451"/>
+        <f t="shared" si="450"/>
         <v/>
       </c>
       <c r="G115" s="11" t="str">
@@ -12585,11 +12426,11 @@
         <v/>
       </c>
       <c r="H115" s="11" t="str">
-        <f t="shared" ref="H115:I115" si="452">if(not(isblank($B115)), H114, "")</f>
+        <f t="shared" ref="H115:I115" si="451">if(not(isblank($B115)), H114, "")</f>
         <v/>
       </c>
       <c r="I115" s="11" t="str">
-        <f t="shared" si="452"/>
+        <f t="shared" si="451"/>
         <v/>
       </c>
       <c r="J115" s="11" t="str">
@@ -12597,11 +12438,11 @@
         <v/>
       </c>
       <c r="K115" s="11" t="str">
-        <f t="shared" ref="K115:L115" si="453">if(not(isblank($B115)), K114, "")</f>
+        <f t="shared" ref="K115:L115" si="452">if(not(isblank($B115)), K114, "")</f>
         <v/>
       </c>
       <c r="L115" s="11" t="str">
-        <f t="shared" si="453"/>
+        <f t="shared" si="452"/>
         <v/>
       </c>
       <c r="M115" s="11" t="str">
@@ -12609,21 +12450,18 @@
         <v/>
       </c>
       <c r="N115" s="11" t="str">
-        <f t="shared" ref="N115:O115" si="454">if(not(isblank($B115)), N114, "")</f>
+        <f t="shared" ref="N115:O115" si="453">if(not(isblank($B115)), N114, "")</f>
         <v/>
       </c>
       <c r="O115" s="11" t="str">
-        <f t="shared" si="454"/>
+        <f t="shared" si="453"/>
         <v/>
       </c>
       <c r="P115" s="11" t="str">
         <f>product_listing!J115</f>
         <v/>
       </c>
-      <c r="Q115" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q115" s="11"/>
       <c r="R115" s="11" t="str">
         <f>product_listing!C115</f>
         <v/>
@@ -12663,11 +12501,11 @@
         <v/>
       </c>
       <c r="E116" s="11" t="str">
-        <f t="shared" ref="E116:F116" si="455">if(not(isblank($B116)), E115, "")</f>
+        <f t="shared" ref="E116:F116" si="454">if(not(isblank($B116)), E115, "")</f>
         <v/>
       </c>
       <c r="F116" s="11" t="str">
-        <f t="shared" si="455"/>
+        <f t="shared" si="454"/>
         <v/>
       </c>
       <c r="G116" s="11" t="str">
@@ -12675,11 +12513,11 @@
         <v/>
       </c>
       <c r="H116" s="11" t="str">
-        <f t="shared" ref="H116:I116" si="456">if(not(isblank($B116)), H115, "")</f>
+        <f t="shared" ref="H116:I116" si="455">if(not(isblank($B116)), H115, "")</f>
         <v/>
       </c>
       <c r="I116" s="11" t="str">
-        <f t="shared" si="456"/>
+        <f t="shared" si="455"/>
         <v/>
       </c>
       <c r="J116" s="11" t="str">
@@ -12687,11 +12525,11 @@
         <v/>
       </c>
       <c r="K116" s="11" t="str">
-        <f t="shared" ref="K116:L116" si="457">if(not(isblank($B116)), K115, "")</f>
+        <f t="shared" ref="K116:L116" si="456">if(not(isblank($B116)), K115, "")</f>
         <v/>
       </c>
       <c r="L116" s="11" t="str">
-        <f t="shared" si="457"/>
+        <f t="shared" si="456"/>
         <v/>
       </c>
       <c r="M116" s="11" t="str">
@@ -12699,21 +12537,18 @@
         <v/>
       </c>
       <c r="N116" s="11" t="str">
-        <f t="shared" ref="N116:O116" si="458">if(not(isblank($B116)), N115, "")</f>
+        <f t="shared" ref="N116:O116" si="457">if(not(isblank($B116)), N115, "")</f>
         <v/>
       </c>
       <c r="O116" s="11" t="str">
-        <f t="shared" si="458"/>
+        <f t="shared" si="457"/>
         <v/>
       </c>
       <c r="P116" s="11" t="str">
         <f>product_listing!J116</f>
         <v/>
       </c>
-      <c r="Q116" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q116" s="11"/>
       <c r="R116" s="11" t="str">
         <f>product_listing!C116</f>
         <v/>
@@ -12753,11 +12588,11 @@
         <v/>
       </c>
       <c r="E117" s="11" t="str">
-        <f t="shared" ref="E117:F117" si="459">if(not(isblank($B117)), E116, "")</f>
+        <f t="shared" ref="E117:F117" si="458">if(not(isblank($B117)), E116, "")</f>
         <v/>
       </c>
       <c r="F117" s="11" t="str">
-        <f t="shared" si="459"/>
+        <f t="shared" si="458"/>
         <v/>
       </c>
       <c r="G117" s="11" t="str">
@@ -12765,11 +12600,11 @@
         <v/>
       </c>
       <c r="H117" s="11" t="str">
-        <f t="shared" ref="H117:I117" si="460">if(not(isblank($B117)), H116, "")</f>
+        <f t="shared" ref="H117:I117" si="459">if(not(isblank($B117)), H116, "")</f>
         <v/>
       </c>
       <c r="I117" s="11" t="str">
-        <f t="shared" si="460"/>
+        <f t="shared" si="459"/>
         <v/>
       </c>
       <c r="J117" s="11" t="str">
@@ -12777,11 +12612,11 @@
         <v/>
       </c>
       <c r="K117" s="11" t="str">
-        <f t="shared" ref="K117:L117" si="461">if(not(isblank($B117)), K116, "")</f>
+        <f t="shared" ref="K117:L117" si="460">if(not(isblank($B117)), K116, "")</f>
         <v/>
       </c>
       <c r="L117" s="11" t="str">
-        <f t="shared" si="461"/>
+        <f t="shared" si="460"/>
         <v/>
       </c>
       <c r="M117" s="11" t="str">
@@ -12789,21 +12624,18 @@
         <v/>
       </c>
       <c r="N117" s="11" t="str">
-        <f t="shared" ref="N117:O117" si="462">if(not(isblank($B117)), N116, "")</f>
+        <f t="shared" ref="N117:O117" si="461">if(not(isblank($B117)), N116, "")</f>
         <v/>
       </c>
       <c r="O117" s="11" t="str">
-        <f t="shared" si="462"/>
+        <f t="shared" si="461"/>
         <v/>
       </c>
       <c r="P117" s="11" t="str">
         <f>product_listing!J117</f>
         <v/>
       </c>
-      <c r="Q117" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q117" s="11"/>
       <c r="R117" s="11" t="str">
         <f>product_listing!C117</f>
         <v/>
@@ -12843,11 +12675,11 @@
         <v/>
       </c>
       <c r="E118" s="11" t="str">
-        <f t="shared" ref="E118:F118" si="463">if(not(isblank($B118)), E117, "")</f>
+        <f t="shared" ref="E118:F118" si="462">if(not(isblank($B118)), E117, "")</f>
         <v/>
       </c>
       <c r="F118" s="11" t="str">
-        <f t="shared" si="463"/>
+        <f t="shared" si="462"/>
         <v/>
       </c>
       <c r="G118" s="11" t="str">
@@ -12855,11 +12687,11 @@
         <v/>
       </c>
       <c r="H118" s="11" t="str">
-        <f t="shared" ref="H118:I118" si="464">if(not(isblank($B118)), H117, "")</f>
+        <f t="shared" ref="H118:I118" si="463">if(not(isblank($B118)), H117, "")</f>
         <v/>
       </c>
       <c r="I118" s="11" t="str">
-        <f t="shared" si="464"/>
+        <f t="shared" si="463"/>
         <v/>
       </c>
       <c r="J118" s="11" t="str">
@@ -12867,11 +12699,11 @@
         <v/>
       </c>
       <c r="K118" s="11" t="str">
-        <f t="shared" ref="K118:L118" si="465">if(not(isblank($B118)), K117, "")</f>
+        <f t="shared" ref="K118:L118" si="464">if(not(isblank($B118)), K117, "")</f>
         <v/>
       </c>
       <c r="L118" s="11" t="str">
-        <f t="shared" si="465"/>
+        <f t="shared" si="464"/>
         <v/>
       </c>
       <c r="M118" s="11" t="str">
@@ -12879,21 +12711,18 @@
         <v/>
       </c>
       <c r="N118" s="11" t="str">
-        <f t="shared" ref="N118:O118" si="466">if(not(isblank($B118)), N117, "")</f>
+        <f t="shared" ref="N118:O118" si="465">if(not(isblank($B118)), N117, "")</f>
         <v/>
       </c>
       <c r="O118" s="11" t="str">
-        <f t="shared" si="466"/>
+        <f t="shared" si="465"/>
         <v/>
       </c>
       <c r="P118" s="11" t="str">
         <f>product_listing!J118</f>
         <v/>
       </c>
-      <c r="Q118" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q118" s="11"/>
       <c r="R118" s="11" t="str">
         <f>product_listing!C118</f>
         <v/>
@@ -12933,11 +12762,11 @@
         <v/>
       </c>
       <c r="E119" s="11" t="str">
-        <f t="shared" ref="E119:F119" si="467">if(not(isblank($B119)), E118, "")</f>
+        <f t="shared" ref="E119:F119" si="466">if(not(isblank($B119)), E118, "")</f>
         <v/>
       </c>
       <c r="F119" s="11" t="str">
-        <f t="shared" si="467"/>
+        <f t="shared" si="466"/>
         <v/>
       </c>
       <c r="G119" s="11" t="str">
@@ -12945,11 +12774,11 @@
         <v/>
       </c>
       <c r="H119" s="11" t="str">
-        <f t="shared" ref="H119:I119" si="468">if(not(isblank($B119)), H118, "")</f>
+        <f t="shared" ref="H119:I119" si="467">if(not(isblank($B119)), H118, "")</f>
         <v/>
       </c>
       <c r="I119" s="11" t="str">
-        <f t="shared" si="468"/>
+        <f t="shared" si="467"/>
         <v/>
       </c>
       <c r="J119" s="11" t="str">
@@ -12957,11 +12786,11 @@
         <v/>
       </c>
       <c r="K119" s="11" t="str">
-        <f t="shared" ref="K119:L119" si="469">if(not(isblank($B119)), K118, "")</f>
+        <f t="shared" ref="K119:L119" si="468">if(not(isblank($B119)), K118, "")</f>
         <v/>
       </c>
       <c r="L119" s="11" t="str">
-        <f t="shared" si="469"/>
+        <f t="shared" si="468"/>
         <v/>
       </c>
       <c r="M119" s="11" t="str">
@@ -12969,21 +12798,18 @@
         <v/>
       </c>
       <c r="N119" s="11" t="str">
-        <f t="shared" ref="N119:O119" si="470">if(not(isblank($B119)), N118, "")</f>
+        <f t="shared" ref="N119:O119" si="469">if(not(isblank($B119)), N118, "")</f>
         <v/>
       </c>
       <c r="O119" s="11" t="str">
-        <f t="shared" si="470"/>
+        <f t="shared" si="469"/>
         <v/>
       </c>
       <c r="P119" s="11" t="str">
         <f>product_listing!J119</f>
         <v/>
       </c>
-      <c r="Q119" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q119" s="11"/>
       <c r="R119" s="11" t="str">
         <f>product_listing!C119</f>
         <v/>
@@ -13023,11 +12849,11 @@
         <v/>
       </c>
       <c r="E120" s="11" t="str">
-        <f t="shared" ref="E120:F120" si="471">if(not(isblank($B120)), E119, "")</f>
+        <f t="shared" ref="E120:F120" si="470">if(not(isblank($B120)), E119, "")</f>
         <v/>
       </c>
       <c r="F120" s="11" t="str">
-        <f t="shared" si="471"/>
+        <f t="shared" si="470"/>
         <v/>
       </c>
       <c r="G120" s="11" t="str">
@@ -13035,11 +12861,11 @@
         <v/>
       </c>
       <c r="H120" s="11" t="str">
-        <f t="shared" ref="H120:I120" si="472">if(not(isblank($B120)), H119, "")</f>
+        <f t="shared" ref="H120:I120" si="471">if(not(isblank($B120)), H119, "")</f>
         <v/>
       </c>
       <c r="I120" s="11" t="str">
-        <f t="shared" si="472"/>
+        <f t="shared" si="471"/>
         <v/>
       </c>
       <c r="J120" s="11" t="str">
@@ -13047,11 +12873,11 @@
         <v/>
       </c>
       <c r="K120" s="11" t="str">
-        <f t="shared" ref="K120:L120" si="473">if(not(isblank($B120)), K119, "")</f>
+        <f t="shared" ref="K120:L120" si="472">if(not(isblank($B120)), K119, "")</f>
         <v/>
       </c>
       <c r="L120" s="11" t="str">
-        <f t="shared" si="473"/>
+        <f t="shared" si="472"/>
         <v/>
       </c>
       <c r="M120" s="11" t="str">
@@ -13059,21 +12885,18 @@
         <v/>
       </c>
       <c r="N120" s="11" t="str">
-        <f t="shared" ref="N120:O120" si="474">if(not(isblank($B120)), N119, "")</f>
+        <f t="shared" ref="N120:O120" si="473">if(not(isblank($B120)), N119, "")</f>
         <v/>
       </c>
       <c r="O120" s="11" t="str">
-        <f t="shared" si="474"/>
+        <f t="shared" si="473"/>
         <v/>
       </c>
       <c r="P120" s="11" t="str">
         <f>product_listing!J120</f>
         <v/>
       </c>
-      <c r="Q120" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q120" s="11"/>
       <c r="R120" s="11" t="str">
         <f>product_listing!C120</f>
         <v/>
@@ -13113,11 +12936,11 @@
         <v/>
       </c>
       <c r="E121" s="11" t="str">
-        <f t="shared" ref="E121:F121" si="475">if(not(isblank($B121)), E120, "")</f>
+        <f t="shared" ref="E121:F121" si="474">if(not(isblank($B121)), E120, "")</f>
         <v/>
       </c>
       <c r="F121" s="11" t="str">
-        <f t="shared" si="475"/>
+        <f t="shared" si="474"/>
         <v/>
       </c>
       <c r="G121" s="11" t="str">
@@ -13125,11 +12948,11 @@
         <v/>
       </c>
       <c r="H121" s="11" t="str">
-        <f t="shared" ref="H121:I121" si="476">if(not(isblank($B121)), H120, "")</f>
+        <f t="shared" ref="H121:I121" si="475">if(not(isblank($B121)), H120, "")</f>
         <v/>
       </c>
       <c r="I121" s="11" t="str">
-        <f t="shared" si="476"/>
+        <f t="shared" si="475"/>
         <v/>
       </c>
       <c r="J121" s="11" t="str">
@@ -13137,11 +12960,11 @@
         <v/>
       </c>
       <c r="K121" s="11" t="str">
-        <f t="shared" ref="K121:L121" si="477">if(not(isblank($B121)), K120, "")</f>
+        <f t="shared" ref="K121:L121" si="476">if(not(isblank($B121)), K120, "")</f>
         <v/>
       </c>
       <c r="L121" s="11" t="str">
-        <f t="shared" si="477"/>
+        <f t="shared" si="476"/>
         <v/>
       </c>
       <c r="M121" s="11" t="str">
@@ -13149,21 +12972,18 @@
         <v/>
       </c>
       <c r="N121" s="11" t="str">
-        <f t="shared" ref="N121:O121" si="478">if(not(isblank($B121)), N120, "")</f>
+        <f t="shared" ref="N121:O121" si="477">if(not(isblank($B121)), N120, "")</f>
         <v/>
       </c>
       <c r="O121" s="11" t="str">
-        <f t="shared" si="478"/>
+        <f t="shared" si="477"/>
         <v/>
       </c>
       <c r="P121" s="11" t="str">
         <f>product_listing!J121</f>
         <v/>
       </c>
-      <c r="Q121" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q121" s="11"/>
       <c r="R121" s="11" t="str">
         <f>product_listing!C121</f>
         <v/>
@@ -13203,11 +13023,11 @@
         <v/>
       </c>
       <c r="E122" s="11" t="str">
-        <f t="shared" ref="E122:F122" si="479">if(not(isblank($B122)), E121, "")</f>
+        <f t="shared" ref="E122:F122" si="478">if(not(isblank($B122)), E121, "")</f>
         <v/>
       </c>
       <c r="F122" s="11" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="478"/>
         <v/>
       </c>
       <c r="G122" s="11" t="str">
@@ -13215,11 +13035,11 @@
         <v/>
       </c>
       <c r="H122" s="11" t="str">
-        <f t="shared" ref="H122:I122" si="480">if(not(isblank($B122)), H121, "")</f>
+        <f t="shared" ref="H122:I122" si="479">if(not(isblank($B122)), H121, "")</f>
         <v/>
       </c>
       <c r="I122" s="11" t="str">
-        <f t="shared" si="480"/>
+        <f t="shared" si="479"/>
         <v/>
       </c>
       <c r="J122" s="11" t="str">
@@ -13227,11 +13047,11 @@
         <v/>
       </c>
       <c r="K122" s="11" t="str">
-        <f t="shared" ref="K122:L122" si="481">if(not(isblank($B122)), K121, "")</f>
+        <f t="shared" ref="K122:L122" si="480">if(not(isblank($B122)), K121, "")</f>
         <v/>
       </c>
       <c r="L122" s="11" t="str">
-        <f t="shared" si="481"/>
+        <f t="shared" si="480"/>
         <v/>
       </c>
       <c r="M122" s="11" t="str">
@@ -13239,21 +13059,18 @@
         <v/>
       </c>
       <c r="N122" s="11" t="str">
-        <f t="shared" ref="N122:O122" si="482">if(not(isblank($B122)), N121, "")</f>
+        <f t="shared" ref="N122:O122" si="481">if(not(isblank($B122)), N121, "")</f>
         <v/>
       </c>
       <c r="O122" s="11" t="str">
-        <f t="shared" si="482"/>
+        <f t="shared" si="481"/>
         <v/>
       </c>
       <c r="P122" s="11" t="str">
         <f>product_listing!J122</f>
         <v/>
       </c>
-      <c r="Q122" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q122" s="11"/>
       <c r="R122" s="11" t="str">
         <f>product_listing!C122</f>
         <v/>
@@ -13293,11 +13110,11 @@
         <v/>
       </c>
       <c r="E123" s="11" t="str">
-        <f t="shared" ref="E123:F123" si="483">if(not(isblank($B123)), E122, "")</f>
+        <f t="shared" ref="E123:F123" si="482">if(not(isblank($B123)), E122, "")</f>
         <v/>
       </c>
       <c r="F123" s="11" t="str">
-        <f t="shared" si="483"/>
+        <f t="shared" si="482"/>
         <v/>
       </c>
       <c r="G123" s="11" t="str">
@@ -13305,11 +13122,11 @@
         <v/>
       </c>
       <c r="H123" s="11" t="str">
-        <f t="shared" ref="H123:I123" si="484">if(not(isblank($B123)), H122, "")</f>
+        <f t="shared" ref="H123:I123" si="483">if(not(isblank($B123)), H122, "")</f>
         <v/>
       </c>
       <c r="I123" s="11" t="str">
-        <f t="shared" si="484"/>
+        <f t="shared" si="483"/>
         <v/>
       </c>
       <c r="J123" s="11" t="str">
@@ -13317,11 +13134,11 @@
         <v/>
       </c>
       <c r="K123" s="11" t="str">
-        <f t="shared" ref="K123:L123" si="485">if(not(isblank($B123)), K122, "")</f>
+        <f t="shared" ref="K123:L123" si="484">if(not(isblank($B123)), K122, "")</f>
         <v/>
       </c>
       <c r="L123" s="11" t="str">
-        <f t="shared" si="485"/>
+        <f t="shared" si="484"/>
         <v/>
       </c>
       <c r="M123" s="11" t="str">
@@ -13329,21 +13146,18 @@
         <v/>
       </c>
       <c r="N123" s="11" t="str">
-        <f t="shared" ref="N123:O123" si="486">if(not(isblank($B123)), N122, "")</f>
+        <f t="shared" ref="N123:O123" si="485">if(not(isblank($B123)), N122, "")</f>
         <v/>
       </c>
       <c r="O123" s="11" t="str">
-        <f t="shared" si="486"/>
+        <f t="shared" si="485"/>
         <v/>
       </c>
       <c r="P123" s="11" t="str">
         <f>product_listing!J123</f>
         <v/>
       </c>
-      <c r="Q123" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q123" s="11"/>
       <c r="R123" s="11" t="str">
         <f>product_listing!C123</f>
         <v/>
@@ -13383,11 +13197,11 @@
         <v/>
       </c>
       <c r="E124" s="11" t="str">
-        <f t="shared" ref="E124:F124" si="487">if(not(isblank($B124)), E123, "")</f>
+        <f t="shared" ref="E124:F124" si="486">if(not(isblank($B124)), E123, "")</f>
         <v/>
       </c>
       <c r="F124" s="11" t="str">
-        <f t="shared" si="487"/>
+        <f t="shared" si="486"/>
         <v/>
       </c>
       <c r="G124" s="11" t="str">
@@ -13395,11 +13209,11 @@
         <v/>
       </c>
       <c r="H124" s="11" t="str">
-        <f t="shared" ref="H124:I124" si="488">if(not(isblank($B124)), H123, "")</f>
+        <f t="shared" ref="H124:I124" si="487">if(not(isblank($B124)), H123, "")</f>
         <v/>
       </c>
       <c r="I124" s="11" t="str">
-        <f t="shared" si="488"/>
+        <f t="shared" si="487"/>
         <v/>
       </c>
       <c r="J124" s="11" t="str">
@@ -13407,11 +13221,11 @@
         <v/>
       </c>
       <c r="K124" s="11" t="str">
-        <f t="shared" ref="K124:L124" si="489">if(not(isblank($B124)), K123, "")</f>
+        <f t="shared" ref="K124:L124" si="488">if(not(isblank($B124)), K123, "")</f>
         <v/>
       </c>
       <c r="L124" s="11" t="str">
-        <f t="shared" si="489"/>
+        <f t="shared" si="488"/>
         <v/>
       </c>
       <c r="M124" s="11" t="str">
@@ -13419,21 +13233,18 @@
         <v/>
       </c>
       <c r="N124" s="11" t="str">
-        <f t="shared" ref="N124:O124" si="490">if(not(isblank($B124)), N123, "")</f>
+        <f t="shared" ref="N124:O124" si="489">if(not(isblank($B124)), N123, "")</f>
         <v/>
       </c>
       <c r="O124" s="11" t="str">
-        <f t="shared" si="490"/>
+        <f t="shared" si="489"/>
         <v/>
       </c>
       <c r="P124" s="11" t="str">
         <f>product_listing!J124</f>
         <v/>
       </c>
-      <c r="Q124" s="11" t="str">
-        <f t="shared" si="242"/>
-        <v>#REF!</v>
-      </c>
+      <c r="Q124" s="11"/>
       <c r="R124" s="11" t="str">
         <f>product_listing!C124</f>
         <v/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>Data category</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Adjustments are applied by comparing data in the deep ocean (&gt;2000 m) using a crossover and inversion method as described by Johnson et al. (2001).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Global Ocean Data Analysis Project Version 2 (GLODAPv2) aggregates biogeochemical data collected from discrete bottle samples, offering extensive global coverage from the surface to depths (Key et al., 2015; Olsen et al., 2016; Lauvset et al., 2024). While GLODAP is primarily a product for basin-scale hydrographic data, it also includes coastal datasets and observations from a few time-series. The GLODAPv2 data product provides rigorously quality-controlled measurements for 14 essential oceanographic variables: temperature, salinity, dissolved oxygen (DO), nitrate, silicate, phosphate, DIC, TA, pH, chlorofluorocarbons (CFC-11, CFC-12, CFC-113), carbon tetrachloride (CCl4), and sulfur hexafluoride (SF6). These variables, excluding temperature, undergo both primary and secondary quality control procedures to detect outliers and adjust for significant measurement biases. GLODAPv2 was first published in 2016 and was updated annually through a living data process in Earth System Science Data from 2019 through “v2023,” which was published in 2024. For these updates, new data (including historical data not previously included in the data product) are quality controlled and adjusted to the 2016 version (Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024). Since the global repeat hydrography programs operate with decadal repetitions, the aim is to produce a completely new version of GLODAP, where all cruise datasets will be reevaluated, every decade. Release of the GLODAPv3 data product is planned for 2026, and is expected to evolve the secondary data quality control practices relative to those used in GLODAPv2. For more information on the secondary quality control process, refer to Tanhua et al. (2010) and Lauvset and Tanhua (2015). GLODAPv2 offers two kind of products: the collection of quality controlled data from discrete bottle samples taken at sampling location (Key et al., 2015; Olsen et al., 2016; Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024), and a gridded product, interpolated to a 1° × 1°  grid and the 33 standard depth levels of World Ocean Atlas (WOA) (Lauvset et al., 2016). </t>
   </si>
   <si>
     <t>Data categories</t>
@@ -708,7 +711,12 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -976,6 +984,9 @@
       </c>
       <c r="L7" s="8" t="s">
         <v>66</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -2199,7 +2210,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -2216,7 +2227,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>65</v>
@@ -2227,16 +2238,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -2244,18 +2255,18 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -2263,10 +2274,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -2274,25 +2285,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2334,70 +2345,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="P1" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
@@ -2418,7 +2429,7 @@
         <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>8</v>
@@ -2428,7 +2439,7 @@
         <v>Open Ocean, Surface</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>7</v>
@@ -2438,7 +2449,7 @@
         <v>monthly</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>6</v>
@@ -2448,7 +2459,7 @@
         <v>1.0°</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>9</v>
@@ -2477,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="V2" s="15" t="str">
-        <f>product_listing!L2</f>
+        <f>product_listing!M2</f>
         <v/>
       </c>
     </row>
@@ -2567,7 +2578,7 @@
         <v>Description</v>
       </c>
       <c r="V3" s="15" t="str">
-        <f>product_listing!L3</f>
+        <f>product_listing!M3</f>
         <v/>
       </c>
     </row>
@@ -2657,8 +2668,8 @@
         <v>Description</v>
       </c>
       <c r="V4" s="15" t="str">
-        <f>product_listing!L4</f>
-        <v>else</v>
+        <f>product_listing!M4</f>
+        <v>something</v>
       </c>
     </row>
     <row r="5">
@@ -2747,8 +2758,8 @@
         <v>Description</v>
       </c>
       <c r="V5" s="15" t="str">
-        <f>product_listing!L5</f>
-        <v/>
+        <f>product_listing!M5</f>
+        <v>Self Organising Map – Feed-Forward Neural Network</v>
       </c>
     </row>
     <row r="6">
@@ -2927,8 +2938,8 @@
         <v>Description</v>
       </c>
       <c r="V7" s="15" t="str">
-        <f>product_listing!L7</f>
-        <v>Adjustments are applied by comparing data in the deep ocean (&gt;2000 m) using a crossover and inversion method as described by Johnson et al. (2001).</v>
+        <f>product_listing!M7</f>
+        <v>The Global Ocean Data Analysis Project Version 2 (GLODAPv2) aggregates biogeochemical data collected from discrete bottle samples, offering extensive global coverage from the surface to depths (Key et al., 2015; Olsen et al., 2016; Lauvset et al., 2024). While GLODAP is primarily a product for basin-scale hydrographic data, it also includes coastal datasets and observations from a few time-series. The GLODAPv2 data product provides rigorously quality-controlled measurements for 14 essential oceanographic variables: temperature, salinity, dissolved oxygen (DO), nitrate, silicate, phosphate, DIC, TA, pH, chlorofluorocarbons (CFC-11, CFC-12, CFC-113), carbon tetrachloride (CCl4), and sulfur hexafluoride (SF6). These variables, excluding temperature, undergo both primary and secondary quality control procedures to detect outliers and adjust for significant measurement biases. GLODAPv2 was first published in 2016 and was updated annually through a living data process in Earth System Science Data from 2019 through “v2023,” which was published in 2024. For these updates, new data (including historical data not previously included in the data product) are quality controlled and adjusted to the 2016 version (Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024). Since the global repeat hydrography programs operate with decadal repetitions, the aim is to produce a completely new version of GLODAP, where all cruise datasets will be reevaluated, every decade. Release of the GLODAPv3 data product is planned for 2026, and is expected to evolve the secondary data quality control practices relative to those used in GLODAPv2. For more information on the secondary quality control process, refer to Tanhua et al. (2010) and Lauvset and Tanhua (2015). GLODAPv2 offers two kind of products: the collection of quality controlled data from discrete bottle samples taken at sampling location (Key et al., 2015; Olsen et al., 2016; Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024), and a gridded product, interpolated to a 1° × 1°  grid and the 33 standard depth levels of World Ocean Atlas (WOA) (Lauvset et al., 2016). </v>
       </c>
     </row>
     <row r="8">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -3484,8 +3484,8 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="str">
-        <f>product_listing!A14</f>
-        <v/>
+        <f t="array" ref="A14">INDIRECT(CONCAT("product_listing!","A5"))</f>
+        <v>Surface data-derived</v>
       </c>
       <c r="B14" s="11" t="str">
         <f>product_listing!B14</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -2413,7 +2413,7 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="str">
-        <f>product_listing!A2</f>
+        <f t="shared" ref="A2:A7" si="5">INDIRECT(CONCAT("product_listing!A",row()))</f>
         <v>Observations</v>
       </c>
       <c r="B2" s="11" t="str">
@@ -2503,7 +2503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="11" t="str">
-        <f>product_listing!A3</f>
+        <f t="shared" si="5"/>
         <v>Observations</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -2519,11 +2519,11 @@
         <v>https://glodap.info/wp-content/uploads/2017/09/cropped-glodap_logo_trans.png</v>
       </c>
       <c r="E3" s="11" t="str">
-        <f t="shared" ref="E3:F3" si="5">if(not(isblank($B3)), E2, "")</f>
+        <f t="shared" ref="E3:F3" si="6">if(not(isblank($B3)), E2, "")</f>
         <v>fa-solid fa-globe</v>
       </c>
       <c r="F3" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Spatial domains</v>
       </c>
       <c r="G3" s="11" t="str">
@@ -2531,11 +2531,11 @@
         <v>Water column, Open Ocean</v>
       </c>
       <c r="H3" s="11" t="str">
-        <f t="shared" ref="H3:I3" si="6">if(not(isblank($B3)), H2, "")</f>
+        <f t="shared" ref="H3:I3" si="7">if(not(isblank($B3)), H2, "")</f>
         <v>fa-solid fa-hourglass-start</v>
       </c>
       <c r="I3" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Temporal resolution</v>
       </c>
       <c r="J3" s="11" t="str">
@@ -2543,11 +2543,11 @@
         <v/>
       </c>
       <c r="K3" s="11" t="str">
-        <f t="shared" ref="K3:L3" si="7">if(not(isblank($B3)), K2, "")</f>
+        <f t="shared" ref="K3:L3" si="8">if(not(isblank($B3)), K2, "")</f>
         <v>fa-solid fa-ruler-horizontal</v>
       </c>
       <c r="L3" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Spatial resolution</v>
       </c>
       <c r="M3" s="11" t="str">
@@ -2555,11 +2555,11 @@
         <v/>
       </c>
       <c r="N3" s="11" t="str">
-        <f t="shared" ref="N3:O3" si="8">if(not(isblank($B3)), N2, "")</f>
+        <f t="shared" ref="N3:O3" si="9">if(not(isblank($B3)), N2, "")</f>
         <v>fa-solid fa-calendar-days</v>
       </c>
       <c r="O3" s="11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Period</v>
       </c>
       <c r="P3" s="11" t="str">
@@ -2593,7 +2593,7 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="str">
-        <f>product_listing!A4</f>
+        <f t="shared" si="5"/>
         <v>Surface data-derived</v>
       </c>
       <c r="B4" s="11" t="str">
@@ -2674,7 +2674,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="str">
-        <f>product_listing!A5</f>
+        <f t="shared" si="5"/>
         <v>Surface data-derived</v>
       </c>
       <c r="B5" s="11" t="str">
@@ -2690,11 +2690,11 @@
         <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
       </c>
       <c r="E5" s="11" t="str">
-        <f t="shared" ref="E5:F5" si="9">if(not(isblank($B5)), E4, "")</f>
+        <f t="shared" ref="E5:F5" si="10">if(not(isblank($B5)), E4, "")</f>
         <v>fa-solid fa-globe</v>
       </c>
       <c r="F5" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Spatial domains</v>
       </c>
       <c r="G5" s="11" t="str">
@@ -2702,11 +2702,11 @@
         <v>Open Ocean, Surface</v>
       </c>
       <c r="H5" s="11" t="str">
-        <f t="shared" ref="H5:I5" si="10">if(not(isblank($B5)), H4, "")</f>
+        <f t="shared" ref="H5:I5" si="11">if(not(isblank($B5)), H4, "")</f>
         <v>fa-solid fa-hourglass-start</v>
       </c>
       <c r="I5" s="11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Temporal resolution</v>
       </c>
       <c r="J5" s="11" t="str">
@@ -2714,11 +2714,11 @@
         <v>8-daily</v>
       </c>
       <c r="K5" s="11" t="str">
-        <f t="shared" ref="K5:L5" si="11">if(not(isblank($B5)), K4, "")</f>
+        <f t="shared" ref="K5:L5" si="12">if(not(isblank($B5)), K4, "")</f>
         <v>fa-solid fa-ruler-horizontal</v>
       </c>
       <c r="L5" s="11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Spatial resolution</v>
       </c>
       <c r="M5" s="16" t="str">
@@ -2726,11 +2726,11 @@
         <v>0.25°</v>
       </c>
       <c r="N5" s="11" t="str">
-        <f t="shared" ref="N5:O5" si="12">if(not(isblank($B5)), N4, "")</f>
+        <f t="shared" ref="N5:O5" si="13">if(not(isblank($B5)), N4, "")</f>
         <v>fa-solid fa-calendar-days</v>
       </c>
       <c r="O5" s="11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Period</v>
       </c>
       <c r="P5" s="11" t="str">
@@ -2754,7 +2754,7 @@
         <v>https://zenodo.org/records/11206366</v>
       </c>
       <c r="U5" s="11" t="str">
-        <f t="shared" ref="U5:U7" si="17">if(not(isblank($B5)), U4, "")</f>
+        <f t="shared" ref="U5:U7" si="18">if(not(isblank($B5)), U4, "")</f>
         <v>Description</v>
       </c>
       <c r="V5" s="14" t="str">
@@ -2764,7 +2764,7 @@
     </row>
     <row r="6">
       <c r="A6" s="11" t="str">
-        <f>product_listing!A6</f>
+        <f t="shared" si="5"/>
         <v>Surface data-derived</v>
       </c>
       <c r="B6" s="11" t="str">
@@ -2780,11 +2780,11 @@
         <v>https://essd.copernicus.org/articles/16/2123/2024/essd-16-2123-2024-avatar-web.png</v>
       </c>
       <c r="E6" s="11" t="str">
-        <f t="shared" ref="E6:F6" si="13">if(not(isblank($B6)), E5, "")</f>
+        <f t="shared" ref="E6:F6" si="14">if(not(isblank($B6)), E5, "")</f>
         <v>fa-solid fa-globe</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Spatial domains</v>
       </c>
       <c r="G6" s="11" t="str">
@@ -2792,11 +2792,11 @@
         <v>Open Ocean, Surface</v>
       </c>
       <c r="H6" s="11" t="str">
-        <f t="shared" ref="H6:I6" si="14">if(not(isblank($B6)), H5, "")</f>
+        <f t="shared" ref="H6:I6" si="15">if(not(isblank($B6)), H5, "")</f>
         <v>fa-solid fa-hourglass-start</v>
       </c>
       <c r="I6" s="11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Temporal resolution</v>
       </c>
       <c r="J6" s="11" t="str">
@@ -2804,11 +2804,11 @@
         <v>climatology, monthly</v>
       </c>
       <c r="K6" s="11" t="str">
-        <f t="shared" ref="K6:L6" si="15">if(not(isblank($B6)), K5, "")</f>
+        <f t="shared" ref="K6:L6" si="16">if(not(isblank($B6)), K5, "")</f>
         <v>fa-solid fa-ruler-horizontal</v>
       </c>
       <c r="L6" s="11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Spatial resolution</v>
       </c>
       <c r="M6" s="15" t="str">
@@ -2816,11 +2816,11 @@
         <v>1.0°</v>
       </c>
       <c r="N6" s="11" t="str">
-        <f t="shared" ref="N6:O6" si="16">if(not(isblank($B6)), N5, "")</f>
+        <f t="shared" ref="N6:O6" si="17">if(not(isblank($B6)), N5, "")</f>
         <v>fa-solid fa-calendar-days</v>
       </c>
       <c r="O6" s="11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Period</v>
       </c>
       <c r="P6" s="11" t="str">
@@ -2844,7 +2844,7 @@
         <v>https://doi.org/10.25921/295g-sn13</v>
       </c>
       <c r="U6" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Description</v>
       </c>
       <c r="V6" s="14" t="str">
@@ -2854,7 +2854,7 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="str">
-        <f>product_listing!A7</f>
+        <f t="shared" si="5"/>
         <v>Surface data-derived</v>
       </c>
       <c r="B7" s="11" t="str">
@@ -2870,11 +2870,11 @@
         <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/547d18a7-69b5-4e93-96b2-5e8371310b43/gbc20188-fig-0001-m.jpg</v>
       </c>
       <c r="E7" s="11" t="str">
-        <f t="shared" ref="E7:F7" si="18">if(not(isblank($B7)), E6, "")</f>
+        <f t="shared" ref="E7:F7" si="19">if(not(isblank($B7)), E6, "")</f>
         <v>fa-solid fa-globe</v>
       </c>
       <c r="F7" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Spatial domains</v>
       </c>
       <c r="G7" s="11" t="str">
@@ -2882,11 +2882,11 @@
         <v>Surface, Open Ocean</v>
       </c>
       <c r="H7" s="11" t="str">
-        <f t="shared" ref="H7:I7" si="19">if(not(isblank($B7)), H6, "")</f>
+        <f t="shared" ref="H7:I7" si="20">if(not(isblank($B7)), H6, "")</f>
         <v>fa-solid fa-hourglass-start</v>
       </c>
       <c r="I7" s="11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Temporal resolution</v>
       </c>
       <c r="J7" s="11" t="str">
@@ -2894,11 +2894,11 @@
         <v>monthly</v>
       </c>
       <c r="K7" s="11" t="str">
-        <f t="shared" ref="K7:L7" si="20">if(not(isblank($B7)), K6, "")</f>
+        <f t="shared" ref="K7:L7" si="21">if(not(isblank($B7)), K6, "")</f>
         <v>fa-solid fa-ruler-horizontal</v>
       </c>
       <c r="L7" s="11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Spatial resolution</v>
       </c>
       <c r="M7" s="15" t="str">
@@ -2906,11 +2906,11 @@
         <v>1.0°</v>
       </c>
       <c r="N7" s="11" t="str">
-        <f t="shared" ref="N7:O7" si="21">if(not(isblank($B7)), N6, "")</f>
+        <f t="shared" ref="N7:O7" si="22">if(not(isblank($B7)), N6, "")</f>
         <v>fa-solid fa-calendar-days</v>
       </c>
       <c r="O7" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>Period</v>
       </c>
       <c r="P7" s="11" t="str">
@@ -2934,7 +2934,7 @@
         <v>https://doi.org/10.7289/v5z899n6</v>
       </c>
       <c r="U7" s="11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Description</v>
       </c>
       <c r="V7" s="14" t="str">
@@ -2960,11 +2960,11 @@
         <v/>
       </c>
       <c r="E8" s="11" t="str">
-        <f t="shared" ref="E8:F8" si="22">if(not(isblank($B8)), E3, "")</f>
+        <f t="shared" ref="E8:F8" si="23">if(not(isblank($B8)), E3, "")</f>
         <v/>
       </c>
       <c r="F8" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="G8" s="11" t="str">
@@ -2972,11 +2972,11 @@
         <v/>
       </c>
       <c r="H8" s="11" t="str">
-        <f t="shared" ref="H8:I8" si="23">if(not(isblank($B8)), H3, "")</f>
+        <f t="shared" ref="H8:I8" si="24">if(not(isblank($B8)), H3, "")</f>
         <v/>
       </c>
       <c r="I8" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J8" s="11" t="str">
@@ -2984,11 +2984,11 @@
         <v/>
       </c>
       <c r="K8" s="11" t="str">
-        <f t="shared" ref="K8:L8" si="24">if(not(isblank($B8)), K3, "")</f>
+        <f t="shared" ref="K8:L8" si="25">if(not(isblank($B8)), K3, "")</f>
         <v/>
       </c>
       <c r="L8" s="11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M8" s="11" t="str">
@@ -2996,11 +2996,11 @@
         <v/>
       </c>
       <c r="N8" s="11" t="str">
-        <f t="shared" ref="N8:O8" si="25">if(not(isblank($B8)), N3, "")</f>
+        <f t="shared" ref="N8:O8" si="26">if(not(isblank($B8)), N3, "")</f>
         <v/>
       </c>
       <c r="O8" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P8" s="11" t="str">
@@ -3050,11 +3050,11 @@
         <v/>
       </c>
       <c r="E9" s="11" t="str">
-        <f t="shared" ref="E9:F9" si="26">if(not(isblank($B9)), E8, "")</f>
+        <f t="shared" ref="E9:F9" si="27">if(not(isblank($B9)), E8, "")</f>
         <v/>
       </c>
       <c r="F9" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G9" s="11" t="str">
@@ -3062,11 +3062,11 @@
         <v/>
       </c>
       <c r="H9" s="11" t="str">
-        <f t="shared" ref="H9:I9" si="27">if(not(isblank($B9)), H8, "")</f>
+        <f t="shared" ref="H9:I9" si="28">if(not(isblank($B9)), H8, "")</f>
         <v/>
       </c>
       <c r="I9" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J9" s="11" t="str">
@@ -3074,11 +3074,11 @@
         <v/>
       </c>
       <c r="K9" s="11" t="str">
-        <f t="shared" ref="K9:L9" si="28">if(not(isblank($B9)), K8, "")</f>
+        <f t="shared" ref="K9:L9" si="29">if(not(isblank($B9)), K8, "")</f>
         <v/>
       </c>
       <c r="L9" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="M9" s="11" t="str">
@@ -3086,11 +3086,11 @@
         <v/>
       </c>
       <c r="N9" s="11" t="str">
-        <f t="shared" ref="N9:O9" si="29">if(not(isblank($B9)), N8, "")</f>
+        <f t="shared" ref="N9:O9" si="30">if(not(isblank($B9)), N8, "")</f>
         <v/>
       </c>
       <c r="O9" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="P9" s="11" t="str">
@@ -3114,7 +3114,7 @@
         <v/>
       </c>
       <c r="U9" s="11" t="str">
-        <f t="shared" ref="U9:U124" si="34">if(not(isblank($B9)), U8, "")</f>
+        <f t="shared" ref="U9:U124" si="35">if(not(isblank($B9)), U8, "")</f>
         <v/>
       </c>
       <c r="V9" s="14" t="str">
@@ -3140,11 +3140,11 @@
         <v/>
       </c>
       <c r="E10" s="11" t="str">
-        <f t="shared" ref="E10:F10" si="30">if(not(isblank($B10)), E9, "")</f>
+        <f t="shared" ref="E10:F10" si="31">if(not(isblank($B10)), E9, "")</f>
         <v/>
       </c>
       <c r="F10" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G10" s="11" t="str">
@@ -3152,11 +3152,11 @@
         <v/>
       </c>
       <c r="H10" s="11" t="str">
-        <f t="shared" ref="H10:I10" si="31">if(not(isblank($B10)), H9, "")</f>
+        <f t="shared" ref="H10:I10" si="32">if(not(isblank($B10)), H9, "")</f>
         <v/>
       </c>
       <c r="I10" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J10" s="11" t="str">
@@ -3164,11 +3164,11 @@
         <v/>
       </c>
       <c r="K10" s="11" t="str">
-        <f t="shared" ref="K10:L10" si="32">if(not(isblank($B10)), K9, "")</f>
+        <f t="shared" ref="K10:L10" si="33">if(not(isblank($B10)), K9, "")</f>
         <v/>
       </c>
       <c r="L10" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M10" s="11" t="str">
@@ -3176,11 +3176,11 @@
         <v/>
       </c>
       <c r="N10" s="11" t="str">
-        <f t="shared" ref="N10:O10" si="33">if(not(isblank($B10)), N9, "")</f>
+        <f t="shared" ref="N10:O10" si="34">if(not(isblank($B10)), N9, "")</f>
         <v/>
       </c>
       <c r="O10" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="P10" s="11" t="str">
@@ -3204,7 +3204,7 @@
         <v/>
       </c>
       <c r="U10" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V10" s="14" t="str">
@@ -3230,11 +3230,11 @@
         <v/>
       </c>
       <c r="E11" s="11" t="str">
-        <f t="shared" ref="E11:F11" si="35">if(not(isblank($B11)), E10, "")</f>
+        <f t="shared" ref="E11:F11" si="36">if(not(isblank($B11)), E10, "")</f>
         <v/>
       </c>
       <c r="F11" s="11" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G11" s="11" t="str">
@@ -3242,11 +3242,11 @@
         <v/>
       </c>
       <c r="H11" s="11" t="str">
-        <f t="shared" ref="H11:I11" si="36">if(not(isblank($B11)), H10, "")</f>
+        <f t="shared" ref="H11:I11" si="37">if(not(isblank($B11)), H10, "")</f>
         <v/>
       </c>
       <c r="I11" s="11" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J11" s="11" t="str">
@@ -3254,11 +3254,11 @@
         <v/>
       </c>
       <c r="K11" s="11" t="str">
-        <f t="shared" ref="K11:L11" si="37">if(not(isblank($B11)), K10, "")</f>
+        <f t="shared" ref="K11:L11" si="38">if(not(isblank($B11)), K10, "")</f>
         <v/>
       </c>
       <c r="L11" s="11" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M11" s="11" t="str">
@@ -3266,11 +3266,11 @@
         <v/>
       </c>
       <c r="N11" s="11" t="str">
-        <f t="shared" ref="N11:O11" si="38">if(not(isblank($B11)), N10, "")</f>
+        <f t="shared" ref="N11:O11" si="39">if(not(isblank($B11)), N10, "")</f>
         <v/>
       </c>
       <c r="O11" s="11" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="P11" s="11" t="str">
@@ -3294,7 +3294,7 @@
         <v/>
       </c>
       <c r="U11" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V11" s="14" t="str">
@@ -3320,11 +3320,11 @@
         <v/>
       </c>
       <c r="E12" s="11" t="str">
-        <f t="shared" ref="E12:F12" si="39">if(not(isblank($B12)), E11, "")</f>
+        <f t="shared" ref="E12:F12" si="40">if(not(isblank($B12)), E11, "")</f>
         <v/>
       </c>
       <c r="F12" s="11" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G12" s="11" t="str">
@@ -3332,11 +3332,11 @@
         <v/>
       </c>
       <c r="H12" s="11" t="str">
-        <f t="shared" ref="H12:I12" si="40">if(not(isblank($B12)), H11, "")</f>
+        <f t="shared" ref="H12:I12" si="41">if(not(isblank($B12)), H11, "")</f>
         <v/>
       </c>
       <c r="I12" s="11" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J12" s="11" t="str">
@@ -3344,11 +3344,11 @@
         <v/>
       </c>
       <c r="K12" s="11" t="str">
-        <f t="shared" ref="K12:L12" si="41">if(not(isblank($B12)), K11, "")</f>
+        <f t="shared" ref="K12:L12" si="42">if(not(isblank($B12)), K11, "")</f>
         <v/>
       </c>
       <c r="L12" s="11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M12" s="11" t="str">
@@ -3356,11 +3356,11 @@
         <v/>
       </c>
       <c r="N12" s="11" t="str">
-        <f t="shared" ref="N12:O12" si="42">if(not(isblank($B12)), N11, "")</f>
+        <f t="shared" ref="N12:O12" si="43">if(not(isblank($B12)), N11, "")</f>
         <v/>
       </c>
       <c r="O12" s="11" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P12" s="11" t="str">
@@ -3384,7 +3384,7 @@
         <v/>
       </c>
       <c r="U12" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V12" s="14" t="str">
@@ -3410,11 +3410,11 @@
         <v/>
       </c>
       <c r="E13" s="11" t="str">
-        <f t="shared" ref="E13:F13" si="43">if(not(isblank($B13)), E12, "")</f>
+        <f t="shared" ref="E13:F13" si="44">if(not(isblank($B13)), E12, "")</f>
         <v/>
       </c>
       <c r="F13" s="11" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G13" s="11" t="str">
@@ -3422,11 +3422,11 @@
         <v/>
       </c>
       <c r="H13" s="11" t="str">
-        <f t="shared" ref="H13:I13" si="44">if(not(isblank($B13)), H12, "")</f>
+        <f t="shared" ref="H13:I13" si="45">if(not(isblank($B13)), H12, "")</f>
         <v/>
       </c>
       <c r="I13" s="11" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J13" s="11" t="str">
@@ -3434,11 +3434,11 @@
         <v/>
       </c>
       <c r="K13" s="11" t="str">
-        <f t="shared" ref="K13:L13" si="45">if(not(isblank($B13)), K12, "")</f>
+        <f t="shared" ref="K13:L13" si="46">if(not(isblank($B13)), K12, "")</f>
         <v/>
       </c>
       <c r="L13" s="11" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="M13" s="11" t="str">
@@ -3446,11 +3446,11 @@
         <v/>
       </c>
       <c r="N13" s="11" t="str">
-        <f t="shared" ref="N13:O13" si="46">if(not(isblank($B13)), N12, "")</f>
+        <f t="shared" ref="N13:O13" si="47">if(not(isblank($B13)), N12, "")</f>
         <v/>
       </c>
       <c r="O13" s="11" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P13" s="11" t="str">
@@ -3474,7 +3474,7 @@
         <v/>
       </c>
       <c r="U13" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V13" s="14" t="str">
@@ -3484,8 +3484,8 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="str">
-        <f t="array" ref="A14">INDIRECT(CONCAT("product_listing!","A5"))</f>
-        <v>Surface data-derived</v>
+        <f t="array" ref="A14">INDIRECT(CONCAT("product_listing!A",row()))</f>
+        <v/>
       </c>
       <c r="B14" s="11" t="str">
         <f>product_listing!B14</f>
@@ -3500,11 +3500,11 @@
         <v/>
       </c>
       <c r="E14" s="11" t="str">
-        <f t="shared" ref="E14:F14" si="47">if(not(isblank($B14)), E13, "")</f>
+        <f t="shared" ref="E14:F14" si="48">if(not(isblank($B14)), E13, "")</f>
         <v/>
       </c>
       <c r="F14" s="11" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="G14" s="11" t="str">
@@ -3512,11 +3512,11 @@
         <v/>
       </c>
       <c r="H14" s="11" t="str">
-        <f t="shared" ref="H14:I14" si="48">if(not(isblank($B14)), H13, "")</f>
+        <f t="shared" ref="H14:I14" si="49">if(not(isblank($B14)), H13, "")</f>
         <v/>
       </c>
       <c r="I14" s="11" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="J14" s="11" t="str">
@@ -3524,11 +3524,11 @@
         <v/>
       </c>
       <c r="K14" s="11" t="str">
-        <f t="shared" ref="K14:L14" si="49">if(not(isblank($B14)), K13, "")</f>
+        <f t="shared" ref="K14:L14" si="50">if(not(isblank($B14)), K13, "")</f>
         <v/>
       </c>
       <c r="L14" s="11" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="M14" s="11" t="str">
@@ -3536,11 +3536,11 @@
         <v/>
       </c>
       <c r="N14" s="11" t="str">
-        <f t="shared" ref="N14:O14" si="50">if(not(isblank($B14)), N13, "")</f>
+        <f t="shared" ref="N14:O14" si="51">if(not(isblank($B14)), N13, "")</f>
         <v/>
       </c>
       <c r="O14" s="11" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P14" s="11" t="str">
@@ -3564,7 +3564,7 @@
         <v/>
       </c>
       <c r="U14" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V14" s="14" t="str">
@@ -3590,11 +3590,11 @@
         <v/>
       </c>
       <c r="E15" s="11" t="str">
-        <f t="shared" ref="E15:F15" si="51">if(not(isblank($B15)), E14, "")</f>
+        <f t="shared" ref="E15:F15" si="52">if(not(isblank($B15)), E14, "")</f>
         <v/>
       </c>
       <c r="F15" s="11" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="G15" s="11" t="str">
@@ -3602,11 +3602,11 @@
         <v/>
       </c>
       <c r="H15" s="11" t="str">
-        <f t="shared" ref="H15:I15" si="52">if(not(isblank($B15)), H14, "")</f>
+        <f t="shared" ref="H15:I15" si="53">if(not(isblank($B15)), H14, "")</f>
         <v/>
       </c>
       <c r="I15" s="11" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="J15" s="11" t="str">
@@ -3614,11 +3614,11 @@
         <v/>
       </c>
       <c r="K15" s="11" t="str">
-        <f t="shared" ref="K15:L15" si="53">if(not(isblank($B15)), K14, "")</f>
+        <f t="shared" ref="K15:L15" si="54">if(not(isblank($B15)), K14, "")</f>
         <v/>
       </c>
       <c r="L15" s="11" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="M15" s="11" t="str">
@@ -3626,11 +3626,11 @@
         <v/>
       </c>
       <c r="N15" s="11" t="str">
-        <f t="shared" ref="N15:O15" si="54">if(not(isblank($B15)), N14, "")</f>
+        <f t="shared" ref="N15:O15" si="55">if(not(isblank($B15)), N14, "")</f>
         <v/>
       </c>
       <c r="O15" s="11" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="P15" s="11" t="str">
@@ -3654,7 +3654,7 @@
         <v/>
       </c>
       <c r="U15" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V15" s="14" t="str">
@@ -3680,11 +3680,11 @@
         <v/>
       </c>
       <c r="E16" s="11" t="str">
-        <f t="shared" ref="E16:F16" si="55">if(not(isblank($B16)), E15, "")</f>
+        <f t="shared" ref="E16:F16" si="56">if(not(isblank($B16)), E15, "")</f>
         <v/>
       </c>
       <c r="F16" s="11" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="G16" s="11" t="str">
@@ -3692,11 +3692,11 @@
         <v/>
       </c>
       <c r="H16" s="11" t="str">
-        <f t="shared" ref="H16:I16" si="56">if(not(isblank($B16)), H15, "")</f>
+        <f t="shared" ref="H16:I16" si="57">if(not(isblank($B16)), H15, "")</f>
         <v/>
       </c>
       <c r="I16" s="11" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="J16" s="11" t="str">
@@ -3704,11 +3704,11 @@
         <v/>
       </c>
       <c r="K16" s="11" t="str">
-        <f t="shared" ref="K16:L16" si="57">if(not(isblank($B16)), K15, "")</f>
+        <f t="shared" ref="K16:L16" si="58">if(not(isblank($B16)), K15, "")</f>
         <v/>
       </c>
       <c r="L16" s="11" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="M16" s="11" t="str">
@@ -3716,11 +3716,11 @@
         <v/>
       </c>
       <c r="N16" s="11" t="str">
-        <f t="shared" ref="N16:O16" si="58">if(not(isblank($B16)), N15, "")</f>
+        <f t="shared" ref="N16:O16" si="59">if(not(isblank($B16)), N15, "")</f>
         <v/>
       </c>
       <c r="O16" s="11" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="P16" s="11" t="str">
@@ -3744,7 +3744,7 @@
         <v/>
       </c>
       <c r="U16" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V16" s="14" t="str">
@@ -3770,11 +3770,11 @@
         <v/>
       </c>
       <c r="E17" s="11" t="str">
-        <f t="shared" ref="E17:F17" si="59">if(not(isblank($B17)), E16, "")</f>
+        <f t="shared" ref="E17:F17" si="60">if(not(isblank($B17)), E16, "")</f>
         <v/>
       </c>
       <c r="F17" s="11" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="G17" s="11" t="str">
@@ -3782,11 +3782,11 @@
         <v/>
       </c>
       <c r="H17" s="11" t="str">
-        <f t="shared" ref="H17:I17" si="60">if(not(isblank($B17)), H16, "")</f>
+        <f t="shared" ref="H17:I17" si="61">if(not(isblank($B17)), H16, "")</f>
         <v/>
       </c>
       <c r="I17" s="11" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="J17" s="11" t="str">
@@ -3794,11 +3794,11 @@
         <v/>
       </c>
       <c r="K17" s="11" t="str">
-        <f t="shared" ref="K17:L17" si="61">if(not(isblank($B17)), K16, "")</f>
+        <f t="shared" ref="K17:L17" si="62">if(not(isblank($B17)), K16, "")</f>
         <v/>
       </c>
       <c r="L17" s="11" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="M17" s="11" t="str">
@@ -3806,11 +3806,11 @@
         <v/>
       </c>
       <c r="N17" s="11" t="str">
-        <f t="shared" ref="N17:O17" si="62">if(not(isblank($B17)), N16, "")</f>
+        <f t="shared" ref="N17:O17" si="63">if(not(isblank($B17)), N16, "")</f>
         <v/>
       </c>
       <c r="O17" s="11" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="P17" s="11" t="str">
@@ -3834,7 +3834,7 @@
         <v/>
       </c>
       <c r="U17" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V17" s="14" t="str">
@@ -3860,11 +3860,11 @@
         <v/>
       </c>
       <c r="E18" s="11" t="str">
-        <f t="shared" ref="E18:F18" si="63">if(not(isblank($B18)), E17, "")</f>
+        <f t="shared" ref="E18:F18" si="64">if(not(isblank($B18)), E17, "")</f>
         <v/>
       </c>
       <c r="F18" s="11" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G18" s="11" t="str">
@@ -3872,11 +3872,11 @@
         <v/>
       </c>
       <c r="H18" s="11" t="str">
-        <f t="shared" ref="H18:I18" si="64">if(not(isblank($B18)), H17, "")</f>
+        <f t="shared" ref="H18:I18" si="65">if(not(isblank($B18)), H17, "")</f>
         <v/>
       </c>
       <c r="I18" s="11" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="J18" s="11" t="str">
@@ -3884,11 +3884,11 @@
         <v/>
       </c>
       <c r="K18" s="11" t="str">
-        <f t="shared" ref="K18:L18" si="65">if(not(isblank($B18)), K17, "")</f>
+        <f t="shared" ref="K18:L18" si="66">if(not(isblank($B18)), K17, "")</f>
         <v/>
       </c>
       <c r="L18" s="11" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="M18" s="11" t="str">
@@ -3896,11 +3896,11 @@
         <v/>
       </c>
       <c r="N18" s="11" t="str">
-        <f t="shared" ref="N18:O18" si="66">if(not(isblank($B18)), N17, "")</f>
+        <f t="shared" ref="N18:O18" si="67">if(not(isblank($B18)), N17, "")</f>
         <v/>
       </c>
       <c r="O18" s="11" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="P18" s="11" t="str">
@@ -3924,7 +3924,7 @@
         <v/>
       </c>
       <c r="U18" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V18" s="14" t="str">
@@ -3950,11 +3950,11 @@
         <v/>
       </c>
       <c r="E19" s="11" t="str">
-        <f t="shared" ref="E19:F19" si="67">if(not(isblank($B19)), E18, "")</f>
+        <f t="shared" ref="E19:F19" si="68">if(not(isblank($B19)), E18, "")</f>
         <v/>
       </c>
       <c r="F19" s="11" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="G19" s="11" t="str">
@@ -3962,11 +3962,11 @@
         <v/>
       </c>
       <c r="H19" s="11" t="str">
-        <f t="shared" ref="H19:I19" si="68">if(not(isblank($B19)), H18, "")</f>
+        <f t="shared" ref="H19:I19" si="69">if(not(isblank($B19)), H18, "")</f>
         <v/>
       </c>
       <c r="I19" s="11" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J19" s="11" t="str">
@@ -3974,11 +3974,11 @@
         <v/>
       </c>
       <c r="K19" s="11" t="str">
-        <f t="shared" ref="K19:L19" si="69">if(not(isblank($B19)), K18, "")</f>
+        <f t="shared" ref="K19:L19" si="70">if(not(isblank($B19)), K18, "")</f>
         <v/>
       </c>
       <c r="L19" s="11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M19" s="11" t="str">
@@ -3986,11 +3986,11 @@
         <v/>
       </c>
       <c r="N19" s="11" t="str">
-        <f t="shared" ref="N19:O19" si="70">if(not(isblank($B19)), N18, "")</f>
+        <f t="shared" ref="N19:O19" si="71">if(not(isblank($B19)), N18, "")</f>
         <v/>
       </c>
       <c r="O19" s="11" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="P19" s="11" t="str">
@@ -4014,7 +4014,7 @@
         <v/>
       </c>
       <c r="U19" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V19" s="14" t="str">
@@ -4040,11 +4040,11 @@
         <v/>
       </c>
       <c r="E20" s="11" t="str">
-        <f t="shared" ref="E20:F20" si="71">if(not(isblank($B20)), E19, "")</f>
+        <f t="shared" ref="E20:F20" si="72">if(not(isblank($B20)), E19, "")</f>
         <v/>
       </c>
       <c r="F20" s="11" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G20" s="11" t="str">
@@ -4052,11 +4052,11 @@
         <v/>
       </c>
       <c r="H20" s="11" t="str">
-        <f t="shared" ref="H20:I20" si="72">if(not(isblank($B20)), H19, "")</f>
+        <f t="shared" ref="H20:I20" si="73">if(not(isblank($B20)), H19, "")</f>
         <v/>
       </c>
       <c r="I20" s="11" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J20" s="11" t="str">
@@ -4064,11 +4064,11 @@
         <v/>
       </c>
       <c r="K20" s="11" t="str">
-        <f t="shared" ref="K20:L20" si="73">if(not(isblank($B20)), K19, "")</f>
+        <f t="shared" ref="K20:L20" si="74">if(not(isblank($B20)), K19, "")</f>
         <v/>
       </c>
       <c r="L20" s="11" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M20" s="11" t="str">
@@ -4076,11 +4076,11 @@
         <v/>
       </c>
       <c r="N20" s="11" t="str">
-        <f t="shared" ref="N20:O20" si="74">if(not(isblank($B20)), N19, "")</f>
+        <f t="shared" ref="N20:O20" si="75">if(not(isblank($B20)), N19, "")</f>
         <v/>
       </c>
       <c r="O20" s="11" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="P20" s="11" t="str">
@@ -4104,7 +4104,7 @@
         <v/>
       </c>
       <c r="U20" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V20" s="14" t="str">
@@ -4130,11 +4130,11 @@
         <v/>
       </c>
       <c r="E21" s="11" t="str">
-        <f t="shared" ref="E21:F21" si="75">if(not(isblank($B21)), E20, "")</f>
+        <f t="shared" ref="E21:F21" si="76">if(not(isblank($B21)), E20, "")</f>
         <v/>
       </c>
       <c r="F21" s="11" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="G21" s="11" t="str">
@@ -4142,11 +4142,11 @@
         <v/>
       </c>
       <c r="H21" s="11" t="str">
-        <f t="shared" ref="H21:I21" si="76">if(not(isblank($B21)), H20, "")</f>
+        <f t="shared" ref="H21:I21" si="77">if(not(isblank($B21)), H20, "")</f>
         <v/>
       </c>
       <c r="I21" s="11" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J21" s="11" t="str">
@@ -4154,11 +4154,11 @@
         <v/>
       </c>
       <c r="K21" s="11" t="str">
-        <f t="shared" ref="K21:L21" si="77">if(not(isblank($B21)), K20, "")</f>
+        <f t="shared" ref="K21:L21" si="78">if(not(isblank($B21)), K20, "")</f>
         <v/>
       </c>
       <c r="L21" s="11" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="M21" s="11" t="str">
@@ -4166,11 +4166,11 @@
         <v/>
       </c>
       <c r="N21" s="11" t="str">
-        <f t="shared" ref="N21:O21" si="78">if(not(isblank($B21)), N20, "")</f>
+        <f t="shared" ref="N21:O21" si="79">if(not(isblank($B21)), N20, "")</f>
         <v/>
       </c>
       <c r="O21" s="11" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="P21" s="11" t="str">
@@ -4194,7 +4194,7 @@
         <v/>
       </c>
       <c r="U21" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V21" s="14" t="str">
@@ -4220,11 +4220,11 @@
         <v/>
       </c>
       <c r="E22" s="11" t="str">
-        <f t="shared" ref="E22:F22" si="79">if(not(isblank($B22)), E21, "")</f>
+        <f t="shared" ref="E22:F22" si="80">if(not(isblank($B22)), E21, "")</f>
         <v/>
       </c>
       <c r="F22" s="11" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="G22" s="11" t="str">
@@ -4232,11 +4232,11 @@
         <v/>
       </c>
       <c r="H22" s="11" t="str">
-        <f t="shared" ref="H22:I22" si="80">if(not(isblank($B22)), H21, "")</f>
+        <f t="shared" ref="H22:I22" si="81">if(not(isblank($B22)), H21, "")</f>
         <v/>
       </c>
       <c r="I22" s="11" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="J22" s="11" t="str">
@@ -4244,11 +4244,11 @@
         <v/>
       </c>
       <c r="K22" s="11" t="str">
-        <f t="shared" ref="K22:L22" si="81">if(not(isblank($B22)), K21, "")</f>
+        <f t="shared" ref="K22:L22" si="82">if(not(isblank($B22)), K21, "")</f>
         <v/>
       </c>
       <c r="L22" s="11" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="M22" s="11" t="str">
@@ -4256,11 +4256,11 @@
         <v/>
       </c>
       <c r="N22" s="11" t="str">
-        <f t="shared" ref="N22:O22" si="82">if(not(isblank($B22)), N21, "")</f>
+        <f t="shared" ref="N22:O22" si="83">if(not(isblank($B22)), N21, "")</f>
         <v/>
       </c>
       <c r="O22" s="11" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="P22" s="11" t="str">
@@ -4284,7 +4284,7 @@
         <v/>
       </c>
       <c r="U22" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V22" s="14" t="str">
@@ -4310,11 +4310,11 @@
         <v/>
       </c>
       <c r="E23" s="11" t="str">
-        <f t="shared" ref="E23:F23" si="83">if(not(isblank($B23)), E22, "")</f>
+        <f t="shared" ref="E23:F23" si="84">if(not(isblank($B23)), E22, "")</f>
         <v/>
       </c>
       <c r="F23" s="11" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="G23" s="11" t="str">
@@ -4322,11 +4322,11 @@
         <v/>
       </c>
       <c r="H23" s="11" t="str">
-        <f t="shared" ref="H23:I23" si="84">if(not(isblank($B23)), H22, "")</f>
+        <f t="shared" ref="H23:I23" si="85">if(not(isblank($B23)), H22, "")</f>
         <v/>
       </c>
       <c r="I23" s="11" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="J23" s="11" t="str">
@@ -4334,11 +4334,11 @@
         <v/>
       </c>
       <c r="K23" s="11" t="str">
-        <f t="shared" ref="K23:L23" si="85">if(not(isblank($B23)), K22, "")</f>
+        <f t="shared" ref="K23:L23" si="86">if(not(isblank($B23)), K22, "")</f>
         <v/>
       </c>
       <c r="L23" s="11" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="M23" s="11" t="str">
@@ -4346,11 +4346,11 @@
         <v/>
       </c>
       <c r="N23" s="11" t="str">
-        <f t="shared" ref="N23:O23" si="86">if(not(isblank($B23)), N22, "")</f>
+        <f t="shared" ref="N23:O23" si="87">if(not(isblank($B23)), N22, "")</f>
         <v/>
       </c>
       <c r="O23" s="11" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="P23" s="11" t="str">
@@ -4374,7 +4374,7 @@
         <v/>
       </c>
       <c r="U23" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V23" s="14" t="str">
@@ -4400,11 +4400,11 @@
         <v/>
       </c>
       <c r="E24" s="11" t="str">
-        <f t="shared" ref="E24:F24" si="87">if(not(isblank($B24)), E23, "")</f>
+        <f t="shared" ref="E24:F24" si="88">if(not(isblank($B24)), E23, "")</f>
         <v/>
       </c>
       <c r="F24" s="11" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="G24" s="11" t="str">
@@ -4412,11 +4412,11 @@
         <v/>
       </c>
       <c r="H24" s="11" t="str">
-        <f t="shared" ref="H24:I24" si="88">if(not(isblank($B24)), H23, "")</f>
+        <f t="shared" ref="H24:I24" si="89">if(not(isblank($B24)), H23, "")</f>
         <v/>
       </c>
       <c r="I24" s="11" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="J24" s="11" t="str">
@@ -4424,11 +4424,11 @@
         <v/>
       </c>
       <c r="K24" s="11" t="str">
-        <f t="shared" ref="K24:L24" si="89">if(not(isblank($B24)), K23, "")</f>
+        <f t="shared" ref="K24:L24" si="90">if(not(isblank($B24)), K23, "")</f>
         <v/>
       </c>
       <c r="L24" s="11" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="M24" s="11" t="str">
@@ -4436,11 +4436,11 @@
         <v/>
       </c>
       <c r="N24" s="11" t="str">
-        <f t="shared" ref="N24:O24" si="90">if(not(isblank($B24)), N23, "")</f>
+        <f t="shared" ref="N24:O24" si="91">if(not(isblank($B24)), N23, "")</f>
         <v/>
       </c>
       <c r="O24" s="11" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="P24" s="11" t="str">
@@ -4464,7 +4464,7 @@
         <v/>
       </c>
       <c r="U24" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V24" s="14" t="str">
@@ -4490,11 +4490,11 @@
         <v/>
       </c>
       <c r="E25" s="11" t="str">
-        <f t="shared" ref="E25:F25" si="91">if(not(isblank($B25)), E24, "")</f>
+        <f t="shared" ref="E25:F25" si="92">if(not(isblank($B25)), E24, "")</f>
         <v/>
       </c>
       <c r="F25" s="11" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="G25" s="11" t="str">
@@ -4502,11 +4502,11 @@
         <v/>
       </c>
       <c r="H25" s="11" t="str">
-        <f t="shared" ref="H25:I25" si="92">if(not(isblank($B25)), H24, "")</f>
+        <f t="shared" ref="H25:I25" si="93">if(not(isblank($B25)), H24, "")</f>
         <v/>
       </c>
       <c r="I25" s="11" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="J25" s="11" t="str">
@@ -4514,11 +4514,11 @@
         <v/>
       </c>
       <c r="K25" s="11" t="str">
-        <f t="shared" ref="K25:L25" si="93">if(not(isblank($B25)), K24, "")</f>
+        <f t="shared" ref="K25:L25" si="94">if(not(isblank($B25)), K24, "")</f>
         <v/>
       </c>
       <c r="L25" s="11" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="M25" s="11" t="str">
@@ -4526,11 +4526,11 @@
         <v/>
       </c>
       <c r="N25" s="11" t="str">
-        <f t="shared" ref="N25:O25" si="94">if(not(isblank($B25)), N24, "")</f>
+        <f t="shared" ref="N25:O25" si="95">if(not(isblank($B25)), N24, "")</f>
         <v/>
       </c>
       <c r="O25" s="11" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="P25" s="11" t="str">
@@ -4554,7 +4554,7 @@
         <v/>
       </c>
       <c r="U25" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V25" s="14" t="str">
@@ -4580,11 +4580,11 @@
         <v/>
       </c>
       <c r="E26" s="11" t="str">
-        <f t="shared" ref="E26:F26" si="95">if(not(isblank($B26)), E25, "")</f>
+        <f t="shared" ref="E26:F26" si="96">if(not(isblank($B26)), E25, "")</f>
         <v/>
       </c>
       <c r="F26" s="11" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="G26" s="11" t="str">
@@ -4592,11 +4592,11 @@
         <v/>
       </c>
       <c r="H26" s="11" t="str">
-        <f t="shared" ref="H26:I26" si="96">if(not(isblank($B26)), H25, "")</f>
+        <f t="shared" ref="H26:I26" si="97">if(not(isblank($B26)), H25, "")</f>
         <v/>
       </c>
       <c r="I26" s="11" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="J26" s="11" t="str">
@@ -4604,11 +4604,11 @@
         <v/>
       </c>
       <c r="K26" s="11" t="str">
-        <f t="shared" ref="K26:L26" si="97">if(not(isblank($B26)), K25, "")</f>
+        <f t="shared" ref="K26:L26" si="98">if(not(isblank($B26)), K25, "")</f>
         <v/>
       </c>
       <c r="L26" s="11" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="M26" s="11" t="str">
@@ -4616,11 +4616,11 @@
         <v/>
       </c>
       <c r="N26" s="11" t="str">
-        <f t="shared" ref="N26:O26" si="98">if(not(isblank($B26)), N25, "")</f>
+        <f t="shared" ref="N26:O26" si="99">if(not(isblank($B26)), N25, "")</f>
         <v/>
       </c>
       <c r="O26" s="11" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="P26" s="11" t="str">
@@ -4644,7 +4644,7 @@
         <v/>
       </c>
       <c r="U26" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V26" s="14" t="str">
@@ -4670,11 +4670,11 @@
         <v/>
       </c>
       <c r="E27" s="11" t="str">
-        <f t="shared" ref="E27:F27" si="99">if(not(isblank($B27)), E26, "")</f>
+        <f t="shared" ref="E27:F27" si="100">if(not(isblank($B27)), E26, "")</f>
         <v/>
       </c>
       <c r="F27" s="11" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="G27" s="11" t="str">
@@ -4682,11 +4682,11 @@
         <v/>
       </c>
       <c r="H27" s="11" t="str">
-        <f t="shared" ref="H27:I27" si="100">if(not(isblank($B27)), H26, "")</f>
+        <f t="shared" ref="H27:I27" si="101">if(not(isblank($B27)), H26, "")</f>
         <v/>
       </c>
       <c r="I27" s="11" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="J27" s="11" t="str">
@@ -4694,11 +4694,11 @@
         <v/>
       </c>
       <c r="K27" s="11" t="str">
-        <f t="shared" ref="K27:L27" si="101">if(not(isblank($B27)), K26, "")</f>
+        <f t="shared" ref="K27:L27" si="102">if(not(isblank($B27)), K26, "")</f>
         <v/>
       </c>
       <c r="L27" s="11" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="M27" s="11" t="str">
@@ -4706,11 +4706,11 @@
         <v/>
       </c>
       <c r="N27" s="11" t="str">
-        <f t="shared" ref="N27:O27" si="102">if(not(isblank($B27)), N26, "")</f>
+        <f t="shared" ref="N27:O27" si="103">if(not(isblank($B27)), N26, "")</f>
         <v/>
       </c>
       <c r="O27" s="11" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="P27" s="11" t="str">
@@ -4734,7 +4734,7 @@
         <v/>
       </c>
       <c r="U27" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V27" s="14" t="str">
@@ -4760,11 +4760,11 @@
         <v/>
       </c>
       <c r="E28" s="11" t="str">
-        <f t="shared" ref="E28:F28" si="103">if(not(isblank($B28)), E27, "")</f>
+        <f t="shared" ref="E28:F28" si="104">if(not(isblank($B28)), E27, "")</f>
         <v/>
       </c>
       <c r="F28" s="11" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="G28" s="11" t="str">
@@ -4772,11 +4772,11 @@
         <v/>
       </c>
       <c r="H28" s="11" t="str">
-        <f t="shared" ref="H28:I28" si="104">if(not(isblank($B28)), H27, "")</f>
+        <f t="shared" ref="H28:I28" si="105">if(not(isblank($B28)), H27, "")</f>
         <v/>
       </c>
       <c r="I28" s="11" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="J28" s="11" t="str">
@@ -4784,11 +4784,11 @@
         <v/>
       </c>
       <c r="K28" s="11" t="str">
-        <f t="shared" ref="K28:L28" si="105">if(not(isblank($B28)), K27, "")</f>
+        <f t="shared" ref="K28:L28" si="106">if(not(isblank($B28)), K27, "")</f>
         <v/>
       </c>
       <c r="L28" s="11" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="M28" s="11" t="str">
@@ -4796,11 +4796,11 @@
         <v/>
       </c>
       <c r="N28" s="11" t="str">
-        <f t="shared" ref="N28:O28" si="106">if(not(isblank($B28)), N27, "")</f>
+        <f t="shared" ref="N28:O28" si="107">if(not(isblank($B28)), N27, "")</f>
         <v/>
       </c>
       <c r="O28" s="11" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="P28" s="11" t="str">
@@ -4824,7 +4824,7 @@
         <v/>
       </c>
       <c r="U28" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V28" s="14" t="str">
@@ -4850,11 +4850,11 @@
         <v/>
       </c>
       <c r="E29" s="11" t="str">
-        <f t="shared" ref="E29:F29" si="107">if(not(isblank($B29)), E28, "")</f>
+        <f t="shared" ref="E29:F29" si="108">if(not(isblank($B29)), E28, "")</f>
         <v/>
       </c>
       <c r="F29" s="11" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="G29" s="11" t="str">
@@ -4862,11 +4862,11 @@
         <v/>
       </c>
       <c r="H29" s="11" t="str">
-        <f t="shared" ref="H29:I29" si="108">if(not(isblank($B29)), H28, "")</f>
+        <f t="shared" ref="H29:I29" si="109">if(not(isblank($B29)), H28, "")</f>
         <v/>
       </c>
       <c r="I29" s="11" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="J29" s="11" t="str">
@@ -4874,11 +4874,11 @@
         <v/>
       </c>
       <c r="K29" s="11" t="str">
-        <f t="shared" ref="K29:L29" si="109">if(not(isblank($B29)), K28, "")</f>
+        <f t="shared" ref="K29:L29" si="110">if(not(isblank($B29)), K28, "")</f>
         <v/>
       </c>
       <c r="L29" s="11" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="M29" s="11" t="str">
@@ -4886,11 +4886,11 @@
         <v/>
       </c>
       <c r="N29" s="11" t="str">
-        <f t="shared" ref="N29:O29" si="110">if(not(isblank($B29)), N28, "")</f>
+        <f t="shared" ref="N29:O29" si="111">if(not(isblank($B29)), N28, "")</f>
         <v/>
       </c>
       <c r="O29" s="11" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="P29" s="11" t="str">
@@ -4914,7 +4914,7 @@
         <v/>
       </c>
       <c r="U29" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V29" s="14" t="str">
@@ -4940,11 +4940,11 @@
         <v/>
       </c>
       <c r="E30" s="11" t="str">
-        <f t="shared" ref="E30:F30" si="111">if(not(isblank($B30)), E29, "")</f>
+        <f t="shared" ref="E30:F30" si="112">if(not(isblank($B30)), E29, "")</f>
         <v/>
       </c>
       <c r="F30" s="11" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="G30" s="11" t="str">
@@ -4952,11 +4952,11 @@
         <v/>
       </c>
       <c r="H30" s="11" t="str">
-        <f t="shared" ref="H30:I30" si="112">if(not(isblank($B30)), H29, "")</f>
+        <f t="shared" ref="H30:I30" si="113">if(not(isblank($B30)), H29, "")</f>
         <v/>
       </c>
       <c r="I30" s="11" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="J30" s="11" t="str">
@@ -4964,11 +4964,11 @@
         <v/>
       </c>
       <c r="K30" s="11" t="str">
-        <f t="shared" ref="K30:L30" si="113">if(not(isblank($B30)), K29, "")</f>
+        <f t="shared" ref="K30:L30" si="114">if(not(isblank($B30)), K29, "")</f>
         <v/>
       </c>
       <c r="L30" s="11" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="M30" s="11" t="str">
@@ -4976,11 +4976,11 @@
         <v/>
       </c>
       <c r="N30" s="11" t="str">
-        <f t="shared" ref="N30:O30" si="114">if(not(isblank($B30)), N29, "")</f>
+        <f t="shared" ref="N30:O30" si="115">if(not(isblank($B30)), N29, "")</f>
         <v/>
       </c>
       <c r="O30" s="11" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="P30" s="11" t="str">
@@ -5004,7 +5004,7 @@
         <v/>
       </c>
       <c r="U30" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V30" s="14" t="str">
@@ -5030,11 +5030,11 @@
         <v/>
       </c>
       <c r="E31" s="11" t="str">
-        <f t="shared" ref="E31:F31" si="115">if(not(isblank($B31)), E30, "")</f>
+        <f t="shared" ref="E31:F31" si="116">if(not(isblank($B31)), E30, "")</f>
         <v/>
       </c>
       <c r="F31" s="11" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="G31" s="11" t="str">
@@ -5042,11 +5042,11 @@
         <v/>
       </c>
       <c r="H31" s="11" t="str">
-        <f t="shared" ref="H31:I31" si="116">if(not(isblank($B31)), H30, "")</f>
+        <f t="shared" ref="H31:I31" si="117">if(not(isblank($B31)), H30, "")</f>
         <v/>
       </c>
       <c r="I31" s="11" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="J31" s="11" t="str">
@@ -5054,11 +5054,11 @@
         <v/>
       </c>
       <c r="K31" s="11" t="str">
-        <f t="shared" ref="K31:L31" si="117">if(not(isblank($B31)), K30, "")</f>
+        <f t="shared" ref="K31:L31" si="118">if(not(isblank($B31)), K30, "")</f>
         <v/>
       </c>
       <c r="L31" s="11" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v/>
       </c>
       <c r="M31" s="11" t="str">
@@ -5066,11 +5066,11 @@
         <v/>
       </c>
       <c r="N31" s="11" t="str">
-        <f t="shared" ref="N31:O31" si="118">if(not(isblank($B31)), N30, "")</f>
+        <f t="shared" ref="N31:O31" si="119">if(not(isblank($B31)), N30, "")</f>
         <v/>
       </c>
       <c r="O31" s="11" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="P31" s="11" t="str">
@@ -5094,7 +5094,7 @@
         <v/>
       </c>
       <c r="U31" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V31" s="14" t="str">
@@ -5120,11 +5120,11 @@
         <v/>
       </c>
       <c r="E32" s="11" t="str">
-        <f t="shared" ref="E32:F32" si="119">if(not(isblank($B32)), E31, "")</f>
+        <f t="shared" ref="E32:F32" si="120">if(not(isblank($B32)), E31, "")</f>
         <v/>
       </c>
       <c r="F32" s="11" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="G32" s="11" t="str">
@@ -5132,11 +5132,11 @@
         <v/>
       </c>
       <c r="H32" s="11" t="str">
-        <f t="shared" ref="H32:I32" si="120">if(not(isblank($B32)), H31, "")</f>
+        <f t="shared" ref="H32:I32" si="121">if(not(isblank($B32)), H31, "")</f>
         <v/>
       </c>
       <c r="I32" s="11" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="J32" s="11" t="str">
@@ -5144,11 +5144,11 @@
         <v/>
       </c>
       <c r="K32" s="11" t="str">
-        <f t="shared" ref="K32:L32" si="121">if(not(isblank($B32)), K31, "")</f>
+        <f t="shared" ref="K32:L32" si="122">if(not(isblank($B32)), K31, "")</f>
         <v/>
       </c>
       <c r="L32" s="11" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="M32" s="11" t="str">
@@ -5156,11 +5156,11 @@
         <v/>
       </c>
       <c r="N32" s="11" t="str">
-        <f t="shared" ref="N32:O32" si="122">if(not(isblank($B32)), N31, "")</f>
+        <f t="shared" ref="N32:O32" si="123">if(not(isblank($B32)), N31, "")</f>
         <v/>
       </c>
       <c r="O32" s="11" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="P32" s="11" t="str">
@@ -5184,7 +5184,7 @@
         <v/>
       </c>
       <c r="U32" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V32" s="14" t="str">
@@ -5210,11 +5210,11 @@
         <v/>
       </c>
       <c r="E33" s="11" t="str">
-        <f t="shared" ref="E33:F33" si="123">if(not(isblank($B33)), E32, "")</f>
+        <f t="shared" ref="E33:F33" si="124">if(not(isblank($B33)), E32, "")</f>
         <v/>
       </c>
       <c r="F33" s="11" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="G33" s="11" t="str">
@@ -5222,11 +5222,11 @@
         <v/>
       </c>
       <c r="H33" s="11" t="str">
-        <f t="shared" ref="H33:I33" si="124">if(not(isblank($B33)), H32, "")</f>
+        <f t="shared" ref="H33:I33" si="125">if(not(isblank($B33)), H32, "")</f>
         <v/>
       </c>
       <c r="I33" s="11" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="J33" s="11" t="str">
@@ -5234,11 +5234,11 @@
         <v/>
       </c>
       <c r="K33" s="11" t="str">
-        <f t="shared" ref="K33:L33" si="125">if(not(isblank($B33)), K32, "")</f>
+        <f t="shared" ref="K33:L33" si="126">if(not(isblank($B33)), K32, "")</f>
         <v/>
       </c>
       <c r="L33" s="11" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="M33" s="11" t="str">
@@ -5246,11 +5246,11 @@
         <v/>
       </c>
       <c r="N33" s="11" t="str">
-        <f t="shared" ref="N33:O33" si="126">if(not(isblank($B33)), N32, "")</f>
+        <f t="shared" ref="N33:O33" si="127">if(not(isblank($B33)), N32, "")</f>
         <v/>
       </c>
       <c r="O33" s="11" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="P33" s="11" t="str">
@@ -5274,7 +5274,7 @@
         <v/>
       </c>
       <c r="U33" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V33" s="14" t="str">
@@ -5300,11 +5300,11 @@
         <v/>
       </c>
       <c r="E34" s="11" t="str">
-        <f t="shared" ref="E34:F34" si="127">if(not(isblank($B34)), E33, "")</f>
+        <f t="shared" ref="E34:F34" si="128">if(not(isblank($B34)), E33, "")</f>
         <v/>
       </c>
       <c r="F34" s="11" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="G34" s="11" t="str">
@@ -5312,11 +5312,11 @@
         <v/>
       </c>
       <c r="H34" s="11" t="str">
-        <f t="shared" ref="H34:I34" si="128">if(not(isblank($B34)), H33, "")</f>
+        <f t="shared" ref="H34:I34" si="129">if(not(isblank($B34)), H33, "")</f>
         <v/>
       </c>
       <c r="I34" s="11" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="J34" s="11" t="str">
@@ -5324,11 +5324,11 @@
         <v/>
       </c>
       <c r="K34" s="11" t="str">
-        <f t="shared" ref="K34:L34" si="129">if(not(isblank($B34)), K33, "")</f>
+        <f t="shared" ref="K34:L34" si="130">if(not(isblank($B34)), K33, "")</f>
         <v/>
       </c>
       <c r="L34" s="11" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="M34" s="11" t="str">
@@ -5336,11 +5336,11 @@
         <v/>
       </c>
       <c r="N34" s="11" t="str">
-        <f t="shared" ref="N34:O34" si="130">if(not(isblank($B34)), N33, "")</f>
+        <f t="shared" ref="N34:O34" si="131">if(not(isblank($B34)), N33, "")</f>
         <v/>
       </c>
       <c r="O34" s="11" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="P34" s="11" t="str">
@@ -5364,7 +5364,7 @@
         <v/>
       </c>
       <c r="U34" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V34" s="14" t="str">
@@ -5390,11 +5390,11 @@
         <v/>
       </c>
       <c r="E35" s="11" t="str">
-        <f t="shared" ref="E35:F35" si="131">if(not(isblank($B35)), E34, "")</f>
+        <f t="shared" ref="E35:F35" si="132">if(not(isblank($B35)), E34, "")</f>
         <v/>
       </c>
       <c r="F35" s="11" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="G35" s="11" t="str">
@@ -5402,11 +5402,11 @@
         <v/>
       </c>
       <c r="H35" s="11" t="str">
-        <f t="shared" ref="H35:I35" si="132">if(not(isblank($B35)), H34, "")</f>
+        <f t="shared" ref="H35:I35" si="133">if(not(isblank($B35)), H34, "")</f>
         <v/>
       </c>
       <c r="I35" s="11" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="J35" s="11" t="str">
@@ -5414,11 +5414,11 @@
         <v/>
       </c>
       <c r="K35" s="11" t="str">
-        <f t="shared" ref="K35:L35" si="133">if(not(isblank($B35)), K34, "")</f>
+        <f t="shared" ref="K35:L35" si="134">if(not(isblank($B35)), K34, "")</f>
         <v/>
       </c>
       <c r="L35" s="11" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v/>
       </c>
       <c r="M35" s="11" t="str">
@@ -5426,11 +5426,11 @@
         <v/>
       </c>
       <c r="N35" s="11" t="str">
-        <f t="shared" ref="N35:O35" si="134">if(not(isblank($B35)), N34, "")</f>
+        <f t="shared" ref="N35:O35" si="135">if(not(isblank($B35)), N34, "")</f>
         <v/>
       </c>
       <c r="O35" s="11" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="P35" s="11" t="str">
@@ -5454,7 +5454,7 @@
         <v/>
       </c>
       <c r="U35" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V35" s="14" t="str">
@@ -5480,11 +5480,11 @@
         <v/>
       </c>
       <c r="E36" s="11" t="str">
-        <f t="shared" ref="E36:F36" si="135">if(not(isblank($B36)), E35, "")</f>
+        <f t="shared" ref="E36:F36" si="136">if(not(isblank($B36)), E35, "")</f>
         <v/>
       </c>
       <c r="F36" s="11" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v/>
       </c>
       <c r="G36" s="11" t="str">
@@ -5492,11 +5492,11 @@
         <v/>
       </c>
       <c r="H36" s="11" t="str">
-        <f t="shared" ref="H36:I36" si="136">if(not(isblank($B36)), H35, "")</f>
+        <f t="shared" ref="H36:I36" si="137">if(not(isblank($B36)), H35, "")</f>
         <v/>
       </c>
       <c r="I36" s="11" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v/>
       </c>
       <c r="J36" s="11" t="str">
@@ -5504,11 +5504,11 @@
         <v/>
       </c>
       <c r="K36" s="11" t="str">
-        <f t="shared" ref="K36:L36" si="137">if(not(isblank($B36)), K35, "")</f>
+        <f t="shared" ref="K36:L36" si="138">if(not(isblank($B36)), K35, "")</f>
         <v/>
       </c>
       <c r="L36" s="11" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="M36" s="11" t="str">
@@ -5516,11 +5516,11 @@
         <v/>
       </c>
       <c r="N36" s="11" t="str">
-        <f t="shared" ref="N36:O36" si="138">if(not(isblank($B36)), N35, "")</f>
+        <f t="shared" ref="N36:O36" si="139">if(not(isblank($B36)), N35, "")</f>
         <v/>
       </c>
       <c r="O36" s="11" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="P36" s="11" t="str">
@@ -5544,7 +5544,7 @@
         <v/>
       </c>
       <c r="U36" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V36" s="14" t="str">
@@ -5570,11 +5570,11 @@
         <v/>
       </c>
       <c r="E37" s="11" t="str">
-        <f t="shared" ref="E37:F37" si="139">if(not(isblank($B37)), E36, "")</f>
+        <f t="shared" ref="E37:F37" si="140">if(not(isblank($B37)), E36, "")</f>
         <v/>
       </c>
       <c r="F37" s="11" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="G37" s="11" t="str">
@@ -5582,11 +5582,11 @@
         <v/>
       </c>
       <c r="H37" s="11" t="str">
-        <f t="shared" ref="H37:I37" si="140">if(not(isblank($B37)), H36, "")</f>
+        <f t="shared" ref="H37:I37" si="141">if(not(isblank($B37)), H36, "")</f>
         <v/>
       </c>
       <c r="I37" s="11" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="J37" s="11" t="str">
@@ -5594,11 +5594,11 @@
         <v/>
       </c>
       <c r="K37" s="11" t="str">
-        <f t="shared" ref="K37:L37" si="141">if(not(isblank($B37)), K36, "")</f>
+        <f t="shared" ref="K37:L37" si="142">if(not(isblank($B37)), K36, "")</f>
         <v/>
       </c>
       <c r="L37" s="11" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="M37" s="11" t="str">
@@ -5606,11 +5606,11 @@
         <v/>
       </c>
       <c r="N37" s="11" t="str">
-        <f t="shared" ref="N37:O37" si="142">if(not(isblank($B37)), N36, "")</f>
+        <f t="shared" ref="N37:O37" si="143">if(not(isblank($B37)), N36, "")</f>
         <v/>
       </c>
       <c r="O37" s="11" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="P37" s="11" t="str">
@@ -5634,7 +5634,7 @@
         <v/>
       </c>
       <c r="U37" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V37" s="14" t="str">
@@ -5660,11 +5660,11 @@
         <v/>
       </c>
       <c r="E38" s="11" t="str">
-        <f t="shared" ref="E38:F38" si="143">if(not(isblank($B38)), E37, "")</f>
+        <f t="shared" ref="E38:F38" si="144">if(not(isblank($B38)), E37, "")</f>
         <v/>
       </c>
       <c r="F38" s="11" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="G38" s="11" t="str">
@@ -5672,11 +5672,11 @@
         <v/>
       </c>
       <c r="H38" s="11" t="str">
-        <f t="shared" ref="H38:I38" si="144">if(not(isblank($B38)), H37, "")</f>
+        <f t="shared" ref="H38:I38" si="145">if(not(isblank($B38)), H37, "")</f>
         <v/>
       </c>
       <c r="I38" s="11" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="J38" s="11" t="str">
@@ -5684,11 +5684,11 @@
         <v/>
       </c>
       <c r="K38" s="11" t="str">
-        <f t="shared" ref="K38:L38" si="145">if(not(isblank($B38)), K37, "")</f>
+        <f t="shared" ref="K38:L38" si="146">if(not(isblank($B38)), K37, "")</f>
         <v/>
       </c>
       <c r="L38" s="11" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="M38" s="11" t="str">
@@ -5696,11 +5696,11 @@
         <v/>
       </c>
       <c r="N38" s="11" t="str">
-        <f t="shared" ref="N38:O38" si="146">if(not(isblank($B38)), N37, "")</f>
+        <f t="shared" ref="N38:O38" si="147">if(not(isblank($B38)), N37, "")</f>
         <v/>
       </c>
       <c r="O38" s="11" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="P38" s="11" t="str">
@@ -5724,7 +5724,7 @@
         <v/>
       </c>
       <c r="U38" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V38" s="14" t="str">
@@ -5750,11 +5750,11 @@
         <v/>
       </c>
       <c r="E39" s="11" t="str">
-        <f t="shared" ref="E39:F39" si="147">if(not(isblank($B39)), E38, "")</f>
+        <f t="shared" ref="E39:F39" si="148">if(not(isblank($B39)), E38, "")</f>
         <v/>
       </c>
       <c r="F39" s="11" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v/>
       </c>
       <c r="G39" s="11" t="str">
@@ -5762,11 +5762,11 @@
         <v/>
       </c>
       <c r="H39" s="11" t="str">
-        <f t="shared" ref="H39:I39" si="148">if(not(isblank($B39)), H38, "")</f>
+        <f t="shared" ref="H39:I39" si="149">if(not(isblank($B39)), H38, "")</f>
         <v/>
       </c>
       <c r="I39" s="11" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v/>
       </c>
       <c r="J39" s="11" t="str">
@@ -5774,11 +5774,11 @@
         <v/>
       </c>
       <c r="K39" s="11" t="str">
-        <f t="shared" ref="K39:L39" si="149">if(not(isblank($B39)), K38, "")</f>
+        <f t="shared" ref="K39:L39" si="150">if(not(isblank($B39)), K38, "")</f>
         <v/>
       </c>
       <c r="L39" s="11" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="M39" s="11" t="str">
@@ -5786,11 +5786,11 @@
         <v/>
       </c>
       <c r="N39" s="11" t="str">
-        <f t="shared" ref="N39:O39" si="150">if(not(isblank($B39)), N38, "")</f>
+        <f t="shared" ref="N39:O39" si="151">if(not(isblank($B39)), N38, "")</f>
         <v/>
       </c>
       <c r="O39" s="11" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v/>
       </c>
       <c r="P39" s="11" t="str">
@@ -5814,7 +5814,7 @@
         <v/>
       </c>
       <c r="U39" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V39" s="14" t="str">
@@ -5840,11 +5840,11 @@
         <v/>
       </c>
       <c r="E40" s="11" t="str">
-        <f t="shared" ref="E40:F40" si="151">if(not(isblank($B40)), E39, "")</f>
+        <f t="shared" ref="E40:F40" si="152">if(not(isblank($B40)), E39, "")</f>
         <v/>
       </c>
       <c r="F40" s="11" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="G40" s="11" t="str">
@@ -5852,11 +5852,11 @@
         <v/>
       </c>
       <c r="H40" s="11" t="str">
-        <f t="shared" ref="H40:I40" si="152">if(not(isblank($B40)), H39, "")</f>
+        <f t="shared" ref="H40:I40" si="153">if(not(isblank($B40)), H39, "")</f>
         <v/>
       </c>
       <c r="I40" s="11" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="J40" s="11" t="str">
@@ -5864,11 +5864,11 @@
         <v/>
       </c>
       <c r="K40" s="11" t="str">
-        <f t="shared" ref="K40:L40" si="153">if(not(isblank($B40)), K39, "")</f>
+        <f t="shared" ref="K40:L40" si="154">if(not(isblank($B40)), K39, "")</f>
         <v/>
       </c>
       <c r="L40" s="11" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v/>
       </c>
       <c r="M40" s="11" t="str">
@@ -5876,11 +5876,11 @@
         <v/>
       </c>
       <c r="N40" s="11" t="str">
-        <f t="shared" ref="N40:O40" si="154">if(not(isblank($B40)), N39, "")</f>
+        <f t="shared" ref="N40:O40" si="155">if(not(isblank($B40)), N39, "")</f>
         <v/>
       </c>
       <c r="O40" s="11" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v/>
       </c>
       <c r="P40" s="11" t="str">
@@ -5904,7 +5904,7 @@
         <v/>
       </c>
       <c r="U40" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V40" s="14" t="str">
@@ -5930,11 +5930,11 @@
         <v/>
       </c>
       <c r="E41" s="11" t="str">
-        <f t="shared" ref="E41:F41" si="155">if(not(isblank($B41)), E40, "")</f>
+        <f t="shared" ref="E41:F41" si="156">if(not(isblank($B41)), E40, "")</f>
         <v/>
       </c>
       <c r="F41" s="11" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v/>
       </c>
       <c r="G41" s="11" t="str">
@@ -5942,11 +5942,11 @@
         <v/>
       </c>
       <c r="H41" s="11" t="str">
-        <f t="shared" ref="H41:I41" si="156">if(not(isblank($B41)), H40, "")</f>
+        <f t="shared" ref="H41:I41" si="157">if(not(isblank($B41)), H40, "")</f>
         <v/>
       </c>
       <c r="I41" s="11" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v/>
       </c>
       <c r="J41" s="11" t="str">
@@ -5954,11 +5954,11 @@
         <v/>
       </c>
       <c r="K41" s="11" t="str">
-        <f t="shared" ref="K41:L41" si="157">if(not(isblank($B41)), K40, "")</f>
+        <f t="shared" ref="K41:L41" si="158">if(not(isblank($B41)), K40, "")</f>
         <v/>
       </c>
       <c r="L41" s="11" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="M41" s="11" t="str">
@@ -5966,11 +5966,11 @@
         <v/>
       </c>
       <c r="N41" s="11" t="str">
-        <f t="shared" ref="N41:O41" si="158">if(not(isblank($B41)), N40, "")</f>
+        <f t="shared" ref="N41:O41" si="159">if(not(isblank($B41)), N40, "")</f>
         <v/>
       </c>
       <c r="O41" s="11" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v/>
       </c>
       <c r="P41" s="11" t="str">
@@ -5994,7 +5994,7 @@
         <v/>
       </c>
       <c r="U41" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V41" s="14" t="str">
@@ -6020,11 +6020,11 @@
         <v/>
       </c>
       <c r="E42" s="11" t="str">
-        <f t="shared" ref="E42:F42" si="159">if(not(isblank($B42)), E41, "")</f>
+        <f t="shared" ref="E42:F42" si="160">if(not(isblank($B42)), E41, "")</f>
         <v/>
       </c>
       <c r="F42" s="11" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v/>
       </c>
       <c r="G42" s="11" t="str">
@@ -6032,11 +6032,11 @@
         <v/>
       </c>
       <c r="H42" s="11" t="str">
-        <f t="shared" ref="H42:I42" si="160">if(not(isblank($B42)), H41, "")</f>
+        <f t="shared" ref="H42:I42" si="161">if(not(isblank($B42)), H41, "")</f>
         <v/>
       </c>
       <c r="I42" s="11" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="J42" s="11" t="str">
@@ -6044,11 +6044,11 @@
         <v/>
       </c>
       <c r="K42" s="11" t="str">
-        <f t="shared" ref="K42:L42" si="161">if(not(isblank($B42)), K41, "")</f>
+        <f t="shared" ref="K42:L42" si="162">if(not(isblank($B42)), K41, "")</f>
         <v/>
       </c>
       <c r="L42" s="11" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v/>
       </c>
       <c r="M42" s="11" t="str">
@@ -6056,11 +6056,11 @@
         <v/>
       </c>
       <c r="N42" s="11" t="str">
-        <f t="shared" ref="N42:O42" si="162">if(not(isblank($B42)), N41, "")</f>
+        <f t="shared" ref="N42:O42" si="163">if(not(isblank($B42)), N41, "")</f>
         <v/>
       </c>
       <c r="O42" s="11" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v/>
       </c>
       <c r="P42" s="11" t="str">
@@ -6084,7 +6084,7 @@
         <v/>
       </c>
       <c r="U42" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V42" s="14" t="str">
@@ -6110,11 +6110,11 @@
         <v/>
       </c>
       <c r="E43" s="11" t="str">
-        <f t="shared" ref="E43:F43" si="163">if(not(isblank($B43)), E42, "")</f>
+        <f t="shared" ref="E43:F43" si="164">if(not(isblank($B43)), E42, "")</f>
         <v/>
       </c>
       <c r="F43" s="11" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v/>
       </c>
       <c r="G43" s="11" t="str">
@@ -6122,11 +6122,11 @@
         <v/>
       </c>
       <c r="H43" s="11" t="str">
-        <f t="shared" ref="H43:I43" si="164">if(not(isblank($B43)), H42, "")</f>
+        <f t="shared" ref="H43:I43" si="165">if(not(isblank($B43)), H42, "")</f>
         <v/>
       </c>
       <c r="I43" s="11" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v/>
       </c>
       <c r="J43" s="11" t="str">
@@ -6134,11 +6134,11 @@
         <v/>
       </c>
       <c r="K43" s="11" t="str">
-        <f t="shared" ref="K43:L43" si="165">if(not(isblank($B43)), K42, "")</f>
+        <f t="shared" ref="K43:L43" si="166">if(not(isblank($B43)), K42, "")</f>
         <v/>
       </c>
       <c r="L43" s="11" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="M43" s="11" t="str">
@@ -6146,11 +6146,11 @@
         <v/>
       </c>
       <c r="N43" s="11" t="str">
-        <f t="shared" ref="N43:O43" si="166">if(not(isblank($B43)), N42, "")</f>
+        <f t="shared" ref="N43:O43" si="167">if(not(isblank($B43)), N42, "")</f>
         <v/>
       </c>
       <c r="O43" s="11" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="P43" s="11" t="str">
@@ -6174,7 +6174,7 @@
         <v/>
       </c>
       <c r="U43" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V43" s="14" t="str">
@@ -6200,11 +6200,11 @@
         <v/>
       </c>
       <c r="E44" s="11" t="str">
-        <f t="shared" ref="E44:F44" si="167">if(not(isblank($B44)), E43, "")</f>
+        <f t="shared" ref="E44:F44" si="168">if(not(isblank($B44)), E43, "")</f>
         <v/>
       </c>
       <c r="F44" s="11" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v/>
       </c>
       <c r="G44" s="11" t="str">
@@ -6212,11 +6212,11 @@
         <v/>
       </c>
       <c r="H44" s="11" t="str">
-        <f t="shared" ref="H44:I44" si="168">if(not(isblank($B44)), H43, "")</f>
+        <f t="shared" ref="H44:I44" si="169">if(not(isblank($B44)), H43, "")</f>
         <v/>
       </c>
       <c r="I44" s="11" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v/>
       </c>
       <c r="J44" s="11" t="str">
@@ -6224,11 +6224,11 @@
         <v/>
       </c>
       <c r="K44" s="11" t="str">
-        <f t="shared" ref="K44:L44" si="169">if(not(isblank($B44)), K43, "")</f>
+        <f t="shared" ref="K44:L44" si="170">if(not(isblank($B44)), K43, "")</f>
         <v/>
       </c>
       <c r="L44" s="11" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
       <c r="M44" s="11" t="str">
@@ -6236,11 +6236,11 @@
         <v/>
       </c>
       <c r="N44" s="11" t="str">
-        <f t="shared" ref="N44:O44" si="170">if(not(isblank($B44)), N43, "")</f>
+        <f t="shared" ref="N44:O44" si="171">if(not(isblank($B44)), N43, "")</f>
         <v/>
       </c>
       <c r="O44" s="11" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v/>
       </c>
       <c r="P44" s="11" t="str">
@@ -6264,7 +6264,7 @@
         <v/>
       </c>
       <c r="U44" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V44" s="14" t="str">
@@ -6290,11 +6290,11 @@
         <v/>
       </c>
       <c r="E45" s="11" t="str">
-        <f t="shared" ref="E45:F45" si="171">if(not(isblank($B45)), E44, "")</f>
+        <f t="shared" ref="E45:F45" si="172">if(not(isblank($B45)), E44, "")</f>
         <v/>
       </c>
       <c r="F45" s="11" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v/>
       </c>
       <c r="G45" s="11" t="str">
@@ -6302,11 +6302,11 @@
         <v/>
       </c>
       <c r="H45" s="11" t="str">
-        <f t="shared" ref="H45:I45" si="172">if(not(isblank($B45)), H44, "")</f>
+        <f t="shared" ref="H45:I45" si="173">if(not(isblank($B45)), H44, "")</f>
         <v/>
       </c>
       <c r="I45" s="11" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="J45" s="11" t="str">
@@ -6314,11 +6314,11 @@
         <v/>
       </c>
       <c r="K45" s="11" t="str">
-        <f t="shared" ref="K45:L45" si="173">if(not(isblank($B45)), K44, "")</f>
+        <f t="shared" ref="K45:L45" si="174">if(not(isblank($B45)), K44, "")</f>
         <v/>
       </c>
       <c r="L45" s="11" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v/>
       </c>
       <c r="M45" s="11" t="str">
@@ -6326,11 +6326,11 @@
         <v/>
       </c>
       <c r="N45" s="11" t="str">
-        <f t="shared" ref="N45:O45" si="174">if(not(isblank($B45)), N44, "")</f>
+        <f t="shared" ref="N45:O45" si="175">if(not(isblank($B45)), N44, "")</f>
         <v/>
       </c>
       <c r="O45" s="11" t="str">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v/>
       </c>
       <c r="P45" s="11" t="str">
@@ -6354,7 +6354,7 @@
         <v/>
       </c>
       <c r="U45" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V45" s="14" t="str">
@@ -6380,11 +6380,11 @@
         <v/>
       </c>
       <c r="E46" s="11" t="str">
-        <f t="shared" ref="E46:F46" si="175">if(not(isblank($B46)), E45, "")</f>
+        <f t="shared" ref="E46:F46" si="176">if(not(isblank($B46)), E45, "")</f>
         <v/>
       </c>
       <c r="F46" s="11" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v/>
       </c>
       <c r="G46" s="11" t="str">
@@ -6392,11 +6392,11 @@
         <v/>
       </c>
       <c r="H46" s="11" t="str">
-        <f t="shared" ref="H46:I46" si="176">if(not(isblank($B46)), H45, "")</f>
+        <f t="shared" ref="H46:I46" si="177">if(not(isblank($B46)), H45, "")</f>
         <v/>
       </c>
       <c r="I46" s="11" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v/>
       </c>
       <c r="J46" s="11" t="str">
@@ -6404,11 +6404,11 @@
         <v/>
       </c>
       <c r="K46" s="11" t="str">
-        <f t="shared" ref="K46:L46" si="177">if(not(isblank($B46)), K45, "")</f>
+        <f t="shared" ref="K46:L46" si="178">if(not(isblank($B46)), K45, "")</f>
         <v/>
       </c>
       <c r="L46" s="11" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v/>
       </c>
       <c r="M46" s="11" t="str">
@@ -6416,11 +6416,11 @@
         <v/>
       </c>
       <c r="N46" s="11" t="str">
-        <f t="shared" ref="N46:O46" si="178">if(not(isblank($B46)), N45, "")</f>
+        <f t="shared" ref="N46:O46" si="179">if(not(isblank($B46)), N45, "")</f>
         <v/>
       </c>
       <c r="O46" s="11" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v/>
       </c>
       <c r="P46" s="11" t="str">
@@ -6444,7 +6444,7 @@
         <v/>
       </c>
       <c r="U46" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V46" s="14" t="str">
@@ -6470,11 +6470,11 @@
         <v/>
       </c>
       <c r="E47" s="11" t="str">
-        <f t="shared" ref="E47:F47" si="179">if(not(isblank($B47)), E46, "")</f>
+        <f t="shared" ref="E47:F47" si="180">if(not(isblank($B47)), E46, "")</f>
         <v/>
       </c>
       <c r="F47" s="11" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v/>
       </c>
       <c r="G47" s="11" t="str">
@@ -6482,11 +6482,11 @@
         <v/>
       </c>
       <c r="H47" s="11" t="str">
-        <f t="shared" ref="H47:I47" si="180">if(not(isblank($B47)), H46, "")</f>
+        <f t="shared" ref="H47:I47" si="181">if(not(isblank($B47)), H46, "")</f>
         <v/>
       </c>
       <c r="I47" s="11" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v/>
       </c>
       <c r="J47" s="11" t="str">
@@ -6494,11 +6494,11 @@
         <v/>
       </c>
       <c r="K47" s="11" t="str">
-        <f t="shared" ref="K47:L47" si="181">if(not(isblank($B47)), K46, "")</f>
+        <f t="shared" ref="K47:L47" si="182">if(not(isblank($B47)), K46, "")</f>
         <v/>
       </c>
       <c r="L47" s="11" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v/>
       </c>
       <c r="M47" s="11" t="str">
@@ -6506,11 +6506,11 @@
         <v/>
       </c>
       <c r="N47" s="11" t="str">
-        <f t="shared" ref="N47:O47" si="182">if(not(isblank($B47)), N46, "")</f>
+        <f t="shared" ref="N47:O47" si="183">if(not(isblank($B47)), N46, "")</f>
         <v/>
       </c>
       <c r="O47" s="11" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v/>
       </c>
       <c r="P47" s="11" t="str">
@@ -6534,7 +6534,7 @@
         <v/>
       </c>
       <c r="U47" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V47" s="14" t="str">
@@ -6560,11 +6560,11 @@
         <v/>
       </c>
       <c r="E48" s="11" t="str">
-        <f t="shared" ref="E48:F48" si="183">if(not(isblank($B48)), E47, "")</f>
+        <f t="shared" ref="E48:F48" si="184">if(not(isblank($B48)), E47, "")</f>
         <v/>
       </c>
       <c r="F48" s="11" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v/>
       </c>
       <c r="G48" s="11" t="str">
@@ -6572,11 +6572,11 @@
         <v/>
       </c>
       <c r="H48" s="11" t="str">
-        <f t="shared" ref="H48:I48" si="184">if(not(isblank($B48)), H47, "")</f>
+        <f t="shared" ref="H48:I48" si="185">if(not(isblank($B48)), H47, "")</f>
         <v/>
       </c>
       <c r="I48" s="11" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v/>
       </c>
       <c r="J48" s="11" t="str">
@@ -6584,11 +6584,11 @@
         <v/>
       </c>
       <c r="K48" s="11" t="str">
-        <f t="shared" ref="K48:L48" si="185">if(not(isblank($B48)), K47, "")</f>
+        <f t="shared" ref="K48:L48" si="186">if(not(isblank($B48)), K47, "")</f>
         <v/>
       </c>
       <c r="L48" s="11" t="str">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v/>
       </c>
       <c r="M48" s="11" t="str">
@@ -6596,11 +6596,11 @@
         <v/>
       </c>
       <c r="N48" s="11" t="str">
-        <f t="shared" ref="N48:O48" si="186">if(not(isblank($B48)), N47, "")</f>
+        <f t="shared" ref="N48:O48" si="187">if(not(isblank($B48)), N47, "")</f>
         <v/>
       </c>
       <c r="O48" s="11" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
       <c r="P48" s="11" t="str">
@@ -6624,7 +6624,7 @@
         <v/>
       </c>
       <c r="U48" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V48" s="14" t="str">
@@ -6650,11 +6650,11 @@
         <v/>
       </c>
       <c r="E49" s="11" t="str">
-        <f t="shared" ref="E49:F49" si="187">if(not(isblank($B49)), E48, "")</f>
+        <f t="shared" ref="E49:F49" si="188">if(not(isblank($B49)), E48, "")</f>
         <v/>
       </c>
       <c r="F49" s="11" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v/>
       </c>
       <c r="G49" s="11" t="str">
@@ -6662,11 +6662,11 @@
         <v/>
       </c>
       <c r="H49" s="11" t="str">
-        <f t="shared" ref="H49:I49" si="188">if(not(isblank($B49)), H48, "")</f>
+        <f t="shared" ref="H49:I49" si="189">if(not(isblank($B49)), H48, "")</f>
         <v/>
       </c>
       <c r="I49" s="11" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v/>
       </c>
       <c r="J49" s="11" t="str">
@@ -6674,11 +6674,11 @@
         <v/>
       </c>
       <c r="K49" s="11" t="str">
-        <f t="shared" ref="K49:L49" si="189">if(not(isblank($B49)), K48, "")</f>
+        <f t="shared" ref="K49:L49" si="190">if(not(isblank($B49)), K48, "")</f>
         <v/>
       </c>
       <c r="L49" s="11" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v/>
       </c>
       <c r="M49" s="11" t="str">
@@ -6686,11 +6686,11 @@
         <v/>
       </c>
       <c r="N49" s="11" t="str">
-        <f t="shared" ref="N49:O49" si="190">if(not(isblank($B49)), N48, "")</f>
+        <f t="shared" ref="N49:O49" si="191">if(not(isblank($B49)), N48, "")</f>
         <v/>
       </c>
       <c r="O49" s="11" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
       <c r="P49" s="11" t="str">
@@ -6714,7 +6714,7 @@
         <v/>
       </c>
       <c r="U49" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V49" s="14" t="str">
@@ -6740,11 +6740,11 @@
         <v/>
       </c>
       <c r="E50" s="11" t="str">
-        <f t="shared" ref="E50:F50" si="191">if(not(isblank($B50)), E49, "")</f>
+        <f t="shared" ref="E50:F50" si="192">if(not(isblank($B50)), E49, "")</f>
         <v/>
       </c>
       <c r="F50" s="11" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v/>
       </c>
       <c r="G50" s="11" t="str">
@@ -6752,11 +6752,11 @@
         <v/>
       </c>
       <c r="H50" s="11" t="str">
-        <f t="shared" ref="H50:I50" si="192">if(not(isblank($B50)), H49, "")</f>
+        <f t="shared" ref="H50:I50" si="193">if(not(isblank($B50)), H49, "")</f>
         <v/>
       </c>
       <c r="I50" s="11" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v/>
       </c>
       <c r="J50" s="11" t="str">
@@ -6764,11 +6764,11 @@
         <v/>
       </c>
       <c r="K50" s="11" t="str">
-        <f t="shared" ref="K50:L50" si="193">if(not(isblank($B50)), K49, "")</f>
+        <f t="shared" ref="K50:L50" si="194">if(not(isblank($B50)), K49, "")</f>
         <v/>
       </c>
       <c r="L50" s="11" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v/>
       </c>
       <c r="M50" s="11" t="str">
@@ -6776,11 +6776,11 @@
         <v/>
       </c>
       <c r="N50" s="11" t="str">
-        <f t="shared" ref="N50:O50" si="194">if(not(isblank($B50)), N49, "")</f>
+        <f t="shared" ref="N50:O50" si="195">if(not(isblank($B50)), N49, "")</f>
         <v/>
       </c>
       <c r="O50" s="11" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v/>
       </c>
       <c r="P50" s="11" t="str">
@@ -6804,7 +6804,7 @@
         <v/>
       </c>
       <c r="U50" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V50" s="14" t="str">
@@ -6830,11 +6830,11 @@
         <v/>
       </c>
       <c r="E51" s="11" t="str">
-        <f t="shared" ref="E51:F51" si="195">if(not(isblank($B51)), E50, "")</f>
+        <f t="shared" ref="E51:F51" si="196">if(not(isblank($B51)), E50, "")</f>
         <v/>
       </c>
       <c r="F51" s="11" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v/>
       </c>
       <c r="G51" s="11" t="str">
@@ -6842,11 +6842,11 @@
         <v/>
       </c>
       <c r="H51" s="11" t="str">
-        <f t="shared" ref="H51:I51" si="196">if(not(isblank($B51)), H50, "")</f>
+        <f t="shared" ref="H51:I51" si="197">if(not(isblank($B51)), H50, "")</f>
         <v/>
       </c>
       <c r="I51" s="11" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v/>
       </c>
       <c r="J51" s="11" t="str">
@@ -6854,11 +6854,11 @@
         <v/>
       </c>
       <c r="K51" s="11" t="str">
-        <f t="shared" ref="K51:L51" si="197">if(not(isblank($B51)), K50, "")</f>
+        <f t="shared" ref="K51:L51" si="198">if(not(isblank($B51)), K50, "")</f>
         <v/>
       </c>
       <c r="L51" s="11" t="str">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v/>
       </c>
       <c r="M51" s="11" t="str">
@@ -6866,11 +6866,11 @@
         <v/>
       </c>
       <c r="N51" s="11" t="str">
-        <f t="shared" ref="N51:O51" si="198">if(not(isblank($B51)), N50, "")</f>
+        <f t="shared" ref="N51:O51" si="199">if(not(isblank($B51)), N50, "")</f>
         <v/>
       </c>
       <c r="O51" s="11" t="str">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v/>
       </c>
       <c r="P51" s="11" t="str">
@@ -6894,7 +6894,7 @@
         <v/>
       </c>
       <c r="U51" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V51" s="14" t="str">
@@ -6920,11 +6920,11 @@
         <v/>
       </c>
       <c r="E52" s="11" t="str">
-        <f t="shared" ref="E52:F52" si="199">if(not(isblank($B52)), E51, "")</f>
+        <f t="shared" ref="E52:F52" si="200">if(not(isblank($B52)), E51, "")</f>
         <v/>
       </c>
       <c r="F52" s="11" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v/>
       </c>
       <c r="G52" s="11" t="str">
@@ -6932,11 +6932,11 @@
         <v/>
       </c>
       <c r="H52" s="11" t="str">
-        <f t="shared" ref="H52:I52" si="200">if(not(isblank($B52)), H51, "")</f>
+        <f t="shared" ref="H52:I52" si="201">if(not(isblank($B52)), H51, "")</f>
         <v/>
       </c>
       <c r="I52" s="11" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v/>
       </c>
       <c r="J52" s="11" t="str">
@@ -6944,11 +6944,11 @@
         <v/>
       </c>
       <c r="K52" s="11" t="str">
-        <f t="shared" ref="K52:L52" si="201">if(not(isblank($B52)), K51, "")</f>
+        <f t="shared" ref="K52:L52" si="202">if(not(isblank($B52)), K51, "")</f>
         <v/>
       </c>
       <c r="L52" s="11" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v/>
       </c>
       <c r="M52" s="11" t="str">
@@ -6956,11 +6956,11 @@
         <v/>
       </c>
       <c r="N52" s="11" t="str">
-        <f t="shared" ref="N52:O52" si="202">if(not(isblank($B52)), N51, "")</f>
+        <f t="shared" ref="N52:O52" si="203">if(not(isblank($B52)), N51, "")</f>
         <v/>
       </c>
       <c r="O52" s="11" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="P52" s="11" t="str">
@@ -6984,7 +6984,7 @@
         <v/>
       </c>
       <c r="U52" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V52" s="14" t="str">
@@ -7010,11 +7010,11 @@
         <v/>
       </c>
       <c r="E53" s="11" t="str">
-        <f t="shared" ref="E53:F53" si="203">if(not(isblank($B53)), E52, "")</f>
+        <f t="shared" ref="E53:F53" si="204">if(not(isblank($B53)), E52, "")</f>
         <v/>
       </c>
       <c r="F53" s="11" t="str">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v/>
       </c>
       <c r="G53" s="11" t="str">
@@ -7022,11 +7022,11 @@
         <v/>
       </c>
       <c r="H53" s="11" t="str">
-        <f t="shared" ref="H53:I53" si="204">if(not(isblank($B53)), H52, "")</f>
+        <f t="shared" ref="H53:I53" si="205">if(not(isblank($B53)), H52, "")</f>
         <v/>
       </c>
       <c r="I53" s="11" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v/>
       </c>
       <c r="J53" s="11" t="str">
@@ -7034,11 +7034,11 @@
         <v/>
       </c>
       <c r="K53" s="11" t="str">
-        <f t="shared" ref="K53:L53" si="205">if(not(isblank($B53)), K52, "")</f>
+        <f t="shared" ref="K53:L53" si="206">if(not(isblank($B53)), K52, "")</f>
         <v/>
       </c>
       <c r="L53" s="11" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v/>
       </c>
       <c r="M53" s="11" t="str">
@@ -7046,11 +7046,11 @@
         <v/>
       </c>
       <c r="N53" s="11" t="str">
-        <f t="shared" ref="N53:O53" si="206">if(not(isblank($B53)), N52, "")</f>
+        <f t="shared" ref="N53:O53" si="207">if(not(isblank($B53)), N52, "")</f>
         <v/>
       </c>
       <c r="O53" s="11" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v/>
       </c>
       <c r="P53" s="11" t="str">
@@ -7074,7 +7074,7 @@
         <v/>
       </c>
       <c r="U53" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V53" s="14" t="str">
@@ -7100,11 +7100,11 @@
         <v/>
       </c>
       <c r="E54" s="11" t="str">
-        <f t="shared" ref="E54:F54" si="207">if(not(isblank($B54)), E53, "")</f>
+        <f t="shared" ref="E54:F54" si="208">if(not(isblank($B54)), E53, "")</f>
         <v/>
       </c>
       <c r="F54" s="11" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v/>
       </c>
       <c r="G54" s="11" t="str">
@@ -7112,11 +7112,11 @@
         <v/>
       </c>
       <c r="H54" s="11" t="str">
-        <f t="shared" ref="H54:I54" si="208">if(not(isblank($B54)), H53, "")</f>
+        <f t="shared" ref="H54:I54" si="209">if(not(isblank($B54)), H53, "")</f>
         <v/>
       </c>
       <c r="I54" s="11" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v/>
       </c>
       <c r="J54" s="11" t="str">
@@ -7124,11 +7124,11 @@
         <v/>
       </c>
       <c r="K54" s="11" t="str">
-        <f t="shared" ref="K54:L54" si="209">if(not(isblank($B54)), K53, "")</f>
+        <f t="shared" ref="K54:L54" si="210">if(not(isblank($B54)), K53, "")</f>
         <v/>
       </c>
       <c r="L54" s="11" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v/>
       </c>
       <c r="M54" s="11" t="str">
@@ -7136,11 +7136,11 @@
         <v/>
       </c>
       <c r="N54" s="11" t="str">
-        <f t="shared" ref="N54:O54" si="210">if(not(isblank($B54)), N53, "")</f>
+        <f t="shared" ref="N54:O54" si="211">if(not(isblank($B54)), N53, "")</f>
         <v/>
       </c>
       <c r="O54" s="11" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v/>
       </c>
       <c r="P54" s="11" t="str">
@@ -7164,7 +7164,7 @@
         <v/>
       </c>
       <c r="U54" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V54" s="14" t="str">
@@ -7190,11 +7190,11 @@
         <v/>
       </c>
       <c r="E55" s="11" t="str">
-        <f t="shared" ref="E55:F55" si="211">if(not(isblank($B55)), E54, "")</f>
+        <f t="shared" ref="E55:F55" si="212">if(not(isblank($B55)), E54, "")</f>
         <v/>
       </c>
       <c r="F55" s="11" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v/>
       </c>
       <c r="G55" s="11" t="str">
@@ -7202,11 +7202,11 @@
         <v/>
       </c>
       <c r="H55" s="11" t="str">
-        <f t="shared" ref="H55:I55" si="212">if(not(isblank($B55)), H54, "")</f>
+        <f t="shared" ref="H55:I55" si="213">if(not(isblank($B55)), H54, "")</f>
         <v/>
       </c>
       <c r="I55" s="11" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="J55" s="11" t="str">
@@ -7214,11 +7214,11 @@
         <v/>
       </c>
       <c r="K55" s="11" t="str">
-        <f t="shared" ref="K55:L55" si="213">if(not(isblank($B55)), K54, "")</f>
+        <f t="shared" ref="K55:L55" si="214">if(not(isblank($B55)), K54, "")</f>
         <v/>
       </c>
       <c r="L55" s="11" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="M55" s="11" t="str">
@@ -7226,11 +7226,11 @@
         <v/>
       </c>
       <c r="N55" s="11" t="str">
-        <f t="shared" ref="N55:O55" si="214">if(not(isblank($B55)), N54, "")</f>
+        <f t="shared" ref="N55:O55" si="215">if(not(isblank($B55)), N54, "")</f>
         <v/>
       </c>
       <c r="O55" s="11" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v/>
       </c>
       <c r="P55" s="11" t="str">
@@ -7254,7 +7254,7 @@
         <v/>
       </c>
       <c r="U55" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V55" s="14" t="str">
@@ -7280,11 +7280,11 @@
         <v/>
       </c>
       <c r="E56" s="11" t="str">
-        <f t="shared" ref="E56:F56" si="215">if(not(isblank($B56)), E55, "")</f>
+        <f t="shared" ref="E56:F56" si="216">if(not(isblank($B56)), E55, "")</f>
         <v/>
       </c>
       <c r="F56" s="11" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="G56" s="11" t="str">
@@ -7292,11 +7292,11 @@
         <v/>
       </c>
       <c r="H56" s="11" t="str">
-        <f t="shared" ref="H56:I56" si="216">if(not(isblank($B56)), H55, "")</f>
+        <f t="shared" ref="H56:I56" si="217">if(not(isblank($B56)), H55, "")</f>
         <v/>
       </c>
       <c r="I56" s="11" t="str">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="J56" s="11" t="str">
@@ -7304,11 +7304,11 @@
         <v/>
       </c>
       <c r="K56" s="11" t="str">
-        <f t="shared" ref="K56:L56" si="217">if(not(isblank($B56)), K55, "")</f>
+        <f t="shared" ref="K56:L56" si="218">if(not(isblank($B56)), K55, "")</f>
         <v/>
       </c>
       <c r="L56" s="11" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v/>
       </c>
       <c r="M56" s="11" t="str">
@@ -7316,11 +7316,11 @@
         <v/>
       </c>
       <c r="N56" s="11" t="str">
-        <f t="shared" ref="N56:O56" si="218">if(not(isblank($B56)), N55, "")</f>
+        <f t="shared" ref="N56:O56" si="219">if(not(isblank($B56)), N55, "")</f>
         <v/>
       </c>
       <c r="O56" s="11" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="P56" s="11" t="str">
@@ -7344,7 +7344,7 @@
         <v/>
       </c>
       <c r="U56" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V56" s="14" t="str">
@@ -7370,11 +7370,11 @@
         <v/>
       </c>
       <c r="E57" s="11" t="str">
-        <f t="shared" ref="E57:F57" si="219">if(not(isblank($B57)), E56, "")</f>
+        <f t="shared" ref="E57:F57" si="220">if(not(isblank($B57)), E56, "")</f>
         <v/>
       </c>
       <c r="F57" s="11" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="G57" s="11" t="str">
@@ -7382,11 +7382,11 @@
         <v/>
       </c>
       <c r="H57" s="11" t="str">
-        <f t="shared" ref="H57:I57" si="220">if(not(isblank($B57)), H56, "")</f>
+        <f t="shared" ref="H57:I57" si="221">if(not(isblank($B57)), H56, "")</f>
         <v/>
       </c>
       <c r="I57" s="11" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v/>
       </c>
       <c r="J57" s="11" t="str">
@@ -7394,11 +7394,11 @@
         <v/>
       </c>
       <c r="K57" s="11" t="str">
-        <f t="shared" ref="K57:L57" si="221">if(not(isblank($B57)), K56, "")</f>
+        <f t="shared" ref="K57:L57" si="222">if(not(isblank($B57)), K56, "")</f>
         <v/>
       </c>
       <c r="L57" s="11" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="M57" s="11" t="str">
@@ -7406,11 +7406,11 @@
         <v/>
       </c>
       <c r="N57" s="11" t="str">
-        <f t="shared" ref="N57:O57" si="222">if(not(isblank($B57)), N56, "")</f>
+        <f t="shared" ref="N57:O57" si="223">if(not(isblank($B57)), N56, "")</f>
         <v/>
       </c>
       <c r="O57" s="11" t="str">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="P57" s="11" t="str">
@@ -7434,7 +7434,7 @@
         <v/>
       </c>
       <c r="U57" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V57" s="14" t="str">
@@ -7460,11 +7460,11 @@
         <v/>
       </c>
       <c r="E58" s="11" t="str">
-        <f t="shared" ref="E58:F58" si="223">if(not(isblank($B58)), E57, "")</f>
+        <f t="shared" ref="E58:F58" si="224">if(not(isblank($B58)), E57, "")</f>
         <v/>
       </c>
       <c r="F58" s="11" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v/>
       </c>
       <c r="G58" s="11" t="str">
@@ -7472,11 +7472,11 @@
         <v/>
       </c>
       <c r="H58" s="11" t="str">
-        <f t="shared" ref="H58:I58" si="224">if(not(isblank($B58)), H57, "")</f>
+        <f t="shared" ref="H58:I58" si="225">if(not(isblank($B58)), H57, "")</f>
         <v/>
       </c>
       <c r="I58" s="11" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="J58" s="11" t="str">
@@ -7484,11 +7484,11 @@
         <v/>
       </c>
       <c r="K58" s="11" t="str">
-        <f t="shared" ref="K58:L58" si="225">if(not(isblank($B58)), K57, "")</f>
+        <f t="shared" ref="K58:L58" si="226">if(not(isblank($B58)), K57, "")</f>
         <v/>
       </c>
       <c r="L58" s="11" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v/>
       </c>
       <c r="M58" s="11" t="str">
@@ -7496,11 +7496,11 @@
         <v/>
       </c>
       <c r="N58" s="11" t="str">
-        <f t="shared" ref="N58:O58" si="226">if(not(isblank($B58)), N57, "")</f>
+        <f t="shared" ref="N58:O58" si="227">if(not(isblank($B58)), N57, "")</f>
         <v/>
       </c>
       <c r="O58" s="11" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v/>
       </c>
       <c r="P58" s="11" t="str">
@@ -7524,7 +7524,7 @@
         <v/>
       </c>
       <c r="U58" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V58" s="14" t="str">
@@ -7550,11 +7550,11 @@
         <v/>
       </c>
       <c r="E59" s="11" t="str">
-        <f t="shared" ref="E59:F59" si="227">if(not(isblank($B59)), E58, "")</f>
+        <f t="shared" ref="E59:F59" si="228">if(not(isblank($B59)), E58, "")</f>
         <v/>
       </c>
       <c r="F59" s="11" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v/>
       </c>
       <c r="G59" s="11" t="str">
@@ -7562,11 +7562,11 @@
         <v/>
       </c>
       <c r="H59" s="11" t="str">
-        <f t="shared" ref="H59:I59" si="228">if(not(isblank($B59)), H58, "")</f>
+        <f t="shared" ref="H59:I59" si="229">if(not(isblank($B59)), H58, "")</f>
         <v/>
       </c>
       <c r="I59" s="11" t="str">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="J59" s="11" t="str">
@@ -7574,11 +7574,11 @@
         <v/>
       </c>
       <c r="K59" s="11" t="str">
-        <f t="shared" ref="K59:L59" si="229">if(not(isblank($B59)), K58, "")</f>
+        <f t="shared" ref="K59:L59" si="230">if(not(isblank($B59)), K58, "")</f>
         <v/>
       </c>
       <c r="L59" s="11" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v/>
       </c>
       <c r="M59" s="11" t="str">
@@ -7586,11 +7586,11 @@
         <v/>
       </c>
       <c r="N59" s="11" t="str">
-        <f t="shared" ref="N59:O59" si="230">if(not(isblank($B59)), N58, "")</f>
+        <f t="shared" ref="N59:O59" si="231">if(not(isblank($B59)), N58, "")</f>
         <v/>
       </c>
       <c r="O59" s="11" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="P59" s="11" t="str">
@@ -7614,7 +7614,7 @@
         <v/>
       </c>
       <c r="U59" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V59" s="14" t="str">
@@ -7640,11 +7640,11 @@
         <v/>
       </c>
       <c r="E60" s="11" t="str">
-        <f t="shared" ref="E60:F60" si="231">if(not(isblank($B60)), E59, "")</f>
+        <f t="shared" ref="E60:F60" si="232">if(not(isblank($B60)), E59, "")</f>
         <v/>
       </c>
       <c r="F60" s="11" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v/>
       </c>
       <c r="G60" s="11" t="str">
@@ -7652,11 +7652,11 @@
         <v/>
       </c>
       <c r="H60" s="11" t="str">
-        <f t="shared" ref="H60:I60" si="232">if(not(isblank($B60)), H59, "")</f>
+        <f t="shared" ref="H60:I60" si="233">if(not(isblank($B60)), H59, "")</f>
         <v/>
       </c>
       <c r="I60" s="11" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v/>
       </c>
       <c r="J60" s="11" t="str">
@@ -7664,11 +7664,11 @@
         <v/>
       </c>
       <c r="K60" s="11" t="str">
-        <f t="shared" ref="K60:L60" si="233">if(not(isblank($B60)), K59, "")</f>
+        <f t="shared" ref="K60:L60" si="234">if(not(isblank($B60)), K59, "")</f>
         <v/>
       </c>
       <c r="L60" s="11" t="str">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="M60" s="11" t="str">
@@ -7676,11 +7676,11 @@
         <v/>
       </c>
       <c r="N60" s="11" t="str">
-        <f t="shared" ref="N60:O60" si="234">if(not(isblank($B60)), N59, "")</f>
+        <f t="shared" ref="N60:O60" si="235">if(not(isblank($B60)), N59, "")</f>
         <v/>
       </c>
       <c r="O60" s="11" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="P60" s="11" t="str">
@@ -7701,7 +7701,7 @@
         <v/>
       </c>
       <c r="U60" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V60" s="14" t="str">
@@ -7727,11 +7727,11 @@
         <v/>
       </c>
       <c r="E61" s="11" t="str">
-        <f t="shared" ref="E61:F61" si="235">if(not(isblank($B61)), E60, "")</f>
+        <f t="shared" ref="E61:F61" si="236">if(not(isblank($B61)), E60, "")</f>
         <v/>
       </c>
       <c r="F61" s="11" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="G61" s="11" t="str">
@@ -7739,11 +7739,11 @@
         <v/>
       </c>
       <c r="H61" s="11" t="str">
-        <f t="shared" ref="H61:I61" si="236">if(not(isblank($B61)), H60, "")</f>
+        <f t="shared" ref="H61:I61" si="237">if(not(isblank($B61)), H60, "")</f>
         <v/>
       </c>
       <c r="I61" s="11" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="J61" s="11" t="str">
@@ -7751,11 +7751,11 @@
         <v/>
       </c>
       <c r="K61" s="11" t="str">
-        <f t="shared" ref="K61:L61" si="237">if(not(isblank($B61)), K60, "")</f>
+        <f t="shared" ref="K61:L61" si="238">if(not(isblank($B61)), K60, "")</f>
         <v/>
       </c>
       <c r="L61" s="11" t="str">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v/>
       </c>
       <c r="M61" s="11" t="str">
@@ -7763,11 +7763,11 @@
         <v/>
       </c>
       <c r="N61" s="11" t="str">
-        <f t="shared" ref="N61:O61" si="238">if(not(isblank($B61)), N60, "")</f>
+        <f t="shared" ref="N61:O61" si="239">if(not(isblank($B61)), N60, "")</f>
         <v/>
       </c>
       <c r="O61" s="11" t="str">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="P61" s="11" t="str">
@@ -7788,7 +7788,7 @@
         <v/>
       </c>
       <c r="U61" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V61" s="14" t="str">
@@ -7814,11 +7814,11 @@
         <v/>
       </c>
       <c r="E62" s="11" t="str">
-        <f t="shared" ref="E62:F62" si="239">if(not(isblank($B62)), E61, "")</f>
+        <f t="shared" ref="E62:F62" si="240">if(not(isblank($B62)), E61, "")</f>
         <v/>
       </c>
       <c r="F62" s="11" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="G62" s="11" t="str">
@@ -7826,11 +7826,11 @@
         <v/>
       </c>
       <c r="H62" s="11" t="str">
-        <f t="shared" ref="H62:I62" si="240">if(not(isblank($B62)), H61, "")</f>
+        <f t="shared" ref="H62:I62" si="241">if(not(isblank($B62)), H61, "")</f>
         <v/>
       </c>
       <c r="I62" s="11" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v/>
       </c>
       <c r="J62" s="11" t="str">
@@ -7838,11 +7838,11 @@
         <v/>
       </c>
       <c r="K62" s="11" t="str">
-        <f t="shared" ref="K62:L62" si="241">if(not(isblank($B62)), K61, "")</f>
+        <f t="shared" ref="K62:L62" si="242">if(not(isblank($B62)), K61, "")</f>
         <v/>
       </c>
       <c r="L62" s="11" t="str">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v/>
       </c>
       <c r="M62" s="11" t="str">
@@ -7850,11 +7850,11 @@
         <v/>
       </c>
       <c r="N62" s="11" t="str">
-        <f t="shared" ref="N62:O62" si="242">if(not(isblank($B62)), N61, "")</f>
+        <f t="shared" ref="N62:O62" si="243">if(not(isblank($B62)), N61, "")</f>
         <v/>
       </c>
       <c r="O62" s="11" t="str">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v/>
       </c>
       <c r="P62" s="11" t="str">
@@ -7875,7 +7875,7 @@
         <v/>
       </c>
       <c r="U62" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V62" s="14" t="str">
@@ -7901,11 +7901,11 @@
         <v/>
       </c>
       <c r="E63" s="11" t="str">
-        <f t="shared" ref="E63:F63" si="243">if(not(isblank($B63)), E62, "")</f>
+        <f t="shared" ref="E63:F63" si="244">if(not(isblank($B63)), E62, "")</f>
         <v/>
       </c>
       <c r="F63" s="11" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v/>
       </c>
       <c r="G63" s="11" t="str">
@@ -7913,11 +7913,11 @@
         <v/>
       </c>
       <c r="H63" s="11" t="str">
-        <f t="shared" ref="H63:I63" si="244">if(not(isblank($B63)), H62, "")</f>
+        <f t="shared" ref="H63:I63" si="245">if(not(isblank($B63)), H62, "")</f>
         <v/>
       </c>
       <c r="I63" s="11" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v/>
       </c>
       <c r="J63" s="11" t="str">
@@ -7925,11 +7925,11 @@
         <v/>
       </c>
       <c r="K63" s="11" t="str">
-        <f t="shared" ref="K63:L63" si="245">if(not(isblank($B63)), K62, "")</f>
+        <f t="shared" ref="K63:L63" si="246">if(not(isblank($B63)), K62, "")</f>
         <v/>
       </c>
       <c r="L63" s="11" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v/>
       </c>
       <c r="M63" s="11" t="str">
@@ -7937,11 +7937,11 @@
         <v/>
       </c>
       <c r="N63" s="11" t="str">
-        <f t="shared" ref="N63:O63" si="246">if(not(isblank($B63)), N62, "")</f>
+        <f t="shared" ref="N63:O63" si="247">if(not(isblank($B63)), N62, "")</f>
         <v/>
       </c>
       <c r="O63" s="11" t="str">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
       <c r="P63" s="11" t="str">
@@ -7962,7 +7962,7 @@
         <v/>
       </c>
       <c r="U63" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V63" s="14" t="str">
@@ -7988,11 +7988,11 @@
         <v/>
       </c>
       <c r="E64" s="11" t="str">
-        <f t="shared" ref="E64:F64" si="247">if(not(isblank($B64)), E63, "")</f>
+        <f t="shared" ref="E64:F64" si="248">if(not(isblank($B64)), E63, "")</f>
         <v/>
       </c>
       <c r="F64" s="11" t="str">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v/>
       </c>
       <c r="G64" s="11" t="str">
@@ -8000,11 +8000,11 @@
         <v/>
       </c>
       <c r="H64" s="11" t="str">
-        <f t="shared" ref="H64:I64" si="248">if(not(isblank($B64)), H63, "")</f>
+        <f t="shared" ref="H64:I64" si="249">if(not(isblank($B64)), H63, "")</f>
         <v/>
       </c>
       <c r="I64" s="11" t="str">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v/>
       </c>
       <c r="J64" s="11" t="str">
@@ -8012,11 +8012,11 @@
         <v/>
       </c>
       <c r="K64" s="11" t="str">
-        <f t="shared" ref="K64:L64" si="249">if(not(isblank($B64)), K63, "")</f>
+        <f t="shared" ref="K64:L64" si="250">if(not(isblank($B64)), K63, "")</f>
         <v/>
       </c>
       <c r="L64" s="11" t="str">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v/>
       </c>
       <c r="M64" s="11" t="str">
@@ -8024,11 +8024,11 @@
         <v/>
       </c>
       <c r="N64" s="11" t="str">
-        <f t="shared" ref="N64:O64" si="250">if(not(isblank($B64)), N63, "")</f>
+        <f t="shared" ref="N64:O64" si="251">if(not(isblank($B64)), N63, "")</f>
         <v/>
       </c>
       <c r="O64" s="11" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v/>
       </c>
       <c r="P64" s="11" t="str">
@@ -8049,7 +8049,7 @@
         <v/>
       </c>
       <c r="U64" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V64" s="14" t="str">
@@ -8075,11 +8075,11 @@
         <v/>
       </c>
       <c r="E65" s="11" t="str">
-        <f t="shared" ref="E65:F65" si="251">if(not(isblank($B65)), E64, "")</f>
+        <f t="shared" ref="E65:F65" si="252">if(not(isblank($B65)), E64, "")</f>
         <v/>
       </c>
       <c r="F65" s="11" t="str">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v/>
       </c>
       <c r="G65" s="11" t="str">
@@ -8087,11 +8087,11 @@
         <v/>
       </c>
       <c r="H65" s="11" t="str">
-        <f t="shared" ref="H65:I65" si="252">if(not(isblank($B65)), H64, "")</f>
+        <f t="shared" ref="H65:I65" si="253">if(not(isblank($B65)), H64, "")</f>
         <v/>
       </c>
       <c r="I65" s="11" t="str">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v/>
       </c>
       <c r="J65" s="11" t="str">
@@ -8099,11 +8099,11 @@
         <v/>
       </c>
       <c r="K65" s="11" t="str">
-        <f t="shared" ref="K65:L65" si="253">if(not(isblank($B65)), K64, "")</f>
+        <f t="shared" ref="K65:L65" si="254">if(not(isblank($B65)), K64, "")</f>
         <v/>
       </c>
       <c r="L65" s="11" t="str">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v/>
       </c>
       <c r="M65" s="11" t="str">
@@ -8111,11 +8111,11 @@
         <v/>
       </c>
       <c r="N65" s="11" t="str">
-        <f t="shared" ref="N65:O65" si="254">if(not(isblank($B65)), N64, "")</f>
+        <f t="shared" ref="N65:O65" si="255">if(not(isblank($B65)), N64, "")</f>
         <v/>
       </c>
       <c r="O65" s="11" t="str">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v/>
       </c>
       <c r="P65" s="11" t="str">
@@ -8136,7 +8136,7 @@
         <v/>
       </c>
       <c r="U65" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V65" s="14" t="str">
@@ -8162,11 +8162,11 @@
         <v/>
       </c>
       <c r="E66" s="11" t="str">
-        <f t="shared" ref="E66:F66" si="255">if(not(isblank($B66)), E65, "")</f>
+        <f t="shared" ref="E66:F66" si="256">if(not(isblank($B66)), E65, "")</f>
         <v/>
       </c>
       <c r="F66" s="11" t="str">
-        <f t="shared" si="255"/>
+        <f t="shared" si="256"/>
         <v/>
       </c>
       <c r="G66" s="11" t="str">
@@ -8174,11 +8174,11 @@
         <v/>
       </c>
       <c r="H66" s="11" t="str">
-        <f t="shared" ref="H66:I66" si="256">if(not(isblank($B66)), H65, "")</f>
+        <f t="shared" ref="H66:I66" si="257">if(not(isblank($B66)), H65, "")</f>
         <v/>
       </c>
       <c r="I66" s="11" t="str">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v/>
       </c>
       <c r="J66" s="11" t="str">
@@ -8186,11 +8186,11 @@
         <v/>
       </c>
       <c r="K66" s="11" t="str">
-        <f t="shared" ref="K66:L66" si="257">if(not(isblank($B66)), K65, "")</f>
+        <f t="shared" ref="K66:L66" si="258">if(not(isblank($B66)), K65, "")</f>
         <v/>
       </c>
       <c r="L66" s="11" t="str">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v/>
       </c>
       <c r="M66" s="11" t="str">
@@ -8198,11 +8198,11 @@
         <v/>
       </c>
       <c r="N66" s="11" t="str">
-        <f t="shared" ref="N66:O66" si="258">if(not(isblank($B66)), N65, "")</f>
+        <f t="shared" ref="N66:O66" si="259">if(not(isblank($B66)), N65, "")</f>
         <v/>
       </c>
       <c r="O66" s="11" t="str">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v/>
       </c>
       <c r="P66" s="11" t="str">
@@ -8223,7 +8223,7 @@
         <v/>
       </c>
       <c r="U66" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V66" s="14" t="str">
@@ -8249,11 +8249,11 @@
         <v/>
       </c>
       <c r="E67" s="11" t="str">
-        <f t="shared" ref="E67:F67" si="259">if(not(isblank($B67)), E66, "")</f>
+        <f t="shared" ref="E67:F67" si="260">if(not(isblank($B67)), E66, "")</f>
         <v/>
       </c>
       <c r="F67" s="11" t="str">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v/>
       </c>
       <c r="G67" s="11" t="str">
@@ -8261,11 +8261,11 @@
         <v/>
       </c>
       <c r="H67" s="11" t="str">
-        <f t="shared" ref="H67:I67" si="260">if(not(isblank($B67)), H66, "")</f>
+        <f t="shared" ref="H67:I67" si="261">if(not(isblank($B67)), H66, "")</f>
         <v/>
       </c>
       <c r="I67" s="11" t="str">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v/>
       </c>
       <c r="J67" s="11" t="str">
@@ -8273,11 +8273,11 @@
         <v/>
       </c>
       <c r="K67" s="11" t="str">
-        <f t="shared" ref="K67:L67" si="261">if(not(isblank($B67)), K66, "")</f>
+        <f t="shared" ref="K67:L67" si="262">if(not(isblank($B67)), K66, "")</f>
         <v/>
       </c>
       <c r="L67" s="11" t="str">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v/>
       </c>
       <c r="M67" s="11" t="str">
@@ -8285,11 +8285,11 @@
         <v/>
       </c>
       <c r="N67" s="11" t="str">
-        <f t="shared" ref="N67:O67" si="262">if(not(isblank($B67)), N66, "")</f>
+        <f t="shared" ref="N67:O67" si="263">if(not(isblank($B67)), N66, "")</f>
         <v/>
       </c>
       <c r="O67" s="11" t="str">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v/>
       </c>
       <c r="P67" s="11" t="str">
@@ -8310,7 +8310,7 @@
         <v/>
       </c>
       <c r="U67" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V67" s="14" t="str">
@@ -8336,11 +8336,11 @@
         <v/>
       </c>
       <c r="E68" s="11" t="str">
-        <f t="shared" ref="E68:F68" si="263">if(not(isblank($B68)), E67, "")</f>
+        <f t="shared" ref="E68:F68" si="264">if(not(isblank($B68)), E67, "")</f>
         <v/>
       </c>
       <c r="F68" s="11" t="str">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v/>
       </c>
       <c r="G68" s="11" t="str">
@@ -8348,11 +8348,11 @@
         <v/>
       </c>
       <c r="H68" s="11" t="str">
-        <f t="shared" ref="H68:I68" si="264">if(not(isblank($B68)), H67, "")</f>
+        <f t="shared" ref="H68:I68" si="265">if(not(isblank($B68)), H67, "")</f>
         <v/>
       </c>
       <c r="I68" s="11" t="str">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v/>
       </c>
       <c r="J68" s="11" t="str">
@@ -8360,11 +8360,11 @@
         <v/>
       </c>
       <c r="K68" s="11" t="str">
-        <f t="shared" ref="K68:L68" si="265">if(not(isblank($B68)), K67, "")</f>
+        <f t="shared" ref="K68:L68" si="266">if(not(isblank($B68)), K67, "")</f>
         <v/>
       </c>
       <c r="L68" s="11" t="str">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v/>
       </c>
       <c r="M68" s="11" t="str">
@@ -8372,11 +8372,11 @@
         <v/>
       </c>
       <c r="N68" s="11" t="str">
-        <f t="shared" ref="N68:O68" si="266">if(not(isblank($B68)), N67, "")</f>
+        <f t="shared" ref="N68:O68" si="267">if(not(isblank($B68)), N67, "")</f>
         <v/>
       </c>
       <c r="O68" s="11" t="str">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v/>
       </c>
       <c r="P68" s="11" t="str">
@@ -8397,7 +8397,7 @@
         <v/>
       </c>
       <c r="U68" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V68" s="14" t="str">
@@ -8423,11 +8423,11 @@
         <v/>
       </c>
       <c r="E69" s="11" t="str">
-        <f t="shared" ref="E69:F69" si="267">if(not(isblank($B69)), E68, "")</f>
+        <f t="shared" ref="E69:F69" si="268">if(not(isblank($B69)), E68, "")</f>
         <v/>
       </c>
       <c r="F69" s="11" t="str">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v/>
       </c>
       <c r="G69" s="11" t="str">
@@ -8435,11 +8435,11 @@
         <v/>
       </c>
       <c r="H69" s="11" t="str">
-        <f t="shared" ref="H69:I69" si="268">if(not(isblank($B69)), H68, "")</f>
+        <f t="shared" ref="H69:I69" si="269">if(not(isblank($B69)), H68, "")</f>
         <v/>
       </c>
       <c r="I69" s="11" t="str">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v/>
       </c>
       <c r="J69" s="11" t="str">
@@ -8447,11 +8447,11 @@
         <v/>
       </c>
       <c r="K69" s="11" t="str">
-        <f t="shared" ref="K69:L69" si="269">if(not(isblank($B69)), K68, "")</f>
+        <f t="shared" ref="K69:L69" si="270">if(not(isblank($B69)), K68, "")</f>
         <v/>
       </c>
       <c r="L69" s="11" t="str">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v/>
       </c>
       <c r="M69" s="11" t="str">
@@ -8459,11 +8459,11 @@
         <v/>
       </c>
       <c r="N69" s="11" t="str">
-        <f t="shared" ref="N69:O69" si="270">if(not(isblank($B69)), N68, "")</f>
+        <f t="shared" ref="N69:O69" si="271">if(not(isblank($B69)), N68, "")</f>
         <v/>
       </c>
       <c r="O69" s="11" t="str">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v/>
       </c>
       <c r="P69" s="11" t="str">
@@ -8484,7 +8484,7 @@
         <v/>
       </c>
       <c r="U69" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V69" s="14" t="str">
@@ -8510,11 +8510,11 @@
         <v/>
       </c>
       <c r="E70" s="11" t="str">
-        <f t="shared" ref="E70:F70" si="271">if(not(isblank($B70)), E69, "")</f>
+        <f t="shared" ref="E70:F70" si="272">if(not(isblank($B70)), E69, "")</f>
         <v/>
       </c>
       <c r="F70" s="11" t="str">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v/>
       </c>
       <c r="G70" s="11" t="str">
@@ -8522,11 +8522,11 @@
         <v/>
       </c>
       <c r="H70" s="11" t="str">
-        <f t="shared" ref="H70:I70" si="272">if(not(isblank($B70)), H69, "")</f>
+        <f t="shared" ref="H70:I70" si="273">if(not(isblank($B70)), H69, "")</f>
         <v/>
       </c>
       <c r="I70" s="11" t="str">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v/>
       </c>
       <c r="J70" s="11" t="str">
@@ -8534,11 +8534,11 @@
         <v/>
       </c>
       <c r="K70" s="11" t="str">
-        <f t="shared" ref="K70:L70" si="273">if(not(isblank($B70)), K69, "")</f>
+        <f t="shared" ref="K70:L70" si="274">if(not(isblank($B70)), K69, "")</f>
         <v/>
       </c>
       <c r="L70" s="11" t="str">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v/>
       </c>
       <c r="M70" s="11" t="str">
@@ -8546,11 +8546,11 @@
         <v/>
       </c>
       <c r="N70" s="11" t="str">
-        <f t="shared" ref="N70:O70" si="274">if(not(isblank($B70)), N69, "")</f>
+        <f t="shared" ref="N70:O70" si="275">if(not(isblank($B70)), N69, "")</f>
         <v/>
       </c>
       <c r="O70" s="11" t="str">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v/>
       </c>
       <c r="P70" s="11" t="str">
@@ -8571,7 +8571,7 @@
         <v/>
       </c>
       <c r="U70" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V70" s="14" t="str">
@@ -8597,11 +8597,11 @@
         <v/>
       </c>
       <c r="E71" s="11" t="str">
-        <f t="shared" ref="E71:F71" si="275">if(not(isblank($B71)), E70, "")</f>
+        <f t="shared" ref="E71:F71" si="276">if(not(isblank($B71)), E70, "")</f>
         <v/>
       </c>
       <c r="F71" s="11" t="str">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v/>
       </c>
       <c r="G71" s="11" t="str">
@@ -8609,11 +8609,11 @@
         <v/>
       </c>
       <c r="H71" s="11" t="str">
-        <f t="shared" ref="H71:I71" si="276">if(not(isblank($B71)), H70, "")</f>
+        <f t="shared" ref="H71:I71" si="277">if(not(isblank($B71)), H70, "")</f>
         <v/>
       </c>
       <c r="I71" s="11" t="str">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v/>
       </c>
       <c r="J71" s="11" t="str">
@@ -8621,11 +8621,11 @@
         <v/>
       </c>
       <c r="K71" s="11" t="str">
-        <f t="shared" ref="K71:L71" si="277">if(not(isblank($B71)), K70, "")</f>
+        <f t="shared" ref="K71:L71" si="278">if(not(isblank($B71)), K70, "")</f>
         <v/>
       </c>
       <c r="L71" s="11" t="str">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v/>
       </c>
       <c r="M71" s="11" t="str">
@@ -8633,11 +8633,11 @@
         <v/>
       </c>
       <c r="N71" s="11" t="str">
-        <f t="shared" ref="N71:O71" si="278">if(not(isblank($B71)), N70, "")</f>
+        <f t="shared" ref="N71:O71" si="279">if(not(isblank($B71)), N70, "")</f>
         <v/>
       </c>
       <c r="O71" s="11" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v/>
       </c>
       <c r="P71" s="11" t="str">
@@ -8658,7 +8658,7 @@
         <v/>
       </c>
       <c r="U71" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V71" s="14" t="str">
@@ -8684,11 +8684,11 @@
         <v/>
       </c>
       <c r="E72" s="11" t="str">
-        <f t="shared" ref="E72:F72" si="279">if(not(isblank($B72)), E71, "")</f>
+        <f t="shared" ref="E72:F72" si="280">if(not(isblank($B72)), E71, "")</f>
         <v/>
       </c>
       <c r="F72" s="11" t="str">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v/>
       </c>
       <c r="G72" s="11" t="str">
@@ -8696,11 +8696,11 @@
         <v/>
       </c>
       <c r="H72" s="11" t="str">
-        <f t="shared" ref="H72:I72" si="280">if(not(isblank($B72)), H71, "")</f>
+        <f t="shared" ref="H72:I72" si="281">if(not(isblank($B72)), H71, "")</f>
         <v/>
       </c>
       <c r="I72" s="11" t="str">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v/>
       </c>
       <c r="J72" s="11" t="str">
@@ -8708,11 +8708,11 @@
         <v/>
       </c>
       <c r="K72" s="11" t="str">
-        <f t="shared" ref="K72:L72" si="281">if(not(isblank($B72)), K71, "")</f>
+        <f t="shared" ref="K72:L72" si="282">if(not(isblank($B72)), K71, "")</f>
         <v/>
       </c>
       <c r="L72" s="11" t="str">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v/>
       </c>
       <c r="M72" s="11" t="str">
@@ -8720,11 +8720,11 @@
         <v/>
       </c>
       <c r="N72" s="11" t="str">
-        <f t="shared" ref="N72:O72" si="282">if(not(isblank($B72)), N71, "")</f>
+        <f t="shared" ref="N72:O72" si="283">if(not(isblank($B72)), N71, "")</f>
         <v/>
       </c>
       <c r="O72" s="11" t="str">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v/>
       </c>
       <c r="P72" s="11" t="str">
@@ -8745,7 +8745,7 @@
         <v/>
       </c>
       <c r="U72" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V72" s="14" t="str">
@@ -8771,11 +8771,11 @@
         <v/>
       </c>
       <c r="E73" s="11" t="str">
-        <f t="shared" ref="E73:F73" si="283">if(not(isblank($B73)), E72, "")</f>
+        <f t="shared" ref="E73:F73" si="284">if(not(isblank($B73)), E72, "")</f>
         <v/>
       </c>
       <c r="F73" s="11" t="str">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v/>
       </c>
       <c r="G73" s="11" t="str">
@@ -8783,11 +8783,11 @@
         <v/>
       </c>
       <c r="H73" s="11" t="str">
-        <f t="shared" ref="H73:I73" si="284">if(not(isblank($B73)), H72, "")</f>
+        <f t="shared" ref="H73:I73" si="285">if(not(isblank($B73)), H72, "")</f>
         <v/>
       </c>
       <c r="I73" s="11" t="str">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v/>
       </c>
       <c r="J73" s="11" t="str">
@@ -8795,11 +8795,11 @@
         <v/>
       </c>
       <c r="K73" s="11" t="str">
-        <f t="shared" ref="K73:L73" si="285">if(not(isblank($B73)), K72, "")</f>
+        <f t="shared" ref="K73:L73" si="286">if(not(isblank($B73)), K72, "")</f>
         <v/>
       </c>
       <c r="L73" s="11" t="str">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v/>
       </c>
       <c r="M73" s="11" t="str">
@@ -8807,11 +8807,11 @@
         <v/>
       </c>
       <c r="N73" s="11" t="str">
-        <f t="shared" ref="N73:O73" si="286">if(not(isblank($B73)), N72, "")</f>
+        <f t="shared" ref="N73:O73" si="287">if(not(isblank($B73)), N72, "")</f>
         <v/>
       </c>
       <c r="O73" s="11" t="str">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v/>
       </c>
       <c r="P73" s="11" t="str">
@@ -8832,7 +8832,7 @@
         <v/>
       </c>
       <c r="U73" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V73" s="14" t="str">
@@ -8858,11 +8858,11 @@
         <v/>
       </c>
       <c r="E74" s="11" t="str">
-        <f t="shared" ref="E74:F74" si="287">if(not(isblank($B74)), E73, "")</f>
+        <f t="shared" ref="E74:F74" si="288">if(not(isblank($B74)), E73, "")</f>
         <v/>
       </c>
       <c r="F74" s="11" t="str">
-        <f t="shared" si="287"/>
+        <f t="shared" si="288"/>
         <v/>
       </c>
       <c r="G74" s="11" t="str">
@@ -8870,11 +8870,11 @@
         <v/>
       </c>
       <c r="H74" s="11" t="str">
-        <f t="shared" ref="H74:I74" si="288">if(not(isblank($B74)), H73, "")</f>
+        <f t="shared" ref="H74:I74" si="289">if(not(isblank($B74)), H73, "")</f>
         <v/>
       </c>
       <c r="I74" s="11" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" si="289"/>
         <v/>
       </c>
       <c r="J74" s="11" t="str">
@@ -8882,11 +8882,11 @@
         <v/>
       </c>
       <c r="K74" s="11" t="str">
-        <f t="shared" ref="K74:L74" si="289">if(not(isblank($B74)), K73, "")</f>
+        <f t="shared" ref="K74:L74" si="290">if(not(isblank($B74)), K73, "")</f>
         <v/>
       </c>
       <c r="L74" s="11" t="str">
-        <f t="shared" si="289"/>
+        <f t="shared" si="290"/>
         <v/>
       </c>
       <c r="M74" s="11" t="str">
@@ -8894,11 +8894,11 @@
         <v/>
       </c>
       <c r="N74" s="11" t="str">
-        <f t="shared" ref="N74:O74" si="290">if(not(isblank($B74)), N73, "")</f>
+        <f t="shared" ref="N74:O74" si="291">if(not(isblank($B74)), N73, "")</f>
         <v/>
       </c>
       <c r="O74" s="11" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="291"/>
         <v/>
       </c>
       <c r="P74" s="11" t="str">
@@ -8919,7 +8919,7 @@
         <v/>
       </c>
       <c r="U74" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V74" s="14" t="str">
@@ -8945,11 +8945,11 @@
         <v/>
       </c>
       <c r="E75" s="11" t="str">
-        <f t="shared" ref="E75:F75" si="291">if(not(isblank($B75)), E74, "")</f>
+        <f t="shared" ref="E75:F75" si="292">if(not(isblank($B75)), E74, "")</f>
         <v/>
       </c>
       <c r="F75" s="11" t="str">
-        <f t="shared" si="291"/>
+        <f t="shared" si="292"/>
         <v/>
       </c>
       <c r="G75" s="11" t="str">
@@ -8957,11 +8957,11 @@
         <v/>
       </c>
       <c r="H75" s="11" t="str">
-        <f t="shared" ref="H75:I75" si="292">if(not(isblank($B75)), H74, "")</f>
+        <f t="shared" ref="H75:I75" si="293">if(not(isblank($B75)), H74, "")</f>
         <v/>
       </c>
       <c r="I75" s="11" t="str">
-        <f t="shared" si="292"/>
+        <f t="shared" si="293"/>
         <v/>
       </c>
       <c r="J75" s="11" t="str">
@@ -8969,11 +8969,11 @@
         <v/>
       </c>
       <c r="K75" s="11" t="str">
-        <f t="shared" ref="K75:L75" si="293">if(not(isblank($B75)), K74, "")</f>
+        <f t="shared" ref="K75:L75" si="294">if(not(isblank($B75)), K74, "")</f>
         <v/>
       </c>
       <c r="L75" s="11" t="str">
-        <f t="shared" si="293"/>
+        <f t="shared" si="294"/>
         <v/>
       </c>
       <c r="M75" s="11" t="str">
@@ -8981,11 +8981,11 @@
         <v/>
       </c>
       <c r="N75" s="11" t="str">
-        <f t="shared" ref="N75:O75" si="294">if(not(isblank($B75)), N74, "")</f>
+        <f t="shared" ref="N75:O75" si="295">if(not(isblank($B75)), N74, "")</f>
         <v/>
       </c>
       <c r="O75" s="11" t="str">
-        <f t="shared" si="294"/>
+        <f t="shared" si="295"/>
         <v/>
       </c>
       <c r="P75" s="11" t="str">
@@ -9006,7 +9006,7 @@
         <v/>
       </c>
       <c r="U75" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V75" s="14" t="str">
@@ -9032,11 +9032,11 @@
         <v/>
       </c>
       <c r="E76" s="11" t="str">
-        <f t="shared" ref="E76:F76" si="295">if(not(isblank($B76)), E75, "")</f>
+        <f t="shared" ref="E76:F76" si="296">if(not(isblank($B76)), E75, "")</f>
         <v/>
       </c>
       <c r="F76" s="11" t="str">
-        <f t="shared" si="295"/>
+        <f t="shared" si="296"/>
         <v/>
       </c>
       <c r="G76" s="11" t="str">
@@ -9044,11 +9044,11 @@
         <v/>
       </c>
       <c r="H76" s="11" t="str">
-        <f t="shared" ref="H76:I76" si="296">if(not(isblank($B76)), H75, "")</f>
+        <f t="shared" ref="H76:I76" si="297">if(not(isblank($B76)), H75, "")</f>
         <v/>
       </c>
       <c r="I76" s="11" t="str">
-        <f t="shared" si="296"/>
+        <f t="shared" si="297"/>
         <v/>
       </c>
       <c r="J76" s="11" t="str">
@@ -9056,11 +9056,11 @@
         <v/>
       </c>
       <c r="K76" s="11" t="str">
-        <f t="shared" ref="K76:L76" si="297">if(not(isblank($B76)), K75, "")</f>
+        <f t="shared" ref="K76:L76" si="298">if(not(isblank($B76)), K75, "")</f>
         <v/>
       </c>
       <c r="L76" s="11" t="str">
-        <f t="shared" si="297"/>
+        <f t="shared" si="298"/>
         <v/>
       </c>
       <c r="M76" s="11" t="str">
@@ -9068,11 +9068,11 @@
         <v/>
       </c>
       <c r="N76" s="11" t="str">
-        <f t="shared" ref="N76:O76" si="298">if(not(isblank($B76)), N75, "")</f>
+        <f t="shared" ref="N76:O76" si="299">if(not(isblank($B76)), N75, "")</f>
         <v/>
       </c>
       <c r="O76" s="11" t="str">
-        <f t="shared" si="298"/>
+        <f t="shared" si="299"/>
         <v/>
       </c>
       <c r="P76" s="11" t="str">
@@ -9093,7 +9093,7 @@
         <v/>
       </c>
       <c r="U76" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V76" s="14" t="str">
@@ -9119,11 +9119,11 @@
         <v/>
       </c>
       <c r="E77" s="11" t="str">
-        <f t="shared" ref="E77:F77" si="299">if(not(isblank($B77)), E76, "")</f>
+        <f t="shared" ref="E77:F77" si="300">if(not(isblank($B77)), E76, "")</f>
         <v/>
       </c>
       <c r="F77" s="11" t="str">
-        <f t="shared" si="299"/>
+        <f t="shared" si="300"/>
         <v/>
       </c>
       <c r="G77" s="11" t="str">
@@ -9131,11 +9131,11 @@
         <v/>
       </c>
       <c r="H77" s="11" t="str">
-        <f t="shared" ref="H77:I77" si="300">if(not(isblank($B77)), H76, "")</f>
+        <f t="shared" ref="H77:I77" si="301">if(not(isblank($B77)), H76, "")</f>
         <v/>
       </c>
       <c r="I77" s="11" t="str">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v/>
       </c>
       <c r="J77" s="11" t="str">
@@ -9143,11 +9143,11 @@
         <v/>
       </c>
       <c r="K77" s="11" t="str">
-        <f t="shared" ref="K77:L77" si="301">if(not(isblank($B77)), K76, "")</f>
+        <f t="shared" ref="K77:L77" si="302">if(not(isblank($B77)), K76, "")</f>
         <v/>
       </c>
       <c r="L77" s="11" t="str">
-        <f t="shared" si="301"/>
+        <f t="shared" si="302"/>
         <v/>
       </c>
       <c r="M77" s="11" t="str">
@@ -9155,11 +9155,11 @@
         <v/>
       </c>
       <c r="N77" s="11" t="str">
-        <f t="shared" ref="N77:O77" si="302">if(not(isblank($B77)), N76, "")</f>
+        <f t="shared" ref="N77:O77" si="303">if(not(isblank($B77)), N76, "")</f>
         <v/>
       </c>
       <c r="O77" s="11" t="str">
-        <f t="shared" si="302"/>
+        <f t="shared" si="303"/>
         <v/>
       </c>
       <c r="P77" s="11" t="str">
@@ -9180,7 +9180,7 @@
         <v/>
       </c>
       <c r="U77" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V77" s="14" t="str">
@@ -9206,11 +9206,11 @@
         <v/>
       </c>
       <c r="E78" s="11" t="str">
-        <f t="shared" ref="E78:F78" si="303">if(not(isblank($B78)), E77, "")</f>
+        <f t="shared" ref="E78:F78" si="304">if(not(isblank($B78)), E77, "")</f>
         <v/>
       </c>
       <c r="F78" s="11" t="str">
-        <f t="shared" si="303"/>
+        <f t="shared" si="304"/>
         <v/>
       </c>
       <c r="G78" s="11" t="str">
@@ -9218,11 +9218,11 @@
         <v/>
       </c>
       <c r="H78" s="11" t="str">
-        <f t="shared" ref="H78:I78" si="304">if(not(isblank($B78)), H77, "")</f>
+        <f t="shared" ref="H78:I78" si="305">if(not(isblank($B78)), H77, "")</f>
         <v/>
       </c>
       <c r="I78" s="11" t="str">
-        <f t="shared" si="304"/>
+        <f t="shared" si="305"/>
         <v/>
       </c>
       <c r="J78" s="11" t="str">
@@ -9230,11 +9230,11 @@
         <v/>
       </c>
       <c r="K78" s="11" t="str">
-        <f t="shared" ref="K78:L78" si="305">if(not(isblank($B78)), K77, "")</f>
+        <f t="shared" ref="K78:L78" si="306">if(not(isblank($B78)), K77, "")</f>
         <v/>
       </c>
       <c r="L78" s="11" t="str">
-        <f t="shared" si="305"/>
+        <f t="shared" si="306"/>
         <v/>
       </c>
       <c r="M78" s="11" t="str">
@@ -9242,11 +9242,11 @@
         <v/>
       </c>
       <c r="N78" s="11" t="str">
-        <f t="shared" ref="N78:O78" si="306">if(not(isblank($B78)), N77, "")</f>
+        <f t="shared" ref="N78:O78" si="307">if(not(isblank($B78)), N77, "")</f>
         <v/>
       </c>
       <c r="O78" s="11" t="str">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v/>
       </c>
       <c r="P78" s="11" t="str">
@@ -9267,7 +9267,7 @@
         <v/>
       </c>
       <c r="U78" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V78" s="14" t="str">
@@ -9293,11 +9293,11 @@
         <v/>
       </c>
       <c r="E79" s="11" t="str">
-        <f t="shared" ref="E79:F79" si="307">if(not(isblank($B79)), E78, "")</f>
+        <f t="shared" ref="E79:F79" si="308">if(not(isblank($B79)), E78, "")</f>
         <v/>
       </c>
       <c r="F79" s="11" t="str">
-        <f t="shared" si="307"/>
+        <f t="shared" si="308"/>
         <v/>
       </c>
       <c r="G79" s="11" t="str">
@@ -9305,11 +9305,11 @@
         <v/>
       </c>
       <c r="H79" s="11" t="str">
-        <f t="shared" ref="H79:I79" si="308">if(not(isblank($B79)), H78, "")</f>
+        <f t="shared" ref="H79:I79" si="309">if(not(isblank($B79)), H78, "")</f>
         <v/>
       </c>
       <c r="I79" s="11" t="str">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v/>
       </c>
       <c r="J79" s="11" t="str">
@@ -9317,11 +9317,11 @@
         <v/>
       </c>
       <c r="K79" s="11" t="str">
-        <f t="shared" ref="K79:L79" si="309">if(not(isblank($B79)), K78, "")</f>
+        <f t="shared" ref="K79:L79" si="310">if(not(isblank($B79)), K78, "")</f>
         <v/>
       </c>
       <c r="L79" s="11" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v/>
       </c>
       <c r="M79" s="11" t="str">
@@ -9329,11 +9329,11 @@
         <v/>
       </c>
       <c r="N79" s="11" t="str">
-        <f t="shared" ref="N79:O79" si="310">if(not(isblank($B79)), N78, "")</f>
+        <f t="shared" ref="N79:O79" si="311">if(not(isblank($B79)), N78, "")</f>
         <v/>
       </c>
       <c r="O79" s="11" t="str">
-        <f t="shared" si="310"/>
+        <f t="shared" si="311"/>
         <v/>
       </c>
       <c r="P79" s="11" t="str">
@@ -9354,7 +9354,7 @@
         <v/>
       </c>
       <c r="U79" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V79" s="14" t="str">
@@ -9380,11 +9380,11 @@
         <v/>
       </c>
       <c r="E80" s="11" t="str">
-        <f t="shared" ref="E80:F80" si="311">if(not(isblank($B80)), E79, "")</f>
+        <f t="shared" ref="E80:F80" si="312">if(not(isblank($B80)), E79, "")</f>
         <v/>
       </c>
       <c r="F80" s="11" t="str">
-        <f t="shared" si="311"/>
+        <f t="shared" si="312"/>
         <v/>
       </c>
       <c r="G80" s="11" t="str">
@@ -9392,11 +9392,11 @@
         <v/>
       </c>
       <c r="H80" s="11" t="str">
-        <f t="shared" ref="H80:I80" si="312">if(not(isblank($B80)), H79, "")</f>
+        <f t="shared" ref="H80:I80" si="313">if(not(isblank($B80)), H79, "")</f>
         <v/>
       </c>
       <c r="I80" s="11" t="str">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v/>
       </c>
       <c r="J80" s="11" t="str">
@@ -9404,11 +9404,11 @@
         <v/>
       </c>
       <c r="K80" s="11" t="str">
-        <f t="shared" ref="K80:L80" si="313">if(not(isblank($B80)), K79, "")</f>
+        <f t="shared" ref="K80:L80" si="314">if(not(isblank($B80)), K79, "")</f>
         <v/>
       </c>
       <c r="L80" s="11" t="str">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v/>
       </c>
       <c r="M80" s="11" t="str">
@@ -9416,11 +9416,11 @@
         <v/>
       </c>
       <c r="N80" s="11" t="str">
-        <f t="shared" ref="N80:O80" si="314">if(not(isblank($B80)), N79, "")</f>
+        <f t="shared" ref="N80:O80" si="315">if(not(isblank($B80)), N79, "")</f>
         <v/>
       </c>
       <c r="O80" s="11" t="str">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v/>
       </c>
       <c r="P80" s="11" t="str">
@@ -9441,7 +9441,7 @@
         <v/>
       </c>
       <c r="U80" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V80" s="14" t="str">
@@ -9467,11 +9467,11 @@
         <v/>
       </c>
       <c r="E81" s="11" t="str">
-        <f t="shared" ref="E81:F81" si="315">if(not(isblank($B81)), E80, "")</f>
+        <f t="shared" ref="E81:F81" si="316">if(not(isblank($B81)), E80, "")</f>
         <v/>
       </c>
       <c r="F81" s="11" t="str">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v/>
       </c>
       <c r="G81" s="11" t="str">
@@ -9479,11 +9479,11 @@
         <v/>
       </c>
       <c r="H81" s="11" t="str">
-        <f t="shared" ref="H81:I81" si="316">if(not(isblank($B81)), H80, "")</f>
+        <f t="shared" ref="H81:I81" si="317">if(not(isblank($B81)), H80, "")</f>
         <v/>
       </c>
       <c r="I81" s="11" t="str">
-        <f t="shared" si="316"/>
+        <f t="shared" si="317"/>
         <v/>
       </c>
       <c r="J81" s="11" t="str">
@@ -9491,11 +9491,11 @@
         <v/>
       </c>
       <c r="K81" s="11" t="str">
-        <f t="shared" ref="K81:L81" si="317">if(not(isblank($B81)), K80, "")</f>
+        <f t="shared" ref="K81:L81" si="318">if(not(isblank($B81)), K80, "")</f>
         <v/>
       </c>
       <c r="L81" s="11" t="str">
-        <f t="shared" si="317"/>
+        <f t="shared" si="318"/>
         <v/>
       </c>
       <c r="M81" s="11" t="str">
@@ -9503,11 +9503,11 @@
         <v/>
       </c>
       <c r="N81" s="11" t="str">
-        <f t="shared" ref="N81:O81" si="318">if(not(isblank($B81)), N80, "")</f>
+        <f t="shared" ref="N81:O81" si="319">if(not(isblank($B81)), N80, "")</f>
         <v/>
       </c>
       <c r="O81" s="11" t="str">
-        <f t="shared" si="318"/>
+        <f t="shared" si="319"/>
         <v/>
       </c>
       <c r="P81" s="11" t="str">
@@ -9528,7 +9528,7 @@
         <v/>
       </c>
       <c r="U81" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V81" s="14" t="str">
@@ -9554,11 +9554,11 @@
         <v/>
       </c>
       <c r="E82" s="11" t="str">
-        <f t="shared" ref="E82:F82" si="319">if(not(isblank($B82)), E81, "")</f>
+        <f t="shared" ref="E82:F82" si="320">if(not(isblank($B82)), E81, "")</f>
         <v/>
       </c>
       <c r="F82" s="11" t="str">
-        <f t="shared" si="319"/>
+        <f t="shared" si="320"/>
         <v/>
       </c>
       <c r="G82" s="11" t="str">
@@ -9566,11 +9566,11 @@
         <v/>
       </c>
       <c r="H82" s="11" t="str">
-        <f t="shared" ref="H82:I82" si="320">if(not(isblank($B82)), H81, "")</f>
+        <f t="shared" ref="H82:I82" si="321">if(not(isblank($B82)), H81, "")</f>
         <v/>
       </c>
       <c r="I82" s="11" t="str">
-        <f t="shared" si="320"/>
+        <f t="shared" si="321"/>
         <v/>
       </c>
       <c r="J82" s="11" t="str">
@@ -9578,11 +9578,11 @@
         <v/>
       </c>
       <c r="K82" s="11" t="str">
-        <f t="shared" ref="K82:L82" si="321">if(not(isblank($B82)), K81, "")</f>
+        <f t="shared" ref="K82:L82" si="322">if(not(isblank($B82)), K81, "")</f>
         <v/>
       </c>
       <c r="L82" s="11" t="str">
-        <f t="shared" si="321"/>
+        <f t="shared" si="322"/>
         <v/>
       </c>
       <c r="M82" s="11" t="str">
@@ -9590,11 +9590,11 @@
         <v/>
       </c>
       <c r="N82" s="11" t="str">
-        <f t="shared" ref="N82:O82" si="322">if(not(isblank($B82)), N81, "")</f>
+        <f t="shared" ref="N82:O82" si="323">if(not(isblank($B82)), N81, "")</f>
         <v/>
       </c>
       <c r="O82" s="11" t="str">
-        <f t="shared" si="322"/>
+        <f t="shared" si="323"/>
         <v/>
       </c>
       <c r="P82" s="11" t="str">
@@ -9615,7 +9615,7 @@
         <v/>
       </c>
       <c r="U82" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V82" s="14" t="str">
@@ -9641,11 +9641,11 @@
         <v/>
       </c>
       <c r="E83" s="11" t="str">
-        <f t="shared" ref="E83:F83" si="323">if(not(isblank($B83)), E82, "")</f>
+        <f t="shared" ref="E83:F83" si="324">if(not(isblank($B83)), E82, "")</f>
         <v/>
       </c>
       <c r="F83" s="11" t="str">
-        <f t="shared" si="323"/>
+        <f t="shared" si="324"/>
         <v/>
       </c>
       <c r="G83" s="11" t="str">
@@ -9653,11 +9653,11 @@
         <v/>
       </c>
       <c r="H83" s="11" t="str">
-        <f t="shared" ref="H83:I83" si="324">if(not(isblank($B83)), H82, "")</f>
+        <f t="shared" ref="H83:I83" si="325">if(not(isblank($B83)), H82, "")</f>
         <v/>
       </c>
       <c r="I83" s="11" t="str">
-        <f t="shared" si="324"/>
+        <f t="shared" si="325"/>
         <v/>
       </c>
       <c r="J83" s="11" t="str">
@@ -9665,11 +9665,11 @@
         <v/>
       </c>
       <c r="K83" s="11" t="str">
-        <f t="shared" ref="K83:L83" si="325">if(not(isblank($B83)), K82, "")</f>
+        <f t="shared" ref="K83:L83" si="326">if(not(isblank($B83)), K82, "")</f>
         <v/>
       </c>
       <c r="L83" s="11" t="str">
-        <f t="shared" si="325"/>
+        <f t="shared" si="326"/>
         <v/>
       </c>
       <c r="M83" s="11" t="str">
@@ -9677,11 +9677,11 @@
         <v/>
       </c>
       <c r="N83" s="11" t="str">
-        <f t="shared" ref="N83:O83" si="326">if(not(isblank($B83)), N82, "")</f>
+        <f t="shared" ref="N83:O83" si="327">if(not(isblank($B83)), N82, "")</f>
         <v/>
       </c>
       <c r="O83" s="11" t="str">
-        <f t="shared" si="326"/>
+        <f t="shared" si="327"/>
         <v/>
       </c>
       <c r="P83" s="11" t="str">
@@ -9702,7 +9702,7 @@
         <v/>
       </c>
       <c r="U83" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V83" s="14" t="str">
@@ -9728,11 +9728,11 @@
         <v/>
       </c>
       <c r="E84" s="11" t="str">
-        <f t="shared" ref="E84:F84" si="327">if(not(isblank($B84)), E83, "")</f>
+        <f t="shared" ref="E84:F84" si="328">if(not(isblank($B84)), E83, "")</f>
         <v/>
       </c>
       <c r="F84" s="11" t="str">
-        <f t="shared" si="327"/>
+        <f t="shared" si="328"/>
         <v/>
       </c>
       <c r="G84" s="11" t="str">
@@ -9740,11 +9740,11 @@
         <v/>
       </c>
       <c r="H84" s="11" t="str">
-        <f t="shared" ref="H84:I84" si="328">if(not(isblank($B84)), H83, "")</f>
+        <f t="shared" ref="H84:I84" si="329">if(not(isblank($B84)), H83, "")</f>
         <v/>
       </c>
       <c r="I84" s="11" t="str">
-        <f t="shared" si="328"/>
+        <f t="shared" si="329"/>
         <v/>
       </c>
       <c r="J84" s="11" t="str">
@@ -9752,11 +9752,11 @@
         <v/>
       </c>
       <c r="K84" s="11" t="str">
-        <f t="shared" ref="K84:L84" si="329">if(not(isblank($B84)), K83, "")</f>
+        <f t="shared" ref="K84:L84" si="330">if(not(isblank($B84)), K83, "")</f>
         <v/>
       </c>
       <c r="L84" s="11" t="str">
-        <f t="shared" si="329"/>
+        <f t="shared" si="330"/>
         <v/>
       </c>
       <c r="M84" s="11" t="str">
@@ -9764,11 +9764,11 @@
         <v/>
       </c>
       <c r="N84" s="11" t="str">
-        <f t="shared" ref="N84:O84" si="330">if(not(isblank($B84)), N83, "")</f>
+        <f t="shared" ref="N84:O84" si="331">if(not(isblank($B84)), N83, "")</f>
         <v/>
       </c>
       <c r="O84" s="11" t="str">
-        <f t="shared" si="330"/>
+        <f t="shared" si="331"/>
         <v/>
       </c>
       <c r="P84" s="11" t="str">
@@ -9789,7 +9789,7 @@
         <v/>
       </c>
       <c r="U84" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V84" s="14" t="str">
@@ -9815,11 +9815,11 @@
         <v/>
       </c>
       <c r="E85" s="11" t="str">
-        <f t="shared" ref="E85:F85" si="331">if(not(isblank($B85)), E84, "")</f>
+        <f t="shared" ref="E85:F85" si="332">if(not(isblank($B85)), E84, "")</f>
         <v/>
       </c>
       <c r="F85" s="11" t="str">
-        <f t="shared" si="331"/>
+        <f t="shared" si="332"/>
         <v/>
       </c>
       <c r="G85" s="11" t="str">
@@ -9827,11 +9827,11 @@
         <v/>
       </c>
       <c r="H85" s="11" t="str">
-        <f t="shared" ref="H85:I85" si="332">if(not(isblank($B85)), H84, "")</f>
+        <f t="shared" ref="H85:I85" si="333">if(not(isblank($B85)), H84, "")</f>
         <v/>
       </c>
       <c r="I85" s="11" t="str">
-        <f t="shared" si="332"/>
+        <f t="shared" si="333"/>
         <v/>
       </c>
       <c r="J85" s="11" t="str">
@@ -9839,11 +9839,11 @@
         <v/>
       </c>
       <c r="K85" s="11" t="str">
-        <f t="shared" ref="K85:L85" si="333">if(not(isblank($B85)), K84, "")</f>
+        <f t="shared" ref="K85:L85" si="334">if(not(isblank($B85)), K84, "")</f>
         <v/>
       </c>
       <c r="L85" s="11" t="str">
-        <f t="shared" si="333"/>
+        <f t="shared" si="334"/>
         <v/>
       </c>
       <c r="M85" s="11" t="str">
@@ -9851,11 +9851,11 @@
         <v/>
       </c>
       <c r="N85" s="11" t="str">
-        <f t="shared" ref="N85:O85" si="334">if(not(isblank($B85)), N84, "")</f>
+        <f t="shared" ref="N85:O85" si="335">if(not(isblank($B85)), N84, "")</f>
         <v/>
       </c>
       <c r="O85" s="11" t="str">
-        <f t="shared" si="334"/>
+        <f t="shared" si="335"/>
         <v/>
       </c>
       <c r="P85" s="11" t="str">
@@ -9876,7 +9876,7 @@
         <v/>
       </c>
       <c r="U85" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V85" s="14" t="str">
@@ -9902,11 +9902,11 @@
         <v/>
       </c>
       <c r="E86" s="11" t="str">
-        <f t="shared" ref="E86:F86" si="335">if(not(isblank($B86)), E85, "")</f>
+        <f t="shared" ref="E86:F86" si="336">if(not(isblank($B86)), E85, "")</f>
         <v/>
       </c>
       <c r="F86" s="11" t="str">
-        <f t="shared" si="335"/>
+        <f t="shared" si="336"/>
         <v/>
       </c>
       <c r="G86" s="11" t="str">
@@ -9914,11 +9914,11 @@
         <v/>
       </c>
       <c r="H86" s="11" t="str">
-        <f t="shared" ref="H86:I86" si="336">if(not(isblank($B86)), H85, "")</f>
+        <f t="shared" ref="H86:I86" si="337">if(not(isblank($B86)), H85, "")</f>
         <v/>
       </c>
       <c r="I86" s="11" t="str">
-        <f t="shared" si="336"/>
+        <f t="shared" si="337"/>
         <v/>
       </c>
       <c r="J86" s="11" t="str">
@@ -9926,11 +9926,11 @@
         <v/>
       </c>
       <c r="K86" s="11" t="str">
-        <f t="shared" ref="K86:L86" si="337">if(not(isblank($B86)), K85, "")</f>
+        <f t="shared" ref="K86:L86" si="338">if(not(isblank($B86)), K85, "")</f>
         <v/>
       </c>
       <c r="L86" s="11" t="str">
-        <f t="shared" si="337"/>
+        <f t="shared" si="338"/>
         <v/>
       </c>
       <c r="M86" s="11" t="str">
@@ -9938,11 +9938,11 @@
         <v/>
       </c>
       <c r="N86" s="11" t="str">
-        <f t="shared" ref="N86:O86" si="338">if(not(isblank($B86)), N85, "")</f>
+        <f t="shared" ref="N86:O86" si="339">if(not(isblank($B86)), N85, "")</f>
         <v/>
       </c>
       <c r="O86" s="11" t="str">
-        <f t="shared" si="338"/>
+        <f t="shared" si="339"/>
         <v/>
       </c>
       <c r="P86" s="11" t="str">
@@ -9963,7 +9963,7 @@
         <v/>
       </c>
       <c r="U86" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V86" s="14" t="str">
@@ -9989,11 +9989,11 @@
         <v/>
       </c>
       <c r="E87" s="11" t="str">
-        <f t="shared" ref="E87:F87" si="339">if(not(isblank($B87)), E86, "")</f>
+        <f t="shared" ref="E87:F87" si="340">if(not(isblank($B87)), E86, "")</f>
         <v/>
       </c>
       <c r="F87" s="11" t="str">
-        <f t="shared" si="339"/>
+        <f t="shared" si="340"/>
         <v/>
       </c>
       <c r="G87" s="11" t="str">
@@ -10001,11 +10001,11 @@
         <v/>
       </c>
       <c r="H87" s="11" t="str">
-        <f t="shared" ref="H87:I87" si="340">if(not(isblank($B87)), H86, "")</f>
+        <f t="shared" ref="H87:I87" si="341">if(not(isblank($B87)), H86, "")</f>
         <v/>
       </c>
       <c r="I87" s="11" t="str">
-        <f t="shared" si="340"/>
+        <f t="shared" si="341"/>
         <v/>
       </c>
       <c r="J87" s="11" t="str">
@@ -10013,11 +10013,11 @@
         <v/>
       </c>
       <c r="K87" s="11" t="str">
-        <f t="shared" ref="K87:L87" si="341">if(not(isblank($B87)), K86, "")</f>
+        <f t="shared" ref="K87:L87" si="342">if(not(isblank($B87)), K86, "")</f>
         <v/>
       </c>
       <c r="L87" s="11" t="str">
-        <f t="shared" si="341"/>
+        <f t="shared" si="342"/>
         <v/>
       </c>
       <c r="M87" s="11" t="str">
@@ -10025,11 +10025,11 @@
         <v/>
       </c>
       <c r="N87" s="11" t="str">
-        <f t="shared" ref="N87:O87" si="342">if(not(isblank($B87)), N86, "")</f>
+        <f t="shared" ref="N87:O87" si="343">if(not(isblank($B87)), N86, "")</f>
         <v/>
       </c>
       <c r="O87" s="11" t="str">
-        <f t="shared" si="342"/>
+        <f t="shared" si="343"/>
         <v/>
       </c>
       <c r="P87" s="11" t="str">
@@ -10050,7 +10050,7 @@
         <v/>
       </c>
       <c r="U87" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V87" s="14" t="str">
@@ -10076,11 +10076,11 @@
         <v/>
       </c>
       <c r="E88" s="11" t="str">
-        <f t="shared" ref="E88:F88" si="343">if(not(isblank($B88)), E87, "")</f>
+        <f t="shared" ref="E88:F88" si="344">if(not(isblank($B88)), E87, "")</f>
         <v/>
       </c>
       <c r="F88" s="11" t="str">
-        <f t="shared" si="343"/>
+        <f t="shared" si="344"/>
         <v/>
       </c>
       <c r="G88" s="11" t="str">
@@ -10088,11 +10088,11 @@
         <v/>
       </c>
       <c r="H88" s="11" t="str">
-        <f t="shared" ref="H88:I88" si="344">if(not(isblank($B88)), H87, "")</f>
+        <f t="shared" ref="H88:I88" si="345">if(not(isblank($B88)), H87, "")</f>
         <v/>
       </c>
       <c r="I88" s="11" t="str">
-        <f t="shared" si="344"/>
+        <f t="shared" si="345"/>
         <v/>
       </c>
       <c r="J88" s="11" t="str">
@@ -10100,11 +10100,11 @@
         <v/>
       </c>
       <c r="K88" s="11" t="str">
-        <f t="shared" ref="K88:L88" si="345">if(not(isblank($B88)), K87, "")</f>
+        <f t="shared" ref="K88:L88" si="346">if(not(isblank($B88)), K87, "")</f>
         <v/>
       </c>
       <c r="L88" s="11" t="str">
-        <f t="shared" si="345"/>
+        <f t="shared" si="346"/>
         <v/>
       </c>
       <c r="M88" s="11" t="str">
@@ -10112,11 +10112,11 @@
         <v/>
       </c>
       <c r="N88" s="11" t="str">
-        <f t="shared" ref="N88:O88" si="346">if(not(isblank($B88)), N87, "")</f>
+        <f t="shared" ref="N88:O88" si="347">if(not(isblank($B88)), N87, "")</f>
         <v/>
       </c>
       <c r="O88" s="11" t="str">
-        <f t="shared" si="346"/>
+        <f t="shared" si="347"/>
         <v/>
       </c>
       <c r="P88" s="11" t="str">
@@ -10137,7 +10137,7 @@
         <v/>
       </c>
       <c r="U88" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V88" s="14" t="str">
@@ -10163,11 +10163,11 @@
         <v/>
       </c>
       <c r="E89" s="11" t="str">
-        <f t="shared" ref="E89:F89" si="347">if(not(isblank($B89)), E88, "")</f>
+        <f t="shared" ref="E89:F89" si="348">if(not(isblank($B89)), E88, "")</f>
         <v/>
       </c>
       <c r="F89" s="11" t="str">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v/>
       </c>
       <c r="G89" s="11" t="str">
@@ -10175,11 +10175,11 @@
         <v/>
       </c>
       <c r="H89" s="11" t="str">
-        <f t="shared" ref="H89:I89" si="348">if(not(isblank($B89)), H88, "")</f>
+        <f t="shared" ref="H89:I89" si="349">if(not(isblank($B89)), H88, "")</f>
         <v/>
       </c>
       <c r="I89" s="11" t="str">
-        <f t="shared" si="348"/>
+        <f t="shared" si="349"/>
         <v/>
       </c>
       <c r="J89" s="11" t="str">
@@ -10187,11 +10187,11 @@
         <v/>
       </c>
       <c r="K89" s="11" t="str">
-        <f t="shared" ref="K89:L89" si="349">if(not(isblank($B89)), K88, "")</f>
+        <f t="shared" ref="K89:L89" si="350">if(not(isblank($B89)), K88, "")</f>
         <v/>
       </c>
       <c r="L89" s="11" t="str">
-        <f t="shared" si="349"/>
+        <f t="shared" si="350"/>
         <v/>
       </c>
       <c r="M89" s="11" t="str">
@@ -10199,11 +10199,11 @@
         <v/>
       </c>
       <c r="N89" s="11" t="str">
-        <f t="shared" ref="N89:O89" si="350">if(not(isblank($B89)), N88, "")</f>
+        <f t="shared" ref="N89:O89" si="351">if(not(isblank($B89)), N88, "")</f>
         <v/>
       </c>
       <c r="O89" s="11" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="351"/>
         <v/>
       </c>
       <c r="P89" s="11" t="str">
@@ -10224,7 +10224,7 @@
         <v/>
       </c>
       <c r="U89" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V89" s="14" t="str">
@@ -10250,11 +10250,11 @@
         <v/>
       </c>
       <c r="E90" s="11" t="str">
-        <f t="shared" ref="E90:F90" si="351">if(not(isblank($B90)), E89, "")</f>
+        <f t="shared" ref="E90:F90" si="352">if(not(isblank($B90)), E89, "")</f>
         <v/>
       </c>
       <c r="F90" s="11" t="str">
-        <f t="shared" si="351"/>
+        <f t="shared" si="352"/>
         <v/>
       </c>
       <c r="G90" s="11" t="str">
@@ -10262,11 +10262,11 @@
         <v/>
       </c>
       <c r="H90" s="11" t="str">
-        <f t="shared" ref="H90:I90" si="352">if(not(isblank($B90)), H89, "")</f>
+        <f t="shared" ref="H90:I90" si="353">if(not(isblank($B90)), H89, "")</f>
         <v/>
       </c>
       <c r="I90" s="11" t="str">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v/>
       </c>
       <c r="J90" s="11" t="str">
@@ -10274,11 +10274,11 @@
         <v/>
       </c>
       <c r="K90" s="11" t="str">
-        <f t="shared" ref="K90:L90" si="353">if(not(isblank($B90)), K89, "")</f>
+        <f t="shared" ref="K90:L90" si="354">if(not(isblank($B90)), K89, "")</f>
         <v/>
       </c>
       <c r="L90" s="11" t="str">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v/>
       </c>
       <c r="M90" s="11" t="str">
@@ -10286,11 +10286,11 @@
         <v/>
       </c>
       <c r="N90" s="11" t="str">
-        <f t="shared" ref="N90:O90" si="354">if(not(isblank($B90)), N89, "")</f>
+        <f t="shared" ref="N90:O90" si="355">if(not(isblank($B90)), N89, "")</f>
         <v/>
       </c>
       <c r="O90" s="11" t="str">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v/>
       </c>
       <c r="P90" s="11" t="str">
@@ -10311,7 +10311,7 @@
         <v/>
       </c>
       <c r="U90" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V90" s="14" t="str">
@@ -10337,11 +10337,11 @@
         <v/>
       </c>
       <c r="E91" s="11" t="str">
-        <f t="shared" ref="E91:F91" si="355">if(not(isblank($B91)), E90, "")</f>
+        <f t="shared" ref="E91:F91" si="356">if(not(isblank($B91)), E90, "")</f>
         <v/>
       </c>
       <c r="F91" s="11" t="str">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v/>
       </c>
       <c r="G91" s="11" t="str">
@@ -10349,11 +10349,11 @@
         <v/>
       </c>
       <c r="H91" s="11" t="str">
-        <f t="shared" ref="H91:I91" si="356">if(not(isblank($B91)), H90, "")</f>
+        <f t="shared" ref="H91:I91" si="357">if(not(isblank($B91)), H90, "")</f>
         <v/>
       </c>
       <c r="I91" s="11" t="str">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v/>
       </c>
       <c r="J91" s="11" t="str">
@@ -10361,11 +10361,11 @@
         <v/>
       </c>
       <c r="K91" s="11" t="str">
-        <f t="shared" ref="K91:L91" si="357">if(not(isblank($B91)), K90, "")</f>
+        <f t="shared" ref="K91:L91" si="358">if(not(isblank($B91)), K90, "")</f>
         <v/>
       </c>
       <c r="L91" s="11" t="str">
-        <f t="shared" si="357"/>
+        <f t="shared" si="358"/>
         <v/>
       </c>
       <c r="M91" s="11" t="str">
@@ -10373,11 +10373,11 @@
         <v/>
       </c>
       <c r="N91" s="11" t="str">
-        <f t="shared" ref="N91:O91" si="358">if(not(isblank($B91)), N90, "")</f>
+        <f t="shared" ref="N91:O91" si="359">if(not(isblank($B91)), N90, "")</f>
         <v/>
       </c>
       <c r="O91" s="11" t="str">
-        <f t="shared" si="358"/>
+        <f t="shared" si="359"/>
         <v/>
       </c>
       <c r="P91" s="11" t="str">
@@ -10398,7 +10398,7 @@
         <v/>
       </c>
       <c r="U91" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V91" s="14" t="str">
@@ -10424,11 +10424,11 @@
         <v/>
       </c>
       <c r="E92" s="11" t="str">
-        <f t="shared" ref="E92:F92" si="359">if(not(isblank($B92)), E91, "")</f>
+        <f t="shared" ref="E92:F92" si="360">if(not(isblank($B92)), E91, "")</f>
         <v/>
       </c>
       <c r="F92" s="11" t="str">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v/>
       </c>
       <c r="G92" s="11" t="str">
@@ -10436,11 +10436,11 @@
         <v/>
       </c>
       <c r="H92" s="11" t="str">
-        <f t="shared" ref="H92:I92" si="360">if(not(isblank($B92)), H91, "")</f>
+        <f t="shared" ref="H92:I92" si="361">if(not(isblank($B92)), H91, "")</f>
         <v/>
       </c>
       <c r="I92" s="11" t="str">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v/>
       </c>
       <c r="J92" s="11" t="str">
@@ -10448,11 +10448,11 @@
         <v/>
       </c>
       <c r="K92" s="11" t="str">
-        <f t="shared" ref="K92:L92" si="361">if(not(isblank($B92)), K91, "")</f>
+        <f t="shared" ref="K92:L92" si="362">if(not(isblank($B92)), K91, "")</f>
         <v/>
       </c>
       <c r="L92" s="11" t="str">
-        <f t="shared" si="361"/>
+        <f t="shared" si="362"/>
         <v/>
       </c>
       <c r="M92" s="11" t="str">
@@ -10460,11 +10460,11 @@
         <v/>
       </c>
       <c r="N92" s="11" t="str">
-        <f t="shared" ref="N92:O92" si="362">if(not(isblank($B92)), N91, "")</f>
+        <f t="shared" ref="N92:O92" si="363">if(not(isblank($B92)), N91, "")</f>
         <v/>
       </c>
       <c r="O92" s="11" t="str">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v/>
       </c>
       <c r="P92" s="11" t="str">
@@ -10485,7 +10485,7 @@
         <v/>
       </c>
       <c r="U92" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V92" s="14" t="str">
@@ -10511,11 +10511,11 @@
         <v/>
       </c>
       <c r="E93" s="11" t="str">
-        <f t="shared" ref="E93:F93" si="363">if(not(isblank($B93)), E92, "")</f>
+        <f t="shared" ref="E93:F93" si="364">if(not(isblank($B93)), E92, "")</f>
         <v/>
       </c>
       <c r="F93" s="11" t="str">
-        <f t="shared" si="363"/>
+        <f t="shared" si="364"/>
         <v/>
       </c>
       <c r="G93" s="11" t="str">
@@ -10523,11 +10523,11 @@
         <v/>
       </c>
       <c r="H93" s="11" t="str">
-        <f t="shared" ref="H93:I93" si="364">if(not(isblank($B93)), H92, "")</f>
+        <f t="shared" ref="H93:I93" si="365">if(not(isblank($B93)), H92, "")</f>
         <v/>
       </c>
       <c r="I93" s="11" t="str">
-        <f t="shared" si="364"/>
+        <f t="shared" si="365"/>
         <v/>
       </c>
       <c r="J93" s="11" t="str">
@@ -10535,11 +10535,11 @@
         <v/>
       </c>
       <c r="K93" s="11" t="str">
-        <f t="shared" ref="K93:L93" si="365">if(not(isblank($B93)), K92, "")</f>
+        <f t="shared" ref="K93:L93" si="366">if(not(isblank($B93)), K92, "")</f>
         <v/>
       </c>
       <c r="L93" s="11" t="str">
-        <f t="shared" si="365"/>
+        <f t="shared" si="366"/>
         <v/>
       </c>
       <c r="M93" s="11" t="str">
@@ -10547,11 +10547,11 @@
         <v/>
       </c>
       <c r="N93" s="11" t="str">
-        <f t="shared" ref="N93:O93" si="366">if(not(isblank($B93)), N92, "")</f>
+        <f t="shared" ref="N93:O93" si="367">if(not(isblank($B93)), N92, "")</f>
         <v/>
       </c>
       <c r="O93" s="11" t="str">
-        <f t="shared" si="366"/>
+        <f t="shared" si="367"/>
         <v/>
       </c>
       <c r="P93" s="11" t="str">
@@ -10572,7 +10572,7 @@
         <v/>
       </c>
       <c r="U93" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V93" s="14" t="str">
@@ -10598,11 +10598,11 @@
         <v/>
       </c>
       <c r="E94" s="11" t="str">
-        <f t="shared" ref="E94:F94" si="367">if(not(isblank($B94)), E93, "")</f>
+        <f t="shared" ref="E94:F94" si="368">if(not(isblank($B94)), E93, "")</f>
         <v/>
       </c>
       <c r="F94" s="11" t="str">
-        <f t="shared" si="367"/>
+        <f t="shared" si="368"/>
         <v/>
       </c>
       <c r="G94" s="11" t="str">
@@ -10610,11 +10610,11 @@
         <v/>
       </c>
       <c r="H94" s="11" t="str">
-        <f t="shared" ref="H94:I94" si="368">if(not(isblank($B94)), H93, "")</f>
+        <f t="shared" ref="H94:I94" si="369">if(not(isblank($B94)), H93, "")</f>
         <v/>
       </c>
       <c r="I94" s="11" t="str">
-        <f t="shared" si="368"/>
+        <f t="shared" si="369"/>
         <v/>
       </c>
       <c r="J94" s="11" t="str">
@@ -10622,11 +10622,11 @@
         <v/>
       </c>
       <c r="K94" s="11" t="str">
-        <f t="shared" ref="K94:L94" si="369">if(not(isblank($B94)), K93, "")</f>
+        <f t="shared" ref="K94:L94" si="370">if(not(isblank($B94)), K93, "")</f>
         <v/>
       </c>
       <c r="L94" s="11" t="str">
-        <f t="shared" si="369"/>
+        <f t="shared" si="370"/>
         <v/>
       </c>
       <c r="M94" s="11" t="str">
@@ -10634,11 +10634,11 @@
         <v/>
       </c>
       <c r="N94" s="11" t="str">
-        <f t="shared" ref="N94:O94" si="370">if(not(isblank($B94)), N93, "")</f>
+        <f t="shared" ref="N94:O94" si="371">if(not(isblank($B94)), N93, "")</f>
         <v/>
       </c>
       <c r="O94" s="11" t="str">
-        <f t="shared" si="370"/>
+        <f t="shared" si="371"/>
         <v/>
       </c>
       <c r="P94" s="11" t="str">
@@ -10659,7 +10659,7 @@
         <v/>
       </c>
       <c r="U94" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V94" s="14" t="str">
@@ -10685,11 +10685,11 @@
         <v/>
       </c>
       <c r="E95" s="11" t="str">
-        <f t="shared" ref="E95:F95" si="371">if(not(isblank($B95)), E94, "")</f>
+        <f t="shared" ref="E95:F95" si="372">if(not(isblank($B95)), E94, "")</f>
         <v/>
       </c>
       <c r="F95" s="11" t="str">
-        <f t="shared" si="371"/>
+        <f t="shared" si="372"/>
         <v/>
       </c>
       <c r="G95" s="11" t="str">
@@ -10697,11 +10697,11 @@
         <v/>
       </c>
       <c r="H95" s="11" t="str">
-        <f t="shared" ref="H95:I95" si="372">if(not(isblank($B95)), H94, "")</f>
+        <f t="shared" ref="H95:I95" si="373">if(not(isblank($B95)), H94, "")</f>
         <v/>
       </c>
       <c r="I95" s="11" t="str">
-        <f t="shared" si="372"/>
+        <f t="shared" si="373"/>
         <v/>
       </c>
       <c r="J95" s="11" t="str">
@@ -10709,11 +10709,11 @@
         <v/>
       </c>
       <c r="K95" s="11" t="str">
-        <f t="shared" ref="K95:L95" si="373">if(not(isblank($B95)), K94, "")</f>
+        <f t="shared" ref="K95:L95" si="374">if(not(isblank($B95)), K94, "")</f>
         <v/>
       </c>
       <c r="L95" s="11" t="str">
-        <f t="shared" si="373"/>
+        <f t="shared" si="374"/>
         <v/>
       </c>
       <c r="M95" s="11" t="str">
@@ -10721,11 +10721,11 @@
         <v/>
       </c>
       <c r="N95" s="11" t="str">
-        <f t="shared" ref="N95:O95" si="374">if(not(isblank($B95)), N94, "")</f>
+        <f t="shared" ref="N95:O95" si="375">if(not(isblank($B95)), N94, "")</f>
         <v/>
       </c>
       <c r="O95" s="11" t="str">
-        <f t="shared" si="374"/>
+        <f t="shared" si="375"/>
         <v/>
       </c>
       <c r="P95" s="11" t="str">
@@ -10746,7 +10746,7 @@
         <v/>
       </c>
       <c r="U95" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V95" s="14" t="str">
@@ -10772,11 +10772,11 @@
         <v/>
       </c>
       <c r="E96" s="11" t="str">
-        <f t="shared" ref="E96:F96" si="375">if(not(isblank($B96)), E95, "")</f>
+        <f t="shared" ref="E96:F96" si="376">if(not(isblank($B96)), E95, "")</f>
         <v/>
       </c>
       <c r="F96" s="11" t="str">
-        <f t="shared" si="375"/>
+        <f t="shared" si="376"/>
         <v/>
       </c>
       <c r="G96" s="11" t="str">
@@ -10784,11 +10784,11 @@
         <v/>
       </c>
       <c r="H96" s="11" t="str">
-        <f t="shared" ref="H96:I96" si="376">if(not(isblank($B96)), H95, "")</f>
+        <f t="shared" ref="H96:I96" si="377">if(not(isblank($B96)), H95, "")</f>
         <v/>
       </c>
       <c r="I96" s="11" t="str">
-        <f t="shared" si="376"/>
+        <f t="shared" si="377"/>
         <v/>
       </c>
       <c r="J96" s="11" t="str">
@@ -10796,11 +10796,11 @@
         <v/>
       </c>
       <c r="K96" s="11" t="str">
-        <f t="shared" ref="K96:L96" si="377">if(not(isblank($B96)), K95, "")</f>
+        <f t="shared" ref="K96:L96" si="378">if(not(isblank($B96)), K95, "")</f>
         <v/>
       </c>
       <c r="L96" s="11" t="str">
-        <f t="shared" si="377"/>
+        <f t="shared" si="378"/>
         <v/>
       </c>
       <c r="M96" s="11" t="str">
@@ -10808,11 +10808,11 @@
         <v/>
       </c>
       <c r="N96" s="11" t="str">
-        <f t="shared" ref="N96:O96" si="378">if(not(isblank($B96)), N95, "")</f>
+        <f t="shared" ref="N96:O96" si="379">if(not(isblank($B96)), N95, "")</f>
         <v/>
       </c>
       <c r="O96" s="11" t="str">
-        <f t="shared" si="378"/>
+        <f t="shared" si="379"/>
         <v/>
       </c>
       <c r="P96" s="11" t="str">
@@ -10833,7 +10833,7 @@
         <v/>
       </c>
       <c r="U96" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V96" s="14" t="str">
@@ -10859,11 +10859,11 @@
         <v/>
       </c>
       <c r="E97" s="11" t="str">
-        <f t="shared" ref="E97:F97" si="379">if(not(isblank($B97)), E96, "")</f>
+        <f t="shared" ref="E97:F97" si="380">if(not(isblank($B97)), E96, "")</f>
         <v/>
       </c>
       <c r="F97" s="11" t="str">
-        <f t="shared" si="379"/>
+        <f t="shared" si="380"/>
         <v/>
       </c>
       <c r="G97" s="11" t="str">
@@ -10871,11 +10871,11 @@
         <v/>
       </c>
       <c r="H97" s="11" t="str">
-        <f t="shared" ref="H97:I97" si="380">if(not(isblank($B97)), H96, "")</f>
+        <f t="shared" ref="H97:I97" si="381">if(not(isblank($B97)), H96, "")</f>
         <v/>
       </c>
       <c r="I97" s="11" t="str">
-        <f t="shared" si="380"/>
+        <f t="shared" si="381"/>
         <v/>
       </c>
       <c r="J97" s="11" t="str">
@@ -10883,11 +10883,11 @@
         <v/>
       </c>
       <c r="K97" s="11" t="str">
-        <f t="shared" ref="K97:L97" si="381">if(not(isblank($B97)), K96, "")</f>
+        <f t="shared" ref="K97:L97" si="382">if(not(isblank($B97)), K96, "")</f>
         <v/>
       </c>
       <c r="L97" s="11" t="str">
-        <f t="shared" si="381"/>
+        <f t="shared" si="382"/>
         <v/>
       </c>
       <c r="M97" s="11" t="str">
@@ -10895,11 +10895,11 @@
         <v/>
       </c>
       <c r="N97" s="11" t="str">
-        <f t="shared" ref="N97:O97" si="382">if(not(isblank($B97)), N96, "")</f>
+        <f t="shared" ref="N97:O97" si="383">if(not(isblank($B97)), N96, "")</f>
         <v/>
       </c>
       <c r="O97" s="11" t="str">
-        <f t="shared" si="382"/>
+        <f t="shared" si="383"/>
         <v/>
       </c>
       <c r="P97" s="11" t="str">
@@ -10920,7 +10920,7 @@
         <v/>
       </c>
       <c r="U97" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V97" s="14" t="str">
@@ -10946,11 +10946,11 @@
         <v/>
       </c>
       <c r="E98" s="11" t="str">
-        <f t="shared" ref="E98:F98" si="383">if(not(isblank($B98)), E97, "")</f>
+        <f t="shared" ref="E98:F98" si="384">if(not(isblank($B98)), E97, "")</f>
         <v/>
       </c>
       <c r="F98" s="11" t="str">
-        <f t="shared" si="383"/>
+        <f t="shared" si="384"/>
         <v/>
       </c>
       <c r="G98" s="11" t="str">
@@ -10958,11 +10958,11 @@
         <v/>
       </c>
       <c r="H98" s="11" t="str">
-        <f t="shared" ref="H98:I98" si="384">if(not(isblank($B98)), H97, "")</f>
+        <f t="shared" ref="H98:I98" si="385">if(not(isblank($B98)), H97, "")</f>
         <v/>
       </c>
       <c r="I98" s="11" t="str">
-        <f t="shared" si="384"/>
+        <f t="shared" si="385"/>
         <v/>
       </c>
       <c r="J98" s="11" t="str">
@@ -10970,11 +10970,11 @@
         <v/>
       </c>
       <c r="K98" s="11" t="str">
-        <f t="shared" ref="K98:L98" si="385">if(not(isblank($B98)), K97, "")</f>
+        <f t="shared" ref="K98:L98" si="386">if(not(isblank($B98)), K97, "")</f>
         <v/>
       </c>
       <c r="L98" s="11" t="str">
-        <f t="shared" si="385"/>
+        <f t="shared" si="386"/>
         <v/>
       </c>
       <c r="M98" s="11" t="str">
@@ -10982,11 +10982,11 @@
         <v/>
       </c>
       <c r="N98" s="11" t="str">
-        <f t="shared" ref="N98:O98" si="386">if(not(isblank($B98)), N97, "")</f>
+        <f t="shared" ref="N98:O98" si="387">if(not(isblank($B98)), N97, "")</f>
         <v/>
       </c>
       <c r="O98" s="11" t="str">
-        <f t="shared" si="386"/>
+        <f t="shared" si="387"/>
         <v/>
       </c>
       <c r="P98" s="11" t="str">
@@ -11007,7 +11007,7 @@
         <v/>
       </c>
       <c r="U98" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V98" s="14" t="str">
@@ -11033,11 +11033,11 @@
         <v/>
       </c>
       <c r="E99" s="11" t="str">
-        <f t="shared" ref="E99:F99" si="387">if(not(isblank($B99)), E98, "")</f>
+        <f t="shared" ref="E99:F99" si="388">if(not(isblank($B99)), E98, "")</f>
         <v/>
       </c>
       <c r="F99" s="11" t="str">
-        <f t="shared" si="387"/>
+        <f t="shared" si="388"/>
         <v/>
       </c>
       <c r="G99" s="11" t="str">
@@ -11045,11 +11045,11 @@
         <v/>
       </c>
       <c r="H99" s="11" t="str">
-        <f t="shared" ref="H99:I99" si="388">if(not(isblank($B99)), H98, "")</f>
+        <f t="shared" ref="H99:I99" si="389">if(not(isblank($B99)), H98, "")</f>
         <v/>
       </c>
       <c r="I99" s="11" t="str">
-        <f t="shared" si="388"/>
+        <f t="shared" si="389"/>
         <v/>
       </c>
       <c r="J99" s="11" t="str">
@@ -11057,11 +11057,11 @@
         <v/>
       </c>
       <c r="K99" s="11" t="str">
-        <f t="shared" ref="K99:L99" si="389">if(not(isblank($B99)), K98, "")</f>
+        <f t="shared" ref="K99:L99" si="390">if(not(isblank($B99)), K98, "")</f>
         <v/>
       </c>
       <c r="L99" s="11" t="str">
-        <f t="shared" si="389"/>
+        <f t="shared" si="390"/>
         <v/>
       </c>
       <c r="M99" s="11" t="str">
@@ -11069,11 +11069,11 @@
         <v/>
       </c>
       <c r="N99" s="11" t="str">
-        <f t="shared" ref="N99:O99" si="390">if(not(isblank($B99)), N98, "")</f>
+        <f t="shared" ref="N99:O99" si="391">if(not(isblank($B99)), N98, "")</f>
         <v/>
       </c>
       <c r="O99" s="11" t="str">
-        <f t="shared" si="390"/>
+        <f t="shared" si="391"/>
         <v/>
       </c>
       <c r="P99" s="11" t="str">
@@ -11094,7 +11094,7 @@
         <v/>
       </c>
       <c r="U99" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V99" s="14" t="str">
@@ -11120,11 +11120,11 @@
         <v/>
       </c>
       <c r="E100" s="11" t="str">
-        <f t="shared" ref="E100:F100" si="391">if(not(isblank($B100)), E99, "")</f>
+        <f t="shared" ref="E100:F100" si="392">if(not(isblank($B100)), E99, "")</f>
         <v/>
       </c>
       <c r="F100" s="11" t="str">
-        <f t="shared" si="391"/>
+        <f t="shared" si="392"/>
         <v/>
       </c>
       <c r="G100" s="11" t="str">
@@ -11132,11 +11132,11 @@
         <v/>
       </c>
       <c r="H100" s="11" t="str">
-        <f t="shared" ref="H100:I100" si="392">if(not(isblank($B100)), H99, "")</f>
+        <f t="shared" ref="H100:I100" si="393">if(not(isblank($B100)), H99, "")</f>
         <v/>
       </c>
       <c r="I100" s="11" t="str">
-        <f t="shared" si="392"/>
+        <f t="shared" si="393"/>
         <v/>
       </c>
       <c r="J100" s="11" t="str">
@@ -11144,11 +11144,11 @@
         <v/>
       </c>
       <c r="K100" s="11" t="str">
-        <f t="shared" ref="K100:L100" si="393">if(not(isblank($B100)), K99, "")</f>
+        <f t="shared" ref="K100:L100" si="394">if(not(isblank($B100)), K99, "")</f>
         <v/>
       </c>
       <c r="L100" s="11" t="str">
-        <f t="shared" si="393"/>
+        <f t="shared" si="394"/>
         <v/>
       </c>
       <c r="M100" s="11" t="str">
@@ -11156,11 +11156,11 @@
         <v/>
       </c>
       <c r="N100" s="11" t="str">
-        <f t="shared" ref="N100:O100" si="394">if(not(isblank($B100)), N99, "")</f>
+        <f t="shared" ref="N100:O100" si="395">if(not(isblank($B100)), N99, "")</f>
         <v/>
       </c>
       <c r="O100" s="11" t="str">
-        <f t="shared" si="394"/>
+        <f t="shared" si="395"/>
         <v/>
       </c>
       <c r="P100" s="11" t="str">
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="U100" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V100" s="14" t="str">
@@ -11207,11 +11207,11 @@
         <v/>
       </c>
       <c r="E101" s="11" t="str">
-        <f t="shared" ref="E101:F101" si="395">if(not(isblank($B101)), E100, "")</f>
+        <f t="shared" ref="E101:F101" si="396">if(not(isblank($B101)), E100, "")</f>
         <v/>
       </c>
       <c r="F101" s="11" t="str">
-        <f t="shared" si="395"/>
+        <f t="shared" si="396"/>
         <v/>
       </c>
       <c r="G101" s="11" t="str">
@@ -11219,11 +11219,11 @@
         <v/>
       </c>
       <c r="H101" s="11" t="str">
-        <f t="shared" ref="H101:I101" si="396">if(not(isblank($B101)), H100, "")</f>
+        <f t="shared" ref="H101:I101" si="397">if(not(isblank($B101)), H100, "")</f>
         <v/>
       </c>
       <c r="I101" s="11" t="str">
-        <f t="shared" si="396"/>
+        <f t="shared" si="397"/>
         <v/>
       </c>
       <c r="J101" s="11" t="str">
@@ -11231,11 +11231,11 @@
         <v/>
       </c>
       <c r="K101" s="11" t="str">
-        <f t="shared" ref="K101:L101" si="397">if(not(isblank($B101)), K100, "")</f>
+        <f t="shared" ref="K101:L101" si="398">if(not(isblank($B101)), K100, "")</f>
         <v/>
       </c>
       <c r="L101" s="11" t="str">
-        <f t="shared" si="397"/>
+        <f t="shared" si="398"/>
         <v/>
       </c>
       <c r="M101" s="11" t="str">
@@ -11243,11 +11243,11 @@
         <v/>
       </c>
       <c r="N101" s="11" t="str">
-        <f t="shared" ref="N101:O101" si="398">if(not(isblank($B101)), N100, "")</f>
+        <f t="shared" ref="N101:O101" si="399">if(not(isblank($B101)), N100, "")</f>
         <v/>
       </c>
       <c r="O101" s="11" t="str">
-        <f t="shared" si="398"/>
+        <f t="shared" si="399"/>
         <v/>
       </c>
       <c r="P101" s="11" t="str">
@@ -11268,7 +11268,7 @@
         <v/>
       </c>
       <c r="U101" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V101" s="14" t="str">
@@ -11294,11 +11294,11 @@
         <v/>
       </c>
       <c r="E102" s="11" t="str">
-        <f t="shared" ref="E102:F102" si="399">if(not(isblank($B102)), E101, "")</f>
+        <f t="shared" ref="E102:F102" si="400">if(not(isblank($B102)), E101, "")</f>
         <v/>
       </c>
       <c r="F102" s="11" t="str">
-        <f t="shared" si="399"/>
+        <f t="shared" si="400"/>
         <v/>
       </c>
       <c r="G102" s="11" t="str">
@@ -11306,11 +11306,11 @@
         <v/>
       </c>
       <c r="H102" s="11" t="str">
-        <f t="shared" ref="H102:I102" si="400">if(not(isblank($B102)), H101, "")</f>
+        <f t="shared" ref="H102:I102" si="401">if(not(isblank($B102)), H101, "")</f>
         <v/>
       </c>
       <c r="I102" s="11" t="str">
-        <f t="shared" si="400"/>
+        <f t="shared" si="401"/>
         <v/>
       </c>
       <c r="J102" s="11" t="str">
@@ -11318,11 +11318,11 @@
         <v/>
       </c>
       <c r="K102" s="11" t="str">
-        <f t="shared" ref="K102:L102" si="401">if(not(isblank($B102)), K101, "")</f>
+        <f t="shared" ref="K102:L102" si="402">if(not(isblank($B102)), K101, "")</f>
         <v/>
       </c>
       <c r="L102" s="11" t="str">
-        <f t="shared" si="401"/>
+        <f t="shared" si="402"/>
         <v/>
       </c>
       <c r="M102" s="11" t="str">
@@ -11330,11 +11330,11 @@
         <v/>
       </c>
       <c r="N102" s="11" t="str">
-        <f t="shared" ref="N102:O102" si="402">if(not(isblank($B102)), N101, "")</f>
+        <f t="shared" ref="N102:O102" si="403">if(not(isblank($B102)), N101, "")</f>
         <v/>
       </c>
       <c r="O102" s="11" t="str">
-        <f t="shared" si="402"/>
+        <f t="shared" si="403"/>
         <v/>
       </c>
       <c r="P102" s="11" t="str">
@@ -11355,7 +11355,7 @@
         <v/>
       </c>
       <c r="U102" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V102" s="14" t="str">
@@ -11381,11 +11381,11 @@
         <v/>
       </c>
       <c r="E103" s="11" t="str">
-        <f t="shared" ref="E103:F103" si="403">if(not(isblank($B103)), E102, "")</f>
+        <f t="shared" ref="E103:F103" si="404">if(not(isblank($B103)), E102, "")</f>
         <v/>
       </c>
       <c r="F103" s="11" t="str">
-        <f t="shared" si="403"/>
+        <f t="shared" si="404"/>
         <v/>
       </c>
       <c r="G103" s="11" t="str">
@@ -11393,11 +11393,11 @@
         <v/>
       </c>
       <c r="H103" s="11" t="str">
-        <f t="shared" ref="H103:I103" si="404">if(not(isblank($B103)), H102, "")</f>
+        <f t="shared" ref="H103:I103" si="405">if(not(isblank($B103)), H102, "")</f>
         <v/>
       </c>
       <c r="I103" s="11" t="str">
-        <f t="shared" si="404"/>
+        <f t="shared" si="405"/>
         <v/>
       </c>
       <c r="J103" s="11" t="str">
@@ -11405,11 +11405,11 @@
         <v/>
       </c>
       <c r="K103" s="11" t="str">
-        <f t="shared" ref="K103:L103" si="405">if(not(isblank($B103)), K102, "")</f>
+        <f t="shared" ref="K103:L103" si="406">if(not(isblank($B103)), K102, "")</f>
         <v/>
       </c>
       <c r="L103" s="11" t="str">
-        <f t="shared" si="405"/>
+        <f t="shared" si="406"/>
         <v/>
       </c>
       <c r="M103" s="11" t="str">
@@ -11417,11 +11417,11 @@
         <v/>
       </c>
       <c r="N103" s="11" t="str">
-        <f t="shared" ref="N103:O103" si="406">if(not(isblank($B103)), N102, "")</f>
+        <f t="shared" ref="N103:O103" si="407">if(not(isblank($B103)), N102, "")</f>
         <v/>
       </c>
       <c r="O103" s="11" t="str">
-        <f t="shared" si="406"/>
+        <f t="shared" si="407"/>
         <v/>
       </c>
       <c r="P103" s="11" t="str">
@@ -11442,7 +11442,7 @@
         <v/>
       </c>
       <c r="U103" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V103" s="14" t="str">
@@ -11468,11 +11468,11 @@
         <v/>
       </c>
       <c r="E104" s="11" t="str">
-        <f t="shared" ref="E104:F104" si="407">if(not(isblank($B104)), E103, "")</f>
+        <f t="shared" ref="E104:F104" si="408">if(not(isblank($B104)), E103, "")</f>
         <v/>
       </c>
       <c r="F104" s="11" t="str">
-        <f t="shared" si="407"/>
+        <f t="shared" si="408"/>
         <v/>
       </c>
       <c r="G104" s="11" t="str">
@@ -11480,11 +11480,11 @@
         <v/>
       </c>
       <c r="H104" s="11" t="str">
-        <f t="shared" ref="H104:I104" si="408">if(not(isblank($B104)), H103, "")</f>
+        <f t="shared" ref="H104:I104" si="409">if(not(isblank($B104)), H103, "")</f>
         <v/>
       </c>
       <c r="I104" s="11" t="str">
-        <f t="shared" si="408"/>
+        <f t="shared" si="409"/>
         <v/>
       </c>
       <c r="J104" s="11" t="str">
@@ -11492,11 +11492,11 @@
         <v/>
       </c>
       <c r="K104" s="11" t="str">
-        <f t="shared" ref="K104:L104" si="409">if(not(isblank($B104)), K103, "")</f>
+        <f t="shared" ref="K104:L104" si="410">if(not(isblank($B104)), K103, "")</f>
         <v/>
       </c>
       <c r="L104" s="11" t="str">
-        <f t="shared" si="409"/>
+        <f t="shared" si="410"/>
         <v/>
       </c>
       <c r="M104" s="11" t="str">
@@ -11504,11 +11504,11 @@
         <v/>
       </c>
       <c r="N104" s="11" t="str">
-        <f t="shared" ref="N104:O104" si="410">if(not(isblank($B104)), N103, "")</f>
+        <f t="shared" ref="N104:O104" si="411">if(not(isblank($B104)), N103, "")</f>
         <v/>
       </c>
       <c r="O104" s="11" t="str">
-        <f t="shared" si="410"/>
+        <f t="shared" si="411"/>
         <v/>
       </c>
       <c r="P104" s="11" t="str">
@@ -11529,7 +11529,7 @@
         <v/>
       </c>
       <c r="U104" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V104" s="14" t="str">
@@ -11555,11 +11555,11 @@
         <v/>
       </c>
       <c r="E105" s="11" t="str">
-        <f t="shared" ref="E105:F105" si="411">if(not(isblank($B105)), E104, "")</f>
+        <f t="shared" ref="E105:F105" si="412">if(not(isblank($B105)), E104, "")</f>
         <v/>
       </c>
       <c r="F105" s="11" t="str">
-        <f t="shared" si="411"/>
+        <f t="shared" si="412"/>
         <v/>
       </c>
       <c r="G105" s="11" t="str">
@@ -11567,11 +11567,11 @@
         <v/>
       </c>
       <c r="H105" s="11" t="str">
-        <f t="shared" ref="H105:I105" si="412">if(not(isblank($B105)), H104, "")</f>
+        <f t="shared" ref="H105:I105" si="413">if(not(isblank($B105)), H104, "")</f>
         <v/>
       </c>
       <c r="I105" s="11" t="str">
-        <f t="shared" si="412"/>
+        <f t="shared" si="413"/>
         <v/>
       </c>
       <c r="J105" s="11" t="str">
@@ -11579,11 +11579,11 @@
         <v/>
       </c>
       <c r="K105" s="11" t="str">
-        <f t="shared" ref="K105:L105" si="413">if(not(isblank($B105)), K104, "")</f>
+        <f t="shared" ref="K105:L105" si="414">if(not(isblank($B105)), K104, "")</f>
         <v/>
       </c>
       <c r="L105" s="11" t="str">
-        <f t="shared" si="413"/>
+        <f t="shared" si="414"/>
         <v/>
       </c>
       <c r="M105" s="11" t="str">
@@ -11591,11 +11591,11 @@
         <v/>
       </c>
       <c r="N105" s="11" t="str">
-        <f t="shared" ref="N105:O105" si="414">if(not(isblank($B105)), N104, "")</f>
+        <f t="shared" ref="N105:O105" si="415">if(not(isblank($B105)), N104, "")</f>
         <v/>
       </c>
       <c r="O105" s="11" t="str">
-        <f t="shared" si="414"/>
+        <f t="shared" si="415"/>
         <v/>
       </c>
       <c r="P105" s="11" t="str">
@@ -11616,7 +11616,7 @@
         <v/>
       </c>
       <c r="U105" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V105" s="14" t="str">
@@ -11642,11 +11642,11 @@
         <v/>
       </c>
       <c r="E106" s="11" t="str">
-        <f t="shared" ref="E106:F106" si="415">if(not(isblank($B106)), E105, "")</f>
+        <f t="shared" ref="E106:F106" si="416">if(not(isblank($B106)), E105, "")</f>
         <v/>
       </c>
       <c r="F106" s="11" t="str">
-        <f t="shared" si="415"/>
+        <f t="shared" si="416"/>
         <v/>
       </c>
       <c r="G106" s="11" t="str">
@@ -11654,11 +11654,11 @@
         <v/>
       </c>
       <c r="H106" s="11" t="str">
-        <f t="shared" ref="H106:I106" si="416">if(not(isblank($B106)), H105, "")</f>
+        <f t="shared" ref="H106:I106" si="417">if(not(isblank($B106)), H105, "")</f>
         <v/>
       </c>
       <c r="I106" s="11" t="str">
-        <f t="shared" si="416"/>
+        <f t="shared" si="417"/>
         <v/>
       </c>
       <c r="J106" s="11" t="str">
@@ -11666,11 +11666,11 @@
         <v/>
       </c>
       <c r="K106" s="11" t="str">
-        <f t="shared" ref="K106:L106" si="417">if(not(isblank($B106)), K105, "")</f>
+        <f t="shared" ref="K106:L106" si="418">if(not(isblank($B106)), K105, "")</f>
         <v/>
       </c>
       <c r="L106" s="11" t="str">
-        <f t="shared" si="417"/>
+        <f t="shared" si="418"/>
         <v/>
       </c>
       <c r="M106" s="11" t="str">
@@ -11678,11 +11678,11 @@
         <v/>
       </c>
       <c r="N106" s="11" t="str">
-        <f t="shared" ref="N106:O106" si="418">if(not(isblank($B106)), N105, "")</f>
+        <f t="shared" ref="N106:O106" si="419">if(not(isblank($B106)), N105, "")</f>
         <v/>
       </c>
       <c r="O106" s="11" t="str">
-        <f t="shared" si="418"/>
+        <f t="shared" si="419"/>
         <v/>
       </c>
       <c r="P106" s="11" t="str">
@@ -11703,7 +11703,7 @@
         <v/>
       </c>
       <c r="U106" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V106" s="14" t="str">
@@ -11729,11 +11729,11 @@
         <v/>
       </c>
       <c r="E107" s="11" t="str">
-        <f t="shared" ref="E107:F107" si="419">if(not(isblank($B107)), E106, "")</f>
+        <f t="shared" ref="E107:F107" si="420">if(not(isblank($B107)), E106, "")</f>
         <v/>
       </c>
       <c r="F107" s="11" t="str">
-        <f t="shared" si="419"/>
+        <f t="shared" si="420"/>
         <v/>
       </c>
       <c r="G107" s="11" t="str">
@@ -11741,11 +11741,11 @@
         <v/>
       </c>
       <c r="H107" s="11" t="str">
-        <f t="shared" ref="H107:I107" si="420">if(not(isblank($B107)), H106, "")</f>
+        <f t="shared" ref="H107:I107" si="421">if(not(isblank($B107)), H106, "")</f>
         <v/>
       </c>
       <c r="I107" s="11" t="str">
-        <f t="shared" si="420"/>
+        <f t="shared" si="421"/>
         <v/>
       </c>
       <c r="J107" s="11" t="str">
@@ -11753,11 +11753,11 @@
         <v/>
       </c>
       <c r="K107" s="11" t="str">
-        <f t="shared" ref="K107:L107" si="421">if(not(isblank($B107)), K106, "")</f>
+        <f t="shared" ref="K107:L107" si="422">if(not(isblank($B107)), K106, "")</f>
         <v/>
       </c>
       <c r="L107" s="11" t="str">
-        <f t="shared" si="421"/>
+        <f t="shared" si="422"/>
         <v/>
       </c>
       <c r="M107" s="11" t="str">
@@ -11765,11 +11765,11 @@
         <v/>
       </c>
       <c r="N107" s="11" t="str">
-        <f t="shared" ref="N107:O107" si="422">if(not(isblank($B107)), N106, "")</f>
+        <f t="shared" ref="N107:O107" si="423">if(not(isblank($B107)), N106, "")</f>
         <v/>
       </c>
       <c r="O107" s="11" t="str">
-        <f t="shared" si="422"/>
+        <f t="shared" si="423"/>
         <v/>
       </c>
       <c r="P107" s="11" t="str">
@@ -11790,7 +11790,7 @@
         <v/>
       </c>
       <c r="U107" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V107" s="14" t="str">
@@ -11816,11 +11816,11 @@
         <v/>
       </c>
       <c r="E108" s="11" t="str">
-        <f t="shared" ref="E108:F108" si="423">if(not(isblank($B108)), E107, "")</f>
+        <f t="shared" ref="E108:F108" si="424">if(not(isblank($B108)), E107, "")</f>
         <v/>
       </c>
       <c r="F108" s="11" t="str">
-        <f t="shared" si="423"/>
+        <f t="shared" si="424"/>
         <v/>
       </c>
       <c r="G108" s="11" t="str">
@@ -11828,11 +11828,11 @@
         <v/>
       </c>
       <c r="H108" s="11" t="str">
-        <f t="shared" ref="H108:I108" si="424">if(not(isblank($B108)), H107, "")</f>
+        <f t="shared" ref="H108:I108" si="425">if(not(isblank($B108)), H107, "")</f>
         <v/>
       </c>
       <c r="I108" s="11" t="str">
-        <f t="shared" si="424"/>
+        <f t="shared" si="425"/>
         <v/>
       </c>
       <c r="J108" s="11" t="str">
@@ -11840,11 +11840,11 @@
         <v/>
       </c>
       <c r="K108" s="11" t="str">
-        <f t="shared" ref="K108:L108" si="425">if(not(isblank($B108)), K107, "")</f>
+        <f t="shared" ref="K108:L108" si="426">if(not(isblank($B108)), K107, "")</f>
         <v/>
       </c>
       <c r="L108" s="11" t="str">
-        <f t="shared" si="425"/>
+        <f t="shared" si="426"/>
         <v/>
       </c>
       <c r="M108" s="11" t="str">
@@ -11852,11 +11852,11 @@
         <v/>
       </c>
       <c r="N108" s="11" t="str">
-        <f t="shared" ref="N108:O108" si="426">if(not(isblank($B108)), N107, "")</f>
+        <f t="shared" ref="N108:O108" si="427">if(not(isblank($B108)), N107, "")</f>
         <v/>
       </c>
       <c r="O108" s="11" t="str">
-        <f t="shared" si="426"/>
+        <f t="shared" si="427"/>
         <v/>
       </c>
       <c r="P108" s="11" t="str">
@@ -11877,7 +11877,7 @@
         <v/>
       </c>
       <c r="U108" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V108" s="14" t="str">
@@ -11903,11 +11903,11 @@
         <v/>
       </c>
       <c r="E109" s="11" t="str">
-        <f t="shared" ref="E109:F109" si="427">if(not(isblank($B109)), E108, "")</f>
+        <f t="shared" ref="E109:F109" si="428">if(not(isblank($B109)), E108, "")</f>
         <v/>
       </c>
       <c r="F109" s="11" t="str">
-        <f t="shared" si="427"/>
+        <f t="shared" si="428"/>
         <v/>
       </c>
       <c r="G109" s="11" t="str">
@@ -11915,11 +11915,11 @@
         <v/>
       </c>
       <c r="H109" s="11" t="str">
-        <f t="shared" ref="H109:I109" si="428">if(not(isblank($B109)), H108, "")</f>
+        <f t="shared" ref="H109:I109" si="429">if(not(isblank($B109)), H108, "")</f>
         <v/>
       </c>
       <c r="I109" s="11" t="str">
-        <f t="shared" si="428"/>
+        <f t="shared" si="429"/>
         <v/>
       </c>
       <c r="J109" s="11" t="str">
@@ -11927,11 +11927,11 @@
         <v/>
       </c>
       <c r="K109" s="11" t="str">
-        <f t="shared" ref="K109:L109" si="429">if(not(isblank($B109)), K108, "")</f>
+        <f t="shared" ref="K109:L109" si="430">if(not(isblank($B109)), K108, "")</f>
         <v/>
       </c>
       <c r="L109" s="11" t="str">
-        <f t="shared" si="429"/>
+        <f t="shared" si="430"/>
         <v/>
       </c>
       <c r="M109" s="11" t="str">
@@ -11939,11 +11939,11 @@
         <v/>
       </c>
       <c r="N109" s="11" t="str">
-        <f t="shared" ref="N109:O109" si="430">if(not(isblank($B109)), N108, "")</f>
+        <f t="shared" ref="N109:O109" si="431">if(not(isblank($B109)), N108, "")</f>
         <v/>
       </c>
       <c r="O109" s="11" t="str">
-        <f t="shared" si="430"/>
+        <f t="shared" si="431"/>
         <v/>
       </c>
       <c r="P109" s="11" t="str">
@@ -11964,7 +11964,7 @@
         <v/>
       </c>
       <c r="U109" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V109" s="14" t="str">
@@ -11990,11 +11990,11 @@
         <v/>
       </c>
       <c r="E110" s="11" t="str">
-        <f t="shared" ref="E110:F110" si="431">if(not(isblank($B110)), E109, "")</f>
+        <f t="shared" ref="E110:F110" si="432">if(not(isblank($B110)), E109, "")</f>
         <v/>
       </c>
       <c r="F110" s="11" t="str">
-        <f t="shared" si="431"/>
+        <f t="shared" si="432"/>
         <v/>
       </c>
       <c r="G110" s="11" t="str">
@@ -12002,11 +12002,11 @@
         <v/>
       </c>
       <c r="H110" s="11" t="str">
-        <f t="shared" ref="H110:I110" si="432">if(not(isblank($B110)), H109, "")</f>
+        <f t="shared" ref="H110:I110" si="433">if(not(isblank($B110)), H109, "")</f>
         <v/>
       </c>
       <c r="I110" s="11" t="str">
-        <f t="shared" si="432"/>
+        <f t="shared" si="433"/>
         <v/>
       </c>
       <c r="J110" s="11" t="str">
@@ -12014,11 +12014,11 @@
         <v/>
       </c>
       <c r="K110" s="11" t="str">
-        <f t="shared" ref="K110:L110" si="433">if(not(isblank($B110)), K109, "")</f>
+        <f t="shared" ref="K110:L110" si="434">if(not(isblank($B110)), K109, "")</f>
         <v/>
       </c>
       <c r="L110" s="11" t="str">
-        <f t="shared" si="433"/>
+        <f t="shared" si="434"/>
         <v/>
       </c>
       <c r="M110" s="11" t="str">
@@ -12026,11 +12026,11 @@
         <v/>
       </c>
       <c r="N110" s="11" t="str">
-        <f t="shared" ref="N110:O110" si="434">if(not(isblank($B110)), N109, "")</f>
+        <f t="shared" ref="N110:O110" si="435">if(not(isblank($B110)), N109, "")</f>
         <v/>
       </c>
       <c r="O110" s="11" t="str">
-        <f t="shared" si="434"/>
+        <f t="shared" si="435"/>
         <v/>
       </c>
       <c r="P110" s="11" t="str">
@@ -12051,7 +12051,7 @@
         <v/>
       </c>
       <c r="U110" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V110" s="14" t="str">
@@ -12077,11 +12077,11 @@
         <v/>
       </c>
       <c r="E111" s="11" t="str">
-        <f t="shared" ref="E111:F111" si="435">if(not(isblank($B111)), E110, "")</f>
+        <f t="shared" ref="E111:F111" si="436">if(not(isblank($B111)), E110, "")</f>
         <v/>
       </c>
       <c r="F111" s="11" t="str">
-        <f t="shared" si="435"/>
+        <f t="shared" si="436"/>
         <v/>
       </c>
       <c r="G111" s="11" t="str">
@@ -12089,11 +12089,11 @@
         <v/>
       </c>
       <c r="H111" s="11" t="str">
-        <f t="shared" ref="H111:I111" si="436">if(not(isblank($B111)), H110, "")</f>
+        <f t="shared" ref="H111:I111" si="437">if(not(isblank($B111)), H110, "")</f>
         <v/>
       </c>
       <c r="I111" s="11" t="str">
-        <f t="shared" si="436"/>
+        <f t="shared" si="437"/>
         <v/>
       </c>
       <c r="J111" s="11" t="str">
@@ -12101,11 +12101,11 @@
         <v/>
       </c>
       <c r="K111" s="11" t="str">
-        <f t="shared" ref="K111:L111" si="437">if(not(isblank($B111)), K110, "")</f>
+        <f t="shared" ref="K111:L111" si="438">if(not(isblank($B111)), K110, "")</f>
         <v/>
       </c>
       <c r="L111" s="11" t="str">
-        <f t="shared" si="437"/>
+        <f t="shared" si="438"/>
         <v/>
       </c>
       <c r="M111" s="11" t="str">
@@ -12113,11 +12113,11 @@
         <v/>
       </c>
       <c r="N111" s="11" t="str">
-        <f t="shared" ref="N111:O111" si="438">if(not(isblank($B111)), N110, "")</f>
+        <f t="shared" ref="N111:O111" si="439">if(not(isblank($B111)), N110, "")</f>
         <v/>
       </c>
       <c r="O111" s="11" t="str">
-        <f t="shared" si="438"/>
+        <f t="shared" si="439"/>
         <v/>
       </c>
       <c r="P111" s="11" t="str">
@@ -12138,7 +12138,7 @@
         <v/>
       </c>
       <c r="U111" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V111" s="14" t="str">
@@ -12164,11 +12164,11 @@
         <v/>
       </c>
       <c r="E112" s="11" t="str">
-        <f t="shared" ref="E112:F112" si="439">if(not(isblank($B112)), E111, "")</f>
+        <f t="shared" ref="E112:F112" si="440">if(not(isblank($B112)), E111, "")</f>
         <v/>
       </c>
       <c r="F112" s="11" t="str">
-        <f t="shared" si="439"/>
+        <f t="shared" si="440"/>
         <v/>
       </c>
       <c r="G112" s="11" t="str">
@@ -12176,11 +12176,11 @@
         <v/>
       </c>
       <c r="H112" s="11" t="str">
-        <f t="shared" ref="H112:I112" si="440">if(not(isblank($B112)), H111, "")</f>
+        <f t="shared" ref="H112:I112" si="441">if(not(isblank($B112)), H111, "")</f>
         <v/>
       </c>
       <c r="I112" s="11" t="str">
-        <f t="shared" si="440"/>
+        <f t="shared" si="441"/>
         <v/>
       </c>
       <c r="J112" s="11" t="str">
@@ -12188,11 +12188,11 @@
         <v/>
       </c>
       <c r="K112" s="11" t="str">
-        <f t="shared" ref="K112:L112" si="441">if(not(isblank($B112)), K111, "")</f>
+        <f t="shared" ref="K112:L112" si="442">if(not(isblank($B112)), K111, "")</f>
         <v/>
       </c>
       <c r="L112" s="11" t="str">
-        <f t="shared" si="441"/>
+        <f t="shared" si="442"/>
         <v/>
       </c>
       <c r="M112" s="11" t="str">
@@ -12200,11 +12200,11 @@
         <v/>
       </c>
       <c r="N112" s="11" t="str">
-        <f t="shared" ref="N112:O112" si="442">if(not(isblank($B112)), N111, "")</f>
+        <f t="shared" ref="N112:O112" si="443">if(not(isblank($B112)), N111, "")</f>
         <v/>
       </c>
       <c r="O112" s="11" t="str">
-        <f t="shared" si="442"/>
+        <f t="shared" si="443"/>
         <v/>
       </c>
       <c r="P112" s="11" t="str">
@@ -12225,7 +12225,7 @@
         <v/>
       </c>
       <c r="U112" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V112" s="14" t="str">
@@ -12251,11 +12251,11 @@
         <v/>
       </c>
       <c r="E113" s="11" t="str">
-        <f t="shared" ref="E113:F113" si="443">if(not(isblank($B113)), E112, "")</f>
+        <f t="shared" ref="E113:F113" si="444">if(not(isblank($B113)), E112, "")</f>
         <v/>
       </c>
       <c r="F113" s="11" t="str">
-        <f t="shared" si="443"/>
+        <f t="shared" si="444"/>
         <v/>
       </c>
       <c r="G113" s="11" t="str">
@@ -12263,11 +12263,11 @@
         <v/>
       </c>
       <c r="H113" s="11" t="str">
-        <f t="shared" ref="H113:I113" si="444">if(not(isblank($B113)), H112, "")</f>
+        <f t="shared" ref="H113:I113" si="445">if(not(isblank($B113)), H112, "")</f>
         <v/>
       </c>
       <c r="I113" s="11" t="str">
-        <f t="shared" si="444"/>
+        <f t="shared" si="445"/>
         <v/>
       </c>
       <c r="J113" s="11" t="str">
@@ -12275,11 +12275,11 @@
         <v/>
       </c>
       <c r="K113" s="11" t="str">
-        <f t="shared" ref="K113:L113" si="445">if(not(isblank($B113)), K112, "")</f>
+        <f t="shared" ref="K113:L113" si="446">if(not(isblank($B113)), K112, "")</f>
         <v/>
       </c>
       <c r="L113" s="11" t="str">
-        <f t="shared" si="445"/>
+        <f t="shared" si="446"/>
         <v/>
       </c>
       <c r="M113" s="11" t="str">
@@ -12287,11 +12287,11 @@
         <v/>
       </c>
       <c r="N113" s="11" t="str">
-        <f t="shared" ref="N113:O113" si="446">if(not(isblank($B113)), N112, "")</f>
+        <f t="shared" ref="N113:O113" si="447">if(not(isblank($B113)), N112, "")</f>
         <v/>
       </c>
       <c r="O113" s="11" t="str">
-        <f t="shared" si="446"/>
+        <f t="shared" si="447"/>
         <v/>
       </c>
       <c r="P113" s="11" t="str">
@@ -12312,7 +12312,7 @@
         <v/>
       </c>
       <c r="U113" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V113" s="14" t="str">
@@ -12338,11 +12338,11 @@
         <v/>
       </c>
       <c r="E114" s="11" t="str">
-        <f t="shared" ref="E114:F114" si="447">if(not(isblank($B114)), E113, "")</f>
+        <f t="shared" ref="E114:F114" si="448">if(not(isblank($B114)), E113, "")</f>
         <v/>
       </c>
       <c r="F114" s="11" t="str">
-        <f t="shared" si="447"/>
+        <f t="shared" si="448"/>
         <v/>
       </c>
       <c r="G114" s="11" t="str">
@@ -12350,11 +12350,11 @@
         <v/>
       </c>
       <c r="H114" s="11" t="str">
-        <f t="shared" ref="H114:I114" si="448">if(not(isblank($B114)), H113, "")</f>
+        <f t="shared" ref="H114:I114" si="449">if(not(isblank($B114)), H113, "")</f>
         <v/>
       </c>
       <c r="I114" s="11" t="str">
-        <f t="shared" si="448"/>
+        <f t="shared" si="449"/>
         <v/>
       </c>
       <c r="J114" s="11" t="str">
@@ -12362,11 +12362,11 @@
         <v/>
       </c>
       <c r="K114" s="11" t="str">
-        <f t="shared" ref="K114:L114" si="449">if(not(isblank($B114)), K113, "")</f>
+        <f t="shared" ref="K114:L114" si="450">if(not(isblank($B114)), K113, "")</f>
         <v/>
       </c>
       <c r="L114" s="11" t="str">
-        <f t="shared" si="449"/>
+        <f t="shared" si="450"/>
         <v/>
       </c>
       <c r="M114" s="11" t="str">
@@ -12374,11 +12374,11 @@
         <v/>
       </c>
       <c r="N114" s="11" t="str">
-        <f t="shared" ref="N114:O114" si="450">if(not(isblank($B114)), N113, "")</f>
+        <f t="shared" ref="N114:O114" si="451">if(not(isblank($B114)), N113, "")</f>
         <v/>
       </c>
       <c r="O114" s="11" t="str">
-        <f t="shared" si="450"/>
+        <f t="shared" si="451"/>
         <v/>
       </c>
       <c r="P114" s="11" t="str">
@@ -12399,7 +12399,7 @@
         <v/>
       </c>
       <c r="U114" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V114" s="14" t="str">
@@ -12425,11 +12425,11 @@
         <v/>
       </c>
       <c r="E115" s="11" t="str">
-        <f t="shared" ref="E115:F115" si="451">if(not(isblank($B115)), E114, "")</f>
+        <f t="shared" ref="E115:F115" si="452">if(not(isblank($B115)), E114, "")</f>
         <v/>
       </c>
       <c r="F115" s="11" t="str">
-        <f t="shared" si="451"/>
+        <f t="shared" si="452"/>
         <v/>
       </c>
       <c r="G115" s="11" t="str">
@@ -12437,11 +12437,11 @@
         <v/>
       </c>
       <c r="H115" s="11" t="str">
-        <f t="shared" ref="H115:I115" si="452">if(not(isblank($B115)), H114, "")</f>
+        <f t="shared" ref="H115:I115" si="453">if(not(isblank($B115)), H114, "")</f>
         <v/>
       </c>
       <c r="I115" s="11" t="str">
-        <f t="shared" si="452"/>
+        <f t="shared" si="453"/>
         <v/>
       </c>
       <c r="J115" s="11" t="str">
@@ -12449,11 +12449,11 @@
         <v/>
       </c>
       <c r="K115" s="11" t="str">
-        <f t="shared" ref="K115:L115" si="453">if(not(isblank($B115)), K114, "")</f>
+        <f t="shared" ref="K115:L115" si="454">if(not(isblank($B115)), K114, "")</f>
         <v/>
       </c>
       <c r="L115" s="11" t="str">
-        <f t="shared" si="453"/>
+        <f t="shared" si="454"/>
         <v/>
       </c>
       <c r="M115" s="11" t="str">
@@ -12461,11 +12461,11 @@
         <v/>
       </c>
       <c r="N115" s="11" t="str">
-        <f t="shared" ref="N115:O115" si="454">if(not(isblank($B115)), N114, "")</f>
+        <f t="shared" ref="N115:O115" si="455">if(not(isblank($B115)), N114, "")</f>
         <v/>
       </c>
       <c r="O115" s="11" t="str">
-        <f t="shared" si="454"/>
+        <f t="shared" si="455"/>
         <v/>
       </c>
       <c r="P115" s="11" t="str">
@@ -12486,7 +12486,7 @@
         <v/>
       </c>
       <c r="U115" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V115" s="14" t="str">
@@ -12512,11 +12512,11 @@
         <v/>
       </c>
       <c r="E116" s="11" t="str">
-        <f t="shared" ref="E116:F116" si="455">if(not(isblank($B116)), E115, "")</f>
+        <f t="shared" ref="E116:F116" si="456">if(not(isblank($B116)), E115, "")</f>
         <v/>
       </c>
       <c r="F116" s="11" t="str">
-        <f t="shared" si="455"/>
+        <f t="shared" si="456"/>
         <v/>
       </c>
       <c r="G116" s="11" t="str">
@@ -12524,11 +12524,11 @@
         <v/>
       </c>
       <c r="H116" s="11" t="str">
-        <f t="shared" ref="H116:I116" si="456">if(not(isblank($B116)), H115, "")</f>
+        <f t="shared" ref="H116:I116" si="457">if(not(isblank($B116)), H115, "")</f>
         <v/>
       </c>
       <c r="I116" s="11" t="str">
-        <f t="shared" si="456"/>
+        <f t="shared" si="457"/>
         <v/>
       </c>
       <c r="J116" s="11" t="str">
@@ -12536,11 +12536,11 @@
         <v/>
       </c>
       <c r="K116" s="11" t="str">
-        <f t="shared" ref="K116:L116" si="457">if(not(isblank($B116)), K115, "")</f>
+        <f t="shared" ref="K116:L116" si="458">if(not(isblank($B116)), K115, "")</f>
         <v/>
       </c>
       <c r="L116" s="11" t="str">
-        <f t="shared" si="457"/>
+        <f t="shared" si="458"/>
         <v/>
       </c>
       <c r="M116" s="11" t="str">
@@ -12548,11 +12548,11 @@
         <v/>
       </c>
       <c r="N116" s="11" t="str">
-        <f t="shared" ref="N116:O116" si="458">if(not(isblank($B116)), N115, "")</f>
+        <f t="shared" ref="N116:O116" si="459">if(not(isblank($B116)), N115, "")</f>
         <v/>
       </c>
       <c r="O116" s="11" t="str">
-        <f t="shared" si="458"/>
+        <f t="shared" si="459"/>
         <v/>
       </c>
       <c r="P116" s="11" t="str">
@@ -12573,7 +12573,7 @@
         <v/>
       </c>
       <c r="U116" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V116" s="14" t="str">
@@ -12599,11 +12599,11 @@
         <v/>
       </c>
       <c r="E117" s="11" t="str">
-        <f t="shared" ref="E117:F117" si="459">if(not(isblank($B117)), E116, "")</f>
+        <f t="shared" ref="E117:F117" si="460">if(not(isblank($B117)), E116, "")</f>
         <v/>
       </c>
       <c r="F117" s="11" t="str">
-        <f t="shared" si="459"/>
+        <f t="shared" si="460"/>
         <v/>
       </c>
       <c r="G117" s="11" t="str">
@@ -12611,11 +12611,11 @@
         <v/>
       </c>
       <c r="H117" s="11" t="str">
-        <f t="shared" ref="H117:I117" si="460">if(not(isblank($B117)), H116, "")</f>
+        <f t="shared" ref="H117:I117" si="461">if(not(isblank($B117)), H116, "")</f>
         <v/>
       </c>
       <c r="I117" s="11" t="str">
-        <f t="shared" si="460"/>
+        <f t="shared" si="461"/>
         <v/>
       </c>
       <c r="J117" s="11" t="str">
@@ -12623,11 +12623,11 @@
         <v/>
       </c>
       <c r="K117" s="11" t="str">
-        <f t="shared" ref="K117:L117" si="461">if(not(isblank($B117)), K116, "")</f>
+        <f t="shared" ref="K117:L117" si="462">if(not(isblank($B117)), K116, "")</f>
         <v/>
       </c>
       <c r="L117" s="11" t="str">
-        <f t="shared" si="461"/>
+        <f t="shared" si="462"/>
         <v/>
       </c>
       <c r="M117" s="11" t="str">
@@ -12635,11 +12635,11 @@
         <v/>
       </c>
       <c r="N117" s="11" t="str">
-        <f t="shared" ref="N117:O117" si="462">if(not(isblank($B117)), N116, "")</f>
+        <f t="shared" ref="N117:O117" si="463">if(not(isblank($B117)), N116, "")</f>
         <v/>
       </c>
       <c r="O117" s="11" t="str">
-        <f t="shared" si="462"/>
+        <f t="shared" si="463"/>
         <v/>
       </c>
       <c r="P117" s="11" t="str">
@@ -12660,7 +12660,7 @@
         <v/>
       </c>
       <c r="U117" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V117" s="14" t="str">
@@ -12686,11 +12686,11 @@
         <v/>
       </c>
       <c r="E118" s="11" t="str">
-        <f t="shared" ref="E118:F118" si="463">if(not(isblank($B118)), E117, "")</f>
+        <f t="shared" ref="E118:F118" si="464">if(not(isblank($B118)), E117, "")</f>
         <v/>
       </c>
       <c r="F118" s="11" t="str">
-        <f t="shared" si="463"/>
+        <f t="shared" si="464"/>
         <v/>
       </c>
       <c r="G118" s="11" t="str">
@@ -12698,11 +12698,11 @@
         <v/>
       </c>
       <c r="H118" s="11" t="str">
-        <f t="shared" ref="H118:I118" si="464">if(not(isblank($B118)), H117, "")</f>
+        <f t="shared" ref="H118:I118" si="465">if(not(isblank($B118)), H117, "")</f>
         <v/>
       </c>
       <c r="I118" s="11" t="str">
-        <f t="shared" si="464"/>
+        <f t="shared" si="465"/>
         <v/>
       </c>
       <c r="J118" s="11" t="str">
@@ -12710,11 +12710,11 @@
         <v/>
       </c>
       <c r="K118" s="11" t="str">
-        <f t="shared" ref="K118:L118" si="465">if(not(isblank($B118)), K117, "")</f>
+        <f t="shared" ref="K118:L118" si="466">if(not(isblank($B118)), K117, "")</f>
         <v/>
       </c>
       <c r="L118" s="11" t="str">
-        <f t="shared" si="465"/>
+        <f t="shared" si="466"/>
         <v/>
       </c>
       <c r="M118" s="11" t="str">
@@ -12722,11 +12722,11 @@
         <v/>
       </c>
       <c r="N118" s="11" t="str">
-        <f t="shared" ref="N118:O118" si="466">if(not(isblank($B118)), N117, "")</f>
+        <f t="shared" ref="N118:O118" si="467">if(not(isblank($B118)), N117, "")</f>
         <v/>
       </c>
       <c r="O118" s="11" t="str">
-        <f t="shared" si="466"/>
+        <f t="shared" si="467"/>
         <v/>
       </c>
       <c r="P118" s="11" t="str">
@@ -12747,7 +12747,7 @@
         <v/>
       </c>
       <c r="U118" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V118" s="14" t="str">
@@ -12773,11 +12773,11 @@
         <v/>
       </c>
       <c r="E119" s="11" t="str">
-        <f t="shared" ref="E119:F119" si="467">if(not(isblank($B119)), E118, "")</f>
+        <f t="shared" ref="E119:F119" si="468">if(not(isblank($B119)), E118, "")</f>
         <v/>
       </c>
       <c r="F119" s="11" t="str">
-        <f t="shared" si="467"/>
+        <f t="shared" si="468"/>
         <v/>
       </c>
       <c r="G119" s="11" t="str">
@@ -12785,11 +12785,11 @@
         <v/>
       </c>
       <c r="H119" s="11" t="str">
-        <f t="shared" ref="H119:I119" si="468">if(not(isblank($B119)), H118, "")</f>
+        <f t="shared" ref="H119:I119" si="469">if(not(isblank($B119)), H118, "")</f>
         <v/>
       </c>
       <c r="I119" s="11" t="str">
-        <f t="shared" si="468"/>
+        <f t="shared" si="469"/>
         <v/>
       </c>
       <c r="J119" s="11" t="str">
@@ -12797,11 +12797,11 @@
         <v/>
       </c>
       <c r="K119" s="11" t="str">
-        <f t="shared" ref="K119:L119" si="469">if(not(isblank($B119)), K118, "")</f>
+        <f t="shared" ref="K119:L119" si="470">if(not(isblank($B119)), K118, "")</f>
         <v/>
       </c>
       <c r="L119" s="11" t="str">
-        <f t="shared" si="469"/>
+        <f t="shared" si="470"/>
         <v/>
       </c>
       <c r="M119" s="11" t="str">
@@ -12809,11 +12809,11 @@
         <v/>
       </c>
       <c r="N119" s="11" t="str">
-        <f t="shared" ref="N119:O119" si="470">if(not(isblank($B119)), N118, "")</f>
+        <f t="shared" ref="N119:O119" si="471">if(not(isblank($B119)), N118, "")</f>
         <v/>
       </c>
       <c r="O119" s="11" t="str">
-        <f t="shared" si="470"/>
+        <f t="shared" si="471"/>
         <v/>
       </c>
       <c r="P119" s="11" t="str">
@@ -12834,7 +12834,7 @@
         <v/>
       </c>
       <c r="U119" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V119" s="14" t="str">
@@ -12860,11 +12860,11 @@
         <v/>
       </c>
       <c r="E120" s="11" t="str">
-        <f t="shared" ref="E120:F120" si="471">if(not(isblank($B120)), E119, "")</f>
+        <f t="shared" ref="E120:F120" si="472">if(not(isblank($B120)), E119, "")</f>
         <v/>
       </c>
       <c r="F120" s="11" t="str">
-        <f t="shared" si="471"/>
+        <f t="shared" si="472"/>
         <v/>
       </c>
       <c r="G120" s="11" t="str">
@@ -12872,11 +12872,11 @@
         <v/>
       </c>
       <c r="H120" s="11" t="str">
-        <f t="shared" ref="H120:I120" si="472">if(not(isblank($B120)), H119, "")</f>
+        <f t="shared" ref="H120:I120" si="473">if(not(isblank($B120)), H119, "")</f>
         <v/>
       </c>
       <c r="I120" s="11" t="str">
-        <f t="shared" si="472"/>
+        <f t="shared" si="473"/>
         <v/>
       </c>
       <c r="J120" s="11" t="str">
@@ -12884,11 +12884,11 @@
         <v/>
       </c>
       <c r="K120" s="11" t="str">
-        <f t="shared" ref="K120:L120" si="473">if(not(isblank($B120)), K119, "")</f>
+        <f t="shared" ref="K120:L120" si="474">if(not(isblank($B120)), K119, "")</f>
         <v/>
       </c>
       <c r="L120" s="11" t="str">
-        <f t="shared" si="473"/>
+        <f t="shared" si="474"/>
         <v/>
       </c>
       <c r="M120" s="11" t="str">
@@ -12896,11 +12896,11 @@
         <v/>
       </c>
       <c r="N120" s="11" t="str">
-        <f t="shared" ref="N120:O120" si="474">if(not(isblank($B120)), N119, "")</f>
+        <f t="shared" ref="N120:O120" si="475">if(not(isblank($B120)), N119, "")</f>
         <v/>
       </c>
       <c r="O120" s="11" t="str">
-        <f t="shared" si="474"/>
+        <f t="shared" si="475"/>
         <v/>
       </c>
       <c r="P120" s="11" t="str">
@@ -12921,7 +12921,7 @@
         <v/>
       </c>
       <c r="U120" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V120" s="14" t="str">
@@ -12947,11 +12947,11 @@
         <v/>
       </c>
       <c r="E121" s="11" t="str">
-        <f t="shared" ref="E121:F121" si="475">if(not(isblank($B121)), E120, "")</f>
+        <f t="shared" ref="E121:F121" si="476">if(not(isblank($B121)), E120, "")</f>
         <v/>
       </c>
       <c r="F121" s="11" t="str">
-        <f t="shared" si="475"/>
+        <f t="shared" si="476"/>
         <v/>
       </c>
       <c r="G121" s="11" t="str">
@@ -12959,11 +12959,11 @@
         <v/>
       </c>
       <c r="H121" s="11" t="str">
-        <f t="shared" ref="H121:I121" si="476">if(not(isblank($B121)), H120, "")</f>
+        <f t="shared" ref="H121:I121" si="477">if(not(isblank($B121)), H120, "")</f>
         <v/>
       </c>
       <c r="I121" s="11" t="str">
-        <f t="shared" si="476"/>
+        <f t="shared" si="477"/>
         <v/>
       </c>
       <c r="J121" s="11" t="str">
@@ -12971,11 +12971,11 @@
         <v/>
       </c>
       <c r="K121" s="11" t="str">
-        <f t="shared" ref="K121:L121" si="477">if(not(isblank($B121)), K120, "")</f>
+        <f t="shared" ref="K121:L121" si="478">if(not(isblank($B121)), K120, "")</f>
         <v/>
       </c>
       <c r="L121" s="11" t="str">
-        <f t="shared" si="477"/>
+        <f t="shared" si="478"/>
         <v/>
       </c>
       <c r="M121" s="11" t="str">
@@ -12983,11 +12983,11 @@
         <v/>
       </c>
       <c r="N121" s="11" t="str">
-        <f t="shared" ref="N121:O121" si="478">if(not(isblank($B121)), N120, "")</f>
+        <f t="shared" ref="N121:O121" si="479">if(not(isblank($B121)), N120, "")</f>
         <v/>
       </c>
       <c r="O121" s="11" t="str">
-        <f t="shared" si="478"/>
+        <f t="shared" si="479"/>
         <v/>
       </c>
       <c r="P121" s="11" t="str">
@@ -13008,7 +13008,7 @@
         <v/>
       </c>
       <c r="U121" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V121" s="14" t="str">
@@ -13034,11 +13034,11 @@
         <v/>
       </c>
       <c r="E122" s="11" t="str">
-        <f t="shared" ref="E122:F122" si="479">if(not(isblank($B122)), E121, "")</f>
+        <f t="shared" ref="E122:F122" si="480">if(not(isblank($B122)), E121, "")</f>
         <v/>
       </c>
       <c r="F122" s="11" t="str">
-        <f t="shared" si="479"/>
+        <f t="shared" si="480"/>
         <v/>
       </c>
       <c r="G122" s="11" t="str">
@@ -13046,11 +13046,11 @@
         <v/>
       </c>
       <c r="H122" s="11" t="str">
-        <f t="shared" ref="H122:I122" si="480">if(not(isblank($B122)), H121, "")</f>
+        <f t="shared" ref="H122:I122" si="481">if(not(isblank($B122)), H121, "")</f>
         <v/>
       </c>
       <c r="I122" s="11" t="str">
-        <f t="shared" si="480"/>
+        <f t="shared" si="481"/>
         <v/>
       </c>
       <c r="J122" s="11" t="str">
@@ -13058,11 +13058,11 @@
         <v/>
       </c>
       <c r="K122" s="11" t="str">
-        <f t="shared" ref="K122:L122" si="481">if(not(isblank($B122)), K121, "")</f>
+        <f t="shared" ref="K122:L122" si="482">if(not(isblank($B122)), K121, "")</f>
         <v/>
       </c>
       <c r="L122" s="11" t="str">
-        <f t="shared" si="481"/>
+        <f t="shared" si="482"/>
         <v/>
       </c>
       <c r="M122" s="11" t="str">
@@ -13070,11 +13070,11 @@
         <v/>
       </c>
       <c r="N122" s="11" t="str">
-        <f t="shared" ref="N122:O122" si="482">if(not(isblank($B122)), N121, "")</f>
+        <f t="shared" ref="N122:O122" si="483">if(not(isblank($B122)), N121, "")</f>
         <v/>
       </c>
       <c r="O122" s="11" t="str">
-        <f t="shared" si="482"/>
+        <f t="shared" si="483"/>
         <v/>
       </c>
       <c r="P122" s="11" t="str">
@@ -13095,7 +13095,7 @@
         <v/>
       </c>
       <c r="U122" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V122" s="14" t="str">
@@ -13121,11 +13121,11 @@
         <v/>
       </c>
       <c r="E123" s="11" t="str">
-        <f t="shared" ref="E123:F123" si="483">if(not(isblank($B123)), E122, "")</f>
+        <f t="shared" ref="E123:F123" si="484">if(not(isblank($B123)), E122, "")</f>
         <v/>
       </c>
       <c r="F123" s="11" t="str">
-        <f t="shared" si="483"/>
+        <f t="shared" si="484"/>
         <v/>
       </c>
       <c r="G123" s="11" t="str">
@@ -13133,11 +13133,11 @@
         <v/>
       </c>
       <c r="H123" s="11" t="str">
-        <f t="shared" ref="H123:I123" si="484">if(not(isblank($B123)), H122, "")</f>
+        <f t="shared" ref="H123:I123" si="485">if(not(isblank($B123)), H122, "")</f>
         <v/>
       </c>
       <c r="I123" s="11" t="str">
-        <f t="shared" si="484"/>
+        <f t="shared" si="485"/>
         <v/>
       </c>
       <c r="J123" s="11" t="str">
@@ -13145,11 +13145,11 @@
         <v/>
       </c>
       <c r="K123" s="11" t="str">
-        <f t="shared" ref="K123:L123" si="485">if(not(isblank($B123)), K122, "")</f>
+        <f t="shared" ref="K123:L123" si="486">if(not(isblank($B123)), K122, "")</f>
         <v/>
       </c>
       <c r="L123" s="11" t="str">
-        <f t="shared" si="485"/>
+        <f t="shared" si="486"/>
         <v/>
       </c>
       <c r="M123" s="11" t="str">
@@ -13157,11 +13157,11 @@
         <v/>
       </c>
       <c r="N123" s="11" t="str">
-        <f t="shared" ref="N123:O123" si="486">if(not(isblank($B123)), N122, "")</f>
+        <f t="shared" ref="N123:O123" si="487">if(not(isblank($B123)), N122, "")</f>
         <v/>
       </c>
       <c r="O123" s="11" t="str">
-        <f t="shared" si="486"/>
+        <f t="shared" si="487"/>
         <v/>
       </c>
       <c r="P123" s="11" t="str">
@@ -13182,7 +13182,7 @@
         <v/>
       </c>
       <c r="U123" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V123" s="14" t="str">
@@ -13208,11 +13208,11 @@
         <v/>
       </c>
       <c r="E124" s="11" t="str">
-        <f t="shared" ref="E124:F124" si="487">if(not(isblank($B124)), E123, "")</f>
+        <f t="shared" ref="E124:F124" si="488">if(not(isblank($B124)), E123, "")</f>
         <v/>
       </c>
       <c r="F124" s="11" t="str">
-        <f t="shared" si="487"/>
+        <f t="shared" si="488"/>
         <v/>
       </c>
       <c r="G124" s="11" t="str">
@@ -13220,11 +13220,11 @@
         <v/>
       </c>
       <c r="H124" s="11" t="str">
-        <f t="shared" ref="H124:I124" si="488">if(not(isblank($B124)), H123, "")</f>
+        <f t="shared" ref="H124:I124" si="489">if(not(isblank($B124)), H123, "")</f>
         <v/>
       </c>
       <c r="I124" s="11" t="str">
-        <f t="shared" si="488"/>
+        <f t="shared" si="489"/>
         <v/>
       </c>
       <c r="J124" s="11" t="str">
@@ -13232,11 +13232,11 @@
         <v/>
       </c>
       <c r="K124" s="11" t="str">
-        <f t="shared" ref="K124:L124" si="489">if(not(isblank($B124)), K123, "")</f>
+        <f t="shared" ref="K124:L124" si="490">if(not(isblank($B124)), K123, "")</f>
         <v/>
       </c>
       <c r="L124" s="11" t="str">
-        <f t="shared" si="489"/>
+        <f t="shared" si="490"/>
         <v/>
       </c>
       <c r="M124" s="11" t="str">
@@ -13244,11 +13244,11 @@
         <v/>
       </c>
       <c r="N124" s="11" t="str">
-        <f t="shared" ref="N124:O124" si="490">if(not(isblank($B124)), N123, "")</f>
+        <f t="shared" ref="N124:O124" si="491">if(not(isblank($B124)), N123, "")</f>
         <v/>
       </c>
       <c r="O124" s="11" t="str">
-        <f t="shared" si="490"/>
+        <f t="shared" si="491"/>
         <v/>
       </c>
       <c r="P124" s="11" t="str">
@@ -13269,7 +13269,7 @@
         <v/>
       </c>
       <c r="U124" s="11" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V124" s="14" t="str">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>Data category</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>https://glodap.info/</t>
+  </si>
+  <si>
+    <t>discrete</t>
   </si>
   <si>
     <t>Water column, Open Ocean</t>
@@ -519,10 +522,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -890,1338 +893,1343 @@
       <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="K4" s="7"/>
       <c r="L4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="K5" s="7"/>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="K6" s="7"/>
       <c r="L6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="K7" s="7"/>
       <c r="L7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28">
-      <c r="A28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29">
-      <c r="A29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31">
-      <c r="A31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35">
-      <c r="A35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37">
-      <c r="A37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38">
-      <c r="A38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="K38" s="7"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39">
-      <c r="A39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40">
-      <c r="A40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41">
-      <c r="A41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42">
-      <c r="A42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43">
-      <c r="A43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44">
-      <c r="A44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45">
-      <c r="A45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="A45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="9"/>
     </row>
     <row r="46">
-      <c r="A46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="K46" s="7"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47">
-      <c r="A47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="A47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="9"/>
     </row>
     <row r="48">
-      <c r="A48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="9"/>
     </row>
     <row r="49">
-      <c r="A49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="9"/>
     </row>
     <row r="50">
-      <c r="A50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="9"/>
     </row>
     <row r="51">
-      <c r="A51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="9"/>
     </row>
     <row r="52">
-      <c r="A52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="9"/>
     </row>
     <row r="53">
-      <c r="A53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="A53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="9"/>
     </row>
     <row r="54">
-      <c r="A54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="9"/>
     </row>
     <row r="55">
-      <c r="A55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="A55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="K55" s="7"/>
       <c r="L55" s="9"/>
     </row>
     <row r="56">
-      <c r="A56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="9"/>
     </row>
     <row r="57">
-      <c r="A57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="9"/>
     </row>
     <row r="58">
-      <c r="A58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="A58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="9"/>
     </row>
     <row r="59">
-      <c r="A59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="A59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="9"/>
     </row>
     <row r="60">
-      <c r="A60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="A60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="9"/>
     </row>
     <row r="61">
-      <c r="A61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="9"/>
     </row>
     <row r="62">
-      <c r="A62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="A62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="9"/>
     </row>
     <row r="63">
-      <c r="A63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="A63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="9"/>
     </row>
     <row r="64">
-      <c r="A64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="K64" s="6"/>
+      <c r="A64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="K64" s="7"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65">
-      <c r="A65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="A65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="9"/>
     </row>
     <row r="66">
-      <c r="A66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="K66" s="7"/>
       <c r="L66" s="9"/>
     </row>
     <row r="67">
-      <c r="A67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="A67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="K67" s="7"/>
       <c r="L67" s="9"/>
     </row>
     <row r="68">
-      <c r="A68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="K68" s="7"/>
       <c r="L68" s="9"/>
     </row>
     <row r="69">
-      <c r="A69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="K69" s="7"/>
       <c r="L69" s="9"/>
     </row>
     <row r="70">
-      <c r="A70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="K70" s="7"/>
       <c r="L70" s="9"/>
     </row>
     <row r="71">
-      <c r="A71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="A71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="K71" s="7"/>
       <c r="L71" s="9"/>
     </row>
     <row r="72">
-      <c r="A72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="A72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="K72" s="7"/>
       <c r="L72" s="9"/>
     </row>
     <row r="73">
-      <c r="A73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="K73" s="6"/>
+      <c r="A73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="K73" s="7"/>
       <c r="L73" s="9"/>
     </row>
     <row r="74">
-      <c r="A74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="K74" s="6"/>
+      <c r="A74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="K74" s="7"/>
       <c r="L74" s="9"/>
     </row>
     <row r="75">
-      <c r="A75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="K75" s="6"/>
+      <c r="A75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="K75" s="7"/>
       <c r="L75" s="9"/>
     </row>
     <row r="76">
-      <c r="A76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="K76" s="6"/>
+      <c r="A76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="K76" s="7"/>
       <c r="L76" s="9"/>
     </row>
     <row r="77">
-      <c r="A77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="K77" s="6"/>
+      <c r="A77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="K77" s="7"/>
       <c r="L77" s="9"/>
     </row>
     <row r="78">
-      <c r="A78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="K78" s="6"/>
+      <c r="A78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="K78" s="7"/>
       <c r="L78" s="9"/>
     </row>
     <row r="79">
-      <c r="A79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="K79" s="6"/>
+      <c r="A79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="K79" s="7"/>
       <c r="L79" s="9"/>
     </row>
     <row r="80">
-      <c r="A80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="A80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="K80" s="7"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81">
-      <c r="A81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="A81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="K81" s="7"/>
       <c r="L81" s="9"/>
     </row>
     <row r="82">
-      <c r="A82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="A82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="K82" s="7"/>
       <c r="L82" s="9"/>
     </row>
     <row r="83">
-      <c r="A83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="K83" s="6"/>
+      <c r="A83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="K83" s="7"/>
       <c r="L83" s="9"/>
     </row>
     <row r="84">
-      <c r="A84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="A84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="K84" s="7"/>
       <c r="L84" s="9"/>
     </row>
     <row r="85">
-      <c r="A85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="A85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="9"/>
     </row>
     <row r="86">
-      <c r="A86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="A86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="K86" s="7"/>
       <c r="L86" s="9"/>
     </row>
     <row r="87">
-      <c r="A87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="A87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="K87" s="7"/>
       <c r="L87" s="9"/>
     </row>
     <row r="88">
-      <c r="A88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="A88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="K88" s="7"/>
       <c r="L88" s="9"/>
     </row>
     <row r="89">
-      <c r="A89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="K89" s="6"/>
+      <c r="A89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="K89" s="7"/>
       <c r="L89" s="9"/>
     </row>
     <row r="90">
-      <c r="A90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="K90" s="6"/>
+      <c r="A90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="K90" s="7"/>
       <c r="L90" s="9"/>
     </row>
     <row r="91">
-      <c r="A91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="K91" s="6"/>
+      <c r="A91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="K91" s="7"/>
       <c r="L91" s="9"/>
     </row>
     <row r="92">
-      <c r="A92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="K92" s="6"/>
+      <c r="A92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="K92" s="7"/>
       <c r="L92" s="9"/>
     </row>
     <row r="93">
-      <c r="A93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="K93" s="6"/>
+      <c r="A93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="K93" s="7"/>
       <c r="L93" s="9"/>
     </row>
     <row r="94">
-      <c r="A94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="K94" s="6"/>
+      <c r="A94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="K94" s="7"/>
       <c r="L94" s="9"/>
     </row>
     <row r="95">
-      <c r="A95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="K95" s="6"/>
+      <c r="A95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="K95" s="7"/>
       <c r="L95" s="9"/>
     </row>
     <row r="96">
-      <c r="A96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="K96" s="6"/>
+      <c r="A96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="K96" s="7"/>
       <c r="L96" s="9"/>
     </row>
     <row r="97">
-      <c r="A97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="K97" s="6"/>
+      <c r="A97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="K97" s="7"/>
       <c r="L97" s="9"/>
     </row>
     <row r="98">
-      <c r="A98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="K98" s="6"/>
+      <c r="A98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="K98" s="7"/>
       <c r="L98" s="9"/>
     </row>
     <row r="99">
-      <c r="A99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="K99" s="6"/>
+      <c r="A99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="K99" s="7"/>
       <c r="L99" s="9"/>
     </row>
     <row r="100">
-      <c r="A100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="K100" s="6"/>
+      <c r="A100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="K100" s="7"/>
       <c r="L100" s="9"/>
     </row>
     <row r="101">
-      <c r="A101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="K101" s="6"/>
+      <c r="A101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="K101" s="7"/>
       <c r="L101" s="9"/>
     </row>
     <row r="102">
-      <c r="A102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="K102" s="6"/>
+      <c r="A102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="K102" s="7"/>
       <c r="L102" s="9"/>
     </row>
     <row r="103">
-      <c r="A103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="K103" s="6"/>
+      <c r="A103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="K103" s="7"/>
       <c r="L103" s="9"/>
     </row>
     <row r="104">
-      <c r="A104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="K104" s="6"/>
+      <c r="A104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="K104" s="7"/>
       <c r="L104" s="9"/>
     </row>
     <row r="105">
-      <c r="A105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="K105" s="6"/>
+      <c r="A105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="K105" s="7"/>
       <c r="L105" s="9"/>
     </row>
     <row r="106">
-      <c r="A106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="K106" s="6"/>
+      <c r="A106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="K106" s="7"/>
       <c r="L106" s="9"/>
     </row>
     <row r="107">
-      <c r="A107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="K107" s="6"/>
+      <c r="A107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="K107" s="7"/>
       <c r="L107" s="9"/>
     </row>
     <row r="108">
-      <c r="A108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="K108" s="6"/>
+      <c r="A108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="K108" s="7"/>
       <c r="L108" s="9"/>
     </row>
     <row r="109">
-      <c r="A109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="K109" s="6"/>
+      <c r="A109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="K109" s="7"/>
       <c r="L109" s="9"/>
     </row>
     <row r="110">
-      <c r="A110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="K110" s="6"/>
+      <c r="A110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="K110" s="7"/>
       <c r="L110" s="9"/>
     </row>
     <row r="111">
-      <c r="A111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="K111" s="6"/>
+      <c r="A111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="K111" s="7"/>
       <c r="L111" s="9"/>
     </row>
     <row r="112">
-      <c r="A112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="K112" s="6"/>
+      <c r="A112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="K112" s="7"/>
       <c r="L112" s="9"/>
     </row>
     <row r="113">
-      <c r="A113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="K113" s="6"/>
+      <c r="A113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="K113" s="7"/>
       <c r="L113" s="9"/>
     </row>
     <row r="114">
-      <c r="A114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="K114" s="6"/>
+      <c r="A114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="K114" s="7"/>
       <c r="L114" s="9"/>
     </row>
     <row r="115">
-      <c r="A115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="K115" s="6"/>
+      <c r="A115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="K115" s="7"/>
       <c r="L115" s="9"/>
     </row>
     <row r="116">
-      <c r="A116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="K116" s="6"/>
+      <c r="A116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="K116" s="7"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117">
-      <c r="A117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="K117" s="6"/>
+      <c r="A117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="K117" s="7"/>
       <c r="L117" s="9"/>
     </row>
     <row r="118">
-      <c r="A118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="K118" s="6"/>
+      <c r="A118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="K118" s="7"/>
       <c r="L118" s="9"/>
     </row>
     <row r="119">
-      <c r="A119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="K119" s="6"/>
+      <c r="A119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="K119" s="7"/>
       <c r="L119" s="9"/>
     </row>
     <row r="120">
-      <c r="A120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="K120" s="6"/>
+      <c r="A120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="K120" s="7"/>
       <c r="L120" s="9"/>
     </row>
     <row r="121">
-      <c r="A121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="K121" s="6"/>
+      <c r="A121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="K121" s="7"/>
       <c r="L121" s="9"/>
     </row>
     <row r="122">
-      <c r="A122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="K122" s="6"/>
+      <c r="A122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="K122" s="7"/>
       <c r="L122" s="9"/>
     </row>
     <row r="123">
-      <c r="A123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="K123" s="6"/>
+      <c r="A123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="K123" s="7"/>
       <c r="L123" s="9"/>
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H123">
+      <formula1>dropdown_options!$D$2:$D$14</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A123">
       <formula1>dropdown_options!$A$2:$A$8</formula1>
     </dataValidation>
@@ -2236,9 +2244,6 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2 E3:F123">
       <formula1>IFERROR(ISURL(E2), true)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H123">
-      <formula1>dropdown_options!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2281,7 +2286,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -2298,10 +2303,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -2309,72 +2314,77 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2416,138 +2426,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -2679,7 +2689,7 @@
       </c>
       <c r="J4" s="11" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>discrete</v>
       </c>
       <c r="K4" s="11" t="str">
         <f t="shared" ref="K4:L4" si="12">if(ISBLANK($B4), "", K$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="122">
   <si>
     <t>Data category</t>
   </si>
@@ -324,13 +324,46 @@
     <t>https://doi.org/10.25921/295g-sn13</t>
   </si>
   <si>
-    <t>climatology, monthly</t>
+    <t>climatology, monthly, referenced</t>
   </si>
   <si>
     <t>Does not use proxy variables for extrapolation. Only produced as monthly climatology.</t>
   </si>
   <si>
     <t xml:space="preserve">Following on previous climatologies published by the late Taro Takahashi in 1997 and 2009, Fay et al. (2024) created a legacy climatology using his methodology and the updated SOCAT database of observations. This product provides 12 months of delta fCO2 values and corresponding fluxes for a base year of 2010 at 4° × 5° resolution subsequently subgridded to  1° × 1° resolution and near-global coverage. This climatology represents the mean of ocean conditions over the last four decades and is distinctive relative to many other mechanistic machine learning approaches in that it interpolates in time and space using only the available fCO2 data and a surface water advection scheme rather than using proxy variables for gap filling. It uses the median of observations to determine a reference year of 2010 and fluxes are provided using air-sea partial pressure differences and inputs from the SeaFlux product (Fay et al., 2021). </t>
+  </si>
+  <si>
+    <t>Subsurface data-derived</t>
+  </si>
+  <si>
+    <t>MOBO-DIC</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>Keppler et al. (2023)</t>
+  </si>
+  <si>
+    <t>https://mpimet.mpg.de/fileadmin/04_Kommunikation/01_Aktuelles/2020/201211_Paper_Keppler/Temporal_mean_MOBO-DIC_200x300_.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2022GB007677</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/yvzj-zx46</t>
+  </si>
+  <si>
+    <t>Open Ocean, Water column</t>
+  </si>
+  <si>
+    <t>2004 - 2019</t>
+  </si>
+  <si>
+    <t>Temporal trends and interannual variability of DIC in the interior ocean from surface to 1500 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extends the temporal resolution of MOBO-DIC to resolve monthly fields from January 2004 to December 2019, as opposed to the average climatological values in Keppler et al. (2020). This data product is on a 1° × 1° grid at 28 depth levels from the surface to 1500 m. </t>
   </si>
   <si>
     <t>Data categories</t>
@@ -352,9 +385,6 @@
   </si>
   <si>
     <t>daily</t>
-  </si>
-  <si>
-    <t>Subsurface data-derived</t>
   </si>
   <si>
     <t>Water column</t>
@@ -1090,14 +1120,46 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7"/>
@@ -2289,9 +2351,12 @@
     <hyperlink r:id="rId17" ref="E7"/>
     <hyperlink r:id="rId18" ref="F7"/>
     <hyperlink r:id="rId19" ref="G7"/>
+    <hyperlink r:id="rId20" ref="E8"/>
+    <hyperlink r:id="rId21" ref="F8"/>
+    <hyperlink r:id="rId22" ref="G8"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <drawing r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -2310,7 +2375,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>9</v>
@@ -2327,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
@@ -2338,16 +2403,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -2355,18 +2420,18 @@
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
@@ -2374,10 +2439,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>46</v>
@@ -2385,25 +2450,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -2469,7 +2534,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>9</v>
@@ -2478,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>8</v>
@@ -2487,7 +2552,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>7</v>
@@ -2496,7 +2561,7 @@
         <v>7</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>10</v>
@@ -2505,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -2537,79 +2602,79 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
@@ -3185,7 +3250,7 @@
       </c>
       <c r="K8" s="12" t="str">
         <f>HLOOKUP(K$1,product_listing!$1:$123,$A8,FALSE)</f>
-        <v>climatology, monthly</v>
+        <v>climatology, monthly, referenced</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" ref="L8:M8" si="30">if(ISBLANK($C8), "", L$1)</f>
@@ -3255,103 +3320,103 @@
       </c>
       <c r="B9" s="12" t="str">
         <f>HLOOKUP(B$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>Subsurface data-derived</v>
       </c>
       <c r="C9" s="12" t="str">
         <f>HLOOKUP(C$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>MOBO-DIC</v>
       </c>
       <c r="D9" s="12" t="str">
         <f>HLOOKUP(D$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
-      </c>
-      <c r="E9" s="12" t="str">
+        <v>Keppler et al. (2023)</v>
+      </c>
+      <c r="E9" s="15" t="str">
         <f>HLOOKUP(E$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>https://mpimet.mpg.de/fileadmin/04_Kommunikation/01_Aktuelles/2020/201211_Paper_Keppler/Temporal_mean_MOBO-DIC_200x300_.jpg</v>
       </c>
       <c r="F9" s="12" t="str">
         <f t="shared" ref="F9:G9" si="33">if(ISBLANK($C9), "", F$1)</f>
-        <v/>
+        <v>fa-solid fa-globe</v>
       </c>
       <c r="G9" s="12" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Spatial domains</v>
       </c>
       <c r="H9" s="12" t="str">
         <f>HLOOKUP(H$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>Open Ocean, Water column</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" ref="I9:J9" si="34">if(ISBLANK($C9), "", I$1)</f>
-        <v/>
+        <v>fa-solid fa-hourglass-start</v>
       </c>
       <c r="J9" s="12" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>Temporal resolution</v>
       </c>
       <c r="K9" s="12" t="str">
         <f>HLOOKUP(K$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>monthly</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" ref="L9:M9" si="35">if(ISBLANK($C9), "", L$1)</f>
-        <v/>
+        <v>fa-solid fa-ruler-horizontal</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>Spatial resolution</v>
       </c>
       <c r="N9" s="12" t="str">
         <f>HLOOKUP(N$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>1.0°</v>
       </c>
       <c r="O9" s="12" t="str">
         <f t="shared" ref="O9:P9" si="36">if(ISBLANK($C9), "", O$1)</f>
-        <v/>
+        <v>fa-solid fa-calendar-days</v>
       </c>
       <c r="P9" s="12" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>Period</v>
       </c>
       <c r="Q9" s="12" t="str">
         <f>HLOOKUP(Q$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>2004 - 2019</v>
       </c>
       <c r="R9" s="12" t="str">
         <f t="shared" ref="R9:S9" si="37">if(ISBLANK($C9), "", R$1)</f>
-        <v/>
+        <v>fa-solid fa-building-columns</v>
       </c>
       <c r="S9" s="12" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>Institution</v>
       </c>
       <c r="T9" s="12" t="str">
         <f>HLOOKUP(T$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>MPI</v>
       </c>
       <c r="U9" s="12" t="str">
         <f>HLOOKUP(U$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>Temporal trends and interannual variability of DIC in the interior ocean from surface to 1500 m</v>
       </c>
       <c r="V9" s="12" t="str">
         <f>HLOOKUP(V$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
-      </c>
-      <c r="W9" s="12" t="str">
+        <v>Keppler et al. (2023)</v>
+      </c>
+      <c r="W9" s="15" t="str">
         <f>HLOOKUP(W$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
-      </c>
-      <c r="X9" s="12" t="str">
+        <v>https://doi.org/10.1029/2022GB007677</v>
+      </c>
+      <c r="X9" s="15" t="str">
         <f>HLOOKUP(X$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>https://doi.org/10.25921/yvzj-zx46</v>
       </c>
       <c r="Y9" s="12" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>Description</v>
       </c>
       <c r="Z9" s="12" t="str">
         <f>HLOOKUP(Z$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>Extends the temporal resolution of MOBO-DIC to resolve monthly fields from January 2004 to December 2019, as opposed to the average climatological values in Keppler et al. (2020). This data product is on a 1° × 1° grid at 28 depth levels from the surface to 1500 m. </v>
       </c>
     </row>
     <row r="10">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="product_listing" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="dropdown_options" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="web_formatted" sheetId="3" r:id="rId6"/>
+    <sheet state="hidden" name="web_formatted" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -817,6 +817,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="23.38"/>
     <col customWidth="1" min="2" max="2" width="17.25"/>
     <col customWidth="1" min="3" max="4" width="20.38"/>
     <col customWidth="1" min="5" max="5" width="19.75"/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -29,44 +29,44 @@
         <t xml:space="preserve">e.g., Author et al. (2020)</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E1">
+    <comment authorId="0" ref="F1">
       <text>
         <t xml:space="preserve">URL to an image
 recommended format is w300 x h200 pixels</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F1">
+    <comment authorId="0" ref="G1">
       <text>
         <t xml:space="preserve">DOI to the citation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G1">
+    <comment authorId="0" ref="H1">
       <text>
         <t xml:space="preserve">Link to your data repository that is also the DOI</t>
       </text>
     </comment>
-    <comment authorId="0" ref="H1">
+    <comment authorId="0" ref="I1">
       <text>
         <t xml:space="preserve">Must be float</t>
       </text>
     </comment>
-    <comment authorId="0" ref="I1">
+    <comment authorId="0" ref="J1">
       <text>
         <t xml:space="preserve">if multiple seperate with ;</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J1">
+    <comment authorId="0" ref="K1">
       <text>
         <t xml:space="preserve">e.g., coastal; open ocean; surface; water column</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K1">
+    <comment authorId="0" ref="L1">
       <text>
         <t xml:space="preserve">can be YYYY-YYYY
 or climatology</t>
       </text>
     </comment>
-    <comment authorId="0" ref="L1">
+    <comment authorId="0" ref="M1">
       <text>
         <t xml:space="preserve">Only applies to observational data
 Leave blank otherwise</t>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
   <si>
     <t>Data category</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Citation</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
   <si>
     <t>Image</t>
@@ -141,9 +144,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Data compilations</t>
   </si>
   <si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Bakker et al. (2016)</t>
+  </si>
+  <si>
+    <t>Bakker, D. C. E., Pfeil, B., Landa, C. S., Metzl, N., O'Brien, K. M., Olsen, A., Smith, K., Cosca, C., Harasawa, S., Jones, S. D., Nakaoka, S., Nojiri, Y., Schuster, U., Steinhoff, T., Sweeney, C., Takahashi, T., Tilbrook, B., Wada, C., Wanninkhof, R., Alin, S. R., Balestrini, C. F., Barbero, L., Bates, N. R., Bianchi, A. A., Bonou, F., Boutin, J., Bozec, Y., Burger, E. F., Cai, W.-J., Castle, R. D., Chen, L., Chierici, M., Currie, K., Evans, W., Featherstone, C., Feely, R. A., Fransson, A., Goyet, C., Greenwood, N., Gregor, L., Hankin, S., Hardman-Mountford, N. J., Harlay, J., Hauck, J., Hoppema, M., Humphreys, M. P., Hunt, C. W., Huss, B., Ibánhez, J. S. P., Johannessen, T., Keeling, R., Kitidis, V., Körtzinger, A., Kozyr, A., Krasakopoulou, E., Kuwata, A., Landschützer, P., Lauvset, S. K., Lefèvre, N., Lo Monaco, C., Manke, A., Mathis, J. T., Merlivat, L., Millero, F. J., Monteiro, P. M. S., Munro, D. R., Murata, A., Newberger, T., Omar, A. M., Ono, T., Paterson, K., Pearce, D., Pierrot, D., Robbins, L. L., Saito, S., Salisbury, J., Schlitzer, R., Schneider, B., Schweitzer, R., Sieger, R., Skjelvan, I., Sullivan, K. F., Sutherland, S. C., Sutton, A. J., Tadokoro, K., Telszewski, M., Tuma, M., van Heuven, S. M. A. C., Vandemark, D., Ward, B., Watson, A. J., and Xu, S. (2016). A multi-decade record of high-quality fCO2 data in version 3 of the Surface Ocean CO2 Atlas (SOCAT), Earth Syst. Sci. Data, 8, 383–413, https://doi.org/10.5194/essd-8-383-2016.</t>
   </si>
   <si>
     <t>https://socat.info/wp-content/uploads/2017/06/cropped-socat_cat.png</t>
@@ -183,13 +186,13 @@
     <t xml:space="preserve">The Surface Ocean CO2 Atlas features surface fCO2 measurements from both the open ocean and the coastal ocean, predominantly sourced from research vessels, ships of opportunity, and autonomous platforms including fixed moorings and uncrewed surface vehicles (USVs) (Bakker et al., 2016). It represents the most extensive collection of observational ocean CO2 data for the global surface ocean. Since 2013, SOCAT has been updated annually. Dataset flags indicate the estimated uncertainty and completeness of metadata in SOCAT synthesis products. The SOCAT gridded product contains fCO2 values with an estimated uncertainty of less than 5 µatm. </t>
   </si>
   <si>
-    <t>Bakker, D. C. E., Pfeil, B., Landa, C. S., Metzl, N., O'Brien, K. M., Olsen, A., Smith, K., Cosca, C., Harasawa, S., Jones, S. D., Nakaoka, S., Nojiri, Y., Schuster, U., Steinhoff, T., Sweeney, C., Takahashi, T., Tilbrook, B., Wada, C., Wanninkhof, R., Alin, S. R., Balestrini, C. F., Barbero, L., Bates, N. R., Bianchi, A. A., Bonou, F., Boutin, J., Bozec, Y., Burger, E. F., Cai, W.-J., Castle, R. D., Chen, L., Chierici, M., Currie, K., Evans, W., Featherstone, C., Feely, R. A., Fransson, A., Goyet, C., Greenwood, N., Gregor, L., Hankin, S., Hardman-Mountford, N. J., Harlay, J., Hauck, J., Hoppema, M., Humphreys, M. P., Hunt, C. W., Huss, B., Ibánhez, J. S. P., Johannessen, T., Keeling, R., Kitidis, V., Körtzinger, A., Kozyr, A., Krasakopoulou, E., Kuwata, A., Landschützer, P., Lauvset, S. K., Lefèvre, N., Lo Monaco, C., Manke, A., Mathis, J. T., Merlivat, L., Millero, F. J., Monteiro, P. M. S., Munro, D. R., Murata, A., Newberger, T., Omar, A. M., Ono, T., Paterson, K., Pearce, D., Pierrot, D., Robbins, L. L., Saito, S., Salisbury, J., Schlitzer, R., Schneider, B., Schweitzer, R., Sieger, R., Skjelvan, I., Sullivan, K. F., Sutherland, S. C., Sutton, A. J., Tadokoro, K., Telszewski, M., Tuma, M., van Heuven, S. M. A. C., Vandemark, D., Ward, B., Watson, A. J., and Xu, S. (2016). A multi-decade record of high-quality fCO2 data in version 3 of the Surface Ocean CO2 Atlas (SOCAT), Earth Syst. Sci. Data, 8, 383–413, https://doi.org/10.5194/essd-8-383-2016.</t>
-  </si>
-  <si>
     <t>GLODAPv2</t>
   </si>
   <si>
     <t>Lauvset et al. (2024)</t>
+  </si>
+  <si>
+    <t>Lauvset, S. K., Lange, N., Tanhua, T., Bittig, H. C., Olsen, A., Kozyr, A., Álvarez, M., Azetsu-Scott, K., Brown, P. J., Carter, B. R., Cotrim da Cunha, L., Hoppema, M., Humphreys, M. P., Ishii, M., Jeansson, E., Murata, A., Müller, J. D., Pérez, F. F., Schirnick, C., Steinfeldt, R., Suzuki, T., Ulfsbo, A., Velo, A., Woosley, R. J., and Key, R. M.: The annual update GLODAPv2.2023: the global interior ocean biogeochemical data product, Earth Syst. Sci. Data, 16, 2047–2072, https://doi.org/10.5194/essd-16-2047-2024, 2024</t>
   </si>
   <si>
     <t>https://glodap.info/wp-content/uploads/2017/09/cropped-glodap_logo_trans.png</t>
@@ -219,9 +222,6 @@
     <t xml:space="preserve">The Global Ocean Data Analysis Project Version 2 (GLODAPv2) aggregates biogeochemical data collected from discrete bottle samples, offering extensive global coverage from the surface to depths (Key et al., 2015; Olsen et al., 2016; Lauvset et al., 2024). While GLODAP is primarily a product for basin-scale hydrographic data, it also includes coastal datasets and observations from a few time-series. The GLODAPv2 data product provides rigorously quality-controlled measurements for 14 essential oceanographic variables: temperature, salinity, dissolved oxygen (DO), nitrate, silicate, phosphate, DIC, TA, pH, chlorofluorocarbons (CFC-11, CFC-12, CFC-113), carbon tetrachloride (CCl4), and sulfur hexafluoride (SF6). These variables, excluding temperature, undergo both primary and secondary quality control procedures to detect outliers and adjust for significant measurement biases. GLODAPv2 was first published in 2016 and was updated annually through a living data process in Earth System Science Data from 2019 through “v2023,” which was published in 2024. For these updates, new data (including historical data not previously included in the data product) are quality controlled and adjusted to the 2016 version (Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024). Since the global repeat hydrography programs operate with decadal repetitions, the aim is to produce a completely new version of GLODAP, where all cruise datasets will be reevaluated, every decade. Release of the GLODAPv3 data product is planned for 2026, and is expected to evolve the secondary data quality control practices relative to those used in GLODAPv2. For more information on the secondary quality control process, refer to Tanhua et al. (2010) and Lauvset and Tanhua (2015). GLODAPv2 offers two kind of products: the collection of quality controlled data from discrete bottle samples taken at sampling location (Key et al., 2015; Olsen et al., 2016; Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024), and a gridded product, interpolated to a 1° × 1°  grid and the 33 standard depth levels of World Ocean Atlas (WOA) (Lauvset et al., 2016). </t>
   </si>
   <si>
-    <t>Lauvset, S. K., Lange, N., Tanhua, T., Bittig, H. C., Olsen, A., Kozyr, A., Álvarez, M., Azetsu-Scott, K., Brown, P. J., Carter, B. R., Cotrim da Cunha, L., Hoppema, M., Humphreys, M. P., Ishii, M., Jeansson, E., Murata, A., Müller, J. D., Pérez, F. F., Schirnick, C., Steinfeldt, R., Suzuki, T., Ulfsbo, A., Velo, A., Woosley, R. J., and Key, R. M.: The annual update GLODAPv2.2023: the global interior ocean biogeochemical data product, Earth Syst. Sci. Data, 16, 2047–2072, https://doi.org/10.5194/essd-16-2047-2024, 2024</t>
-  </si>
-  <si>
     <t>Gridded surface</t>
   </si>
   <si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Landschützer et al. (2016)</t>
+  </si>
+  <si>
+    <t>Landschützer, P.; Gruber, N.; Bakker, D. C. Decadal Variations and Trends of the Global Ocean Carbon Sink. Global Biogeochemical Cycles 2016, 30 (10), 1396–1417. https://doi.org/10.1002/2015GB005359</t>
   </si>
   <si>
     <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/547d18a7-69b5-4e93-96b2-5e8371310b43/gbc20188-fig-0001-m.jpg</t>
@@ -270,6 +273,9 @@
     <t>Gregor and Gruber (2021)</t>
   </si>
   <si>
+    <t>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</t>
+  </si>
+  <si>
     <t>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</t>
   </si>
   <si>
@@ -291,13 +297,13 @@
     <t>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</t>
   </si>
   <si>
-    <t>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</t>
-  </si>
-  <si>
     <t>OceanSODA-ETHZv2</t>
   </si>
   <si>
     <t>Gregor et al. (2024)</t>
+  </si>
+  <si>
+    <t>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</t>
   </si>
   <si>
     <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</t>
@@ -321,13 +327,13 @@
     <t>a surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</t>
   </si>
   <si>
-    <t>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</t>
-  </si>
-  <si>
     <t>fCO2 and Flux Climatology</t>
   </si>
   <si>
     <t>Fay et al. (2023)</t>
+  </si>
+  <si>
+    <t>Fay, A. R., Munro, D. R., McKinley, G. A., Pierrot, D., Sutherland, S. C., Sweeney, C., and Wanninkhof, R.: Updated climatological mean ΔfCO2 and net sea–air CO2 flux over the global open ocean regions, Earth Syst. Sci. Data, 16, 2123–2139, https://doi.org/10.5194/essd-16-2123-2024, 2024.</t>
   </si>
   <si>
     <t>https://essd.copernicus.org/articles/16/2123/2024/essd-16-2123-2024-avatar-web.png</t>
@@ -358,6 +364,9 @@
   </si>
   <si>
     <t>Keppler et al. (2023)</t>
+  </si>
+  <si>
+    <t>Keppler, L.; Landschützer, P.; Lauvset, S. K.; Gruber, N. Recent Trends and Variability in the Oceanic Storage of Dissolved Inorganic Carbon. Global Biogeochemical Cycles 2023, 37 (5), e2022GB007677. https://doi.org/10.1029/2022GB007677</t>
   </si>
   <si>
     <t>https://mpimet.mpg.de/fileadmin/04_Kommunikation/01_Aktuelles/2020/201211_Paper_Keppler/Temporal_mean_MOBO-DIC_200x300_.jpg</t>
@@ -835,17 +844,17 @@
     <col customWidth="1" min="1" max="1" width="23.38"/>
     <col customWidth="1" min="2" max="2" width="17.25"/>
     <col customWidth="1" min="3" max="4" width="20.38"/>
-    <col customWidth="1" min="5" max="5" width="19.75"/>
-    <col customWidth="1" min="6" max="6" width="21.63"/>
-    <col customWidth="1" min="7" max="7" width="24.25"/>
-    <col customWidth="1" min="8" max="8" width="13.88"/>
-    <col customWidth="1" min="9" max="9" width="23.88"/>
-    <col customWidth="1" min="10" max="10" width="29.88"/>
-    <col customWidth="1" min="11" max="11" width="12.13"/>
-    <col customWidth="1" min="12" max="12" width="18.25"/>
-    <col customWidth="1" min="13" max="13" width="34.5"/>
-    <col customWidth="1" min="14" max="14" width="31.88"/>
-    <col customWidth="1" min="15" max="15" width="59.88"/>
+    <col customWidth="1" min="5" max="5" width="36.63"/>
+    <col customWidth="1" min="6" max="6" width="19.75"/>
+    <col customWidth="1" min="7" max="7" width="21.63"/>
+    <col customWidth="1" min="8" max="8" width="24.25"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
+    <col customWidth="1" min="10" max="10" width="23.88"/>
+    <col customWidth="1" min="11" max="11" width="29.88"/>
+    <col customWidth="1" min="12" max="12" width="12.13"/>
+    <col customWidth="1" min="13" max="13" width="18.25"/>
+    <col customWidth="1" min="14" max="14" width="34.5"/>
+    <col customWidth="1" min="15" max="15" width="31.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -908,31 +917,31 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -952,34 +961,34 @@
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -996,7 +1005,7 @@
       <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1005,24 +1014,27 @@
       <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="5" t="s">
         <v>53</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1030,44 +1042,44 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="O5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1075,44 +1087,44 @@
         <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="K6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="O6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1120,1273 +1132,1279 @@
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>93</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8"/>
-      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="8"/>
-      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="8"/>
-      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="8"/>
-      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="10"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
-      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="10"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
-      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="10"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="8"/>
-      <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="10"/>
+      <c r="K15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
-      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="10"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17">
       <c r="A17" s="8"/>
-      <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="10"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
-      <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="10"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
-      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="10"/>
+      <c r="K19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
-      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="10"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
-      <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="10"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="8"/>
-      <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="H22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="10"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="8"/>
-      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="H23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="10"/>
+      <c r="K23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="8"/>
-      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="H24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="10"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
-      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="10"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
-      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="10"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
-      <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="10"/>
+      <c r="K27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28">
       <c r="A28" s="8"/>
-      <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="10"/>
+      <c r="K28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
-      <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
-      <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="10"/>
+      <c r="K30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31">
       <c r="A31" s="8"/>
-      <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="10"/>
+      <c r="K31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
-      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="10"/>
+      <c r="K32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
-      <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="10"/>
+      <c r="K33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34">
       <c r="A34" s="8"/>
-      <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="10"/>
+      <c r="K34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35">
       <c r="A35" s="8"/>
-      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="10"/>
+      <c r="K35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
-      <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="H36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="10"/>
+      <c r="K36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="37">
       <c r="A37" s="8"/>
-      <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="H37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="10"/>
+      <c r="K37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38">
       <c r="A38" s="8"/>
-      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="H38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="10"/>
+      <c r="K38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39">
       <c r="A39" s="8"/>
-      <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="H39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="10"/>
+      <c r="K39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40">
       <c r="A40" s="8"/>
-      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="H40" s="8"/>
       <c r="J40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="10"/>
+      <c r="K40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="41">
       <c r="A41" s="8"/>
-      <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="H41" s="8"/>
       <c r="J41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="10"/>
+      <c r="K41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42">
       <c r="A42" s="8"/>
-      <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="8"/>
       <c r="J42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="10"/>
+      <c r="K42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43">
       <c r="A43" s="8"/>
-      <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="H43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="10"/>
+      <c r="K43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="10"/>
     </row>
     <row r="44">
       <c r="A44" s="8"/>
-      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="H44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="10"/>
+      <c r="K44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="10"/>
     </row>
     <row r="45">
       <c r="A45" s="8"/>
-      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="H45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="10"/>
+      <c r="K45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="10"/>
     </row>
     <row r="46">
       <c r="A46" s="8"/>
-      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="H46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="10"/>
+      <c r="K46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="10"/>
     </row>
     <row r="47">
       <c r="A47" s="8"/>
-      <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="H47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="10"/>
+      <c r="K47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="10"/>
     </row>
     <row r="48">
       <c r="A48" s="8"/>
-      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="H48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="10"/>
+      <c r="K48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="10"/>
     </row>
     <row r="49">
       <c r="A49" s="8"/>
-      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="H49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="10"/>
+      <c r="K49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="10"/>
     </row>
     <row r="50">
       <c r="A50" s="8"/>
-      <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="H50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="10"/>
+      <c r="K50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="10"/>
     </row>
     <row r="51">
       <c r="A51" s="8"/>
-      <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="H51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="10"/>
+      <c r="K51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="10"/>
     </row>
     <row r="52">
       <c r="A52" s="8"/>
-      <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="H52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="10"/>
+      <c r="K52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="10"/>
     </row>
     <row r="53">
       <c r="A53" s="8"/>
-      <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="H53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="10"/>
+      <c r="K53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="10"/>
     </row>
     <row r="54">
       <c r="A54" s="8"/>
-      <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="H54" s="8"/>
       <c r="J54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="10"/>
+      <c r="K54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="10"/>
     </row>
     <row r="55">
       <c r="A55" s="8"/>
-      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="H55" s="8"/>
       <c r="J55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="10"/>
+      <c r="K55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="10"/>
     </row>
     <row r="56">
       <c r="A56" s="8"/>
-      <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="H56" s="8"/>
       <c r="J56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="10"/>
+      <c r="K56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="10"/>
     </row>
     <row r="57">
       <c r="A57" s="8"/>
-      <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="H57" s="8"/>
       <c r="J57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="10"/>
+      <c r="K57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="10"/>
     </row>
     <row r="58">
       <c r="A58" s="8"/>
-      <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="H58" s="8"/>
       <c r="J58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="10"/>
+      <c r="K58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="10"/>
     </row>
     <row r="59">
       <c r="A59" s="8"/>
-      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="H59" s="8"/>
       <c r="J59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="10"/>
+      <c r="K59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="10"/>
     </row>
     <row r="60">
       <c r="A60" s="8"/>
-      <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="H60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="10"/>
+      <c r="K60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="10"/>
     </row>
     <row r="61">
       <c r="A61" s="8"/>
-      <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="H61" s="8"/>
       <c r="J61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="10"/>
+      <c r="K61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="10"/>
     </row>
     <row r="62">
       <c r="A62" s="8"/>
-      <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="H62" s="8"/>
       <c r="J62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="10"/>
+      <c r="K62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="10"/>
     </row>
     <row r="63">
       <c r="A63" s="8"/>
-      <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="H63" s="8"/>
       <c r="J63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="10"/>
+      <c r="K63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="10"/>
     </row>
     <row r="64">
       <c r="A64" s="8"/>
-      <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="H64" s="8"/>
       <c r="J64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="10"/>
+      <c r="K64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="10"/>
     </row>
     <row r="65">
       <c r="A65" s="8"/>
-      <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="H65" s="8"/>
       <c r="J65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="10"/>
+      <c r="K65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="10"/>
     </row>
     <row r="66">
       <c r="A66" s="8"/>
-      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="H66" s="8"/>
       <c r="J66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="10"/>
+      <c r="K66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="10"/>
     </row>
     <row r="67">
       <c r="A67" s="8"/>
-      <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="H67" s="8"/>
       <c r="J67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="10"/>
+      <c r="K67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="10"/>
     </row>
     <row r="68">
       <c r="A68" s="8"/>
-      <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="H68" s="8"/>
       <c r="J68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="10"/>
+      <c r="K68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="10"/>
     </row>
     <row r="69">
       <c r="A69" s="8"/>
-      <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="H69" s="8"/>
       <c r="J69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="10"/>
+      <c r="K69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="10"/>
     </row>
     <row r="70">
       <c r="A70" s="8"/>
-      <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="H70" s="8"/>
       <c r="J70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="10"/>
+      <c r="K70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="10"/>
     </row>
     <row r="71">
       <c r="A71" s="8"/>
-      <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="H71" s="8"/>
       <c r="J71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="10"/>
+      <c r="K71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="10"/>
     </row>
     <row r="72">
       <c r="A72" s="8"/>
-      <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="H72" s="8"/>
       <c r="J72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="10"/>
+      <c r="K72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="10"/>
     </row>
     <row r="73">
       <c r="A73" s="8"/>
-      <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="H73" s="8"/>
       <c r="J73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="10"/>
+      <c r="K73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="10"/>
     </row>
     <row r="74">
       <c r="A74" s="8"/>
-      <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="H74" s="8"/>
       <c r="J74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="10"/>
+      <c r="K74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="10"/>
     </row>
     <row r="75">
       <c r="A75" s="8"/>
-      <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="H75" s="8"/>
       <c r="J75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="10"/>
+      <c r="K75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="10"/>
     </row>
     <row r="76">
       <c r="A76" s="8"/>
-      <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="H76" s="8"/>
       <c r="J76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="10"/>
+      <c r="K76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="10"/>
     </row>
     <row r="77">
       <c r="A77" s="8"/>
-      <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="H77" s="8"/>
       <c r="J77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="10"/>
+      <c r="K77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="10"/>
     </row>
     <row r="78">
       <c r="A78" s="8"/>
-      <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="H78" s="8"/>
       <c r="J78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="10"/>
+      <c r="K78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="10"/>
     </row>
     <row r="79">
       <c r="A79" s="8"/>
-      <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="H79" s="8"/>
       <c r="J79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="10"/>
+      <c r="K79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="10"/>
     </row>
     <row r="80">
       <c r="A80" s="8"/>
-      <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="H80" s="8"/>
       <c r="J80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="10"/>
+      <c r="K80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="10"/>
     </row>
     <row r="81">
       <c r="A81" s="8"/>
-      <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="H81" s="8"/>
       <c r="J81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="10"/>
+      <c r="K81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="10"/>
     </row>
     <row r="82">
       <c r="A82" s="8"/>
-      <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="H82" s="8"/>
       <c r="J82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="10"/>
+      <c r="K82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="10"/>
     </row>
     <row r="83">
       <c r="A83" s="8"/>
-      <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="H83" s="8"/>
       <c r="J83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="10"/>
+      <c r="K83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="10"/>
     </row>
     <row r="84">
       <c r="A84" s="8"/>
-      <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="H84" s="8"/>
       <c r="J84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="10"/>
+      <c r="K84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="10"/>
     </row>
     <row r="85">
       <c r="A85" s="8"/>
-      <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="H85" s="8"/>
       <c r="J85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="10"/>
+      <c r="K85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="10"/>
     </row>
     <row r="86">
       <c r="A86" s="8"/>
-      <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="H86" s="8"/>
       <c r="J86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="10"/>
+      <c r="K86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="10"/>
     </row>
     <row r="87">
       <c r="A87" s="8"/>
-      <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="H87" s="8"/>
       <c r="J87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="10"/>
+      <c r="K87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="10"/>
     </row>
     <row r="88">
       <c r="A88" s="8"/>
-      <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="H88" s="8"/>
       <c r="J88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="10"/>
+      <c r="K88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="10"/>
     </row>
     <row r="89">
       <c r="A89" s="8"/>
-      <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="H89" s="8"/>
       <c r="J89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="10"/>
+      <c r="K89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="10"/>
     </row>
     <row r="90">
       <c r="A90" s="8"/>
-      <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="H90" s="8"/>
       <c r="J90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="10"/>
+      <c r="K90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="10"/>
     </row>
     <row r="91">
       <c r="A91" s="8"/>
-      <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="H91" s="8"/>
       <c r="J91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="10"/>
+      <c r="K91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="10"/>
     </row>
     <row r="92">
       <c r="A92" s="8"/>
-      <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="H92" s="8"/>
       <c r="J92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="10"/>
+      <c r="K92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="10"/>
     </row>
     <row r="93">
       <c r="A93" s="8"/>
-      <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="H93" s="8"/>
       <c r="J93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="10"/>
+      <c r="K93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="10"/>
     </row>
     <row r="94">
       <c r="A94" s="8"/>
-      <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="H94" s="8"/>
       <c r="J94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="10"/>
+      <c r="K94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="10"/>
     </row>
     <row r="95">
       <c r="A95" s="8"/>
-      <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="H95" s="8"/>
       <c r="J95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="10"/>
+      <c r="K95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="10"/>
     </row>
     <row r="96">
       <c r="A96" s="8"/>
-      <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="H96" s="8"/>
       <c r="J96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="10"/>
+      <c r="K96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="10"/>
     </row>
     <row r="97">
       <c r="A97" s="8"/>
-      <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="H97" s="8"/>
       <c r="J97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="10"/>
+      <c r="K97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="10"/>
     </row>
     <row r="98">
       <c r="A98" s="8"/>
-      <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="H98" s="8"/>
       <c r="J98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="10"/>
+      <c r="K98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="10"/>
     </row>
     <row r="99">
       <c r="A99" s="8"/>
-      <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="H99" s="8"/>
       <c r="J99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="10"/>
+      <c r="K99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="10"/>
     </row>
     <row r="100">
       <c r="A100" s="8"/>
-      <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="H100" s="8"/>
       <c r="J100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="10"/>
+      <c r="K100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="10"/>
     </row>
     <row r="101">
       <c r="A101" s="8"/>
-      <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="H101" s="8"/>
       <c r="J101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="10"/>
+      <c r="K101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="10"/>
     </row>
     <row r="102">
       <c r="A102" s="8"/>
-      <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="H102" s="8"/>
       <c r="J102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="10"/>
+      <c r="K102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="10"/>
     </row>
     <row r="103">
       <c r="A103" s="8"/>
-      <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
-      <c r="I103" s="8"/>
+      <c r="H103" s="8"/>
       <c r="J103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="10"/>
+      <c r="K103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="10"/>
     </row>
     <row r="104">
       <c r="A104" s="8"/>
-      <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="H104" s="8"/>
       <c r="J104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="10"/>
+      <c r="K104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="10"/>
     </row>
     <row r="105">
       <c r="A105" s="8"/>
-      <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
-      <c r="I105" s="8"/>
+      <c r="H105" s="8"/>
       <c r="J105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="10"/>
+      <c r="K105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="10"/>
     </row>
     <row r="106">
       <c r="A106" s="8"/>
-      <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
-      <c r="I106" s="8"/>
+      <c r="H106" s="8"/>
       <c r="J106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="10"/>
+      <c r="K106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="10"/>
     </row>
     <row r="107">
       <c r="A107" s="8"/>
-      <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
-      <c r="I107" s="8"/>
+      <c r="H107" s="8"/>
       <c r="J107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="10"/>
+      <c r="K107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="10"/>
     </row>
     <row r="108">
       <c r="A108" s="8"/>
-      <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
-      <c r="I108" s="8"/>
+      <c r="H108" s="8"/>
       <c r="J108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="10"/>
+      <c r="K108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="10"/>
     </row>
     <row r="109">
       <c r="A109" s="8"/>
-      <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
-      <c r="I109" s="8"/>
+      <c r="H109" s="8"/>
       <c r="J109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="10"/>
+      <c r="K109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="10"/>
     </row>
     <row r="110">
       <c r="A110" s="8"/>
-      <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
-      <c r="I110" s="8"/>
+      <c r="H110" s="8"/>
       <c r="J110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="10"/>
+      <c r="K110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="10"/>
     </row>
     <row r="111">
       <c r="A111" s="8"/>
-      <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="H111" s="8"/>
       <c r="J111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="10"/>
+      <c r="K111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="10"/>
     </row>
     <row r="112">
       <c r="A112" s="8"/>
-      <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
-      <c r="I112" s="8"/>
+      <c r="H112" s="8"/>
       <c r="J112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="10"/>
+      <c r="K112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="10"/>
     </row>
     <row r="113">
       <c r="A113" s="8"/>
-      <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="H113" s="8"/>
       <c r="J113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="10"/>
+      <c r="K113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="10"/>
     </row>
     <row r="114">
       <c r="A114" s="8"/>
-      <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
-      <c r="I114" s="8"/>
+      <c r="H114" s="8"/>
       <c r="J114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="10"/>
+      <c r="K114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="10"/>
     </row>
     <row r="115">
       <c r="A115" s="8"/>
-      <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
-      <c r="I115" s="8"/>
+      <c r="H115" s="8"/>
       <c r="J115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="10"/>
+      <c r="K115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="10"/>
     </row>
     <row r="116">
       <c r="A116" s="8"/>
-      <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
-      <c r="I116" s="8"/>
+      <c r="H116" s="8"/>
       <c r="J116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="10"/>
+      <c r="K116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="10"/>
     </row>
     <row r="117">
       <c r="A117" s="8"/>
-      <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="I117" s="8"/>
+      <c r="H117" s="8"/>
       <c r="J117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="10"/>
+      <c r="K117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="10"/>
     </row>
     <row r="118">
       <c r="A118" s="8"/>
-      <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
-      <c r="I118" s="8"/>
+      <c r="H118" s="8"/>
       <c r="J118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="10"/>
+      <c r="K118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="10"/>
     </row>
     <row r="119">
       <c r="A119" s="8"/>
-      <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
-      <c r="I119" s="8"/>
+      <c r="H119" s="8"/>
       <c r="J119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="10"/>
+      <c r="K119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="10"/>
     </row>
     <row r="120">
       <c r="A120" s="8"/>
-      <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
-      <c r="I120" s="8"/>
+      <c r="H120" s="8"/>
       <c r="J120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="10"/>
+      <c r="K120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="10"/>
     </row>
     <row r="121">
       <c r="A121" s="8"/>
-      <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
-      <c r="I121" s="8"/>
+      <c r="H121" s="8"/>
       <c r="J121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="10"/>
+      <c r="K121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="10"/>
     </row>
     <row r="122">
       <c r="A122" s="8"/>
-      <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
-      <c r="I122" s="8"/>
+      <c r="H122" s="8"/>
       <c r="J122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="10"/>
+      <c r="K122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="10"/>
     </row>
     <row r="123">
       <c r="A123" s="8"/>
-      <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
-      <c r="I123" s="8"/>
+      <c r="H123" s="8"/>
       <c r="J123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="10"/>
+      <c r="K123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="10"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I123">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J123">
       <formula1>dropdown_options!$D$2:$D$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A123">
       <formula1>dropdown_options!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J123">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K123">
       <formula1>dropdown_options!$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Must be a url to an image" sqref="E2:E123">
-      <formula1>IFERROR(ISURL(E2), true)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Must be a url to an image" sqref="F2:F123">
+      <formula1>IFERROR(ISURL(F2), true)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L123">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M123">
       <formula1>dropdown_options!$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F2 F3:G123">
-      <formula1>IFERROR(ISURL(F2), true)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2 G3:H123">
+      <formula1>IFERROR(ISURL(G2), true)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="E2"/>
-    <hyperlink r:id="rId3" ref="F2"/>
-    <hyperlink r:id="rId4" ref="G2"/>
-    <hyperlink r:id="rId5" ref="E3"/>
-    <hyperlink r:id="rId6" ref="F3"/>
-    <hyperlink r:id="rId7" ref="G3"/>
-    <hyperlink r:id="rId8" ref="E4"/>
-    <hyperlink r:id="rId9" ref="F4"/>
-    <hyperlink r:id="rId10" ref="G4"/>
-    <hyperlink r:id="rId11" ref="E5"/>
-    <hyperlink r:id="rId12" ref="F5"/>
-    <hyperlink r:id="rId13" ref="G5"/>
-    <hyperlink r:id="rId14" ref="E6"/>
-    <hyperlink r:id="rId15" ref="F6"/>
-    <hyperlink r:id="rId16" ref="G6"/>
-    <hyperlink r:id="rId17" ref="E7"/>
-    <hyperlink r:id="rId18" ref="F7"/>
-    <hyperlink r:id="rId19" ref="G7"/>
-    <hyperlink r:id="rId20" ref="E8"/>
-    <hyperlink r:id="rId21" ref="F8"/>
-    <hyperlink r:id="rId22" ref="G8"/>
+    <hyperlink r:id="rId2" ref="F2"/>
+    <hyperlink r:id="rId3" ref="G2"/>
+    <hyperlink r:id="rId4" ref="H2"/>
+    <hyperlink r:id="rId5" ref="F3"/>
+    <hyperlink r:id="rId6" ref="G3"/>
+    <hyperlink r:id="rId7" ref="H3"/>
+    <hyperlink r:id="rId8" ref="F4"/>
+    <hyperlink r:id="rId9" ref="G4"/>
+    <hyperlink r:id="rId10" ref="H4"/>
+    <hyperlink r:id="rId11" ref="F5"/>
+    <hyperlink r:id="rId12" ref="G5"/>
+    <hyperlink r:id="rId13" ref="H5"/>
+    <hyperlink r:id="rId14" ref="F6"/>
+    <hyperlink r:id="rId15" ref="G6"/>
+    <hyperlink r:id="rId16" ref="H6"/>
+    <hyperlink r:id="rId17" ref="F7"/>
+    <hyperlink r:id="rId18" ref="G7"/>
+    <hyperlink r:id="rId19" ref="H7"/>
+    <hyperlink r:id="rId20" ref="F8"/>
+    <hyperlink r:id="rId21" ref="G8"/>
+    <hyperlink r:id="rId22" ref="H8"/>
   </hyperlinks>
   <drawing r:id="rId23"/>
   <legacyDrawing r:id="rId24"/>
@@ -2408,16 +2426,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -2425,27 +2443,27 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -2453,60 +2471,60 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2564,46 +2582,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="O1" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -2612,28 +2630,28 @@
         <v>2</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -2641,85 +2659,85 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
@@ -3061,7 +3079,7 @@
       </c>
       <c r="AB5" s="6" t="str">
         <f>HLOOKUP(AB$1,product_listing!$1:$123,$A5,FALSE)</f>
-        <v/>
+        <v>Landschützer, P.; Gruber, N.; Bakker, D. C. Decadal Variations and Trends of the Global Ocean Carbon Sink. Global Biogeochemical Cycles 2016, 30 (10), 1396–1417. https://doi.org/10.1002/2015GB005359</v>
       </c>
     </row>
     <row r="6">
@@ -3403,7 +3421,7 @@
       </c>
       <c r="AB8" s="6" t="str">
         <f>HLOOKUP(AB$1,product_listing!$1:$123,$A8,FALSE)</f>
-        <v/>
+        <v>Fay, A. R., Munro, D. R., McKinley, G. A., Pierrot, D., Sutherland, S. C., Sweeney, C., and Wanninkhof, R.: Updated climatological mean ΔfCO2 and net sea–air CO2 flux over the global open ocean regions, Earth Syst. Sci. Data, 16, 2123–2139, https://doi.org/10.5194/essd-16-2123-2024, 2024.</v>
       </c>
     </row>
     <row r="9">
@@ -3517,7 +3535,7 @@
       </c>
       <c r="AB9" s="6" t="str">
         <f>HLOOKUP(AB$1,product_listing!$1:$123,$A9,FALSE)</f>
-        <v/>
+        <v>Keppler, L.; Landschützer, P.; Lauvset, S. K.; Gruber, N. Recent Trends and Variability in the Oceanic Storage of Dissolved Inorganic Carbon. Global Biogeochemical Cycles 2023, 37 (5), e2022GB007677. https://doi.org/10.1029/2022GB007677</v>
       </c>
     </row>
     <row r="10">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>Data category</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>fCO2 and Flux Climatology</t>
+  </si>
+  <si>
+    <t>LDEO</t>
   </si>
   <si>
     <t>Fay et al. (2023)</t>
@@ -1134,63 +1137,65 @@
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>49</v>
@@ -1199,17 +1204,17 @@
         <v>50</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2426,7 +2431,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>10</v>
@@ -2443,7 +2448,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
@@ -2454,16 +2459,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -2471,18 +2476,18 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>73</v>
@@ -2490,10 +2495,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>50</v>
@@ -2501,25 +2506,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -2585,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>10</v>
@@ -2594,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>9</v>
@@ -2603,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>8</v>
@@ -2612,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
@@ -2621,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -2659,85 +2664,85 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="T2" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AA2" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="AB2" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -3389,7 +3394,7 @@
       </c>
       <c r="T8" s="6" t="str">
         <f>HLOOKUP(T$1,product_listing!$1:$123,$A8,FALSE)</f>
-        <v/>
+        <v>LDEO</v>
       </c>
       <c r="U8" s="6" t="str">
         <f>HLOOKUP(U$1,product_listing!$1:$123,$A8,FALSE)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="google_form" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name="product_listing" sheetId="2" r:id="rId5"/>
     <sheet state="hidden" name="dropdown_options" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="web_formatted" sheetId="4" r:id="rId7"/>
+    <sheet state="hidden" name="web_formatted" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -226,6 +226,42 @@
     <t>Gridded surface</t>
   </si>
   <si>
+    <t>CSIR-ML6</t>
+  </si>
+  <si>
+    <t>Gregor et al. (2019)</t>
+  </si>
+  <si>
+    <t>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</t>
+  </si>
+  <si>
+    <t>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/gmd-12-5113-2019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/z682-mn47</t>
+  </si>
+  <si>
+    <t>1.0°</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>Open ocean, Surface</t>
+  </si>
+  <si>
+    <t>1982 - 2020</t>
+  </si>
+  <si>
+    <t>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</t>
+  </si>
+  <si>
+    <t>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</t>
+  </si>
+  <si>
     <t>OceanSODA-ETHZv1</t>
   </si>
   <si>
@@ -242,15 +278,6 @@
   </si>
   <si>
     <t>https://doi.org/10.25921/m5wx-ja34</t>
-  </si>
-  <si>
-    <t>1.0°</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>Open ocean, Surface</t>
   </si>
   <si>
     <t>1982 - 2022</t>
@@ -323,33 +350,6 @@
   </si>
   <si>
     <t>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</t>
-  </si>
-  <si>
-    <t>CSIR-ML6</t>
-  </si>
-  <si>
-    <t>Gregor et al. (2019)</t>
-  </si>
-  <si>
-    <t>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</t>
-  </si>
-  <si>
-    <t>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/gmd-12-5113-2019</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25921/z682-mn47</t>
-  </si>
-  <si>
-    <t>1982 - 2020</t>
-  </si>
-  <si>
-    <t>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</t>
-  </si>
-  <si>
-    <t>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</t>
   </si>
   <si>
     <t>Institution</t>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>45961.909583877314</v>
+        <v>45961.95201907407</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>41</v>
@@ -1251,7 +1251,7 @@
       <c r="H4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1269,11 +1269,10 @@
       <c r="O4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>45961.91270586806</v>
+        <v>45961.909583877314</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>41</v>
@@ -1296,115 +1295,116 @@
       <c r="H5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>60</v>
+      <c r="I5" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>45961.91270586806</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="10">
+      <c r="E6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10">
         <v>45961.90485893519</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>45961.95201907407</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="13"/>
+      <c r="N7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="P7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
@@ -2699,25 +2699,25 @@
         <v>41</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>48</v>
@@ -2729,14 +2729,14 @@
         <v>103</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -2744,28 +2744,28 @@
         <v>41</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>104</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="19" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>105</v>
@@ -4593,15 +4593,15 @@
       </c>
       <c r="C5" s="20" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>OceanSODA-ETHZv1</v>
+        <v>CSIR-ML6</v>
       </c>
       <c r="D5" s="20" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="E5" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
+        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</v>
       </c>
       <c r="F5" s="20" t="str">
         <f t="shared" ref="F5:G5" si="12">if(ISBLANK($C5), "", F$1)</f>
@@ -4649,23 +4649,23 @@
       </c>
       <c r="Q5" s="20" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>1982 - 2022</v>
+        <v>1982 - 2020</v>
       </c>
       <c r="R5" s="20" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
+        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
       </c>
       <c r="S5" s="20" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="T5" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-13-777-2021</v>
+        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
       </c>
       <c r="U5" s="29" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>https://doi.org/10.25921/m5wx-ja34</v>
+        <v>https://doi.org/10.25921/z682-mn47</v>
       </c>
       <c r="V5" s="20" t="str">
         <f t="shared" si="10"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="W5" s="20" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
+        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
       </c>
       <c r="X5" s="20" t="str">
         <f t="shared" si="11"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="Y5" s="20" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$126,$A5,FALSE)</f>
-        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
+        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
       </c>
     </row>
     <row r="6">
@@ -4695,15 +4695,15 @@
       </c>
       <c r="C6" s="20" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>OceanSODA-ETHZv2</v>
+        <v>OceanSODA-ETHZv1</v>
       </c>
       <c r="D6" s="20" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="E6" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="F6" s="20" t="str">
         <f t="shared" ref="F6:G6" si="16">if(ISBLANK($C6), "", F$1)</f>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="K6" s="20" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>8-day</v>
+        <v>monthly</v>
       </c>
       <c r="L6" s="20" t="str">
         <f t="shared" ref="L6:M6" si="18">if(ISBLANK($C6), "", L$1)</f>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="N6" s="30" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>0.25°</v>
+        <v>1.0°</v>
       </c>
       <c r="O6" s="20" t="str">
         <f t="shared" ref="O6:P6" si="19">if(ISBLANK($C6), "", O$1)</f>
@@ -4751,23 +4751,23 @@
       </c>
       <c r="Q6" s="20" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>1982 - 2023</v>
+        <v>1982 - 2022</v>
       </c>
       <c r="R6" s="20" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
+        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
       </c>
       <c r="S6" s="20" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="T6" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>https://doi.org/10.1029/2024GB008127</v>
+        <v>https://doi.org/10.5194/essd-13-777-2021</v>
       </c>
       <c r="U6" s="29" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>https://zenodo.org/records/11206366</v>
+        <v>https://doi.org/10.25921/m5wx-ja34</v>
       </c>
       <c r="V6" s="20" t="str">
         <f t="shared" si="10"/>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="W6" s="20" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
+        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
       </c>
       <c r="X6" s="20" t="str">
         <f t="shared" si="11"/>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="Y6" s="20" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$126,$A6,FALSE)</f>
-        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
+        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
       </c>
     </row>
     <row r="7">
@@ -4793,19 +4793,19 @@
       </c>
       <c r="B7" s="20" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>Harmonized</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>SeaFlux</v>
+        <v>OceanSODA-ETHZv2</v>
       </c>
       <c r="D7" s="20" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
       </c>
       <c r="F7" s="20" t="str">
         <f t="shared" ref="F7:G7" si="20">if(ISBLANK($C7), "", F$1)</f>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="K7" s="20" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>monthly</v>
+        <v>8-day</v>
       </c>
       <c r="L7" s="20" t="str">
         <f t="shared" ref="L7:M7" si="22">if(ISBLANK($C7), "", L$1)</f>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="N7" s="30" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>1.0°</v>
+        <v>0.25°</v>
       </c>
       <c r="O7" s="20" t="str">
         <f t="shared" ref="O7:P7" si="23">if(ISBLANK($C7), "", O$1)</f>
@@ -4853,23 +4853,23 @@
       </c>
       <c r="Q7" s="20" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>1990 - 2022</v>
+        <v>1982 - 2023</v>
       </c>
       <c r="R7" s="20" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
+        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
       </c>
       <c r="S7" s="20" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="T7" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-2021-16</v>
+        <v>https://doi.org/10.1029/2024GB008127</v>
       </c>
       <c r="U7" s="29" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>https://zenodo.org/records/8280457</v>
+        <v>https://zenodo.org/records/11206366</v>
       </c>
       <c r="V7" s="20" t="str">
         <f t="shared" si="10"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="W7" s="20" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
+        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
       </c>
       <c r="X7" s="20" t="str">
         <f t="shared" si="11"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="Y7" s="20" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$126,$A7,FALSE)</f>
-        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
+        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
       </c>
     </row>
     <row r="8">
@@ -4895,19 +4895,19 @@
       </c>
       <c r="B8" s="20" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Harmonized</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>CSIR-ML6</v>
+        <v>SeaFlux</v>
       </c>
       <c r="D8" s="20" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</v>
+        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
       </c>
       <c r="F8" s="20" t="str">
         <f t="shared" ref="F8:G8" si="24">if(ISBLANK($C8), "", F$1)</f>
@@ -4955,23 +4955,23 @@
       </c>
       <c r="Q8" s="20" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>1982 - 2020</v>
+        <v>1990 - 2022</v>
       </c>
       <c r="R8" s="20" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
+        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
       </c>
       <c r="S8" s="20" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="T8" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
+        <v>https://doi.org/10.5194/essd-2021-16</v>
       </c>
       <c r="U8" s="29" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>https://doi.org/10.25921/z682-mn47</v>
+        <v>https://zenodo.org/records/8280457</v>
       </c>
       <c r="V8" s="20" t="str">
         <f t="shared" si="10"/>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="W8" s="20" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
+        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
       </c>
       <c r="X8" s="20" t="str">
         <f t="shared" si="11"/>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="Y8" s="20" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$126,$A8,FALSE)</f>
-        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
+        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
       </c>
     </row>
     <row r="9">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="google_form" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="web_formatted" sheetId="2" r:id="rId5"/>
+    <sheet state="hidden" name="web_formatted" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
   <si>
     <t>Timestamp</t>
   </si>
@@ -178,7 +178,7 @@
     <t>https://doi.org/10.25921/z682-mn47</t>
   </si>
   <si>
-    <t>1.0°</t>
+    <t>1° x 1°</t>
   </si>
   <si>
     <t>monthly</t>
@@ -241,7 +241,7 @@
     <t>https://zenodo.org/records/11206366</t>
   </si>
   <si>
-    <t>0.25°</t>
+    <t>0.25° x 0.25°</t>
   </si>
   <si>
     <t>8-day</t>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</t>
-  </si>
-  <si>
-    <t>1° x 1°</t>
   </si>
   <si>
     <t>climatology</t>
@@ -507,9 +504,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -524,6 +518,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1098,7 +1095,7 @@
       <c r="H5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1143,7 +1140,7 @@
       <c r="H6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1164,50 +1161,50 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>45961.90485893519</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="17"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -1280,1067 +1277,1067 @@
         <v>100</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="O9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="17"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="17"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="17"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="17"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="17"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="17"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="17"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="17"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="17"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="17"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="17"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="17"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="16"/>
     </row>
     <row r="22">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="17"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="17"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="17"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="16"/>
     </row>
     <row r="25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="17"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="16"/>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="17"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="16"/>
     </row>
     <row r="28">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="17"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="16"/>
     </row>
     <row r="29">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="17"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="17"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="17"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="32">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="17"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="16"/>
     </row>
     <row r="33">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="17"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="16"/>
     </row>
     <row r="34">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="17"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="17"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="16"/>
     </row>
     <row r="36">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="17"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="16"/>
     </row>
     <row r="37">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="17"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="16"/>
     </row>
     <row r="38">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="17"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="16"/>
     </row>
     <row r="39">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="17"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="16"/>
     </row>
     <row r="40">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="17"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="16"/>
     </row>
     <row r="41">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="17"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="16"/>
     </row>
     <row r="42">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="17"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="16"/>
     </row>
     <row r="43">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="17"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="16"/>
     </row>
     <row r="44">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="17"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="16"/>
     </row>
     <row r="45">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="17"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="16"/>
     </row>
     <row r="46">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="17"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="16"/>
     </row>
     <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="17"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="16"/>
     </row>
     <row r="48">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="17"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="16"/>
     </row>
     <row r="49">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="17"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="16"/>
     </row>
     <row r="50">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="17"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="16"/>
     </row>
     <row r="51">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="17"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="16"/>
     </row>
     <row r="52">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="17"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="16"/>
     </row>
     <row r="53">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="17"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="16"/>
     </row>
     <row r="54">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="17"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="16"/>
     </row>
     <row r="55">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="17"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="16"/>
     </row>
     <row r="56">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="17"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="16"/>
     </row>
     <row r="57">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="17"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="16"/>
     </row>
     <row r="58">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="17"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="16"/>
     </row>
     <row r="59">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="17"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="16"/>
     </row>
     <row r="60">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="17"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="16"/>
     </row>
     <row r="61">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="17"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="16"/>
     </row>
     <row r="62">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="17"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="16"/>
     </row>
     <row r="63">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="17"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="16"/>
     </row>
     <row r="64">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="17"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="16"/>
     </row>
     <row r="65">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="17"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="16"/>
     </row>
     <row r="66">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="17"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="16"/>
     </row>
     <row r="67">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="17"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="16"/>
     </row>
     <row r="68">
       <c r="I68" s="18"/>
@@ -5257,16 +5254,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>9</v>
@@ -5275,7 +5272,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>8</v>
@@ -5284,7 +5281,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>11</v>
@@ -5322,76 +5319,76 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="R2" s="22" t="s">
+      <c r="S2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="T2" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="U2" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="V2" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="W2" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="23" t="s">
-        <v>123</v>
-      </c>
       <c r="X2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y2" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3">
@@ -5653,7 +5650,7 @@
       </c>
       <c r="N5" s="25" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$128,$A5,FALSE)</f>
-        <v>1.0°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O5" s="20" t="str">
         <f t="shared" ref="O5:P5" si="15">if(ISBLANK($C5), "", O$1)</f>
@@ -5755,7 +5752,7 @@
       </c>
       <c r="N6" s="25" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$128,$A6,FALSE)</f>
-        <v>1.0°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O6" s="20" t="str">
         <f t="shared" ref="O6:P6" si="19">if(ISBLANK($C6), "", O$1)</f>
@@ -5857,7 +5854,7 @@
       </c>
       <c r="N7" s="25" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$128,$A7,FALSE)</f>
-        <v>0.25°</v>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O7" s="20" t="str">
         <f t="shared" ref="O7:P7" si="23">if(ISBLANK($C7), "", O$1)</f>
@@ -5959,7 +5956,7 @@
       </c>
       <c r="N8" s="25" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$128,$A8,FALSE)</f>
-        <v>1.0°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O8" s="20" t="str">
         <f t="shared" ref="O8:P8" si="27">if(ISBLANK($C8), "", O$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="206">
   <si>
     <t>Timestamp</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alin et al. (2024a) compiled data from 35 individual cruise data sets that sampled marine waters of the southern Salish Sea and northern Washington coast (United States) from 2008 to 2018. Ongoing seasonal sampling occurred during April, July, and September for Puget Sound cruises has occurred since 2014 and most frequently during May and October for Sound-to-Sea cruises, which sample from Puget Sound through the Strait of Juan de Fuca to the northern Washington coast. The Salish cruise data package contains observations from a total of 715 oceanographic profiles, with &gt; 7490 sensor measurements of temperature, salinity, and DO; ≥ 6070 measurements of discrete DO and nutrient (nitrate, phosphate, silicate, ammonium, nitrite) samples; and ≥ 4462 measurements of inorganic carbonate system variables (DIC and TA). A follow-on data product based on the Salish cruise data package, which only included the 3971 samples with complete information for temperature, salinity, DO, nutrients, DIC, and TA, is also available (Alin et al., 2023). This product additionally provides the most commonly used calculated carbonate system variables: pH (total scale), fCO2, pCO2, Ωarag, and Ωcalc. </t>
+  </si>
+  <si>
+    <t>Time series</t>
   </si>
   <si>
     <t>pCO2 and pH Time-series from 40 Surface Buoys</t>
@@ -1802,25 +1805,25 @@
         <v>45962.74445758102</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>23</v>
@@ -1835,10 +1838,10 @@
         <v>26</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -1849,40 +1852,40 @@
         <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -1893,40 +1896,40 @@
         <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -1937,22 +1940,22 @@
         <v>94</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>48</v>
@@ -1964,13 +1967,13 @@
         <v>36</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -7846,16 +7849,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>9</v>
@@ -7864,7 +7867,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>8</v>
@@ -7873,7 +7876,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>11</v>
@@ -7911,76 +7914,76 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="O2" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>197</v>
-      </c>
       <c r="Q2" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W2" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="X2" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="X2" s="25" t="s">
-        <v>203</v>
-      </c>
       <c r="Y2" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -9309,7 +9312,7 @@
       </c>
       <c r="B16" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$137,$A16,FALSE)</f>
-        <v>Data compilations</v>
+        <v>Time series</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$137,$A16,FALSE)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1693,7 +1693,7 @@
       <c r="H12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -1737,6 +1737,7 @@
       <c r="H13" s="7" t="s">
         <v>138</v>
       </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1781,6 +1782,7 @@
       <c r="H14" s="7" t="s">
         <v>147</v>
       </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="5" t="s">
         <v>35</v>
       </c>
@@ -1825,6 +1827,7 @@
       <c r="H15" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +1872,7 @@
       <c r="H16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -1913,7 +1916,7 @@
       <c r="H17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -1957,7 +1960,7 @@
       <c r="H18" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>48</v>
       </c>
       <c r="J18" s="5" t="s">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -415,7 +415,7 @@
     <t>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</t>
   </si>
   <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/a576dee0-a9ed-43f0-a0f4-894b78276a2b/jame21817-fig-0002-m.jpg</t>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</t>
   </si>
   <si>
     <t>https://doi.org/10.1029/2022MS003563</t>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="E13" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$137,$A13,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/a576dee0-a9ed-43f0-a0f4-894b78276a2b/jame21817-fig-0002-m.jpg</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</v>
       </c>
       <c r="F13" s="23" t="str">
         <f t="shared" ref="F13:G13" si="44">if(ISBLANK($C13), "", F$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -319,7 +319,7 @@
     <t>Gridded subsurface</t>
   </si>
   <si>
-    <t>Aragonite Saturation State Climatology</t>
+    <t>Aragonite Climatology</t>
   </si>
   <si>
     <t xml:space="preserve">Jiang et al. (2015) </t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </t>
   </si>
   <si>
-    <t>Global Surface Ocean pH and Revelle Factor</t>
+    <t>Surface Ocean pH and Revelle Factor</t>
   </si>
   <si>
     <t>Jiang et al. (2019)</t>
@@ -406,7 +406,7 @@
     <t xml:space="preserve">Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </t>
   </si>
   <si>
-    <t xml:space="preserve">Global Surface OA Indicators </t>
+    <t xml:space="preserve">Surface OA Indicators </t>
   </si>
   <si>
     <t>Jiang et al. (2023)</t>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="C10" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$137,$A10,FALSE)</f>
-        <v>Aragonite Saturation State Climatology</v>
+        <v>Aragonite Climatology</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$137,$A10,FALSE)</f>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="C12" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$137,$A12,FALSE)</f>
-        <v>Global Surface Ocean pH and Revelle Factor</v>
+        <v>Surface Ocean pH and Revelle Factor</v>
       </c>
       <c r="D12" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$137,$A12,FALSE)</f>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="C13" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$137,$A13,FALSE)</f>
-        <v>Global Surface OA Indicators </v>
+        <v>Surface OA Indicators </v>
       </c>
       <c r="D13" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$137,$A13,FALSE)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -376,7 +376,7 @@
     <t xml:space="preserve">Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </t>
   </si>
   <si>
-    <t>Surface Ocean pH and Revelle Factor</t>
+    <t>Surface pH and Revelle Factor</t>
   </si>
   <si>
     <t>Jiang et al. (2019)</t>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="C12" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$137,$A12,FALSE)</f>
-        <v>Surface Ocean pH and Revelle Factor</v>
+        <v>Surface pH and Revelle Factor</v>
       </c>
       <c r="D12" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$137,$A12,FALSE)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -121,6 +121,36 @@
     <t xml:space="preserve">The Surface Ocean CO2 Atlas features surface fCO2 measurements from both the open ocean and the coastal ocean, predominantly sourced from research vessels, ships of opportunity, and autonomous platforms including fixed moorings and uncrewed surface vehicles (USVs) (Bakker et al., 2016). It represents the most extensive collection of observational ocean CO2 data for the global surface ocean. Since 2013, SOCAT has been updated annually. Dataset flags indicate the estimated uncertainty and completeness of metadata in SOCAT synthesis products. The SOCAT gridded product contains fCO2 values with an estimated uncertainty of less than 5 µatm. </t>
   </si>
   <si>
+    <t>LDEO Surface pCO2 Database</t>
+  </si>
+  <si>
+    <t>Takahashi et a. (2009)</t>
+  </si>
+  <si>
+    <t>Takahashi, T., Sutherland, S. C., Wanninkhof, R., Sweeney, C., Feely, R. A., Chipman, D. W., Hales, B., Friederich, G., Chavez, F., Sabine, C., Watson, A., Bakker, D. C. E., Schuster, U., Metzl, N., Yoshikawa-Inoue, H., Ishii, M., Midorikawa, T., Nojiri, Y., Körtzinger, A., Steinhoff, T., and de Baar, H. J. W.: Climatological mean and decadal change in Surface Ocean pCO2, and net sea–air CO2 flux over the Global Oceans, Deep Sea Research Part II: Topical Studies in Oceanography, 56(8–10), 554–577, https://doi.org/10.1016/j.dsr2.2008.12.009, 2009.</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/LDEO_Underway_Database/LDEOv2019_map.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.dsr2.2008.12.009</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160492.html</t>
+  </si>
+  <si>
+    <t>Open ocean, Surface</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>The LDEO database reports pCO2 exclusively from equilibrator-CO2 analyzer systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Taro Takahashi [LDEO, Palisades, New York] started synthesizing global surface ocean CO2 data in 1997, compiling three decades of observations (~250,000 measurements) to create  inaugural monthly global surface pCO2 maps (Takahashi et al., 1997; Takahashi et al., 2002). The most recent version (V2019) expanded this dataset to approximately 14.2 million surface water pCO2 measurements spanning from 1957–2019. Distinct from the SOCAT database, the LDEO database reports pCO2, instead of fCO2, exclusively from equilibrator-CO2 analyzer systems, with an average estimated uncertainty of ± 2.5 µatm. The database is also interpolated onto a global surface ocean 4° × 5° grid for a reference year 2000 (Takahashi et al., 2009) and 2010 (Fay et al., 2024). </t>
+  </si>
+  <si>
     <t>GLODAPv2</t>
   </si>
   <si>
@@ -182,9 +212,6 @@
   </si>
   <si>
     <t>monthly</t>
-  </si>
-  <si>
-    <t>Open ocean, Surface</t>
   </si>
   <si>
     <t>1982 - 2020</t>
@@ -451,9 +478,6 @@
     <t>https://www.ncei.noaa.gov/products/world-ocean-database</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Similar to GLODAPv2, with no adjustments</t>
   </si>
   <si>
@@ -596,30 +620,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </t>
-  </si>
-  <si>
-    <t>LDEO Surface pCO2 Database</t>
-  </si>
-  <si>
-    <t>Takahashi et a. (2009)</t>
-  </si>
-  <si>
-    <t>Takahashi, T., Sutherland, S. C., Wanninkhof, R., Sweeney, C., Feely, R. A., Chipman, D. W., Hales, B., Friederich, G., Chavez, F., Sabine, C., Watson, A., Bakker, D. C. E., Schuster, U., Metzl, N., Yoshikawa-Inoue, H., Ishii, M., Midorikawa, T., Nojiri, Y., Körtzinger, A., Steinhoff, T., and de Baar, H. J. W.: Climatological mean and decadal change in Surface Ocean pCO2, and net sea–air CO2 flux over the Global Oceans, Deep Sea Research Part II: Topical Studies in Oceanography, 56(8–10), 554–577, https://doi.org/10.1016/j.dsr2.2008.12.009, 2009.</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/LDEO_Underway_Database/LDEOv2019_map.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.dsr2.2008.12.009</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160492.html</t>
-  </si>
-  <si>
-    <t>The LDEO database reports pCO2 exclusively from equilibrator-CO2 analyzer systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Taro Takahashi [LDEO, Palisades, New York] started synthesizing global surface ocean CO2 data in 1997, compiling three decades of observations (~250,000 measurements) to create  inaugural monthly global surface pCO2 maps (Takahashi et al., 1997; Takahashi et al., 2002). The most recent version (V2019) expanded this dataset to approximately 14.2 million surface water pCO2 measurements spanning from 1957–2019. Distinct from the SOCAT database, the LDEO database reports pCO2, instead of fCO2, exclusively from equilibrator-CO2 analyzer systems, with an average estimated uncertainty of ± 2.5 µatm. The database is also interpolated onto a global surface ocean 4° × 5° grid for a reference year 2000 (Takahashi et al., 2009) and 2010 (Fay et al., 2024). </t>
   </si>
   <si>
     <t>fa-solid fa-globe</t>
@@ -771,6 +771,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -793,9 +796,6 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1292,15 +1292,15 @@
     </row>
     <row r="3">
       <c r="A3" s="4">
-        <v>45961.948028391205</v>
+        <v>45962.863408819445</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1315,103 +1315,103 @@
       <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="10"/>
       <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4">
-        <v>45961.95201907407</v>
+        <v>45961.948028391205</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
-        <v>45961.909583877314</v>
+        <v>45961.95201907407</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>60</v>
@@ -1422,14 +1422,13 @@
       <c r="O5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>45961.91270586806</v>
+        <v>45961.909583877314</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>63</v>
@@ -1449,196 +1448,197 @@
       <c r="H6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>45961.91270586806</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12">
+      <c r="E7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13">
         <v>45961.90485893519</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="17"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>45962.03784055555</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="17"/>
+      <c r="N8" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="P8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <v>45962.210738877315</v>
+        <v>45962.03784055555</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="O9" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>45962.673469733796</v>
+        <v>45962.210738877315</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="K10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>111</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -1650,12 +1650,12 @@
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>45962.680467199076</v>
+        <v>45962.673469733796</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1674,59 +1674,59 @@
         <v>119</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="18" t="s">
+      <c r="N11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>45962.690968483796</v>
+        <v>45962.680467199076</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>130</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -1738,10 +1738,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <v>45962.71938206018</v>
+        <v>45962.690968483796</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>133</v>
@@ -1761,18 +1761,17 @@
       <c r="H13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="J13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>140</v>
@@ -1783,7 +1782,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>45962.72461462963</v>
+        <v>45962.71938206018</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -1806,18 +1805,18 @@
       <c r="H14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>139</v>
+        <v>46</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>148</v>
@@ -1828,55 +1827,55 @@
     </row>
     <row r="15">
       <c r="A15" s="4">
-        <v>45962.74445758102</v>
+        <v>45962.72461462963</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>45962.75772594908</v>
+        <v>45962.74445758102</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>159</v>
@@ -1896,149 +1895,150 @@
       <c r="H16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="18" t="s">
+      <c r="O16" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4">
-        <v>45962.76769828703</v>
+        <v>45962.75772594908</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="K17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="O17" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>45962.780607939814</v>
+        <v>45962.76769828703</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="L18" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="18" t="s">
+      <c r="N18" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4">
-        <v>45962.863408819445</v>
+        <v>45962.780607939814</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>194</v>
@@ -2048,1048 +2048,1048 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="20"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="20"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="20"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="20"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="20"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="18"/>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="20"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="18"/>
     </row>
     <row r="34">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="18"/>
     </row>
     <row r="35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="18"/>
     </row>
     <row r="36">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="20"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="18"/>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="18"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
       <c r="L38" s="20"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="18"/>
     </row>
     <row r="39">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="20"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="18"/>
     </row>
     <row r="40">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="20"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="18"/>
     </row>
     <row r="41">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="20"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="18"/>
     </row>
     <row r="42">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
       <c r="L42" s="20"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="19"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
       <c r="L43" s="20"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="19"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
       <c r="L44" s="20"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="18"/>
     </row>
     <row r="45">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="19"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
       <c r="L45" s="20"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="18"/>
     </row>
     <row r="46">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
       <c r="I46" s="19"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="20"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="18"/>
     </row>
     <row r="47">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
       <c r="L47" s="20"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
       <c r="L48" s="20"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="49">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
       <c r="L49" s="20"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="18"/>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
       <c r="L50" s="20"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="18"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
       <c r="L51" s="20"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="18"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
       <c r="L52" s="20"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="18"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="19"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
       <c r="L53" s="20"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="18"/>
     </row>
     <row r="54">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="19"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
       <c r="L54" s="20"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="18"/>
     </row>
     <row r="55">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="19"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
       <c r="L55" s="20"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="18"/>
     </row>
     <row r="56">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="19"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
       <c r="L56" s="20"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="18"/>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="19"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
       <c r="L57" s="20"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="18"/>
     </row>
     <row r="58">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="19"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
       <c r="L58" s="20"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="18"/>
     </row>
     <row r="59">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="19"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
       <c r="L59" s="20"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="18"/>
     </row>
     <row r="60">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
       <c r="I60" s="19"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
       <c r="L60" s="20"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="18"/>
     </row>
     <row r="61">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
       <c r="I61" s="19"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
       <c r="L61" s="20"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="18"/>
     </row>
     <row r="62">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
       <c r="I62" s="19"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
       <c r="L62" s="20"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="18"/>
     </row>
     <row r="63">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
       <c r="I63" s="19"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
       <c r="L63" s="20"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="18"/>
     </row>
     <row r="64">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
       <c r="I64" s="19"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="18"/>
     </row>
     <row r="65">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
       <c r="I65" s="19"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
       <c r="L65" s="20"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="18"/>
     </row>
     <row r="66">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
       <c r="I66" s="19"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
       <c r="L66" s="20"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="18"/>
     </row>
     <row r="67">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
       <c r="I67" s="19"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
       <c r="L67" s="20"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="18"/>
     </row>
     <row r="68">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
       <c r="I68" s="19"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
       <c r="L68" s="20"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="18"/>
     </row>
     <row r="69">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
       <c r="I69" s="19"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
       <c r="L69" s="20"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="18"/>
     </row>
     <row r="70">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
       <c r="I70" s="19"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
       <c r="L70" s="20"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="18"/>
     </row>
     <row r="71">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
       <c r="I71" s="19"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
       <c r="L71" s="20"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="18"/>
     </row>
     <row r="72">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
       <c r="I72" s="19"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
       <c r="L72" s="20"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="18"/>
     </row>
     <row r="73">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
       <c r="I73" s="19"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
       <c r="L73" s="20"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="18"/>
     </row>
     <row r="74">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
       <c r="I74" s="19"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
       <c r="L74" s="20"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="18"/>
     </row>
     <row r="75">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
       <c r="I75" s="19"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
       <c r="L75" s="20"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="18"/>
     </row>
     <row r="76">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
       <c r="I76" s="19"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
       <c r="L76" s="20"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="18"/>
     </row>
     <row r="77">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="19"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
       <c r="L77" s="20"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="18"/>
     </row>
     <row r="78">
       <c r="C78" s="3"/>
@@ -8173,15 +8173,15 @@
       </c>
       <c r="C4" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>GLODAPv2</v>
+        <v>LDEO Surface pCO2 Database</v>
       </c>
       <c r="D4" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>Lauvset et al. (2024)</v>
+        <v>Takahashi et a. (2009)</v>
       </c>
       <c r="E4" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>https://glodap.info/wp-content/uploads/2017/09/cropped-glodap_logo_trans.png</v>
+        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/LDEO_Underway_Database/LDEOv2019_map.jpg</v>
       </c>
       <c r="F4" s="23" t="str">
         <f t="shared" ref="F4:G4" si="6">if(ISBLANK($C4), "", F$1)</f>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="H4" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I4" s="23" t="str">
         <f t="shared" ref="I4:J4" si="7">if(ISBLANK($C4), "", I$1)</f>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="K4" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>discrete</v>
+        <v>continuous</v>
       </c>
       <c r="L4" s="23" t="str">
         <f t="shared" ref="L4:M4" si="8">if(ISBLANK($C4), "", L$1)</f>
@@ -8229,23 +8229,23 @@
       </c>
       <c r="Q4" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>1960 - 2024</v>
+        <v/>
       </c>
       <c r="R4" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>Adjustments are applied by comparing data in the deep ocean (&gt;2000 m) using a crossover and inversion method as described by Johnson et al. (2001).</v>
+        <v>The LDEO database reports pCO2 exclusively from equilibrator-CO2 analyzer systems</v>
       </c>
       <c r="S4" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>Lauvset et al. (2024)</v>
+        <v>Takahashi et a. (2009)</v>
       </c>
       <c r="T4" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-2047-2024</v>
+        <v>https://doi.org/10.1016/j.dsr2.2008.12.009</v>
       </c>
       <c r="U4" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>https://glodap.info/</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160492.html</v>
       </c>
       <c r="V4" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="W4" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>The Global Ocean Data Analysis Project Version 2 (GLODAPv2) aggregates biogeochemical data collected from discrete bottle samples, offering extensive global coverage from the surface to depths (Key et al., 2015; Olsen et al., 2016; Lauvset et al., 2024). While GLODAP is primarily a product for basin-scale hydrographic data, it also includes coastal datasets and observations from a few time-series. The GLODAPv2 data product provides rigorously quality-controlled measurements for 14 essential oceanographic variables: temperature, salinity, dissolved oxygen (DO), nitrate, silicate, phosphate, DIC, TA, pH, chlorofluorocarbons (CFC-11, CFC-12, CFC-113), carbon tetrachloride (CCl4), and sulfur hexafluoride (SF6). These variables, excluding temperature, undergo both primary and secondary quality control procedures to detect outliers and adjust for significant measurement biases. GLODAPv2 was first published in 2016 and was updated annually through a living data process in Earth System Science Data from 2019 through “v2023,” which was published in 2024. For these updates, new data (including historical data not previously included in the data product) are quality controlled and adjusted to the 2016 version (Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024). Since the global repeat hydrography programs operate with decadal repetitions, the aim is to produce a completely new version of GLODAP, where all cruise datasets will be reevaluated, every decade. Release of the GLODAPv3 data product is planned for 2026, and is expected to evolve the secondary data quality control practices relative to those used in GLODAPv2. For more information on the secondary quality control process, refer to Tanhua et al. (2010) and Lauvset and Tanhua (2015). GLODAPv2 offers two kind of products: the collection of quality controlled data from discrete bottle samples taken at sampling location (Key et al., 2015; Olsen et al., 2016; Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024), and a gridded product, interpolated to a 1° × 1°  grid and the 33 standard depth levels of World Ocean Atlas (WOA) (Lauvset et al., 2016). </v>
+        <v>Dr. Taro Takahashi [LDEO, Palisades, New York] started synthesizing global surface ocean CO2 data in 1997, compiling three decades of observations (~250,000 measurements) to create  inaugural monthly global surface pCO2 maps (Takahashi et al., 1997; Takahashi et al., 2002). The most recent version (V2019) expanded this dataset to approximately 14.2 million surface water pCO2 measurements spanning from 1957–2019. Distinct from the SOCAT database, the LDEO database reports pCO2, instead of fCO2, exclusively from equilibrator-CO2 analyzer systems, with an average estimated uncertainty of ± 2.5 µatm. The database is also interpolated onto a global surface ocean 4° × 5° grid for a reference year 2000 (Takahashi et al., 2009) and 2010 (Fay et al., 2024). </v>
       </c>
       <c r="X4" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="Y4" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A4,FALSE)</f>
-        <v>Lauvset, S. K., Lange, N., Tanhua, T., Bittig, H. C., Olsen, A., Kozyr, A., Álvarez, M., Azetsu-Scott, K., Brown, P. J., Carter, B. R., Cotrim da Cunha, L., Hoppema, M., Humphreys, M. P., Ishii, M., Jeansson, E., Murata, A., Müller, J. D., Pérez, F. F., Schirnick, C., Steinfeldt, R., Suzuki, T., Ulfsbo, A., Velo, A., Woosley, R. J., and Key, R. M.: The annual update GLODAPv2.2023: the global interior ocean biogeochemical data product, Earth Syst. Sci. Data, 16, 2047–2072, https://doi.org/10.5194/essd-16-2047-2024, 2024</v>
+        <v>Takahashi, T., Sutherland, S. C., Wanninkhof, R., Sweeney, C., Feely, R. A., Chipman, D. W., Hales, B., Friederich, G., Chavez, F., Sabine, C., Watson, A., Bakker, D. C. E., Schuster, U., Metzl, N., Yoshikawa-Inoue, H., Ishii, M., Midorikawa, T., Nojiri, Y., Körtzinger, A., Steinhoff, T., and de Baar, H. J. W.: Climatological mean and decadal change in Surface Ocean pCO2, and net sea–air CO2 flux over the Global Oceans, Deep Sea Research Part II: Topical Studies in Oceanography, 56(8–10), 554–577, https://doi.org/10.1016/j.dsr2.2008.12.009, 2009.</v>
       </c>
     </row>
     <row r="5">
@@ -8271,19 +8271,19 @@
       </c>
       <c r="B5" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Data compilations</v>
       </c>
       <c r="C5" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>CSIR-ML6</v>
+        <v>GLODAPv2</v>
       </c>
       <c r="D5" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Lauvset et al. (2024)</v>
       </c>
       <c r="E5" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</v>
+        <v>https://glodap.info/wp-content/uploads/2017/09/cropped-glodap_logo_trans.png</v>
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" ref="F5:G5" si="12">if(ISBLANK($C5), "", F$1)</f>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="H5" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" ref="I5:J5" si="13">if(ISBLANK($C5), "", I$1)</f>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="K5" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>monthly</v>
+        <v>discrete</v>
       </c>
       <c r="L5" s="23" t="str">
         <f t="shared" ref="L5:M5" si="14">if(ISBLANK($C5), "", L$1)</f>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="N5" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>1° x 1°</v>
+        <v/>
       </c>
       <c r="O5" s="23" t="str">
         <f t="shared" ref="O5:P5" si="15">if(ISBLANK($C5), "", O$1)</f>
@@ -8331,23 +8331,23 @@
       </c>
       <c r="Q5" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>1982 - 2020</v>
+        <v>1960 - 2024</v>
       </c>
       <c r="R5" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
+        <v>Adjustments are applied by comparing data in the deep ocean (&gt;2000 m) using a crossover and inversion method as described by Johnson et al. (2001).</v>
       </c>
       <c r="S5" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Lauvset et al. (2024)</v>
       </c>
       <c r="T5" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
+        <v>https://doi.org/10.5194/essd-16-2047-2024</v>
       </c>
       <c r="U5" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>https://doi.org/10.25921/z682-mn47</v>
+        <v>https://glodap.info/</v>
       </c>
       <c r="V5" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="W5" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
+        <v>The Global Ocean Data Analysis Project Version 2 (GLODAPv2) aggregates biogeochemical data collected from discrete bottle samples, offering extensive global coverage from the surface to depths (Key et al., 2015; Olsen et al., 2016; Lauvset et al., 2024). While GLODAP is primarily a product for basin-scale hydrographic data, it also includes coastal datasets and observations from a few time-series. The GLODAPv2 data product provides rigorously quality-controlled measurements for 14 essential oceanographic variables: temperature, salinity, dissolved oxygen (DO), nitrate, silicate, phosphate, DIC, TA, pH, chlorofluorocarbons (CFC-11, CFC-12, CFC-113), carbon tetrachloride (CCl4), and sulfur hexafluoride (SF6). These variables, excluding temperature, undergo both primary and secondary quality control procedures to detect outliers and adjust for significant measurement biases. GLODAPv2 was first published in 2016 and was updated annually through a living data process in Earth System Science Data from 2019 through “v2023,” which was published in 2024. For these updates, new data (including historical data not previously included in the data product) are quality controlled and adjusted to the 2016 version (Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024). Since the global repeat hydrography programs operate with decadal repetitions, the aim is to produce a completely new version of GLODAP, where all cruise datasets will be reevaluated, every decade. Release of the GLODAPv3 data product is planned for 2026, and is expected to evolve the secondary data quality control practices relative to those used in GLODAPv2. For more information on the secondary quality control process, refer to Tanhua et al. (2010) and Lauvset and Tanhua (2015). GLODAPv2 offers two kind of products: the collection of quality controlled data from discrete bottle samples taken at sampling location (Key et al., 2015; Olsen et al., 2016; Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024), and a gridded product, interpolated to a 1° × 1°  grid and the 33 standard depth levels of World Ocean Atlas (WOA) (Lauvset et al., 2016). </v>
       </c>
       <c r="X5" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="Y5" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A5,FALSE)</f>
-        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
+        <v>Lauvset, S. K., Lange, N., Tanhua, T., Bittig, H. C., Olsen, A., Kozyr, A., Álvarez, M., Azetsu-Scott, K., Brown, P. J., Carter, B. R., Cotrim da Cunha, L., Hoppema, M., Humphreys, M. P., Ishii, M., Jeansson, E., Murata, A., Müller, J. D., Pérez, F. F., Schirnick, C., Steinfeldt, R., Suzuki, T., Ulfsbo, A., Velo, A., Woosley, R. J., and Key, R. M.: The annual update GLODAPv2.2023: the global interior ocean biogeochemical data product, Earth Syst. Sci. Data, 16, 2047–2072, https://doi.org/10.5194/essd-16-2047-2024, 2024</v>
       </c>
     </row>
     <row r="6">
@@ -8377,15 +8377,15 @@
       </c>
       <c r="C6" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>OceanSODA-ETHZv1</v>
+        <v>CSIR-ML6</v>
       </c>
       <c r="D6" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="E6" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
+        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</v>
       </c>
       <c r="F6" s="23" t="str">
         <f t="shared" ref="F6:G6" si="16">if(ISBLANK($C6), "", F$1)</f>
@@ -8433,23 +8433,23 @@
       </c>
       <c r="Q6" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>1982 - 2022</v>
+        <v>1982 - 2020</v>
       </c>
       <c r="R6" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
+        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
       </c>
       <c r="S6" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="T6" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-13-777-2021</v>
+        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
       </c>
       <c r="U6" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>https://doi.org/10.25921/m5wx-ja34</v>
+        <v>https://doi.org/10.25921/z682-mn47</v>
       </c>
       <c r="V6" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="W6" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
+        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
       </c>
       <c r="X6" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="Y6" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
+        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
       </c>
     </row>
     <row r="7">
@@ -8479,15 +8479,15 @@
       </c>
       <c r="C7" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>OceanSODA-ETHZv2</v>
+        <v>OceanSODA-ETHZv1</v>
       </c>
       <c r="D7" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="E7" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="F7" s="23" t="str">
         <f t="shared" ref="F7:G7" si="20">if(ISBLANK($C7), "", F$1)</f>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="K7" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>8-day</v>
+        <v>monthly</v>
       </c>
       <c r="L7" s="23" t="str">
         <f t="shared" ref="L7:M7" si="22">if(ISBLANK($C7), "", L$1)</f>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="N7" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>0.25° x 0.25°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O7" s="23" t="str">
         <f t="shared" ref="O7:P7" si="23">if(ISBLANK($C7), "", O$1)</f>
@@ -8535,23 +8535,23 @@
       </c>
       <c r="Q7" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>1982 - 2023</v>
+        <v>1982 - 2022</v>
       </c>
       <c r="R7" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
+        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
       </c>
       <c r="S7" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="T7" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://doi.org/10.1029/2024GB008127</v>
+        <v>https://doi.org/10.5194/essd-13-777-2021</v>
       </c>
       <c r="U7" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://zenodo.org/records/11206366</v>
+        <v>https://doi.org/10.25921/m5wx-ja34</v>
       </c>
       <c r="V7" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="W7" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
+        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
       </c>
       <c r="X7" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="Y7" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
+        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
       </c>
     </row>
     <row r="8">
@@ -8577,19 +8577,19 @@
       </c>
       <c r="B8" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Harmonized</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C8" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>SeaFlux</v>
+        <v>OceanSODA-ETHZv2</v>
       </c>
       <c r="D8" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="E8" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" ref="F8:G8" si="24">if(ISBLANK($C8), "", F$1)</f>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="K8" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>monthly</v>
+        <v>8-day</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" ref="L8:M8" si="26">if(ISBLANK($C8), "", L$1)</f>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="N8" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>1° x 1°</v>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O8" s="23" t="str">
         <f t="shared" ref="O8:P8" si="27">if(ISBLANK($C8), "", O$1)</f>
@@ -8637,23 +8637,23 @@
       </c>
       <c r="Q8" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>1990 - 2022</v>
+        <v>1982 - 2023</v>
       </c>
       <c r="R8" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
+        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
       </c>
       <c r="S8" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="T8" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-2021-16</v>
+        <v>https://doi.org/10.1029/2024GB008127</v>
       </c>
       <c r="U8" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://zenodo.org/records/8280457</v>
+        <v>https://zenodo.org/records/11206366</v>
       </c>
       <c r="V8" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="W8" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
+        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
       </c>
       <c r="X8" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="Y8" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
+        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
       </c>
     </row>
     <row r="9">
@@ -8679,19 +8679,19 @@
       </c>
       <c r="B9" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Data compilations</v>
+        <v>Harmonized</v>
       </c>
       <c r="C9" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>CODAP-NA</v>
+        <v>SeaFlux</v>
       </c>
       <c r="D9" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Jiang et al. (2021)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="E9" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</v>
+        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ref="F9:G9" si="28">if(ISBLANK($C9), "", F$1)</f>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="H9" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" ref="I9:J9" si="29">if(ISBLANK($C9), "", I$1)</f>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="K9" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>discrete</v>
+        <v>monthly</v>
       </c>
       <c r="L9" s="23" t="str">
         <f t="shared" ref="L9:M9" si="30">if(ISBLANK($C9), "", L$1)</f>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="N9" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v/>
+        <v>1° x 1°</v>
       </c>
       <c r="O9" s="23" t="str">
         <f t="shared" ref="O9:P9" si="31">if(ISBLANK($C9), "", O$1)</f>
@@ -8739,23 +8739,23 @@
       </c>
       <c r="Q9" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>2003 - 2018</v>
+        <v>1990 - 2022</v>
       </c>
       <c r="R9" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Like GLODAPv2, but for the North American coastal ocean</v>
+        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
       </c>
       <c r="S9" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Jiang et al. (2021)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="T9" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-13-2777-2021</v>
+        <v>https://doi.org/10.5194/essd-2021-16</v>
       </c>
       <c r="U9" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</v>
+        <v>https://zenodo.org/records/8280457</v>
       </c>
       <c r="V9" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="W9" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </v>
+        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
       </c>
       <c r="X9" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="Y9" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</v>
+        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
       </c>
     </row>
     <row r="10">
@@ -8780,19 +8780,19 @@
       </c>
       <c r="B10" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Gridded subsurface</v>
+        <v>Data compilations</v>
       </c>
       <c r="C10" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Aragonite Climatology</v>
+        <v>CODAP-NA</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Jiang et al. (2015) </v>
+        <v>Jiang et al. (2021)</v>
       </c>
       <c r="E10" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" ref="F10:G10" si="32">if(ISBLANK($C10), "", F$1)</f>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="H10" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Coastal, Water column</v>
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" ref="I10:J10" si="33">if(ISBLANK($C10), "", I$1)</f>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="K10" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>climatology</v>
+        <v>discrete</v>
       </c>
       <c r="L10" s="23" t="str">
         <f t="shared" ref="L10:M10" si="34">if(ISBLANK($C10), "", L$1)</f>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="N10" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>1° x 1°</v>
+        <v/>
       </c>
       <c r="O10" s="23" t="str">
         <f t="shared" ref="O10:P10" si="35">if(ISBLANK($C10), "", O$1)</f>
@@ -8838,25 +8838,25 @@
         <f t="shared" si="35"/>
         <v>Period</v>
       </c>
-      <c r="Q10" s="29" t="str">
+      <c r="Q10" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>2000</v>
+        <v>2003 - 2018</v>
       </c>
       <c r="R10" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</v>
+        <v>Like GLODAPv2, but for the North American coastal ocean</v>
       </c>
       <c r="S10" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Jiang et al. (2015) </v>
+        <v>Jiang et al. (2021)</v>
       </c>
       <c r="T10" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://doi.org/10.1002/2015GB005198</v>
+        <v>https://doi.org/10.5194/essd-13-2777-2021</v>
       </c>
       <c r="U10" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</v>
       </c>
       <c r="V10" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="W10" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </v>
+        <v>Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </v>
       </c>
       <c r="X10" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="Y10" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </v>
+        <v>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</v>
       </c>
     </row>
     <row r="11">
@@ -8885,15 +8885,15 @@
       </c>
       <c r="C11" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>CODAP-NA Climatology</v>
+        <v>Aragonite Climatology</v>
       </c>
       <c r="D11" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2024)</v>
+        <v>Jiang et al. (2015) </v>
       </c>
       <c r="E11" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ref="F11:G11" si="36">if(ISBLANK($C11), "", F$1)</f>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="H11" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" ref="I11:J11" si="37">if(ISBLANK($C11), "", I$1)</f>
@@ -8939,25 +8939,25 @@
         <f t="shared" si="39"/>
         <v>Period</v>
       </c>
-      <c r="Q11" s="23" t="str">
+      <c r="Q11" s="29" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="R11" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>The first discrete bottle based climatology in the North American ocean margins</v>
+        <v>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</v>
       </c>
       <c r="S11" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2024)</v>
+        <v>Jiang et al. (2015) </v>
       </c>
       <c r="T11" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-3383-2024</v>
+        <v>https://doi.org/10.1002/2015GB005198</v>
       </c>
       <c r="U11" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</v>
       </c>
       <c r="V11" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="W11" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </v>
+        <v>Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </v>
       </c>
       <c r="X11" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="Y11" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </v>
+        <v>Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </v>
       </c>
     </row>
     <row r="12">
@@ -8982,19 +8982,19 @@
       </c>
       <c r="B12" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Gridded subsurface</v>
       </c>
       <c r="C12" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Surface pH and Revelle Factor</v>
+        <v>CODAP-NA Climatology</v>
       </c>
       <c r="D12" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Jiang et al. (2019)</v>
+        <v>Jiang et al. (2024)</v>
       </c>
       <c r="E12" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png?as=webp</v>
+        <v>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</v>
       </c>
       <c r="F12" s="23" t="str">
         <f t="shared" ref="F12:G12" si="40">if(ISBLANK($C12), "", F$1)</f>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="H12" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Coastal, Water column</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" ref="I12:J12" si="41">if(ISBLANK($C12), "", I$1)</f>
@@ -9018,7 +9018,7 @@
       </c>
       <c r="K12" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>decadal, climatology</v>
+        <v>climatology</v>
       </c>
       <c r="L12" s="23" t="str">
         <f t="shared" ref="L12:M12" si="42">if(ISBLANK($C12), "", L$1)</f>
@@ -9042,23 +9042,23 @@
       </c>
       <c r="Q12" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>1770 - 2100</v>
+        <v>2010</v>
       </c>
       <c r="R12" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</v>
+        <v>The first discrete bottle based climatology in the North American ocean margins</v>
       </c>
       <c r="S12" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Jiang et al. (2019)</v>
+        <v>Jiang et al. (2024)</v>
       </c>
       <c r="T12" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>https://doi.org/10.1038/s41598-019-55039-4</v>
+        <v>https://doi.org/10.5194/essd-16-3383-2024</v>
       </c>
       <c r="U12" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</v>
       </c>
       <c r="V12" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="W12" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </v>
+        <v>Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </v>
       </c>
       <c r="X12" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="Y12" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </v>
+        <v>Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </v>
       </c>
     </row>
     <row r="13">
@@ -9087,15 +9087,15 @@
       </c>
       <c r="C13" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Surface OA Indicators </v>
+        <v>Surface pH and Revelle Factor</v>
       </c>
       <c r="D13" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Jiang et al. (2023)</v>
+        <v>Jiang et al. (2019)</v>
       </c>
       <c r="E13" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</v>
+        <v>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png?as=webp</v>
       </c>
       <c r="F13" s="23" t="str">
         <f t="shared" ref="F13:G13" si="44">if(ISBLANK($C13), "", F$1)</f>
@@ -9143,23 +9143,23 @@
       </c>
       <c r="Q13" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>1750 - 2100</v>
+        <v>1770 - 2100</v>
       </c>
       <c r="R13" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</v>
+        <v>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</v>
       </c>
       <c r="S13" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Jiang et al. (2023)</v>
+        <v>Jiang et al. (2019)</v>
       </c>
       <c r="T13" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>https://doi.org/10.1029/2022MS003563</v>
+        <v>https://doi.org/10.1038/s41598-019-55039-4</v>
       </c>
       <c r="U13" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </v>
       </c>
       <c r="V13" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="W13" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </v>
+        <v>Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </v>
       </c>
       <c r="X13" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="Y13" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</v>
+        <v>Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </v>
       </c>
     </row>
     <row r="14">
@@ -9184,19 +9184,19 @@
       </c>
       <c r="B14" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Data compilations</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C14" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>World Ocean Database</v>
+        <v>Surface OA Indicators </v>
       </c>
       <c r="D14" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Mishonov et al. (2024)</v>
+        <v>Jiang et al. (2023)</v>
       </c>
       <c r="E14" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/sites/g/files/anmtlf171/files/inline-images/World%20Ocean%20Atlas%202023%20Climatology%2C%20Decade%202015-2022.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</v>
       </c>
       <c r="F14" s="23" t="str">
         <f t="shared" ref="F14:G14" si="48">if(ISBLANK($C14), "", F$1)</f>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="H14" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I14" s="23" t="str">
         <f t="shared" ref="I14:J14" si="49">if(ISBLANK($C14), "", I$1)</f>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="K14" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>discrete</v>
+        <v>decadal, climatology</v>
       </c>
       <c r="L14" s="23" t="str">
         <f t="shared" ref="L14:M14" si="50">if(ISBLANK($C14), "", L$1)</f>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="N14" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v/>
+        <v>1° x 1°</v>
       </c>
       <c r="O14" s="23" t="str">
         <f t="shared" ref="O14:P14" si="51">if(ISBLANK($C14), "", O$1)</f>
@@ -9244,23 +9244,23 @@
       </c>
       <c r="Q14" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v/>
+        <v>1750 - 2100</v>
       </c>
       <c r="R14" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Similar to GLODAPv2, with no adjustments</v>
+        <v>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</v>
       </c>
       <c r="S14" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Mishonov et al. (2024)</v>
+        <v>Jiang et al. (2023)</v>
       </c>
       <c r="T14" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>https://doi.org/10.25923/z885-h264</v>
+        <v>https://doi.org/10.1029/2022MS003563</v>
       </c>
       <c r="U14" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/products/world-ocean-database</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</v>
       </c>
       <c r="V14" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="W14" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </v>
+        <v>Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </v>
       </c>
       <c r="X14" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="Y14" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Mishonov, A. V., Boyer, T. P., Baranova, O. K., Bouchard, C. N., Cross, S. L., Garcia H. E., Locarnini, R. A., Paver, C. R., Wang, Z., Seidov, D., Grodsky, A. I., Beauchamp, J. G.: World Ocean Database 2023, C. Bouchard, Technical Ed., NOAA Atlas NESDIS 97, 206 pp., https://doi.org/10.25923/z885-h264, 2024. </v>
+        <v>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</v>
       </c>
     </row>
     <row r="15">
@@ -9289,15 +9289,15 @@
       </c>
       <c r="C15" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Salish Sea Multi-stressor Data Product</v>
+        <v>World Ocean Database</v>
       </c>
       <c r="D15" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Alin et al. (2024)</v>
+        <v>Mishonov et al. (2024)</v>
       </c>
       <c r="E15" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/837/2024/essd-16-837-2024-avatar-web.png</v>
+        <v>https://www.ncei.noaa.gov/sites/g/files/anmtlf171/files/inline-images/World%20Ocean%20Atlas%202023%20Climatology%2C%20Decade%202015-2022.png</v>
       </c>
       <c r="F15" s="23" t="str">
         <f t="shared" ref="F15:G15" si="52">if(ISBLANK($C15), "", F$1)</f>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="H15" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I15" s="23" t="str">
         <f t="shared" ref="I15:J15" si="53">if(ISBLANK($C15), "", I$1)</f>
@@ -9349,19 +9349,19 @@
       </c>
       <c r="R15" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>A data compilation and multi-stressor (OA, hypoxia, temperature) data product based on cruises from 2002 to 2018 in the southern Salish Sea and Washington coast. </v>
+        <v>Similar to GLODAPv2, with no adjustments</v>
       </c>
       <c r="S15" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Alin et al. (2024)</v>
+        <v>Mishonov et al. (2024)</v>
       </c>
       <c r="T15" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-837-2024</v>
+        <v>https://doi.org/10.25923/z885-h264</v>
       </c>
       <c r="U15" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/ocean-at-acidification-data-system/oceans/SalishCruise_DataPackage.html. </v>
+        <v>https://www.ncei.noaa.gov/products/world-ocean-database</v>
       </c>
       <c r="V15" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="W15" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Alin et al. (2024a) compiled data from 35 individual cruise data sets that sampled marine waters of the southern Salish Sea and northern Washington coast (United States) from 2008 to 2018. Ongoing seasonal sampling occurred during April, July, and September for Puget Sound cruises has occurred since 2014 and most frequently during May and October for Sound-to-Sea cruises, which sample from Puget Sound through the Strait of Juan de Fuca to the northern Washington coast. The Salish cruise data package contains observations from a total of 715 oceanographic profiles, with &gt; 7490 sensor measurements of temperature, salinity, and DO; ≥ 6070 measurements of discrete DO and nutrient (nitrate, phosphate, silicate, ammonium, nitrite) samples; and ≥ 4462 measurements of inorganic carbonate system variables (DIC and TA). A follow-on data product based on the Salish cruise data package, which only included the 3971 samples with complete information for temperature, salinity, DO, nutrients, DIC, and TA, is also available (Alin et al., 2023). This product additionally provides the most commonly used calculated carbonate system variables: pH (total scale), fCO2, pCO2, Ωarag, and Ωcalc. </v>
+        <v>In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </v>
       </c>
       <c r="X15" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="Y15" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Alin, S. R., Newton, J. A., Feely, R. A., Greeley, D., Curry, B., Herndon, J., and Warner, M.: A decade-long cruise time series (2008–2018) of physical and biogeochemical conditions in the southern Salish Sea, North America, Earth Syst. Sci. Data, 16, 837–865, https://doi.org/10.5194/essd-16-837-2024, 2024. </v>
+        <v>Mishonov, A. V., Boyer, T. P., Baranova, O. K., Bouchard, C. N., Cross, S. L., Garcia H. E., Locarnini, R. A., Paver, C. R., Wang, Z., Seidov, D., Grodsky, A. I., Beauchamp, J. G.: World Ocean Database 2023, C. Bouchard, Technical Ed., NOAA Atlas NESDIS 97, 206 pp., https://doi.org/10.25923/z885-h264, 2024. </v>
       </c>
     </row>
     <row r="16">
@@ -9386,19 +9386,19 @@
       </c>
       <c r="B16" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>Time series</v>
+        <v>Data compilations</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>pCO2 and pH Time-series from 40 Surface Buoys</v>
+        <v>Salish Sea Multi-stressor Data Product</v>
       </c>
       <c r="D16" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>Sutton et al. (2019)</v>
+        <v>Alin et al. (2024)</v>
       </c>
       <c r="E16" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/11/421/2019/essd-11-421-2019-avatar-web.png</v>
+        <v>https://essd.copernicus.org/articles/16/837/2024/essd-16-837-2024-avatar-web.png</v>
       </c>
       <c r="F16" s="23" t="str">
         <f t="shared" ref="F16:G16" si="56">if(ISBLANK($C16), "", F$1)</f>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="H16" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>Open ocean, Coastal, Surface</v>
+        <v>Coastal, Water column</v>
       </c>
       <c r="I16" s="23" t="str">
         <f t="shared" ref="I16:J16" si="57">if(ISBLANK($C16), "", I$1)</f>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="K16" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>continuous</v>
+        <v>discrete</v>
       </c>
       <c r="L16" s="23" t="str">
         <f t="shared" ref="L16:M16" si="58">if(ISBLANK($C16), "", L$1)</f>
@@ -9450,19 +9450,19 @@
       </c>
       <c r="R16" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>Based on 40 moored surface pCO2 time-series, with 17 of them containing pH</v>
+        <v>A data compilation and multi-stressor (OA, hypoxia, temperature) data product based on cruises from 2002 to 2018 in the southern Salish Sea and Washington coast. </v>
       </c>
       <c r="S16" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>Sutton et al. (2019)</v>
+        <v>Alin et al. (2024)</v>
       </c>
       <c r="T16" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-11-421-2019</v>
+        <v>https://doi.org/10.5194/essd-16-837-2024</v>
       </c>
       <c r="U16" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0173932.html</v>
+        <v>https://www.ncei.noaa.gov/access/ocean-at-acidification-data-system/oceans/SalishCruise_DataPackage.html. </v>
       </c>
       <c r="V16" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="W16" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>Sutton et al. (2019) established a living dataset comprising 40 individual autonomous moored surface ocean pCO2 time-series established between 2004 and 2013, 17 of them also include autonomous pH measurements. These time-series characterize a wide range of surface ocean carbonate system conditions, across a variety of environments, including 17 oceanic and 13 coastal locations, as well as 10 coral reefs. </v>
+        <v>Alin et al. (2024a) compiled data from 35 individual cruise data sets that sampled marine waters of the southern Salish Sea and northern Washington coast (United States) from 2008 to 2018. Ongoing seasonal sampling occurred during April, July, and September for Puget Sound cruises has occurred since 2014 and most frequently during May and October for Sound-to-Sea cruises, which sample from Puget Sound through the Strait of Juan de Fuca to the northern Washington coast. The Salish cruise data package contains observations from a total of 715 oceanographic profiles, with &gt; 7490 sensor measurements of temperature, salinity, and DO; ≥ 6070 measurements of discrete DO and nutrient (nitrate, phosphate, silicate, ammonium, nitrite) samples; and ≥ 4462 measurements of inorganic carbonate system variables (DIC and TA). A follow-on data product based on the Salish cruise data package, which only included the 3971 samples with complete information for temperature, salinity, DO, nutrients, DIC, and TA, is also available (Alin et al., 2023). This product additionally provides the most commonly used calculated carbonate system variables: pH (total scale), fCO2, pCO2, Ωarag, and Ωcalc. </v>
       </c>
       <c r="X16" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="Y16" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A16,FALSE)</f>
-        <v>Sutton, A. J., Feely, R. A., Maenner-Jones, S., Musielwicz, S., Osborne, J., Dietrich, C., Monacci, N., Cross, J., Bott, R., Kozyr, A., Andersson, A. J., Bates, N. R., Cai, W.-J., Cronin, M. F., De Carlo, E. H., Hales, B., Howden, S. D., Lee, C. M., Manzello, D. P., McPhaden, M. J., Meléndez, M., Mickett, J. B., Newton, J. A., Noakes, S. E., Noh, J. H., Olafsdottir, S. R., Salisbury, J. E., Send, U., Trull, T. W., Vandemark, D. C., and Weller, R. A.: Autonomous seawater pCO2 and pH time series from 40 surface buoys and the emergence of anthropogenic trends, Earth Syst. Sci. Data, 11, 421–439, https://doi.org/10.5194/essd-11-421-2019, 2019.</v>
+        <v>Alin, S. R., Newton, J. A., Feely, R. A., Greeley, D., Curry, B., Herndon, J., and Warner, M.: A decade-long cruise time series (2008–2018) of physical and biogeochemical conditions in the southern Salish Sea, North America, Earth Syst. Sci. Data, 16, 837–865, https://doi.org/10.5194/essd-16-837-2024, 2024. </v>
       </c>
     </row>
     <row r="17">
@@ -9487,19 +9487,19 @@
       </c>
       <c r="B17" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Time series</v>
       </c>
       <c r="C17" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>AOML-ET</v>
+        <v>pCO2 and pH Time-series from 40 Surface Buoys</v>
       </c>
       <c r="D17" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>Wanninkhof et al. (2015)</v>
+        <v>Sutton et al. (2019)</v>
       </c>
       <c r="E17" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/449791f9-d01c-4710-bb96-bb6bf991906f/gbc21621-fig-0010-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/11/421/2019/essd-11-421-2019-avatar-web.png</v>
       </c>
       <c r="F17" s="23" t="str">
         <f t="shared" ref="F17:G17" si="60">if(ISBLANK($C17), "", F$1)</f>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H17" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Open ocean, Coastal, Surface</v>
       </c>
       <c r="I17" s="23" t="str">
         <f t="shared" ref="I17:J17" si="61">if(ISBLANK($C17), "", I$1)</f>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="K17" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>monthly, climatology</v>
+        <v>continuous</v>
       </c>
       <c r="L17" s="23" t="str">
         <f t="shared" ref="L17:M17" si="62">if(ISBLANK($C17), "", L$1)</f>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="N17" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>1° x 1°</v>
+        <v/>
       </c>
       <c r="O17" s="23" t="str">
         <f t="shared" ref="O17:P17" si="63">if(ISBLANK($C17), "", O$1)</f>
@@ -9547,23 +9547,23 @@
       </c>
       <c r="Q17" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>1998 - 2023</v>
+        <v/>
       </c>
       <c r="R17" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>Monthly global sea-air CO2 flux maps in modern era</v>
+        <v>Based on 40 moored surface pCO2 time-series, with 17 of them containing pH</v>
       </c>
       <c r="S17" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>Wanninkhof et al. (2015)</v>
+        <v>Sutton et al. (2019)</v>
       </c>
       <c r="T17" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>https://doi.org/10.1029/2024GB008315</v>
+        <v>https://doi.org/10.5194/essd-11-421-2019</v>
       </c>
       <c r="U17" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0298989.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0173932.html</v>
       </c>
       <c r="V17" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="W17" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>Wanninkhof et al. (2025) developed a monthly global ocean data product of seawater pCO2 and sea-air CO2 fluxes, referred to as AOML-ET, using an extremely randomized trees (ET) machine learning technique. These maps are created on 1° × 1° spatial grids, providing global surface ocean coverages from 1998 to 2023. AOML-ET incorporates several predictor variables, including time, location, SST, SSS, MLD, and chlorophyll-a. The model was trained using the v2020 and v2023 releases of the SOCAT data product (No. 1). Sea-air CO2 fluxes were calculated using the air-sea CO2 partial pressure difference (∆pCO2) and a bulk gas transfer formulation incorporating windspeed. </v>
+        <v>Sutton et al. (2019) established a living dataset comprising 40 individual autonomous moored surface ocean pCO2 time-series established between 2004 and 2013, 17 of them also include autonomous pH measurements. These time-series characterize a wide range of surface ocean carbonate system conditions, across a variety of environments, including 17 oceanic and 13 coastal locations, as well as 10 coral reefs. </v>
       </c>
       <c r="X17" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="Y17" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A17,FALSE)</f>
-        <v>Wanninkhof, R., Triñanes, J., Pierrot, D., Munro, D. R., Sweeney, C., and Fay, A. R.: Trends in sea-air CO2 fluxes and sensitivities to atmospheric forcing using an extremely randomized trees machine learning approach, Global Biogeochemical Cycles, 39, https://doi.org/10.1029/2024GB008315, 2025.</v>
+        <v>Sutton, A. J., Feely, R. A., Maenner-Jones, S., Musielwicz, S., Osborne, J., Dietrich, C., Monacci, N., Cross, J., Bott, R., Kozyr, A., Andersson, A. J., Bates, N. R., Cai, W.-J., Cronin, M. F., De Carlo, E. H., Hales, B., Howden, S. D., Lee, C. M., Manzello, D. P., McPhaden, M. J., Meléndez, M., Mickett, J. B., Newton, J. A., Noakes, S. E., Noh, J. H., Olafsdottir, S. R., Salisbury, J. E., Send, U., Trull, T. W., Vandemark, D. C., and Weller, R. A.: Autonomous seawater pCO2 and pH time series from 40 surface buoys and the emergence of anthropogenic trends, Earth Syst. Sci. Data, 11, 421–439, https://doi.org/10.5194/essd-11-421-2019, 2019.</v>
       </c>
     </row>
     <row r="18">
@@ -9592,15 +9592,15 @@
       </c>
       <c r="C18" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>Gridded Surface OA Indicators in the Northern Caribbean Sea</v>
+        <v>AOML-ET</v>
       </c>
       <c r="D18" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>Wanninkhof et al. (2020)</v>
+        <v>Wanninkhof et al. (2015)</v>
       </c>
       <c r="E18" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/12/1489/2020/essd-12-1489-2020-avatar-web.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/449791f9-d01c-4710-bb96-bb6bf991906f/gbc21621-fig-0010-m.jpg</v>
       </c>
       <c r="F18" s="23" t="str">
         <f t="shared" ref="F18:G18" si="64">if(ISBLANK($C18), "", F$1)</f>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="H18" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>Coastal</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I18" s="23" t="str">
         <f t="shared" ref="I18:J18" si="65">if(ISBLANK($C18), "", I$1)</f>
@@ -9648,23 +9648,23 @@
       </c>
       <c r="Q18" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>2002 - 2019</v>
+        <v>1998 - 2023</v>
       </c>
       <c r="R18" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>A 17-year record of  fCO2, TA, pH, Ωarag, and air-sea CO2 flux in the Caribbean Sea </v>
+        <v>Monthly global sea-air CO2 flux maps in modern era</v>
       </c>
       <c r="S18" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>Wanninkhof et al. (2020)</v>
+        <v>Wanninkhof et al. (2015)</v>
       </c>
       <c r="T18" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-12-1489-2020</v>
+        <v>https://doi.org/10.1029/2024GB008315</v>
       </c>
       <c r="U18" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0207749.html </v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0298989.html</v>
       </c>
       <c r="V18" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="W18" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>This dataset contains a high-quality dataset of derived products from over a million observations of surface water partial pressure/fugacity of carbon dioxide (pCO2w/fCO2w), for the Caribbean Sea, Gulf of Mexico/Gulf of America and North-West Atlantic Ocean covering the timespan from 2002-01-01 to 2019-12-30. The derived quantities include TA, acidity (pH), Ωarag and air-sea CO2 flux (Wanninkhof et al., 2020). </v>
+        <v>Wanninkhof et al. (2025) developed a monthly global ocean data product of seawater pCO2 and sea-air CO2 fluxes, referred to as AOML-ET, using an extremely randomized trees (ET) machine learning technique. These maps are created on 1° × 1° spatial grids, providing global surface ocean coverages from 1998 to 2023. AOML-ET incorporates several predictor variables, including time, location, SST, SSS, MLD, and chlorophyll-a. The model was trained using the v2020 and v2023 releases of the SOCAT data product (No. 1). Sea-air CO2 fluxes were calculated using the air-sea CO2 partial pressure difference (∆pCO2) and a bulk gas transfer formulation incorporating windspeed. </v>
       </c>
       <c r="X18" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="Y18" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A18,FALSE)</f>
-        <v>Wanninkhof, R., Pierrot, D., Sullivan, K., Barbero, L., and Triñanes, J.: A 17-year dataset of surface water fugacity of CO2 along with calculated pH, aragonite saturation state and air–sea CO2 fluxes in the northern Caribbean Sea, Earth Syst. Sci. Data, 12, 1489–1509, https://doi.org/10.5194/essd-12-1489-2020, 2020.</v>
+        <v>Wanninkhof, R., Triñanes, J., Pierrot, D., Munro, D. R., Sweeney, C., and Fay, A. R.: Trends in sea-air CO2 fluxes and sensitivities to atmospheric forcing using an extremely randomized trees machine learning approach, Global Biogeochemical Cycles, 39, https://doi.org/10.1029/2024GB008315, 2025.</v>
       </c>
     </row>
     <row r="19">
@@ -9689,19 +9689,19 @@
       </c>
       <c r="B19" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>Gridded subsurface</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C19" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>Acidification Metrics in the Ocean Interior</v>
+        <v>Gridded Surface OA Indicators in the Northern Caribbean Sea</v>
       </c>
       <c r="D19" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>Fassbender et al. (2023) </v>
+        <v>Wanninkhof et al. (2020)</v>
       </c>
       <c r="E19" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/c15194d4-6cd1-4bed-a018-d654d574a917/gbc21500-fig-0001-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/12/1489/2020/essd-12-1489-2020-avatar-web.png</v>
       </c>
       <c r="F19" s="23" t="str">
         <f t="shared" ref="F19:G19" si="68">if(ISBLANK($C19), "", F$1)</f>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="H19" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Coastal</v>
       </c>
       <c r="I19" s="23" t="str">
         <f t="shared" ref="I19:J19" si="69">if(ISBLANK($C19), "", I$1)</f>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="K19" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>climatology</v>
+        <v>monthly, climatology</v>
       </c>
       <c r="L19" s="23" t="str">
         <f t="shared" ref="L19:M19" si="70">if(ISBLANK($C19), "", L$1)</f>
@@ -9749,23 +9749,23 @@
       </c>
       <c r="Q19" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>1850 - 2002</v>
+        <v>2002 - 2019</v>
       </c>
       <c r="R19" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>Metrics of acidification in the ocean interior (to 2000 m) and the component of those changes caused by carbonate system nonlinearities</v>
+        <v>A 17-year record of  fCO2, TA, pH, Ωarag, and air-sea CO2 flux in the Caribbean Sea </v>
       </c>
       <c r="S19" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>Fassbender et al. (2023) </v>
+        <v>Wanninkhof et al. (2020)</v>
       </c>
       <c r="T19" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>https://doi.org/10.1029/2023GB007843</v>
+        <v>https://doi.org/10.5194/essd-12-1489-2020</v>
       </c>
       <c r="U19" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0290073.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0207749.html </v>
       </c>
       <c r="V19" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="W19" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </v>
+        <v>This dataset contains a high-quality dataset of derived products from over a million observations of surface water partial pressure/fugacity of carbon dioxide (pCO2w/fCO2w), for the Caribbean Sea, Gulf of Mexico/Gulf of America and North-West Atlantic Ocean covering the timespan from 2002-01-01 to 2019-12-30. The derived quantities include TA, acidity (pH), Ωarag and air-sea CO2 flux (Wanninkhof et al., 2020). </v>
       </c>
       <c r="X19" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="Y19" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A19,FALSE)</f>
-        <v>Fassbender, A. J., Carter, B. R., Sharp, J. D., Huang, Y., Arroyo, M. C., and Frenzel, H.: Amplified subsurface signals of ocean acidification, Global Biogeochemical Cycles, 37, e2023GB007843, https://doi.org/10.1029/2023GB007843, 2023. </v>
+        <v>Wanninkhof, R., Pierrot, D., Sullivan, K., Barbero, L., and Triñanes, J.: A 17-year dataset of surface water fugacity of CO2 along with calculated pH, aragonite saturation state and air–sea CO2 fluxes in the northern Caribbean Sea, Earth Syst. Sci. Data, 12, 1489–1509, https://doi.org/10.5194/essd-12-1489-2020, 2020.</v>
       </c>
     </row>
     <row r="20">
@@ -9790,19 +9790,19 @@
       </c>
       <c r="B20" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>Data compilations</v>
+        <v>Gridded subsurface</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>LDEO Surface pCO2 Database</v>
+        <v>Acidification Metrics in the Ocean Interior</v>
       </c>
       <c r="D20" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>Takahashi et a. (2009)</v>
+        <v>Fassbender et al. (2023) </v>
       </c>
       <c r="E20" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/LDEO_Underway_Database/LDEOv2019_map.jpg</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/c15194d4-6cd1-4bed-a018-d654d574a917/gbc21500-fig-0001-m.jpg</v>
       </c>
       <c r="F20" s="23" t="str">
         <f t="shared" ref="F20:G20" si="72">if(ISBLANK($C20), "", F$1)</f>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="H20" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I20" s="23" t="str">
         <f t="shared" ref="I20:J20" si="73">if(ISBLANK($C20), "", I$1)</f>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="K20" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>continuous</v>
+        <v>climatology</v>
       </c>
       <c r="L20" s="23" t="str">
         <f t="shared" ref="L20:M20" si="74">if(ISBLANK($C20), "", L$1)</f>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="N20" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v/>
+        <v>1° x 1°</v>
       </c>
       <c r="O20" s="23" t="str">
         <f t="shared" ref="O20:P20" si="75">if(ISBLANK($C20), "", O$1)</f>
@@ -9850,23 +9850,23 @@
       </c>
       <c r="Q20" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v/>
+        <v>1850 - 2002</v>
       </c>
       <c r="R20" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>The LDEO database reports pCO2 exclusively from equilibrator-CO2 analyzer systems</v>
+        <v>Metrics of acidification in the ocean interior (to 2000 m) and the component of those changes caused by carbonate system nonlinearities</v>
       </c>
       <c r="S20" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>Takahashi et a. (2009)</v>
+        <v>Fassbender et al. (2023) </v>
       </c>
       <c r="T20" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>https://doi.org/10.1016/j.dsr2.2008.12.009</v>
+        <v>https://doi.org/10.1029/2023GB007843</v>
       </c>
       <c r="U20" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160492.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0290073.html</v>
       </c>
       <c r="V20" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9874,7 +9874,7 @@
       </c>
       <c r="W20" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>Dr. Taro Takahashi [LDEO, Palisades, New York] started synthesizing global surface ocean CO2 data in 1997, compiling three decades of observations (~250,000 measurements) to create  inaugural monthly global surface pCO2 maps (Takahashi et al., 1997; Takahashi et al., 2002). The most recent version (V2019) expanded this dataset to approximately 14.2 million surface water pCO2 measurements spanning from 1957–2019. Distinct from the SOCAT database, the LDEO database reports pCO2, instead of fCO2, exclusively from equilibrator-CO2 analyzer systems, with an average estimated uncertainty of ± 2.5 µatm. The database is also interpolated onto a global surface ocean 4° × 5° grid for a reference year 2000 (Takahashi et al., 2009) and 2010 (Fay et al., 2024). </v>
+        <v>Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </v>
       </c>
       <c r="X20" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="Y20" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A20,FALSE)</f>
-        <v>Takahashi, T., Sutherland, S. C., Wanninkhof, R., Sweeney, C., Feely, R. A., Chipman, D. W., Hales, B., Friederich, G., Chavez, F., Sabine, C., Watson, A., Bakker, D. C. E., Schuster, U., Metzl, N., Yoshikawa-Inoue, H., Ishii, M., Midorikawa, T., Nojiri, Y., Körtzinger, A., Steinhoff, T., and de Baar, H. J. W.: Climatological mean and decadal change in Surface Ocean pCO2, and net sea–air CO2 flux over the Global Oceans, Deep Sea Research Part II: Topical Studies in Oceanography, 56(8–10), 554–577, https://doi.org/10.1016/j.dsr2.2008.12.009, 2009.</v>
+        <v>Fassbender, A. J., Carter, B. R., Sharp, J. D., Huang, Y., Arroyo, M. C., and Frenzel, H.: Amplified subsurface signals of ocean acidification, Global Biogeochemical Cycles, 37, e2023GB007843, https://doi.org/10.1029/2023GB007843, 2023. </v>
       </c>
     </row>
     <row r="21">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -185,6 +185,30 @@
   </si>
   <si>
     <t xml:space="preserve">The Global Ocean Data Analysis Project Version 2 (GLODAPv2) aggregates biogeochemical data collected from discrete bottle samples, offering extensive global coverage from the surface to depths (Key et al., 2015; Olsen et al., 2016; Lauvset et al., 2024). While GLODAP is primarily a product for basin-scale hydrographic data, it also includes coastal datasets and observations from a few time-series. The GLODAPv2 data product provides rigorously quality-controlled measurements for 14 essential oceanographic variables: temperature, salinity, dissolved oxygen (DO), nitrate, silicate, phosphate, DIC, TA, pH, chlorofluorocarbons (CFC-11, CFC-12, CFC-113), carbon tetrachloride (CCl4), and sulfur hexafluoride (SF6). These variables, excluding temperature, undergo both primary and secondary quality control procedures to detect outliers and adjust for significant measurement biases. GLODAPv2 was first published in 2016 and was updated annually through a living data process in Earth System Science Data from 2019 through “v2023,” which was published in 2024. For these updates, new data (including historical data not previously included in the data product) are quality controlled and adjusted to the 2016 version (Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024). Since the global repeat hydrography programs operate with decadal repetitions, the aim is to produce a completely new version of GLODAP, where all cruise datasets will be reevaluated, every decade. Release of the GLODAPv3 data product is planned for 2026, and is expected to evolve the secondary data quality control practices relative to those used in GLODAPv2. For more information on the secondary quality control process, refer to Tanhua et al. (2010) and Lauvset and Tanhua (2015). GLODAPv2 offers two kind of products: the collection of quality controlled data from discrete bottle samples taken at sampling location (Key et al., 2015; Olsen et al., 2016; Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024), and a gridded product, interpolated to a 1° × 1°  grid and the 33 standard depth levels of World Ocean Atlas (WOA) (Lauvset et al., 2016). </t>
+  </si>
+  <si>
+    <t>World Ocean Database</t>
+  </si>
+  <si>
+    <t>Mishonov et al. (2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mishonov, A. V., Boyer, T. P., Baranova, O. K., Bouchard, C. N., Cross, S. L., Garcia H. E., Locarnini, R. A., Paver, C. R., Wang, Z., Seidov, D., Grodsky, A. I., Beauchamp, J. G.: World Ocean Database 2023, C. Bouchard, Technical Ed., NOAA Atlas NESDIS 97, 206 pp., https://doi.org/10.25923/z885-h264, 2024. </t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/sites/g/files/anmtlf171/files/inline-images/World%20Ocean%20Atlas%202023%20Climatology%2C%20Decade%202015-2022.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25923/z885-h264</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/products/world-ocean-database</t>
+  </si>
+  <si>
+    <t>Similar to GLODAPv2, with no adjustments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </t>
   </si>
   <si>
     <t>Gridded surface</t>
@@ -458,30 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </t>
-  </si>
-  <si>
-    <t>World Ocean Database</t>
-  </si>
-  <si>
-    <t>Mishonov et al. (2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mishonov, A. V., Boyer, T. P., Baranova, O. K., Bouchard, C. N., Cross, S. L., Garcia H. E., Locarnini, R. A., Paver, C. R., Wang, Z., Seidov, D., Grodsky, A. I., Beauchamp, J. G.: World Ocean Database 2023, C. Bouchard, Technical Ed., NOAA Atlas NESDIS 97, 206 pp., https://doi.org/10.25923/z885-h264, 2024. </t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/sites/g/files/anmtlf171/files/inline-images/World%20Ocean%20Atlas%202023%20Climatology%2C%20Decade%202015-2022.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25923/z885-h264</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/products/world-ocean-database</t>
-  </si>
-  <si>
-    <t>Similar to GLODAPv2, with no adjustments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </t>
   </si>
   <si>
     <t>Salish Sea Multi-stressor Data Product</t>
@@ -1381,442 +1381,442 @@
     </row>
     <row r="5">
       <c r="A5" s="4">
-        <v>45961.95201907407</v>
+        <v>45962.71938206018</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>45961.909583877314</v>
+        <v>45961.95201907407</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <v>45961.91270586806</v>
+        <v>45961.909583877314</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>78</v>
+      <c r="I7" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>45961.91270586806</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13">
+      <c r="F8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13">
         <v>45961.90485893519</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="B9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>45962.03784055555</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="L9" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="M9" s="17"/>
+      <c r="N9" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="O9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="P9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>45962.210738877315</v>
+        <v>45962.03784055555</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="M10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>45962.673469733796</v>
+        <v>45962.210738877315</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="K11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="N11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>45962.680467199076</v>
+        <v>45962.673469733796</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="10" t="s">
+      <c r="O12" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <v>45962.690968483796</v>
+        <v>45962.680467199076</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>45962.71938206018</v>
+        <v>45962.690968483796</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>148</v>
@@ -1855,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>36</v>
@@ -1920,7 +1920,7 @@
         <v>45962.75772594908</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>167</v>
@@ -1941,7 +1941,7 @@
         <v>172</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>173</v>
@@ -1964,7 +1964,7 @@
         <v>45962.76769828703</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>177</v>
@@ -1985,7 +1985,7 @@
         <v>182</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>173</v>
@@ -2008,7 +2008,7 @@
         <v>45962.780607939814</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>187</v>
@@ -2029,10 +2029,10 @@
         <v>192</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>46</v>
@@ -8373,19 +8373,19 @@
       </c>
       <c r="B6" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Data compilations</v>
       </c>
       <c r="C6" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>CSIR-ML6</v>
+        <v>World Ocean Database</v>
       </c>
       <c r="D6" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Mishonov et al. (2024)</v>
       </c>
       <c r="E6" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</v>
+        <v>https://www.ncei.noaa.gov/sites/g/files/anmtlf171/files/inline-images/World%20Ocean%20Atlas%202023%20Climatology%2C%20Decade%202015-2022.png</v>
       </c>
       <c r="F6" s="23" t="str">
         <f t="shared" ref="F6:G6" si="16">if(ISBLANK($C6), "", F$1)</f>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="H6" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I6" s="23" t="str">
         <f t="shared" ref="I6:J6" si="17">if(ISBLANK($C6), "", I$1)</f>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="K6" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>monthly</v>
+        <v>discrete</v>
       </c>
       <c r="L6" s="23" t="str">
         <f t="shared" ref="L6:M6" si="18">if(ISBLANK($C6), "", L$1)</f>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="N6" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>1° x 1°</v>
+        <v/>
       </c>
       <c r="O6" s="23" t="str">
         <f t="shared" ref="O6:P6" si="19">if(ISBLANK($C6), "", O$1)</f>
@@ -8433,23 +8433,23 @@
       </c>
       <c r="Q6" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>1982 - 2020</v>
+        <v/>
       </c>
       <c r="R6" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
+        <v>Similar to GLODAPv2, with no adjustments</v>
       </c>
       <c r="S6" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Mishonov et al. (2024)</v>
       </c>
       <c r="T6" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
+        <v>https://doi.org/10.25923/z885-h264</v>
       </c>
       <c r="U6" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>https://doi.org/10.25921/z682-mn47</v>
+        <v>https://www.ncei.noaa.gov/products/world-ocean-database</v>
       </c>
       <c r="V6" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="W6" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
+        <v>In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </v>
       </c>
       <c r="X6" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="Y6" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A6,FALSE)</f>
-        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
+        <v>Mishonov, A. V., Boyer, T. P., Baranova, O. K., Bouchard, C. N., Cross, S. L., Garcia H. E., Locarnini, R. A., Paver, C. R., Wang, Z., Seidov, D., Grodsky, A. I., Beauchamp, J. G.: World Ocean Database 2023, C. Bouchard, Technical Ed., NOAA Atlas NESDIS 97, 206 pp., https://doi.org/10.25923/z885-h264, 2024. </v>
       </c>
     </row>
     <row r="7">
@@ -8479,15 +8479,15 @@
       </c>
       <c r="C7" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>OceanSODA-ETHZv1</v>
+        <v>CSIR-ML6</v>
       </c>
       <c r="D7" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="E7" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
+        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</v>
       </c>
       <c r="F7" s="23" t="str">
         <f t="shared" ref="F7:G7" si="20">if(ISBLANK($C7), "", F$1)</f>
@@ -8535,23 +8535,23 @@
       </c>
       <c r="Q7" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>1982 - 2022</v>
+        <v>1982 - 2020</v>
       </c>
       <c r="R7" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
+        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
       </c>
       <c r="S7" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="T7" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-13-777-2021</v>
+        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
       </c>
       <c r="U7" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://doi.org/10.25921/m5wx-ja34</v>
+        <v>https://doi.org/10.25921/z682-mn47</v>
       </c>
       <c r="V7" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="W7" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
+        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
       </c>
       <c r="X7" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="Y7" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
+        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
       </c>
     </row>
     <row r="8">
@@ -8581,15 +8581,15 @@
       </c>
       <c r="C8" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>OceanSODA-ETHZv2</v>
+        <v>OceanSODA-ETHZv1</v>
       </c>
       <c r="D8" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="E8" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" ref="F8:G8" si="24">if(ISBLANK($C8), "", F$1)</f>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="K8" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>8-day</v>
+        <v>monthly</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" ref="L8:M8" si="26">if(ISBLANK($C8), "", L$1)</f>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="N8" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>0.25° x 0.25°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O8" s="23" t="str">
         <f t="shared" ref="O8:P8" si="27">if(ISBLANK($C8), "", O$1)</f>
@@ -8637,23 +8637,23 @@
       </c>
       <c r="Q8" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>1982 - 2023</v>
+        <v>1982 - 2022</v>
       </c>
       <c r="R8" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
+        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
       </c>
       <c r="S8" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="T8" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://doi.org/10.1029/2024GB008127</v>
+        <v>https://doi.org/10.5194/essd-13-777-2021</v>
       </c>
       <c r="U8" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://zenodo.org/records/11206366</v>
+        <v>https://doi.org/10.25921/m5wx-ja34</v>
       </c>
       <c r="V8" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="W8" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
+        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
       </c>
       <c r="X8" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="Y8" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
+        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
       </c>
     </row>
     <row r="9">
@@ -8679,19 +8679,19 @@
       </c>
       <c r="B9" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Harmonized</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C9" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>SeaFlux</v>
+        <v>OceanSODA-ETHZv2</v>
       </c>
       <c r="D9" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="E9" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ref="F9:G9" si="28">if(ISBLANK($C9), "", F$1)</f>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="K9" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>monthly</v>
+        <v>8-day</v>
       </c>
       <c r="L9" s="23" t="str">
         <f t="shared" ref="L9:M9" si="30">if(ISBLANK($C9), "", L$1)</f>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="N9" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>1° x 1°</v>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O9" s="23" t="str">
         <f t="shared" ref="O9:P9" si="31">if(ISBLANK($C9), "", O$1)</f>
@@ -8739,23 +8739,23 @@
       </c>
       <c r="Q9" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>1990 - 2022</v>
+        <v>1982 - 2023</v>
       </c>
       <c r="R9" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
+        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
       </c>
       <c r="S9" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="T9" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-2021-16</v>
+        <v>https://doi.org/10.1029/2024GB008127</v>
       </c>
       <c r="U9" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://zenodo.org/records/8280457</v>
+        <v>https://zenodo.org/records/11206366</v>
       </c>
       <c r="V9" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="W9" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
+        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
       </c>
       <c r="X9" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="Y9" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
+        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
       </c>
     </row>
     <row r="10">
@@ -8780,19 +8780,19 @@
       </c>
       <c r="B10" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Data compilations</v>
+        <v>Harmonized</v>
       </c>
       <c r="C10" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>CODAP-NA</v>
+        <v>SeaFlux</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Jiang et al. (2021)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="E10" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</v>
+        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" ref="F10:G10" si="32">if(ISBLANK($C10), "", F$1)</f>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="H10" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" ref="I10:J10" si="33">if(ISBLANK($C10), "", I$1)</f>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="K10" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>discrete</v>
+        <v>monthly</v>
       </c>
       <c r="L10" s="23" t="str">
         <f t="shared" ref="L10:M10" si="34">if(ISBLANK($C10), "", L$1)</f>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="N10" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v/>
+        <v>1° x 1°</v>
       </c>
       <c r="O10" s="23" t="str">
         <f t="shared" ref="O10:P10" si="35">if(ISBLANK($C10), "", O$1)</f>
@@ -8840,23 +8840,23 @@
       </c>
       <c r="Q10" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>2003 - 2018</v>
+        <v>1990 - 2022</v>
       </c>
       <c r="R10" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Like GLODAPv2, but for the North American coastal ocean</v>
+        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
       </c>
       <c r="S10" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Jiang et al. (2021)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="T10" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-13-2777-2021</v>
+        <v>https://doi.org/10.5194/essd-2021-16</v>
       </c>
       <c r="U10" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</v>
+        <v>https://zenodo.org/records/8280457</v>
       </c>
       <c r="V10" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="W10" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </v>
+        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
       </c>
       <c r="X10" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="Y10" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</v>
+        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
       </c>
     </row>
     <row r="11">
@@ -8881,19 +8881,19 @@
       </c>
       <c r="B11" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Gridded subsurface</v>
+        <v>Data compilations</v>
       </c>
       <c r="C11" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Aragonite Climatology</v>
+        <v>CODAP-NA</v>
       </c>
       <c r="D11" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2015) </v>
+        <v>Jiang et al. (2021)</v>
       </c>
       <c r="E11" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ref="F11:G11" si="36">if(ISBLANK($C11), "", F$1)</f>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="H11" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Coastal, Water column</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" ref="I11:J11" si="37">if(ISBLANK($C11), "", I$1)</f>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="K11" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>climatology</v>
+        <v>discrete</v>
       </c>
       <c r="L11" s="23" t="str">
         <f t="shared" ref="L11:M11" si="38">if(ISBLANK($C11), "", L$1)</f>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="N11" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>1° x 1°</v>
+        <v/>
       </c>
       <c r="O11" s="23" t="str">
         <f t="shared" ref="O11:P11" si="39">if(ISBLANK($C11), "", O$1)</f>
@@ -8939,25 +8939,25 @@
         <f t="shared" si="39"/>
         <v>Period</v>
       </c>
-      <c r="Q11" s="29" t="str">
+      <c r="Q11" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>2000</v>
+        <v>2003 - 2018</v>
       </c>
       <c r="R11" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</v>
+        <v>Like GLODAPv2, but for the North American coastal ocean</v>
       </c>
       <c r="S11" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2015) </v>
+        <v>Jiang et al. (2021)</v>
       </c>
       <c r="T11" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://doi.org/10.1002/2015GB005198</v>
+        <v>https://doi.org/10.5194/essd-13-2777-2021</v>
       </c>
       <c r="U11" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</v>
       </c>
       <c r="V11" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="W11" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </v>
+        <v>Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </v>
       </c>
       <c r="X11" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="Y11" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </v>
+        <v>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</v>
       </c>
     </row>
     <row r="12">
@@ -8986,15 +8986,15 @@
       </c>
       <c r="C12" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>CODAP-NA Climatology</v>
+        <v>Aragonite Climatology</v>
       </c>
       <c r="D12" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Jiang et al. (2024)</v>
+        <v>Jiang et al. (2015) </v>
       </c>
       <c r="E12" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</v>
       </c>
       <c r="F12" s="23" t="str">
         <f t="shared" ref="F12:G12" si="40">if(ISBLANK($C12), "", F$1)</f>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="H12" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" ref="I12:J12" si="41">if(ISBLANK($C12), "", I$1)</f>
@@ -9040,25 +9040,25 @@
         <f t="shared" si="43"/>
         <v>Period</v>
       </c>
-      <c r="Q12" s="23" t="str">
+      <c r="Q12" s="29" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="R12" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>The first discrete bottle based climatology in the North American ocean margins</v>
+        <v>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</v>
       </c>
       <c r="S12" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Jiang et al. (2024)</v>
+        <v>Jiang et al. (2015) </v>
       </c>
       <c r="T12" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-3383-2024</v>
+        <v>https://doi.org/10.1002/2015GB005198</v>
       </c>
       <c r="U12" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</v>
       </c>
       <c r="V12" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="W12" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </v>
+        <v>Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </v>
       </c>
       <c r="X12" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="Y12" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A12,FALSE)</f>
-        <v>Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </v>
+        <v>Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </v>
       </c>
     </row>
     <row r="13">
@@ -9083,19 +9083,19 @@
       </c>
       <c r="B13" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Gridded subsurface</v>
       </c>
       <c r="C13" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Surface pH and Revelle Factor</v>
+        <v>CODAP-NA Climatology</v>
       </c>
       <c r="D13" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Jiang et al. (2019)</v>
+        <v>Jiang et al. (2024)</v>
       </c>
       <c r="E13" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png?as=webp</v>
+        <v>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</v>
       </c>
       <c r="F13" s="23" t="str">
         <f t="shared" ref="F13:G13" si="44">if(ISBLANK($C13), "", F$1)</f>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="H13" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Coastal, Water column</v>
       </c>
       <c r="I13" s="23" t="str">
         <f t="shared" ref="I13:J13" si="45">if(ISBLANK($C13), "", I$1)</f>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="K13" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>decadal, climatology</v>
+        <v>climatology</v>
       </c>
       <c r="L13" s="23" t="str">
         <f t="shared" ref="L13:M13" si="46">if(ISBLANK($C13), "", L$1)</f>
@@ -9143,23 +9143,23 @@
       </c>
       <c r="Q13" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>1770 - 2100</v>
+        <v>2010</v>
       </c>
       <c r="R13" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</v>
+        <v>The first discrete bottle based climatology in the North American ocean margins</v>
       </c>
       <c r="S13" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Jiang et al. (2019)</v>
+        <v>Jiang et al. (2024)</v>
       </c>
       <c r="T13" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>https://doi.org/10.1038/s41598-019-55039-4</v>
+        <v>https://doi.org/10.5194/essd-16-3383-2024</v>
       </c>
       <c r="U13" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</v>
       </c>
       <c r="V13" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="W13" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </v>
+        <v>Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </v>
       </c>
       <c r="X13" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="Y13" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A13,FALSE)</f>
-        <v>Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </v>
+        <v>Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </v>
       </c>
     </row>
     <row r="14">
@@ -9188,15 +9188,15 @@
       </c>
       <c r="C14" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Surface OA Indicators </v>
+        <v>Surface pH and Revelle Factor</v>
       </c>
       <c r="D14" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Jiang et al. (2023)</v>
+        <v>Jiang et al. (2019)</v>
       </c>
       <c r="E14" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</v>
+        <v>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png?as=webp</v>
       </c>
       <c r="F14" s="23" t="str">
         <f t="shared" ref="F14:G14" si="48">if(ISBLANK($C14), "", F$1)</f>
@@ -9244,23 +9244,23 @@
       </c>
       <c r="Q14" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>1750 - 2100</v>
+        <v>1770 - 2100</v>
       </c>
       <c r="R14" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</v>
+        <v>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</v>
       </c>
       <c r="S14" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Jiang et al. (2023)</v>
+        <v>Jiang et al. (2019)</v>
       </c>
       <c r="T14" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>https://doi.org/10.1029/2022MS003563</v>
+        <v>https://doi.org/10.1038/s41598-019-55039-4</v>
       </c>
       <c r="U14" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </v>
       </c>
       <c r="V14" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="W14" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </v>
+        <v>Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </v>
       </c>
       <c r="X14" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="Y14" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A14,FALSE)</f>
-        <v>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</v>
+        <v>Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </v>
       </c>
     </row>
     <row r="15">
@@ -9285,19 +9285,19 @@
       </c>
       <c r="B15" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Data compilations</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C15" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>World Ocean Database</v>
+        <v>Surface OA Indicators </v>
       </c>
       <c r="D15" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Mishonov et al. (2024)</v>
+        <v>Jiang et al. (2023)</v>
       </c>
       <c r="E15" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/sites/g/files/anmtlf171/files/inline-images/World%20Ocean%20Atlas%202023%20Climatology%2C%20Decade%202015-2022.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</v>
       </c>
       <c r="F15" s="23" t="str">
         <f t="shared" ref="F15:G15" si="52">if(ISBLANK($C15), "", F$1)</f>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="H15" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I15" s="23" t="str">
         <f t="shared" ref="I15:J15" si="53">if(ISBLANK($C15), "", I$1)</f>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="K15" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>discrete</v>
+        <v>decadal, climatology</v>
       </c>
       <c r="L15" s="23" t="str">
         <f t="shared" ref="L15:M15" si="54">if(ISBLANK($C15), "", L$1)</f>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="N15" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v/>
+        <v>1° x 1°</v>
       </c>
       <c r="O15" s="23" t="str">
         <f t="shared" ref="O15:P15" si="55">if(ISBLANK($C15), "", O$1)</f>
@@ -9345,23 +9345,23 @@
       </c>
       <c r="Q15" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v/>
+        <v>1750 - 2100</v>
       </c>
       <c r="R15" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Similar to GLODAPv2, with no adjustments</v>
+        <v>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</v>
       </c>
       <c r="S15" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Mishonov et al. (2024)</v>
+        <v>Jiang et al. (2023)</v>
       </c>
       <c r="T15" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>https://doi.org/10.25923/z885-h264</v>
+        <v>https://doi.org/10.1029/2022MS003563</v>
       </c>
       <c r="U15" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/products/world-ocean-database</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</v>
       </c>
       <c r="V15" s="23" t="str">
         <f t="shared" si="10"/>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="W15" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </v>
+        <v>Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </v>
       </c>
       <c r="X15" s="23" t="str">
         <f t="shared" si="11"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="Y15" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A15,FALSE)</f>
-        <v>Mishonov, A. V., Boyer, T. P., Baranova, O. K., Bouchard, C. N., Cross, S. L., Garcia H. E., Locarnini, R. A., Paver, C. R., Wang, Z., Seidov, D., Grodsky, A. I., Beauchamp, J. G.: World Ocean Database 2023, C. Bouchard, Technical Ed., NOAA Atlas NESDIS 97, 206 pp., https://doi.org/10.25923/z885-h264, 2024. </v>
+        <v>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</v>
       </c>
     </row>
     <row r="16">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -211,6 +211,36 @@
     <t xml:space="preserve">In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </t>
   </si>
   <si>
+    <t>CODAP-NA</t>
+  </si>
+  <si>
+    <t>Jiang et al. (2021)</t>
+  </si>
+  <si>
+    <t>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-13-2777-2021</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</t>
+  </si>
+  <si>
+    <t>Coastal, Water column</t>
+  </si>
+  <si>
+    <t>2003 - 2018</t>
+  </si>
+  <si>
+    <t>Like GLODAPv2, but for the North American coastal ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </t>
+  </si>
+  <si>
     <t>Gridded surface</t>
   </si>
   <si>
@@ -335,36 +365,6 @@
   </si>
   <si>
     <t>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</t>
-  </si>
-  <si>
-    <t>CODAP-NA</t>
-  </si>
-  <si>
-    <t>Jiang et al. (2021)</t>
-  </si>
-  <si>
-    <t>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-13-2777-2021</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</t>
-  </si>
-  <si>
-    <t>Coastal, Water column</t>
-  </si>
-  <si>
-    <t>2003 - 2018</t>
-  </si>
-  <si>
-    <t>Like GLODAPv2, but for the North American coastal ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </t>
   </si>
   <si>
     <t>Gridded subsurface</t>
@@ -1426,228 +1426,228 @@
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>45961.95201907407</v>
+        <v>45962.03784055555</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="M6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <v>45961.909583877314</v>
+        <v>45961.95201907407</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="9"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <v>45961.91270586806</v>
+        <v>45961.909583877314</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="12" t="s">
         <v>86</v>
       </c>
+      <c r="I8" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="J8" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>45961.91270586806</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13">
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13">
         <v>45961.90485893519</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="14" t="s">
+      <c r="B10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>45962.03784055555</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="M10" s="17"/>
+      <c r="N10" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="14" t="s">
         <v>110</v>
       </c>
+      <c r="P10" s="18"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -1675,7 +1675,7 @@
         <v>117</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>118</v>
@@ -1719,13 +1719,13 @@
         <v>127</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>118</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>128</v>
@@ -1742,7 +1742,7 @@
         <v>45962.680467199076</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>131</v>
@@ -1763,7 +1763,7 @@
         <v>136</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>137</v>
@@ -1786,7 +1786,7 @@
         <v>45962.690968483796</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>141</v>
@@ -1807,7 +1807,7 @@
         <v>146</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>137</v>
@@ -1855,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>36</v>
@@ -1920,7 +1920,7 @@
         <v>45962.75772594908</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>167</v>
@@ -1941,7 +1941,7 @@
         <v>172</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>173</v>
@@ -1964,7 +1964,7 @@
         <v>45962.76769828703</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>177</v>
@@ -1985,7 +1985,7 @@
         <v>182</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>173</v>
@@ -2029,7 +2029,7 @@
         <v>192</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>118</v>
@@ -8475,19 +8475,19 @@
       </c>
       <c r="B7" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Data compilations</v>
       </c>
       <c r="C7" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>CSIR-ML6</v>
+        <v>CODAP-NA</v>
       </c>
       <c r="D7" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Jiang et al. (2021)</v>
       </c>
       <c r="E7" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</v>
+        <v>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</v>
       </c>
       <c r="F7" s="23" t="str">
         <f t="shared" ref="F7:G7" si="20">if(ISBLANK($C7), "", F$1)</f>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="H7" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Coastal, Water column</v>
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" ref="I7:J7" si="21">if(ISBLANK($C7), "", I$1)</f>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="K7" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>monthly</v>
+        <v>discrete</v>
       </c>
       <c r="L7" s="23" t="str">
         <f t="shared" ref="L7:M7" si="22">if(ISBLANK($C7), "", L$1)</f>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="N7" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>1° x 1°</v>
+        <v/>
       </c>
       <c r="O7" s="23" t="str">
         <f t="shared" ref="O7:P7" si="23">if(ISBLANK($C7), "", O$1)</f>
@@ -8535,23 +8535,23 @@
       </c>
       <c r="Q7" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>1982 - 2020</v>
+        <v>2003 - 2018</v>
       </c>
       <c r="R7" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
+        <v>Like GLODAPv2, but for the North American coastal ocean</v>
       </c>
       <c r="S7" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Jiang et al. (2021)</v>
       </c>
       <c r="T7" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
+        <v>https://doi.org/10.5194/essd-13-2777-2021</v>
       </c>
       <c r="U7" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>https://doi.org/10.25921/z682-mn47</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</v>
       </c>
       <c r="V7" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="W7" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
+        <v>Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </v>
       </c>
       <c r="X7" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="Y7" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A7,FALSE)</f>
-        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
+        <v>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</v>
       </c>
     </row>
     <row r="8">
@@ -8581,15 +8581,15 @@
       </c>
       <c r="C8" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>OceanSODA-ETHZv1</v>
+        <v>CSIR-ML6</v>
       </c>
       <c r="D8" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="E8" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
+        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-thumb.png</v>
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" ref="F8:G8" si="24">if(ISBLANK($C8), "", F$1)</f>
@@ -8637,23 +8637,23 @@
       </c>
       <c r="Q8" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>1982 - 2022</v>
+        <v>1982 - 2020</v>
       </c>
       <c r="R8" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
+        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
       </c>
       <c r="S8" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="T8" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-13-777-2021</v>
+        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
       </c>
       <c r="U8" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>https://doi.org/10.25921/m5wx-ja34</v>
+        <v>https://doi.org/10.25921/z682-mn47</v>
       </c>
       <c r="V8" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="W8" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
+        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
       </c>
       <c r="X8" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="Y8" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A8,FALSE)</f>
-        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
+        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
       </c>
     </row>
     <row r="9">
@@ -8683,15 +8683,15 @@
       </c>
       <c r="C9" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>OceanSODA-ETHZv2</v>
+        <v>OceanSODA-ETHZv1</v>
       </c>
       <c r="D9" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="E9" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="F9" s="23" t="str">
         <f t="shared" ref="F9:G9" si="28">if(ISBLANK($C9), "", F$1)</f>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="K9" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>8-day</v>
+        <v>monthly</v>
       </c>
       <c r="L9" s="23" t="str">
         <f t="shared" ref="L9:M9" si="30">if(ISBLANK($C9), "", L$1)</f>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="N9" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>0.25° x 0.25°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O9" s="23" t="str">
         <f t="shared" ref="O9:P9" si="31">if(ISBLANK($C9), "", O$1)</f>
@@ -8739,23 +8739,23 @@
       </c>
       <c r="Q9" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>1982 - 2023</v>
+        <v>1982 - 2022</v>
       </c>
       <c r="R9" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
+        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
       </c>
       <c r="S9" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="T9" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://doi.org/10.1029/2024GB008127</v>
+        <v>https://doi.org/10.5194/essd-13-777-2021</v>
       </c>
       <c r="U9" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>https://zenodo.org/records/11206366</v>
+        <v>https://doi.org/10.25921/m5wx-ja34</v>
       </c>
       <c r="V9" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="W9" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
+        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
       </c>
       <c r="X9" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="Y9" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A9,FALSE)</f>
-        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
+        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
       </c>
     </row>
     <row r="10">
@@ -8780,19 +8780,19 @@
       </c>
       <c r="B10" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Harmonized</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C10" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>SeaFlux</v>
+        <v>OceanSODA-ETHZv2</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="E10" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
       </c>
       <c r="F10" s="23" t="str">
         <f t="shared" ref="F10:G10" si="32">if(ISBLANK($C10), "", F$1)</f>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="K10" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>monthly</v>
+        <v>8-day</v>
       </c>
       <c r="L10" s="23" t="str">
         <f t="shared" ref="L10:M10" si="34">if(ISBLANK($C10), "", L$1)</f>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="N10" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>1° x 1°</v>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O10" s="23" t="str">
         <f t="shared" ref="O10:P10" si="35">if(ISBLANK($C10), "", O$1)</f>
@@ -8840,23 +8840,23 @@
       </c>
       <c r="Q10" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>1990 - 2022</v>
+        <v>1982 - 2023</v>
       </c>
       <c r="R10" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
+        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
       </c>
       <c r="S10" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="T10" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-2021-16</v>
+        <v>https://doi.org/10.1029/2024GB008127</v>
       </c>
       <c r="U10" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>https://zenodo.org/records/8280457</v>
+        <v>https://zenodo.org/records/11206366</v>
       </c>
       <c r="V10" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="W10" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
+        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
       </c>
       <c r="X10" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="Y10" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A10,FALSE)</f>
-        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
+        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
       </c>
     </row>
     <row r="11">
@@ -8881,19 +8881,19 @@
       </c>
       <c r="B11" s="23" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Data compilations</v>
+        <v>Harmonized</v>
       </c>
       <c r="C11" s="23" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>CODAP-NA</v>
+        <v>SeaFlux</v>
       </c>
       <c r="D11" s="23" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2021)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="E11" s="27" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</v>
+        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ref="F11:G11" si="36">if(ISBLANK($C11), "", F$1)</f>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="H11" s="23" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" ref="I11:J11" si="37">if(ISBLANK($C11), "", I$1)</f>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="K11" s="23" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>discrete</v>
+        <v>monthly</v>
       </c>
       <c r="L11" s="23" t="str">
         <f t="shared" ref="L11:M11" si="38">if(ISBLANK($C11), "", L$1)</f>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="N11" s="28" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v/>
+        <v>1° x 1°</v>
       </c>
       <c r="O11" s="23" t="str">
         <f t="shared" ref="O11:P11" si="39">if(ISBLANK($C11), "", O$1)</f>
@@ -8941,23 +8941,23 @@
       </c>
       <c r="Q11" s="23" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>2003 - 2018</v>
+        <v>1990 - 2022</v>
       </c>
       <c r="R11" s="23" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Like GLODAPv2, but for the North American coastal ocean</v>
+        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
       </c>
       <c r="S11" s="23" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2021)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="T11" s="27" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-13-2777-2021</v>
+        <v>https://doi.org/10.5194/essd-2021-16</v>
       </c>
       <c r="U11" s="27" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</v>
+        <v>https://zenodo.org/records/8280457</v>
       </c>
       <c r="V11" s="23" t="str">
         <f t="shared" si="10"/>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="W11" s="23" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </v>
+        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
       </c>
       <c r="X11" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="Y11" s="23" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$138,$A11,FALSE)</f>
-        <v>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</v>
+        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
       </c>
     </row>
     <row r="12">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="234">
   <si>
     <t>Timestamp</t>
   </si>
@@ -214,31 +214,34 @@
     <t>SNAPO-CO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Metzl et al. (2024) </t>
+    <t>Metlz et al (2024)</t>
   </si>
   <si>
     <t>Metzl, N., Fin, J., Lo Monaco, C., Mignon, C., Alliouane, S., Antoine, D., Bourdin, G., Boutin, J., Bozec, Y., Conan, P., Coppola, L., Diaz, F., Douville, E., Durrieu de Madron, X., Gattuso, J.-P., Gazeau, F., Golbol, M., Lansard, B., Lefèvre, D., Lefèvre, N., Lombard, F., Louanchi, F., Merlivat, L., Olivier, L., Petrenko, A., Petton, S., Pujo-Pay, M., Rabouille, C., Reverdin, G., Ridame, C., Tribollet, A., Vellucci, V., Wagener, T., and Wimart-Rousseau, C.: A synthesis of ocean total alkalinity and dissolved inorganic carbon measurements from 1993 to 2022: the SNAPO-CO2-v1 dataset, Earth Syst. Sci. Data, 16, 89–120, https://doi.org/10.5194/essd-16-89-2024, 2024.</t>
   </si>
   <si>
-    <t>https://essd.copernicus.org/articles/16/89/2024/essd-16-89-2024-avatar-web.png</t>
+    <t>https://www.seanoe.org/data/00911/102337/illustration.gif</t>
   </si>
   <si>
     <t>https://doi.org/10.5194/essd-16-89-2024</t>
   </si>
   <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0285681.html</t>
+    <t>https://doi.org/10.17882/102337</t>
   </si>
   <si>
-    <t>Open ocean, Coastal</t>
+    <t>continuous, discrete</t>
   </si>
   <si>
-    <t>1993 - 2022</t>
+    <t>Open ocean, Coastal, Surface, Water column, Regional</t>
+  </si>
+  <si>
+    <t>1993-2022</t>
   </si>
   <si>
     <t>A compilation of cruises from multiple French initiatives</t>
   </si>
   <si>
-    <t xml:space="preserve">Metzl et al. (2024) aggregated over 44,400 measurements of DIC and TA from a series of research cruises and ships of opportunity across various oceanic regions from 1993-2022, under several French research programs, to create a product called “Service National d’Analyse des Paramètres Océaniques du CO2 (SNAPO-CO2)”. The majority of the samples were analyzed by the Service National d’Analyse des Paramètres Océaniques du CO2 (SNAPO-CO2) at the LOCEAN laboratory in Paris, France. Sampling was performed either from CTD-rosette casts (Niskin bottles) or collected from the ship’s flow-through system (intake at roughly 5m depth). </t>
+    <t xml:space="preserve">Synthesis of 44,400 measurements of DIC and TA from a series of research cruises and ships of opportunity across various oceanic regions from 1993-2022, from several French research programs, to create a product called “Service National d’Analyse des Paramètres Océaniques du CO2 (SNAPO-CO2)”. </t>
   </si>
   <si>
     <t>CODAP-NA</t>
@@ -1487,15 +1490,15 @@
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>45962.97635353009</v>
+        <v>45964.64921225695</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1510,24 +1513,23 @@
       <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="11"/>
       <c r="J6" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1538,41 +1540,41 @@
         <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -1583,29 +1585,29 @@
         <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>36</v>
@@ -1614,10 +1616,10 @@
         <v>48</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1625,25 +1627,25 @@
         <v>45962.74445758102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="6" t="s">
@@ -1659,10 +1661,10 @@
         <v>26</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1670,43 +1672,43 @@
         <v>45961.95201907407</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -1714,43 +1716,43 @@
         <v>45961.909583877314</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P11" s="10"/>
     </row>
@@ -1759,43 +1761,43 @@
         <v>45961.91270586806</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P12" s="10"/>
     </row>
@@ -1804,43 +1806,43 @@
         <v>45962.680467199076</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -1848,43 +1850,43 @@
         <v>45962.690968483796</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -1892,43 +1894,43 @@
         <v>45962.75772594908</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -1936,43 +1938,43 @@
         <v>45962.76769828703</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -1980,43 +1982,43 @@
         <v>45962.780607939814</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -2024,43 +2026,43 @@
         <v>45962.98225526621</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -2068,43 +2070,43 @@
         <v>45962.210738877315</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -2112,43 +2114,43 @@
         <v>45962.673469733796</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -2156,44 +2158,44 @@
         <v>45961.90485893519</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>35</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P21" s="19"/>
     </row>
@@ -8079,16 +8081,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>9</v>
@@ -8097,7 +8099,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M1" s="25" t="s">
         <v>8</v>
@@ -8106,7 +8108,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P1" s="26" t="s">
         <v>11</v>
@@ -8144,76 +8146,76 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>225</v>
-      </c>
       <c r="Q2" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W2" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="X2" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="X2" s="27" t="s">
-        <v>231</v>
-      </c>
       <c r="Y2" s="28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
@@ -8639,11 +8641,11 @@
       </c>
       <c r="D7" s="25" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>Metzl et al. (2024) </v>
+        <v>Metlz et al (2024)</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/89/2024/essd-16-89-2024-avatar-web.png</v>
+        <v>https://www.seanoe.org/data/00911/102337/illustration.gif</v>
       </c>
       <c r="F7" s="25" t="str">
         <f t="shared" ref="F7:G7" si="20">if(ISBLANK($C7), "", F$1)</f>
@@ -8655,7 +8657,7 @@
       </c>
       <c r="H7" s="25" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>Open ocean, Coastal</v>
+        <v>Open ocean, Coastal, Surface, Water column, Regional</v>
       </c>
       <c r="I7" s="25" t="str">
         <f t="shared" ref="I7:J7" si="21">if(ISBLANK($C7), "", I$1)</f>
@@ -8667,7 +8669,7 @@
       </c>
       <c r="K7" s="25" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>discrete</v>
+        <v>continuous, discrete</v>
       </c>
       <c r="L7" s="25" t="str">
         <f t="shared" ref="L7:M7" si="22">if(ISBLANK($C7), "", L$1)</f>
@@ -8691,7 +8693,7 @@
       </c>
       <c r="Q7" s="25" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>1993 - 2022</v>
+        <v>1993-2022</v>
       </c>
       <c r="R7" s="25" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$140,$A7,FALSE)</f>
@@ -8699,7 +8701,7 @@
       </c>
       <c r="S7" s="25" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>Metzl et al. (2024) </v>
+        <v>Metlz et al (2024)</v>
       </c>
       <c r="T7" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$140,$A7,FALSE)</f>
@@ -8707,7 +8709,7 @@
       </c>
       <c r="U7" s="29" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0285681.html</v>
+        <v>https://doi.org/10.17882/102337</v>
       </c>
       <c r="V7" s="25" t="str">
         <f t="shared" si="10"/>
@@ -8715,7 +8717,7 @@
       </c>
       <c r="W7" s="25" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>Metzl et al. (2024) aggregated over 44,400 measurements of DIC and TA from a series of research cruises and ships of opportunity across various oceanic regions from 1993-2022, under several French research programs, to create a product called “Service National d’Analyse des Paramètres Océaniques du CO2 (SNAPO-CO2)”. The majority of the samples were analyzed by the Service National d’Analyse des Paramètres Océaniques du CO2 (SNAPO-CO2) at the LOCEAN laboratory in Paris, France. Sampling was performed either from CTD-rosette casts (Niskin bottles) or collected from the ship’s flow-through system (intake at roughly 5m depth). </v>
+        <v>Synthesis of 44,400 measurements of DIC and TA from a series of research cruises and ships of opportunity across various oceanic regions from 1993-2022, from several French research programs, to create a product called “Service National d’Analyse des Paramètres Océaniques du CO2 (SNAPO-CO2)”. </v>
       </c>
       <c r="X7" s="25" t="str">
         <f t="shared" si="11"/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -214,7 +214,7 @@
     <t>SNAPO-CO2</t>
   </si>
   <si>
-    <t>Metlz et al (2024)</t>
+    <t>Metzl et al (2024)</t>
   </si>
   <si>
     <t>Metzl, N., Fin, J., Lo Monaco, C., Mignon, C., Alliouane, S., Antoine, D., Bourdin, G., Boutin, J., Bozec, Y., Conan, P., Coppola, L., Diaz, F., Douville, E., Durrieu de Madron, X., Gattuso, J.-P., Gazeau, F., Golbol, M., Lansard, B., Lefèvre, D., Lefèvre, N., Lombard, F., Louanchi, F., Merlivat, L., Olivier, L., Petrenko, A., Petton, S., Pujo-Pay, M., Rabouille, C., Reverdin, G., Ridame, C., Tribollet, A., Vellucci, V., Wagener, T., and Wimart-Rousseau, C.: A synthesis of ocean total alkalinity and dissolved inorganic carbon measurements from 1993 to 2022: the SNAPO-CO2-v1 dataset, Earth Syst. Sci. Data, 16, 89–120, https://doi.org/10.5194/essd-16-89-2024, 2024.</t>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="D7" s="25" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>Metlz et al (2024)</v>
+        <v>Metzl et al (2024)</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$140,$A7,FALSE)</f>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="S7" s="25" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$140,$A7,FALSE)</f>
-        <v>Metlz et al (2024)</v>
+        <v>Metzl et al (2024)</v>
       </c>
       <c r="T7" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$140,$A7,FALSE)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -787,60 +787,6 @@
     <t>Here, we make modifications to the transit time distribution approach for Canth estimation that render the method more accessible. We also release software (BRCScienceProducts, 2025) called “Tracer-based Rapid Anthropogenic Carbon Estimation version 1” (TRACEv1) that allows users – with one line of code – to obtain Canth and water mass age estimates throughout the global open ocean from user-supplied values of geographic location, pressure, salinity, temperature, and the estimate year. We use this code to generate a data product of global gridded open-ocean Canth distributions (TRACEv1_GGCanth; Carter, 2025) that ranges from the preindustrial era through 2500 under a range of Shared Socioeconomic Pathways (SSPs, or atmospheric CO2 concentration pathways). We estimated the skill of these estimates by reconstructing Canth in models with known distributions of Canth and transient tracers and by conducting perturbation tests. In the model-based reconstruction test, TRACEv1 reproduces the global ocean Canth inventory to within ±10 % in 1980 and 2014. We discuss implications and limitations of the projected Canth distributions and highlight ways that the estimation strategy might be improved. One finding is that the ocean will continue to increase its net Canth inventory at least through 2500 due to deep-ocean ventilation, even with the SSP in which intense mitigation successfully decreases atmospheric Canth by ∼60 % in 2500 relative to the 2024 concentration. A notable limitation of this and similar projections made with TRACEv1 is that ongoing and potential future warming and changing oceanic circulation patterns with climate change are not captured by the method. The data products generated by this research are available as MATLAB code (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025) and a spatially and temporally gridded data product (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025).</t>
   </si>
   <si>
-    <t>MPI-ULB-SOM-FFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2020) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-12-2537-2020</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </t>
-  </si>
-  <si>
-    <t>VLIZ-SOM-FFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2016) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/f242e604-e083-487f-88bd-ab5324b0b4ba/gbc20472-fig-0004-m.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/2015gb005359</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ ncei/ocads/metadata/0160558.html</t>
-  </si>
-  <si>
-    <t>Open ocean</t>
-  </si>
-  <si>
-    <t>1982 - 2025</t>
-  </si>
-  <si>
-    <t>Monthly gridded pCO2 from 1982 through near present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </t>
-  </si>
-  <si>
     <t>Preformed properties for marine organic matter and carbonate mineral cycling quantification</t>
   </si>
   <si>
@@ -865,6 +811,60 @@
   </si>
   <si>
     <t>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</t>
+  </si>
+  <si>
+    <t>MPI-ULB-SOM-FFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-12-2537-2020</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </t>
+  </si>
+  <si>
+    <t>VLIZ-SOM-FFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2016) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/f242e604-e083-487f-88bd-ab5324b0b4ba/gbc20472-fig-0004-m.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/2015gb005359</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ ncei/ocads/metadata/0160558.html</t>
+  </si>
+  <si>
+    <t>Open ocean</t>
+  </si>
+  <si>
+    <t>1982 - 2025</t>
+  </si>
+  <si>
+    <t>Monthly gridded pCO2 from 1982 through near present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </t>
   </si>
   <si>
     <t>fa-solid fa-globe</t>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>45964.856173356486</v>
+        <v>45964.861641446754</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>250</v>
@@ -2542,13 +2542,13 @@
         <v>255</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>36</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>45964.86003099537</v>
+        <v>45964.856173356486</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>97</v>
@@ -2582,64 +2582,64 @@
       <c r="G26" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="8" t="s">
         <v>263</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>154</v>
       </c>
       <c r="K26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="O26" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>45964.861641446754</v>
+        <v>45964.86003099537</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="G27" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="I27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="L27" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>274</v>
@@ -8486,9 +8486,9 @@
     <hyperlink r:id="rId72" ref="H25"/>
     <hyperlink r:id="rId73" ref="F26"/>
     <hyperlink r:id="rId74" ref="G26"/>
-    <hyperlink r:id="rId75" ref="F27"/>
-    <hyperlink r:id="rId76" ref="G27"/>
-    <hyperlink r:id="rId77" ref="H27"/>
+    <hyperlink r:id="rId75" ref="H26"/>
+    <hyperlink r:id="rId76" ref="F27"/>
+    <hyperlink r:id="rId77" ref="G27"/>
   </hyperlinks>
   <drawing r:id="rId78"/>
   <tableParts count="1">
@@ -11023,19 +11023,19 @@
       </c>
       <c r="B26" s="25" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Model-based</v>
       </c>
       <c r="C26" s="25" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>MPI-ULB-SOM-FFN</v>
+        <v>Preformed properties for marine organic matter and carbonate mineral cycling quantification</v>
       </c>
       <c r="D26" s="25" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>Landschützer et al. (2020) </v>
+        <v>Carter et al. (2021)</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/a70dc130-3967-4e0c-bab1-fa5967af0a63/gbc21075-fig-0003-m.jpg</v>
       </c>
       <c r="F26" s="25" t="str">
         <f t="shared" ref="F26:G26" si="96">if(ISBLANK($C26), "", F$1)</f>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="H26" s="25" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>Open ocean, Coastal, Surface</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I26" s="25" t="str">
         <f t="shared" ref="I26:J26" si="97">if(ISBLANK($C26), "", I$1)</f>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="K26" s="25" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>monthly, climatology</v>
+        <v>climatology</v>
       </c>
       <c r="L26" s="25" t="str">
         <f t="shared" ref="L26:M26" si="98">if(ISBLANK($C26), "", L$1)</f>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="N26" s="30" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>0.25° x 0.25°</v>
+        <v>1.0°</v>
       </c>
       <c r="O26" s="25" t="str">
         <f t="shared" ref="O26:P26" si="99">if(ISBLANK($C26), "", O$1)</f>
@@ -11087,19 +11087,21 @@
       </c>
       <c r="R26" s="25" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </v>
+        <v>
+We have updated global preformed biogeochemical property estimates and provided the estimates for analysis and model validation
+</v>
       </c>
       <c r="S26" s="25" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>Landschützer et al. (2020) </v>
+        <v>Carter et al. (2021)</v>
       </c>
       <c r="T26" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-12-2537-2020</v>
+        <v>https://zenodo.org/records/3745002</v>
       </c>
       <c r="U26" s="29" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</v>
+        <v>https://github.com/BRCScienceProducts/PreformedPropertyEstimates</v>
       </c>
       <c r="V26" s="25" t="str">
         <f t="shared" si="10"/>
@@ -11107,7 +11109,7 @@
       </c>
       <c r="W26" s="25" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </v>
+        <v>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</v>
       </c>
       <c r="X26" s="25" t="str">
         <f t="shared" si="11"/>
@@ -11115,7 +11117,7 @@
       </c>
       <c r="Y26" s="25" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </v>
+        <v>Carter, B. R., Feely, R. A., Lauvset, S. K., Olsen, A., DeVries, T., &amp; Sonnerup, R. (2021). Preformed properties for marine organic matter and carbonate mineral cycling quantification. Global Biogeochemical Cycles, 35(1), e2020GB006623.</v>
       </c>
     </row>
     <row r="27">
@@ -11128,15 +11130,15 @@
       </c>
       <c r="C27" s="25" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>VLIZ-SOM-FFN</v>
+        <v>MPI-ULB-SOM-FFN</v>
       </c>
       <c r="D27" s="25" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>Landschützer et al. (2016) </v>
+        <v>Landschützer et al. (2020) </v>
       </c>
       <c r="E27" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/f242e604-e083-487f-88bd-ab5324b0b4ba/gbc20472-fig-0004-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</v>
       </c>
       <c r="F27" s="25" t="str">
         <f t="shared" ref="F27:G27" si="100">if(ISBLANK($C27), "", F$1)</f>
@@ -11148,7 +11150,7 @@
       </c>
       <c r="H27" s="25" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>Open ocean</v>
+        <v>Open ocean, Coastal, Surface</v>
       </c>
       <c r="I27" s="25" t="str">
         <f t="shared" ref="I27:J27" si="101">if(ISBLANK($C27), "", I$1)</f>
@@ -11172,7 +11174,7 @@
       </c>
       <c r="N27" s="30" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>1° x 1°</v>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O27" s="25" t="str">
         <f t="shared" ref="O27:P27" si="103">if(ISBLANK($C27), "", O$1)</f>
@@ -11184,23 +11186,23 @@
       </c>
       <c r="Q27" s="25" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>1982 - 2025</v>
+        <v/>
       </c>
       <c r="R27" s="25" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>Monthly gridded pCO2 from 1982 through near present</v>
+        <v>Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </v>
       </c>
       <c r="S27" s="25" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>Landschützer et al. (2016) </v>
+        <v>Landschützer et al. (2020) </v>
       </c>
       <c r="T27" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>https://doi.org/10.1002/2015gb005359</v>
-      </c>
-      <c r="U27" s="25" t="str">
+        <v>https://doi.org/10.5194/essd-12-2537-2020</v>
+      </c>
+      <c r="U27" s="29" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ ncei/ocads/metadata/0160558.html</v>
+        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</v>
       </c>
       <c r="V27" s="25" t="str">
         <f t="shared" si="10"/>
@@ -11208,7 +11210,7 @@
       </c>
       <c r="W27" s="25" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </v>
+        <v>Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </v>
       </c>
       <c r="X27" s="25" t="str">
         <f t="shared" si="11"/>
@@ -11216,7 +11218,7 @@
       </c>
       <c r="Y27" s="25" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$146,$A27,FALSE)</f>
-        <v>Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </v>
+        <v>Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </v>
       </c>
     </row>
     <row r="28">
@@ -11225,19 +11227,19 @@
       </c>
       <c r="B28" s="25" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>Model-based</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C28" s="25" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>Preformed properties for marine organic matter and carbonate mineral cycling quantification</v>
+        <v>VLIZ-SOM-FFN</v>
       </c>
       <c r="D28" s="25" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>Carter et al. (2021)</v>
+        <v>Landschützer et al. (2016) </v>
       </c>
       <c r="E28" s="29" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/a70dc130-3967-4e0c-bab1-fa5967af0a63/gbc21075-fig-0003-m.jpg</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/f242e604-e083-487f-88bd-ab5324b0b4ba/gbc20472-fig-0004-m.jpg</v>
       </c>
       <c r="F28" s="25" t="str">
         <f t="shared" ref="F28:G28" si="104">if(ISBLANK($C28), "", F$1)</f>
@@ -11249,7 +11251,7 @@
       </c>
       <c r="H28" s="25" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean</v>
       </c>
       <c r="I28" s="25" t="str">
         <f t="shared" ref="I28:J28" si="105">if(ISBLANK($C28), "", I$1)</f>
@@ -11261,7 +11263,7 @@
       </c>
       <c r="K28" s="25" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>climatology</v>
+        <v>monthly, climatology</v>
       </c>
       <c r="L28" s="25" t="str">
         <f t="shared" ref="L28:M28" si="106">if(ISBLANK($C28), "", L$1)</f>
@@ -11273,7 +11275,7 @@
       </c>
       <c r="N28" s="30" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>1.0°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O28" s="25" t="str">
         <f t="shared" ref="O28:P28" si="107">if(ISBLANK($C28), "", O$1)</f>
@@ -11285,25 +11287,23 @@
       </c>
       <c r="Q28" s="25" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v/>
+        <v>1982 - 2025</v>
       </c>
       <c r="R28" s="25" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>
-We have updated global preformed biogeochemical property estimates and provided the estimates for analysis and model validation
-</v>
+        <v>Monthly gridded pCO2 from 1982 through near present</v>
       </c>
       <c r="S28" s="25" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>Carter et al. (2021)</v>
+        <v>Landschützer et al. (2016) </v>
       </c>
       <c r="T28" s="29" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>https://zenodo.org/records/3745002</v>
-      </c>
-      <c r="U28" s="29" t="str">
+        <v>https://doi.org/10.1002/2015gb005359</v>
+      </c>
+      <c r="U28" s="25" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>https://github.com/BRCScienceProducts/PreformedPropertyEstimates</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ ncei/ocads/metadata/0160558.html</v>
       </c>
       <c r="V28" s="25" t="str">
         <f t="shared" si="10"/>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="W28" s="25" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</v>
+        <v>Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </v>
       </c>
       <c r="X28" s="25" t="str">
         <f t="shared" si="11"/>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="Y28" s="25" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$146,$A28,FALSE)</f>
-        <v>Carter, B. R., Feely, R. A., Lauvset, S. K., Olsen, A., DeVries, T., &amp; Sonnerup, R. (2021). Preformed properties for marine organic matter and carbonate mineral cycling quantification. Global Biogeochemical Cycles, 35(1), e2020GB006623.</v>
+        <v>Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </v>
       </c>
     </row>
     <row r="29">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="296">
   <si>
     <t>Timestamp</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Data access status</t>
+  </si>
+  <si>
+    <t>Image URL status</t>
   </si>
   <si>
     <t>Data compilations</t>
@@ -772,7 +778,7 @@
     <t>1.0°</t>
   </si>
   <si>
-    <t>20 time points with variable spacing from preindustrial through 2500</t>
+    <t>irregular</t>
   </si>
   <si>
     <t>Open ocean, Surface, Water column</t>
@@ -1020,6 +1026,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1042,9 +1051,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1086,13 +1092,33 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
         </patternFill>
       </fill>
       <border/>
@@ -1153,10 +1179,10 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle count="4" pivot="0" name="google_form-style">
-      <tableStyleElement dxfId="2" type="headerRow"/>
-      <tableStyleElement dxfId="3" type="firstRowStripe"/>
-      <tableStyleElement dxfId="4" type="secondRowStripe"/>
-      <tableStyleElement dxfId="5" size="0" type="wholeTable"/>
+      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="5" type="firstRowStripe"/>
+      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+      <tableStyleElement dxfId="7" size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1171,8 +1197,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:P85" displayName="Form_Responses" name="Form_Responses" id="1">
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R85" displayName="Form_Responses" name="Form_Responses" id="1">
+  <tableColumns count="18">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Data category" id="2"/>
     <tableColumn name="Product name" id="3"/>
@@ -1189,6 +1215,8 @@
     <tableColumn name="Highlights" id="14"/>
     <tableColumn name="Description" id="15"/>
     <tableColumn name="Method" id="16"/>
+    <tableColumn name="Data access status" id="17"/>
+    <tableColumn name="Image URL status" id="18"/>
   </tableColumns>
   <tableStyleInfo name="google_form-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -1415,7 +1443,7 @@
     <col customWidth="1" min="13" max="13" width="15.0"/>
     <col customWidth="1" min="14" max="14" width="25.38"/>
     <col customWidth="1" min="15" max="15" width="27.5"/>
-    <col customWidth="1" min="16" max="21" width="18.88"/>
+    <col customWidth="1" min="16" max="20" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1467,8 +1495,12 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
@@ -1490,97 +1522,112 @@
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5">
         <v>45961.92452332176</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P2" s="10"/>
+      <c r="Q2" s="11">
+        <f t="shared" ref="Q2:Q27" si="1">getStatusCode(H2)</f>
+        <v>200</v>
+      </c>
+      <c r="R2" s="11">
+        <f t="shared" ref="R2:R27" si="2">getStatusCode(F2)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
         <v>45962.863408819445</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -1588,44 +1635,52 @@
         <v>45961.948028391205</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1633,44 +1688,52 @@
         <v>45962.71938206018</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
@@ -1678,43 +1741,51 @@
         <v>45964.64921225695</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -1722,44 +1793,52 @@
         <v>45962.03784055555</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1767,44 +1846,52 @@
         <v>45962.72461462963</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="Q8" s="11">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1812,44 +1899,52 @@
         <v>45962.74445758102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="I9" s="12"/>
       <c r="J9" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -1857,43 +1952,51 @@
         <v>45961.95201907407</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -1901,133 +2004,157 @@
         <v>45961.909583877314</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P11" s="10"/>
+      <c r="Q11" s="11">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
         <v>45961.91270586806</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P12" s="10"/>
+      <c r="Q12" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
         <v>45962.680467199076</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>136</v>
+        <v>37</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -2035,43 +2162,51 @@
         <v>45962.690968483796</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>145</v>
+        <v>37</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
@@ -2079,43 +2214,51 @@
         <v>45962.75772594908</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>155</v>
+        <v>37</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -2123,43 +2266,51 @@
         <v>45962.76769828703</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -2167,43 +2318,51 @@
         <v>45962.780607939814</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>176</v>
+        <v>48</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
@@ -2211,43 +2370,51 @@
         <v>45962.98225526621</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>185</v>
+        <v>48</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -2255,43 +2422,51 @@
         <v>45962.210738877315</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>194</v>
+        <v>48</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -2299,133 +2474,157 @@
         <v>45962.673469733796</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>205</v>
+      <c r="R20" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="14">
+      <c r="A21" s="15">
         <v>45961.90485893519</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="C21" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="F21" s="18" t="s">
         <v>212</v>
       </c>
+      <c r="G21" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="I21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="O21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="P21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R21" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
         <v>45964.74980144676</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="Q22" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R22" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -2433,43 +2632,51 @@
         <v>45964.77802197917</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>235</v>
+        <v>78</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="R23" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -2477,43 +2684,51 @@
         <v>45964.855968159725</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R24" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -2521,43 +2736,51 @@
         <v>45964.861641446754</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R25" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -2565,43 +2788,51 @@
         <v>45964.856173356486</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="Q26" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="R26" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -2609,1088 +2840,1212 @@
         <v>45964.86003099537</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
+      </c>
+      <c r="Q27" s="11">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+      <c r="R27" s="11">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="20"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="20"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="21"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="21"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="21"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="21"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="21"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="21"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="20"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="21"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
       <c r="I40" s="20"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="21"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
       <c r="L41" s="21"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="20"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
       <c r="L42" s="21"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
       <c r="L43" s="21"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="20"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
       <c r="L44" s="21"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="20"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
       <c r="L45" s="21"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="20"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="21"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
     </row>
     <row r="47">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
       <c r="I47" s="20"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
       <c r="L47" s="21"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
     </row>
     <row r="48">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="20"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
       <c r="L48" s="21"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
     </row>
     <row r="49">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
       <c r="I49" s="20"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
       <c r="L49" s="21"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
     </row>
     <row r="50">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
       <c r="I50" s="20"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
       <c r="L50" s="21"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
       <c r="I51" s="20"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
       <c r="L51" s="21"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
     </row>
     <row r="52">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
       <c r="I52" s="20"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
       <c r="L52" s="21"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
       <c r="I53" s="20"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
       <c r="L53" s="21"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
     </row>
     <row r="54">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
       <c r="I54" s="20"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
       <c r="L54" s="21"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
     </row>
     <row r="55">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="20"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
       <c r="L55" s="21"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
     </row>
     <row r="56">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="20"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
       <c r="L56" s="21"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
     </row>
     <row r="57">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
       <c r="I57" s="20"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
       <c r="L57" s="21"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
     </row>
     <row r="58">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
       <c r="I58" s="20"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
       <c r="L58" s="21"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
     </row>
     <row r="59">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="20"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
       <c r="L59" s="21"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
     </row>
     <row r="60">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="20"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
       <c r="L60" s="21"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
     </row>
     <row r="61">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
       <c r="I61" s="20"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
       <c r="L61" s="21"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
     </row>
     <row r="62">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
       <c r="I62" s="20"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="21"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
     </row>
     <row r="63">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
       <c r="I63" s="20"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
       <c r="L63" s="21"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
     </row>
     <row r="64">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
       <c r="I64" s="20"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
       <c r="L64" s="21"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
     </row>
     <row r="65">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
       <c r="I65" s="20"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
       <c r="L65" s="21"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
     </row>
     <row r="66">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="20"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
       <c r="L66" s="21"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
     </row>
     <row r="67">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
       <c r="I67" s="20"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
       <c r="L67" s="21"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
     </row>
     <row r="68">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
       <c r="I68" s="20"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
       <c r="L68" s="21"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
     </row>
     <row r="69">
-      <c r="A69" s="14"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
       <c r="I69" s="20"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
       <c r="L69" s="21"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
     </row>
     <row r="70">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
       <c r="I70" s="20"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
       <c r="L70" s="21"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
     </row>
     <row r="71">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
       <c r="I71" s="20"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
       <c r="L71" s="21"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
     </row>
     <row r="72">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
       <c r="I72" s="20"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
       <c r="L72" s="21"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
     </row>
     <row r="73">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
       <c r="I73" s="20"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
       <c r="L73" s="21"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
     </row>
     <row r="74">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
       <c r="I74" s="20"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
       <c r="L74" s="21"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
     </row>
     <row r="75">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
       <c r="I75" s="20"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
       <c r="L75" s="21"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
     </row>
     <row r="76">
-      <c r="A76" s="14"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
       <c r="I76" s="20"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
       <c r="L76" s="21"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
     </row>
     <row r="77">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
       <c r="I77" s="20"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
       <c r="L77" s="21"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
     </row>
     <row r="78">
-      <c r="A78" s="14"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
       <c r="I78" s="20"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
       <c r="L78" s="21"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
     </row>
     <row r="79">
-      <c r="A79" s="14"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
       <c r="I79" s="20"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
       <c r="L79" s="21"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
     </row>
     <row r="80">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
       <c r="I80" s="20"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
       <c r="L80" s="21"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
     </row>
     <row r="81">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
       <c r="I81" s="20"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
       <c r="L81" s="21"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
     </row>
     <row r="82">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
       <c r="I82" s="20"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
       <c r="L82" s="21"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
     </row>
     <row r="83">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
       <c r="I83" s="20"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
       <c r="L83" s="21"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
     </row>
     <row r="84">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
       <c r="I84" s="20"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
       <c r="L84" s="21"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
     </row>
     <row r="85">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
       <c r="I85" s="20"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
       <c r="L85" s="21"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
     </row>
     <row r="86">
       <c r="C86" s="23"/>
@@ -8406,6 +8761,21 @@
   <conditionalFormatting sqref="I28">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(I28))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:R27">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:R27">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>404</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:R27">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>302</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
@@ -8547,16 +8917,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>9</v>
@@ -8565,7 +8935,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M1" s="25" t="s">
         <v>8</v>
@@ -8574,7 +8944,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P1" s="26" t="s">
         <v>11</v>
@@ -8612,76 +8982,76 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>285</v>
-      </c>
       <c r="J2" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>285</v>
-      </c>
       <c r="M2" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N2" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>285</v>
-      </c>
       <c r="P2" s="27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Y2" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
@@ -10958,7 +11328,7 @@
       </c>
       <c r="K25" s="25" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$146,$A25,FALSE)</f>
-        <v>20 time points with variable spacing from preindustrial through 2500</v>
+        <v>irregular</v>
       </c>
       <c r="L25" s="25" t="str">
         <f t="shared" ref="L25:M25" si="94">if(ISBLANK($C25), "", L$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="295">
   <si>
     <t>Timestamp</t>
   </si>
@@ -709,7 +709,7 @@
     <t>https://data.nas.nasa.gov/ecco/</t>
   </si>
   <si>
-    <t>0.33°</t>
+    <t>0.33° x 0.33°</t>
   </si>
   <si>
     <t>daily, monthly</t>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>https://zenodo.org/records/15692788</t>
-  </si>
-  <si>
-    <t>1.0°</t>
   </si>
   <si>
     <t>irregular</t>
@@ -2704,23 +2701,23 @@
       <c r="H24" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="N24" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="Q24" s="11">
         <f t="shared" si="1"/>
@@ -2739,25 +2736,25 @@
         <v>218</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>246</v>
+      <c r="I25" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>177</v>
@@ -2769,10 +2766,10 @@
         <v>38</v>
       </c>
       <c r="N25" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="Q25" s="11">
         <f t="shared" si="1"/>
@@ -2791,22 +2788,22 @@
         <v>99</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>126</v>
@@ -2821,10 +2818,10 @@
         <v>38</v>
       </c>
       <c r="N26" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O26" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="Q26" s="11">
         <f t="shared" si="1"/>
@@ -2843,22 +2840,22 @@
         <v>99</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>106</v>
@@ -2867,16 +2864,16 @@
         <v>156</v>
       </c>
       <c r="K27" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="N27" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="Q27" s="11">
         <f t="shared" si="1"/>
@@ -8917,16 +8914,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>279</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>9</v>
@@ -8935,7 +8932,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M1" s="25" t="s">
         <v>8</v>
@@ -8944,7 +8941,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P1" s="26" t="s">
         <v>11</v>
@@ -8982,76 +8979,76 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="W2" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="W2" s="28" t="s">
-        <v>295</v>
-      </c>
       <c r="X2" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y2" s="28" t="s">
         <v>294</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="3">
@@ -11135,7 +11132,7 @@
       </c>
       <c r="N23" s="30" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$146,$A23,FALSE)</f>
-        <v>0.33°</v>
+        <v>0.33° x 0.33°</v>
       </c>
       <c r="O23" s="25" t="str">
         <f t="shared" ref="O23:P23" si="87">if(ISBLANK($C23), "", O$1)</f>
@@ -11340,7 +11337,7 @@
       </c>
       <c r="N25" s="30" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$146,$A25,FALSE)</f>
-        <v>1.0°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O25" s="25" t="str">
         <f t="shared" ref="O25:P25" si="95">if(ISBLANK($C25), "", O$1)</f>
@@ -11441,7 +11438,7 @@
       </c>
       <c r="N26" s="30" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$146,$A26,FALSE)</f>
-        <v>1.0°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O26" s="25" t="str">
         <f t="shared" ref="O26:P26" si="99">if(ISBLANK($C26), "", O$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1087,7 +1087,7 @@
     <t>https://doi.org/10.48670/moi-00047</t>
   </si>
   <si>
-    <t>1985 - 2021</t>
+    <t>1985 - 2025</t>
   </si>
   <si>
     <t>Yearly extension of time-series &amp; monthly reconstruction at low latency</t>
@@ -13385,7 +13385,7 @@
       </c>
       <c r="Q36" s="29" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$155,$A36,FALSE)</f>
-        <v>1985 - 2021</v>
+        <v>1985 - 2025</v>
       </c>
       <c r="R36" s="29" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$155,$A36,FALSE)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="380">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1103,9 +1103,6 @@
   </si>
   <si>
     <t>Lauvset, S. K., Key, R. M., Olsen, A., van Heuven, S., Velo, A., Lin, X., Schirnick, C., Kozyr, A., Tanhua, T., Hoppema, M., Jutterström, S., Steinfeldt, R., Jeansson, E., Ishii, M., Perez, F. F., Suzuki, T., and Watelet, S.: A new global interior ocean mapped climatology: The 1° × 1° GLODAP version 2, Earth System Science Data, 8(2), 325–340, https://doi.org/10.5194/essd-8-325-2016, 2016.</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Kai-Schulz/publication/375963014/figure/fig2/AS:11431281207364140@1701162588644/The-1-1-GLODAP-climatology-Lauvset-et-al-2016-for-surface-ocean-upper-30-m_W640.jpg</t>
   </si>
   <si>
     <t>https://doi.org/10.5194/essd-8-325-2016</t>
@@ -3657,13 +3654,13 @@
         <v>356</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>107</v>
@@ -3675,13 +3672,13 @@
         <v>49</v>
       </c>
       <c r="L36" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="O36" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>344</v>
@@ -3690,9 +3687,9 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="S36" s="23" t="str">
+      <c r="S36" s="23">
         <f t="shared" si="2"/>
-        <v>Error fetching image: Request failed for https://www.researchgate.net returned code 403. Truncated server response: error code: 1020 (use muteHttpExceptions option to examine full response)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9842,16 +9839,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>363</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>364</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>9</v>
@@ -9860,7 +9857,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M1" s="29" t="s">
         <v>8</v>
@@ -9869,7 +9866,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P1" s="30" t="s">
         <v>11</v>
@@ -9907,76 +9904,76 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="I2" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="I2" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="R2" s="31" t="s">
+      <c r="S2" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="T2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="U2" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="V2" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="W2" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="W2" s="32" t="s">
-        <v>380</v>
-      </c>
       <c r="X2" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y2" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -13438,7 +13435,7 @@
       </c>
       <c r="E37" s="33" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$155,$A37,FALSE)</f>
-        <v>https://www.researchgate.net/profile/Kai-Schulz/publication/375963014/figure/fig2/AS:11431281207364140@1701162588644/The-1-1-GLODAP-climatology-Lauvset-et-al-2016-for-surface-ocean-upper-30-m_W640.jpg</v>
+        <v>https://upload.wikimedia.org/wikipedia/commons/a/ac/No_image_available.svg</v>
       </c>
       <c r="F37" s="29" t="str">
         <f t="shared" ref="F37:G37" si="140">if(ISBLANK($C37), "", F$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1210,17 +1210,16 @@
     <t>Roobaert et al. (2024)</t>
   </si>
   <si>
-    <t>Roobaert, A.: Regnier, P., Landschützer, P., Laruelle, G. G.: A novel sea surface partial pressure of carbon dioxide (pCO2) data product for the global coastal ocean resolving trends over the 1982-2020 period (NCEI Accession 0279118), NOAA National Centers for Environmental Information, Dataset, https://doi.org/10.25921/4sde-p068, 2023.
-Roobaert, A., Regnier, P., Landschützer, P., and Laruelle, G. G.: A novel sea surface pCO2-product for the global coastal ocean resolving trends over 1982–2020, Earth System Science Data, 16(1), 421–441, https://doi.org/10.5194/essd-16-421-2024, 2024.</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0279118</t>
+    <t>Roobaert, A., Regnier, P., Landschützer, P., and Laruelle, G. G.: A novel sea surface pCO2-product for the global coastal ocean resolving trends over 1982–2020, Earth System Science Data, 16(1), 421–441, https://doi.org/10.5194/essd-16-421-2024, 2024.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/16/421/2024/essd-16-421-2024-f01-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-421-2024</t>
   </si>
   <si>
     <t>https://doi.org/10.25921/4sde-p068</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/iso?id=gov.noaa.nodc:0279118</t>
   </si>
   <si>
     <t>continuous, monthly</t>
@@ -3149,9 +3148,9 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
-      <c r="U22" s="11" t="str">
+      <c r="U22" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="2"/>
@@ -4170,13 +4169,13 @@
       <c r="P40" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="U40" s="24" t="str">
+      <c r="U40" s="24">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V40" s="24" t="str">
+        <v>302</v>
+      </c>
+      <c r="V40" s="24">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="41">
@@ -14512,7 +14511,7 @@
       </c>
       <c r="E41" s="36" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0279118</v>
+        <v>https://essd.copernicus.org/articles/16/421/2024/essd-16-421-2024-f01-web.png</v>
       </c>
       <c r="F41" s="32" t="str">
         <f t="shared" ref="F41:G41" si="156">if(ISBLANK($C41), "", F$1)</f>
@@ -14572,11 +14571,11 @@
       </c>
       <c r="T41" s="36" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>https://doi.org/10.25921/4sde-p068</v>
+        <v>https://doi.org/10.5194/essd-16-421-2024</v>
       </c>
       <c r="U41" s="36" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/iso?id=gov.noaa.nodc:0279118</v>
+        <v>https://doi.org/10.25921/4sde-p068</v>
       </c>
       <c r="V41" s="32" t="str">
         <f t="shared" si="10"/>
@@ -14592,8 +14591,7 @@
       </c>
       <c r="Y41" s="32" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Roobaert, A.: Regnier, P., Landschützer, P., Laruelle, G. G.: A novel sea surface partial pressure of carbon dioxide (pCO2) data product for the global coastal ocean resolving trends over the 1982-2020 period (NCEI Accession 0279118), NOAA National Centers for Environmental Information, Dataset, https://doi.org/10.25921/4sde-p068, 2023.
-Roobaert, A., Regnier, P., Landschützer, P., and Laruelle, G. G.: A novel sea surface pCO2-product for the global coastal ocean resolving trends over 1982–2020, Earth System Science Data, 16(1), 421–441, https://doi.org/10.5194/essd-16-421-2024, 2024.</v>
+        <v>Roobaert, A., Regnier, P., Landschützer, P., and Laruelle, G. G.: A novel sea surface pCO2-product for the global coastal ocean resolving trends over 1982–2020, Earth System Science Data, 16(1), 421–441, https://doi.org/10.5194/essd-16-421-2024, 2024.</v>
       </c>
     </row>
     <row r="42">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="google_form" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="web_formatted" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="web_formatted" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="419">
   <si>
     <t>Timestamp</t>
   </si>
@@ -118,10 +118,7 @@
     <t>https://socat.info/</t>
   </si>
   <si>
-    <t>continuous</t>
-  </si>
-  <si>
-    <t>Open ocean, Coastal, Surface</t>
+    <t>Open ocean, Coastal ocean, Surface</t>
   </si>
   <si>
     <t>1960 - 2025</t>
@@ -184,856 +181,859 @@
     <t>https://glodap.info/</t>
   </si>
   <si>
+    <t>Open ocean, Water column</t>
+  </si>
+  <si>
+    <t>1960 - 2024</t>
+  </si>
+  <si>
+    <t>Discrete bottle</t>
+  </si>
+  <si>
+    <t>Adjustments are applied by comparing data in the deep ocean (&gt;2000 m) using a crossover and inversion method as described by Johnson et al. (2001).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Global Ocean Data Analysis Project Version 2 (GLODAPv2) aggregates biogeochemical data collected from discrete bottle samples, offering extensive global coverage from the surface to depths (Key et al., 2015; Olsen et al., 2016; Lauvset et al., 2024). While GLODAP is primarily a product for basin-scale hydrographic data, it also includes coastal datasets and observations from a few time-series. The GLODAPv2 data product provides rigorously quality-controlled measurements for 14 essential oceanographic variables: temperature, salinity, dissolved oxygen (DO), nitrate, silicate, phosphate, DIC, TA, pH, chlorofluorocarbons (CFC-11, CFC-12, CFC-113), carbon tetrachloride (CCl4), and sulfur hexafluoride (SF6). These variables, excluding temperature, undergo both primary and secondary quality control procedures to detect outliers and adjust for significant measurement biases. GLODAPv2 was first published in 2016 and was updated annually through a living data process in Earth System Science Data from 2019 through “v2023,” which was published in 2024. For these updates, new data (including historical data not previously included in the data product) are quality controlled and adjusted to the 2016 version (Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024). Since the global repeat hydrography programs operate with decadal repetitions, the aim is to produce a completely new version of GLODAP, where all cruise datasets will be reevaluated, every decade. Release of the GLODAPv3 data product is planned for 2026, and is expected to evolve the secondary data quality control practices relative to those used in GLODAPv2. For more information on the secondary quality control process, refer to Tanhua et al. (2010) and Lauvset and Tanhua (2015). GLODAPv2 offers two kind of products: the collection of quality controlled data from discrete bottle samples taken at sampling location (Key et al., 2015; Olsen et al., 2016; Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024), and a gridded product, interpolated to a 1° × 1°  grid and the 33 standard depth levels of World Ocean Atlas (WOA) (Lauvset et al., 2016). </t>
+  </si>
+  <si>
+    <t>World Ocean Database</t>
+  </si>
+  <si>
+    <t>Mishonov et al. (2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mishonov, A. V., Boyer, T. P., Baranova, O. K., Bouchard, C. N., Cross, S. L., Garcia H. E., Locarnini, R. A., Paver, C. R., Wang, Z., Seidov, D., Grodsky, A. I., Beauchamp, J. G.: World Ocean Database 2023, C. Bouchard, Technical Ed., NOAA Atlas NESDIS 97, 206 pp., https://doi.org/10.25923/z885-h264, 2024. </t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/sites/g/files/anmtlf171/files/inline-images/World%20Ocean%20Atlas%202023%20Climatology%2C%20Decade%202015-2022.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25923/z885-h264</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/products/world-ocean-database</t>
+  </si>
+  <si>
+    <t>Similar to GLODAPv2, with no adjustments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </t>
+  </si>
+  <si>
+    <t>SNAPO-CO2</t>
+  </si>
+  <si>
+    <t>Metzl et al (2024)</t>
+  </si>
+  <si>
+    <t>Metzl, N., Fin, J., Lo Monaco, C., Mignon, C., Alliouane, S., Antoine, D., Bourdin, G., Boutin, J., Bozec, Y., Conan, P., Coppola, L., Diaz, F., Douville, E., Durrieu de Madron, X., Gattuso, J.-P., Gazeau, F., Golbol, M., Lansard, B., Lefèvre, D., Lefèvre, N., Lombard, F., Louanchi, F., Merlivat, L., Olivier, L., Petrenko, A., Petton, S., Pujo-Pay, M., Rabouille, C., Reverdin, G., Ridame, C., Tribollet, A., Vellucci, V., Wagener, T., and Wimart-Rousseau, C.: A synthesis of ocean total alkalinity and dissolved inorganic carbon measurements from 1993 to 2022: the SNAPO-CO2-v1 dataset, Earth Syst. Sci. Data, 16, 89–120, https://doi.org/10.5194/essd-16-89-2024, 2024.</t>
+  </si>
+  <si>
+    <t>https://www.seanoe.org/data/00911/102337/illustration.gif</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-89-2024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17882/102337</t>
+  </si>
+  <si>
+    <t>Open ocean, Coastal ocean, Surface, Water column, Regional</t>
+  </si>
+  <si>
+    <t>1993-2022</t>
+  </si>
+  <si>
+    <t>A compilation of cruises from multiple French initiatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthesis of 44,400 measurements of DIC and TA from a series of research cruises and ships of opportunity across various oceanic regions from 1993-2022, from several French research programs, to create a product called “Service National d’Analyse des Paramètres Océaniques du CO2 (SNAPO-CO2)”. </t>
+  </si>
+  <si>
+    <t>CODAP-NA</t>
+  </si>
+  <si>
+    <t>Jiang et al. (2021)</t>
+  </si>
+  <si>
+    <t>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-13-2777-2021</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</t>
+  </si>
+  <si>
+    <t>Coastal ocean, Water column</t>
+  </si>
+  <si>
+    <t>2003 - 2018</t>
+  </si>
+  <si>
+    <t>Like GLODAPv2, but for the North American coastal ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </t>
+  </si>
+  <si>
+    <t>Salish Sea Multi-stressor Data Product</t>
+  </si>
+  <si>
+    <t>Alin et al. (2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alin, S. R., Newton, J. A., Feely, R. A., Greeley, D., Curry, B., Herndon, J., and Warner, M.: A decade-long cruise time series (2008–2018) of physical and biogeochemical conditions in the southern Salish Sea, North America, Earth Syst. Sci. Data, 16, 837–865, https://doi.org/10.5194/essd-16-837-2024, 2024. </t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/16/837/2024/essd-16-837-2024-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-837-2024</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/SalishCruise_DataPackage.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data compilation and multi-stressor (OA, hypoxia, temperature) data product based on cruises from 2002 to 2018 in the southern Salish Sea and Washington coast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alin et al. (2024a) compiled data from 35 individual cruise data sets that sampled marine waters of the southern Salish Sea and northern Washington coast (United States) from 2008 to 2018. Ongoing seasonal sampling occurred during April, July, and September for Puget Sound cruises has occurred since 2014 and most frequently during May and October for Sound-to-Sea cruises, which sample from Puget Sound through the Strait of Juan de Fuca to the northern Washington coast. The Salish cruise data package contains observations from a total of 715 oceanographic profiles, with &gt; 7490 sensor measurements of temperature, salinity, and DO; ≥ 6070 measurements of discrete DO and nutrient (nitrate, phosphate, silicate, ammonium, nitrite) samples; and ≥ 4462 measurements of inorganic carbonate system variables (DIC and TA). A follow-on data product based on the Salish cruise data package, which only included the 3971 samples with complete information for temperature, salinity, DO, nutrients, DIC, and TA, is also available (Alin et al., 2023). This product additionally provides the most commonly used calculated carbonate system variables: pH (total scale), fCO2, pCO2, Ωarag, and Ωcalc. </t>
+  </si>
+  <si>
+    <t>Time series</t>
+  </si>
+  <si>
+    <t>pCO2 and pH Time-series from 40 Surface Buoys</t>
+  </si>
+  <si>
+    <t>Sutton et al. (2019)</t>
+  </si>
+  <si>
+    <t>Sutton, A. J., Feely, R. A., Maenner-Jones, S., Musielwicz, S., Osborne, J., Dietrich, C., Monacci, N., Cross, J., Bott, R., Kozyr, A., Andersson, A. J., Bates, N. R., Cai, W.-J., Cronin, M. F., De Carlo, E. H., Hales, B., Howden, S. D., Lee, C. M., Manzello, D. P., McPhaden, M. J., Meléndez, M., Mickett, J. B., Newton, J. A., Noakes, S. E., Noh, J. H., Olafsdottir, S. R., Salisbury, J. E., Send, U., Trull, T. W., Vandemark, D. C., and Weller, R. A.: Autonomous seawater pCO2 and pH time series from 40 surface buoys and the emergence of anthropogenic trends, Earth Syst. Sci. Data, 11, 421–439, https://doi.org/10.5194/essd-11-421-2019, 2019.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/11/421/2019/essd-11-421-2019-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-11-421-2019</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0173932.html</t>
+  </si>
+  <si>
+    <t>Based on 40 moored surface pCO2 time-series, with 17 of them containing pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutton et al. (2019) established a living dataset comprising 40 individual autonomous moored surface ocean pCO2 time-series established between 2004 and 2013, 17 of them also include autonomous pH measurements. These time-series characterize a wide range of surface ocean carbonate system conditions, across a variety of environments, including 17 oceanic and 13 coastal locations, as well as 10 coral reefs. </t>
+  </si>
+  <si>
+    <t>Gridded surface</t>
+  </si>
+  <si>
+    <t>CSIR-ML6</t>
+  </si>
+  <si>
+    <t>Gregor et al. (2019)</t>
+  </si>
+  <si>
+    <t>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</t>
+  </si>
+  <si>
+    <t>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/gmd-12-5113-2019</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206205.html</t>
+  </si>
+  <si>
+    <t>1° x 1°</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>1982 - 2020</t>
+  </si>
+  <si>
+    <t>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</t>
+  </si>
+  <si>
+    <t>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</t>
+  </si>
+  <si>
+    <t>gregorl@ethz.ch</t>
+  </si>
+  <si>
+    <t>OceanSODA-ETHZv1</t>
+  </si>
+  <si>
+    <t>Gregor and Gruber (2021)</t>
+  </si>
+  <si>
+    <t>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-13-777-2021</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0220059.html</t>
+  </si>
+  <si>
+    <t>1982 - 2022</t>
+  </si>
+  <si>
+    <t>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</t>
+  </si>
+  <si>
+    <t>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</t>
+  </si>
+  <si>
+    <t>OceanSODA-ETHZv2</t>
+  </si>
+  <si>
+    <t>Gregor et al. (2024)</t>
+  </si>
+  <si>
+    <t>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2024GB008127</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/11206366</t>
+  </si>
+  <si>
+    <t>0.25° x 0.25°</t>
+  </si>
+  <si>
+    <t>8-day</t>
+  </si>
+  <si>
+    <t>1982 - 2023</t>
+  </si>
+  <si>
+    <t>Highlighting fine-scale and short-term variability of the ocean carbon sink</t>
+  </si>
+  <si>
+    <t>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</t>
+  </si>
+  <si>
+    <t>Surface pH and Revelle Factor</t>
+  </si>
+  <si>
+    <t>Jiang et al. (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </t>
+  </si>
+  <si>
+    <t>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-019-55039-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </t>
+  </si>
+  <si>
+    <t>decadal, climatology</t>
+  </si>
+  <si>
+    <t>1770 - 2100</t>
+  </si>
+  <si>
+    <t>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface OA Indicators </t>
+  </si>
+  <si>
+    <t>Jiang et al. (2023)</t>
+  </si>
+  <si>
+    <t>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2022MS003563</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</t>
+  </si>
+  <si>
+    <t>1750 - 2100</t>
+  </si>
+  <si>
+    <t>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </t>
+  </si>
+  <si>
+    <t>AOML-ET</t>
+  </si>
+  <si>
+    <t>Wanninkhof et al. (2015)</t>
+  </si>
+  <si>
+    <t>Wanninkhof, R., Triñanes, J., Pierrot, D., Munro, D. R., Sweeney, C., and Fay, A. R.: Trends in sea-air CO2 fluxes and sensitivities to atmospheric forcing using an extremely randomized trees machine learning approach, Global Biogeochemical Cycles, 39, https://doi.org/10.1029/2024GB008315, 2025.</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0235/0298989/2.2/about/0298989_preview.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2024GB008315</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0298989.html</t>
+  </si>
+  <si>
+    <t>monthly, climatology</t>
+  </si>
+  <si>
+    <t>1998 - 2023</t>
+  </si>
+  <si>
+    <t>Monthly global sea-air CO2 flux maps in modern era</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanninkhof et al. (2025) developed a monthly global ocean data product of seawater pCO2 and sea-air CO2 fluxes, referred to as AOML-ET, using an extremely randomized trees (ET) machine learning technique. These maps are created on 1° × 1° spatial grids, providing global surface ocean coverages from 1998 to 2023. AOML-ET incorporates several predictor variables, including time, location, SST, SSS, MLD, and chlorophyll-a. The model was trained using the v2020 and v2023 releases of the SOCAT data product (No. 1). Sea-air CO2 fluxes were calculated using the air-sea CO2 partial pressure difference (∆pCO2) and a bulk gas transfer formulation incorporating windspeed. </t>
+  </si>
+  <si>
+    <t>Gridded Surface OA Indicators in the Northern Caribbean Sea</t>
+  </si>
+  <si>
+    <t>Wanninkhof et al. (2020)</t>
+  </si>
+  <si>
+    <t>Wanninkhof, R., Pierrot, D., Sullivan, K., Barbero, L., and Triñanes, J.: A 17-year dataset of surface water fugacity of CO2 along with calculated pH, aragonite saturation state and air–sea CO2 fluxes in the northern Caribbean Sea, Earth Syst. Sci. Data, 12, 1489–1509, https://doi.org/10.5194/essd-12-1489-2020, 2020.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/12/1489/2020/essd-12-1489-2020-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-12-1489-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0207749.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal ocean </t>
+  </si>
+  <si>
+    <t>2002 - 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 17-year record of  fCO2, TA, pH, Ωarag, and air-sea CO2 flux in the Caribbean Sea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dataset contains a high-quality dataset of derived products from over a million observations of surface water partial pressure/fugacity of carbon dioxide (pCO2w/fCO2w), for the Caribbean Sea, Gulf of Mexico/Gulf of America and North-West Atlantic Ocean covering the timespan from 2002-01-01 to 2019-12-30. The derived quantities include TA, acidity (pH), Ωarag and air-sea CO2 flux (Wanninkhof et al., 2020). </t>
+  </si>
+  <si>
+    <t>Gridded subsurface</t>
+  </si>
+  <si>
+    <t>Acidification Metrics in the Ocean Interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fassbender et al. (2023) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fassbender, A. J., Carter, B. R., Sharp, J. D., Huang, Y., Arroyo, M. C., and Frenzel, H.: Amplified subsurface signals of ocean acidification, Global Biogeochemical Cycles, 37, e2023GB007843, https://doi.org/10.1029/2023GB007843, 2023. </t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0227/0290073/1.1/about/0290073_preview.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023GB007843</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0290073.html</t>
+  </si>
+  <si>
+    <t>climatology</t>
+  </si>
+  <si>
+    <t>1850 - 2002</t>
+  </si>
+  <si>
+    <t>Metrics of acidification in the ocean interior (to 2000 m) and the component of those changes caused by carbonate system nonlinearities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </t>
+  </si>
+  <si>
+    <t>Anthropogenic CO2 from 1994 to 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruber et al. (2019) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruber, N., Clement, D., Carter, B. R., Feely, R. A., van Heuven, S., Hoppema, M., Ishii, M., Key, R. M., Kozyr, A., Lauvset, S. K., Lo Monaco, C., Mathis, J. T., Murata, A., Olsen, A., Perez, F. F., Sabine, C. L., Tanhua, T., and Wanninkhof, R.: The oceanic sink for anthropogenic CO2 from 1994 to 2007, Science, 363(6432), 1193–1199, https://doi.org/10.1126/science.aau5153, 2019. </t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0132/0186034/1.1/about/0186034_preview.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/science.aau5153</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0186034.html</t>
+  </si>
+  <si>
+    <t>1994 - 2007</t>
+  </si>
+  <si>
+    <t>The oceanic sink for anthropogenic CO2 over the period 1994 to 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruber et al. (2019a) estimated the decadal time-scale changes in the oceanic content of anthropogenic CO2 (∆Cant) between 1994 to 2007. The results were derived from the GLODAPv2.2016 product (Olsen et al., 2016), utilizing the eMLR(C*) methodology pioneered by Clement and Gruber (2018). The product is combined with the estimated amount of Cant for 1994 derived by Sabine et al. (2004) from GLODAPv1 to infer Cant for 2007. </t>
+  </si>
+  <si>
+    <t>Aragonite Climatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2015) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/2015GB005198</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </t>
+  </si>
+  <si>
+    <t>CODAP-NA Climatology</t>
+  </si>
+  <si>
+    <t>Jiang et al. (2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-3383-2024</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>The first discrete bottle based climatology in the North American ocean margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </t>
+  </si>
+  <si>
+    <t>Harmonized</t>
+  </si>
+  <si>
+    <t>SeaFlux</t>
+  </si>
+  <si>
+    <t>Fay and Gregor et al. (2021)</t>
+  </si>
+  <si>
+    <t>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</t>
+  </si>
+  <si>
+    <t>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-2021-16</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8280457</t>
+  </si>
+  <si>
+    <t>1990 - 2022</t>
+  </si>
+  <si>
+    <t>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</t>
+  </si>
+  <si>
+    <t>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</t>
+  </si>
+  <si>
+    <t>Model-based</t>
+  </si>
+  <si>
+    <t>ECCO-Darwin</t>
+  </si>
+  <si>
+    <t>Carroll et al. (2020)</t>
+  </si>
+  <si>
+    <t>Carroll, D., Menemenlis, D., Adkins, J. F., Bowman, K. W., Brix, H., &amp; Dutkiewicz, S., et al. (2020). The ECCO-Darwin data-assimilative global ocean biogeochemistry model: Estimates of seasonal to multidecadal surface ocean pCO2 and air-sea CO2 flux. Journal of Advances in Modeling Earth Systems, 12, e2019MS001888. https://doi.org/10.1029/2019MS001888</t>
+  </si>
+  <si>
+    <t>https://ecco-group.org/images/ecco_rotator01.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10627664</t>
+  </si>
+  <si>
+    <t>https://data.nas.nasa.gov/ecco/</t>
+  </si>
+  <si>
+    <t>0.33° x 0.33°</t>
+  </si>
+  <si>
+    <t>daily, monthly</t>
+  </si>
+  <si>
+    <t>Open ocean, Coastal ocean, Surface, Water column</t>
+  </si>
+  <si>
+    <t>1992 - 2018</t>
+  </si>
+  <si>
+    <t>Model-data synthesis product based on the Estimating the Circulation and Climate of the Ocean (ECCO) ocean state estimate. Fully-closed, physically-consistent 3-D biogeochemical budgets.</t>
+  </si>
+  <si>
+    <t>Carroll et al. (2022) used the Estimating the Circulation and Climate of the Ocean-Darwin (ECCO-Darwin) global-ocean biogeochemistry state estimate to generate a data-constrained DIC budget and investigate how spatiotemporal variability in advection and mixing, air-sea CO2 flux, and the biological pump have modulated the ocean sink for 1995–2018. ECCO-Darwin assimilates ocean circulation and physical tracers, including temperature, salinity, and sea ice, derived from the Estimating the Circulation and Climate of the Ocean (ECCO) LLC270 global-ocean and sea-ice data synthesis (Zhang et al., 2018). Additionally, it assimilates biogeochemical observations encompassing the cycling of carbon, nitrogen, phosphorus (PO 4 ), iron (Fe), silica (SiO 2 ), DO, and TA. This inclusive approach enhances the model’s fidelity by aligning it with a diverse array of observations. All ECCO-Darwin model output is available on the ECCO Data Portal: https://data.nas.nasa.gov/ecco/. The model code and platform-independent instructions for running ECCO-Darwin simulations can be found at: https://github.com/MITgcm-contrib/ecco_darwin.</t>
+  </si>
+  <si>
+    <t>Marine Inorganic Carbonate Chemistry in the Northern Gulf of Alaska</t>
+  </si>
+  <si>
+    <t>Monacci et al. (2024)</t>
+  </si>
+  <si>
+    <t>Monacci, N. M., Cross, J. N., Evans, W., Mathis, J. T., and Wang, H.: A decade of marine inorganic carbon chemistry observations in the northern Gulf of Alaska – insights into an environment in transition, Earth Syst. Sci. Data, 16, 647–665, https://doi.org/10.5194/essd-16-647-2024, 2024.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/16/647/2024/essd-16-647-2024-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-647-2024</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277034.html</t>
+  </si>
+  <si>
     <t>discrete</t>
   </si>
   <si>
-    <t>Open ocean, Water column</t>
-  </si>
-  <si>
-    <t>1960 - 2024</t>
-  </si>
-  <si>
-    <t>Discrete bottle</t>
-  </si>
-  <si>
-    <t>Adjustments are applied by comparing data in the deep ocean (&gt;2000 m) using a crossover and inversion method as described by Johnson et al. (2001).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Global Ocean Data Analysis Project Version 2 (GLODAPv2) aggregates biogeochemical data collected from discrete bottle samples, offering extensive global coverage from the surface to depths (Key et al., 2015; Olsen et al., 2016; Lauvset et al., 2024). While GLODAP is primarily a product for basin-scale hydrographic data, it also includes coastal datasets and observations from a few time-series. The GLODAPv2 data product provides rigorously quality-controlled measurements for 14 essential oceanographic variables: temperature, salinity, dissolved oxygen (DO), nitrate, silicate, phosphate, DIC, TA, pH, chlorofluorocarbons (CFC-11, CFC-12, CFC-113), carbon tetrachloride (CCl4), and sulfur hexafluoride (SF6). These variables, excluding temperature, undergo both primary and secondary quality control procedures to detect outliers and adjust for significant measurement biases. GLODAPv2 was first published in 2016 and was updated annually through a living data process in Earth System Science Data from 2019 through “v2023,” which was published in 2024. For these updates, new data (including historical data not previously included in the data product) are quality controlled and adjusted to the 2016 version (Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024). Since the global repeat hydrography programs operate with decadal repetitions, the aim is to produce a completely new version of GLODAP, where all cruise datasets will be reevaluated, every decade. Release of the GLODAPv3 data product is planned for 2026, and is expected to evolve the secondary data quality control practices relative to those used in GLODAPv2. For more information on the secondary quality control process, refer to Tanhua et al. (2010) and Lauvset and Tanhua (2015). GLODAPv2 offers two kind of products: the collection of quality controlled data from discrete bottle samples taken at sampling location (Key et al., 2015; Olsen et al., 2016; Olsen et al., 2019; Olsen et al., 2020; Lauvset et al., 2021; Lauvset et al., 2022; Lauvset et al., 2024), and a gridded product, interpolated to a 1° × 1°  grid and the 33 standard depth levels of World Ocean Atlas (WOA) (Lauvset et al., 2016). </t>
-  </si>
-  <si>
-    <t>World Ocean Database</t>
-  </si>
-  <si>
-    <t>Mishonov et al. (2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mishonov, A. V., Boyer, T. P., Baranova, O. K., Bouchard, C. N., Cross, S. L., Garcia H. E., Locarnini, R. A., Paver, C. R., Wang, Z., Seidov, D., Grodsky, A. I., Beauchamp, J. G.: World Ocean Database 2023, C. Bouchard, Technical Ed., NOAA Atlas NESDIS 97, 206 pp., https://doi.org/10.25923/z885-h264, 2024. </t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/sites/g/files/anmtlf171/files/inline-images/World%20Ocean%20Atlas%202023%20Climatology%2C%20Decade%202015-2022.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25923/z885-h264</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/products/world-ocean-database</t>
-  </si>
-  <si>
-    <t>Similar to GLODAPv2, with no adjustments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In addition to the GLODAPv2 and JOA Suite, users can also access historical and recent original biogeochemical data collected from discrete bottle samples in a uniform format and units, along with their originator quality control (QC) flags, through the World Ocean Database (WOD) (Mishonov et al., 2024). Like the JOA Suite, these measured data remain unaltered. The WOD allows users to filter and subset data with specific variables, platforms, institutions, projects, regions, or time periods (Garcia et al., 2024). Users can visualize sampling locations on a “distribution plot” and access a cruise list for all selected data and variables. Users also have the option of exporting data in NetCDF or Comma-Separated Values (CSV) formats. Additionally, all data in the WOD are reproducible and traceable to their original data sources archived at NOAA’s National Centers for Environmental Information (NCEI). </t>
-  </si>
-  <si>
-    <t>SNAPO-CO2</t>
-  </si>
-  <si>
-    <t>Metzl et al (2024)</t>
-  </si>
-  <si>
-    <t>Metzl, N., Fin, J., Lo Monaco, C., Mignon, C., Alliouane, S., Antoine, D., Bourdin, G., Boutin, J., Bozec, Y., Conan, P., Coppola, L., Diaz, F., Douville, E., Durrieu de Madron, X., Gattuso, J.-P., Gazeau, F., Golbol, M., Lansard, B., Lefèvre, D., Lefèvre, N., Lombard, F., Louanchi, F., Merlivat, L., Olivier, L., Petrenko, A., Petton, S., Pujo-Pay, M., Rabouille, C., Reverdin, G., Ridame, C., Tribollet, A., Vellucci, V., Wagener, T., and Wimart-Rousseau, C.: A synthesis of ocean total alkalinity and dissolved inorganic carbon measurements from 1993 to 2022: the SNAPO-CO2-v1 dataset, Earth Syst. Sci. Data, 16, 89–120, https://doi.org/10.5194/essd-16-89-2024, 2024.</t>
-  </si>
-  <si>
-    <t>https://www.seanoe.org/data/00911/102337/illustration.gif</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-16-89-2024</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17882/102337</t>
+    <t>2008 - 2017</t>
+  </si>
+  <si>
+    <t>A synthesis of twenty cruises from 2008 to 2017 on the Gulf of Alaska (GAK) Line</t>
+  </si>
+  <si>
+    <t>Monacci et al. (2023) compiled a data product of discrete seawater samples collected each May and September over a 10-year period from 2008 to 2017 along the long-term hydrographic line in the Gulf of Alaska (GAK Line). Samples were collected from a sampling rosette on a profiling CTD. Data variables include profiled seawater temperature, salinity, and DO. Discrete sample variables include DO (i.e., Winkler titrations), macronutrients (nitrate, nitrite, phosphate, silicic acid), DIC, and TA. All carbonate system variables were analyzed at the Ocean Acidification Research Center (OARC) at the University of Alaska Fairbanks (UAF). The repeat hydrographic cruises were funded by the Alaska Ocean Observing System (AOOS), the Exxon Valdez Oil Spill Trustee Council (EVOS), Gulf Watch Alaska, and the North Pacific Research Board (NPRB) and were mostly conducted aboard the United States Fish and Wildlife Service (USFWS) R/V Tiĝlax̂.</t>
+  </si>
+  <si>
+    <t>Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE) gridded Canth</t>
+  </si>
+  <si>
+    <t>Carter et al. (2025)</t>
+  </si>
+  <si>
+    <t>Carter, B. R., Schwinger, J., Sonnerup, R., Fassbender, A. J., Sharp, J. D., Dias, L. M., &amp; Sandborn, D. E. (2025). Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE). Earth System Science Data, 17(6), 3073-3088.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/17/3073/2025/essd-17-3073-2025-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-17-3073-2025</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15692788</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>Open ocean, Surface, Water column</t>
+  </si>
+  <si>
+    <t>1750-2500</t>
+  </si>
+  <si>
+    <t>New methods for rapidly estimating anthropogenic carbon from temperature, salinity, and date are presented.  The methods are then used with SSPs to estimate anthropogenic carbon in the ocean globally from 1750 to 2500.</t>
+  </si>
+  <si>
+    <t>Here, we make modifications to the transit time distribution approach for Canth estimation that render the method more accessible. We also release software (BRCScienceProducts, 2025) called “Tracer-based Rapid Anthropogenic Carbon Estimation version 1” (TRACEv1) that allows users – with one line of code – to obtain Canth and water mass age estimates throughout the global open ocean from user-supplied values of geographic location, pressure, salinity, temperature, and the estimate year. We use this code to generate a data product of global gridded open-ocean Canth distributions (TRACEv1_GGCanth; Carter, 2025) that ranges from the preindustrial era through 2500 under a range of Shared Socioeconomic Pathways (SSPs, or atmospheric CO2 concentration pathways). We estimated the skill of these estimates by reconstructing Canth in models with known distributions of Canth and transient tracers and by conducting perturbation tests. In the model-based reconstruction test, TRACEv1 reproduces the global ocean Canth inventory to within ±10 % in 1980 and 2014. We discuss implications and limitations of the projected Canth distributions and highlight ways that the estimation strategy might be improved. One finding is that the ocean will continue to increase its net Canth inventory at least through 2500 due to deep-ocean ventilation, even with the SSP in which intense mitigation successfully decreases atmospheric Canth by ∼60 % in 2500 relative to the 2024 concentration. A notable limitation of this and similar projections made with TRACEv1 is that ongoing and potential future warming and changing oceanic circulation patterns with climate change are not captured by the method. The data products generated by this research are available as MATLAB code (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025) and a spatially and temporally gridded data product (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025).</t>
+  </si>
+  <si>
+    <t>Preformed properties for marine organic matter and carbonate mineral cycling quantification</t>
+  </si>
+  <si>
+    <t>Carter et al. (2021)</t>
+  </si>
+  <si>
+    <t>Carter, B. R., Feely, R. A., Lauvset, S. K., Olsen, A., DeVries, T., &amp; Sonnerup, R. (2021). Preformed properties for marine organic matter and carbonate mineral cycling quantification. Global Biogeochemical Cycles, 35(1), e2020GB006623.</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/a70dc130-3967-4e0c-bab1-fa5967af0a63/gbc21075-fig-0003-m.jpg</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/3745002</t>
+  </si>
+  <si>
+    <t>https://github.com/BRCScienceProducts/PreformedPropertyEstimates</t>
+  </si>
+  <si>
+    <t>We have updated global preformed biogeochemical property estimates and provided the estimates for analysis and model validation</t>
+  </si>
+  <si>
+    <t>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</t>
+  </si>
+  <si>
+    <t>MPI-ULB-SOM-FFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-12-2537-2020</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </t>
+  </si>
+  <si>
+    <t>VLIZ-SOM-FFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2016) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0105/0160558/8.8/about/0160558_preview.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/2015gb005359</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160558.html</t>
+  </si>
+  <si>
+    <t>Open ocean</t>
+  </si>
+  <si>
+    <t>1982 - 2025</t>
+  </si>
+  <si>
+    <t>Monthly gridded pCO2 from 1982 through near present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </t>
+  </si>
+  <si>
+    <t>RFR-LME</t>
+  </si>
+  <si>
+    <t>Sharp et al. (2024)</t>
+  </si>
+  <si>
+    <t>Sharp, J. D., Jiang, L.-Q., Carter, B. R., Lavin, P. D., Yoo, H., and Cross, S. L., 2024. A mapped dataset of surface ocean acidification indicators in large marine ecosystems of the United States, Sci. Data, 11, 715,  https://doi.org/10.1038/s41597-024-03530-7.</t>
+  </si>
+  <si>
+    <t>https://media.springernature.com/full/springer-static/image/art%3A10.1038%2Fs41597-024-03530-7/MediaObjects/41597_2024_3530_Fig4_HTML.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/h8vw-e872</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0287551.html</t>
+  </si>
+  <si>
+    <t>Coastal ocean, Surface, Regional</t>
+  </si>
+  <si>
+    <t>1998 - 2024</t>
+  </si>
+  <si>
+    <t>Temporal trends of OA indicators and estimated uncertainties across 11 U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024.</t>
+  </si>
+  <si>
+    <t>A data product delineating the temporal trends of ocean acidification indicators mapped on a 0.25°× 0.25° spatial grid, across eleven U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024. The method combines Gaussian Mixture Models to categorize the data into environmentally similar subregions, Random Forest Regressions (RFRs) for the spatial and temporal extrapolation of observational fCO2 data, and regressions to estimate total alkalinity (Carter et al. 2021) to provide a second carbonate system constraint for the computation of multiple ocean acidification indicators.</t>
+  </si>
+  <si>
+    <t>MOBO-DIC (Version 2020)</t>
+  </si>
+  <si>
+    <t>Keppler et al., 2020</t>
+  </si>
+  <si>
+    <t>Keppler, L., Landschützer, P., Gruber, N., Lauvset, S. K., and Stemmler, I.: Seasonal carbon dynamics in the near-global ocean, Global Biogeochemical Cycles, 34(12), e2020GB006571, https://doi.org/10.1029/2020GB006571, 2020.</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/Moby.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2020GB006571</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/ndp104.html</t>
+  </si>
+  <si>
+    <t>Seasonal variability of DIC in the interior ocean from surface to 2000 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keppler et al. (2020) produced a global interior ocean DIC monthly climatology (average climatological values for January through December) on a 1° × 1° grid at 33 standardized depth levels from the surface to 2000 m. </t>
+  </si>
+  <si>
+    <t>lydi@vy-carb.com</t>
+  </si>
+  <si>
+    <t>MOBO-DIC (Version 2023)</t>
+  </si>
+  <si>
+    <t>Keppler et al. (2023)</t>
+  </si>
+  <si>
+    <t>Keppler, L., Landschützer, P., Lauvset, S. K., and Gruber, N.: Recent trends and variability in the oceanic storage of dissolved inorganic carbon, Global Biogeochemical Cycles, 37(5), https://doi.org/10.1029/2022gb007677, 2023.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2022gb007677</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277099.html</t>
+  </si>
+  <si>
+    <t>2004-2020</t>
+  </si>
+  <si>
+    <t>Temporal trends and interannual variability of DIC in the interior ocean from surface to 1500 m</t>
+  </si>
+  <si>
+    <t>Keppler et al. (2023) extended the temporal resolution of MOBO-DIC to resolve monthly fields from January 2004 to December 2019, as opposed to the average climatological values in Keppler et al. (2020).</t>
+  </si>
+  <si>
+    <t>lydi@vycarb.com</t>
+  </si>
+  <si>
+    <t>UoEX-Watson</t>
+  </si>
+  <si>
+    <t>Watson et al (2020)</t>
+  </si>
+  <si>
+    <t>Watson, A. J., Schuster, U., Shutler, J. D., Holding, T., Ashton, I. G., Landschützer, P., Woolf, D., and Goddijn-Murphy, L.: Revised estimates of ocean-atmosphere CO2 flux are consistent with ocean carbon inventory, Nature Communications, 11(1), 1–6, https://doi.org/10.1038/s41467-020-18203-3, 2020.</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0301544.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/2dp5-xm29</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/data/0301544/</t>
+  </si>
+  <si>
+    <t>1985-2019</t>
+  </si>
+  <si>
+    <t>Air-sea fluxes of CO2 with adjusted skin temperature effect</t>
+  </si>
+  <si>
+    <t>This is a gridded estimate of the atmosphere-ocean flux of CO2.  It takes into account near-surface temperature and salinity deviations due to the surface "skin effect", and small deviations in temperature caused by sampling below the actual surface of the ocean, which most estimates ignore. The result is a substantially larger estimate of net flux into the ocean than most other products. Apart from the surface correction, the SOM-FFN neural net interpolation method developed by Landschutzer et al is followed.</t>
+  </si>
+  <si>
+    <t>andrew.watson@exeter.ac.uk</t>
+  </si>
+  <si>
+    <t>Point B Time-series</t>
+  </si>
+  <si>
+    <t>Kapsenberg et al. (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapsenberg, L., Alliouane, S., Gazeau, F., Mousseau, L., and Gattuso, J.-P.: Coastal ocean acidification and increasing total alkalinity in the northwestern Mediterranean Sea, Ocean Sci., 13, 411–426, https://doi.org/10.5194/os-13-411-2017, 2017.  </t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/a/ac/No_image_available.svg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/os-13-411-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1594/PANGAEA.727120 </t>
+  </si>
+  <si>
+    <t>Coastal ocean</t>
+  </si>
+  <si>
+    <t>Carbonate chemistry at a coastal site of the Bay of Villefranche, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Point B Time-series documents the carbonate chemistry at a coastal site of the Bay of Villefranche (43.686200N 7.314800E) in Villefranche-sur-mer, France, northwestern Mediterranean Sea. Since January 2007, seawater is sampled weekly at 1 and 50 m, and analyzed for DIC and TA. Salinity and temperature are extracted from CTD profiles. Variables of the carbonate system such as pH (total scale) are calculated using the R package seacarb. </t>
+  </si>
+  <si>
+    <t>liqing.jiang@noaa.gov</t>
+  </si>
+  <si>
+    <t>Ny-Ålesund Time-series</t>
+  </si>
+  <si>
+    <t>Gattuso et al. (2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gattuso, J.-P., Alliouane, S., and Fischer, P.: High-frequency, year-round time series of the carbonate chemistry in a high-Arctic fjord (Svalbard), Earth Syst. Sci. Data, 15, 2809–2825, https://doi.org/10.5194/essd-15-2809-2023, 2023. </t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/15/2809/2023/essd-15-2809-2023-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-15-2809-2023</t>
+  </si>
+  <si>
+    <t>https://doi.org//10.1594/PANGAEA.957028</t>
   </si>
   <si>
     <t>continuous, discrete</t>
-  </si>
-  <si>
-    <t>Open ocean, Coastal, Surface, Water column, Regional</t>
-  </si>
-  <si>
-    <t>1993-2022</t>
-  </si>
-  <si>
-    <t>A compilation of cruises from multiple French initiatives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthesis of 44,400 measurements of DIC and TA from a series of research cruises and ships of opportunity across various oceanic regions from 1993-2022, from several French research programs, to create a product called “Service National d’Analyse des Paramètres Océaniques du CO2 (SNAPO-CO2)”. </t>
-  </si>
-  <si>
-    <t>CODAP-NA</t>
-  </si>
-  <si>
-    <t>Jiang et al. (2021)</t>
-  </si>
-  <si>
-    <t>Jiang, L.-Q., Feely, R. A., Wanninkhof, R., Greeley, D., Barbero, L., Alin, S., Carter, B. R., Pierrot, D., Featherstone, C., Hooper, J., Melrose, C., Monacci, N., Sharp, J. D., Shellito, S., Xu, Y.-Y., Kozyr, A., Byrne, R. H., Cai, W.-J., Cross, J., Johnson, G. C., Hales, B., Langdon, C., Mathis, J., Salisbury, J., and Townsend, D. W.: Coastal Ocean Data Analysis Product in North America (CODAP-NA) – an internally consistent data product for discrete inorganic carbon, oxygen, and nutrients on the North American ocean margins, Earth Syst. Sci. Data, 13, 2777–2799, https://doi.org/10.5194/essd-13-2777-2021, 2021.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/13/2777/2021/essd-13-2777-2021-f01-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-13-2777-2021</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0219960.html</t>
-  </si>
-  <si>
-    <t>Coastal, Water column</t>
-  </si>
-  <si>
-    <t>2003 - 2018</t>
-  </si>
-  <si>
-    <t>Like GLODAPv2, but for the North American coastal ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </t>
-  </si>
-  <si>
-    <t>Salish Sea Multi-stressor Data Product</t>
-  </si>
-  <si>
-    <t>Alin et al. (2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alin, S. R., Newton, J. A., Feely, R. A., Greeley, D., Curry, B., Herndon, J., and Warner, M.: A decade-long cruise time series (2008–2018) of physical and biogeochemical conditions in the southern Salish Sea, North America, Earth Syst. Sci. Data, 16, 837–865, https://doi.org/10.5194/essd-16-837-2024, 2024. </t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/16/837/2024/essd-16-837-2024-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-16-837-2024</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/SalishCruise_DataPackage.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A data compilation and multi-stressor (OA, hypoxia, temperature) data product based on cruises from 2002 to 2018 in the southern Salish Sea and Washington coast. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alin et al. (2024a) compiled data from 35 individual cruise data sets that sampled marine waters of the southern Salish Sea and northern Washington coast (United States) from 2008 to 2018. Ongoing seasonal sampling occurred during April, July, and September for Puget Sound cruises has occurred since 2014 and most frequently during May and October for Sound-to-Sea cruises, which sample from Puget Sound through the Strait of Juan de Fuca to the northern Washington coast. The Salish cruise data package contains observations from a total of 715 oceanographic profiles, with &gt; 7490 sensor measurements of temperature, salinity, and DO; ≥ 6070 measurements of discrete DO and nutrient (nitrate, phosphate, silicate, ammonium, nitrite) samples; and ≥ 4462 measurements of inorganic carbonate system variables (DIC and TA). A follow-on data product based on the Salish cruise data package, which only included the 3971 samples with complete information for temperature, salinity, DO, nutrients, DIC, and TA, is also available (Alin et al., 2023). This product additionally provides the most commonly used calculated carbonate system variables: pH (total scale), fCO2, pCO2, Ωarag, and Ωcalc. </t>
-  </si>
-  <si>
-    <t>Time series</t>
-  </si>
-  <si>
-    <t>pCO2 and pH Time-series from 40 Surface Buoys</t>
-  </si>
-  <si>
-    <t>Sutton et al. (2019)</t>
-  </si>
-  <si>
-    <t>Sutton, A. J., Feely, R. A., Maenner-Jones, S., Musielwicz, S., Osborne, J., Dietrich, C., Monacci, N., Cross, J., Bott, R., Kozyr, A., Andersson, A. J., Bates, N. R., Cai, W.-J., Cronin, M. F., De Carlo, E. H., Hales, B., Howden, S. D., Lee, C. M., Manzello, D. P., McPhaden, M. J., Meléndez, M., Mickett, J. B., Newton, J. A., Noakes, S. E., Noh, J. H., Olafsdottir, S. R., Salisbury, J. E., Send, U., Trull, T. W., Vandemark, D. C., and Weller, R. A.: Autonomous seawater pCO2 and pH time series from 40 surface buoys and the emergence of anthropogenic trends, Earth Syst. Sci. Data, 11, 421–439, https://doi.org/10.5194/essd-11-421-2019, 2019.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/11/421/2019/essd-11-421-2019-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-11-421-2019</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0173932.html</t>
-  </si>
-  <si>
-    <t>Based on 40 moored surface pCO2 time-series, with 17 of them containing pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sutton et al. (2019) established a living dataset comprising 40 individual autonomous moored surface ocean pCO2 time-series established between 2004 and 2013, 17 of them also include autonomous pH measurements. These time-series characterize a wide range of surface ocean carbonate system conditions, across a variety of environments, including 17 oceanic and 13 coastal locations, as well as 10 coral reefs. </t>
-  </si>
-  <si>
-    <t>Gridded surface</t>
-  </si>
-  <si>
-    <t>CSIR-ML6</t>
-  </si>
-  <si>
-    <t>Gregor et al. (2019)</t>
-  </si>
-  <si>
-    <t>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</t>
-  </si>
-  <si>
-    <t>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/gmd-12-5113-2019</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206205.html</t>
-  </si>
-  <si>
-    <t>1° x 1°</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>1982 - 2020</t>
-  </si>
-  <si>
-    <t>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</t>
-  </si>
-  <si>
-    <t>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</t>
-  </si>
-  <si>
-    <t>gregorl@ethz.ch</t>
-  </si>
-  <si>
-    <t>OceanSODA-ETHZv1</t>
-  </si>
-  <si>
-    <t>Gregor and Gruber (2021)</t>
-  </si>
-  <si>
-    <t>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-13-777-2021</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0220059.html</t>
-  </si>
-  <si>
-    <t>1982 - 2022</t>
-  </si>
-  <si>
-    <t>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</t>
-  </si>
-  <si>
-    <t>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</t>
-  </si>
-  <si>
-    <t>OceanSODA-ETHZv2</t>
-  </si>
-  <si>
-    <t>Gregor et al. (2024)</t>
-  </si>
-  <si>
-    <t>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2024GB008127</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/11206366</t>
-  </si>
-  <si>
-    <t>0.25° x 0.25°</t>
-  </si>
-  <si>
-    <t>8-day</t>
-  </si>
-  <si>
-    <t>1982 - 2023</t>
-  </si>
-  <si>
-    <t>Highlighting fine-scale and short-term variability of the ocean carbon sink</t>
-  </si>
-  <si>
-    <t>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</t>
-  </si>
-  <si>
-    <t>Surface pH and Revelle Factor</t>
-  </si>
-  <si>
-    <t>Jiang et al. (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </t>
-  </si>
-  <si>
-    <t>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-019-55039-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </t>
-  </si>
-  <si>
-    <t>decadal, climatology</t>
-  </si>
-  <si>
-    <t>1770 - 2100</t>
-  </si>
-  <si>
-    <t>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface OA Indicators </t>
-  </si>
-  <si>
-    <t>Jiang et al. (2023)</t>
-  </si>
-  <si>
-    <t>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2022MS003563</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</t>
-  </si>
-  <si>
-    <t>1750 - 2100</t>
-  </si>
-  <si>
-    <t>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </t>
-  </si>
-  <si>
-    <t>AOML-ET</t>
-  </si>
-  <si>
-    <t>Wanninkhof et al. (2015)</t>
-  </si>
-  <si>
-    <t>Wanninkhof, R., Triñanes, J., Pierrot, D., Munro, D. R., Sweeney, C., and Fay, A. R.: Trends in sea-air CO2 fluxes and sensitivities to atmospheric forcing using an extremely randomized trees machine learning approach, Global Biogeochemical Cycles, 39, https://doi.org/10.1029/2024GB008315, 2025.</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0235/0298989/2.2/about/0298989_preview.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2024GB008315</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0298989.html</t>
-  </si>
-  <si>
-    <t>monthly, climatology</t>
-  </si>
-  <si>
-    <t>1998 - 2023</t>
-  </si>
-  <si>
-    <t>Monthly global sea-air CO2 flux maps in modern era</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanninkhof et al. (2025) developed a monthly global ocean data product of seawater pCO2 and sea-air CO2 fluxes, referred to as AOML-ET, using an extremely randomized trees (ET) machine learning technique. These maps are created on 1° × 1° spatial grids, providing global surface ocean coverages from 1998 to 2023. AOML-ET incorporates several predictor variables, including time, location, SST, SSS, MLD, and chlorophyll-a. The model was trained using the v2020 and v2023 releases of the SOCAT data product (No. 1). Sea-air CO2 fluxes were calculated using the air-sea CO2 partial pressure difference (∆pCO2) and a bulk gas transfer formulation incorporating windspeed. </t>
-  </si>
-  <si>
-    <t>Gridded Surface OA Indicators in the Northern Caribbean Sea</t>
-  </si>
-  <si>
-    <t>Wanninkhof et al. (2020)</t>
-  </si>
-  <si>
-    <t>Wanninkhof, R., Pierrot, D., Sullivan, K., Barbero, L., and Triñanes, J.: A 17-year dataset of surface water fugacity of CO2 along with calculated pH, aragonite saturation state and air–sea CO2 fluxes in the northern Caribbean Sea, Earth Syst. Sci. Data, 12, 1489–1509, https://doi.org/10.5194/essd-12-1489-2020, 2020.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/12/1489/2020/essd-12-1489-2020-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-12-1489-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0207749.html </t>
-  </si>
-  <si>
-    <t>Coastal</t>
-  </si>
-  <si>
-    <t>2002 - 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A 17-year record of  fCO2, TA, pH, Ωarag, and air-sea CO2 flux in the Caribbean Sea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dataset contains a high-quality dataset of derived products from over a million observations of surface water partial pressure/fugacity of carbon dioxide (pCO2w/fCO2w), for the Caribbean Sea, Gulf of Mexico/Gulf of America and North-West Atlantic Ocean covering the timespan from 2002-01-01 to 2019-12-30. The derived quantities include TA, acidity (pH), Ωarag and air-sea CO2 flux (Wanninkhof et al., 2020). </t>
-  </si>
-  <si>
-    <t>Gridded subsurface</t>
-  </si>
-  <si>
-    <t>Acidification Metrics in the Ocean Interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fassbender et al. (2023) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fassbender, A. J., Carter, B. R., Sharp, J. D., Huang, Y., Arroyo, M. C., and Frenzel, H.: Amplified subsurface signals of ocean acidification, Global Biogeochemical Cycles, 37, e2023GB007843, https://doi.org/10.1029/2023GB007843, 2023. </t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0227/0290073/1.1/about/0290073_preview.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2023GB007843</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0290073.html</t>
-  </si>
-  <si>
-    <t>climatology</t>
-  </si>
-  <si>
-    <t>1850 - 2002</t>
-  </si>
-  <si>
-    <t>Metrics of acidification in the ocean interior (to 2000 m) and the component of those changes caused by carbonate system nonlinearities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </t>
-  </si>
-  <si>
-    <t>Anthropogenic CO2 from 1994 to 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruber et al. (2019) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruber, N., Clement, D., Carter, B. R., Feely, R. A., van Heuven, S., Hoppema, M., Ishii, M., Key, R. M., Kozyr, A., Lauvset, S. K., Lo Monaco, C., Mathis, J. T., Murata, A., Olsen, A., Perez, F. F., Sabine, C. L., Tanhua, T., and Wanninkhof, R.: The oceanic sink for anthropogenic CO2 from 1994 to 2007, Science, 363(6432), 1193–1199, https://doi.org/10.1126/science.aau5153, 2019. </t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0132/0186034/1.1/about/0186034_preview.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1126/science.aau5153</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0186034.html</t>
-  </si>
-  <si>
-    <t>1994 - 2007</t>
-  </si>
-  <si>
-    <t>The oceanic sink for anthropogenic CO2 over the period 1994 to 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruber et al. (2019a) estimated the decadal time-scale changes in the oceanic content of anthropogenic CO2 (∆Cant) between 1994 to 2007. The results were derived from the GLODAPv2.2016 product (Olsen et al., 2016), utilizing the eMLR(C*) methodology pioneered by Clement and Gruber (2018). The product is combined with the estimated amount of Cant for 1994 derived by Sabine et al. (2004) from GLODAPv1 to infer Cant for 2007. </t>
-  </si>
-  <si>
-    <t>Aragonite Climatology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2015) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/2015GB005198</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </t>
-  </si>
-  <si>
-    <t>CODAP-NA Climatology</t>
-  </si>
-  <si>
-    <t>Jiang et al. (2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-16-3383-2024</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>The first discrete bottle based climatology in the North American ocean margins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </t>
-  </si>
-  <si>
-    <t>Harmonized</t>
-  </si>
-  <si>
-    <t>SeaFlux</t>
-  </si>
-  <si>
-    <t>Fay and Gregor et al. (2021)</t>
-  </si>
-  <si>
-    <t>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</t>
-  </si>
-  <si>
-    <t>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-2021-16</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/8280457</t>
-  </si>
-  <si>
-    <t>1990 - 2022</t>
-  </si>
-  <si>
-    <t>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</t>
-  </si>
-  <si>
-    <t>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</t>
-  </si>
-  <si>
-    <t>Model-based</t>
-  </si>
-  <si>
-    <t>ECCO-Darwin</t>
-  </si>
-  <si>
-    <t>Carroll et al. (2020)</t>
-  </si>
-  <si>
-    <t>Carroll, D., Menemenlis, D., Adkins, J. F., Bowman, K. W., Brix, H., &amp; Dutkiewicz, S., et al. (2020). The ECCO-Darwin data-assimilative global ocean biogeochemistry model: Estimates of seasonal to multidecadal surface ocean pCO2 and air-sea CO2 flux. Journal of Advances in Modeling Earth Systems, 12, e2019MS001888. https://doi.org/10.1029/2019MS001888</t>
-  </si>
-  <si>
-    <t>https://ecco-group.org/images/ecco_rotator01.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.10627664</t>
-  </si>
-  <si>
-    <t>https://data.nas.nasa.gov/ecco/</t>
-  </si>
-  <si>
-    <t>0.33° x 0.33°</t>
-  </si>
-  <si>
-    <t>daily, monthly</t>
-  </si>
-  <si>
-    <t>Open ocean, Coastal, Surface, Water column</t>
-  </si>
-  <si>
-    <t>1992 - 2018</t>
-  </si>
-  <si>
-    <t>Model-data synthesis product based on the Estimating the Circulation and Climate of the Ocean (ECCO) ocean state estimate. Fully-closed, physically-consistent 3-D biogeochemical budgets.</t>
-  </si>
-  <si>
-    <t>Carroll et al. (2022) used the Estimating the Circulation and Climate of the Ocean-Darwin (ECCO-Darwin) global-ocean biogeochemistry state estimate to generate a data-constrained DIC budget and investigate how spatiotemporal variability in advection and mixing, air-sea CO2 flux, and the biological pump have modulated the ocean sink for 1995–2018. ECCO-Darwin assimilates ocean circulation and physical tracers, including temperature, salinity, and sea ice, derived from the Estimating the Circulation and Climate of the Ocean (ECCO) LLC270 global-ocean and sea-ice data synthesis (Zhang et al., 2018). Additionally, it assimilates biogeochemical observations encompassing the cycling of carbon, nitrogen, phosphorus (PO 4 ), iron (Fe), silica (SiO 2 ), DO, and TA. This inclusive approach enhances the model’s fidelity by aligning it with a diverse array of observations. All ECCO-Darwin model output is available on the ECCO Data Portal: https://data.nas.nasa.gov/ecco/. The model code and platform-independent instructions for running ECCO-Darwin simulations can be found at: https://github.com/MITgcm-contrib/ecco_darwin.</t>
-  </si>
-  <si>
-    <t>Marine Inorganic Carbonate Chemistry in the Northern Gulf of Alaska</t>
-  </si>
-  <si>
-    <t>Monacci et al. (2024)</t>
-  </si>
-  <si>
-    <t>Monacci, N. M., Cross, J. N., Evans, W., Mathis, J. T., and Wang, H.: A decade of marine inorganic carbon chemistry observations in the northern Gulf of Alaska – insights into an environment in transition, Earth Syst. Sci. Data, 16, 647–665, https://doi.org/10.5194/essd-16-647-2024, 2024.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/16/647/2024/essd-16-647-2024-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-16-647-2024</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277034.html</t>
-  </si>
-  <si>
-    <t>2008 - 2017</t>
-  </si>
-  <si>
-    <t>A synthesis of twenty cruises from 2008 to 2017 on the Gulf of Alaska (GAK) Line</t>
-  </si>
-  <si>
-    <t>Monacci et al. (2023) compiled a data product of discrete seawater samples collected each May and September over a 10-year period from 2008 to 2017 along the long-term hydrographic line in the Gulf of Alaska (GAK Line). Samples were collected from a sampling rosette on a profiling CTD. Data variables include profiled seawater temperature, salinity, and DO. Discrete sample variables include DO (i.e., Winkler titrations), macronutrients (nitrate, nitrite, phosphate, silicic acid), DIC, and TA. All carbonate system variables were analyzed at the Ocean Acidification Research Center (OARC) at the University of Alaska Fairbanks (UAF). The repeat hydrographic cruises were funded by the Alaska Ocean Observing System (AOOS), the Exxon Valdez Oil Spill Trustee Council (EVOS), Gulf Watch Alaska, and the North Pacific Research Board (NPRB) and were mostly conducted aboard the United States Fish and Wildlife Service (USFWS) R/V Tiĝlax̂.</t>
-  </si>
-  <si>
-    <t>Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE) gridded Canth</t>
-  </si>
-  <si>
-    <t>Carter et al. (2025)</t>
-  </si>
-  <si>
-    <t>Carter, B. R., Schwinger, J., Sonnerup, R., Fassbender, A. J., Sharp, J. D., Dias, L. M., &amp; Sandborn, D. E. (2025). Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE). Earth System Science Data, 17(6), 3073-3088.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/17/3073/2025/essd-17-3073-2025-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-17-3073-2025</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/15692788</t>
-  </si>
-  <si>
-    <t>irregular</t>
-  </si>
-  <si>
-    <t>Open ocean, Surface, Water column</t>
-  </si>
-  <si>
-    <t>1750-2500</t>
-  </si>
-  <si>
-    <t>New methods for rapidly estimating anthropogenic carbon from temperature, salinity, and date are presented.  The methods are then used with SSPs to estimate anthropogenic carbon in the ocean globally from 1750 to 2500.</t>
-  </si>
-  <si>
-    <t>Here, we make modifications to the transit time distribution approach for Canth estimation that render the method more accessible. We also release software (BRCScienceProducts, 2025) called “Tracer-based Rapid Anthropogenic Carbon Estimation version 1” (TRACEv1) that allows users – with one line of code – to obtain Canth and water mass age estimates throughout the global open ocean from user-supplied values of geographic location, pressure, salinity, temperature, and the estimate year. We use this code to generate a data product of global gridded open-ocean Canth distributions (TRACEv1_GGCanth; Carter, 2025) that ranges from the preindustrial era through 2500 under a range of Shared Socioeconomic Pathways (SSPs, or atmospheric CO2 concentration pathways). We estimated the skill of these estimates by reconstructing Canth in models with known distributions of Canth and transient tracers and by conducting perturbation tests. In the model-based reconstruction test, TRACEv1 reproduces the global ocean Canth inventory to within ±10 % in 1980 and 2014. We discuss implications and limitations of the projected Canth distributions and highlight ways that the estimation strategy might be improved. One finding is that the ocean will continue to increase its net Canth inventory at least through 2500 due to deep-ocean ventilation, even with the SSP in which intense mitigation successfully decreases atmospheric Canth by ∼60 % in 2500 relative to the 2024 concentration. A notable limitation of this and similar projections made with TRACEv1 is that ongoing and potential future warming and changing oceanic circulation patterns with climate change are not captured by the method. The data products generated by this research are available as MATLAB code (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025) and a spatially and temporally gridded data product (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025).</t>
-  </si>
-  <si>
-    <t>Preformed properties for marine organic matter and carbonate mineral cycling quantification</t>
-  </si>
-  <si>
-    <t>Carter et al. (2021)</t>
-  </si>
-  <si>
-    <t>Carter, B. R., Feely, R. A., Lauvset, S. K., Olsen, A., DeVries, T., &amp; Sonnerup, R. (2021). Preformed properties for marine organic matter and carbonate mineral cycling quantification. Global Biogeochemical Cycles, 35(1), e2020GB006623.</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/a70dc130-3967-4e0c-bab1-fa5967af0a63/gbc21075-fig-0003-m.jpg</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/3745002</t>
-  </si>
-  <si>
-    <t>https://github.com/BRCScienceProducts/PreformedPropertyEstimates</t>
-  </si>
-  <si>
-    <t>We have updated global preformed biogeochemical property estimates and provided the estimates for analysis and model validation</t>
-  </si>
-  <si>
-    <t>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</t>
-  </si>
-  <si>
-    <t>MPI-ULB-SOM-FFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2020) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-12-2537-2020</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </t>
-  </si>
-  <si>
-    <t>VLIZ-SOM-FFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2016) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0105/0160558/8.8/about/0160558_preview.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/2015gb005359</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160558.html</t>
-  </si>
-  <si>
-    <t>Open ocean</t>
-  </si>
-  <si>
-    <t>1982 - 2025</t>
-  </si>
-  <si>
-    <t>Monthly gridded pCO2 from 1982 through near present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </t>
-  </si>
-  <si>
-    <t>RFR-LME</t>
-  </si>
-  <si>
-    <t>Sharp et al. (2024)</t>
-  </si>
-  <si>
-    <t>Sharp, J. D., Jiang, L.-Q., Carter, B. R., Lavin, P. D., Yoo, H., and Cross, S. L., 2024. A mapped dataset of surface ocean acidification indicators in large marine ecosystems of the United States, Sci. Data, 11, 715,  https://doi.org/10.1038/s41597-024-03530-7.</t>
-  </si>
-  <si>
-    <t>https://media.springernature.com/full/springer-static/image/art%3A10.1038%2Fs41597-024-03530-7/MediaObjects/41597_2024_3530_Fig4_HTML.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25921/h8vw-e872</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0287551.html</t>
-  </si>
-  <si>
-    <t>Coastal, Surface, Regional</t>
-  </si>
-  <si>
-    <t>1998 - 2024</t>
-  </si>
-  <si>
-    <t>Temporal trends of OA indicators and estimated uncertainties across 11 U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024.</t>
-  </si>
-  <si>
-    <t>A data product delineating the temporal trends of ocean acidification indicators mapped on a 0.25°× 0.25° spatial grid, across eleven U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024. The method combines Gaussian Mixture Models to categorize the data into environmentally similar subregions, Random Forest Regressions (RFRs) for the spatial and temporal extrapolation of observational fCO2 data, and regressions to estimate total alkalinity (Carter et al. 2021) to provide a second carbonate system constraint for the computation of multiple ocean acidification indicators.</t>
-  </si>
-  <si>
-    <t>MOBO-DIC (Version 2020)</t>
-  </si>
-  <si>
-    <t>Keppler et al., 2020</t>
-  </si>
-  <si>
-    <t>Keppler, L., Landschützer, P., Gruber, N., Lauvset, S. K., and Stemmler, I.: Seasonal carbon dynamics in the near-global ocean, Global Biogeochemical Cycles, 34(12), e2020GB006571, https://doi.org/10.1029/2020GB006571, 2020.</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/Moby.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2020GB006571</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/ndp104.html</t>
-  </si>
-  <si>
-    <t>Seasonal variability of DIC in the interior ocean from surface to 2000 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keppler et al. (2020) produced a global interior ocean DIC monthly climatology (average climatological values for January through December) on a 1° × 1° grid at 33 standardized depth levels from the surface to 2000 m. </t>
-  </si>
-  <si>
-    <t>lydi@vy-carb.com</t>
-  </si>
-  <si>
-    <t>MOBO-DIC (Version 2023)</t>
-  </si>
-  <si>
-    <t>Keppler et al. (2023)</t>
-  </si>
-  <si>
-    <t>Keppler, L., Landschützer, P., Lauvset, S. K., and Gruber, N.: Recent trends and variability in the oceanic storage of dissolved inorganic carbon, Global Biogeochemical Cycles, 37(5), https://doi.org/10.1029/2022gb007677, 2023.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2022gb007677</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277099.html</t>
-  </si>
-  <si>
-    <t>2004-2020</t>
-  </si>
-  <si>
-    <t>Temporal trends and interannual variability of DIC in the interior ocean from surface to 1500 m</t>
-  </si>
-  <si>
-    <t>Keppler et al. (2023) extended the temporal resolution of MOBO-DIC to resolve monthly fields from January 2004 to December 2019, as opposed to the average climatological values in Keppler et al. (2020).</t>
-  </si>
-  <si>
-    <t>lydi@vycarb.com</t>
-  </si>
-  <si>
-    <t>UoEX-Watson</t>
-  </si>
-  <si>
-    <t>Watson et al (2020)</t>
-  </si>
-  <si>
-    <t>Watson, A. J., Schuster, U., Shutler, J. D., Holding, T., Ashton, I. G., Landschützer, P., Woolf, D., and Goddijn-Murphy, L.: Revised estimates of ocean-atmosphere CO2 flux are consistent with ocean carbon inventory, Nature Communications, 11(1), 1–6, https://doi.org/10.1038/s41467-020-18203-3, 2020.</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0301544.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25921/2dp5-xm29</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/data/0301544/</t>
-  </si>
-  <si>
-    <t>1985-2019</t>
-  </si>
-  <si>
-    <t>Air-sea fluxes of CO2 with adjusted skin temperature effect</t>
-  </si>
-  <si>
-    <t>This is a gridded estimate of the atmosphere-ocean flux of CO2.  It takes into account near-surface temperature and salinity deviations due to the surface "skin effect", and small deviations in temperature caused by sampling below the actual surface of the ocean, which most estimates ignore. The result is a substantially larger estimate of net flux into the ocean than most other products. Apart from the surface correction, the SOM-FFN neural net interpolation method developed by Landschutzer et al is followed.</t>
-  </si>
-  <si>
-    <t>andrew.watson@exeter.ac.uk</t>
-  </si>
-  <si>
-    <t>Point B Time-series</t>
-  </si>
-  <si>
-    <t>Kapsenberg et al. (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapsenberg, L., Alliouane, S., Gazeau, F., Mousseau, L., and Gattuso, J.-P.: Coastal ocean acidification and increasing total alkalinity in the northwestern Mediterranean Sea, Ocean Sci., 13, 411–426, https://doi.org/10.5194/os-13-411-2017, 2017.  </t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/a/ac/No_image_available.svg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/os-13-411-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1594/PANGAEA.727120 </t>
-  </si>
-  <si>
-    <t>Carbonate chemistry at a coastal site of the Bay of Villefranche, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Point B Time-series documents the carbonate chemistry at a coastal site of the Bay of Villefranche (43.686200N 7.314800E) in Villefranche-sur-mer, France, northwestern Mediterranean Sea. Since January 2007, seawater is sampled weekly at 1 and 50 m, and analyzed for DIC and TA. Salinity and temperature are extracted from CTD profiles. Variables of the carbonate system such as pH (total scale) are calculated using the R package seacarb. </t>
-  </si>
-  <si>
-    <t>liqing.jiang@noaa.gov</t>
-  </si>
-  <si>
-    <t>Ny-Ålesund Time-series</t>
-  </si>
-  <si>
-    <t>Gattuso et al. (2023)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gattuso, J.-P., Alliouane, S., and Fischer, P.: High-frequency, year-round time series of the carbonate chemistry in a high-Arctic fjord (Svalbard), Earth Syst. Sci. Data, 15, 2809–2825, https://doi.org/10.5194/essd-15-2809-2023, 2023. </t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/15/2809/2023/essd-15-2809-2023-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-15-2809-2023</t>
-  </si>
-  <si>
-    <t>https://doi.org//10.1594/PANGAEA.957028</t>
   </si>
   <si>
     <t>Carbonate chemistry at a coastal site of Kongsfjorden, Spitsbergen</t>
@@ -1863,7 +1863,7 @@
     <col customWidth="1" min="8" max="8" width="57.5"/>
     <col customWidth="1" min="9" max="9" width="16.88"/>
     <col customWidth="1" min="10" max="10" width="18.88"/>
-    <col customWidth="1" min="11" max="11" width="26.0"/>
+    <col customWidth="1" min="11" max="11" width="27.88"/>
     <col customWidth="1" min="12" max="12" width="18.88"/>
     <col customWidth="1" min="13" max="13" width="15.0"/>
     <col customWidth="1" min="14" max="14" width="25.38"/>
@@ -1989,23 +1989,20 @@
         <v>27</v>
       </c>
       <c r="I2" s="9"/>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
@@ -2029,53 +2026,50 @@
         <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="12"/>
+      <c r="K3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
-      <c r="U3" s="11" t="str">
+      <c r="U3" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V3" s="11" t="str">
+        <v>200</v>
+      </c>
+      <c r="V3" s="11">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -2086,41 +2080,38 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="12"/>
+      <c r="K4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -2143,41 +2134,38 @@
         <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="I5" s="12"/>
+      <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="O5" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
@@ -2200,40 +2188,37 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="L6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="M6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -2256,49 +2241,46 @@
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="I7" s="12"/>
+      <c r="K7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="M7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
-      <c r="U7" s="11" t="str">
+      <c r="U7" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="2"/>
@@ -2313,49 +2295,46 @@
         <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="H8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="I8" s="12"/>
+      <c r="K8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="O8" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
-      <c r="U8" s="11" t="str">
+      <c r="U8" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="2"/>
@@ -2367,52 +2346,49 @@
         <v>45962.74445758102</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="I9" s="12"/>
+      <c r="K9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="O9" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
-      <c r="U9" s="11" t="str">
+      <c r="U9" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="2"/>
@@ -2424,53 +2400,53 @@
         <v>45961.95201907407</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="H10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="K10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="2"/>
@@ -2482,54 +2458,54 @@
         <v>45961.909583877314</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="H11" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="I11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="N11" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="O11" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="P11" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="11" t="str">
+      <c r="U11" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="2"/>
@@ -2541,46 +2517,46 @@
         <v>45961.91270586806</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="I12" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="K12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="N12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="P12" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -2600,51 +2576,51 @@
         <v>45962.680467199076</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="I13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="K13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="N13" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="O13" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="U13" s="11" t="str">
+      <c r="U13" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="2"/>
@@ -2656,51 +2632,51 @@
         <v>45962.690968483796</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="G14" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="I14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="N14" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="O14" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
-      <c r="U14" s="11" t="str">
+      <c r="U14" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="2"/>
@@ -2712,55 +2688,55 @@
         <v>45962.75772594908</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="H15" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="I15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="K15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="N15" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
-      <c r="U15" s="11" t="str">
+      <c r="U15" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V15" s="11" t="str">
+        <v>200</v>
+      </c>
+      <c r="V15" s="11">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16">
@@ -2768,51 +2744,51 @@
         <v>45962.76769828703</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="H16" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="I16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="L16" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="N16" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="O16" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
-      <c r="U16" s="11" t="str">
+      <c r="U16" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="2"/>
@@ -2824,55 +2800,55 @@
         <v>45962.780607939814</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="H17" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="I17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="K17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="N17" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
-      <c r="U17" s="11" t="str">
+      <c r="U17" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V17" s="11" t="str">
+        <v>200</v>
+      </c>
+      <c r="V17" s="11">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="18">
@@ -2880,55 +2856,55 @@
         <v>45962.98225526621</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="H18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="I18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="N18" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="O18" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="U18" s="11" t="str">
+      <c r="U18" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V18" s="11" t="str">
+        <v>200</v>
+      </c>
+      <c r="V18" s="11">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -2936,51 +2912,51 @@
         <v>45962.210738877315</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="H19" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="I19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="N19" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="O19" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
-      <c r="U19" s="11" t="str">
+      <c r="U19" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="2"/>
@@ -2992,51 +2968,51 @@
         <v>45962.673469733796</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="H20" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="I20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="N20" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="O20" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="U20" s="11" t="str">
+      <c r="U20" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="2"/>
@@ -3048,44 +3024,44 @@
         <v>45961.90485893519</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="G21" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="H21" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="I21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -3106,43 +3082,43 @@
         <v>45964.74980144676</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="F22" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="G22" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="H22" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="I22" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="J22" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="L22" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="N22" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="O22" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -3165,48 +3141,48 @@
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="G23" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="H23" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="K23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="M23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="O23" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="U23" s="11" t="str">
+      <c r="U23" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V23" s="11">
         <f t="shared" si="2"/>
@@ -3218,43 +3194,43 @@
         <v>45964.855968159725</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="I24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="K24" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="L24" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="N24" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="O24" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
@@ -3274,43 +3250,43 @@
         <v>45964.861641446754</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="G25" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="I25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="O25" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -3330,51 +3306,51 @@
         <v>45964.856173356486</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="G26" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="H26" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="I26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="O26" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
-      <c r="U26" s="11" t="str">
+      <c r="U26" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V26" s="11">
         <f t="shared" si="2"/>
@@ -3386,55 +3362,55 @@
         <v>45964.86003099537</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="F27" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="G27" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="H27" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="I27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="L27" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="O27" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
-      <c r="U27" s="11" t="str">
+      <c r="U27" s="11">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V27" s="11" t="str">
+        <v>200</v>
+      </c>
+      <c r="V27" s="11">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="28">
@@ -3442,51 +3418,51 @@
         <v>45964.89335268519</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="G28" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="H28" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="I28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="L28" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="O28" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
-      <c r="U28" s="24" t="str">
+      <c r="U28" s="24">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
+        <v>200</v>
       </c>
       <c r="V28" s="11">
         <f t="shared" si="2"/>
@@ -3498,57 +3474,57 @@
         <v>45964.924418888884</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="G29" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="I29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="O29" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="P29" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="U29" s="24" t="str">
+      <c r="U29" s="24">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V29" s="24" t="str">
+        <v>200</v>
+      </c>
+      <c r="V29" s="24">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30">
@@ -3556,57 +3532,57 @@
         <v>45964.928267361116</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="F30" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="H30" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="I30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="N30" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="L30" s="13" t="s">
+      <c r="O30" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
-      <c r="U30" s="24" t="str">
+      <c r="U30" s="24">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V30" s="24" t="str">
+        <v>200</v>
+      </c>
+      <c r="V30" s="24">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
@@ -3614,57 +3590,57 @@
         <v>45965.55325196759</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="G31" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="I31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="N31" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="L31" s="13" t="s">
+      <c r="O31" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
-      <c r="U31" s="24" t="str">
+      <c r="U31" s="24">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V31" s="24" t="str">
+        <v>200</v>
+      </c>
+      <c r="V31" s="24">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
@@ -3672,46 +3648,46 @@
         <v>45965.726672199075</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="G32" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="J32" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="L32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="P32" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
@@ -3730,37 +3706,37 @@
         <v>45965.74423630787</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="J33" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="K33" s="6" t="s">
-        <v>170</v>
+        <v>323</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>334</v>
@@ -3769,7 +3745,7 @@
         <v>335</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -3788,7 +3764,7 @@
         <v>45965.777433888885</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>336</v>
@@ -3809,13 +3785,13 @@
         <v>341</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L34" s="13" t="s">
         <v>342</v>
@@ -3846,7 +3822,7 @@
         <v>45965.78585724537</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>346</v>
@@ -3867,13 +3843,13 @@
         <v>351</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L35" s="13" t="s">
         <v>352</v>
@@ -3904,7 +3880,7 @@
         <v>45965.79996599537</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>355</v>
@@ -3925,13 +3901,13 @@
         <v>360</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>361</v>
@@ -3948,13 +3924,13 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
-      <c r="U36" s="24" t="str">
+      <c r="U36" s="24">
         <f t="shared" si="1"/>
-        <v>#ERROR!</v>
-      </c>
-      <c r="V36" s="24" t="str">
+        <v>200</v>
+      </c>
+      <c r="V36" s="24">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
@@ -3962,7 +3938,7 @@
         <v>45966.15542136574</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>364</v>
@@ -3983,13 +3959,13 @@
         <v>368</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L37" s="13" t="s">
         <v>369</v>
@@ -4017,7 +3993,7 @@
         <v>45966.160705902774</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>373</v>
@@ -4038,13 +4014,13 @@
         <v>377</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>378</v>
@@ -4072,7 +4048,7 @@
         <v>45966.24933918982</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>381</v>
@@ -4093,13 +4069,13 @@
         <v>385</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L39" s="13" t="s">
         <v>386</v>
@@ -4128,7 +4104,7 @@
         <v>45966.45460355324</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>390</v>
@@ -4149,13 +4125,13 @@
         <v>395</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>396</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>170</v>
+        <v>323</v>
       </c>
       <c r="L40" s="13" t="s">
         <v>397</v>
@@ -10679,7 +10655,7 @@
       </c>
       <c r="H3" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A3,FALSE)</f>
-        <v>Open ocean, Coastal, Surface</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I3" s="32" t="str">
         <f t="shared" ref="I3:J3" si="2">if(ISBLANK($C3), "", I$1)</f>
@@ -10691,7 +10667,7 @@
       </c>
       <c r="K3" s="32" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A3,FALSE)</f>
-        <v>continuous</v>
+        <v/>
       </c>
       <c r="L3" s="32" t="str">
         <f t="shared" ref="L3:M3" si="3">if(ISBLANK($C3), "", L$1)</f>
@@ -10793,7 +10769,7 @@
       </c>
       <c r="K4" s="32" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A4,FALSE)</f>
-        <v>continuous</v>
+        <v/>
       </c>
       <c r="L4" s="32" t="str">
         <f t="shared" ref="L4:M4" si="8">if(ISBLANK($C4), "", L$1)</f>
@@ -10895,7 +10871,7 @@
       </c>
       <c r="K5" s="32" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A5,FALSE)</f>
-        <v>discrete</v>
+        <v/>
       </c>
       <c r="L5" s="32" t="str">
         <f t="shared" ref="L5:M5" si="14">if(ISBLANK($C5), "", L$1)</f>
@@ -10997,7 +10973,7 @@
       </c>
       <c r="K6" s="32" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A6,FALSE)</f>
-        <v>discrete</v>
+        <v/>
       </c>
       <c r="L6" s="32" t="str">
         <f t="shared" ref="L6:M6" si="18">if(ISBLANK($C6), "", L$1)</f>
@@ -11087,7 +11063,7 @@
       </c>
       <c r="H7" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A7,FALSE)</f>
-        <v>Open ocean, Coastal, Surface, Water column, Regional</v>
+        <v>Open ocean, Coastal ocean, Surface, Water column, Regional</v>
       </c>
       <c r="I7" s="32" t="str">
         <f t="shared" ref="I7:J7" si="21">if(ISBLANK($C7), "", I$1)</f>
@@ -11099,7 +11075,7 @@
       </c>
       <c r="K7" s="32" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A7,FALSE)</f>
-        <v>continuous, discrete</v>
+        <v/>
       </c>
       <c r="L7" s="32" t="str">
         <f t="shared" ref="L7:M7" si="22">if(ISBLANK($C7), "", L$1)</f>
@@ -11189,7 +11165,7 @@
       </c>
       <c r="H8" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A8,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Coastal ocean, Water column</v>
       </c>
       <c r="I8" s="32" t="str">
         <f t="shared" ref="I8:J8" si="25">if(ISBLANK($C8), "", I$1)</f>
@@ -11201,7 +11177,7 @@
       </c>
       <c r="K8" s="32" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A8,FALSE)</f>
-        <v>discrete</v>
+        <v/>
       </c>
       <c r="L8" s="32" t="str">
         <f t="shared" ref="L8:M8" si="26">if(ISBLANK($C8), "", L$1)</f>
@@ -11291,7 +11267,7 @@
       </c>
       <c r="H9" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Coastal ocean, Water column</v>
       </c>
       <c r="I9" s="32" t="str">
         <f t="shared" ref="I9:J9" si="29">if(ISBLANK($C9), "", I$1)</f>
@@ -11303,7 +11279,7 @@
       </c>
       <c r="K9" s="32" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>discrete</v>
+        <v/>
       </c>
       <c r="L9" s="32" t="str">
         <f t="shared" ref="L9:M9" si="30">if(ISBLANK($C9), "", L$1)</f>
@@ -11392,7 +11368,7 @@
       </c>
       <c r="H10" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>Open ocean, Coastal, Surface</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I10" s="32" t="str">
         <f t="shared" ref="I10:J10" si="33">if(ISBLANK($C10), "", I$1)</f>
@@ -11404,7 +11380,7 @@
       </c>
       <c r="K10" s="32" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>continuous</v>
+        <v/>
       </c>
       <c r="L10" s="32" t="str">
         <f t="shared" ref="L10:M10" si="34">if(ISBLANK($C10), "", L$1)</f>
@@ -12099,7 +12075,7 @@
       </c>
       <c r="H17" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>Coastal</v>
+        <v>Coastal ocean </v>
       </c>
       <c r="I17" s="32" t="str">
         <f t="shared" ref="I17:J17" si="61">if(ISBLANK($C17), "", I$1)</f>
@@ -12503,7 +12479,7 @@
       </c>
       <c r="H21" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Coastal ocean, Water column</v>
       </c>
       <c r="I21" s="32" t="str">
         <f t="shared" ref="I21:J21" si="77">if(ISBLANK($C21), "", I$1)</f>
@@ -12705,7 +12681,7 @@
       </c>
       <c r="H23" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>Open ocean, Coastal, Surface, Water column</v>
+        <v>Open ocean, Coastal ocean, Surface, Water column</v>
       </c>
       <c r="I23" s="32" t="str">
         <f t="shared" ref="I23:J23" si="85">if(ISBLANK($C23), "", I$1)</f>
@@ -12806,7 +12782,7 @@
       </c>
       <c r="H24" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>Coastal, Water column</v>
+        <v>Coastal ocean, Water column</v>
       </c>
       <c r="I24" s="32" t="str">
         <f t="shared" ref="I24:J24" si="89">if(ISBLANK($C24), "", I$1)</f>
@@ -13109,7 +13085,7 @@
       </c>
       <c r="H27" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>Open ocean, Coastal, Surface</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I27" s="32" t="str">
         <f t="shared" ref="I27:J27" si="101">if(ISBLANK($C27), "", I$1)</f>
@@ -13311,7 +13287,7 @@
       </c>
       <c r="H29" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>Coastal, Surface, Regional</v>
+        <v>Coastal ocean, Surface, Regional</v>
       </c>
       <c r="I29" s="32" t="str">
         <f t="shared" ref="I29:J29" si="109">if(ISBLANK($C29), "", I$1)</f>
@@ -13715,7 +13691,7 @@
       </c>
       <c r="H33" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>Coastal</v>
+        <v>Coastal ocean</v>
       </c>
       <c r="I33" s="32" t="str">
         <f t="shared" ref="I33:J33" si="125">if(ISBLANK($C33), "", I$1)</f>
@@ -13816,7 +13792,7 @@
       </c>
       <c r="H34" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>Coastal</v>
+        <v>Coastal ocean</v>
       </c>
       <c r="I34" s="32" t="str">
         <f t="shared" ref="I34:J34" si="129">if(ISBLANK($C34), "", I$1)</f>
@@ -13917,7 +13893,7 @@
       </c>
       <c r="H35" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>Open ocean, Coastal, Surface</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I35" s="32" t="str">
         <f t="shared" ref="I35:J35" si="133">if(ISBLANK($C35), "", I$1)</f>
@@ -14018,7 +13994,7 @@
       </c>
       <c r="H36" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>Open ocean, Coastal, Surface</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I36" s="32" t="str">
         <f t="shared" ref="I36:J36" si="137">if(ISBLANK($C36), "", I$1)</f>
@@ -14523,7 +14499,7 @@
       </c>
       <c r="H41" s="32" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Coastal</v>
+        <v>Coastal ocean</v>
       </c>
       <c r="I41" s="32" t="str">
         <f t="shared" ref="I41:J41" si="157">if(ISBLANK($C41), "", I$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -994,7 +994,13 @@
     <t xml:space="preserve">Kapsenberg, L., Alliouane, S., Gazeau, F., Mousseau, L., and Gattuso, J.-P.: Coastal ocean acidification and increasing total alkalinity in the northwestern Mediterranean Sea, Ocean Sci., 13, 411–426, https://doi.org/10.5194/os-13-411-2017, 2017.  </t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/a/ac/No_image_available.svg</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://i.ibb.co/8gK4B2BP/Point-B.png</t>
+    </r>
   </si>
   <si>
     <t>https://doi.org/10.5194/os-13-411-2017</t>
@@ -3698,7 +3704,7 @@
       </c>
       <c r="V32" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
@@ -3839,7 +3845,7 @@
       <c r="G35" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="23" t="s">
         <v>351</v>
       </c>
       <c r="I35" s="6" t="s">
@@ -4038,9 +4044,9 @@
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="V38" s="24">
+      <c r="V38" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>Error fetching image: Timeout: https://appletmsdc.qdio.ac.cn//files/metadata/images/%E6%95%B0%E6%8D%AE%E9%9B%86%E7%95%A5%E7%BC%A9%E5%9B%BE-1689829059666.jpg</v>
       </c>
     </row>
     <row r="39">
@@ -13679,7 +13685,7 @@
       </c>
       <c r="E33" s="36" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>https://upload.wikimedia.org/wikipedia/commons/a/ac/No_image_available.svg</v>
+        <v>https://i.ibb.co/8gK4B2BP/Point-B.png</v>
       </c>
       <c r="F33" s="32" t="str">
         <f t="shared" ref="F33:G33" si="124">if(ISBLANK($C33), "", F$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -280,6 +280,36 @@
     <t xml:space="preserve">Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </t>
   </si>
   <si>
+    <t>Marine Inorganic Carbonate Chemistry in the Northern Gulf of Alaska</t>
+  </si>
+  <si>
+    <t>Monacci et al. (2024)</t>
+  </si>
+  <si>
+    <t>Monacci, N. M., Cross, J. N., Evans, W., Mathis, J. T., and Wang, H.: A decade of marine inorganic carbon chemistry observations in the northern Gulf of Alaska – insights into an environment in transition, Earth Syst. Sci. Data, 16, 647–665, https://doi.org/10.5194/essd-16-647-2024, 2024.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/16/647/2024/essd-16-647-2024-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-647-2024</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277034.html</t>
+  </si>
+  <si>
+    <t>discrete</t>
+  </si>
+  <si>
+    <t>2008 - 2017</t>
+  </si>
+  <si>
+    <t>A synthesis of twenty cruises from 2008 to 2017 on the Gulf of Alaska (GAK) Line</t>
+  </si>
+  <si>
+    <t>Monacci et al. (2023) compiled a data product of discrete seawater samples collected each May and September over a 10-year period from 2008 to 2017 along the long-term hydrographic line in the Gulf of Alaska (GAK Line). Samples were collected from a sampling rosette on a profiling CTD. Data variables include profiled seawater temperature, salinity, and DO. Discrete sample variables include DO (i.e., Winkler titrations), macronutrients (nitrate, nitrite, phosphate, silicic acid), DIC, and TA. All carbonate system variables were analyzed at the Ocean Acidification Research Center (OARC) at the University of Alaska Fairbanks (UAF). The repeat hydrographic cruises were funded by the Alaska Ocean Observing System (AOOS), the Exxon Valdez Oil Spill Trustee Council (EVOS), Gulf Watch Alaska, and the North Pacific Research Board (NPRB) and were mostly conducted aboard the United States Fish and Wildlife Service (USFWS) R/V Tiĝlax̂.</t>
+  </si>
+  <si>
     <t>Salish Sea Multi-stressor Data Product</t>
   </si>
   <si>
@@ -329,660 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sutton et al. (2019) established a living dataset comprising 40 individual autonomous moored surface ocean pCO2 time-series established between 2004 and 2013, 17 of them also include autonomous pH measurements. These time-series characterize a wide range of surface ocean carbonate system conditions, across a variety of environments, including 17 oceanic and 13 coastal locations, as well as 10 coral reefs. </t>
-  </si>
-  <si>
-    <t>Gridded surface</t>
-  </si>
-  <si>
-    <t>CSIR-ML6</t>
-  </si>
-  <si>
-    <t>Gregor et al. (2019)</t>
-  </si>
-  <si>
-    <t>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</t>
-  </si>
-  <si>
-    <t>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/gmd-12-5113-2019</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206205.html</t>
-  </si>
-  <si>
-    <t>1° x 1°</t>
-  </si>
-  <si>
-    <t>monthly</t>
-  </si>
-  <si>
-    <t>1982 - 2020</t>
-  </si>
-  <si>
-    <t>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</t>
-  </si>
-  <si>
-    <t>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</t>
-  </si>
-  <si>
-    <t>gregorl@ethz.ch</t>
-  </si>
-  <si>
-    <t>OceanSODA-ETHZv1</t>
-  </si>
-  <si>
-    <t>Gregor and Gruber (2021)</t>
-  </si>
-  <si>
-    <t>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-13-777-2021</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0220059.html</t>
-  </si>
-  <si>
-    <t>1982 - 2022</t>
-  </si>
-  <si>
-    <t>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</t>
-  </si>
-  <si>
-    <t>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</t>
-  </si>
-  <si>
-    <t>OceanSODA-ETHZv2</t>
-  </si>
-  <si>
-    <t>Gregor et al. (2024)</t>
-  </si>
-  <si>
-    <t>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2024GB008127</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/11206366</t>
-  </si>
-  <si>
-    <t>0.25° x 0.25°</t>
-  </si>
-  <si>
-    <t>8-day</t>
-  </si>
-  <si>
-    <t>1982 - 2023</t>
-  </si>
-  <si>
-    <t>Highlighting fine-scale and short-term variability of the ocean carbon sink</t>
-  </si>
-  <si>
-    <t>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</t>
-  </si>
-  <si>
-    <t>Surface pH and Revelle Factor</t>
-  </si>
-  <si>
-    <t>Jiang et al. (2019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </t>
-  </si>
-  <si>
-    <t>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s41598-019-55039-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </t>
-  </si>
-  <si>
-    <t>decadal, climatology</t>
-  </si>
-  <si>
-    <t>1770 - 2100</t>
-  </si>
-  <si>
-    <t>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface OA Indicators </t>
-  </si>
-  <si>
-    <t>Jiang et al. (2023)</t>
-  </si>
-  <si>
-    <t>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2022MS003563</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</t>
-  </si>
-  <si>
-    <t>1750 - 2100</t>
-  </si>
-  <si>
-    <t>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </t>
-  </si>
-  <si>
-    <t>AOML-ET</t>
-  </si>
-  <si>
-    <t>Wanninkhof et al. (2015)</t>
-  </si>
-  <si>
-    <t>Wanninkhof, R., Triñanes, J., Pierrot, D., Munro, D. R., Sweeney, C., and Fay, A. R.: Trends in sea-air CO2 fluxes and sensitivities to atmospheric forcing using an extremely randomized trees machine learning approach, Global Biogeochemical Cycles, 39, https://doi.org/10.1029/2024GB008315, 2025.</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0235/0298989/2.2/about/0298989_preview.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2024GB008315</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0298989.html</t>
-  </si>
-  <si>
-    <t>monthly, climatology</t>
-  </si>
-  <si>
-    <t>1998 - 2023</t>
-  </si>
-  <si>
-    <t>Monthly global sea-air CO2 flux maps in modern era</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanninkhof et al. (2025) developed a monthly global ocean data product of seawater pCO2 and sea-air CO2 fluxes, referred to as AOML-ET, using an extremely randomized trees (ET) machine learning technique. These maps are created on 1° × 1° spatial grids, providing global surface ocean coverages from 1998 to 2023. AOML-ET incorporates several predictor variables, including time, location, SST, SSS, MLD, and chlorophyll-a. The model was trained using the v2020 and v2023 releases of the SOCAT data product (No. 1). Sea-air CO2 fluxes were calculated using the air-sea CO2 partial pressure difference (∆pCO2) and a bulk gas transfer formulation incorporating windspeed. </t>
-  </si>
-  <si>
-    <t>Gridded Surface OA Indicators in the Northern Caribbean Sea</t>
-  </si>
-  <si>
-    <t>Wanninkhof et al. (2020)</t>
-  </si>
-  <si>
-    <t>Wanninkhof, R., Pierrot, D., Sullivan, K., Barbero, L., and Triñanes, J.: A 17-year dataset of surface water fugacity of CO2 along with calculated pH, aragonite saturation state and air–sea CO2 fluxes in the northern Caribbean Sea, Earth Syst. Sci. Data, 12, 1489–1509, https://doi.org/10.5194/essd-12-1489-2020, 2020.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/12/1489/2020/essd-12-1489-2020-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-12-1489-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0207749.html </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal ocean </t>
-  </si>
-  <si>
-    <t>2002 - 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A 17-year record of  fCO2, TA, pH, Ωarag, and air-sea CO2 flux in the Caribbean Sea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dataset contains a high-quality dataset of derived products from over a million observations of surface water partial pressure/fugacity of carbon dioxide (pCO2w/fCO2w), for the Caribbean Sea, Gulf of Mexico/Gulf of America and North-West Atlantic Ocean covering the timespan from 2002-01-01 to 2019-12-30. The derived quantities include TA, acidity (pH), Ωarag and air-sea CO2 flux (Wanninkhof et al., 2020). </t>
-  </si>
-  <si>
-    <t>Gridded subsurface</t>
-  </si>
-  <si>
-    <t>Acidification Metrics in the Ocean Interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fassbender et al. (2023) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fassbender, A. J., Carter, B. R., Sharp, J. D., Huang, Y., Arroyo, M. C., and Frenzel, H.: Amplified subsurface signals of ocean acidification, Global Biogeochemical Cycles, 37, e2023GB007843, https://doi.org/10.1029/2023GB007843, 2023. </t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0227/0290073/1.1/about/0290073_preview.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2023GB007843</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0290073.html</t>
-  </si>
-  <si>
-    <t>climatology</t>
-  </si>
-  <si>
-    <t>1850 - 2002</t>
-  </si>
-  <si>
-    <t>Metrics of acidification in the ocean interior (to 2000 m) and the component of those changes caused by carbonate system nonlinearities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </t>
-  </si>
-  <si>
-    <t>Anthropogenic CO2 from 1994 to 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruber et al. (2019) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruber, N., Clement, D., Carter, B. R., Feely, R. A., van Heuven, S., Hoppema, M., Ishii, M., Key, R. M., Kozyr, A., Lauvset, S. K., Lo Monaco, C., Mathis, J. T., Murata, A., Olsen, A., Perez, F. F., Sabine, C. L., Tanhua, T., and Wanninkhof, R.: The oceanic sink for anthropogenic CO2 from 1994 to 2007, Science, 363(6432), 1193–1199, https://doi.org/10.1126/science.aau5153, 2019. </t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0132/0186034/1.1/about/0186034_preview.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1126/science.aau5153</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0186034.html</t>
-  </si>
-  <si>
-    <t>1994 - 2007</t>
-  </si>
-  <si>
-    <t>The oceanic sink for anthropogenic CO2 over the period 1994 to 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruber et al. (2019a) estimated the decadal time-scale changes in the oceanic content of anthropogenic CO2 (∆Cant) between 1994 to 2007. The results were derived from the GLODAPv2.2016 product (Olsen et al., 2016), utilizing the eMLR(C*) methodology pioneered by Clement and Gruber (2018). The product is combined with the estimated amount of Cant for 1994 derived by Sabine et al. (2004) from GLODAPv1 to infer Cant for 2007. </t>
-  </si>
-  <si>
-    <t>Aragonite Climatology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2015) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/2015GB005198</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </t>
-  </si>
-  <si>
-    <t>CODAP-NA Climatology</t>
-  </si>
-  <si>
-    <t>Jiang et al. (2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-16-3383-2024</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>The first discrete bottle based climatology in the North American ocean margins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </t>
-  </si>
-  <si>
-    <t>Harmonized</t>
-  </si>
-  <si>
-    <t>SeaFlux</t>
-  </si>
-  <si>
-    <t>Fay and Gregor et al. (2021)</t>
-  </si>
-  <si>
-    <t>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</t>
-  </si>
-  <si>
-    <t>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-2021-16</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/8280457</t>
-  </si>
-  <si>
-    <t>1990 - 2022</t>
-  </si>
-  <si>
-    <t>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</t>
-  </si>
-  <si>
-    <t>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</t>
-  </si>
-  <si>
-    <t>Model-based</t>
-  </si>
-  <si>
-    <t>ECCO-Darwin</t>
-  </si>
-  <si>
-    <t>Carroll et al. (2020)</t>
-  </si>
-  <si>
-    <t>Carroll, D., Menemenlis, D., Adkins, J. F., Bowman, K. W., Brix, H., &amp; Dutkiewicz, S., et al. (2020). The ECCO-Darwin data-assimilative global ocean biogeochemistry model: Estimates of seasonal to multidecadal surface ocean pCO2 and air-sea CO2 flux. Journal of Advances in Modeling Earth Systems, 12, e2019MS001888. https://doi.org/10.1029/2019MS001888</t>
-  </si>
-  <si>
-    <t>https://ecco-group.org/images/ecco_rotator01.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.10627664</t>
-  </si>
-  <si>
-    <t>https://data.nas.nasa.gov/ecco/</t>
-  </si>
-  <si>
-    <t>0.33° x 0.33°</t>
-  </si>
-  <si>
-    <t>daily, monthly</t>
-  </si>
-  <si>
-    <t>Open ocean, Coastal ocean, Surface, Water column</t>
-  </si>
-  <si>
-    <t>1992 - 2018</t>
-  </si>
-  <si>
-    <t>Model-data synthesis product based on the Estimating the Circulation and Climate of the Ocean (ECCO) ocean state estimate. Fully-closed, physically-consistent 3-D biogeochemical budgets.</t>
-  </si>
-  <si>
-    <t>Carroll et al. (2022) used the Estimating the Circulation and Climate of the Ocean-Darwin (ECCO-Darwin) global-ocean biogeochemistry state estimate to generate a data-constrained DIC budget and investigate how spatiotemporal variability in advection and mixing, air-sea CO2 flux, and the biological pump have modulated the ocean sink for 1995–2018. ECCO-Darwin assimilates ocean circulation and physical tracers, including temperature, salinity, and sea ice, derived from the Estimating the Circulation and Climate of the Ocean (ECCO) LLC270 global-ocean and sea-ice data synthesis (Zhang et al., 2018). Additionally, it assimilates biogeochemical observations encompassing the cycling of carbon, nitrogen, phosphorus (PO 4 ), iron (Fe), silica (SiO 2 ), DO, and TA. This inclusive approach enhances the model’s fidelity by aligning it with a diverse array of observations. All ECCO-Darwin model output is available on the ECCO Data Portal: https://data.nas.nasa.gov/ecco/. The model code and platform-independent instructions for running ECCO-Darwin simulations can be found at: https://github.com/MITgcm-contrib/ecco_darwin.</t>
-  </si>
-  <si>
-    <t>Marine Inorganic Carbonate Chemistry in the Northern Gulf of Alaska</t>
-  </si>
-  <si>
-    <t>Monacci et al. (2024)</t>
-  </si>
-  <si>
-    <t>Monacci, N. M., Cross, J. N., Evans, W., Mathis, J. T., and Wang, H.: A decade of marine inorganic carbon chemistry observations in the northern Gulf of Alaska – insights into an environment in transition, Earth Syst. Sci. Data, 16, 647–665, https://doi.org/10.5194/essd-16-647-2024, 2024.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/16/647/2024/essd-16-647-2024-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-16-647-2024</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277034.html</t>
-  </si>
-  <si>
-    <t>discrete</t>
-  </si>
-  <si>
-    <t>2008 - 2017</t>
-  </si>
-  <si>
-    <t>A synthesis of twenty cruises from 2008 to 2017 on the Gulf of Alaska (GAK) Line</t>
-  </si>
-  <si>
-    <t>Monacci et al. (2023) compiled a data product of discrete seawater samples collected each May and September over a 10-year period from 2008 to 2017 along the long-term hydrographic line in the Gulf of Alaska (GAK Line). Samples were collected from a sampling rosette on a profiling CTD. Data variables include profiled seawater temperature, salinity, and DO. Discrete sample variables include DO (i.e., Winkler titrations), macronutrients (nitrate, nitrite, phosphate, silicic acid), DIC, and TA. All carbonate system variables were analyzed at the Ocean Acidification Research Center (OARC) at the University of Alaska Fairbanks (UAF). The repeat hydrographic cruises were funded by the Alaska Ocean Observing System (AOOS), the Exxon Valdez Oil Spill Trustee Council (EVOS), Gulf Watch Alaska, and the North Pacific Research Board (NPRB) and were mostly conducted aboard the United States Fish and Wildlife Service (USFWS) R/V Tiĝlax̂.</t>
-  </si>
-  <si>
-    <t>Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE) gridded Canth</t>
-  </si>
-  <si>
-    <t>Carter et al. (2025)</t>
-  </si>
-  <si>
-    <t>Carter, B. R., Schwinger, J., Sonnerup, R., Fassbender, A. J., Sharp, J. D., Dias, L. M., &amp; Sandborn, D. E. (2025). Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE). Earth System Science Data, 17(6), 3073-3088.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/17/3073/2025/essd-17-3073-2025-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-17-3073-2025</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/15692788</t>
-  </si>
-  <si>
-    <t>irregular</t>
-  </si>
-  <si>
-    <t>Open ocean, Surface, Water column</t>
-  </si>
-  <si>
-    <t>1750-2500</t>
-  </si>
-  <si>
-    <t>New methods for rapidly estimating anthropogenic carbon from temperature, salinity, and date are presented.  The methods are then used with SSPs to estimate anthropogenic carbon in the ocean globally from 1750 to 2500.</t>
-  </si>
-  <si>
-    <t>Here, we make modifications to the transit time distribution approach for Canth estimation that render the method more accessible. We also release software (BRCScienceProducts, 2025) called “Tracer-based Rapid Anthropogenic Carbon Estimation version 1” (TRACEv1) that allows users – with one line of code – to obtain Canth and water mass age estimates throughout the global open ocean from user-supplied values of geographic location, pressure, salinity, temperature, and the estimate year. We use this code to generate a data product of global gridded open-ocean Canth distributions (TRACEv1_GGCanth; Carter, 2025) that ranges from the preindustrial era through 2500 under a range of Shared Socioeconomic Pathways (SSPs, or atmospheric CO2 concentration pathways). We estimated the skill of these estimates by reconstructing Canth in models with known distributions of Canth and transient tracers and by conducting perturbation tests. In the model-based reconstruction test, TRACEv1 reproduces the global ocean Canth inventory to within ±10 % in 1980 and 2014. We discuss implications and limitations of the projected Canth distributions and highlight ways that the estimation strategy might be improved. One finding is that the ocean will continue to increase its net Canth inventory at least through 2500 due to deep-ocean ventilation, even with the SSP in which intense mitigation successfully decreases atmospheric Canth by ∼60 % in 2500 relative to the 2024 concentration. A notable limitation of this and similar projections made with TRACEv1 is that ongoing and potential future warming and changing oceanic circulation patterns with climate change are not captured by the method. The data products generated by this research are available as MATLAB code (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025) and a spatially and temporally gridded data product (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025).</t>
-  </si>
-  <si>
-    <t>Preformed properties for marine organic matter and carbonate mineral cycling quantification</t>
-  </si>
-  <si>
-    <t>Carter et al. (2021)</t>
-  </si>
-  <si>
-    <t>Carter, B. R., Feely, R. A., Lauvset, S. K., Olsen, A., DeVries, T., &amp; Sonnerup, R. (2021). Preformed properties for marine organic matter and carbonate mineral cycling quantification. Global Biogeochemical Cycles, 35(1), e2020GB006623.</t>
-  </si>
-  <si>
-    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/a70dc130-3967-4e0c-bab1-fa5967af0a63/gbc21075-fig-0003-m.jpg</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/3745002</t>
-  </si>
-  <si>
-    <t>https://github.com/BRCScienceProducts/PreformedPropertyEstimates</t>
-  </si>
-  <si>
-    <t>We have updated global preformed biogeochemical property estimates and provided the estimates for analysis and model validation</t>
-  </si>
-  <si>
-    <t>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</t>
-  </si>
-  <si>
-    <t>MPI-ULB-SOM-FFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2020) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-12-2537-2020</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </t>
-  </si>
-  <si>
-    <t>VLIZ-SOM-FFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2016) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0105/0160558/8.8/about/0160558_preview.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/2015gb005359</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160558.html</t>
-  </si>
-  <si>
-    <t>Open ocean</t>
-  </si>
-  <si>
-    <t>1982 - 2025</t>
-  </si>
-  <si>
-    <t>Monthly gridded pCO2 from 1982 through near present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </t>
-  </si>
-  <si>
-    <t>RFR-LME</t>
-  </si>
-  <si>
-    <t>Sharp et al. (2024)</t>
-  </si>
-  <si>
-    <t>Sharp, J. D., Jiang, L.-Q., Carter, B. R., Lavin, P. D., Yoo, H., and Cross, S. L., 2024. A mapped dataset of surface ocean acidification indicators in large marine ecosystems of the United States, Sci. Data, 11, 715,  https://doi.org/10.1038/s41597-024-03530-7.</t>
-  </si>
-  <si>
-    <t>https://media.springernature.com/full/springer-static/image/art%3A10.1038%2Fs41597-024-03530-7/MediaObjects/41597_2024_3530_Fig4_HTML.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25921/h8vw-e872</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0287551.html</t>
-  </si>
-  <si>
-    <t>Coastal ocean, Surface, Regional</t>
-  </si>
-  <si>
-    <t>1998 - 2024</t>
-  </si>
-  <si>
-    <t>Temporal trends of OA indicators and estimated uncertainties across 11 U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024.</t>
-  </si>
-  <si>
-    <t>A data product delineating the temporal trends of ocean acidification indicators mapped on a 0.25°× 0.25° spatial grid, across eleven U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024. The method combines Gaussian Mixture Models to categorize the data into environmentally similar subregions, Random Forest Regressions (RFRs) for the spatial and temporal extrapolation of observational fCO2 data, and regressions to estimate total alkalinity (Carter et al. 2021) to provide a second carbonate system constraint for the computation of multiple ocean acidification indicators.</t>
-  </si>
-  <si>
-    <t>MOBO-DIC (Version 2020)</t>
-  </si>
-  <si>
-    <t>Keppler et al., 2020</t>
-  </si>
-  <si>
-    <t>Keppler, L., Landschützer, P., Gruber, N., Lauvset, S. K., and Stemmler, I.: Seasonal carbon dynamics in the near-global ocean, Global Biogeochemical Cycles, 34(12), e2020GB006571, https://doi.org/10.1029/2020GB006571, 2020.</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/Moby.jpg</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2020GB006571</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/ndp104.html</t>
-  </si>
-  <si>
-    <t>Seasonal variability of DIC in the interior ocean from surface to 2000 m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keppler et al. (2020) produced a global interior ocean DIC monthly climatology (average climatological values for January through December) on a 1° × 1° grid at 33 standardized depth levels from the surface to 2000 m. </t>
-  </si>
-  <si>
-    <t>lydi@vy-carb.com</t>
-  </si>
-  <si>
-    <t>MOBO-DIC (Version 2023)</t>
-  </si>
-  <si>
-    <t>Keppler et al. (2023)</t>
-  </si>
-  <si>
-    <t>Keppler, L., Landschützer, P., Lauvset, S. K., and Gruber, N.: Recent trends and variability in the oceanic storage of dissolved inorganic carbon, Global Biogeochemical Cycles, 37(5), https://doi.org/10.1029/2022gb007677, 2023.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1029/2022gb007677</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277099.html</t>
-  </si>
-  <si>
-    <t>2004-2020</t>
-  </si>
-  <si>
-    <t>Temporal trends and interannual variability of DIC in the interior ocean from surface to 1500 m</t>
-  </si>
-  <si>
-    <t>Keppler et al. (2023) extended the temporal resolution of MOBO-DIC to resolve monthly fields from January 2004 to December 2019, as opposed to the average climatological values in Keppler et al. (2020).</t>
-  </si>
-  <si>
-    <t>lydi@vycarb.com</t>
-  </si>
-  <si>
-    <t>UoEX-Watson</t>
-  </si>
-  <si>
-    <t>Watson et al (2020)</t>
-  </si>
-  <si>
-    <t>Watson, A. J., Schuster, U., Shutler, J. D., Holding, T., Ashton, I. G., Landschützer, P., Woolf, D., and Goddijn-Murphy, L.: Revised estimates of ocean-atmosphere CO2 flux are consistent with ocean carbon inventory, Nature Communications, 11(1), 1–6, https://doi.org/10.1038/s41467-020-18203-3, 2020.</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0301544.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25921/2dp5-xm29</t>
-  </si>
-  <si>
-    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/data/0301544/</t>
-  </si>
-  <si>
-    <t>1985-2019</t>
-  </si>
-  <si>
-    <t>Air-sea fluxes of CO2 with adjusted skin temperature effect</t>
-  </si>
-  <si>
-    <t>This is a gridded estimate of the atmosphere-ocean flux of CO2.  It takes into account near-surface temperature and salinity deviations due to the surface "skin effect", and small deviations in temperature caused by sampling below the actual surface of the ocean, which most estimates ignore. The result is a substantially larger estimate of net flux into the ocean than most other products. Apart from the surface correction, the SOM-FFN neural net interpolation method developed by Landschutzer et al is followed.</t>
-  </si>
-  <si>
-    <t>andrew.watson@exeter.ac.uk</t>
   </si>
   <si>
     <t>Point B Time-series</t>
@@ -1048,6 +424,336 @@
     <t xml:space="preserve">The Ny-Ålesund Time-series documents the carbonate chemistry at a coastal site of Kongsfjorden, Spitsbergen (78.930660N 11.920030E) during the period 2015-2021. It is the first high-frequency (1 hour), multi-year (6 years) dataset of salinity, temperature, pCO2, pH, as well as calculated DIC and TA in the High-Arctic Ocean (Gattuso et al., 2023). </t>
   </si>
   <si>
+    <t>Gridded surface</t>
+  </si>
+  <si>
+    <t>CSIR-ML6</t>
+  </si>
+  <si>
+    <t>Gregor et al. (2019)</t>
+  </si>
+  <si>
+    <t>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</t>
+  </si>
+  <si>
+    <t>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/gmd-12-5113-2019</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206205.html</t>
+  </si>
+  <si>
+    <t>1° x 1°</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>1982 - 2020</t>
+  </si>
+  <si>
+    <t>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</t>
+  </si>
+  <si>
+    <t>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</t>
+  </si>
+  <si>
+    <t>gregorl@ethz.ch</t>
+  </si>
+  <si>
+    <t>OceanSODA-ETHZv1</t>
+  </si>
+  <si>
+    <t>Gregor and Gruber (2021)</t>
+  </si>
+  <si>
+    <t>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-13-777-2021</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0220059.html</t>
+  </si>
+  <si>
+    <t>1982 - 2022</t>
+  </si>
+  <si>
+    <t>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</t>
+  </si>
+  <si>
+    <t>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</t>
+  </si>
+  <si>
+    <t>OceanSODA-ETHZv2</t>
+  </si>
+  <si>
+    <t>Gregor et al. (2024)</t>
+  </si>
+  <si>
+    <t>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2024GB008127</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/11206366</t>
+  </si>
+  <si>
+    <t>0.25° x 0.25°</t>
+  </si>
+  <si>
+    <t>8-day</t>
+  </si>
+  <si>
+    <t>1982 - 2023</t>
+  </si>
+  <si>
+    <t>Highlighting fine-scale and short-term variability of the ocean carbon sink</t>
+  </si>
+  <si>
+    <t>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</t>
+  </si>
+  <si>
+    <t>UoEX-Watson</t>
+  </si>
+  <si>
+    <t>Watson et al (2020)</t>
+  </si>
+  <si>
+    <t>Watson, A. J., Schuster, U., Shutler, J. D., Holding, T., Ashton, I. G., Landschützer, P., Woolf, D., and Goddijn-Murphy, L.: Revised estimates of ocean-atmosphere CO2 flux are consistent with ocean carbon inventory, Nature Communications, 11(1), 1–6, https://doi.org/10.1038/s41467-020-18203-3, 2020.</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0301544.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/2dp5-xm29</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/data/0301544/</t>
+  </si>
+  <si>
+    <t>Open ocean</t>
+  </si>
+  <si>
+    <t>1985-2019</t>
+  </si>
+  <si>
+    <t>Air-sea fluxes of CO2 with adjusted skin temperature effect</t>
+  </si>
+  <si>
+    <t>This is a gridded estimate of the atmosphere-ocean flux of CO2.  It takes into account near-surface temperature and salinity deviations due to the surface "skin effect", and small deviations in temperature caused by sampling below the actual surface of the ocean, which most estimates ignore. The result is a substantially larger estimate of net flux into the ocean than most other products. Apart from the surface correction, the SOM-FFN neural net interpolation method developed by Landschutzer et al is followed.</t>
+  </si>
+  <si>
+    <t>andrew.watson@exeter.ac.uk</t>
+  </si>
+  <si>
+    <t>Surface pH and Revelle Factor</t>
+  </si>
+  <si>
+    <t>Jiang et al. (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </t>
+  </si>
+  <si>
+    <t>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-019-55039-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </t>
+  </si>
+  <si>
+    <t>decadal, climatology</t>
+  </si>
+  <si>
+    <t>1770 - 2100</t>
+  </si>
+  <si>
+    <t>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface OA Indicators </t>
+  </si>
+  <si>
+    <t>Jiang et al. (2023)</t>
+  </si>
+  <si>
+    <t>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2022MS003563</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</t>
+  </si>
+  <si>
+    <t>1750 - 2100</t>
+  </si>
+  <si>
+    <t>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </t>
+  </si>
+  <si>
+    <t>AOML-ET</t>
+  </si>
+  <si>
+    <t>Wanninkhof et al. (2015)</t>
+  </si>
+  <si>
+    <t>Wanninkhof, R., Triñanes, J., Pierrot, D., Munro, D. R., Sweeney, C., and Fay, A. R.: Trends in sea-air CO2 fluxes and sensitivities to atmospheric forcing using an extremely randomized trees machine learning approach, Global Biogeochemical Cycles, 39, https://doi.org/10.1029/2024GB008315, 2025.</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0235/0298989/2.2/about/0298989_preview.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2024GB008315</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0298989.html</t>
+  </si>
+  <si>
+    <t>monthly, climatology</t>
+  </si>
+  <si>
+    <t>1998 - 2023</t>
+  </si>
+  <si>
+    <t>Monthly global sea-air CO2 flux maps in modern era</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanninkhof et al. (2025) developed a monthly global ocean data product of seawater pCO2 and sea-air CO2 fluxes, referred to as AOML-ET, using an extremely randomized trees (ET) machine learning technique. These maps are created on 1° × 1° spatial grids, providing global surface ocean coverages from 1998 to 2023. AOML-ET incorporates several predictor variables, including time, location, SST, SSS, MLD, and chlorophyll-a. The model was trained using the v2020 and v2023 releases of the SOCAT data product (No. 1). Sea-air CO2 fluxes were calculated using the air-sea CO2 partial pressure difference (∆pCO2) and a bulk gas transfer formulation incorporating windspeed. </t>
+  </si>
+  <si>
+    <t>Gridded Surface OA Indicators in the Northern Caribbean Sea</t>
+  </si>
+  <si>
+    <t>Wanninkhof et al. (2020)</t>
+  </si>
+  <si>
+    <t>Wanninkhof, R., Pierrot, D., Sullivan, K., Barbero, L., and Triñanes, J.: A 17-year dataset of surface water fugacity of CO2 along with calculated pH, aragonite saturation state and air–sea CO2 fluxes in the northern Caribbean Sea, Earth Syst. Sci. Data, 12, 1489–1509, https://doi.org/10.5194/essd-12-1489-2020, 2020.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/12/1489/2020/essd-12-1489-2020-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-12-1489-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0207749.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal ocean </t>
+  </si>
+  <si>
+    <t>2002 - 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 17-year record of  fCO2, TA, pH, Ωarag, and air-sea CO2 flux in the Caribbean Sea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dataset contains a high-quality dataset of derived products from over a million observations of surface water partial pressure/fugacity of carbon dioxide (pCO2w/fCO2w), for the Caribbean Sea, Gulf of Mexico/Gulf of America and North-West Atlantic Ocean covering the timespan from 2002-01-01 to 2019-12-30. The derived quantities include TA, acidity (pH), Ωarag and air-sea CO2 flux (Wanninkhof et al., 2020). </t>
+  </si>
+  <si>
+    <t>MPI-ULB-SOM-FFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-12-2537-2020</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </t>
+  </si>
+  <si>
+    <t>VLIZ-SOM-FFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2016) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0105/0160558/8.8/about/0160558_preview.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/2015gb005359</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160558.html</t>
+  </si>
+  <si>
+    <t>1982 - 2025</t>
+  </si>
+  <si>
+    <t>Monthly gridded pCO2 from 1982 through near present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </t>
+  </si>
+  <si>
+    <t>RFR-LME</t>
+  </si>
+  <si>
+    <t>Sharp et al. (2024)</t>
+  </si>
+  <si>
+    <t>Sharp, J. D., Jiang, L.-Q., Carter, B. R., Lavin, P. D., Yoo, H., and Cross, S. L., 2024. A mapped dataset of surface ocean acidification indicators in large marine ecosystems of the United States, Sci. Data, 11, 715,  https://doi.org/10.1038/s41597-024-03530-7.</t>
+  </si>
+  <si>
+    <t>https://media.springernature.com/full/springer-static/image/art%3A10.1038%2Fs41597-024-03530-7/MediaObjects/41597_2024_3530_Fig4_HTML.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/h8vw-e872</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0287551.html</t>
+  </si>
+  <si>
+    <t>Coastal ocean, Surface, Regional</t>
+  </si>
+  <si>
+    <t>1998 - 2024</t>
+  </si>
+  <si>
+    <t>Temporal trends of OA indicators and estimated uncertainties across 11 U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024.</t>
+  </si>
+  <si>
+    <t>A data product delineating the temporal trends of ocean acidification indicators mapped on a 0.25°× 0.25° spatial grid, across eleven U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024. The method combines Gaussian Mixture Models to categorize the data into environmentally similar subregions, Random Forest Regressions (RFRs) for the spatial and temporal extrapolation of observational fCO2 data, and regressions to estimate total alkalinity (Carter et al. 2021) to provide a second carbonate system constraint for the computation of multiple ocean acidification indicators.</t>
+  </si>
+  <si>
     <t>CMEMS-LSCEv1</t>
   </si>
   <si>
@@ -1105,6 +811,96 @@
     <t xml:space="preserve">CMEMS-LSCEv2 corresponds to the latest version of the CMEMS-LSCE FFNN. It uses the same ensemble-based reconstruction method for pCO2 maps as CMEMS-LSCEv1.  Improvements include downscaling the spatial resolution to 0.25° × 0.25° and reproducing additional surface ocean carbonate system variables on a global grid from 1985 onwards (Chau et al., 2024a). The additional surface ocean carbonate system variables are: pCO2, DIC, TA, pH, Ωarag, and Ωcalc. Surface ocean pCO2 is reconstructed based on an ensemble of neural network models mapping gridded observation-based data provided by SOCATv2022 (Bakker et al., 2016). Surface ocean TA is estimated with a multiple linear regression approach (Carter et al., 2016, 2017). The remaining carbonate variables are calculated from pCO2 and TA using a MATLAB version of CO2SYS (Lewis and Wallace, 1998; Van Heuven et al., 2011). The CMEMS-LSCE product is updated yearly for surface ocean pCO2, air-sea fluxes, and the carbonate system variables. Updates are phased with release of the SOCAT database. For surface ocean pCO2 and air-sea fluxes the temporal coverage is extended to the present date with a latency of 1 month (Chau et al., 2024b). </t>
   </si>
   <si>
+    <t>Stepwise-FFNN</t>
+  </si>
+  <si>
+    <t>Zhong et al. (2022)</t>
+  </si>
+  <si>
+    <t>Zhong, G., Li, X., Song, J., Qu, B., Wang, F., Wang, Y., ... &amp; Duan, L. 2022. Reconstruction of global surface ocean pCO2 using region-specific predictors based on a stepwise FFNN regression algorithm, Biogeosciences, 19, 845-859, https://doi.org/10.5194/bg-19-845-2022.</t>
+  </si>
+  <si>
+    <t>https://appletmsdc.qdio.ac.cn//files/metadata/images/2025-08-14_1955061943601487874/DATA20251000212_11415094_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://doi.org/10.12157/IOCAS.20250814.001</t>
+  </si>
+  <si>
+    <t>1992 - 2024</t>
+  </si>
+  <si>
+    <t>ML-based selection of predictors considering regional differences of pCO2 drivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A monthly global 1° × 1° surface ocean pCO2 product from January 1992 to December 2024, constructed by combining the stepwise regression algorithm and a feed-forward neural network (FFNN) to select predictors of pCO2 based on the mean absolute error in each of the 11 biogeochemical provinces defined by the self-organizing map (SOM) method. </t>
+  </si>
+  <si>
+    <t>zhongguorong@qdio.ac.cn</t>
+  </si>
+  <si>
+    <t>JMA-MLR</t>
+  </si>
+  <si>
+    <t>Iida et al. (2021)</t>
+  </si>
+  <si>
+    <t>Iida, Y., Takatani, Y., Kojima, A., and Ishii, M. 2021. Global trends of ocean CO2 sink and ocean acidification: An obsevation-based reconstruction of surface ocean inorganic carbon variables, J. Oceanogr. 77, 323-358, https://doi.org/10.1007/s10872-020-00571-5</t>
+  </si>
+  <si>
+    <t>https://www.data.jma.go.jp/kaiyou/data/db/mar_env/results/co2_flux/animation/fluxmap_fig/flux_2023MN.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10872-020-00571-5</t>
+  </si>
+  <si>
+    <t>1990-2023</t>
+  </si>
+  <si>
+    <t>Temporal trends of DIC, TA, pCO2, air-sea CO2 flux, pH, and Ωarag.</t>
+  </si>
+  <si>
+    <t>Iida et al. (2021) developed a monthly data product for inorganic carbonate variables on a 1° × 1° global surface ocean grid for the period 1993?2018. Variables include DIC, TA, pCO2, sea-air CO2 flux, pH, and Ωarag. They leveraged data products such as SOCAT.v2019 (Bakker et al., 2016) and GLODAPv2.2019 (Olsen et al., 2019), as well as satellite-based variables, including sea-surface dynamic height (SSDH), mixed layer depth (MLD), and chlorophyll-a. The product is updated annually using the latest SOCAT and GLODAPv2 data.</t>
+  </si>
+  <si>
+    <t>iida-ysk@met.kishou.go.jp</t>
+  </si>
+  <si>
+    <t>ULB-SOM-FFN-Coastalv2.1</t>
+  </si>
+  <si>
+    <t>Roobaert et al. (2024)</t>
+  </si>
+  <si>
+    <t>Roobaert, A., Regnier, P., Landschützer, P., and Laruelle, G. G.: A novel sea surface pCO2-product for the global coastal ocean resolving trends over 1982–2020, Earth System Science Data, 16(1), 421–441, https://doi.org/10.5194/essd-16-421-2024, 2024.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/16/421/2024/essd-16-421-2024-f01-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-421-2024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.25921/4sde-p068</t>
+  </si>
+  <si>
+    <t>continuous, monthly</t>
+  </si>
+  <si>
+    <t>1982-2020</t>
+  </si>
+  <si>
+    <t>Global temporal trends of coastal pCO2 and air-sea CO2 fluxes based on SOCATv2022 with data collected from 1982–2020</t>
+  </si>
+  <si>
+    <t>Roobaert et al. (2024) present high-resolution (0.25° × 0.25° grid) monthly maps showing the distribution of sea surface pCO2 across the global coastal oceans, spanning from 1982 to 2020. This product (ULB-SOM-FFN-coastalv2.1) builds upon the work by Laruelle et al. (2017), incorporating a two-step methodology that utilizes Self Organizing Maps (SOM) and Feed Forward Networks (FFN). This updated product now captures temporal variability, enabling the assessment of interannual variability and long-term trends in coastal air-sea CO2 exchange, unlike the product by Laruelle et al. (2017), which only offers a climatology for a short period (1998-2015). The enhancements include additional environmental predictors and an expanded dataset for training and validation, featuring approximately 18 million direct coastal observations from the SOCAT database, specifically the SOCATv2022 release (Bakker et al., 2016). The product is available at OCADS: https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0279118.html (Roobaert et al., 2023).</t>
+  </si>
+  <si>
+    <t>alizee.roobaert@vliz.be</t>
+  </si>
+  <si>
+    <t>Gridded subsurface</t>
+  </si>
+  <si>
     <t>GLODAPv2 Climatology</t>
   </si>
   <si>
@@ -1123,6 +919,9 @@
     <t xml:space="preserve">https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0286118.html </t>
   </si>
   <si>
+    <t>climatology</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
@@ -1132,31 +931,166 @@
     <t xml:space="preserve">Lauvset et al. (2016) generated a comprehensive set of global interior ocean climatologies, mapping key biogeochemical variables on a 1° × 1° grid for 33 depth levels from surface to 5500 m. These climatologies cover temperature, salinity, DO, nitrate, phosphate, silicate, DIC, TA, pH, Ωarag, and Ωcalc). This data product was created based on the quality-controlled and internally consistent GLODAPv2.2016 (Olsen et al., 2016) using the data-interpolating variational analysis (DIVA) method (Barth et al., 2014). The conceivably confounding temporal trends in DIC, pH, Ωarag and Ωcalc due to anthropogenic influence were removed prior to mapping by normalizing their values to a reference year of 2002 using first-order calculations of anthropogenic carbon accumulation rates. For all variables, all data from the full 1972–2013 period were used, including data that did not receive full secondary quality control. This data product is not updated each year along with the main GLODAPv2 data product. </t>
   </si>
   <si>
-    <t>Stepwise-FFNN</t>
-  </si>
-  <si>
-    <t>Zhong et al. (2022)</t>
-  </si>
-  <si>
-    <t>Zhong, G., Li, X., Song, J., Qu, B., Wang, F., Wang, Y., ... &amp; Duan, L. 2022. Reconstruction of global surface ocean pCO2 using region-specific predictors based on a stepwise FFNN regression algorithm, Biogeosciences, 19, 845-859, https://doi.org/10.5194/bg-19-845-2022.</t>
-  </si>
-  <si>
-    <t>https://appletmsdc.qdio.ac.cn//files/metadata/images/2025-08-14_1955061943601487874/DATA20251000212_11415094_1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://doi.org/10.12157/IOCAS.20250814.001</t>
-  </si>
-  <si>
-    <t>1992 - 2024</t>
-  </si>
-  <si>
-    <t>ML-based selection of predictors considering regional differences of pCO2 drivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A monthly global 1° × 1° surface ocean pCO2 product from January 1992 to December 2024, constructed by combining the stepwise regression algorithm and a feed-forward neural network (FFNN) to select predictors of pCO2 based on the mean absolute error in each of the 11 biogeochemical provinces defined by the self-organizing map (SOM) method. </t>
-  </si>
-  <si>
-    <t>zhongguorong@qdio.ac.cn</t>
+    <t>Acidification Metrics in the Ocean Interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fassbender et al. (2023) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fassbender, A. J., Carter, B. R., Sharp, J. D., Huang, Y., Arroyo, M. C., and Frenzel, H.: Amplified subsurface signals of ocean acidification, Global Biogeochemical Cycles, 37, e2023GB007843, https://doi.org/10.1029/2023GB007843, 2023. </t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0227/0290073/1.1/about/0290073_preview.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023GB007843</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0290073.html</t>
+  </si>
+  <si>
+    <t>1850 - 2002</t>
+  </si>
+  <si>
+    <t>Metrics of acidification in the ocean interior (to 2000 m) and the component of those changes caused by carbonate system nonlinearities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </t>
+  </si>
+  <si>
+    <t>Anthropogenic CO2 from 1994 to 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruber et al. (2019) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruber, N., Clement, D., Carter, B. R., Feely, R. A., van Heuven, S., Hoppema, M., Ishii, M., Key, R. M., Kozyr, A., Lauvset, S. K., Lo Monaco, C., Mathis, J. T., Murata, A., Olsen, A., Perez, F. F., Sabine, C. L., Tanhua, T., and Wanninkhof, R.: The oceanic sink for anthropogenic CO2 from 1994 to 2007, Science, 363(6432), 1193–1199, https://doi.org/10.1126/science.aau5153, 2019. </t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/archive/arc0132/0186034/1.1/about/0186034_preview.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/science.aau5153</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0186034.html</t>
+  </si>
+  <si>
+    <t>1994 - 2007</t>
+  </si>
+  <si>
+    <t>The oceanic sink for anthropogenic CO2 over the period 1994 to 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruber et al. (2019a) estimated the decadal time-scale changes in the oceanic content of anthropogenic CO2 (∆Cant) between 1994 to 2007. The results were derived from the GLODAPv2.2016 product (Olsen et al., 2016), utilizing the eMLR(C*) methodology pioneered by Clement and Gruber (2018). The product is combined with the estimated amount of Cant for 1994 derived by Sabine et al. (2004) from GLODAPv1 to infer Cant for 2007. </t>
+  </si>
+  <si>
+    <t>Aragonite Climatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2015) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/2015GB005198</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </t>
+  </si>
+  <si>
+    <t>CODAP-NA Climatology</t>
+  </si>
+  <si>
+    <t>Jiang et al. (2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-16-3383-2024</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>The first discrete bottle based climatology in the North American ocean margins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </t>
+  </si>
+  <si>
+    <t>MOBO-DIC (Version 2020)</t>
+  </si>
+  <si>
+    <t>Keppler et al., 2020</t>
+  </si>
+  <si>
+    <t>Keppler, L., Landschützer, P., Gruber, N., Lauvset, S. K., and Stemmler, I.: Seasonal carbon dynamics in the near-global ocean, Global Biogeochemical Cycles, 34(12), e2020GB006571, https://doi.org/10.1029/2020GB006571, 2020.</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/Moby.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2020GB006571</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/ndp104.html</t>
+  </si>
+  <si>
+    <t>Seasonal variability of DIC in the interior ocean from surface to 2000 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keppler et al. (2020) produced a global interior ocean DIC monthly climatology (average climatological values for January through December) on a 1° × 1° grid at 33 standardized depth levels from the surface to 2000 m. </t>
+  </si>
+  <si>
+    <t>lydi@vy-carb.com</t>
+  </si>
+  <si>
+    <t>MOBO-DIC (Version 2023)</t>
+  </si>
+  <si>
+    <t>Keppler et al. (2023)</t>
+  </si>
+  <si>
+    <t>Keppler, L., Landschützer, P., Lauvset, S. K., and Gruber, N.: Recent trends and variability in the oceanic storage of dissolved inorganic carbon, Global Biogeochemical Cycles, 37(5), https://doi.org/10.1029/2022gb007677, 2023.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2022gb007677</t>
+  </si>
+  <si>
+    <t>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277099.html</t>
+  </si>
+  <si>
+    <t>2004-2020</t>
+  </si>
+  <si>
+    <t>Temporal trends and interannual variability of DIC in the interior ocean from surface to 1500 m</t>
+  </si>
+  <si>
+    <t>Keppler et al. (2023) extended the temporal resolution of MOBO-DIC to resolve monthly fields from January 2004 to December 2019, as opposed to the average climatological values in Keppler et al. (2020).</t>
+  </si>
+  <si>
+    <t>lydi@vycarb.com</t>
   </si>
   <si>
     <t>Monthly Interior Ocean pH Climatology</t>
@@ -1183,64 +1117,130 @@
     <t>A monthly 1° × 1° gridded global seawater pH (total scale) climatology from 1992 to 2020 at in situ temperature, derived using a machine learning algorithm trained on pH observations from GLODAPv2. The product spans from 1992 to 2020 and covers depths from the surface to 2000 m across 41 vertical levels.</t>
   </si>
   <si>
-    <t>JMA-MLR</t>
-  </si>
-  <si>
-    <t>Iida et al. (2021)</t>
-  </si>
-  <si>
-    <t>Iida, Y., Takatani, Y., Kojima, A., and Ishii, M. 2021. Global trends of ocean CO2 sink and ocean acidification: An obsevation-based reconstruction of surface ocean inorganic carbon variables, J. Oceanogr. 77, 323-358, https://doi.org/10.1007/s10872-020-00571-5</t>
-  </si>
-  <si>
-    <t>https://www.data.jma.go.jp/kaiyou/data/db/mar_env/results/co2_flux/animation/fluxmap_fig/flux_2023MN.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/s10872-020-00571-5</t>
-  </si>
-  <si>
-    <t>1990-2023</t>
-  </si>
-  <si>
-    <t>Temporal trends of DIC, TA, pCO2, air-sea CO2 flux, pH, and Ωarag.</t>
-  </si>
-  <si>
-    <t>Iida et al. (2021) developed a monthly data product for inorganic carbonate variables on a 1° × 1° global surface ocean grid for the period 1993?2018. Variables include DIC, TA, pCO2, sea-air CO2 flux, pH, and Ωarag. They leveraged data products such as SOCAT.v2019 (Bakker et al., 2016) and GLODAPv2.2019 (Olsen et al., 2019), as well as satellite-based variables, including sea-surface dynamic height (SSDH), mixed layer depth (MLD), and chlorophyll-a. The product is updated annually using the latest SOCAT and GLODAPv2 data.</t>
-  </si>
-  <si>
-    <t>iida-ysk@met.kishou.go.jp</t>
-  </si>
-  <si>
-    <t>ULB-SOM-FFN-Coastalv2.1</t>
-  </si>
-  <si>
-    <t>Roobaert et al. (2024)</t>
-  </si>
-  <si>
-    <t>Roobaert, A., Regnier, P., Landschützer, P., and Laruelle, G. G.: A novel sea surface pCO2-product for the global coastal ocean resolving trends over 1982–2020, Earth System Science Data, 16(1), 421–441, https://doi.org/10.5194/essd-16-421-2024, 2024.</t>
-  </si>
-  <si>
-    <t>https://essd.copernicus.org/articles/16/421/2024/essd-16-421-2024-f01-web.png</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5194/essd-16-421-2024</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.25921/4sde-p068</t>
-  </si>
-  <si>
-    <t>continuous, monthly</t>
-  </si>
-  <si>
-    <t>1982-2020</t>
-  </si>
-  <si>
-    <t>Global temporal trends of coastal pCO2 and air-sea CO2 fluxes based on SOCATv2022 with data collected from 1982–2020</t>
-  </si>
-  <si>
-    <t>Roobaert et al. (2024) present high-resolution (0.25° × 0.25° grid) monthly maps showing the distribution of sea surface pCO2 across the global coastal oceans, spanning from 1982 to 2020. This product (ULB-SOM-FFN-coastalv2.1) builds upon the work by Laruelle et al. (2017), incorporating a two-step methodology that utilizes Self Organizing Maps (SOM) and Feed Forward Networks (FFN). This updated product now captures temporal variability, enabling the assessment of interannual variability and long-term trends in coastal air-sea CO2 exchange, unlike the product by Laruelle et al. (2017), which only offers a climatology for a short period (1998-2015). The enhancements include additional environmental predictors and an expanded dataset for training and validation, featuring approximately 18 million direct coastal observations from the SOCAT database, specifically the SOCATv2022 release (Bakker et al., 2016). The product is available at OCADS: https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0279118.html (Roobaert et al., 2023).</t>
-  </si>
-  <si>
-    <t>alizee.roobaert@vliz.be</t>
+    <t>Harmonized</t>
+  </si>
+  <si>
+    <t>SeaFlux</t>
+  </si>
+  <si>
+    <t>Fay and Gregor et al. (2021)</t>
+  </si>
+  <si>
+    <t>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</t>
+  </si>
+  <si>
+    <t>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-2021-16</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/8280457</t>
+  </si>
+  <si>
+    <t>1990 - 2022</t>
+  </si>
+  <si>
+    <t>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</t>
+  </si>
+  <si>
+    <t>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</t>
+  </si>
+  <si>
+    <t>Model-based</t>
+  </si>
+  <si>
+    <t>ECCO-Darwin</t>
+  </si>
+  <si>
+    <t>Carroll et al. (2020)</t>
+  </si>
+  <si>
+    <t>Carroll, D., Menemenlis, D., Adkins, J. F., Bowman, K. W., Brix, H., &amp; Dutkiewicz, S., et al. (2020). The ECCO-Darwin data-assimilative global ocean biogeochemistry model: Estimates of seasonal to multidecadal surface ocean pCO2 and air-sea CO2 flux. Journal of Advances in Modeling Earth Systems, 12, e2019MS001888. https://doi.org/10.1029/2019MS001888</t>
+  </si>
+  <si>
+    <t>https://ecco-group.org/images/ecco_rotator01.jpg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10627664</t>
+  </si>
+  <si>
+    <t>https://data.nas.nasa.gov/ecco/</t>
+  </si>
+  <si>
+    <t>0.33° x 0.33°</t>
+  </si>
+  <si>
+    <t>daily, monthly</t>
+  </si>
+  <si>
+    <t>Open ocean, Coastal ocean, Surface, Water column</t>
+  </si>
+  <si>
+    <t>1992 - 2018</t>
+  </si>
+  <si>
+    <t>Model-data synthesis product based on the Estimating the Circulation and Climate of the Ocean (ECCO) ocean state estimate. Fully-closed, physically-consistent 3-D biogeochemical budgets.</t>
+  </si>
+  <si>
+    <t>Carroll et al. (2022) used the Estimating the Circulation and Climate of the Ocean-Darwin (ECCO-Darwin) global-ocean biogeochemistry state estimate to generate a data-constrained DIC budget and investigate how spatiotemporal variability in advection and mixing, air-sea CO2 flux, and the biological pump have modulated the ocean sink for 1995–2018. ECCO-Darwin assimilates ocean circulation and physical tracers, including temperature, salinity, and sea ice, derived from the Estimating the Circulation and Climate of the Ocean (ECCO) LLC270 global-ocean and sea-ice data synthesis (Zhang et al., 2018). Additionally, it assimilates biogeochemical observations encompassing the cycling of carbon, nitrogen, phosphorus (PO 4 ), iron (Fe), silica (SiO 2 ), DO, and TA. This inclusive approach enhances the model’s fidelity by aligning it with a diverse array of observations. All ECCO-Darwin model output is available on the ECCO Data Portal: https://data.nas.nasa.gov/ecco/. The model code and platform-independent instructions for running ECCO-Darwin simulations can be found at: https://github.com/MITgcm-contrib/ecco_darwin.</t>
+  </si>
+  <si>
+    <t>Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE) gridded Canth</t>
+  </si>
+  <si>
+    <t>Carter et al. (2025)</t>
+  </si>
+  <si>
+    <t>Carter, B. R., Schwinger, J., Sonnerup, R., Fassbender, A. J., Sharp, J. D., Dias, L. M., &amp; Sandborn, D. E. (2025). Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE). Earth System Science Data, 17(6), 3073-3088.</t>
+  </si>
+  <si>
+    <t>https://essd.copernicus.org/articles/17/3073/2025/essd-17-3073-2025-avatar-web.png</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/essd-17-3073-2025</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15692788</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>Open ocean, Surface, Water column</t>
+  </si>
+  <si>
+    <t>1750-2500</t>
+  </si>
+  <si>
+    <t>New methods for rapidly estimating anthropogenic carbon from temperature, salinity, and date are presented.  The methods are then used with SSPs to estimate anthropogenic carbon in the ocean globally from 1750 to 2500.</t>
+  </si>
+  <si>
+    <t>Here, we make modifications to the transit time distribution approach for Canth estimation that render the method more accessible. We also release software (BRCScienceProducts, 2025) called “Tracer-based Rapid Anthropogenic Carbon Estimation version 1” (TRACEv1) that allows users – with one line of code – to obtain Canth and water mass age estimates throughout the global open ocean from user-supplied values of geographic location, pressure, salinity, temperature, and the estimate year. We use this code to generate a data product of global gridded open-ocean Canth distributions (TRACEv1_GGCanth; Carter, 2025) that ranges from the preindustrial era through 2500 under a range of Shared Socioeconomic Pathways (SSPs, or atmospheric CO2 concentration pathways). We estimated the skill of these estimates by reconstructing Canth in models with known distributions of Canth and transient tracers and by conducting perturbation tests. In the model-based reconstruction test, TRACEv1 reproduces the global ocean Canth inventory to within ±10 % in 1980 and 2014. We discuss implications and limitations of the projected Canth distributions and highlight ways that the estimation strategy might be improved. One finding is that the ocean will continue to increase its net Canth inventory at least through 2500 due to deep-ocean ventilation, even with the SSP in which intense mitigation successfully decreases atmospheric Canth by ∼60 % in 2500 relative to the 2024 concentration. A notable limitation of this and similar projections made with TRACEv1 is that ongoing and potential future warming and changing oceanic circulation patterns with climate change are not captured by the method. The data products generated by this research are available as MATLAB code (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025) and a spatially and temporally gridded data product (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025).</t>
+  </si>
+  <si>
+    <t>Preformed properties for marine organic matter and carbonate mineral cycling quantification</t>
+  </si>
+  <si>
+    <t>Carter et al. (2021)</t>
+  </si>
+  <si>
+    <t>Carter, B. R., Feely, R. A., Lauvset, S. K., Olsen, A., DeVries, T., &amp; Sonnerup, R. (2021). Preformed properties for marine organic matter and carbonate mineral cycling quantification. Global Biogeochemical Cycles, 35(1), e2020GB006623.</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/cms/asset/a70dc130-3967-4e0c-bab1-fa5967af0a63/gbc21075-fig-0003-m.jpg</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/3745002</t>
+  </si>
+  <si>
+    <t>https://github.com/BRCScienceProducts/PreformedPropertyEstimates</t>
+  </si>
+  <si>
+    <t>We have updated global preformed biogeochemical property estimates and provided the estimates for analysis and model validation</t>
+  </si>
+  <si>
+    <t>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</t>
   </si>
   <si>
     <t>fa-solid fa-globe</t>
@@ -1323,12 +1323,12 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <u/>
+      <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF434343"/>
+      <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -1429,11 +1429,20 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1444,20 +1453,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2280,15 +2280,15 @@
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>45962.72461462963</v>
+        <v>45964.77802197917</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2303,21 +2303,23 @@
       <c r="H8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="J8" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="K8" s="6" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
@@ -2329,49 +2331,49 @@
       </c>
       <c r="V8" s="11">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>45962.74445758102</v>
+        <v>45962.72461462963</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="8" t="s">
         <v>96</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="I9" s="12"/>
       <c r="K9" s="6" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>40</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -2383,55 +2385,51 @@
       </c>
       <c r="V9" s="11">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>45961.95201907407</v>
+        <v>45962.74445758102</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="12"/>
+      <c r="K10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2441,171 +2439,171 @@
       </c>
       <c r="V10" s="11">
         <f t="shared" si="2"/>
-        <v>0.29</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>45961.909583877314</v>
+        <v>45965.726672199075</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="J11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="L11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="O11" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11">
+      <c r="U11" s="16">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="V11" s="11">
+        <v>302</v>
+      </c>
+      <c r="V11" s="16">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>45961.91270586806</v>
+        <v>45965.74423630787</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="H12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="K12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="O12" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="P12" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="11">
+      <c r="U12" s="16">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="V12" s="11">
+        <v>302</v>
+      </c>
+      <c r="V12" s="16">
         <f t="shared" si="2"/>
-        <v>0.58</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>45962.680467199076</v>
+        <v>45961.95201907407</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="H13" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="I13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -2615,92 +2613,95 @@
       </c>
       <c r="V13" s="11">
         <f t="shared" si="2"/>
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>45962.690968483796</v>
+        <v>45961.909583877314</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="H14" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" s="10"/>
+      <c r="P14" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
       <c r="U14" s="11">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="2"/>
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>45962.75772594908</v>
+        <v>45961.91270586806</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>157</v>
@@ -2708,7 +2709,7 @@
       <c r="K15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="6" t="s">
         <v>158</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -2717,30 +2718,33 @@
       <c r="O15" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="P15" s="10"/>
+      <c r="P15" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
       <c r="U15" s="11">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
-        <v>45962.76769828703</v>
+        <v>45965.55325196759</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>162</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -2752,14 +2756,14 @@
       <c r="G16" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>106</v>
+      <c r="I16" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>167</v>
@@ -2773,25 +2777,27 @@
       <c r="O16" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="P16" s="10"/>
+      <c r="P16" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
-      <c r="U16" s="11">
+      <c r="U16" s="16">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="16">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
-        <v>45962.780607939814</v>
+        <v>45962.680467199076</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>172</v>
@@ -2802,23 +2808,23 @@
       <c r="E17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="14" t="s">
         <v>175</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="8" t="s">
         <v>177</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>178</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>179</v>
@@ -2839,17 +2845,17 @@
       </c>
       <c r="V17" s="11">
         <f t="shared" si="2"/>
-        <v>1.02</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
-        <v>45962.98225526621</v>
+        <v>45962.690968483796</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>182</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -2861,20 +2867,20 @@
       <c r="F18" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>106</v>
+      <c r="I18" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>178</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>188</v>
@@ -2895,15 +2901,15 @@
       </c>
       <c r="V18" s="11">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
-        <v>45962.210738877315</v>
+        <v>45962.75772594908</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>191</v>
@@ -2920,26 +2926,26 @@
       <c r="G19" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="8" t="s">
         <v>196</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -2951,51 +2957,51 @@
       </c>
       <c r="V19" s="11">
         <f t="shared" si="2"/>
-        <v>0.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
-        <v>45962.673469733796</v>
+        <v>45962.76769828703</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="15" t="s">
         <v>203</v>
       </c>
+      <c r="F20" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="G20" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="15" t="s">
         <v>205</v>
       </c>
+      <c r="H20" s="14" t="s">
+        <v>206</v>
+      </c>
       <c r="I20" s="7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -3007,109 +3013,107 @@
       </c>
       <c r="V20" s="11">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18">
-        <v>45961.90485893519</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="A21" s="5">
+        <v>45964.856173356486</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="19" t="s">
+      <c r="H21" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="19" t="s">
+      <c r="I21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
       <c r="U21" s="11">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
-        <v>45964.74980144676</v>
+        <v>45964.86003099537</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="N22" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="O22" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -3121,381 +3125,383 @@
       </c>
       <c r="V22" s="11">
         <f t="shared" si="2"/>
-        <v>1.45</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
-        <v>45964.77802197917</v>
+        <v>45964.89335268519</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="H23" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="I23" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="L23" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="N23" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="O23" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="U23" s="11">
+      <c r="U23" s="16">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="V23" s="11">
         <f t="shared" si="2"/>
-        <v>0.07</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
-        <v>45964.855968159725</v>
+        <v>45965.777433888885</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="H24" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="I24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="N24" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="O24" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="P24" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
-      <c r="U24" s="11">
+      <c r="U24" s="16">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="16">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
-        <v>45964.861641446754</v>
+        <v>45965.78585724537</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="I25" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="O25" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="P25" s="10"/>
+      <c r="P25" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
-      <c r="U25" s="11">
+      <c r="U25" s="16">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="V25" s="11">
+        <v>302</v>
+      </c>
+      <c r="V25" s="16">
         <f t="shared" si="2"/>
-        <v>0.78</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
-        <v>45964.856173356486</v>
+        <v>45966.15542136574</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="H26" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="N26" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="O26" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="P26" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="U26" s="11">
+      <c r="U26" s="16">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="V26" s="11">
+        <v>301</v>
+      </c>
+      <c r="V26" s="16">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
-        <v>45964.86003099537</v>
+        <v>45966.24933918982</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="G27" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="H27" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="N27" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="O27" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="P27" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="U27" s="11">
+      <c r="R27" s="20"/>
+      <c r="U27" s="16">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="V27" s="11">
+        <v>302</v>
+      </c>
+      <c r="V27" s="16">
         <f t="shared" si="2"/>
-        <v>0.79</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
-        <v>45964.89335268519</v>
+        <v>45966.45460355324</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="H28" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="I28" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="K28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="N28" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="O28" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="U28" s="24">
+      <c r="U28" s="16">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="V28" s="11">
+        <v>302</v>
+      </c>
+      <c r="V28" s="16">
         <f t="shared" si="2"/>
-        <v>2.23</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
-        <v>45964.924418888884</v>
+        <v>45965.79996599537</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="G29" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="I29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="K29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>295</v>
@@ -3504,53 +3510,53 @@
         <v>296</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="U29" s="24">
+      <c r="U29" s="16">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V29" s="24">
+      <c r="V29" s="16">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
-        <v>45964.928267361116</v>
+        <v>45962.780607939814</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>106</v>
+      <c r="I30" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>303</v>
@@ -3561,606 +3567,600 @@
       <c r="O30" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="P30" s="6" t="s">
-        <v>306</v>
-      </c>
+      <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
-      <c r="U30" s="24">
+      <c r="U30" s="11">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V30" s="24">
+      <c r="V30" s="11">
         <f t="shared" si="2"/>
-        <v>0.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
-        <v>45965.55325196759</v>
+        <v>45962.98225526621</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="I31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="L31" s="13" t="s">
+      <c r="N31" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="O31" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>316</v>
-      </c>
+      <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
-      <c r="U31" s="24">
+      <c r="U31" s="11">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V31" s="24">
+      <c r="V31" s="11">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
-        <v>45965.726672199075</v>
+        <v>45962.210738877315</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="G32" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="H32" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="I32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="N32" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K32" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>326</v>
-      </c>
+      <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
-      <c r="U32" s="24">
+      <c r="U32" s="11">
         <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
-      <c r="V32" s="24">
+        <v>200</v>
+      </c>
+      <c r="V32" s="11">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
-        <v>45965.74423630787</v>
+        <v>45962.673469733796</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="G33" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="H33" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="I33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="N33" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="O33" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>326</v>
-      </c>
+      <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="U33" s="24">
+      <c r="U33" s="11">
         <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
-      <c r="V33" s="24">
+        <v>200</v>
+      </c>
+      <c r="V33" s="11">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
-        <v>45965.777433888885</v>
+        <v>45964.924418888884</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="G34" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="H34" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="I34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="O34" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="P34" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
-      <c r="U34" s="24">
+      <c r="U34" s="16">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V34" s="24">
+      <c r="V34" s="16">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
-        <v>45965.78585724537</v>
+        <v>45964.928267361116</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="I35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="N35" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="O35" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="P35" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
-      <c r="U35" s="24">
+      <c r="U35" s="16">
         <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
-      <c r="V35" s="24">
+        <v>200</v>
+      </c>
+      <c r="V35" s="16">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
-        <v>45965.79996599537</v>
+        <v>45966.160705902774</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>360</v>
+      <c r="H36" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L36" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="U36" s="16">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="V36" s="16">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="21">
+        <v>45961.90485893519</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="E37" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="F37" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="P36" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="U36" s="24">
+      <c r="G37" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="M37" s="25"/>
+      <c r="N37" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="O37" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V36" s="24">
+      <c r="V37" s="11">
         <f t="shared" si="2"/>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5">
-        <v>45966.15542136574</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="U37" s="24">
-        <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="V37" s="24">
-        <f t="shared" si="2"/>
-        <v>8.39</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
-        <v>45966.160705902774</v>
+        <v>45964.74980144676</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="G38" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="H38" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="I38" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="J38" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="H38" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="K38" s="6" t="s">
-        <v>49</v>
+        <v>378</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="U38" s="24">
+        <v>381</v>
+      </c>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="U38" s="11">
         <f t="shared" si="1"/>
-        <v>301</v>
-      </c>
-      <c r="V38" s="24" t="str">
+        <v>200</v>
+      </c>
+      <c r="V38" s="11">
         <f t="shared" si="2"/>
-        <v>Error fetching image: Timeout: https://appletmsdc.qdio.ac.cn//files/metadata/images/%E6%95%B0%E6%8D%AE%E9%9B%86%E7%95%A5%E7%BC%A9%E5%9B%BE-1689829059666.jpg</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
-        <v>45966.24933918982</v>
+        <v>45964.855968159725</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>106</v>
+        <v>387</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>107</v>
+        <v>388</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>39</v>
+        <v>389</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="R39" s="25"/>
-      <c r="U39" s="24">
+        <v>392</v>
+      </c>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="U39" s="11">
         <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
-      <c r="V39" s="24">
+        <v>200</v>
+      </c>
+      <c r="V39" s="11">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
-        <v>45966.45460355324</v>
+        <v>45964.861641446754</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>127</v>
+        <v>398</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>396</v>
+        <v>293</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>397</v>
+        <v>40</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="P40" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="U40" s="24">
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="U40" s="11">
         <f t="shared" si="1"/>
-        <v>302</v>
-      </c>
-      <c r="V40" s="24">
+        <v>200</v>
+      </c>
+      <c r="V40" s="11">
         <f t="shared" si="2"/>
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
       <c r="L41" s="27"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
@@ -4170,21 +4170,21 @@
       <c r="V41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
       <c r="L42" s="27"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -4194,21 +4194,21 @@
       <c r="V42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
       <c r="L43" s="27"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
@@ -4218,21 +4218,21 @@
       <c r="V43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="26"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
       <c r="L44" s="27"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
@@ -4242,21 +4242,21 @@
       <c r="V44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="26"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="27"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -4266,21 +4266,21 @@
       <c r="V45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="26"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
       <c r="L46" s="27"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
@@ -4290,21 +4290,21 @@
       <c r="V46" s="11"/>
     </row>
     <row r="47">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="26"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="27"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -4314,21 +4314,21 @@
       <c r="V47" s="11"/>
     </row>
     <row r="48">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
       <c r="I48" s="26"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="27"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
@@ -4338,21 +4338,21 @@
       <c r="V48" s="11"/>
     </row>
     <row r="49">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="27"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -4362,21 +4362,21 @@
       <c r="V49" s="11"/>
     </row>
     <row r="50">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="26"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
       <c r="L50" s="27"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -4386,21 +4386,21 @@
       <c r="V50" s="11"/>
     </row>
     <row r="51">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="26"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="27"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -4410,21 +4410,21 @@
       <c r="V51" s="11"/>
     </row>
     <row r="52">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="26"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="27"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -4434,21 +4434,21 @@
       <c r="V52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="26"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="27"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
@@ -4458,21 +4458,21 @@
       <c r="V53" s="11"/>
     </row>
     <row r="54">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="26"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="27"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -4482,21 +4482,21 @@
       <c r="V54" s="11"/>
     </row>
     <row r="55">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="27"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -4506,21 +4506,21 @@
       <c r="V55" s="11"/>
     </row>
     <row r="56">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="26"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="27"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -4530,21 +4530,21 @@
       <c r="V56" s="11"/>
     </row>
     <row r="57">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="26"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="27"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
@@ -4554,21 +4554,21 @@
       <c r="V57" s="11"/>
     </row>
     <row r="58">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
       <c r="I58" s="26"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="27"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
@@ -4578,21 +4578,21 @@
       <c r="V58" s="11"/>
     </row>
     <row r="59">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
       <c r="I59" s="26"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="27"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
@@ -4602,21 +4602,21 @@
       <c r="V59" s="11"/>
     </row>
     <row r="60">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="26"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
       <c r="L60" s="27"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -4626,21 +4626,21 @@
       <c r="V60" s="11"/>
     </row>
     <row r="61">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="26"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
       <c r="L61" s="27"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
@@ -4650,21 +4650,21 @@
       <c r="V61" s="11"/>
     </row>
     <row r="62">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="26"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
       <c r="L62" s="27"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
@@ -4674,21 +4674,21 @@
       <c r="V62" s="11"/>
     </row>
     <row r="63">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
       <c r="I63" s="26"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
       <c r="L63" s="27"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
@@ -4698,21 +4698,21 @@
       <c r="V63" s="11"/>
     </row>
     <row r="64">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="26"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="27"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
@@ -4722,21 +4722,21 @@
       <c r="V64" s="11"/>
     </row>
     <row r="65">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
       <c r="I65" s="26"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
       <c r="L65" s="27"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
@@ -4746,21 +4746,21 @@
       <c r="V65" s="11"/>
     </row>
     <row r="66">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="26"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
       <c r="L66" s="27"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -4770,21 +4770,21 @@
       <c r="V66" s="11"/>
     </row>
     <row r="67">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
       <c r="I67" s="26"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
       <c r="L67" s="27"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
@@ -4794,21 +4794,21 @@
       <c r="V67" s="11"/>
     </row>
     <row r="68">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="26"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
       <c r="L68" s="27"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
@@ -4818,21 +4818,21 @@
       <c r="V68" s="11"/>
     </row>
     <row r="69">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
       <c r="I69" s="26"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
       <c r="L69" s="27"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
@@ -4842,21 +4842,21 @@
       <c r="V69" s="11"/>
     </row>
     <row r="70">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
       <c r="I70" s="26"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
       <c r="L70" s="27"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
@@ -4866,21 +4866,21 @@
       <c r="V70" s="11"/>
     </row>
     <row r="71">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="26"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
       <c r="L71" s="27"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -4890,21 +4890,21 @@
       <c r="V71" s="11"/>
     </row>
     <row r="72">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
       <c r="I72" s="26"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
       <c r="L72" s="27"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -4914,21 +4914,21 @@
       <c r="V72" s="11"/>
     </row>
     <row r="73">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="26"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
       <c r="L73" s="27"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
@@ -4938,21 +4938,21 @@
       <c r="V73" s="11"/>
     </row>
     <row r="74">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="26"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
       <c r="L74" s="27"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
@@ -4962,21 +4962,21 @@
       <c r="V74" s="11"/>
     </row>
     <row r="75">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
       <c r="L75" s="27"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
@@ -4986,21 +4986,21 @@
       <c r="V75" s="11"/>
     </row>
     <row r="76">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
       <c r="I76" s="26"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
       <c r="L76" s="27"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
@@ -5010,21 +5010,21 @@
       <c r="V76" s="11"/>
     </row>
     <row r="77">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
       <c r="I77" s="26"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
       <c r="L77" s="27"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
@@ -5034,21 +5034,21 @@
       <c r="V77" s="11"/>
     </row>
     <row r="78">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
       <c r="I78" s="26"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
       <c r="L78" s="27"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
@@ -5058,21 +5058,21 @@
       <c r="V78" s="11"/>
     </row>
     <row r="79">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
       <c r="I79" s="26"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
       <c r="L79" s="27"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
@@ -5082,21 +5082,21 @@
       <c r="V79" s="11"/>
     </row>
     <row r="80">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="26"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
       <c r="L80" s="27"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
@@ -5106,21 +5106,21 @@
       <c r="V80" s="11"/>
     </row>
     <row r="81">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="26"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
       <c r="L81" s="27"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
@@ -5130,21 +5130,21 @@
       <c r="V81" s="11"/>
     </row>
     <row r="82">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
       <c r="I82" s="26"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
       <c r="L82" s="27"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
@@ -5154,21 +5154,21 @@
       <c r="V82" s="11"/>
     </row>
     <row r="83">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
       <c r="I83" s="26"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
       <c r="L83" s="27"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
@@ -5178,21 +5178,21 @@
       <c r="V83" s="11"/>
     </row>
     <row r="84">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
       <c r="I84" s="26"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
       <c r="L84" s="27"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
@@ -5202,21 +5202,21 @@
       <c r="V84" s="11"/>
     </row>
     <row r="85">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
       <c r="I85" s="26"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
       <c r="L85" s="27"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
@@ -5226,21 +5226,21 @@
       <c r="V85" s="11"/>
     </row>
     <row r="86">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
       <c r="I86" s="26"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
       <c r="L86" s="27"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
@@ -5250,21 +5250,21 @@
       <c r="V86" s="11"/>
     </row>
     <row r="87">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
       <c r="I87" s="26"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
       <c r="L87" s="27"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
@@ -5274,21 +5274,21 @@
       <c r="V87" s="11"/>
     </row>
     <row r="88">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
       <c r="I88" s="26"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
       <c r="L88" s="27"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
@@ -5298,21 +5298,21 @@
       <c r="V88" s="11"/>
     </row>
     <row r="89">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
       <c r="I89" s="26"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
       <c r="L89" s="27"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
@@ -5322,21 +5322,21 @@
       <c r="V89" s="11"/>
     </row>
     <row r="90">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
       <c r="I90" s="26"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
       <c r="L90" s="27"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
@@ -5346,21 +5346,21 @@
       <c r="V90" s="11"/>
     </row>
     <row r="91">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="26"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
       <c r="L91" s="27"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
@@ -5370,21 +5370,21 @@
       <c r="V91" s="11"/>
     </row>
     <row r="92">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
       <c r="I92" s="26"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
       <c r="L92" s="27"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
@@ -5394,21 +5394,21 @@
       <c r="V92" s="11"/>
     </row>
     <row r="93">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
       <c r="I93" s="26"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
       <c r="L93" s="27"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
@@ -5418,21 +5418,21 @@
       <c r="V93" s="11"/>
     </row>
     <row r="94">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
       <c r="I94" s="26"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
       <c r="L94" s="27"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
@@ -5442,21 +5442,21 @@
       <c r="V94" s="11"/>
     </row>
     <row r="95">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="26"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
       <c r="L95" s="27"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
@@ -5466,21 +5466,21 @@
       <c r="V95" s="11"/>
     </row>
     <row r="96">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
       <c r="I96" s="26"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
       <c r="L96" s="27"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="19"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
@@ -5490,21 +5490,21 @@
       <c r="V96" s="11"/>
     </row>
     <row r="97">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
       <c r="I97" s="26"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
       <c r="L97" s="27"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
       <c r="P97" s="11"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
@@ -5514,21 +5514,21 @@
       <c r="V97" s="11"/>
     </row>
     <row r="98">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
       <c r="I98" s="26"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
       <c r="L98" s="27"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
@@ -10263,17 +10263,17 @@
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H38 H41:H98">
+  <conditionalFormatting sqref="H2:H26 H29:H98">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>U2=200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H38 H41:H98">
+  <conditionalFormatting sqref="H2:H26 H29:H98">
     <cfRule type="expression" dxfId="1" priority="5">
       <formula>U2=404</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H38 H41:H98">
+  <conditionalFormatting sqref="H2:H26 H29:H98">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>U2=302</formula>
     </cfRule>
@@ -10284,17 +10284,17 @@
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F42 V29 F44:F98">
+  <conditionalFormatting sqref="F2:F42 V34 F44:F98">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>if(isblank(V2), "", V2&lt;0.3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F42 V29 F44:F98">
+  <conditionalFormatting sqref="F2:F42 V34 F44:F98">
     <cfRule type="expression" dxfId="1" priority="9">
       <formula>V2&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F42 V29 F44:F98">
+  <conditionalFormatting sqref="F2:F42 V34 F44:F98">
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(V2&gt;0.3,V2&lt;1)</formula>
     </cfRule>
@@ -10371,7 +10371,7 @@
     <hyperlink r:id="rId66" ref="H23"/>
     <hyperlink r:id="rId67" ref="F24"/>
     <hyperlink r:id="rId68" ref="G24"/>
-    <hyperlink r:id="rId69" ref="H24"/>
+    <hyperlink r:id="rId69" location="/metadata/a2f0891b-763a-49e9-af1b-78ed78b16982" ref="H24"/>
     <hyperlink r:id="rId70" ref="F25"/>
     <hyperlink r:id="rId71" ref="G25"/>
     <hyperlink r:id="rId72" ref="H25"/>
@@ -10401,7 +10401,7 @@
     <hyperlink r:id="rId96" ref="H33"/>
     <hyperlink r:id="rId97" ref="F34"/>
     <hyperlink r:id="rId98" ref="G34"/>
-    <hyperlink r:id="rId99" location="/metadata/a2f0891b-763a-49e9-af1b-78ed78b16982" ref="H34"/>
+    <hyperlink r:id="rId99" ref="H34"/>
     <hyperlink r:id="rId100" ref="F35"/>
     <hyperlink r:id="rId101" ref="G35"/>
     <hyperlink r:id="rId102" ref="H35"/>
@@ -11238,15 +11238,15 @@
       </c>
       <c r="C9" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>Salish Sea Multi-stressor Data Product</v>
+        <v>Marine Inorganic Carbonate Chemistry in the Northern Gulf of Alaska</v>
       </c>
       <c r="D9" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>Alin et al. (2024)</v>
+        <v>Monacci et al. (2024)</v>
       </c>
       <c r="E9" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/837/2024/essd-16-837-2024-avatar-web.png</v>
+        <v>https://essd.copernicus.org/articles/16/647/2024/essd-16-647-2024-avatar-web.png</v>
       </c>
       <c r="F9" s="31" t="str">
         <f t="shared" ref="F9:G9" si="28">if(ISBLANK($C9), "", F$1)</f>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="K9" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v/>
+        <v>discrete</v>
       </c>
       <c r="L9" s="31" t="str">
         <f t="shared" ref="L9:M9" si="30">if(ISBLANK($C9), "", L$1)</f>
@@ -11294,23 +11294,23 @@
       </c>
       <c r="Q9" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v/>
+        <v>2008 - 2017</v>
       </c>
       <c r="R9" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>A data compilation and multi-stressor (OA, hypoxia, temperature) data product based on cruises from 2002 to 2018 in the southern Salish Sea and Washington coast. </v>
+        <v>A synthesis of twenty cruises from 2008 to 2017 on the Gulf of Alaska (GAK) Line</v>
       </c>
       <c r="S9" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>Alin et al. (2024)</v>
+        <v>Monacci et al. (2024)</v>
       </c>
       <c r="T9" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-837-2024</v>
+        <v>https://doi.org/10.5194/essd-16-647-2024</v>
       </c>
       <c r="U9" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/SalishCruise_DataPackage.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277034.html</v>
       </c>
       <c r="V9" s="31" t="str">
         <f t="shared" si="10"/>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="W9" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>Alin et al. (2024a) compiled data from 35 individual cruise data sets that sampled marine waters of the southern Salish Sea and northern Washington coast (United States) from 2008 to 2018. Ongoing seasonal sampling occurred during April, July, and September for Puget Sound cruises has occurred since 2014 and most frequently during May and October for Sound-to-Sea cruises, which sample from Puget Sound through the Strait of Juan de Fuca to the northern Washington coast. The Salish cruise data package contains observations from a total of 715 oceanographic profiles, with &gt; 7490 sensor measurements of temperature, salinity, and DO; ≥ 6070 measurements of discrete DO and nutrient (nitrate, phosphate, silicate, ammonium, nitrite) samples; and ≥ 4462 measurements of inorganic carbonate system variables (DIC and TA). A follow-on data product based on the Salish cruise data package, which only included the 3971 samples with complete information for temperature, salinity, DO, nutrients, DIC, and TA, is also available (Alin et al., 2023). This product additionally provides the most commonly used calculated carbonate system variables: pH (total scale), fCO2, pCO2, Ωarag, and Ωcalc. </v>
+        <v>Monacci et al. (2023) compiled a data product of discrete seawater samples collected each May and September over a 10-year period from 2008 to 2017 along the long-term hydrographic line in the Gulf of Alaska (GAK Line). Samples were collected from a sampling rosette on a profiling CTD. Data variables include profiled seawater temperature, salinity, and DO. Discrete sample variables include DO (i.e., Winkler titrations), macronutrients (nitrate, nitrite, phosphate, silicic acid), DIC, and TA. All carbonate system variables were analyzed at the Ocean Acidification Research Center (OARC) at the University of Alaska Fairbanks (UAF). The repeat hydrographic cruises were funded by the Alaska Ocean Observing System (AOOS), the Exxon Valdez Oil Spill Trustee Council (EVOS), Gulf Watch Alaska, and the North Pacific Research Board (NPRB) and were mostly conducted aboard the United States Fish and Wildlife Service (USFWS) R/V Tiĝlax̂.</v>
       </c>
       <c r="X9" s="31" t="str">
         <f t="shared" si="11"/>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="Y9" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A9,FALSE)</f>
-        <v>Alin, S. R., Newton, J. A., Feely, R. A., Greeley, D., Curry, B., Herndon, J., and Warner, M.: A decade-long cruise time series (2008–2018) of physical and biogeochemical conditions in the southern Salish Sea, North America, Earth Syst. Sci. Data, 16, 837–865, https://doi.org/10.5194/essd-16-837-2024, 2024. </v>
+        <v>Monacci, N. M., Cross, J. N., Evans, W., Mathis, J. T., and Wang, H.: A decade of marine inorganic carbon chemistry observations in the northern Gulf of Alaska – insights into an environment in transition, Earth Syst. Sci. Data, 16, 647–665, https://doi.org/10.5194/essd-16-647-2024, 2024.</v>
       </c>
     </row>
     <row r="10">
@@ -11335,19 +11335,19 @@
       </c>
       <c r="B10" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>Time series</v>
+        <v>Data compilations</v>
       </c>
       <c r="C10" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>pCO2 and pH Time-series from 40 Surface Buoys</v>
+        <v>Salish Sea Multi-stressor Data Product</v>
       </c>
       <c r="D10" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>Sutton et al. (2019)</v>
+        <v>Alin et al. (2024)</v>
       </c>
       <c r="E10" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/11/421/2019/essd-11-421-2019-avatar-web.png</v>
+        <v>https://essd.copernicus.org/articles/16/837/2024/essd-16-837-2024-avatar-web.png</v>
       </c>
       <c r="F10" s="31" t="str">
         <f t="shared" ref="F10:G10" si="32">if(ISBLANK($C10), "", F$1)</f>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="H10" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>Open ocean, Coastal ocean, Surface</v>
+        <v>Coastal ocean, Water column</v>
       </c>
       <c r="I10" s="31" t="str">
         <f t="shared" ref="I10:J10" si="33">if(ISBLANK($C10), "", I$1)</f>
@@ -11399,19 +11399,19 @@
       </c>
       <c r="R10" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>Based on 40 moored surface pCO2 time-series, with 17 of them containing pH</v>
+        <v>A data compilation and multi-stressor (OA, hypoxia, temperature) data product based on cruises from 2002 to 2018 in the southern Salish Sea and Washington coast. </v>
       </c>
       <c r="S10" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>Sutton et al. (2019)</v>
+        <v>Alin et al. (2024)</v>
       </c>
       <c r="T10" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-11-421-2019</v>
+        <v>https://doi.org/10.5194/essd-16-837-2024</v>
       </c>
       <c r="U10" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0173932.html</v>
+        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/SalishCruise_DataPackage.html</v>
       </c>
       <c r="V10" s="31" t="str">
         <f t="shared" si="10"/>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="W10" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>Sutton et al. (2019) established a living dataset comprising 40 individual autonomous moored surface ocean pCO2 time-series established between 2004 and 2013, 17 of them also include autonomous pH measurements. These time-series characterize a wide range of surface ocean carbonate system conditions, across a variety of environments, including 17 oceanic and 13 coastal locations, as well as 10 coral reefs. </v>
+        <v>Alin et al. (2024a) compiled data from 35 individual cruise data sets that sampled marine waters of the southern Salish Sea and northern Washington coast (United States) from 2008 to 2018. Ongoing seasonal sampling occurred during April, July, and September for Puget Sound cruises has occurred since 2014 and most frequently during May and October for Sound-to-Sea cruises, which sample from Puget Sound through the Strait of Juan de Fuca to the northern Washington coast. The Salish cruise data package contains observations from a total of 715 oceanographic profiles, with &gt; 7490 sensor measurements of temperature, salinity, and DO; ≥ 6070 measurements of discrete DO and nutrient (nitrate, phosphate, silicate, ammonium, nitrite) samples; and ≥ 4462 measurements of inorganic carbonate system variables (DIC and TA). A follow-on data product based on the Salish cruise data package, which only included the 3971 samples with complete information for temperature, salinity, DO, nutrients, DIC, and TA, is also available (Alin et al., 2023). This product additionally provides the most commonly used calculated carbonate system variables: pH (total scale), fCO2, pCO2, Ωarag, and Ωcalc. </v>
       </c>
       <c r="X10" s="31" t="str">
         <f t="shared" si="11"/>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="Y10" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A10,FALSE)</f>
-        <v>Sutton, A. J., Feely, R. A., Maenner-Jones, S., Musielwicz, S., Osborne, J., Dietrich, C., Monacci, N., Cross, J., Bott, R., Kozyr, A., Andersson, A. J., Bates, N. R., Cai, W.-J., Cronin, M. F., De Carlo, E. H., Hales, B., Howden, S. D., Lee, C. M., Manzello, D. P., McPhaden, M. J., Meléndez, M., Mickett, J. B., Newton, J. A., Noakes, S. E., Noh, J. H., Olafsdottir, S. R., Salisbury, J. E., Send, U., Trull, T. W., Vandemark, D. C., and Weller, R. A.: Autonomous seawater pCO2 and pH time series from 40 surface buoys and the emergence of anthropogenic trends, Earth Syst. Sci. Data, 11, 421–439, https://doi.org/10.5194/essd-11-421-2019, 2019.</v>
+        <v>Alin, S. R., Newton, J. A., Feely, R. A., Greeley, D., Curry, B., Herndon, J., and Warner, M.: A decade-long cruise time series (2008–2018) of physical and biogeochemical conditions in the southern Salish Sea, North America, Earth Syst. Sci. Data, 16, 837–865, https://doi.org/10.5194/essd-16-837-2024, 2024. </v>
       </c>
     </row>
     <row r="11">
@@ -11436,19 +11436,19 @@
       </c>
       <c r="B11" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Time series</v>
       </c>
       <c r="C11" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>CSIR-ML6</v>
+        <v>pCO2 and pH Time-series from 40 Surface Buoys</v>
       </c>
       <c r="D11" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Sutton et al. (2019)</v>
       </c>
       <c r="E11" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-web.png</v>
+        <v>https://essd.copernicus.org/articles/11/421/2019/essd-11-421-2019-avatar-web.png</v>
       </c>
       <c r="F11" s="31" t="str">
         <f t="shared" ref="F11:G11" si="36">if(ISBLANK($C11), "", F$1)</f>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="H11" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I11" s="31" t="str">
         <f t="shared" ref="I11:J11" si="37">if(ISBLANK($C11), "", I$1)</f>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="K11" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>monthly</v>
+        <v/>
       </c>
       <c r="L11" s="31" t="str">
         <f t="shared" ref="L11:M11" si="38">if(ISBLANK($C11), "", L$1)</f>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="N11" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>1° x 1°</v>
+        <v/>
       </c>
       <c r="O11" s="31" t="str">
         <f t="shared" ref="O11:P11" si="39">if(ISBLANK($C11), "", O$1)</f>
@@ -11496,23 +11496,23 @@
       </c>
       <c r="Q11" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>1982 - 2020</v>
+        <v/>
       </c>
       <c r="R11" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
+        <v>Based on 40 moored surface pCO2 time-series, with 17 of them containing pH</v>
       </c>
       <c r="S11" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>Gregor et al. (2019)</v>
+        <v>Sutton et al. (2019)</v>
       </c>
       <c r="T11" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
+        <v>https://doi.org/10.5194/essd-11-421-2019</v>
       </c>
       <c r="U11" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206205.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0173932.html</v>
       </c>
       <c r="V11" s="31" t="str">
         <f t="shared" si="10"/>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="W11" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
+        <v>Sutton et al. (2019) established a living dataset comprising 40 individual autonomous moored surface ocean pCO2 time-series established between 2004 and 2013, 17 of them also include autonomous pH measurements. These time-series characterize a wide range of surface ocean carbonate system conditions, across a variety of environments, including 17 oceanic and 13 coastal locations, as well as 10 coral reefs. </v>
       </c>
       <c r="X11" s="31" t="str">
         <f t="shared" si="11"/>
@@ -11528,7 +11528,7 @@
       </c>
       <c r="Y11" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A11,FALSE)</f>
-        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
+        <v>Sutton, A. J., Feely, R. A., Maenner-Jones, S., Musielwicz, S., Osborne, J., Dietrich, C., Monacci, N., Cross, J., Bott, R., Kozyr, A., Andersson, A. J., Bates, N. R., Cai, W.-J., Cronin, M. F., De Carlo, E. H., Hales, B., Howden, S. D., Lee, C. M., Manzello, D. P., McPhaden, M. J., Meléndez, M., Mickett, J. B., Newton, J. A., Noakes, S. E., Noh, J. H., Olafsdottir, S. R., Salisbury, J. E., Send, U., Trull, T. W., Vandemark, D. C., and Weller, R. A.: Autonomous seawater pCO2 and pH time series from 40 surface buoys and the emergence of anthropogenic trends, Earth Syst. Sci. Data, 11, 421–439, https://doi.org/10.5194/essd-11-421-2019, 2019.</v>
       </c>
     </row>
     <row r="12">
@@ -11537,19 +11537,19 @@
       </c>
       <c r="B12" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Time series</v>
       </c>
       <c r="C12" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>OceanSODA-ETHZv1</v>
+        <v>Point B Time-series</v>
       </c>
       <c r="D12" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Kapsenberg et al. (2017)</v>
       </c>
       <c r="E12" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
+        <v>https://i.ibb.co/8gK4B2BP/Point-B.png</v>
       </c>
       <c r="F12" s="31" t="str">
         <f t="shared" ref="F12:G12" si="40">if(ISBLANK($C12), "", F$1)</f>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="H12" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Coastal ocean</v>
       </c>
       <c r="I12" s="31" t="str">
         <f t="shared" ref="I12:J12" si="41">if(ISBLANK($C12), "", I$1)</f>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="K12" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>monthly</v>
+        <v>discrete</v>
       </c>
       <c r="L12" s="31" t="str">
         <f t="shared" ref="L12:M12" si="42">if(ISBLANK($C12), "", L$1)</f>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="N12" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>1° x 1°</v>
+        <v/>
       </c>
       <c r="O12" s="31" t="str">
         <f t="shared" ref="O12:P12" si="43">if(ISBLANK($C12), "", O$1)</f>
@@ -11597,23 +11597,23 @@
       </c>
       <c r="Q12" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>1982 - 2022</v>
+        <v/>
       </c>
       <c r="R12" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
+        <v>Carbonate chemistry at a coastal site of the Bay of Villefranche, France</v>
       </c>
       <c r="S12" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>Gregor and Gruber (2021)</v>
+        <v>Kapsenberg et al. (2017)</v>
       </c>
       <c r="T12" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-13-777-2021</v>
+        <v>https://doi.org/10.5194/os-13-411-2017</v>
       </c>
       <c r="U12" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0220059.html</v>
+        <v>https://doi.org/10.1594/PANGAEA.727120 </v>
       </c>
       <c r="V12" s="31" t="str">
         <f t="shared" si="10"/>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="W12" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
+        <v>The Point B Time-series documents the carbonate chemistry at a coastal site of the Bay of Villefranche (43.686200N 7.314800E) in Villefranche-sur-mer, France, northwestern Mediterranean Sea. Since January 2007, seawater is sampled weekly at 1 and 50 m, and analyzed for DIC and TA. Salinity and temperature are extracted from CTD profiles. Variables of the carbonate system such as pH (total scale) are calculated using the R package seacarb. </v>
       </c>
       <c r="X12" s="31" t="str">
         <f t="shared" si="11"/>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="Y12" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A12,FALSE)</f>
-        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
+        <v>Kapsenberg, L., Alliouane, S., Gazeau, F., Mousseau, L., and Gattuso, J.-P.: Coastal ocean acidification and increasing total alkalinity in the northwestern Mediterranean Sea, Ocean Sci., 13, 411–426, https://doi.org/10.5194/os-13-411-2017, 2017.  </v>
       </c>
     </row>
     <row r="13">
@@ -11638,19 +11638,19 @@
       </c>
       <c r="B13" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Time series</v>
       </c>
       <c r="C13" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>OceanSODA-ETHZv2</v>
+        <v>Ny-Ålesund Time-series</v>
       </c>
       <c r="D13" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gattuso et al. (2023)</v>
       </c>
       <c r="E13" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/15/2809/2023/essd-15-2809-2023-avatar-web.png</v>
       </c>
       <c r="F13" s="31" t="str">
         <f t="shared" ref="F13:G13" si="44">if(ISBLANK($C13), "", F$1)</f>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="H13" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Coastal ocean</v>
       </c>
       <c r="I13" s="31" t="str">
         <f t="shared" ref="I13:J13" si="45">if(ISBLANK($C13), "", I$1)</f>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="K13" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>8-day</v>
+        <v>continuous, discrete</v>
       </c>
       <c r="L13" s="31" t="str">
         <f t="shared" ref="L13:M13" si="46">if(ISBLANK($C13), "", L$1)</f>
@@ -11686,7 +11686,7 @@
       </c>
       <c r="N13" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>0.25° x 0.25°</v>
+        <v/>
       </c>
       <c r="O13" s="31" t="str">
         <f t="shared" ref="O13:P13" si="47">if(ISBLANK($C13), "", O$1)</f>
@@ -11698,23 +11698,23 @@
       </c>
       <c r="Q13" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>1982 - 2023</v>
+        <v/>
       </c>
       <c r="R13" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
+        <v>Carbonate chemistry at a coastal site of Kongsfjorden, Spitsbergen</v>
       </c>
       <c r="S13" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>Gregor et al. (2024)</v>
+        <v>Gattuso et al. (2023)</v>
       </c>
       <c r="T13" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>https://doi.org/10.1029/2024GB008127</v>
+        <v>https://doi.org/10.5194/essd-15-2809-2023</v>
       </c>
       <c r="U13" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>https://zenodo.org/records/11206366</v>
+        <v>https://doi.org//10.1594/PANGAEA.957028</v>
       </c>
       <c r="V13" s="31" t="str">
         <f t="shared" si="10"/>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="W13" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
+        <v>The Ny-Ålesund Time-series documents the carbonate chemistry at a coastal site of Kongsfjorden, Spitsbergen (78.930660N 11.920030E) during the period 2015-2021. It is the first high-frequency (1 hour), multi-year (6 years) dataset of salinity, temperature, pCO2, pH, as well as calculated DIC and TA in the High-Arctic Ocean (Gattuso et al., 2023). </v>
       </c>
       <c r="X13" s="31" t="str">
         <f t="shared" si="11"/>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="Y13" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A13,FALSE)</f>
-        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
+        <v>Gattuso, J.-P., Alliouane, S., and Fischer, P.: High-frequency, year-round time series of the carbonate chemistry in a high-Arctic fjord (Svalbard), Earth Syst. Sci. Data, 15, 2809–2825, https://doi.org/10.5194/essd-15-2809-2023, 2023. </v>
       </c>
     </row>
     <row r="14">
@@ -11743,15 +11743,15 @@
       </c>
       <c r="C14" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>Surface pH and Revelle Factor</v>
+        <v>CSIR-ML6</v>
       </c>
       <c r="D14" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>Jiang et al. (2019)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="E14" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png</v>
+        <v>https://gmd.copernicus.org/articles/12/5113/2019/gmd-12-5113-2019-f09-web.png</v>
       </c>
       <c r="F14" s="31" t="str">
         <f t="shared" ref="F14:G14" si="48">if(ISBLANK($C14), "", F$1)</f>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="K14" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>decadal, climatology</v>
+        <v>monthly</v>
       </c>
       <c r="L14" s="31" t="str">
         <f t="shared" ref="L14:M14" si="50">if(ISBLANK($C14), "", L$1)</f>
@@ -11799,23 +11799,23 @@
       </c>
       <c r="Q14" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>1770 - 2100</v>
+        <v>1982 - 2020</v>
       </c>
       <c r="R14" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</v>
+        <v>Various ML methods produce different results when data is sparse, but all still achieving roughly the same uncertainty</v>
       </c>
       <c r="S14" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>Jiang et al. (2019)</v>
+        <v>Gregor et al. (2019)</v>
       </c>
       <c r="T14" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>https://doi.org/10.1038/s41598-019-55039-4</v>
+        <v>https://doi.org/10.5194/gmd-12-5113-2019</v>
       </c>
       <c r="U14" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206205.html</v>
       </c>
       <c r="V14" s="31" t="str">
         <f t="shared" si="10"/>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="W14" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </v>
+        <v>Provides monthly 1° × 1° estimates of surface pCO2 (Gregor et al., 2019a). The approach uses the conceptual two-step approach of clustering and performing regressions for each cluster as Landschützer et al. (2016). CSIR-ML6 investigates the efficacy of various machine learning (ML) methods in estimating surface pCO2, namely, feed-forward neural networks (FFNN), extremely randomized trees (ERT), gradient boosting machines (GBM), and support vector regression (SVR). It is found that the ensemble of all but the ERT method resulted in the best estimate, highlighting the fact that various ML methods do not produce the same outcome, particularly when data is sparse. Further, the variance between ensemble members can inform us about regions where uncertainty may be large due to methodological differences. Despite this, all methods achieve roughly the same uncertainty – a barrier, or wall beyond which the community has yet to overcome.</v>
       </c>
       <c r="X14" s="31" t="str">
         <f t="shared" si="11"/>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="Y14" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A14,FALSE)</f>
-        <v>Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </v>
+        <v>Gregor, L., Lebehot, A. D., Kok, S., and Scheel Monteiro, P. M.: A comparative assessment of the uncertainties of global surface ocean CO2 estimates using a machine-learning ensemble (CSIR-ML6 version 2019a) – have we hit the wall?, Geosci. Model Dev., 12, 5113–5136, https://doi.org/10.5194/gmd-12-5113-2019, 2019.</v>
       </c>
     </row>
     <row r="15">
@@ -11844,15 +11844,15 @@
       </c>
       <c r="C15" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>Surface OA Indicators </v>
+        <v>OceanSODA-ETHZv1</v>
       </c>
       <c r="D15" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>Jiang et al. (2023)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="E15" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/13/777/2021/essd-13-777-2021-avatar-web.png</v>
       </c>
       <c r="F15" s="31" t="str">
         <f t="shared" ref="F15:G15" si="52">if(ISBLANK($C15), "", F$1)</f>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="K15" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>decadal, climatology</v>
+        <v>monthly</v>
       </c>
       <c r="L15" s="31" t="str">
         <f t="shared" ref="L15:M15" si="54">if(ISBLANK($C15), "", L$1)</f>
@@ -11900,23 +11900,23 @@
       </c>
       <c r="Q15" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>1750 - 2100</v>
+        <v>1982 - 2022</v>
       </c>
       <c r="R15" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</v>
+        <v>Temporal trends of DIC, TA, pCO2, pH, Ωarag, and Ωcalc</v>
       </c>
       <c r="S15" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>Jiang et al. (2023)</v>
+        <v>Gregor and Gruber (2021)</v>
       </c>
       <c r="T15" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>https://doi.org/10.1029/2022MS003563</v>
+        <v>https://doi.org/10.5194/essd-13-777-2021</v>
       </c>
       <c r="U15" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0220059.html</v>
       </c>
       <c r="V15" s="31" t="str">
         <f t="shared" si="10"/>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="W15" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </v>
+        <v>A monthly gridded global surface ocean data product for multiple ocean carbonate system variables, including DIC, TA, pCO2, pH (total scale), Ωarag, and Ωcalc (Gregor and Gruber, 2020; Gregor and Gruber, 2021; Gregor and Gruber, 2023; Ma et al., 2023). This dataset is structured on a 1°×1° global surface ocean grid with monthly resolution from 1982–2022, facilitating research on OA over seasonal to decadal scales. The OceanSODA-ETHZ data product was created by extrapolating in time and space the surface ocean observations of fCO2 from SOCATv2022 (Bakker et al., 2016) and TA from GLODAPv2.2022 using the newly developed Geospatial Random Cluster Ensemble Regression (GRaCER) method (Gregor, 2021). TA and pCO2 were then used to calculate the remaining variables of the marine carbonate system with the PyCO2SYS software (Humphreys et al., 2022). Phosphate and silicate from WOA 2018 product were used (Boyer et al., 2018; Garcia et al., 2018a).</v>
       </c>
       <c r="X15" s="31" t="str">
         <f t="shared" si="11"/>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="Y15" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A15,FALSE)</f>
-        <v>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</v>
+        <v>Gregor, L.; Gruber, N. OceanSODA-ETHZ: A Global Gridded Data Set of the Surface Ocean Carbonate System for Seasonal to Decadal Studies of Ocean Acidification. Earth System Science Data 2021, 13 (2), 777–808. https://doi.org/10.5194/essd-13-777-2021.</v>
       </c>
     </row>
     <row r="16">
@@ -11945,15 +11945,15 @@
       </c>
       <c r="C16" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>AOML-ET</v>
+        <v>OceanSODA-ETHZv2</v>
       </c>
       <c r="D16" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>Wanninkhof et al. (2015)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="E16" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/archive/arc0235/0298989/2.2/about/0298989_preview.jpg</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/7decc330-7468-429c-bae9-ac51b085be30/gbc21584-fig-0007-m.jpg</v>
       </c>
       <c r="F16" s="31" t="str">
         <f t="shared" ref="F16:G16" si="56">if(ISBLANK($C16), "", F$1)</f>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="K16" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>monthly, climatology</v>
+        <v>8-day</v>
       </c>
       <c r="L16" s="31" t="str">
         <f t="shared" ref="L16:M16" si="58">if(ISBLANK($C16), "", L$1)</f>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="N16" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>1° x 1°</v>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O16" s="31" t="str">
         <f t="shared" ref="O16:P16" si="59">if(ISBLANK($C16), "", O$1)</f>
@@ -12001,23 +12001,23 @@
       </c>
       <c r="Q16" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>1998 - 2023</v>
+        <v>1982 - 2023</v>
       </c>
       <c r="R16" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>Monthly global sea-air CO2 flux maps in modern era</v>
+        <v>Highlighting fine-scale and short-term variability of the ocean carbon sink</v>
       </c>
       <c r="S16" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>Wanninkhof et al. (2015)</v>
+        <v>Gregor et al. (2024)</v>
       </c>
       <c r="T16" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>https://doi.org/10.1029/2024GB008315</v>
+        <v>https://doi.org/10.1029/2024GB008127</v>
       </c>
       <c r="U16" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0298989.html</v>
+        <v>https://zenodo.org/records/11206366</v>
       </c>
       <c r="V16" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="W16" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>Wanninkhof et al. (2025) developed a monthly global ocean data product of seawater pCO2 and sea-air CO2 fluxes, referred to as AOML-ET, using an extremely randomized trees (ET) machine learning technique. These maps are created on 1° × 1° spatial grids, providing global surface ocean coverages from 1998 to 2023. AOML-ET incorporates several predictor variables, including time, location, SST, SSS, MLD, and chlorophyll-a. The model was trained using the v2020 and v2023 releases of the SOCAT data product (No. 1). Sea-air CO2 fluxes were calculated using the air-sea CO2 partial pressure difference (∆pCO2) and a bulk gas transfer formulation incorporating windspeed. </v>
+        <v>A surface fCO₂ product with a 0.25° × 0.25° spatial resolution and an 8-day temporal resolution, providing estimates starting from 1982 (Gregor et al., 2024a; Gregor et al., 2024b). The high-resolution outputs are suitable for investigating the shorter- and finer-scale dynamics of surface fCO2. Despite sharing a name with its predecessor, OceanSODA-ETHZv2 does not provide TA estimates and employs a different methodology, as described in the following steps: 1) The atmospheric trend of CO2 is removed by subtracting marine boundary layer CO2 concentrations from SOCAT fCO2 producing a new target ∆*CO2 to reduce the biases at the start and end of the time-series. 2) An 8-day seasonal climatology of ∆*CO2 is estimated using Gradient Boosted Decision Trees (GBDT), which is later used as a predictor. 3) The non-seasonal thermal component is removed from ∆*CO2, resulting in a new target, ∆*CO2nonT. 4) The new target is estimated using a feed-forward neural network, with the GBDT as one of the forcing variables. 5) Steps 4 through to 1 are inverted to arrive at fCO2. 6) Air-sea CO2 fluxes are computed using ERA5 winds.</v>
       </c>
       <c r="X16" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="Y16" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A16,FALSE)</f>
-        <v>Wanninkhof, R., Triñanes, J., Pierrot, D., Munro, D. R., Sweeney, C., and Fay, A. R.: Trends in sea-air CO2 fluxes and sensitivities to atmospheric forcing using an extremely randomized trees machine learning approach, Global Biogeochemical Cycles, 39, https://doi.org/10.1029/2024GB008315, 2025.</v>
+        <v>Gregor, L.; Shutler, J.; Gruber, N. High-Resolution Variability of the Ocean Carbon Sink. Global Biogeochemical Cycles 2024, 38 (8), e2024GB008127. https://doi.org/10.1029/2024GB008127.</v>
       </c>
     </row>
     <row r="17">
@@ -12046,15 +12046,15 @@
       </c>
       <c r="C17" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>Gridded Surface OA Indicators in the Northern Caribbean Sea</v>
+        <v>UoEX-Watson</v>
       </c>
       <c r="D17" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>Wanninkhof et al. (2020)</v>
+        <v>Watson et al (2020)</v>
       </c>
       <c r="E17" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/12/1489/2020/essd-12-1489-2020-avatar-web.png</v>
+        <v>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0301544.png</v>
       </c>
       <c r="F17" s="31" t="str">
         <f t="shared" ref="F17:G17" si="60">if(ISBLANK($C17), "", F$1)</f>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="H17" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>Coastal ocean </v>
+        <v>Open ocean</v>
       </c>
       <c r="I17" s="31" t="str">
         <f t="shared" ref="I17:J17" si="61">if(ISBLANK($C17), "", I$1)</f>
@@ -12078,7 +12078,7 @@
       </c>
       <c r="K17" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>monthly, climatology</v>
+        <v>monthly</v>
       </c>
       <c r="L17" s="31" t="str">
         <f t="shared" ref="L17:M17" si="62">if(ISBLANK($C17), "", L$1)</f>
@@ -12102,23 +12102,23 @@
       </c>
       <c r="Q17" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>2002 - 2019</v>
+        <v>1985-2019</v>
       </c>
       <c r="R17" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>A 17-year record of  fCO2, TA, pH, Ωarag, and air-sea CO2 flux in the Caribbean Sea </v>
+        <v>Air-sea fluxes of CO2 with adjusted skin temperature effect</v>
       </c>
       <c r="S17" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>Wanninkhof et al. (2020)</v>
+        <v>Watson et al (2020)</v>
       </c>
       <c r="T17" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-12-1489-2020</v>
+        <v>https://doi.org/10.25921/2dp5-xm29</v>
       </c>
       <c r="U17" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0207749.html </v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/data/0301544/</v>
       </c>
       <c r="V17" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="W17" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>This dataset contains a high-quality dataset of derived products from over a million observations of surface water partial pressure/fugacity of carbon dioxide (pCO2w/fCO2w), for the Caribbean Sea, Gulf of Mexico/Gulf of America and North-West Atlantic Ocean covering the timespan from 2002-01-01 to 2019-12-30. The derived quantities include TA, acidity (pH), Ωarag and air-sea CO2 flux (Wanninkhof et al., 2020). </v>
+        <v>This is a gridded estimate of the atmosphere-ocean flux of CO2.  It takes into account near-surface temperature and salinity deviations due to the surface "skin effect", and small deviations in temperature caused by sampling below the actual surface of the ocean, which most estimates ignore. The result is a substantially larger estimate of net flux into the ocean than most other products. Apart from the surface correction, the SOM-FFN neural net interpolation method developed by Landschutzer et al is followed.</v>
       </c>
       <c r="X17" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12134,7 +12134,7 @@
       </c>
       <c r="Y17" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>Wanninkhof, R., Pierrot, D., Sullivan, K., Barbero, L., and Triñanes, J.: A 17-year dataset of surface water fugacity of CO2 along with calculated pH, aragonite saturation state and air–sea CO2 fluxes in the northern Caribbean Sea, Earth Syst. Sci. Data, 12, 1489–1509, https://doi.org/10.5194/essd-12-1489-2020, 2020.</v>
+        <v>Watson, A. J., Schuster, U., Shutler, J. D., Holding, T., Ashton, I. G., Landschützer, P., Woolf, D., and Goddijn-Murphy, L.: Revised estimates of ocean-atmosphere CO2 flux are consistent with ocean carbon inventory, Nature Communications, 11(1), 1–6, https://doi.org/10.1038/s41467-020-18203-3, 2020.</v>
       </c>
     </row>
     <row r="18">
@@ -12143,19 +12143,19 @@
       </c>
       <c r="B18" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>Gridded subsurface</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C18" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>Acidification Metrics in the Ocean Interior</v>
+        <v>Surface pH and Revelle Factor</v>
       </c>
       <c r="D18" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>Fassbender et al. (2023) </v>
+        <v>Jiang et al. (2019)</v>
       </c>
       <c r="E18" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/archive/arc0227/0290073/1.1/about/0290073_preview.jpg</v>
+        <v>https://media.springernature.com/lw685/springer-static/image/art%3A10.1038%2Fs41598-019-55039-4/MediaObjects/41598_2019_55039_Fig6_HTML.png</v>
       </c>
       <c r="F18" s="31" t="str">
         <f t="shared" ref="F18:G18" si="64">if(ISBLANK($C18), "", F$1)</f>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="H18" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I18" s="31" t="str">
         <f t="shared" ref="I18:J18" si="65">if(ISBLANK($C18), "", I$1)</f>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="K18" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>climatology</v>
+        <v>decadal, climatology</v>
       </c>
       <c r="L18" s="31" t="str">
         <f t="shared" ref="L18:M18" si="66">if(ISBLANK($C18), "", L$1)</f>
@@ -12203,23 +12203,23 @@
       </c>
       <c r="Q18" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>1850 - 2002</v>
+        <v>1770 - 2100</v>
       </c>
       <c r="R18" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>Metrics of acidification in the ocean interior (to 2000 m) and the component of those changes caused by carbonate system nonlinearities</v>
+        <v>A model-observation fusion product for pH, acidity and Revelle Factor, leveraging GFDL-ESM2M and SOCATv6</v>
       </c>
       <c r="S18" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>Fassbender et al. (2023) </v>
+        <v>Jiang et al. (2019)</v>
       </c>
       <c r="T18" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>https://doi.org/10.1029/2023GB007843</v>
+        <v>https://doi.org/10.1038/s41598-019-55039-4</v>
       </c>
       <c r="U18" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0290073.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0206289.html </v>
       </c>
       <c r="V18" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="W18" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </v>
+        <v>Jiang et al. (2019a) produced a high-resolution (1°×1°) data product delineating regionally varying view of global surface ocean pH, acidity, and Revelle Factor (RF) from 1770 to 2100 by amalgamating recent observational seawater CO2 data from the SOCAT database (Version 6, 1991–2018, ~23 million observations) (Bakker et al., 2016), and temporal trends at individual locations of the global surface ocean from an Earth System Model, i.e., GFDL-ESM2M (Dunne et al., 2013). The calculations were conducted under historical atmospheric CO2 levels (pre-2005) and four Representative Concentrations Pathways (post-2005) corresponding to the Intergovernmental Panel on Climate Change (IPCC)’s 5th Assessment Report, specifically RCP2.6, RCP4.5, RCP6.0, and RCP8.5. </v>
       </c>
       <c r="X18" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="Y18" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A18,FALSE)</f>
-        <v>Fassbender, A. J., Carter, B. R., Sharp, J. D., Huang, Y., Arroyo, M. C., and Frenzel, H.: Amplified subsurface signals of ocean acidification, Global Biogeochemical Cycles, 37, e2023GB007843, https://doi.org/10.1029/2023GB007843, 2023. </v>
+        <v>Jiang, L.-Q., Carter, B. R., Feely, R. A., Lauvset, S., and Olsen, A.: Surface ocean pH and buffer capacity: Past, present and future, Scientific Reports, 9(1), 18624, https://doi.org/10.1038/s41598-019-55039-4, 2019. </v>
       </c>
     </row>
     <row r="19">
@@ -12244,19 +12244,19 @@
       </c>
       <c r="B19" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>Gridded subsurface</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C19" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>Anthropogenic CO2 from 1994 to 2007</v>
+        <v>Surface OA Indicators </v>
       </c>
       <c r="D19" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>Gruber et al. (2019) </v>
+        <v>Jiang et al. (2023)</v>
       </c>
       <c r="E19" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/archive/arc0132/0186034/1.1/about/0186034_preview.jpg</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/9184aab2-af20-4a63-9a8f-d0a99a4602bc/jame21817-fig-0008-m.jpg</v>
       </c>
       <c r="F19" s="31" t="str">
         <f t="shared" ref="F19:G19" si="68">if(ISBLANK($C19), "", F$1)</f>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="H19" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I19" s="31" t="str">
         <f t="shared" ref="I19:J19" si="69">if(ISBLANK($C19), "", I$1)</f>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="K19" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>climatology</v>
+        <v>decadal, climatology</v>
       </c>
       <c r="L19" s="31" t="str">
         <f t="shared" ref="L19:M19" si="70">if(ISBLANK($C19), "", L$1)</f>
@@ -12304,23 +12304,23 @@
       </c>
       <c r="Q19" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>1994 - 2007</v>
+        <v>1750 - 2100</v>
       </c>
       <c r="R19" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>The oceanic sink for anthropogenic CO2 over the period 1994 to 2007</v>
+        <v>A model-observation fusion product for all major OA indicators, leveraging a consortium of 14 Earth System Models and 3 observational data products</v>
       </c>
       <c r="S19" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>Gruber et al. (2019) </v>
+        <v>Jiang et al. (2023)</v>
       </c>
       <c r="T19" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>https://doi.org/10.1126/science.aau5153</v>
+        <v>https://doi.org/10.1029/2022MS003563</v>
       </c>
       <c r="U19" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0186034.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0259391.html</v>
       </c>
       <c r="V19" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="W19" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>Gruber et al. (2019a) estimated the decadal time-scale changes in the oceanic content of anthropogenic CO2 (∆Cant) between 1994 to 2007. The results were derived from the GLODAPv2.2016 product (Olsen et al., 2016), utilizing the eMLR(C*) methodology pioneered by Clement and Gruber (2018). The product is combined with the estimated amount of Cant for 1994 derived by Sabine et al. (2004) from GLODAPv1 to infer Cant for 2007. </v>
+        <v>Jiang et al. (2023) developed a comprehensive model-data fusion product that delineates the trajectory of 10 OA indicators: fCO2, pH, [H+]total, [H+]free [CO32-], Ωarag, Ωcalc, DIC, TA, and RF, as well as temperature and salinity at all locations of the global surface ocean from 1750 to 2100. This product marks a significant breakthrough in OA forecasting by refining temporal trends with data from 14 Earth System Models (ESMs) within CMIP6, and by applying bias and drift corrections from three updated observational ocean carbonate system data products: SOCAT (Version 2022) (Bakker et al., 2016), GLODAPv2.2022 (Lauvset et al., 2022), and CODAP-NA (Jiang et al., 2021). This dataset offers 10-year averages on a 1° × 1° global surface ocean grid, capturing trends from preindustrial times (1750), through historical conditions (1850–2010), and projects future conditions to 2100 across five Shared Socioeconomic Pathways: SSP1-1.9, SSP1-2.6, SSP2-4.5, SSP3-7.0, and SSP5-8.5. </v>
       </c>
       <c r="X19" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="Y19" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A19,FALSE)</f>
-        <v>Gruber, N., Clement, D., Carter, B. R., Feely, R. A., van Heuven, S., Hoppema, M., Ishii, M., Key, R. M., Kozyr, A., Lauvset, S. K., Lo Monaco, C., Mathis, J. T., Murata, A., Olsen, A., Perez, F. F., Sabine, C. L., Tanhua, T., and Wanninkhof, R.: The oceanic sink for anthropogenic CO2 from 1994 to 2007, Science, 363(6432), 1193–1199, https://doi.org/10.1126/science.aau5153, 2019. </v>
+        <v>Jiang, L., Dunne, J., Carter, B. R., Tjiputra, J. F., Terhaar, J., Sharp, J. D., Olsen, A., Alin, S., Bakker, D. C., Feely, R. A., Gattuso, J., Hogan, P., Ilyina, T., Lange, N., Lauvset, S. K., Lewis, E. R., Lovato, T., Palmieri, J., Santana‐Falcón, Y., Schwinger, J., Séférian, R., Strand, G., Swart, N., Tanhua, T., Tsujino, H., Wanninkhof, R., Watanabe, M., Yamamoto, A., and Ziehn, T.: Global surface ocean acidification indicators from 1750 to 2100, Journal of Advances in Modeling Earth Systems, 15(3), https://doi.org/10.1029/2022ms003563, 2023.</v>
       </c>
     </row>
     <row r="20">
@@ -12345,19 +12345,19 @@
       </c>
       <c r="B20" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>Gridded subsurface</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C20" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>Aragonite Climatology</v>
+        <v>AOML-ET</v>
       </c>
       <c r="D20" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>Jiang et al. (2015) </v>
+        <v>Wanninkhof et al. (2015)</v>
       </c>
       <c r="E20" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/archive/arc0235/0298989/2.2/about/0298989_preview.jpg</v>
       </c>
       <c r="F20" s="31" t="str">
         <f t="shared" ref="F20:G20" si="72">if(ISBLANK($C20), "", F$1)</f>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="H20" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I20" s="31" t="str">
         <f t="shared" ref="I20:J20" si="73">if(ISBLANK($C20), "", I$1)</f>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="K20" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>climatology</v>
+        <v>monthly, climatology</v>
       </c>
       <c r="L20" s="31" t="str">
         <f t="shared" ref="L20:M20" si="74">if(ISBLANK($C20), "", L$1)</f>
@@ -12403,25 +12403,25 @@
         <f t="shared" si="75"/>
         <v>Period</v>
       </c>
-      <c r="Q20" s="37" t="str">
+      <c r="Q20" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>2000</v>
+        <v>1998 - 2023</v>
       </c>
       <c r="R20" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</v>
+        <v>Monthly global sea-air CO2 flux maps in modern era</v>
       </c>
       <c r="S20" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>Jiang et al. (2015) </v>
+        <v>Wanninkhof et al. (2015)</v>
       </c>
       <c r="T20" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>https://doi.org/10.1002/2015GB005198</v>
+        <v>https://doi.org/10.1029/2024GB008315</v>
       </c>
       <c r="U20" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0298989.html</v>
       </c>
       <c r="V20" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="W20" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </v>
+        <v>Wanninkhof et al. (2025) developed a monthly global ocean data product of seawater pCO2 and sea-air CO2 fluxes, referred to as AOML-ET, using an extremely randomized trees (ET) machine learning technique. These maps are created on 1° × 1° spatial grids, providing global surface ocean coverages from 1998 to 2023. AOML-ET incorporates several predictor variables, including time, location, SST, SSS, MLD, and chlorophyll-a. The model was trained using the v2020 and v2023 releases of the SOCAT data product (No. 1). Sea-air CO2 fluxes were calculated using the air-sea CO2 partial pressure difference (∆pCO2) and a bulk gas transfer formulation incorporating windspeed. </v>
       </c>
       <c r="X20" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12437,7 +12437,7 @@
       </c>
       <c r="Y20" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A20,FALSE)</f>
-        <v>Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </v>
+        <v>Wanninkhof, R., Triñanes, J., Pierrot, D., Munro, D. R., Sweeney, C., and Fay, A. R.: Trends in sea-air CO2 fluxes and sensitivities to atmospheric forcing using an extremely randomized trees machine learning approach, Global Biogeochemical Cycles, 39, https://doi.org/10.1029/2024GB008315, 2025.</v>
       </c>
     </row>
     <row r="21">
@@ -12446,19 +12446,19 @@
       </c>
       <c r="B21" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>Gridded subsurface</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C21" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>CODAP-NA Climatology</v>
+        <v>Gridded Surface OA Indicators in the Northern Caribbean Sea</v>
       </c>
       <c r="D21" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>Jiang et al. (2024)</v>
+        <v>Wanninkhof et al. (2020)</v>
       </c>
       <c r="E21" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</v>
+        <v>https://essd.copernicus.org/articles/12/1489/2020/essd-12-1489-2020-avatar-web.png</v>
       </c>
       <c r="F21" s="31" t="str">
         <f t="shared" ref="F21:G21" si="76">if(ISBLANK($C21), "", F$1)</f>
@@ -12470,7 +12470,7 @@
       </c>
       <c r="H21" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>Coastal ocean, Water column</v>
+        <v>Coastal ocean </v>
       </c>
       <c r="I21" s="31" t="str">
         <f t="shared" ref="I21:J21" si="77">if(ISBLANK($C21), "", I$1)</f>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="K21" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>climatology</v>
+        <v>monthly, climatology</v>
       </c>
       <c r="L21" s="31" t="str">
         <f t="shared" ref="L21:M21" si="78">if(ISBLANK($C21), "", L$1)</f>
@@ -12506,23 +12506,23 @@
       </c>
       <c r="Q21" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>2010</v>
+        <v>2002 - 2019</v>
       </c>
       <c r="R21" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>The first discrete bottle based climatology in the North American ocean margins</v>
+        <v>A 17-year record of  fCO2, TA, pH, Ωarag, and air-sea CO2 flux in the Caribbean Sea </v>
       </c>
       <c r="S21" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>Jiang et al. (2024)</v>
+        <v>Wanninkhof et al. (2020)</v>
       </c>
       <c r="T21" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-3383-2024</v>
+        <v>https://doi.org/10.5194/essd-12-1489-2020</v>
       </c>
       <c r="U21" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0207749.html </v>
       </c>
       <c r="V21" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12530,7 +12530,7 @@
       </c>
       <c r="W21" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </v>
+        <v>This dataset contains a high-quality dataset of derived products from over a million observations of surface water partial pressure/fugacity of carbon dioxide (pCO2w/fCO2w), for the Caribbean Sea, Gulf of Mexico/Gulf of America and North-West Atlantic Ocean covering the timespan from 2002-01-01 to 2019-12-30. The derived quantities include TA, acidity (pH), Ωarag and air-sea CO2 flux (Wanninkhof et al., 2020). </v>
       </c>
       <c r="X21" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="Y21" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A21,FALSE)</f>
-        <v>Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </v>
+        <v>Wanninkhof, R., Pierrot, D., Sullivan, K., Barbero, L., and Triñanes, J.: A 17-year dataset of surface water fugacity of CO2 along with calculated pH, aragonite saturation state and air–sea CO2 fluxes in the northern Caribbean Sea, Earth Syst. Sci. Data, 12, 1489–1509, https://doi.org/10.5194/essd-12-1489-2020, 2020.</v>
       </c>
     </row>
     <row r="22">
@@ -12547,19 +12547,19 @@
       </c>
       <c r="B22" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>Harmonized</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C22" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>SeaFlux</v>
+        <v>MPI-ULB-SOM-FFN</v>
       </c>
       <c r="D22" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Landschützer et al. (2020) </v>
       </c>
       <c r="E22" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
+        <v>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</v>
       </c>
       <c r="F22" s="31" t="str">
         <f t="shared" ref="F22:G22" si="80">if(ISBLANK($C22), "", F$1)</f>
@@ -12571,7 +12571,7 @@
       </c>
       <c r="H22" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I22" s="31" t="str">
         <f t="shared" ref="I22:J22" si="81">if(ISBLANK($C22), "", I$1)</f>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="K22" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>monthly</v>
+        <v>monthly, climatology</v>
       </c>
       <c r="L22" s="31" t="str">
         <f t="shared" ref="L22:M22" si="82">if(ISBLANK($C22), "", L$1)</f>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="N22" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>1° x 1°</v>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O22" s="31" t="str">
         <f t="shared" ref="O22:P22" si="83">if(ISBLANK($C22), "", O$1)</f>
@@ -12607,23 +12607,23 @@
       </c>
       <c r="Q22" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>1990 - 2022</v>
+        <v/>
       </c>
       <c r="R22" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
+        <v>Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </v>
       </c>
       <c r="S22" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>Fay and Gregor et al. (2021)</v>
+        <v>Landschützer et al. (2020) </v>
       </c>
       <c r="T22" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-2021-16</v>
+        <v>https://doi.org/10.5194/essd-12-2537-2020</v>
       </c>
       <c r="U22" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>https://zenodo.org/records/8280457</v>
+        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</v>
       </c>
       <c r="V22" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="W22" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
+        <v>Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </v>
       </c>
       <c r="X22" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12639,7 +12639,7 @@
       </c>
       <c r="Y22" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A22,FALSE)</f>
-        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
+        <v>Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </v>
       </c>
     </row>
     <row r="23">
@@ -12648,19 +12648,19 @@
       </c>
       <c r="B23" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>Model-based</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C23" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>ECCO-Darwin</v>
+        <v>VLIZ-SOM-FFN</v>
       </c>
       <c r="D23" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>Carroll et al. (2020)</v>
+        <v>Landschützer et al. (2016) </v>
       </c>
       <c r="E23" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>https://ecco-group.org/images/ecco_rotator01.jpg</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/archive/arc0105/0160558/8.8/about/0160558_preview.png</v>
       </c>
       <c r="F23" s="31" t="str">
         <f t="shared" ref="F23:G23" si="84">if(ISBLANK($C23), "", F$1)</f>
@@ -12672,7 +12672,7 @@
       </c>
       <c r="H23" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>Open ocean, Coastal ocean, Surface, Water column</v>
+        <v>Open ocean</v>
       </c>
       <c r="I23" s="31" t="str">
         <f t="shared" ref="I23:J23" si="85">if(ISBLANK($C23), "", I$1)</f>
@@ -12684,7 +12684,7 @@
       </c>
       <c r="K23" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>daily, monthly</v>
+        <v>monthly, climatology</v>
       </c>
       <c r="L23" s="31" t="str">
         <f t="shared" ref="L23:M23" si="86">if(ISBLANK($C23), "", L$1)</f>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="N23" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>0.33° x 0.33°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O23" s="31" t="str">
         <f t="shared" ref="O23:P23" si="87">if(ISBLANK($C23), "", O$1)</f>
@@ -12708,23 +12708,23 @@
       </c>
       <c r="Q23" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>1992 - 2018</v>
+        <v>1982 - 2025</v>
       </c>
       <c r="R23" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>Model-data synthesis product based on the Estimating the Circulation and Climate of the Ocean (ECCO) ocean state estimate. Fully-closed, physically-consistent 3-D biogeochemical budgets.</v>
+        <v>Monthly gridded pCO2 from 1982 through near present</v>
       </c>
       <c r="S23" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>Carroll et al. (2020)</v>
+        <v>Landschützer et al. (2016) </v>
       </c>
       <c r="T23" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>https://doi.org/10.5281/zenodo.10627664</v>
+        <v>https://doi.org/10.1002/2015gb005359</v>
       </c>
       <c r="U23" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>https://data.nas.nasa.gov/ecco/</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160558.html</v>
       </c>
       <c r="V23" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="W23" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>Carroll et al. (2022) used the Estimating the Circulation and Climate of the Ocean-Darwin (ECCO-Darwin) global-ocean biogeochemistry state estimate to generate a data-constrained DIC budget and investigate how spatiotemporal variability in advection and mixing, air-sea CO2 flux, and the biological pump have modulated the ocean sink for 1995–2018. ECCO-Darwin assimilates ocean circulation and physical tracers, including temperature, salinity, and sea ice, derived from the Estimating the Circulation and Climate of the Ocean (ECCO) LLC270 global-ocean and sea-ice data synthesis (Zhang et al., 2018). Additionally, it assimilates biogeochemical observations encompassing the cycling of carbon, nitrogen, phosphorus (PO 4 ), iron (Fe), silica (SiO 2 ), DO, and TA. This inclusive approach enhances the model’s fidelity by aligning it with a diverse array of observations. All ECCO-Darwin model output is available on the ECCO Data Portal: https://data.nas.nasa.gov/ecco/. The model code and platform-independent instructions for running ECCO-Darwin simulations can be found at: https://github.com/MITgcm-contrib/ecco_darwin.</v>
+        <v>Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </v>
       </c>
       <c r="X23" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="Y23" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A23,FALSE)</f>
-        <v>Carroll, D., Menemenlis, D., Adkins, J. F., Bowman, K. W., Brix, H., &amp; Dutkiewicz, S., et al. (2020). The ECCO-Darwin data-assimilative global ocean biogeochemistry model: Estimates of seasonal to multidecadal surface ocean pCO2 and air-sea CO2 flux. Journal of Advances in Modeling Earth Systems, 12, e2019MS001888. https://doi.org/10.1029/2019MS001888</v>
+        <v>Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </v>
       </c>
     </row>
     <row r="24">
@@ -12749,19 +12749,19 @@
       </c>
       <c r="B24" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>Data compilations</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C24" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>Marine Inorganic Carbonate Chemistry in the Northern Gulf of Alaska</v>
+        <v>RFR-LME</v>
       </c>
       <c r="D24" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>Monacci et al. (2024)</v>
+        <v>Sharp et al. (2024)</v>
       </c>
       <c r="E24" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/647/2024/essd-16-647-2024-avatar-web.png</v>
+        <v>https://media.springernature.com/full/springer-static/image/art%3A10.1038%2Fs41597-024-03530-7/MediaObjects/41597_2024_3530_Fig4_HTML.png</v>
       </c>
       <c r="F24" s="31" t="str">
         <f t="shared" ref="F24:G24" si="88">if(ISBLANK($C24), "", F$1)</f>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="H24" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>Coastal ocean, Water column</v>
+        <v>Coastal ocean, Surface, Regional</v>
       </c>
       <c r="I24" s="31" t="str">
         <f t="shared" ref="I24:J24" si="89">if(ISBLANK($C24), "", I$1)</f>
@@ -12785,7 +12785,7 @@
       </c>
       <c r="K24" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>discrete</v>
+        <v>monthly</v>
       </c>
       <c r="L24" s="31" t="str">
         <f t="shared" ref="L24:M24" si="90">if(ISBLANK($C24), "", L$1)</f>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="N24" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v/>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O24" s="31" t="str">
         <f t="shared" ref="O24:P24" si="91">if(ISBLANK($C24), "", O$1)</f>
@@ -12809,23 +12809,23 @@
       </c>
       <c r="Q24" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>2008 - 2017</v>
+        <v>1998 - 2024</v>
       </c>
       <c r="R24" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>A synthesis of twenty cruises from 2008 to 2017 on the Gulf of Alaska (GAK) Line</v>
+        <v>Temporal trends of OA indicators and estimated uncertainties across 11 U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024.</v>
       </c>
       <c r="S24" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>Monacci et al. (2024)</v>
+        <v>Sharp et al. (2024)</v>
       </c>
       <c r="T24" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-647-2024</v>
+        <v>https://doi.org/10.25921/h8vw-e872</v>
       </c>
       <c r="U24" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277034.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0287551.html</v>
       </c>
       <c r="V24" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="W24" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>Monacci et al. (2023) compiled a data product of discrete seawater samples collected each May and September over a 10-year period from 2008 to 2017 along the long-term hydrographic line in the Gulf of Alaska (GAK Line). Samples were collected from a sampling rosette on a profiling CTD. Data variables include profiled seawater temperature, salinity, and DO. Discrete sample variables include DO (i.e., Winkler titrations), macronutrients (nitrate, nitrite, phosphate, silicic acid), DIC, and TA. All carbonate system variables were analyzed at the Ocean Acidification Research Center (OARC) at the University of Alaska Fairbanks (UAF). The repeat hydrographic cruises were funded by the Alaska Ocean Observing System (AOOS), the Exxon Valdez Oil Spill Trustee Council (EVOS), Gulf Watch Alaska, and the North Pacific Research Board (NPRB) and were mostly conducted aboard the United States Fish and Wildlife Service (USFWS) R/V Tiĝlax̂.</v>
+        <v>A data product delineating the temporal trends of ocean acidification indicators mapped on a 0.25°× 0.25° spatial grid, across eleven U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024. The method combines Gaussian Mixture Models to categorize the data into environmentally similar subregions, Random Forest Regressions (RFRs) for the spatial and temporal extrapolation of observational fCO2 data, and regressions to estimate total alkalinity (Carter et al. 2021) to provide a second carbonate system constraint for the computation of multiple ocean acidification indicators.</v>
       </c>
       <c r="X24" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12841,7 +12841,7 @@
       </c>
       <c r="Y24" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A24,FALSE)</f>
-        <v>Monacci, N. M., Cross, J. N., Evans, W., Mathis, J. T., and Wang, H.: A decade of marine inorganic carbon chemistry observations in the northern Gulf of Alaska – insights into an environment in transition, Earth Syst. Sci. Data, 16, 647–665, https://doi.org/10.5194/essd-16-647-2024, 2024.</v>
+        <v>Sharp, J. D., Jiang, L.-Q., Carter, B. R., Lavin, P. D., Yoo, H., and Cross, S. L., 2024. A mapped dataset of surface ocean acidification indicators in large marine ecosystems of the United States, Sci. Data, 11, 715,  https://doi.org/10.1038/s41597-024-03530-7.</v>
       </c>
     </row>
     <row r="25">
@@ -12850,19 +12850,19 @@
       </c>
       <c r="B25" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>Model-based</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C25" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE) gridded Canth</v>
+        <v>CMEMS-LSCEv1</v>
       </c>
       <c r="D25" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>Carter et al. (2025)</v>
+        <v>Chau et al. (2022)</v>
       </c>
       <c r="E25" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/17/3073/2025/essd-17-3073-2025-avatar-web.png</v>
+        <v>https://bg.copernicus.org/articles/19/1087/2022/bg-19-1087-2022-avatar-web.png</v>
       </c>
       <c r="F25" s="31" t="str">
         <f t="shared" ref="F25:G25" si="92">if(ISBLANK($C25), "", F$1)</f>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="H25" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>Open ocean, Surface, Water column</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I25" s="31" t="str">
         <f t="shared" ref="I25:J25" si="93">if(ISBLANK($C25), "", I$1)</f>
@@ -12886,7 +12886,7 @@
       </c>
       <c r="K25" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>irregular</v>
+        <v>monthly, climatology</v>
       </c>
       <c r="L25" s="31" t="str">
         <f t="shared" ref="L25:M25" si="94">if(ISBLANK($C25), "", L$1)</f>
@@ -12910,23 +12910,23 @@
       </c>
       <c r="Q25" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>1750-2500</v>
+        <v>1985 - 2019</v>
       </c>
       <c r="R25" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>New methods for rapidly estimating anthropogenic carbon from temperature, salinity, and date are presented.  The methods are then used with SSPs to estimate anthropogenic carbon in the ocean globally from 1750 to 2500.</v>
+        <v>seamless reconstruction from coastal to open ocean</v>
       </c>
       <c r="S25" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>Carter et al. (2025)</v>
+        <v>Chau et al. (2022)</v>
       </c>
       <c r="T25" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-17-3073-2025</v>
+        <v>https://doi.org/10.5194/bg-19-1087-2022</v>
       </c>
       <c r="U25" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>https://zenodo.org/records/15692788</v>
+        <v>https://data.ipsl.fr/catalog/srv/eng/catalog.search#/metadata/a2f0891b-763a-49e9-af1b-78ed78b16982</v>
       </c>
       <c r="V25" s="31" t="str">
         <f t="shared" si="10"/>
@@ -12934,7 +12934,7 @@
       </c>
       <c r="W25" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>Here, we make modifications to the transit time distribution approach for Canth estimation that render the method more accessible. We also release software (BRCScienceProducts, 2025) called “Tracer-based Rapid Anthropogenic Carbon Estimation version 1” (TRACEv1) that allows users – with one line of code – to obtain Canth and water mass age estimates throughout the global open ocean from user-supplied values of geographic location, pressure, salinity, temperature, and the estimate year. We use this code to generate a data product of global gridded open-ocean Canth distributions (TRACEv1_GGCanth; Carter, 2025) that ranges from the preindustrial era through 2500 under a range of Shared Socioeconomic Pathways (SSPs, or atmospheric CO2 concentration pathways). We estimated the skill of these estimates by reconstructing Canth in models with known distributions of Canth and transient tracers and by conducting perturbation tests. In the model-based reconstruction test, TRACEv1 reproduces the global ocean Canth inventory to within ±10 % in 1980 and 2014. We discuss implications and limitations of the projected Canth distributions and highlight ways that the estimation strategy might be improved. One finding is that the ocean will continue to increase its net Canth inventory at least through 2500 due to deep-ocean ventilation, even with the SSP in which intense mitigation successfully decreases atmospheric Canth by ∼60 % in 2500 relative to the 2024 concentration. A notable limitation of this and similar projections made with TRACEv1 is that ongoing and potential future warming and changing oceanic circulation patterns with climate change are not captured by the method. The data products generated by this research are available as MATLAB code (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025) and a spatially and temporally gridded data product (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025).</v>
+        <v>Monthly surface ocean pCO2 and air–sea CO2 fluxes on a 1° × 1° grid in both the open ocean and coastal seas from 1985–2019 were reconstructed by Chau et al., (2022). CMEMS-LSCE is short for Copernicus Marine Environment Monitoring Service - Laboratoire des Sciences du Climat et de l’Environnement. This product is generated from an ensemble-based reconstruction of pCO2 maps trained with gridded data from SOCATv2020 (Bakker et al., 2016). Sea-surface pCO2 values (converted from the original fCO2 values in SOCATv2020) were regressed against a set of predictors with non-linear functions, i.e., feed-forward neural network (FFNN) models. The predictors include: sea-surface height (SSH), SST, SSS, MLD, chlorophyll a (Chl-a), atmospheric CO2 mole fraction (xCO2), and geographical coordinates (longitudes and latitudes). </v>
       </c>
       <c r="X25" s="31" t="str">
         <f t="shared" si="11"/>
@@ -12942,7 +12942,7 @@
       </c>
       <c r="Y25" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A25,FALSE)</f>
-        <v>Carter, B. R., Schwinger, J., Sonnerup, R., Fassbender, A. J., Sharp, J. D., Dias, L. M., &amp; Sandborn, D. E. (2025). Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE). Earth System Science Data, 17(6), 3073-3088.</v>
+        <v>Chau, T.-T.-T., Gehlen, M., and Chevallier, F.: A seamless ensemble-based reconstruction of surface ocean pCO2 and air–sea CO2 fluxes over the global coastal and open oceans. Biogeosciences, 19(4), 1087–1109,  https://doi.org/10.5194/bg-19-1087-2022, 2022.</v>
       </c>
     </row>
     <row r="26">
@@ -12951,19 +12951,19 @@
       </c>
       <c r="B26" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>Model-based</v>
+        <v>Gridded surface</v>
       </c>
       <c r="C26" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>Preformed properties for marine organic matter and carbonate mineral cycling quantification</v>
+        <v>CMEMS-LSCEv2</v>
       </c>
       <c r="D26" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>Carter et al. (2021)</v>
+        <v>Chau et al. (2024)</v>
       </c>
       <c r="E26" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/a70dc130-3967-4e0c-bab1-fa5967af0a63/gbc21075-fig-0003-m.jpg</v>
+        <v>https://essd.copernicus.org/articles/16/121/2024/essd-16-121-2024-avatar-web.png</v>
       </c>
       <c r="F26" s="31" t="str">
         <f t="shared" ref="F26:G26" si="96">if(ISBLANK($C26), "", F$1)</f>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="H26" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean, Coastal ocean, Surface</v>
       </c>
       <c r="I26" s="31" t="str">
         <f t="shared" ref="I26:J26" si="97">if(ISBLANK($C26), "", I$1)</f>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="K26" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>climatology</v>
+        <v>monthly, climatology</v>
       </c>
       <c r="L26" s="31" t="str">
         <f t="shared" ref="L26:M26" si="98">if(ISBLANK($C26), "", L$1)</f>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="N26" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>1° x 1°</v>
+        <v>0.25° x 0.25°</v>
       </c>
       <c r="O26" s="31" t="str">
         <f t="shared" ref="O26:P26" si="99">if(ISBLANK($C26), "", O$1)</f>
@@ -13011,23 +13011,23 @@
       </c>
       <c r="Q26" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v/>
+        <v>1985 - 2025</v>
       </c>
       <c r="R26" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>We have updated global preformed biogeochemical property estimates and provided the estimates for analysis and model validation</v>
+        <v>Yearly extension of time-series &amp; monthly reconstruction at low latency</v>
       </c>
       <c r="S26" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>Carter et al. (2021)</v>
+        <v>Chau et al. (2024)</v>
       </c>
       <c r="T26" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>https://zenodo.org/records/3745002</v>
+        <v>https://doi.org/10.5194/essd-16-121-2024</v>
       </c>
       <c r="U26" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>https://github.com/BRCScienceProducts/PreformedPropertyEstimates</v>
+        <v>https://doi.org/10.48670/moi-00047</v>
       </c>
       <c r="V26" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="W26" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</v>
+        <v>CMEMS-LSCEv2 corresponds to the latest version of the CMEMS-LSCE FFNN. It uses the same ensemble-based reconstruction method for pCO2 maps as CMEMS-LSCEv1.  Improvements include downscaling the spatial resolution to 0.25° × 0.25° and reproducing additional surface ocean carbonate system variables on a global grid from 1985 onwards (Chau et al., 2024a). The additional surface ocean carbonate system variables are: pCO2, DIC, TA, pH, Ωarag, and Ωcalc. Surface ocean pCO2 is reconstructed based on an ensemble of neural network models mapping gridded observation-based data provided by SOCATv2022 (Bakker et al., 2016). Surface ocean TA is estimated with a multiple linear regression approach (Carter et al., 2016, 2017). The remaining carbonate variables are calculated from pCO2 and TA using a MATLAB version of CO2SYS (Lewis and Wallace, 1998; Van Heuven et al., 2011). The CMEMS-LSCE product is updated yearly for surface ocean pCO2, air-sea fluxes, and the carbonate system variables. Updates are phased with release of the SOCAT database. For surface ocean pCO2 and air-sea fluxes the temporal coverage is extended to the present date with a latency of 1 month (Chau et al., 2024b). </v>
       </c>
       <c r="X26" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="Y26" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A26,FALSE)</f>
-        <v>Carter, B. R., Feely, R. A., Lauvset, S. K., Olsen, A., DeVries, T., &amp; Sonnerup, R. (2021). Preformed properties for marine organic matter and carbonate mineral cycling quantification. Global Biogeochemical Cycles, 35(1), e2020GB006623.</v>
+        <v>Chau, T.-T.-T., Gehlen, M., Metzl, N., and Chevallier, F.: CMEMS-LSCE: a global, 0.25°, monthly reconstruction of the surface ocean carbonate system, Earth Syst. Sci. Data, 16, 121–160, https://doi.org/10.5194/essd-16-121-2024, 2024. </v>
       </c>
     </row>
     <row r="27">
@@ -13056,15 +13056,15 @@
       </c>
       <c r="C27" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>MPI-ULB-SOM-FFN</v>
+        <v>Stepwise-FFNN</v>
       </c>
       <c r="D27" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>Landschützer et al. (2020) </v>
+        <v>Zhong et al. (2022)</v>
       </c>
       <c r="E27" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/12/2537/2020/essd-12-2537-2020-avatar-web.png</v>
+        <v>https://appletmsdc.qdio.ac.cn//files/metadata/images/2025-08-14_1955061943601487874/DATA20251000212_11415094_1.jpg</v>
       </c>
       <c r="F27" s="31" t="str">
         <f t="shared" ref="F27:G27" si="100">if(ISBLANK($C27), "", F$1)</f>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="H27" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>Open ocean, Coastal ocean, Surface</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I27" s="31" t="str">
         <f t="shared" ref="I27:J27" si="101">if(ISBLANK($C27), "", I$1)</f>
@@ -13088,7 +13088,7 @@
       </c>
       <c r="K27" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>monthly, climatology</v>
+        <v>monthly</v>
       </c>
       <c r="L27" s="31" t="str">
         <f t="shared" ref="L27:M27" si="102">if(ISBLANK($C27), "", L$1)</f>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="N27" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>0.25° x 0.25°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O27" s="31" t="str">
         <f t="shared" ref="O27:P27" si="103">if(ISBLANK($C27), "", O$1)</f>
@@ -13112,23 +13112,23 @@
       </c>
       <c r="Q27" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v/>
+        <v>1992 - 2024</v>
       </c>
       <c r="R27" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>Monthly gridded pCO2 without adjusting for a specific reference year, high-resolution coastal ocean coverage. </v>
+        <v>ML-based selection of predictors considering regional differences of pCO2 drivers</v>
       </c>
       <c r="S27" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>Landschützer et al. (2020) </v>
+        <v>Zhong et al. (2022)</v>
       </c>
       <c r="T27" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-12-2537-2020</v>
+        <v> http://doi.org/10.12157/IOCAS.20250814.001</v>
       </c>
       <c r="U27" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/MPI-ULB-SOM_FFN_clim.html</v>
+        <v> http://doi.org/10.12157/IOCAS.20250814.001</v>
       </c>
       <c r="V27" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="W27" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>Landschützer et al. (2020a) created a uniform pCO2 climatology combining open and coastal oceans. It is a monthly gridded global surface ocean pCO2 data product without adjusting for a specific reference year. Developed on a higher-resolution 0.25° × 0.25° global surface-ocean grid, this product is the result of combining two neural network-based pCO2 products: the open ocean product described below (i.e., Landschützer et al., 2016) and the coastal product created by Laruelle et al. (2017). Consequently, it represents coastal zones better. Data collected between 1998 and 2015 from the SOCAT database (Version 5) were used to create this data product. </v>
+        <v>A monthly global 1° × 1° surface ocean pCO2 product from January 1992 to December 2024, constructed by combining the stepwise regression algorithm and a feed-forward neural network (FFNN) to select predictors of pCO2 based on the mean absolute error in each of the 11 biogeochemical provinces defined by the self-organizing map (SOM) method. </v>
       </c>
       <c r="X27" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13144,7 +13144,7 @@
       </c>
       <c r="Y27" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A27,FALSE)</f>
-        <v>Landschützer, P., Laruelle, G. G., Roobaert, A., and Regnier, P.: A uniform pCO2 climatology combining open and coastal oceans, Earth Syst. Sci. Data, 12, 2537–2553, https://doi.org/10.5194/essd-12-2537-2020, 2020. </v>
+        <v>Zhong, G., Li, X., Song, J., Qu, B., Wang, F., Wang, Y., ... &amp; Duan, L. 2022. Reconstruction of global surface ocean pCO2 using region-specific predictors based on a stepwise FFNN regression algorithm, Biogeosciences, 19, 845-859, https://doi.org/10.5194/bg-19-845-2022.</v>
       </c>
     </row>
     <row r="28">
@@ -13157,15 +13157,15 @@
       </c>
       <c r="C28" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>VLIZ-SOM-FFN</v>
+        <v>JMA-MLR</v>
       </c>
       <c r="D28" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>Landschützer et al. (2016) </v>
+        <v>Iida et al. (2021)</v>
       </c>
       <c r="E28" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/archive/arc0105/0160558/8.8/about/0160558_preview.png</v>
+        <v>https://www.data.jma.go.jp/kaiyou/data/db/mar_env/results/co2_flux/animation/fluxmap_fig/flux_2023MN.png</v>
       </c>
       <c r="F28" s="31" t="str">
         <f t="shared" ref="F28:G28" si="104">if(ISBLANK($C28), "", F$1)</f>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="H28" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>Open ocean</v>
+        <v>Open ocean, Surface</v>
       </c>
       <c r="I28" s="31" t="str">
         <f t="shared" ref="I28:J28" si="105">if(ISBLANK($C28), "", I$1)</f>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="K28" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>monthly, climatology</v>
+        <v>monthly</v>
       </c>
       <c r="L28" s="31" t="str">
         <f t="shared" ref="L28:M28" si="106">if(ISBLANK($C28), "", L$1)</f>
@@ -13213,23 +13213,23 @@
       </c>
       <c r="Q28" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>1982 - 2025</v>
+        <v>1990-2023</v>
       </c>
       <c r="R28" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>Monthly gridded pCO2 from 1982 through near present</v>
+        <v>Temporal trends of DIC, TA, pCO2, air-sea CO2 flux, pH, and Ωarag.</v>
       </c>
       <c r="S28" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>Landschützer et al. (2016) </v>
+        <v>Iida et al. (2021)</v>
       </c>
       <c r="T28" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>https://doi.org/10.1002/2015gb005359</v>
+        <v>https://doi.org/10.1007/s10872-020-00571-5</v>
       </c>
       <c r="U28" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0160558.html</v>
+        <v>https://doi.org/10.1007/s10872-020-00571-5</v>
       </c>
       <c r="V28" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="W28" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>Landschützer et al. (2016) employed the Self-Organizing-Map Feed-Forward Network (SOM-FFN) neural network method (Landschützer et al., 2013) to map sea surface pCO2 from SOCAT (see No. 1 above) (Bakker et al., 2014) to generate monthly pCO2 fields on a 1° × 1° global surface ocean grid, covering the period from 1982 to near present. It is based on the gridded pCO2 measurements from SOCAT and is updated regularly. The creation of the pCO2 fields involve a two-step neural network approach, which has been extensively detailed and validated in previous works by Landschützer et al. (2013, 2014, 2016). In the initial step, the global ocean is clustered into biogeochemical provinces, and subsequently, the non-linear relationship between CO2 driver variables and gridded data from SOCAT (Bakker et al., 2016) is reconstructed. Air-sea CO2 fluxes are also computed based on the air-sea pCO2 difference, utilizing a bulk gas transfer formulation as described by Landschützer et al. (2013, 2014, 2016). </v>
+        <v>Iida et al. (2021) developed a monthly data product for inorganic carbonate variables on a 1° × 1° global surface ocean grid for the period 1993?2018. Variables include DIC, TA, pCO2, sea-air CO2 flux, pH, and Ωarag. They leveraged data products such as SOCAT.v2019 (Bakker et al., 2016) and GLODAPv2.2019 (Olsen et al., 2019), as well as satellite-based variables, including sea-surface dynamic height (SSDH), mixed layer depth (MLD), and chlorophyll-a. The product is updated annually using the latest SOCAT and GLODAPv2 data.</v>
       </c>
       <c r="X28" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="Y28" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A28,FALSE)</f>
-        <v>Landschützer, P., Gruber, N., and Bakker, D. C. E.: Decadal variations and trends of the Global Ocean Carbon Sink, Global Biogeochemical Cycles, 30(10), 1396–1417. https://doi.org/10.1002/2015gb005359, 2016. </v>
+        <v>Iida, Y., Takatani, Y., Kojima, A., and Ishii, M. 2021. Global trends of ocean CO2 sink and ocean acidification: An obsevation-based reconstruction of surface ocean inorganic carbon variables, J. Oceanogr. 77, 323-358, https://doi.org/10.1007/s10872-020-00571-5</v>
       </c>
     </row>
     <row r="29">
@@ -13258,15 +13258,15 @@
       </c>
       <c r="C29" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>RFR-LME</v>
+        <v>ULB-SOM-FFN-Coastalv2.1</v>
       </c>
       <c r="D29" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>Sharp et al. (2024)</v>
+        <v>Roobaert et al. (2024)</v>
       </c>
       <c r="E29" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>https://media.springernature.com/full/springer-static/image/art%3A10.1038%2Fs41597-024-03530-7/MediaObjects/41597_2024_3530_Fig4_HTML.png</v>
+        <v>https://essd.copernicus.org/articles/16/421/2024/essd-16-421-2024-f01-web.png</v>
       </c>
       <c r="F29" s="31" t="str">
         <f t="shared" ref="F29:G29" si="108">if(ISBLANK($C29), "", F$1)</f>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="H29" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>Coastal ocean, Surface, Regional</v>
+        <v>Coastal ocean</v>
       </c>
       <c r="I29" s="31" t="str">
         <f t="shared" ref="I29:J29" si="109">if(ISBLANK($C29), "", I$1)</f>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="K29" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>monthly</v>
+        <v>continuous, monthly</v>
       </c>
       <c r="L29" s="31" t="str">
         <f t="shared" ref="L29:M29" si="110">if(ISBLANK($C29), "", L$1)</f>
@@ -13314,23 +13314,23 @@
       </c>
       <c r="Q29" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>1998 - 2024</v>
+        <v>1982-2020</v>
       </c>
       <c r="R29" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>Temporal trends of OA indicators and estimated uncertainties across 11 U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024.</v>
+        <v>Global temporal trends of coastal pCO2 and air-sea CO2 fluxes based on SOCATv2022 with data collected from 1982–2020</v>
       </c>
       <c r="S29" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>Sharp et al. (2024)</v>
+        <v>Roobaert et al. (2024)</v>
       </c>
       <c r="T29" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>https://doi.org/10.25921/h8vw-e872</v>
+        <v>https://doi.org/10.5194/essd-16-421-2024</v>
       </c>
       <c r="U29" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0287551.html</v>
+        <v>https://doi.org/10.25921/4sde-p068</v>
       </c>
       <c r="V29" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="W29" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>A data product delineating the temporal trends of ocean acidification indicators mapped on a 0.25°× 0.25° spatial grid, across eleven U.S. Large Marine Ecosystems (LMEs), with monthly coverage from 1998–2024. The method combines Gaussian Mixture Models to categorize the data into environmentally similar subregions, Random Forest Regressions (RFRs) for the spatial and temporal extrapolation of observational fCO2 data, and regressions to estimate total alkalinity (Carter et al. 2021) to provide a second carbonate system constraint for the computation of multiple ocean acidification indicators.</v>
+        <v>Roobaert et al. (2024) present high-resolution (0.25° × 0.25° grid) monthly maps showing the distribution of sea surface pCO2 across the global coastal oceans, spanning from 1982 to 2020. This product (ULB-SOM-FFN-coastalv2.1) builds upon the work by Laruelle et al. (2017), incorporating a two-step methodology that utilizes Self Organizing Maps (SOM) and Feed Forward Networks (FFN). This updated product now captures temporal variability, enabling the assessment of interannual variability and long-term trends in coastal air-sea CO2 exchange, unlike the product by Laruelle et al. (2017), which only offers a climatology for a short period (1998-2015). The enhancements include additional environmental predictors and an expanded dataset for training and validation, featuring approximately 18 million direct coastal observations from the SOCAT database, specifically the SOCATv2022 release (Bakker et al., 2016). The product is available at OCADS: https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0279118.html (Roobaert et al., 2023).</v>
       </c>
       <c r="X29" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="Y29" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A29,FALSE)</f>
-        <v>Sharp, J. D., Jiang, L.-Q., Carter, B. R., Lavin, P. D., Yoo, H., and Cross, S. L., 2024. A mapped dataset of surface ocean acidification indicators in large marine ecosystems of the United States, Sci. Data, 11, 715,  https://doi.org/10.1038/s41597-024-03530-7.</v>
+        <v>Roobaert, A., Regnier, P., Landschützer, P., and Laruelle, G. G.: A novel sea surface pCO2-product for the global coastal ocean resolving trends over 1982–2020, Earth System Science Data, 16(1), 421–441, https://doi.org/10.5194/essd-16-421-2024, 2024.</v>
       </c>
     </row>
     <row r="30">
@@ -13359,15 +13359,15 @@
       </c>
       <c r="C30" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>MOBO-DIC (Version 2020)</v>
+        <v>GLODAPv2 Climatology</v>
       </c>
       <c r="D30" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>Keppler et al., 2020</v>
+        <v>Lauvset et al. (2016)</v>
       </c>
       <c r="E30" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/Moby.jpg</v>
+        <v>https://i.ibb.co/dwFT2QJx/GLODAPv2-Climatology.png</v>
       </c>
       <c r="F30" s="31" t="str">
         <f t="shared" ref="F30:G30" si="112">if(ISBLANK($C30), "", F$1)</f>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="H30" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>Open ocean</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I30" s="31" t="str">
         <f t="shared" ref="I30:J30" si="113">if(ISBLANK($C30), "", I$1)</f>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="K30" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>monthly, climatology</v>
+        <v>climatology</v>
       </c>
       <c r="L30" s="31" t="str">
         <f t="shared" ref="L30:M30" si="114">if(ISBLANK($C30), "", L$1)</f>
@@ -13415,23 +13415,23 @@
       </c>
       <c r="Q30" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="R30" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>Seasonal variability of DIC in the interior ocean from surface to 2000 m</v>
+        <v>Ocean interior climatology for multiple variables from surface to the bottom of the ocean (referenced to year 2002)</v>
       </c>
       <c r="S30" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>Keppler et al., 2020</v>
+        <v>Lauvset et al. (2016)</v>
       </c>
       <c r="T30" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>https://doi.org/10.1029/2020GB006571</v>
+        <v>https://doi.org/10.5194/essd-8-325-2016</v>
       </c>
       <c r="U30" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/ndp104.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0286118.html </v>
       </c>
       <c r="V30" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13439,7 +13439,7 @@
       </c>
       <c r="W30" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>Keppler et al. (2020) produced a global interior ocean DIC monthly climatology (average climatological values for January through December) on a 1° × 1° grid at 33 standardized depth levels from the surface to 2000 m. </v>
+        <v>Lauvset et al. (2016) generated a comprehensive set of global interior ocean climatologies, mapping key biogeochemical variables on a 1° × 1° grid for 33 depth levels from surface to 5500 m. These climatologies cover temperature, salinity, DO, nitrate, phosphate, silicate, DIC, TA, pH, Ωarag, and Ωcalc). This data product was created based on the quality-controlled and internally consistent GLODAPv2.2016 (Olsen et al., 2016) using the data-interpolating variational analysis (DIVA) method (Barth et al., 2014). The conceivably confounding temporal trends in DIC, pH, Ωarag and Ωcalc due to anthropogenic influence were removed prior to mapping by normalizing their values to a reference year of 2002 using first-order calculations of anthropogenic carbon accumulation rates. For all variables, all data from the full 1972–2013 period were used, including data that did not receive full secondary quality control. This data product is not updated each year along with the main GLODAPv2 data product. </v>
       </c>
       <c r="X30" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13447,7 +13447,7 @@
       </c>
       <c r="Y30" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A30,FALSE)</f>
-        <v>Keppler, L., Landschützer, P., Gruber, N., Lauvset, S. K., and Stemmler, I.: Seasonal carbon dynamics in the near-global ocean, Global Biogeochemical Cycles, 34(12), e2020GB006571, https://doi.org/10.1029/2020GB006571, 2020.</v>
+        <v>Lauvset, S. K., Key, R. M., Olsen, A., van Heuven, S., Velo, A., Lin, X., Schirnick, C., Kozyr, A., Tanhua, T., Hoppema, M., Jutterström, S., Steinfeldt, R., Jeansson, E., Ishii, M., Perez, F. F., Suzuki, T., and Watelet, S.: A new global interior ocean mapped climatology: The 1° × 1° GLODAP version 2, Earth System Science Data, 8(2), 325–340, https://doi.org/10.5194/essd-8-325-2016, 2016.</v>
       </c>
     </row>
     <row r="31">
@@ -13460,15 +13460,15 @@
       </c>
       <c r="C31" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>MOBO-DIC (Version 2023)</v>
+        <v>Acidification Metrics in the Ocean Interior</v>
       </c>
       <c r="D31" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>Keppler et al. (2023)</v>
+        <v>Fassbender et al. (2023) </v>
       </c>
       <c r="E31" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/Moby.jpg</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/archive/arc0227/0290073/1.1/about/0290073_preview.jpg</v>
       </c>
       <c r="F31" s="31" t="str">
         <f t="shared" ref="F31:G31" si="116">if(ISBLANK($C31), "", F$1)</f>
@@ -13480,7 +13480,7 @@
       </c>
       <c r="H31" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>Open ocean</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I31" s="31" t="str">
         <f t="shared" ref="I31:J31" si="117">if(ISBLANK($C31), "", I$1)</f>
@@ -13492,7 +13492,7 @@
       </c>
       <c r="K31" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>monthly</v>
+        <v>climatology</v>
       </c>
       <c r="L31" s="31" t="str">
         <f t="shared" ref="L31:M31" si="118">if(ISBLANK($C31), "", L$1)</f>
@@ -13516,23 +13516,23 @@
       </c>
       <c r="Q31" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>2004-2020</v>
+        <v>1850 - 2002</v>
       </c>
       <c r="R31" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>Temporal trends and interannual variability of DIC in the interior ocean from surface to 1500 m</v>
+        <v>Metrics of acidification in the ocean interior (to 2000 m) and the component of those changes caused by carbonate system nonlinearities</v>
       </c>
       <c r="S31" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>Keppler et al. (2023)</v>
+        <v>Fassbender et al. (2023) </v>
       </c>
       <c r="T31" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>https://doi.org/10.1029/2022gb007677</v>
+        <v>https://doi.org/10.1029/2023GB007843</v>
       </c>
       <c r="U31" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277099.html</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0290073.html</v>
       </c>
       <c r="V31" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13540,7 +13540,7 @@
       </c>
       <c r="W31" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>Keppler et al. (2023) extended the temporal resolution of MOBO-DIC to resolve monthly fields from January 2004 to December 2019, as opposed to the average climatological values in Keppler et al. (2020).</v>
+        <v>Fassbender et al. (2023) generated estimates of global interior ocean changes to pH, [H+], Ωarag, pCO2, and the Revelle sensitivity factor driven by the accumulation of anthropogenic carbon (Cant) from the preindustrial period to the year 2002, and quantified the component of those changes caused by nonlinearities in the carbonate system. For each OA metric, the dataset includes year 2002 values and quasi-preindustrial values, which were estimated by subtracting Cant from the year 2002 carbonate chemistry information and recomputing each OA metric without considering any warming, circulation, or biological changes that may have occurred since the preindustrial era. </v>
       </c>
       <c r="X31" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="Y31" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A31,FALSE)</f>
-        <v>Keppler, L., Landschützer, P., Lauvset, S. K., and Gruber, N.: Recent trends and variability in the oceanic storage of dissolved inorganic carbon, Global Biogeochemical Cycles, 37(5), https://doi.org/10.1029/2022gb007677, 2023.</v>
+        <v>Fassbender, A. J., Carter, B. R., Sharp, J. D., Huang, Y., Arroyo, M. C., and Frenzel, H.: Amplified subsurface signals of ocean acidification, Global Biogeochemical Cycles, 37, e2023GB007843, https://doi.org/10.1029/2023GB007843, 2023. </v>
       </c>
     </row>
     <row r="32">
@@ -13557,19 +13557,19 @@
       </c>
       <c r="B32" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Gridded subsurface</v>
       </c>
       <c r="C32" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>UoEX-Watson</v>
+        <v>Anthropogenic CO2 from 1994 to 2007</v>
       </c>
       <c r="D32" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>Watson et al (2020)</v>
+        <v>Gruber et al. (2019) </v>
       </c>
       <c r="E32" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0301544.png</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/archive/arc0132/0186034/1.1/about/0186034_preview.jpg</v>
       </c>
       <c r="F32" s="31" t="str">
         <f t="shared" ref="F32:G32" si="120">if(ISBLANK($C32), "", F$1)</f>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="H32" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>Open ocean</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I32" s="31" t="str">
         <f t="shared" ref="I32:J32" si="121">if(ISBLANK($C32), "", I$1)</f>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="K32" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>monthly</v>
+        <v>climatology</v>
       </c>
       <c r="L32" s="31" t="str">
         <f t="shared" ref="L32:M32" si="122">if(ISBLANK($C32), "", L$1)</f>
@@ -13617,23 +13617,23 @@
       </c>
       <c r="Q32" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>1985-2019</v>
+        <v>1994 - 2007</v>
       </c>
       <c r="R32" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>Air-sea fluxes of CO2 with adjusted skin temperature effect</v>
+        <v>The oceanic sink for anthropogenic CO2 over the period 1994 to 2007</v>
       </c>
       <c r="S32" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>Watson et al (2020)</v>
+        <v>Gruber et al. (2019) </v>
       </c>
       <c r="T32" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>https://doi.org/10.25921/2dp5-xm29</v>
+        <v>https://doi.org/10.1126/science.aau5153</v>
       </c>
       <c r="U32" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/data/0301544/</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0186034.html</v>
       </c>
       <c r="V32" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="W32" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>This is a gridded estimate of the atmosphere-ocean flux of CO2.  It takes into account near-surface temperature and salinity deviations due to the surface "skin effect", and small deviations in temperature caused by sampling below the actual surface of the ocean, which most estimates ignore. The result is a substantially larger estimate of net flux into the ocean than most other products. Apart from the surface correction, the SOM-FFN neural net interpolation method developed by Landschutzer et al is followed.</v>
+        <v>Gruber et al. (2019a) estimated the decadal time-scale changes in the oceanic content of anthropogenic CO2 (∆Cant) between 1994 to 2007. The results were derived from the GLODAPv2.2016 product (Olsen et al., 2016), utilizing the eMLR(C*) methodology pioneered by Clement and Gruber (2018). The product is combined with the estimated amount of Cant for 1994 derived by Sabine et al. (2004) from GLODAPv1 to infer Cant for 2007. </v>
       </c>
       <c r="X32" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13649,7 +13649,7 @@
       </c>
       <c r="Y32" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A32,FALSE)</f>
-        <v>Watson, A. J., Schuster, U., Shutler, J. D., Holding, T., Ashton, I. G., Landschützer, P., Woolf, D., and Goddijn-Murphy, L.: Revised estimates of ocean-atmosphere CO2 flux are consistent with ocean carbon inventory, Nature Communications, 11(1), 1–6, https://doi.org/10.1038/s41467-020-18203-3, 2020.</v>
+        <v>Gruber, N., Clement, D., Carter, B. R., Feely, R. A., van Heuven, S., Hoppema, M., Ishii, M., Key, R. M., Kozyr, A., Lauvset, S. K., Lo Monaco, C., Mathis, J. T., Murata, A., Olsen, A., Perez, F. F., Sabine, C. L., Tanhua, T., and Wanninkhof, R.: The oceanic sink for anthropogenic CO2 from 1994 to 2007, Science, 363(6432), 1193–1199, https://doi.org/10.1126/science.aau5153, 2019. </v>
       </c>
     </row>
     <row r="33">
@@ -13658,19 +13658,19 @@
       </c>
       <c r="B33" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>Time series</v>
+        <v>Gridded subsurface</v>
       </c>
       <c r="C33" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>Point B Time-series</v>
+        <v>Aragonite Climatology</v>
       </c>
       <c r="D33" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>Kapsenberg et al. (2017)</v>
+        <v>Jiang et al. (2015) </v>
       </c>
       <c r="E33" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>https://i.ibb.co/8gK4B2BP/Point-B.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/1787fd59-795c-4979-9565-6e7270b0fdbf/gbc20348-fig-0002-m.jpg</v>
       </c>
       <c r="F33" s="31" t="str">
         <f t="shared" ref="F33:G33" si="124">if(ISBLANK($C33), "", F$1)</f>
@@ -13682,7 +13682,7 @@
       </c>
       <c r="H33" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>Coastal ocean</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I33" s="31" t="str">
         <f t="shared" ref="I33:J33" si="125">if(ISBLANK($C33), "", I$1)</f>
@@ -13694,7 +13694,7 @@
       </c>
       <c r="K33" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>discrete</v>
+        <v>climatology</v>
       </c>
       <c r="L33" s="31" t="str">
         <f t="shared" ref="L33:M33" si="126">if(ISBLANK($C33), "", L$1)</f>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="N33" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v/>
+        <v>1° x 1°</v>
       </c>
       <c r="O33" s="31" t="str">
         <f t="shared" ref="O33:P33" si="127">if(ISBLANK($C33), "", O$1)</f>
@@ -13716,25 +13716,25 @@
         <f t="shared" si="127"/>
         <v>Period</v>
       </c>
-      <c r="Q33" s="31" t="str">
+      <c r="Q33" s="37" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v/>
+        <v>2000</v>
       </c>
       <c r="R33" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>Carbonate chemistry at a coastal site of the Bay of Villefranche, France</v>
+        <v>Ocean interior climatology for (Ωarag) from surface to 4000 m (referenced to year 2000)</v>
       </c>
       <c r="S33" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>Kapsenberg et al. (2017)</v>
+        <v>Jiang et al. (2015) </v>
       </c>
       <c r="T33" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>https://doi.org/10.5194/os-13-411-2017</v>
+        <v>https://doi.org/10.1002/2015GB005198</v>
       </c>
       <c r="U33" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>https://doi.org/10.1594/PANGAEA.727120 </v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0139360.html</v>
       </c>
       <c r="V33" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="W33" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>The Point B Time-series documents the carbonate chemistry at a coastal site of the Bay of Villefranche (43.686200N 7.314800E) in Villefranche-sur-mer, France, northwestern Mediterranean Sea. Since January 2007, seawater is sampled weekly at 1 and 50 m, and analyzed for DIC and TA. Salinity and temperature are extracted from CTD profiles. Variables of the carbonate system such as pH (total scale) are calculated using the R package seacarb. </v>
+        <v>Jiang et al. (2015a) developed an interior ocean Ωarag climatology (referenced to 2000), on a 1° × 1° grid at 9 standardized depth levels from the surface down to 4000m. This was accomplished by integrating data from the first version of GLODAP (Key et al., 2004), CARINA (Key et al., 2010), and PACIFICA (Suzuki et al., 2013), along with additional recent cruise datasets up to 2012. </v>
       </c>
       <c r="X33" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13750,7 +13750,7 @@
       </c>
       <c r="Y33" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A33,FALSE)</f>
-        <v>Kapsenberg, L., Alliouane, S., Gazeau, F., Mousseau, L., and Gattuso, J.-P.: Coastal ocean acidification and increasing total alkalinity in the northwestern Mediterranean Sea, Ocean Sci., 13, 411–426, https://doi.org/10.5194/os-13-411-2017, 2017.  </v>
+        <v>Jiang, L.-Q., Feely, R. A., Carter, B. R., Greeley, D. J., Gledhill, D. K., and Arzayus, K. M.: Climatological distribution of aragonite saturation state in the global oceans,  Global Biogeochemical Cycles, 29(10), 1656–1673, https://doi.org/10.1002/2015GB005198, 2015. </v>
       </c>
     </row>
     <row r="34">
@@ -13759,19 +13759,19 @@
       </c>
       <c r="B34" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>Time series</v>
+        <v>Gridded subsurface</v>
       </c>
       <c r="C34" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>Ny-Ålesund Time-series</v>
+        <v>CODAP-NA Climatology</v>
       </c>
       <c r="D34" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>Gattuso et al. (2023)</v>
+        <v>Jiang et al. (2024)</v>
       </c>
       <c r="E34" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/15/2809/2023/essd-15-2809-2023-avatar-web.png</v>
+        <v>https://essd.copernicus.org/articles/16/3383/2024/essd-16-3383-2024-avatar-web.png</v>
       </c>
       <c r="F34" s="31" t="str">
         <f t="shared" ref="F34:G34" si="128">if(ISBLANK($C34), "", F$1)</f>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="H34" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>Coastal ocean</v>
+        <v>Coastal ocean, Water column</v>
       </c>
       <c r="I34" s="31" t="str">
         <f t="shared" ref="I34:J34" si="129">if(ISBLANK($C34), "", I$1)</f>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K34" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>continuous, discrete</v>
+        <v>climatology</v>
       </c>
       <c r="L34" s="31" t="str">
         <f t="shared" ref="L34:M34" si="130">if(ISBLANK($C34), "", L$1)</f>
@@ -13807,7 +13807,7 @@
       </c>
       <c r="N34" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v/>
+        <v>1° x 1°</v>
       </c>
       <c r="O34" s="31" t="str">
         <f t="shared" ref="O34:P34" si="131">if(ISBLANK($C34), "", O$1)</f>
@@ -13819,23 +13819,23 @@
       </c>
       <c r="Q34" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v/>
+        <v>2010</v>
       </c>
       <c r="R34" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>Carbonate chemistry at a coastal site of Kongsfjorden, Spitsbergen</v>
+        <v>The first discrete bottle based climatology in the North American ocean margins</v>
       </c>
       <c r="S34" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>Gattuso et al. (2023)</v>
+        <v>Jiang et al. (2024)</v>
       </c>
       <c r="T34" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-15-2809-2023</v>
+        <v>https://doi.org/10.5194/essd-16-3383-2024</v>
       </c>
       <c r="U34" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>https://doi.org//10.1594/PANGAEA.957028</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0270962.html</v>
       </c>
       <c r="V34" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="W34" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>The Ny-Ålesund Time-series documents the carbonate chemistry at a coastal site of Kongsfjorden, Spitsbergen (78.930660N 11.920030E) during the period 2015-2021. It is the first high-frequency (1 hour), multi-year (6 years) dataset of salinity, temperature, pCO2, pH, as well as calculated DIC and TA in the High-Arctic Ocean (Gattuso et al., 2023). </v>
+        <v>Jiang et al. (2024) developed a coastal OA indicators climatology on a 1°×1° grid, covering North American ocean margins from surface to 500 m at 14 standardized depth levels. This product includes 10 key oceanographic variables: fCO2, pH, [H+]total, free hydrogen ion content ([H+]free), carbonate ion content ([CO32-]), Ωarag, Ωcalc, DIC, TA, and Revelle Factor (RF), as well as temperature and salinity. The climatology was produced with the WOA gridding technologies of the NOAA National Centers for Environmental Information (NCEI), based on the recently released Coastal Ocean Data Analysis Product in North America (CODAP-NA) (Jiang et al., 2021), along with GLODAPv2.2022 (Lauvset et al., 2022). The relevant variables were adjusted to the year of 2010 before the gridding. </v>
       </c>
       <c r="X34" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13851,7 +13851,7 @@
       </c>
       <c r="Y34" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A34,FALSE)</f>
-        <v>Gattuso, J.-P., Alliouane, S., and Fischer, P.: High-frequency, year-round time series of the carbonate chemistry in a high-Arctic fjord (Svalbard), Earth Syst. Sci. Data, 15, 2809–2825, https://doi.org/10.5194/essd-15-2809-2023, 2023. </v>
+        <v>Jiang, L.-Q., Boyer, T. P., Paver, C. R., Yoo, H., Reagan, J. R., Alin, S. R., Barbero, L., Carter, B. R., Feely, R. A., and Wanninkhof, R.: Climatological distribution of ocean acidification variables along the North American ocean margins, Earth System Science Data, 16(7), 3383–3390, https://doi.org/10.5194/essd-16-3383-2024, 2024. </v>
       </c>
     </row>
     <row r="35">
@@ -13860,19 +13860,19 @@
       </c>
       <c r="B35" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Gridded subsurface</v>
       </c>
       <c r="C35" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>CMEMS-LSCEv1</v>
+        <v>MOBO-DIC (Version 2020)</v>
       </c>
       <c r="D35" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>Chau et al. (2022)</v>
+        <v>Keppler et al., 2020</v>
       </c>
       <c r="E35" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>https://bg.copernicus.org/articles/19/1087/2022/bg-19-1087-2022-avatar-web.png</v>
+        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/Moby.jpg</v>
       </c>
       <c r="F35" s="31" t="str">
         <f t="shared" ref="F35:G35" si="132">if(ISBLANK($C35), "", F$1)</f>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H35" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>Open ocean, Coastal ocean, Surface</v>
+        <v>Open ocean</v>
       </c>
       <c r="I35" s="31" t="str">
         <f t="shared" ref="I35:J35" si="133">if(ISBLANK($C35), "", I$1)</f>
@@ -13920,23 +13920,23 @@
       </c>
       <c r="Q35" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>1985 - 2019</v>
+        <v>2010</v>
       </c>
       <c r="R35" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>seamless reconstruction from coastal to open ocean</v>
+        <v>Seasonal variability of DIC in the interior ocean from surface to 2000 m</v>
       </c>
       <c r="S35" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>Chau et al. (2022)</v>
+        <v>Keppler et al., 2020</v>
       </c>
       <c r="T35" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>https://doi.org/10.5194/bg-19-1087-2022</v>
+        <v>https://doi.org/10.1029/2020GB006571</v>
       </c>
       <c r="U35" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>https://data.ipsl.fr/catalog/srv/eng/catalog.search#/metadata/a2f0891b-763a-49e9-af1b-78ed78b16982</v>
+        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/ndp104.html</v>
       </c>
       <c r="V35" s="31" t="str">
         <f t="shared" si="10"/>
@@ -13944,7 +13944,7 @@
       </c>
       <c r="W35" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>Monthly surface ocean pCO2 and air–sea CO2 fluxes on a 1° × 1° grid in both the open ocean and coastal seas from 1985–2019 were reconstructed by Chau et al., (2022). CMEMS-LSCE is short for Copernicus Marine Environment Monitoring Service - Laboratoire des Sciences du Climat et de l’Environnement. This product is generated from an ensemble-based reconstruction of pCO2 maps trained with gridded data from SOCATv2020 (Bakker et al., 2016). Sea-surface pCO2 values (converted from the original fCO2 values in SOCATv2020) were regressed against a set of predictors with non-linear functions, i.e., feed-forward neural network (FFNN) models. The predictors include: sea-surface height (SSH), SST, SSS, MLD, chlorophyll a (Chl-a), atmospheric CO2 mole fraction (xCO2), and geographical coordinates (longitudes and latitudes). </v>
+        <v>Keppler et al. (2020) produced a global interior ocean DIC monthly climatology (average climatological values for January through December) on a 1° × 1° grid at 33 standardized depth levels from the surface to 2000 m. </v>
       </c>
       <c r="X35" s="31" t="str">
         <f t="shared" si="11"/>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="Y35" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A35,FALSE)</f>
-        <v>Chau, T.-T.-T., Gehlen, M., and Chevallier, F.: A seamless ensemble-based reconstruction of surface ocean pCO2 and air–sea CO2 fluxes over the global coastal and open oceans. Biogeosciences, 19(4), 1087–1109,  https://doi.org/10.5194/bg-19-1087-2022, 2022.</v>
+        <v>Keppler, L., Landschützer, P., Gruber, N., Lauvset, S. K., and Stemmler, I.: Seasonal carbon dynamics in the near-global ocean, Global Biogeochemical Cycles, 34(12), e2020GB006571, https://doi.org/10.1029/2020GB006571, 2020.</v>
       </c>
     </row>
     <row r="36">
@@ -13961,19 +13961,19 @@
       </c>
       <c r="B36" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Gridded subsurface</v>
       </c>
       <c r="C36" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>CMEMS-LSCEv2</v>
+        <v>MOBO-DIC (Version 2023)</v>
       </c>
       <c r="D36" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>Chau et al. (2024)</v>
+        <v>Keppler et al. (2023)</v>
       </c>
       <c r="E36" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/121/2024/essd-16-121-2024-avatar-web.png</v>
+        <v>https://www.ncei.noaa.gov/access/ocean-carbon-acidification-data-system/oceans/ndp_104/Moby.jpg</v>
       </c>
       <c r="F36" s="31" t="str">
         <f t="shared" ref="F36:G36" si="136">if(ISBLANK($C36), "", F$1)</f>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="H36" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>Open ocean, Coastal ocean, Surface</v>
+        <v>Open ocean</v>
       </c>
       <c r="I36" s="31" t="str">
         <f t="shared" ref="I36:J36" si="137">if(ISBLANK($C36), "", I$1)</f>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="K36" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>monthly, climatology</v>
+        <v>monthly</v>
       </c>
       <c r="L36" s="31" t="str">
         <f t="shared" ref="L36:M36" si="138">if(ISBLANK($C36), "", L$1)</f>
@@ -14009,7 +14009,7 @@
       </c>
       <c r="N36" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>0.25° x 0.25°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O36" s="31" t="str">
         <f t="shared" ref="O36:P36" si="139">if(ISBLANK($C36), "", O$1)</f>
@@ -14021,23 +14021,23 @@
       </c>
       <c r="Q36" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>1985 - 2025</v>
+        <v>2004-2020</v>
       </c>
       <c r="R36" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>Yearly extension of time-series &amp; monthly reconstruction at low latency</v>
+        <v>Temporal trends and interannual variability of DIC in the interior ocean from surface to 1500 m</v>
       </c>
       <c r="S36" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>Chau et al. (2024)</v>
+        <v>Keppler et al. (2023)</v>
       </c>
       <c r="T36" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-121-2024</v>
+        <v>https://doi.org/10.1029/2022gb007677</v>
       </c>
       <c r="U36" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>https://doi.org/10.48670/moi-00047</v>
+        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0277099.html</v>
       </c>
       <c r="V36" s="31" t="str">
         <f t="shared" si="10"/>
@@ -14045,7 +14045,7 @@
       </c>
       <c r="W36" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>CMEMS-LSCEv2 corresponds to the latest version of the CMEMS-LSCE FFNN. It uses the same ensemble-based reconstruction method for pCO2 maps as CMEMS-LSCEv1.  Improvements include downscaling the spatial resolution to 0.25° × 0.25° and reproducing additional surface ocean carbonate system variables on a global grid from 1985 onwards (Chau et al., 2024a). The additional surface ocean carbonate system variables are: pCO2, DIC, TA, pH, Ωarag, and Ωcalc. Surface ocean pCO2 is reconstructed based on an ensemble of neural network models mapping gridded observation-based data provided by SOCATv2022 (Bakker et al., 2016). Surface ocean TA is estimated with a multiple linear regression approach (Carter et al., 2016, 2017). The remaining carbonate variables are calculated from pCO2 and TA using a MATLAB version of CO2SYS (Lewis and Wallace, 1998; Van Heuven et al., 2011). The CMEMS-LSCE product is updated yearly for surface ocean pCO2, air-sea fluxes, and the carbonate system variables. Updates are phased with release of the SOCAT database. For surface ocean pCO2 and air-sea fluxes the temporal coverage is extended to the present date with a latency of 1 month (Chau et al., 2024b). </v>
+        <v>Keppler et al. (2023) extended the temporal resolution of MOBO-DIC to resolve monthly fields from January 2004 to December 2019, as opposed to the average climatological values in Keppler et al. (2020).</v>
       </c>
       <c r="X36" s="31" t="str">
         <f t="shared" si="11"/>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="Y36" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A36,FALSE)</f>
-        <v>Chau, T.-T.-T., Gehlen, M., Metzl, N., and Chevallier, F.: CMEMS-LSCE: a global, 0.25°, monthly reconstruction of the surface ocean carbonate system, Earth Syst. Sci. Data, 16, 121–160, https://doi.org/10.5194/essd-16-121-2024, 2024. </v>
+        <v>Keppler, L., Landschützer, P., Lauvset, S. K., and Gruber, N.: Recent trends and variability in the oceanic storage of dissolved inorganic carbon, Global Biogeochemical Cycles, 37(5), https://doi.org/10.1029/2022gb007677, 2023.</v>
       </c>
     </row>
     <row r="37">
@@ -14066,15 +14066,15 @@
       </c>
       <c r="C37" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>GLODAPv2 Climatology</v>
+        <v>Monthly Interior Ocean pH Climatology</v>
       </c>
       <c r="D37" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>Lauvset et al. (2016)</v>
+        <v>Zhong et al. (2025)</v>
       </c>
       <c r="E37" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>https://i.ibb.co/dwFT2QJx/GLODAPv2-Climatology.png</v>
+        <v>https://appletmsdc.qdio.ac.cn//files/metadata/images/%E6%95%B0%E6%8D%AE%E9%9B%86%E7%95%A5%E7%BC%A9%E5%9B%BE-1689829059666.jpg</v>
       </c>
       <c r="F37" s="31" t="str">
         <f t="shared" ref="F37:G37" si="140">if(ISBLANK($C37), "", F$1)</f>
@@ -14098,7 +14098,7 @@
       </c>
       <c r="K37" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>climatology</v>
+        <v>monthly</v>
       </c>
       <c r="L37" s="31" t="str">
         <f t="shared" ref="L37:M37" si="142">if(ISBLANK($C37), "", L$1)</f>
@@ -14122,23 +14122,23 @@
       </c>
       <c r="Q37" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>2002</v>
+        <v>1992 - 2020</v>
       </c>
       <c r="R37" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>Ocean interior climatology for multiple variables from surface to the bottom of the ocean (referenced to year 2002)</v>
+        <v>Temporal variability of pH in the interior ocean from surface to 2000 m over 3 decades</v>
       </c>
       <c r="S37" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>Lauvset et al. (2016)</v>
+        <v>Zhong et al. (2025)</v>
       </c>
       <c r="T37" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-8-325-2016</v>
+        <v> http://doi.org/10.12157/IOCAS.20230720.001</v>
       </c>
       <c r="U37" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0286118.html </v>
+        <v> http://doi.org/10.12157/IOCAS.20230720.001</v>
       </c>
       <c r="V37" s="31" t="str">
         <f t="shared" si="10"/>
@@ -14146,7 +14146,7 @@
       </c>
       <c r="W37" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>Lauvset et al. (2016) generated a comprehensive set of global interior ocean climatologies, mapping key biogeochemical variables on a 1° × 1° grid for 33 depth levels from surface to 5500 m. These climatologies cover temperature, salinity, DO, nitrate, phosphate, silicate, DIC, TA, pH, Ωarag, and Ωcalc). This data product was created based on the quality-controlled and internally consistent GLODAPv2.2016 (Olsen et al., 2016) using the data-interpolating variational analysis (DIVA) method (Barth et al., 2014). The conceivably confounding temporal trends in DIC, pH, Ωarag and Ωcalc due to anthropogenic influence were removed prior to mapping by normalizing their values to a reference year of 2002 using first-order calculations of anthropogenic carbon accumulation rates. For all variables, all data from the full 1972–2013 period were used, including data that did not receive full secondary quality control. This data product is not updated each year along with the main GLODAPv2 data product. </v>
+        <v>A monthly 1° × 1° gridded global seawater pH (total scale) climatology from 1992 to 2020 at in situ temperature, derived using a machine learning algorithm trained on pH observations from GLODAPv2. The product spans from 1992 to 2020 and covers depths from the surface to 2000 m across 41 vertical levels.</v>
       </c>
       <c r="X37" s="31" t="str">
         <f t="shared" si="11"/>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="Y37" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A37,FALSE)</f>
-        <v>Lauvset, S. K., Key, R. M., Olsen, A., van Heuven, S., Velo, A., Lin, X., Schirnick, C., Kozyr, A., Tanhua, T., Hoppema, M., Jutterström, S., Steinfeldt, R., Jeansson, E., Ishii, M., Perez, F. F., Suzuki, T., and Watelet, S.: A new global interior ocean mapped climatology: The 1° × 1° GLODAP version 2, Earth System Science Data, 8(2), 325–340, https://doi.org/10.5194/essd-8-325-2016, 2016.</v>
+        <v>Zhong, G., Li, X., Song, J., Qu, B., Wang, F., Wang, Y., Zhang, B., Cheng, L., Ma, J., Yuan, H., Duan, L., Li, N., Wang, Q., Xing, J., and Dai, J. 2025. A global monthly 3D field of seawater pH over 3 decades: a machine learning approach, Earth Syst. Sci. Data, 17, 719–740, https://doi.org/10.5194/essd-17-719-2025.</v>
       </c>
     </row>
     <row r="38">
@@ -14163,19 +14163,19 @@
       </c>
       <c r="B38" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Harmonized</v>
       </c>
       <c r="C38" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>Stepwise-FFNN</v>
+        <v>SeaFlux</v>
       </c>
       <c r="D38" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>Zhong et al. (2022)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="E38" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>https://appletmsdc.qdio.ac.cn//files/metadata/images/2025-08-14_1955061943601487874/DATA20251000212_11415094_1.jpg</v>
+        <v>https://seaflux.readthedocs.io/en/latest/_static/seaflux_logo.png</v>
       </c>
       <c r="F38" s="31" t="str">
         <f t="shared" ref="F38:G38" si="144">if(ISBLANK($C38), "", F$1)</f>
@@ -14223,23 +14223,23 @@
       </c>
       <c r="Q38" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>1992 - 2024</v>
+        <v>1990 - 2022</v>
       </c>
       <c r="R38" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>ML-based selection of predictors considering regional differences of pCO2 drivers</v>
+        <v>Careful consideration of flux calculation provides a resource and code to the community for independent flux calculations</v>
       </c>
       <c r="S38" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>Zhong et al. (2022)</v>
+        <v>Fay and Gregor et al. (2021)</v>
       </c>
       <c r="T38" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v> http://doi.org/10.12157/IOCAS.20250814.001</v>
+        <v>https://doi.org/10.5194/essd-2021-16</v>
       </c>
       <c r="U38" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v> http://doi.org/10.12157/IOCAS.20250814.001</v>
+        <v>https://zenodo.org/records/8280457</v>
       </c>
       <c r="V38" s="31" t="str">
         <f t="shared" si="10"/>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="W38" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>A monthly global 1° × 1° surface ocean pCO2 product from January 1992 to December 2024, constructed by combining the stepwise regression algorithm and a feed-forward neural network (FFNN) to select predictors of pCO2 based on the mean absolute error in each of the 11 biogeochemical provinces defined by the self-organizing map (SOM) method. </v>
+        <v>Harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach (Gregor and Fay, 2021). This resource provides an ensemble of six pCO2 products with air-sea CO2 fluxes computed consistently. The six included products are: CMEMS-LSCEv1, CSIR-ML6, JENA-MLS, JMA-MLR, MPI-SOMFFN, and NIES-FNN. First, missing areas of pCO2 estimates (mostly high-latitude and marginal seas) are filled using a linear-regression approach, thus addressing differences in spatial coverage between the mapping products. Further, also accounts for methodological inconsistencies in flux calculations. Fluxes are calculated using three wind products (CCMPv2, ERA5, and JRA55) along with the application of a scaled gas exchange coefficient for each of the wind products. Through these steps, SeaFlux presents a product ensemble of interpolated global surface ocean pCO2 and air–sea carbon flux estimates for the years 1990–2019</v>
       </c>
       <c r="X38" s="31" t="str">
         <f t="shared" si="11"/>
@@ -14255,7 +14255,7 @@
       </c>
       <c r="Y38" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A38,FALSE)</f>
-        <v>Zhong, G., Li, X., Song, J., Qu, B., Wang, F., Wang, Y., ... &amp; Duan, L. 2022. Reconstruction of global surface ocean pCO2 using region-specific predictors based on a stepwise FFNN regression algorithm, Biogeosciences, 19, 845-859, https://doi.org/10.5194/bg-19-845-2022.</v>
+        <v>Fay, A. R., Gregor, L., Landschützer, P., McKinley, G. A., Gruber, N., Gehlen, M., Iida, Y., Laruelle, G. G., Rödenbeck, C., Roobaert, A., and Zeng, J.: SeaFlux: harmonization of air–sea CO2 fluxes from surface pCO2 data products using a standardized approach, Earth Syst. Sci. Data, 13, 4693–4710, https://doi.org/10.5194/essd-13-4693-2021, 2021</v>
       </c>
     </row>
     <row r="39">
@@ -14268,15 +14268,15 @@
       </c>
       <c r="C39" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>Monthly Interior Ocean pH Climatology</v>
+        <v>ECCO-Darwin</v>
       </c>
       <c r="D39" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>Zhong et al. (2025)</v>
+        <v>Carroll et al. (2020)</v>
       </c>
       <c r="E39" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>https://appletmsdc.qdio.ac.cn//files/metadata/images/%E6%95%B0%E6%8D%AE%E9%9B%86%E7%95%A5%E7%BC%A9%E5%9B%BE-1689829059666.jpg</v>
+        <v>https://ecco-group.org/images/ecco_rotator01.jpg</v>
       </c>
       <c r="F39" s="31" t="str">
         <f t="shared" ref="F39:G39" si="148">if(ISBLANK($C39), "", F$1)</f>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="H39" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>Open ocean, Water column</v>
+        <v>Open ocean, Coastal ocean, Surface, Water column</v>
       </c>
       <c r="I39" s="31" t="str">
         <f t="shared" ref="I39:J39" si="149">if(ISBLANK($C39), "", I$1)</f>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="K39" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>monthly</v>
+        <v>daily, monthly</v>
       </c>
       <c r="L39" s="31" t="str">
         <f t="shared" ref="L39:M39" si="150">if(ISBLANK($C39), "", L$1)</f>
@@ -14312,7 +14312,7 @@
       </c>
       <c r="N39" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>1° x 1°</v>
+        <v>0.33° x 0.33°</v>
       </c>
       <c r="O39" s="31" t="str">
         <f t="shared" ref="O39:P39" si="151">if(ISBLANK($C39), "", O$1)</f>
@@ -14324,23 +14324,23 @@
       </c>
       <c r="Q39" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>1992 - 2020</v>
+        <v>1992 - 2018</v>
       </c>
       <c r="R39" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>Temporal variability of pH in the interior ocean from surface to 2000 m over 3 decades</v>
+        <v>Model-data synthesis product based on the Estimating the Circulation and Climate of the Ocean (ECCO) ocean state estimate. Fully-closed, physically-consistent 3-D biogeochemical budgets.</v>
       </c>
       <c r="S39" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>Zhong et al. (2025)</v>
+        <v>Carroll et al. (2020)</v>
       </c>
       <c r="T39" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v> http://doi.org/10.12157/IOCAS.20230720.001</v>
+        <v>https://doi.org/10.5281/zenodo.10627664</v>
       </c>
       <c r="U39" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v> http://doi.org/10.12157/IOCAS.20230720.001</v>
+        <v>https://data.nas.nasa.gov/ecco/</v>
       </c>
       <c r="V39" s="31" t="str">
         <f t="shared" si="10"/>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="W39" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>A monthly 1° × 1° gridded global seawater pH (total scale) climatology from 1992 to 2020 at in situ temperature, derived using a machine learning algorithm trained on pH observations from GLODAPv2. The product spans from 1992 to 2020 and covers depths from the surface to 2000 m across 41 vertical levels.</v>
+        <v>Carroll et al. (2022) used the Estimating the Circulation and Climate of the Ocean-Darwin (ECCO-Darwin) global-ocean biogeochemistry state estimate to generate a data-constrained DIC budget and investigate how spatiotemporal variability in advection and mixing, air-sea CO2 flux, and the biological pump have modulated the ocean sink for 1995–2018. ECCO-Darwin assimilates ocean circulation and physical tracers, including temperature, salinity, and sea ice, derived from the Estimating the Circulation and Climate of the Ocean (ECCO) LLC270 global-ocean and sea-ice data synthesis (Zhang et al., 2018). Additionally, it assimilates biogeochemical observations encompassing the cycling of carbon, nitrogen, phosphorus (PO 4 ), iron (Fe), silica (SiO 2 ), DO, and TA. This inclusive approach enhances the model’s fidelity by aligning it with a diverse array of observations. All ECCO-Darwin model output is available on the ECCO Data Portal: https://data.nas.nasa.gov/ecco/. The model code and platform-independent instructions for running ECCO-Darwin simulations can be found at: https://github.com/MITgcm-contrib/ecco_darwin.</v>
       </c>
       <c r="X39" s="31" t="str">
         <f t="shared" si="11"/>
@@ -14356,7 +14356,7 @@
       </c>
       <c r="Y39" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A39,FALSE)</f>
-        <v>Zhong, G., Li, X., Song, J., Qu, B., Wang, F., Wang, Y., Zhang, B., Cheng, L., Ma, J., Yuan, H., Duan, L., Li, N., Wang, Q., Xing, J., and Dai, J. 2025. A global monthly 3D field of seawater pH over 3 decades: a machine learning approach, Earth Syst. Sci. Data, 17, 719–740, https://doi.org/10.5194/essd-17-719-2025.</v>
+        <v>Carroll, D., Menemenlis, D., Adkins, J. F., Bowman, K. W., Brix, H., &amp; Dutkiewicz, S., et al. (2020). The ECCO-Darwin data-assimilative global ocean biogeochemistry model: Estimates of seasonal to multidecadal surface ocean pCO2 and air-sea CO2 flux. Journal of Advances in Modeling Earth Systems, 12, e2019MS001888. https://doi.org/10.1029/2019MS001888</v>
       </c>
     </row>
     <row r="40">
@@ -14365,19 +14365,19 @@
       </c>
       <c r="B40" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Model-based</v>
       </c>
       <c r="C40" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>JMA-MLR</v>
+        <v>Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE) gridded Canth</v>
       </c>
       <c r="D40" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>Iida et al. (2021)</v>
+        <v>Carter et al. (2025)</v>
       </c>
       <c r="E40" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>https://www.data.jma.go.jp/kaiyou/data/db/mar_env/results/co2_flux/animation/fluxmap_fig/flux_2023MN.png</v>
+        <v>https://essd.copernicus.org/articles/17/3073/2025/essd-17-3073-2025-avatar-web.png</v>
       </c>
       <c r="F40" s="31" t="str">
         <f t="shared" ref="F40:G40" si="152">if(ISBLANK($C40), "", F$1)</f>
@@ -14389,7 +14389,7 @@
       </c>
       <c r="H40" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>Open ocean, Surface</v>
+        <v>Open ocean, Surface, Water column</v>
       </c>
       <c r="I40" s="31" t="str">
         <f t="shared" ref="I40:J40" si="153">if(ISBLANK($C40), "", I$1)</f>
@@ -14401,7 +14401,7 @@
       </c>
       <c r="K40" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>monthly</v>
+        <v>irregular</v>
       </c>
       <c r="L40" s="31" t="str">
         <f t="shared" ref="L40:M40" si="154">if(ISBLANK($C40), "", L$1)</f>
@@ -14425,23 +14425,23 @@
       </c>
       <c r="Q40" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>1990-2023</v>
+        <v>1750-2500</v>
       </c>
       <c r="R40" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>Temporal trends of DIC, TA, pCO2, air-sea CO2 flux, pH, and Ωarag.</v>
+        <v>New methods for rapidly estimating anthropogenic carbon from temperature, salinity, and date are presented.  The methods are then used with SSPs to estimate anthropogenic carbon in the ocean globally from 1750 to 2500.</v>
       </c>
       <c r="S40" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>Iida et al. (2021)</v>
+        <v>Carter et al. (2025)</v>
       </c>
       <c r="T40" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>https://doi.org/10.1007/s10872-020-00571-5</v>
+        <v>https://doi.org/10.5194/essd-17-3073-2025</v>
       </c>
       <c r="U40" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>https://doi.org/10.1007/s10872-020-00571-5</v>
+        <v>https://zenodo.org/records/15692788</v>
       </c>
       <c r="V40" s="31" t="str">
         <f t="shared" si="10"/>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="W40" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>Iida et al. (2021) developed a monthly data product for inorganic carbonate variables on a 1° × 1° global surface ocean grid for the period 1993?2018. Variables include DIC, TA, pCO2, sea-air CO2 flux, pH, and Ωarag. They leveraged data products such as SOCAT.v2019 (Bakker et al., 2016) and GLODAPv2.2019 (Olsen et al., 2019), as well as satellite-based variables, including sea-surface dynamic height (SSDH), mixed layer depth (MLD), and chlorophyll-a. The product is updated annually using the latest SOCAT and GLODAPv2 data.</v>
+        <v>Here, we make modifications to the transit time distribution approach for Canth estimation that render the method more accessible. We also release software (BRCScienceProducts, 2025) called “Tracer-based Rapid Anthropogenic Carbon Estimation version 1” (TRACEv1) that allows users – with one line of code – to obtain Canth and water mass age estimates throughout the global open ocean from user-supplied values of geographic location, pressure, salinity, temperature, and the estimate year. We use this code to generate a data product of global gridded open-ocean Canth distributions (TRACEv1_GGCanth; Carter, 2025) that ranges from the preindustrial era through 2500 under a range of Shared Socioeconomic Pathways (SSPs, or atmospheric CO2 concentration pathways). We estimated the skill of these estimates by reconstructing Canth in models with known distributions of Canth and transient tracers and by conducting perturbation tests. In the model-based reconstruction test, TRACEv1 reproduces the global ocean Canth inventory to within ±10 % in 1980 and 2014. We discuss implications and limitations of the projected Canth distributions and highlight ways that the estimation strategy might be improved. One finding is that the ocean will continue to increase its net Canth inventory at least through 2500 due to deep-ocean ventilation, even with the SSP in which intense mitigation successfully decreases atmospheric Canth by ∼60 % in 2500 relative to the 2024 concentration. A notable limitation of this and similar projections made with TRACEv1 is that ongoing and potential future warming and changing oceanic circulation patterns with climate change are not captured by the method. The data products generated by this research are available as MATLAB code (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025) and a spatially and temporally gridded data product (https://doi.org/10.5281/zenodo.15692788, BRCScienceProducts, 2025).</v>
       </c>
       <c r="X40" s="31" t="str">
         <f t="shared" si="11"/>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="Y40" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A40,FALSE)</f>
-        <v>Iida, Y., Takatani, Y., Kojima, A., and Ishii, M. 2021. Global trends of ocean CO2 sink and ocean acidification: An obsevation-based reconstruction of surface ocean inorganic carbon variables, J. Oceanogr. 77, 323-358, https://doi.org/10.1007/s10872-020-00571-5</v>
+        <v>Carter, B. R., Schwinger, J., Sonnerup, R., Fassbender, A. J., Sharp, J. D., Dias, L. M., &amp; Sandborn, D. E. (2025). Tracer-based Rapid Anthropogenic Carbon Estimation (TRACE). Earth System Science Data, 17(6), 3073-3088.</v>
       </c>
     </row>
     <row r="41">
@@ -14466,19 +14466,19 @@
       </c>
       <c r="B41" s="31" t="str">
         <f>HLOOKUP(B$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Gridded surface</v>
+        <v>Model-based</v>
       </c>
       <c r="C41" s="31" t="str">
         <f>HLOOKUP(C$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>ULB-SOM-FFN-Coastalv2.1</v>
+        <v>Preformed properties for marine organic matter and carbonate mineral cycling quantification</v>
       </c>
       <c r="D41" s="31" t="str">
         <f>HLOOKUP(D$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Roobaert et al. (2024)</v>
+        <v>Carter et al. (2021)</v>
       </c>
       <c r="E41" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>https://essd.copernicus.org/articles/16/421/2024/essd-16-421-2024-f01-web.png</v>
+        <v>https://agupubs.onlinelibrary.wiley.com/cms/asset/a70dc130-3967-4e0c-bab1-fa5967af0a63/gbc21075-fig-0003-m.jpg</v>
       </c>
       <c r="F41" s="31" t="str">
         <f t="shared" ref="F41:G41" si="156">if(ISBLANK($C41), "", F$1)</f>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="H41" s="31" t="str">
         <f>HLOOKUP(H$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Coastal ocean</v>
+        <v>Open ocean, Water column</v>
       </c>
       <c r="I41" s="31" t="str">
         <f t="shared" ref="I41:J41" si="157">if(ISBLANK($C41), "", I$1)</f>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="K41" s="31" t="str">
         <f>HLOOKUP(K$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>continuous, monthly</v>
+        <v>climatology</v>
       </c>
       <c r="L41" s="31" t="str">
         <f t="shared" ref="L41:M41" si="158">if(ISBLANK($C41), "", L$1)</f>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="N41" s="36" t="str">
         <f>HLOOKUP(N$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>0.25° x 0.25°</v>
+        <v>1° x 1°</v>
       </c>
       <c r="O41" s="31" t="str">
         <f t="shared" ref="O41:P41" si="159">if(ISBLANK($C41), "", O$1)</f>
@@ -14526,23 +14526,23 @@
       </c>
       <c r="Q41" s="31" t="str">
         <f>HLOOKUP(Q$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>1982-2020</v>
+        <v/>
       </c>
       <c r="R41" s="31" t="str">
         <f>HLOOKUP(R$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Global temporal trends of coastal pCO2 and air-sea CO2 fluxes based on SOCATv2022 with data collected from 1982–2020</v>
+        <v>We have updated global preformed biogeochemical property estimates and provided the estimates for analysis and model validation</v>
       </c>
       <c r="S41" s="31" t="str">
         <f>HLOOKUP(S$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Roobaert et al. (2024)</v>
+        <v>Carter et al. (2021)</v>
       </c>
       <c r="T41" s="35" t="str">
         <f>HLOOKUP(T$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>https://doi.org/10.5194/essd-16-421-2024</v>
+        <v>https://zenodo.org/records/3745002</v>
       </c>
       <c r="U41" s="35" t="str">
         <f>HLOOKUP(U$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>https://doi.org/10.25921/4sde-p068</v>
+        <v>https://github.com/BRCScienceProducts/PreformedPropertyEstimates</v>
       </c>
       <c r="V41" s="31" t="str">
         <f t="shared" si="10"/>
@@ -14550,7 +14550,7 @@
       </c>
       <c r="W41" s="31" t="str">
         <f>HLOOKUP(W$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Roobaert et al. (2024) present high-resolution (0.25° × 0.25° grid) monthly maps showing the distribution of sea surface pCO2 across the global coastal oceans, spanning from 1982 to 2020. This product (ULB-SOM-FFN-coastalv2.1) builds upon the work by Laruelle et al. (2017), incorporating a two-step methodology that utilizes Self Organizing Maps (SOM) and Feed Forward Networks (FFN). This updated product now captures temporal variability, enabling the assessment of interannual variability and long-term trends in coastal air-sea CO2 exchange, unlike the product by Laruelle et al. (2017), which only offers a climatology for a short period (1998-2015). The enhancements include additional environmental predictors and an expanded dataset for training and validation, featuring approximately 18 million direct coastal observations from the SOCAT database, specifically the SOCATv2022 release (Bakker et al., 2016). The product is available at OCADS: https://www.ncei.noaa.gov/data/oceans/ncei/ocads/metadata/0279118.html (Roobaert et al., 2023).</v>
+        <v>We estimate preformed ocean phosphate, nitrate, oxygen, silicate, and alkalinity by combining a reconstruction of ventilation pathways in the ocean interior with estimates of submixed layer properties. These new preformed property estimates are intended to aid biogeochemical cycling studies and validation of modeled preformed property distributions and are available online. Analyses of net property accumulations (observed minus preformed properties) indicate net remineralization ratios in the ocean interior of [1 P]: [14.1 ± 0.6 N]: [−141 ± 12 O2]: [95 ± 25 Si]: [89 ± 9 TA]. These ratios imply that the interior ocean stores 1,300 (±230) PgC through organic matter remineralization and 540 (±60) PgC through carbonate mineral dissolution and that apparent oxygen utilization can overestimate the interior ocean oxygen consumption by ~25%. Further, only 4 (±1%) and 46 (±5%) of the total alkalinity accumulated from carbonate mineral dissolution are found in seawater that is supersaturated with respect to the aragonite and calcite mineral forms of calcium carbonate, respectively. These small excess alkalinity inventories are due to smaller volumes of the supersaturated water masses and shorter ventilation timescales, as carbonate mineral dissolution rates appear nearly independent of depth and saturation state.</v>
       </c>
       <c r="X41" s="31" t="str">
         <f t="shared" si="11"/>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="Y41" s="31" t="str">
         <f>HLOOKUP(Y$1,google_form!$1:$159,$A41,FALSE)</f>
-        <v>Roobaert, A., Regnier, P., Landschützer, P., and Laruelle, G. G.: A novel sea surface pCO2-product for the global coastal ocean resolving trends over 1982–2020, Earth System Science Data, 16(1), 421–441, https://doi.org/10.5194/essd-16-421-2024, 2024.</v>
+        <v>Carter, B. R., Feely, R. A., Lauvset, S. K., Olsen, A., DeVries, T., &amp; Sonnerup, R. (2021). Preformed properties for marine organic matter and carbonate mineral cycling quantification. Global Biogeochemical Cycles, 35(1), e2020GB006623.</v>
       </c>
     </row>
     <row r="42">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -532,7 +532,7 @@
     <t>Watson, A. J., Schuster, U., Shutler, J. D., Holding, T., Ashton, I. G., Landschützer, P., Woolf, D., and Goddijn-Murphy, L.: Revised estimates of ocean-atmosphere CO2 flux are consistent with ocean carbon inventory, Nature Communications, 11(1), 1–6, https://doi.org/10.1038/s41467-020-18203-3, 2020.</t>
   </si>
   <si>
-    <t>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0301544.png</t>
+    <t>https://ibb.co/N2VFG4rP</t>
   </si>
   <si>
     <t>https://doi.org/10.25921/2dp5-xm29</t>
@@ -2750,7 +2750,7 @@
       <c r="E16" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="14" t="s">
         <v>164</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="V16" s="16">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="E17" s="35" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$159,$A17,FALSE)</f>
-        <v>https://www.ncei.noaa.gov/access/metadata/landing-page/bin/gfx?id=gov.noaa.nodc:0301544.png</v>
+        <v>https://ibb.co/N2VFG4rP</v>
       </c>
       <c r="F17" s="31" t="str">
         <f t="shared" ref="F17:G17" si="60">if(ISBLANK($C17), "", F$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -2376,9 +2376,9 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>0.07</v>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="9">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="V11" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="12">
@@ -2654,9 +2654,9 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="U13" s="11">
+      <c r="U13" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>Loading...</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="2"/>
@@ -2772,13 +2772,13 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="11">
+      <c r="U15" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="V15" s="11">
+        <v>Loading...</v>
+      </c>
+      <c r="V15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>0.58</v>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="16">
@@ -2942,9 +2942,9 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="U18" s="11">
+      <c r="U18" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>Loading...</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="2"/>
@@ -3054,9 +3054,9 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="U20" s="11">
+      <c r="U20" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>Loading...</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="2"/>
@@ -3222,9 +3222,9 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="U23" s="16">
+      <c r="U23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>Loading...</v>
       </c>
       <c r="V23" s="11">
         <f t="shared" si="2"/>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="V29" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="30">
@@ -3786,9 +3786,9 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="U33" s="11">
+      <c r="U33" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>Loading...</v>
       </c>
       <c r="V33" s="11">
         <f t="shared" si="2"/>
@@ -3961,9 +3961,9 @@
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="37">
@@ -4242,9 +4242,9 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V41" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>Loading...</v>
       </c>
     </row>
     <row r="42">
@@ -10384,21 +10384,6 @@
     <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
       <formula>0.3</formula>
       <formula>0.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F43 V34 F45:F99">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>if(isblank(V2), "", V2&lt;0.3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F43 V34 F45:F99">
-    <cfRule type="expression" dxfId="1" priority="9">
-      <formula>V2&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F43 V34 F45:F99">
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(V2&gt;0.3,V2&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="431">
   <si>
     <t>Timestamp</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Image size MB</t>
+  </si>
+  <si>
+    <t>Local image</t>
   </si>
   <si>
     <t>Data compilations</t>
@@ -1476,6 +1479,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1499,9 +1505,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1651,8 +1654,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:V99" displayName="Form_Responses" name="Form_Responses" id="1">
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:W99" displayName="Form_Responses" name="Form_Responses" id="1">
+  <tableColumns count="23">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
@@ -1675,6 +1678,7 @@
     <tableColumn name="Column20" id="20"/>
     <tableColumn name="Column21" id="21"/>
     <tableColumn name="Column22" id="22"/>
+    <tableColumn name="Column23" id="23"/>
   </tableColumns>
   <tableStyleInfo name="google_form-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
@@ -1979,7 +1983,9 @@
       <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4"/>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -2006,41 +2012,41 @@
         <v>45961.92452332176</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="9"/>
       <c r="K2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
@@ -2055,47 +2061,51 @@
         <f t="shared" ref="V2:V41" si="2">getImageMegabytesFromUrl(F2)</f>
         <v>0.02</v>
       </c>
+      <c r="W2" s="11" t="str">
+        <f>concat("", CONCAT(lower(C2), ".png"))</f>
+        <v>socat.png</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
         <v>45962.863408819445</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" s="12"/>
       <c r="K3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
@@ -2109,47 +2119,48 @@
         <f t="shared" si="2"/>
         <v>1.21</v>
       </c>
+      <c r="W3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="5">
         <v>45961.948028391205</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="12"/>
       <c r="K4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -2163,47 +2174,48 @@
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
+      <c r="W4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="5">
         <v>45962.71938206018</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="12"/>
       <c r="K5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
@@ -2217,46 +2229,47 @@
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
+      <c r="W5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="5">
         <v>45964.64921225695</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -2270,47 +2283,48 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="W6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="5">
         <v>45962.03784055555</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="12"/>
       <c r="K7" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
@@ -2324,49 +2338,50 @@
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
+      <c r="W7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="5">
         <v>45964.77802197917</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
@@ -2376,51 +2391,52 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V8" s="11" t="str">
+      <c r="V8" s="11">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
-      </c>
+        <v>0.07</v>
+      </c>
+      <c r="W8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="5">
         <v>45962.72461462963</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I9" s="12"/>
       <c r="K9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -2434,47 +2450,48 @@
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
+      <c r="W9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="5">
         <v>45962.74445758102</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I10" s="12"/>
       <c r="K10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -2488,52 +2505,53 @@
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
+      <c r="W10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="5">
         <v>45965.726672199075</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -2542,56 +2560,57 @@
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="V11" s="16" t="str">
+      <c r="V11" s="16">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="W11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" s="5">
         <v>45965.74423630787</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
@@ -2604,110 +2623,112 @@
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
+      <c r="W12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="5">
         <v>45961.95201907407</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="U13" s="11" t="str">
+      <c r="U13" s="11">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>200</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="2"/>
         <v>0.29</v>
       </c>
+      <c r="W13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="5">
         <v>45961.909583877314</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -2721,111 +2742,113 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="W14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="5">
         <v>45961.91270586806</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15" s="17" t="s">
         <v>153</v>
       </c>
+      <c r="F15" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="18" t="s">
         <v>156</v>
       </c>
+      <c r="I15" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="J15" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="11" t="str">
+      <c r="U15" s="11">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
-      </c>
-      <c r="V15" s="11" t="str">
+        <v>200</v>
+      </c>
+      <c r="V15" s="11">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
-      </c>
+        <v>0.58</v>
+      </c>
+      <c r="W15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="5">
         <v>45965.55325196759</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -2838,49 +2861,50 @@
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
+      <c r="W16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" s="5">
         <v>45962.680467199076</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -2894,105 +2918,107 @@
         <f t="shared" si="2"/>
         <v>0.46</v>
       </c>
+      <c r="W17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="5">
         <v>45962.690968483796</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="17" t="s">
         <v>186</v>
       </c>
+      <c r="G18" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="H18" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="U18" s="11" t="str">
+      <c r="U18" s="11">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>200</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="2"/>
         <v>1.03</v>
       </c>
+      <c r="W18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="5">
         <v>45962.75772594908</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -3006,105 +3032,107 @@
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
+      <c r="W19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="5">
         <v>45962.76769828703</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="U20" s="11" t="str">
+      <c r="U20" s="11">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>200</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
+      <c r="W20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="5">
         <v>45964.856173356486</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
@@ -3118,49 +3146,50 @@
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
+      <c r="W21" s="11"/>
     </row>
     <row r="22">
       <c r="A22" s="5">
         <v>45964.86003099537</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="19" t="s">
         <v>224</v>
       </c>
+      <c r="H22" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="I22" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -3174,108 +3203,110 @@
         <f t="shared" si="2"/>
         <v>0.79</v>
       </c>
+      <c r="W22" s="11"/>
     </row>
     <row r="23">
       <c r="A23" s="5">
         <v>45964.89335268519</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
-      <c r="U23" s="16" t="str">
+      <c r="U23" s="16">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>200</v>
       </c>
       <c r="V23" s="11">
         <f t="shared" si="2"/>
         <v>2.23</v>
       </c>
+      <c r="W23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>45965.777433888885</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -3288,52 +3319,53 @@
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
+      <c r="W24" s="17"/>
     </row>
     <row r="25">
       <c r="A25" s="5">
         <v>45965.78585724537</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
@@ -3346,52 +3378,53 @@
         <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
+      <c r="W25" s="17"/>
     </row>
     <row r="26">
       <c r="A26" s="5">
         <v>45966.15542136574</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U26" s="16">
         <f t="shared" si="1"/>
@@ -3401,54 +3434,55 @@
         <f t="shared" si="2"/>
         <v>8.39</v>
       </c>
+      <c r="W26" s="17"/>
     </row>
     <row r="27">
       <c r="A27" s="5">
         <v>45966.24933918982</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="R27" s="20"/>
+        <v>275</v>
+      </c>
+      <c r="R27" s="21"/>
       <c r="U27" s="16">
         <f t="shared" si="1"/>
         <v>302</v>
@@ -3457,52 +3491,53 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="W27" s="17"/>
     </row>
     <row r="28">
       <c r="A28" s="5">
         <v>45966.45460355324</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="U28" s="16">
         <f t="shared" si="1"/>
@@ -3512,52 +3547,53 @@
         <f t="shared" si="2"/>
         <v>0.57</v>
       </c>
+      <c r="W28" s="17"/>
     </row>
     <row r="29">
       <c r="A29" s="5">
         <v>45965.79996599537</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
@@ -3570,49 +3606,50 @@
         <f t="shared" si="2"/>
         <v>Loading...</v>
       </c>
+      <c r="W29" s="17"/>
     </row>
     <row r="30">
       <c r="A30" s="5">
         <v>45962.780607939814</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
@@ -3626,49 +3663,50 @@
         <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
+      <c r="W30" s="11"/>
     </row>
     <row r="31">
       <c r="A31" s="5">
         <v>45962.98225526621</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
@@ -3682,49 +3720,50 @@
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
+      <c r="W31" s="11"/>
     </row>
     <row r="32">
       <c r="A32" s="5">
         <v>45962.210738877315</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
@@ -3738,108 +3777,110 @@
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
+      <c r="W32" s="11"/>
     </row>
     <row r="33">
       <c r="A33" s="5">
         <v>45962.673469733796</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
-      <c r="U33" s="11" t="str">
+      <c r="U33" s="11">
         <f t="shared" si="1"/>
-        <v>Loading...</v>
+        <v>200</v>
       </c>
       <c r="V33" s="11">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
+      <c r="W33" s="11"/>
     </row>
     <row r="34">
       <c r="A34" s="5">
         <v>45964.924418888884</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -3852,52 +3893,53 @@
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
+      <c r="W34" s="17"/>
     </row>
     <row r="35">
       <c r="A35" s="5">
         <v>45964.928267361116</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -3910,105 +3952,107 @@
         <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
+      <c r="W35" s="17"/>
     </row>
     <row r="36">
       <c r="A36" s="5">
         <v>45966.160705902774</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U36" s="16">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="V36" s="16" t="str">
+      <c r="V36" s="16">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="W36" s="17"/>
     </row>
     <row r="37">
-      <c r="A37" s="21">
+      <c r="A37" s="22">
         <v>45961.90485893519</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="F37" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="G37" s="25" t="s">
         <v>365</v>
       </c>
+      <c r="H37" s="25" t="s">
+        <v>366</v>
+      </c>
       <c r="I37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J37" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="22" t="s">
+      <c r="J37" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="O37" s="22" t="s">
+      <c r="M37" s="17"/>
+      <c r="N37" s="23" t="s">
         <v>368</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -4023,49 +4067,50 @@
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
+      <c r="W37" s="11"/>
     </row>
     <row r="38">
       <c r="A38" s="5">
         <v>45964.74980144676</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
@@ -4079,49 +4124,50 @@
         <f t="shared" si="2"/>
         <v>1.45</v>
       </c>
+      <c r="W38" s="11"/>
     </row>
     <row r="39">
       <c r="A39" s="5">
         <v>45964.855968159725</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
@@ -4135,49 +4181,50 @@
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
+      <c r="W39" s="11"/>
     </row>
     <row r="40">
       <c r="A40" s="5">
         <v>45964.861641446754</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
@@ -4191,52 +4238,53 @@
         <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
+      <c r="W40" s="11"/>
     </row>
     <row r="41">
       <c r="A41" s="5">
         <v>45967.508642650464</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U41" s="16">
         <f t="shared" si="1"/>
@@ -4246,23 +4294,24 @@
         <f t="shared" si="2"/>
         <v>Loading...</v>
       </c>
+      <c r="W41" s="17"/>
     </row>
     <row r="42">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
       <c r="L42" s="28"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
@@ -4270,23 +4319,24 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
       <c r="L43" s="28"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
@@ -4294,23 +4344,24 @@
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
       <c r="L44" s="28"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
@@ -4318,23 +4369,24 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
       <c r="L45" s="28"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -4342,23 +4394,24 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="29"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
       <c r="L46" s="28"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
@@ -4366,23 +4419,24 @@
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
     </row>
     <row r="47">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="29"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -4390,23 +4444,24 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
     </row>
     <row r="48">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
       <c r="L48" s="28"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
@@ -4414,23 +4469,24 @@
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
     </row>
     <row r="49">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
       <c r="L49" s="28"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -4438,23 +4494,24 @@
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
     </row>
     <row r="50">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -4462,23 +4519,24 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
     </row>
     <row r="51">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
       <c r="L51" s="28"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -4486,23 +4544,24 @@
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
     </row>
     <row r="52">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
       <c r="L52" s="28"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -4510,23 +4569,24 @@
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
       <c r="L53" s="28"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
@@ -4534,23 +4594,24 @@
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
     </row>
     <row r="54">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="28"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -4558,23 +4619,24 @@
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
     </row>
     <row r="55">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
       <c r="L55" s="28"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
@@ -4582,23 +4644,24 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
     </row>
     <row r="56">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
       <c r="L56" s="28"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -4606,23 +4669,24 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
     </row>
     <row r="57">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
       <c r="L57" s="28"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
@@ -4630,23 +4694,24 @@
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
     </row>
     <row r="58">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
       <c r="L58" s="28"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
@@ -4654,23 +4719,24 @@
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
     </row>
     <row r="59">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
       <c r="L59" s="28"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
@@ -4678,23 +4744,24 @@
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
     </row>
     <row r="60">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
       <c r="L60" s="28"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -4702,23 +4769,24 @@
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
     </row>
     <row r="61">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
       <c r="L61" s="28"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
@@ -4726,23 +4794,24 @@
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
     </row>
     <row r="62">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
       <c r="L62" s="28"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
@@ -4750,23 +4819,24 @@
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
     </row>
     <row r="63">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
       <c r="L63" s="28"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
@@ -4774,23 +4844,24 @@
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
     </row>
     <row r="64">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
       <c r="L64" s="28"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
@@ -4798,23 +4869,24 @@
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
     </row>
     <row r="65">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
       <c r="L65" s="28"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
@@ -4822,23 +4894,24 @@
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
     </row>
     <row r="66">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
       <c r="L66" s="28"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -4846,23 +4919,24 @@
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
     </row>
     <row r="67">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
       <c r="L67" s="28"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
@@ -4870,23 +4944,24 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
     </row>
     <row r="68">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
       <c r="L68" s="28"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
@@ -4894,23 +4969,24 @@
       <c r="T68" s="11"/>
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
     </row>
     <row r="69">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
       <c r="L69" s="28"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
@@ -4918,23 +4994,24 @@
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
     </row>
     <row r="70">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
       <c r="L70" s="28"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
@@ -4942,23 +5019,24 @@
       <c r="T70" s="11"/>
       <c r="U70" s="11"/>
       <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
     </row>
     <row r="71">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
       <c r="L71" s="28"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -4966,23 +5044,24 @@
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
     </row>
     <row r="72">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
       <c r="L72" s="28"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -4990,23 +5069,24 @@
       <c r="T72" s="11"/>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
     </row>
     <row r="73">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
       <c r="L73" s="28"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
@@ -5014,23 +5094,24 @@
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
       <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
     </row>
     <row r="74">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
       <c r="L74" s="28"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
@@ -5038,23 +5119,24 @@
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
     </row>
     <row r="75">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
       <c r="L75" s="28"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
@@ -5062,23 +5144,24 @@
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
     </row>
     <row r="76">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
       <c r="L76" s="28"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
@@ -5086,23 +5169,24 @@
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
     </row>
     <row r="77">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
       <c r="L77" s="28"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
@@ -5110,23 +5194,24 @@
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
       <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
     </row>
     <row r="78">
-      <c r="A78" s="21"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
       <c r="L78" s="28"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
@@ -5134,23 +5219,24 @@
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
     </row>
     <row r="79">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
       <c r="L79" s="28"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
@@ -5158,23 +5244,24 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
       <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
     </row>
     <row r="80">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
       <c r="L80" s="28"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
@@ -5182,23 +5269,24 @@
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
     </row>
     <row r="81">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
       <c r="L81" s="28"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
@@ -5206,23 +5294,24 @@
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
     </row>
     <row r="82">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
       <c r="L82" s="28"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
@@ -5230,23 +5319,24 @@
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
       <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
     </row>
     <row r="83">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
       <c r="L83" s="28"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="23"/>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
@@ -5254,23 +5344,24 @@
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
     </row>
     <row r="84">
-      <c r="A84" s="21"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
       <c r="L84" s="28"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="23"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
@@ -5278,23 +5369,24 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
       <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
     </row>
     <row r="85">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
       <c r="L85" s="28"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
@@ -5302,23 +5394,24 @@
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
       <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
     </row>
     <row r="86">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
       <c r="L86" s="28"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
@@ -5326,23 +5419,24 @@
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
     </row>
     <row r="87">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
       <c r="L87" s="28"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
@@ -5350,23 +5444,24 @@
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
       <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
     </row>
     <row r="88">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
       <c r="L88" s="28"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
@@ -5374,23 +5469,24 @@
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
       <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
     </row>
     <row r="89">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
       <c r="L89" s="28"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
@@ -5398,23 +5494,24 @@
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
       <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
     </row>
     <row r="90">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
       <c r="L90" s="28"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
@@ -5422,23 +5519,24 @@
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
       <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
     </row>
     <row r="91">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
       <c r="L91" s="28"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
@@ -5446,23 +5544,24 @@
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
       <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
     </row>
     <row r="92">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
       <c r="L92" s="28"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
@@ -5470,23 +5569,24 @@
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
       <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
     </row>
     <row r="93">
-      <c r="A93" s="21"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
       <c r="L93" s="28"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
@@ -5494,23 +5594,24 @@
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
       <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
     </row>
     <row r="94">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
       <c r="L94" s="28"/>
-      <c r="M94" s="25"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
@@ -5518,23 +5619,24 @@
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
       <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
     </row>
     <row r="95">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
       <c r="L95" s="28"/>
-      <c r="M95" s="25"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
@@ -5542,23 +5644,24 @@
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
       <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
     </row>
     <row r="96">
-      <c r="A96" s="21"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
       <c r="L96" s="28"/>
-      <c r="M96" s="25"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
@@ -5566,23 +5669,24 @@
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
       <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
     </row>
     <row r="97">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="22"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
       <c r="L97" s="28"/>
-      <c r="M97" s="25"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
       <c r="P97" s="11"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
@@ -5590,23 +5694,24 @@
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
       <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
     </row>
     <row r="98">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
       <c r="L98" s="28"/>
-      <c r="M98" s="25"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
@@ -5614,23 +5719,24 @@
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
       <c r="V98" s="11"/>
+      <c r="W98" s="11"/>
     </row>
     <row r="99">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
       <c r="L99" s="28"/>
-      <c r="M99" s="25"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
@@ -5638,6 +5744,7 @@
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
       <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
     </row>
     <row r="100">
       <c r="C100" s="30"/>
@@ -10568,16 +10675,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J1" s="32" t="s">
         <v>9</v>
@@ -10586,7 +10693,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M1" s="32" t="s">
         <v>8</v>
@@ -10595,7 +10702,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>11</v>
@@ -10633,76 +10740,76 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="L2" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="O2" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>422</v>
-      </c>
       <c r="Q2" s="34" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="V2" s="34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W2" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="X2" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="X2" s="34" t="s">
-        <v>428</v>
-      </c>
       <c r="Y2" s="35" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -2560,9 +2560,9 @@
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>#ERROR!</v>
       </c>
       <c r="W11" s="17"/>
     </row>
@@ -3602,9 +3602,9 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V29" s="16" t="str">
+      <c r="V29" s="16">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>0.22</v>
       </c>
       <c r="W29" s="17"/>
     </row>
@@ -4290,9 +4290,9 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V41" s="16" t="str">
+      <c r="V41" s="16">
         <f t="shared" si="2"/>
-        <v>Loading...</v>
+        <v>0.09</v>
       </c>
       <c r="W41" s="17"/>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -110,6 +110,10 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Arial, Helvetica, sans-serif"/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">Bakker, D. C. E.; Alin, S. R.; Aramaki, T.; Barbero, L.; Bates, N. R.; Gkritzalis, T.; Jones, S. D.; Kozyr, A.; Lauvset, S. K.; Macovei, V.; Metzl, N.; Munro, D. R.; Nakaoka, S.-i.; O’Brien, K. M.; Olsen, A.; Pierrot, D.; Steinhoff, T.; Sullivan, K. F.; Sutton, A. J.; Sweeney, C.; Wada, C.; Wanninkhof, R.; Akl, J.; Arbilla, L. A.; Azetsu-Scott, K.; Battisti, R.; Beatty, C. M.; Becker, M.; Benoit-Cattin, A.; Berghoff, C. F.; Bittig, H. C.; Bonin, J. A.; Bott, R.; Bozzano, R.; Burger, E. F.; Brunetti, F.; Cantoni, C.; Castelli, G.; Chambers, D. P.; Chierici, M.; Corbo, A.; Cronin, M.; Cross, J. N.; Currie, K. I.; Dentico, C.; Emerson, S. R.; Enochs, I.; Enright, M. P.; Enyo, K.; Ericson, Y.; Evans, W.; Fay, A. R.; Feely, R. A.; Fragiacomo, E.; Fransson, A.; Gehrung, M.; Giani, M.; Glockzin, M.; Hamnca, S.; Holodkov, N.; Hoppema, M.; Ibánhez, J. S. P.; Kadono, K.; Kamb, L.; Kralj, M.; Kristensin, T. O.; Laudicella, V. A.; Lefèvre, N.; Leseurre, C.; Lo Monaco, C.; Maenner Jones, S. M.; Maenza, R. A.; McAuliffe, A. M.; Mdokwana, B. W.; Monacci, N. M.; Musielewicz, S.; Neill, C.; Newberger, T.; Nojiri, Y.; Ohman, M. D.; Ólafsdóttir, S. R.; Olivier, L.; Omar, A.; Osborne, J.; Pensieri, S.; Petersen, W.; Plueddemann, A. J.; Rehder, G.; Roden, N. P.; Rutgersson, A.; Sallée, J.-B.; Sanders, R.; Sarpe, D.; Schirnik, C.; Schlitzer, R.; Send, U.; Skjelvan, I.; Sutherland, S., C.; T’Jampens, M.; Tamsitt, V.; Telszewski, M.; Theetaert, H.; Tilbrook, B.; Trull, T.; Tsanwani, M.; Van de Velde, S.; Van Heuven, S. M. A. C.; Veccia, M. H.; Voynova, Y. G.; Weller, R. A.; Williams, N. L.: Surface Ocean CO2 Atlas Database Version 2025 (SOCATv2025) (NCEI Accession 0304549). NOAA National Centers for Environmental Information. Dataset.  </t>
     </r>
     <r>
@@ -125,7 +129,14 @@
         <rFont val="Arial, Helvetica, sans-serif"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>fv35, 2025.</t>
+      <t>fv35</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial, Helvetica, sans-serif"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>, 2025.</t>
     </r>
   </si>
   <si>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -563,7 +563,7 @@
     <t>Watson, A. J., Schuster, U., Shutler, J. D., Holding, T., Ashton, I. G., Landschützer, P., Woolf, D., and Goddijn-Murphy, L.: Revised estimates of ocean-atmosphere CO2 flux are consistent with ocean carbon inventory, Nature Communications, 11(1), 1–6, https://doi.org/10.1038/s41467-020-18203-3, 2020.</t>
   </si>
   <si>
-    <t>https://ibb.co/N2VFG4rP</t>
+    <t>https://i.ibb.co/tpmH1dzt/Watson.png</t>
   </si>
   <si>
     <t>https://doi.org/10.25921/2dp5-xm29</t>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="V16" s="17">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="W16" s="18"/>
     </row>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="E17" s="37" t="str">
         <f>HLOOKUP(E$1,google_form!$1:$160,$A17,FALSE)</f>
-        <v>https://ibb.co/N2VFG4rP</v>
+        <v>https://i.ibb.co/tpmH1dzt/Watson.png</v>
       </c>
       <c r="F17" s="33" t="str">
         <f t="shared" ref="F17:G17" si="60">if(ISBLANK($C17), "", F$1)</f>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -2596,9 +2596,9 @@
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="V11" s="17" t="str">
+      <c r="V11" s="17">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.2</v>
       </c>
       <c r="W11" s="18"/>
     </row>
@@ -2893,9 +2893,9 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>#ERROR!</v>
       </c>
       <c r="W16" s="18"/>
     </row>
@@ -4152,9 +4152,9 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
-      <c r="U38" s="12">
+      <c r="U38" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>#ERROR!</v>
       </c>
       <c r="V38" s="12">
         <f t="shared" si="2"/>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -3111,9 +3111,9 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V18" s="19" t="str">
+      <c r="V18" s="19">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.09</v>
       </c>
       <c r="W18" s="20"/>
     </row>
@@ -3510,9 +3510,9 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="V25" s="13" t="str">
+      <c r="V25" s="13">
         <f t="shared" si="2"/>
-        <v>#ERROR!</v>
+        <v>0.11</v>
       </c>
       <c r="W25" s="13"/>
     </row>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="479">
   <si>
     <t>Timestamp</t>
   </si>
@@ -295,6 +295,9 @@
     <t xml:space="preserve">Jiang et al. (2021) synthesized two decades of discrete measurements of carbonate system variables, DO, and nutrient data from the North American continental shelves to generate the first version of Coastal Ocean Data Analysis Data Product in North America (CODAP-NA). The 2021 release encompasses 3,391 oceanographic profiles from 61 research cruises spanning the North American continental shelves from Alaska to Mexico in the west and from Canada to the Caribbean in the east. It includes 14 key variables, including temperature, salinity, DO, DIC, TA, pH, carbonate ion, fCO2, silicate, phosphate, nitrate. </t>
   </si>
   <si>
+    <t>Liqing.Jiang@noaa.gov</t>
+  </si>
+  <si>
     <t>ARIOS</t>
   </si>
   <si>
@@ -866,9 +869,6 @@
   </si>
   <si>
     <t xml:space="preserve">Monthly surface ocean pCO2 and air–sea CO2 fluxes on a 1° × 1° grid in both the open ocean and coastal seas from 1985–2019 were reconstructed by Chau et al., (2022). CMEMS-LSCE is short for Copernicus Marine Environment Monitoring Service - Laboratoire des Sciences du Climat et de l’Environnement. This product is generated from an ensemble-based reconstruction of pCO2 maps trained with gridded data from SOCATv2020 (Bakker et al., 2016). Sea-surface pCO2 values (converted from the original fCO2 values in SOCATv2020) were regressed against a set of predictors with non-linear functions, i.e., feed-forward neural network (FFNN) models. The predictors include: sea-surface height (SSH), SST, SSS, MLD, chlorophyll a (Chl-a), atmospheric CO2 mole fraction (xCO2), and geographical coordinates (longitudes and latitudes). </t>
-  </si>
-  <si>
-    <t>Liqing.Jiang@noaa.gov</t>
   </si>
   <si>
     <t>CMEMS-LSCEv2</t>
@@ -2499,7 +2499,9 @@
       <c r="O7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P7" s="12"/>
+      <c r="P7" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
@@ -2521,43 +2523,43 @@
         <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U8" s="16">
         <f t="shared" si="1"/>
@@ -2576,40 +2578,40 @@
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>79</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -2633,22 +2635,22 @@
         <v>22</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I10" s="14"/>
       <c r="K10" s="7" t="s">
@@ -2661,10 +2663,10 @@
         <v>52</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -2688,43 +2690,43 @@
         <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" si="1"/>
@@ -2741,25 +2743,25 @@
         <v>45962.74445758102</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I12" s="14"/>
       <c r="K12" s="7" t="s">
@@ -2772,10 +2774,10 @@
         <v>31</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
@@ -2796,31 +2798,31 @@
         <v>45965.726672199075</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>41</v>
@@ -2829,13 +2831,13 @@
         <v>52</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
@@ -2855,31 +2857,31 @@
         <v>45965.74423630787</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>41</v>
@@ -2888,13 +2890,13 @@
         <v>31</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
@@ -2914,46 +2916,46 @@
         <v>45961.95201907407</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
@@ -2973,46 +2975,46 @@
         <v>45961.909583877314</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
@@ -3033,46 +3035,46 @@
         <v>45961.91270586806</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -3093,46 +3095,46 @@
         <v>45965.55325196759</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -3152,43 +3154,43 @@
         <v>45962.680467199076</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -3209,43 +3211,43 @@
         <v>45962.690968483796</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -3266,43 +3268,43 @@
         <v>45962.75772594908</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -3323,43 +3325,43 @@
         <v>45962.76769828703</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -3380,31 +3382,31 @@
         <v>45964.856173356486</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>29</v>
@@ -3413,10 +3415,10 @@
         <v>41</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -3437,43 +3439,43 @@
         <v>45964.86003099537</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -3494,43 +3496,43 @@
         <v>45964.89335268519</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -3551,46 +3553,46 @@
         <v>45965.777433888885</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
@@ -3610,7 +3612,7 @@
         <v>45965.78585724537</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>273</v>
@@ -3631,10 +3633,10 @@
         <v>278</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>29</v>
@@ -3649,7 +3651,7 @@
         <v>281</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
@@ -3669,7 +3671,7 @@
         <v>45966.15542136574</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>282</v>
@@ -3690,10 +3692,10 @@
         <v>286</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>40</v>
@@ -3725,7 +3727,7 @@
         <v>45966.24933918982</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>291</v>
@@ -3746,10 +3748,10 @@
         <v>295</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>40</v>
@@ -3782,7 +3784,7 @@
         <v>45966.45460355324</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>300</v>
@@ -3803,13 +3805,13 @@
         <v>305</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>306</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>307</v>
@@ -3838,7 +3840,7 @@
         <v>45968.15562892361</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>311</v>
@@ -3859,10 +3861,10 @@
         <v>316</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>40</v>
@@ -3893,7 +3895,7 @@
         <v>45968.80309158565</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>321</v>
@@ -3914,10 +3916,10 @@
         <v>326</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>50</v>
@@ -3932,7 +3934,7 @@
         <v>329</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U32" s="16">
         <f t="shared" si="1"/>
@@ -3969,7 +3971,7 @@
         <v>336</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>337</v>
@@ -3987,7 +3989,7 @@
         <v>340</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
@@ -4028,7 +4030,7 @@
         <v>346</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>337</v>
@@ -4085,7 +4087,7 @@
         <v>355</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>337</v>
@@ -4142,7 +4144,7 @@
         <v>364</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>337</v>
@@ -4199,7 +4201,7 @@
         <v>373</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>337</v>
@@ -4256,13 +4258,13 @@
         <v>382</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>374</v>
@@ -4315,13 +4317,13 @@
         <v>390</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>391</v>
@@ -4374,10 +4376,10 @@
         <v>399</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>50</v>
@@ -4430,10 +4432,10 @@
         <v>408</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>50</v>
@@ -4448,7 +4450,7 @@
         <v>410</v>
       </c>
       <c r="P